--- a/FRS_tabs.xlsx
+++ b/FRS_tabs.xlsx
@@ -9,19 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8620" yWindow="3460" windowWidth="20180" windowHeight="12920" activeTab="4"/>
+    <workbookView xWindow="3840" yWindow="1280" windowWidth="20180" windowHeight="12920" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="FRS - All" sheetId="2" r:id="rId1"/>
     <sheet name="FRS - by Education" sheetId="4" r:id="rId2"/>
     <sheet name="FRS - by Age" sheetId="5" r:id="rId3"/>
     <sheet name="Data" sheetId="1" r:id="rId4"/>
-    <sheet name="FGT v HbA1c" sheetId="12" r:id="rId5"/>
-    <sheet name="Cox Data" sheetId="11" r:id="rId6"/>
-    <sheet name="Cholesterol" sheetId="7" r:id="rId7"/>
-    <sheet name="Cholesterol - By Education" sheetId="8" r:id="rId8"/>
-    <sheet name="Diabetes" sheetId="9" r:id="rId9"/>
-    <sheet name="Risk Factor Tabs" sheetId="6" r:id="rId10"/>
+    <sheet name="Missing Data" sheetId="13" r:id="rId5"/>
+    <sheet name="FGT v HbA1c" sheetId="12" r:id="rId6"/>
+    <sheet name="Cox Data" sheetId="11" r:id="rId7"/>
+    <sheet name="Cholesterol" sheetId="7" r:id="rId8"/>
+    <sheet name="Cholesterol - By Education" sheetId="8" r:id="rId9"/>
+    <sheet name="Diabetes" sheetId="9" r:id="rId10"/>
+    <sheet name="Risk Factor Tabs" sheetId="6" r:id="rId11"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="81">
   <si>
     <t>FRS Average</t>
   </si>
@@ -265,14 +266,48 @@
   <si>
     <t>Diabetes (FPG)</t>
   </si>
+  <si>
+    <t>Age-Sex adjusted All (using FPG)</t>
+  </si>
+  <si>
+    <t>Age-Sex adjusted (using FPG)</t>
+  </si>
+  <si>
+    <t>By Age (using FPG)</t>
+  </si>
+  <si>
+    <t>Sex</t>
+  </si>
+  <si>
+    <t>TC</t>
+  </si>
+  <si>
+    <t>smoke_status</t>
+  </si>
+  <si>
+    <t>diabetic</t>
+  </si>
+  <si>
+    <t>Starting N (age &gt;45):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of NA's </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -417,86 +452,97 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -785,10 +831,7 @@
                   <c:v>16.53</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15.765</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>15.0</c:v>
+                  <c:v>8.265</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -810,8 +853,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1254034224"/>
-        <c:axId val="-1283899216"/>
+        <c:axId val="-1803875616"/>
+        <c:axId val="-1768357440"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -951,11 +994,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1283894192"/>
-        <c:axId val="-1283896512"/>
+        <c:axId val="-1803868912"/>
+        <c:axId val="-1803871232"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1254034224"/>
+        <c:axId val="-1803875616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -995,7 +1038,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1283899216"/>
+        <c:crossAx val="-1768357440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1003,7 +1046,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1283899216"/>
+        <c:axId val="-1768357440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="12.0"/>
@@ -1098,13 +1141,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1254034224"/>
+        <c:crossAx val="-1803875616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1283896512"/>
+        <c:axId val="-1803871232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.08"/>
@@ -1142,12 +1185,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1283894192"/>
+        <c:crossAx val="-1803868912"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-1283894192"/>
+        <c:axId val="-1803868912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1156,7 +1199,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1283896512"/>
+        <c:crossAx val="-1803871232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1452,7 +1495,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data!$A$19</c:f>
+              <c:f>Data!$A$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1520,7 +1563,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$E$19:$T$19</c:f>
+              <c:f>Data!$E$20:$T$20</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1575,7 +1618,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data!$A$20</c:f>
+              <c:f>Data!$A$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1645,7 +1688,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$E$20:$T$20</c:f>
+              <c:f>Data!$E$22:$T$22</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1700,7 +1743,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data!$A$21</c:f>
+              <c:f>Data!$A$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1768,7 +1811,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$E$21:$T$21</c:f>
+              <c:f>Data!$E$24:$T$24</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1826,7 +1869,6 @@
               <a:solidFill>
                 <a:schemeClr val="accent5"/>
               </a:solidFill>
-              <a:prstDash val="sysDot"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1880,18 +1922,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$E$22:$T$22</c:f>
+              <c:f>Data!#REF!</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="2">
-                  <c:v>18.49119</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>17.650595</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>16.81</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1965,15 +2001,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$E$23:$T$23</c:f>
+              <c:f>Data!$E$26:$T$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="2">
-                  <c:v>16.45644</c:v>
+                  <c:v>18.49119</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15.86322</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>15.27</c:v>
@@ -2052,15 +2088,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$E$24:$T$24</c:f>
+              <c:f>Data!$E$27:$T$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="2">
-                  <c:v>15.43053</c:v>
+                  <c:v>16.45644</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15.505265</c:v>
+                  <c:v>15.86322</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>15.58</c:v>
@@ -2137,15 +2173,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$E$25:$T$25</c:f>
+              <c:f>Data!$E$28:$T$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="2">
-                  <c:v>14.98869</c:v>
+                  <c:v>15.43053</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.819345</c:v>
+                  <c:v>15.505265</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>12.65</c:v>
@@ -2169,11 +2205,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1257345120"/>
-        <c:axId val="-1287166400"/>
+        <c:axId val="-1803822768"/>
+        <c:axId val="-1803819504"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1257345120"/>
+        <c:axId val="-1803822768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2216,7 +2252,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1287166400"/>
+        <c:crossAx val="-1803819504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2224,7 +2260,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1287166400"/>
+        <c:axId val="-1803819504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="10.0"/>
@@ -2331,7 +2367,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1257345120"/>
+        <c:crossAx val="-1803822768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2580,7 +2616,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$E$33:$T$33</c:f>
+              <c:f>Data!$E$36:$T$36</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="16"/>
@@ -2706,7 +2742,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$E$34:$T$34</c:f>
+              <c:f>Data!$E$37:$T$37</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="16"/>
@@ -2832,7 +2868,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$E$35:$T$35</c:f>
+              <c:f>Data!$E$38:$T$38</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="16"/>
@@ -2958,7 +2994,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$E$36:$T$36</c:f>
+              <c:f>Data!$E$39:$T$39</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="16"/>
@@ -3070,7 +3106,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$E$37:$T$37</c:f>
+              <c:f>Data!$E$50:$T$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -3078,7 +3114,7 @@
                   <c:v>12.70543</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.977715</c:v>
+                  <c:v>16.472715</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>11.25</c:v>
@@ -3155,7 +3191,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$E$38:$T$38</c:f>
+              <c:f>Data!$E$51:$T$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -3163,7 +3199,7 @@
                   <c:v>16.99478</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.14239</c:v>
+                  <c:v>14.12239</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>15.29</c:v>
@@ -3242,7 +3278,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$E$39:$T$39</c:f>
+              <c:f>Data!$E$52:$T$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -3250,7 +3286,7 @@
                   <c:v>19.67835</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18.889175</c:v>
+                  <c:v>17.484175</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>18.1</c:v>
@@ -3327,7 +3363,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$E$40:$T$40</c:f>
+              <c:f>Data!$E$53:$T$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -3335,7 +3371,7 @@
                   <c:v>22.16356</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21.20178</c:v>
+                  <c:v>20.13178</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>20.24</c:v>
@@ -3360,11 +3396,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1283527008"/>
-        <c:axId val="-1283588496"/>
+        <c:axId val="-1803754576"/>
+        <c:axId val="-1803751312"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1283527008"/>
+        <c:axId val="-1803754576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3407,7 +3443,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1283588496"/>
+        <c:crossAx val="-1803751312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3415,7 +3451,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1283588496"/>
+        <c:axId val="-1803751312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3466,7 +3502,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1283527008"/>
+        <c:crossAx val="-1803754576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3824,8 +3860,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1284153504"/>
-        <c:axId val="-1284151184"/>
+        <c:axId val="-1803700400"/>
+        <c:axId val="-1803697648"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4019,11 +4055,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1284092608"/>
-        <c:axId val="-1257748608"/>
+        <c:axId val="-1803690128"/>
+        <c:axId val="-1803693888"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1284153504"/>
+        <c:axId val="-1803700400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4066,7 +4102,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1284151184"/>
+        <c:crossAx val="-1803697648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4074,7 +4110,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1284151184"/>
+        <c:axId val="-1803697648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="180.0"/>
@@ -4181,12 +4217,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1284153504"/>
+        <c:crossAx val="-1803700400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1257748608"/>
+        <c:axId val="-1803693888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4278,12 +4314,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1284092608"/>
+        <c:crossAx val="-1803690128"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-1284092608"/>
+        <c:axId val="-1803690128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4292,7 +4328,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1257748608"/>
+        <c:crossAx val="-1803693888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5103,11 +5139,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1257464336"/>
-        <c:axId val="-1257461504"/>
+        <c:axId val="-1803629600"/>
+        <c:axId val="-1803626336"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1257464336"/>
+        <c:axId val="-1803629600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5150,7 +5186,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1257461504"/>
+        <c:crossAx val="-1803626336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5158,7 +5194,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1257461504"/>
+        <c:axId val="-1803626336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="180.0"/>
@@ -5210,7 +5246,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1257464336"/>
+        <c:crossAx val="-1803629600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5544,11 +5580,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1284605280"/>
-        <c:axId val="-1284601936"/>
+        <c:axId val="-1803597520"/>
+        <c:axId val="-1803594768"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1284605280"/>
+        <c:axId val="-1803597520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5591,7 +5627,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1284601936"/>
+        <c:crossAx val="-1803594768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5599,7 +5635,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1284601936"/>
+        <c:axId val="-1803594768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5650,7 +5686,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1284605280"/>
+        <c:crossAx val="-1803597520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9020,7 +9056,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="103" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="83" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -9031,7 +9067,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="103" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="83" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -9048,7 +9084,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3814DCA5-E739-48F8-B0E6-5DAE3BD8D6DF}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3814DCA5-E739-48F8-B0E6-5DAE3BD8D6DF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9081,7 +9117,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F5CB41B8-13DC-4EAE-B2CA-47CBAE4DA728}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5CB41B8-13DC-4EAE-B2CA-47CBAE4DA728}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9114,7 +9150,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9718F15D-DDA3-4502-9814-C910CFD7923C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9718F15D-DDA3-4502-9814-C910CFD7923C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9147,7 +9183,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6799A617-2199-4FA0-9AAE-B022587C939D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6799A617-2199-4FA0-9AAE-B022587C939D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9174,13 +9210,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8680388" cy="6288350"/>
+    <xdr:ext cx="8691084" cy="6288795"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CE41EAA9-E7EF-4331-BAC6-50A2C67981F5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE41EAA9-E7EF-4331-BAC6-50A2C67981F5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9207,13 +9243,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8680388" cy="6288350"/>
+    <xdr:ext cx="8691084" cy="6288795"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7AFBC52-30D3-4075-9EC8-31B7671415DF}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7AFBC52-30D3-4075-9EC8-31B7671415DF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9533,13 +9569,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z40"/>
+  <dimension ref="A1:W53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomRight" activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9550,37 +9586,37 @@
     <col min="7" max="8" width="11.83203125" style="12" customWidth="1"/>
     <col min="9" max="9" width="8.83203125" style="12" customWidth="1"/>
     <col min="10" max="10" width="11.83203125" style="12" customWidth="1"/>
-    <col min="11" max="20" width="10.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="20" width="13.5" style="12" bestFit="1" customWidth="1"/>
     <col min="21" max="16384" width="9.33203125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B1" s="23" t="s">
         <v>54</v>
       </c>
       <c r="C1" s="23"/>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
       <c r="H1" s="24"/>
       <c r="J1" s="24"/>
-      <c r="K1" s="35" t="s">
+      <c r="K1" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -9632,7 +9668,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>11</v>
       </c>
@@ -9676,28 +9712,37 @@
         <v>14.21</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="29">
+      <c r="B4" s="28">
         <v>16.31512</v>
       </c>
       <c r="E4" s="12">
         <v>16.853660000000001</v>
       </c>
-      <c r="F4" s="29">
+      <c r="F4" s="28">
         <v>16.12679</v>
       </c>
       <c r="G4" s="12">
         <v>16.79411</v>
       </c>
-      <c r="H4" s="29">
+      <c r="H4" s="28">
         <v>15.96039</v>
       </c>
-      <c r="K4" s="2"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="28"/>
+      <c r="S4" s="28"/>
+      <c r="T4" s="28"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>12</v>
       </c>
@@ -9743,30 +9788,47 @@
         <v>13.87</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A6" s="14"/>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A6" s="34" t="s">
+        <v>72</v>
+      </c>
       <c r="G6" s="12">
         <f>D5</f>
         <v>16.53</v>
       </c>
       <c r="I6" s="12">
         <f>(G6+K6)/2</f>
-        <v>15.765000000000001</v>
-      </c>
-      <c r="K6" s="12">
-        <f>K5</f>
-        <v>15</v>
-      </c>
+        <v>8.2650000000000006</v>
+      </c>
+      <c r="K6" s="39"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="39"/>
+      <c r="O6" s="39"/>
+      <c r="P6" s="39"/>
+      <c r="Q6" s="39"/>
+      <c r="R6" s="39"/>
+      <c r="S6" s="39"/>
+      <c r="T6" s="39"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="9"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="9"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
         <v>13</v>
       </c>
+      <c r="U8" s="9"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="9"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>14</v>
       </c>
@@ -9809,28 +9871,44 @@
       <c r="T9" s="12">
         <v>15.89</v>
       </c>
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A10" s="31" t="s">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A10" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="29">
+      <c r="B10" s="28">
         <v>17.002870000000001</v>
       </c>
-      <c r="E10" s="28">
+      <c r="E10" s="27">
         <v>18.355930000000001</v>
       </c>
-      <c r="F10" s="30">
+      <c r="F10" s="29">
         <v>17.5503</v>
       </c>
-      <c r="G10" s="28">
+      <c r="G10" s="27">
         <v>18.556550000000001</v>
       </c>
-      <c r="H10" s="30">
+      <c r="H10" s="29">
         <v>17.571290000000001</v>
       </c>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="28"/>
+      <c r="Q10" s="28"/>
+      <c r="R10" s="28"/>
+      <c r="S10" s="28"/>
+      <c r="T10" s="28"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="9"/>
+      <c r="W10" s="9"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>15</v>
       </c>
@@ -9873,28 +9951,44 @@
       <c r="T11" s="12">
         <v>14.89</v>
       </c>
+      <c r="U11" s="9"/>
+      <c r="V11" s="9"/>
+      <c r="W11" s="9"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A12" s="31" t="s">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A12" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="B12" s="29">
+      <c r="B12" s="28">
         <v>15.82869</v>
       </c>
-      <c r="E12" s="28">
+      <c r="E12" s="27">
         <v>16.458960000000001</v>
       </c>
-      <c r="F12" s="30">
+      <c r="F12" s="29">
         <v>15.94074</v>
       </c>
       <c r="G12" s="12">
         <v>16.621929999999999</v>
       </c>
-      <c r="H12" s="29">
+      <c r="H12" s="28">
         <v>15.975199999999999</v>
       </c>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="28"/>
+      <c r="Q12" s="28"/>
+      <c r="R12" s="28"/>
+      <c r="S12" s="28"/>
+      <c r="T12" s="28"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="9"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
         <v>16</v>
       </c>
@@ -9937,28 +10031,43 @@
       <c r="T13" s="12">
         <v>13.86</v>
       </c>
+      <c r="U13" s="9"/>
+      <c r="V13" s="9"/>
+      <c r="W13" s="9"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A14" s="31" t="s">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A14" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="B14" s="29">
+      <c r="B14" s="28">
         <v>15.66764</v>
       </c>
       <c r="E14" s="12">
         <v>16.04617</v>
       </c>
-      <c r="F14" s="29">
+      <c r="F14" s="28">
         <v>15.25248</v>
       </c>
       <c r="G14" s="12">
         <v>15.66197</v>
       </c>
-      <c r="H14" s="29">
+      <c r="H14" s="28">
         <v>14.952500000000001</v>
       </c>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="28"/>
+      <c r="Q14" s="28"/>
+      <c r="R14" s="28"/>
+      <c r="S14" s="28"/>
+      <c r="T14" s="28"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="9"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
         <v>17</v>
       </c>
@@ -10001,39 +10110,47 @@
       <c r="T15" s="12">
         <v>13.33</v>
       </c>
-      <c r="X15" s="36"/>
-      <c r="Y15" s="35"/>
-      <c r="Z15" s="35"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="9"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A16" s="31" t="s">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A16" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="B16" s="29">
+      <c r="B16" s="28">
         <v>15.76737</v>
       </c>
       <c r="E16" s="12">
         <v>15.28253</v>
       </c>
-      <c r="F16" s="29">
+      <c r="F16" s="28">
         <v>14.735849999999999</v>
       </c>
       <c r="G16" s="12">
         <v>15.22986</v>
       </c>
-      <c r="H16" s="29">
+      <c r="H16" s="28">
         <v>14.55852</v>
       </c>
-      <c r="X16" s="27"/>
-      <c r="Y16" s="24"/>
-      <c r="Z16" s="24"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="28"/>
+      <c r="P16" s="28"/>
+      <c r="Q16" s="28"/>
+      <c r="R16" s="28"/>
+      <c r="S16" s="28"/>
+      <c r="T16" s="28"/>
+      <c r="U16" s="9"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A17" s="32" t="s">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A17" s="31" t="s">
         <v>26</v>
       </c>
+      <c r="U17" s="9"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
         <v>14</v>
       </c>
@@ -10080,654 +10197,1116 @@
       <c r="T18" s="12">
         <v>15.46</v>
       </c>
+      <c r="U18" s="9"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A19" s="14" t="s">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A19" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="28"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="39"/>
+      <c r="O19" s="39"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="39"/>
+      <c r="R19" s="39"/>
+      <c r="S19" s="39"/>
+      <c r="T19" s="39"/>
+      <c r="U19" s="9"/>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A20" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D20" s="12">
         <f>D11</f>
         <v>16.63</v>
       </c>
-      <c r="E19" s="18">
+      <c r="E20" s="18">
         <v>16.101220000000001</v>
-      </c>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18">
-        <v>16.456440000000001</v>
-      </c>
-      <c r="H19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="12">
-        <f t="shared" ref="K19" si="0">K11</f>
-        <v>15.27</v>
-      </c>
-      <c r="L19" s="12">
-        <v>15.42</v>
-      </c>
-      <c r="M19" s="12">
-        <v>15.48</v>
-      </c>
-      <c r="N19" s="12">
-        <v>14.28</v>
-      </c>
-      <c r="O19" s="12">
-        <v>14.5</v>
-      </c>
-      <c r="P19" s="12">
-        <v>14.03</v>
-      </c>
-      <c r="Q19" s="12">
-        <v>14.33</v>
-      </c>
-      <c r="R19" s="12">
-        <v>14.25</v>
-      </c>
-      <c r="S19" s="12">
-        <v>14.48</v>
-      </c>
-      <c r="T19" s="12">
-        <v>14.66</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A20" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="12">
-        <f>D13</f>
-        <v>15.89</v>
-      </c>
-      <c r="E20" s="18">
-        <v>15.74198</v>
       </c>
       <c r="F20" s="18"/>
       <c r="G20" s="18">
-        <v>15.430529999999999</v>
+        <v>16.456440000000001</v>
       </c>
       <c r="H20" s="18"/>
       <c r="J20" s="18"/>
       <c r="K20" s="12">
+        <f>K11</f>
+        <v>15.27</v>
+      </c>
+      <c r="L20" s="12">
+        <v>15.42</v>
+      </c>
+      <c r="M20" s="12">
+        <v>15.48</v>
+      </c>
+      <c r="N20" s="12">
+        <v>14.28</v>
+      </c>
+      <c r="O20" s="12">
+        <v>14.5</v>
+      </c>
+      <c r="P20" s="12">
+        <v>14.03</v>
+      </c>
+      <c r="Q20" s="12">
+        <v>14.33</v>
+      </c>
+      <c r="R20" s="12">
+        <v>14.25</v>
+      </c>
+      <c r="S20" s="12">
+        <v>14.48</v>
+      </c>
+      <c r="T20" s="12">
+        <v>14.66</v>
+      </c>
+      <c r="U20" s="9"/>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A21" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="28"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="39"/>
+      <c r="N21" s="39"/>
+      <c r="O21" s="39"/>
+      <c r="P21" s="39"/>
+      <c r="Q21" s="39"/>
+      <c r="R21" s="39"/>
+      <c r="S21" s="39"/>
+      <c r="T21" s="39"/>
+      <c r="U21" s="9"/>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A22" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="12">
+        <f>D13</f>
+        <v>15.89</v>
+      </c>
+      <c r="E22" s="18">
+        <v>15.74198</v>
+      </c>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18">
+        <v>15.430529999999999</v>
+      </c>
+      <c r="H22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="12">
         <v>15.58</v>
       </c>
-      <c r="L20" s="12">
+      <c r="L22" s="12">
         <v>13.65</v>
       </c>
-      <c r="M20" s="12">
+      <c r="M22" s="12">
         <v>14.13</v>
       </c>
-      <c r="N20" s="12">
+      <c r="N22" s="12">
         <v>13.43</v>
       </c>
-      <c r="O20" s="12">
+      <c r="O22" s="12">
         <v>13.74</v>
       </c>
-      <c r="P20" s="12">
+      <c r="P22" s="12">
         <v>13.79</v>
       </c>
-      <c r="Q20" s="12">
+      <c r="Q22" s="12">
         <v>14.02</v>
       </c>
-      <c r="R20" s="12">
+      <c r="R22" s="12">
         <v>13.65</v>
       </c>
-      <c r="S20" s="12">
+      <c r="S22" s="12">
         <v>13.95</v>
       </c>
-      <c r="T20" s="12">
+      <c r="T22" s="12">
         <v>13.49</v>
       </c>
+      <c r="U22" s="9"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A21" s="14" t="s">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A23" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="28"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="39"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="39"/>
+      <c r="N23" s="39"/>
+      <c r="O23" s="39"/>
+      <c r="P23" s="39"/>
+      <c r="Q23" s="39"/>
+      <c r="R23" s="39"/>
+      <c r="S23" s="39"/>
+      <c r="T23" s="39"/>
+      <c r="U23" s="9"/>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A24" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D24" s="12">
         <f>D15</f>
         <v>15.38</v>
       </c>
-      <c r="E21" s="18">
+      <c r="E24" s="18">
         <v>14.957509999999999</v>
       </c>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18">
+      <c r="F24" s="18"/>
+      <c r="G24" s="18">
         <v>14.98869</v>
       </c>
-      <c r="H21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="12">
+      <c r="H24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="22">
         <v>12.65</v>
       </c>
-      <c r="L21" s="12">
+      <c r="L24" s="22">
         <v>13.3</v>
       </c>
-      <c r="M21" s="12">
+      <c r="M24" s="22">
         <v>13.28</v>
       </c>
-      <c r="N21" s="12">
+      <c r="N24" s="22">
         <v>13.31</v>
       </c>
-      <c r="O21" s="12">
+      <c r="O24" s="22">
         <v>12.06</v>
       </c>
-      <c r="P21" s="12">
+      <c r="P24" s="22">
         <v>11.79</v>
       </c>
-      <c r="Q21" s="12">
+      <c r="Q24" s="22">
         <v>12.44</v>
       </c>
-      <c r="R21" s="12">
+      <c r="R24" s="22">
         <v>12.25</v>
       </c>
-      <c r="S21" s="12">
+      <c r="S24" s="22">
         <v>12.62</v>
       </c>
-      <c r="T21" s="12">
+      <c r="T24" s="22">
         <v>12.95</v>
       </c>
+      <c r="U24" s="9"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A22" s="14"/>
-      <c r="G22" s="12">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A25" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="43"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="39"/>
+      <c r="O25" s="39"/>
+      <c r="P25" s="39"/>
+      <c r="Q25" s="39"/>
+      <c r="R25" s="39"/>
+      <c r="S25" s="39"/>
+      <c r="T25" s="39"/>
+      <c r="U25" s="9"/>
+      <c r="V25" s="9"/>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A26" s="14"/>
+      <c r="G26" s="12">
         <f>G18</f>
         <v>18.49119</v>
       </c>
-      <c r="I22" s="12">
-        <f>(G22+K22)/2</f>
-        <v>17.650594999999999</v>
-      </c>
-      <c r="K22" s="12">
-        <f>K18</f>
-        <v>16.809999999999999</v>
+      <c r="I26" s="12" t="e">
+        <f>(G26+#REF!)/2</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K26" s="12">
+        <f>K20</f>
+        <v>15.27</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A23" s="14"/>
-      <c r="G23" s="12">
-        <f t="shared" ref="G23:G25" si="1">G19</f>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A27" s="14"/>
+      <c r="G27" s="12">
+        <f>G20</f>
         <v>16.456440000000001</v>
       </c>
-      <c r="I23" s="12">
-        <f>(G23+K23)/2</f>
+      <c r="I27" s="12">
+        <f>(G27+K26)/2</f>
         <v>15.86322</v>
       </c>
-      <c r="K23" s="12">
-        <f t="shared" ref="K23:K25" si="2">K19</f>
-        <v>15.27</v>
+      <c r="K27" s="12">
+        <f>K22</f>
+        <v>15.58</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A24" s="14"/>
-      <c r="G24" s="12">
-        <f t="shared" si="1"/>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A28" s="14"/>
+      <c r="G28" s="12">
+        <f>G22</f>
         <v>15.430529999999999</v>
       </c>
-      <c r="I24" s="12">
-        <f>(G24+K24)/2</f>
+      <c r="I28" s="12">
+        <f>(G28+K27)/2</f>
         <v>15.505265</v>
       </c>
-      <c r="K24" s="12">
-        <f t="shared" si="2"/>
-        <v>15.58</v>
+      <c r="K28" s="12">
+        <f>K24</f>
+        <v>12.65</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A25" s="14"/>
-      <c r="G25" s="12">
-        <f t="shared" si="1"/>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A29" s="14"/>
+      <c r="G29" s="12">
+        <f>G24</f>
         <v>14.98869</v>
       </c>
-      <c r="I25" s="12">
-        <f>(G25+K25)/2</f>
+      <c r="I29" s="12">
+        <f>(G29+K28)/2</f>
         <v>13.819345</v>
       </c>
-      <c r="K25" s="12">
-        <f t="shared" si="2"/>
-        <v>12.65</v>
-      </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A26" s="14"/>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A30" s="16" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A27" s="16" t="s">
-        <v>18</v>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A31" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" s="12">
+        <v>12.66</v>
+      </c>
+      <c r="D31" s="12">
+        <v>12.66</v>
+      </c>
+      <c r="E31" s="12">
+        <v>12.41</v>
+      </c>
+      <c r="G31" s="12">
+        <v>12.7</v>
+      </c>
+      <c r="K31" s="12">
+        <v>11.2</v>
+      </c>
+      <c r="L31" s="12">
+        <v>10.98</v>
+      </c>
+      <c r="M31" s="12">
+        <v>11.35</v>
+      </c>
+      <c r="N31" s="12">
+        <v>10.55</v>
+      </c>
+      <c r="O31" s="12">
+        <v>10.72</v>
+      </c>
+      <c r="P31" s="12">
+        <v>10.27</v>
+      </c>
+      <c r="Q31" s="12">
+        <v>10.59</v>
+      </c>
+      <c r="R31" s="12">
+        <v>10.28</v>
+      </c>
+      <c r="S31" s="12">
+        <v>10.79</v>
+      </c>
+      <c r="T31" s="12">
+        <v>10.61</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A28" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B28" s="12">
-        <v>12.66</v>
-      </c>
-      <c r="D28" s="12">
-        <v>12.66</v>
-      </c>
-      <c r="E28" s="12">
-        <v>12.41</v>
-      </c>
-      <c r="G28" s="12">
-        <v>12.7</v>
-      </c>
-      <c r="K28" s="12">
-        <v>11.2</v>
-      </c>
-      <c r="L28" s="12">
-        <v>10.98</v>
-      </c>
-      <c r="M28" s="12">
-        <v>11.35</v>
-      </c>
-      <c r="N28" s="12">
-        <v>10.55</v>
-      </c>
-      <c r="O28" s="12">
-        <v>10.72</v>
-      </c>
-      <c r="P28" s="12">
-        <v>10.27</v>
-      </c>
-      <c r="Q28" s="12">
-        <v>10.59</v>
-      </c>
-      <c r="R28" s="12">
-        <v>10.28</v>
-      </c>
-      <c r="S28" s="12">
-        <v>10.79</v>
-      </c>
-      <c r="T28" s="12">
-        <v>10.61</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A29" s="14" t="s">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A32" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="12">
+      <c r="B32" s="12">
         <v>17.11</v>
       </c>
-      <c r="D29" s="12">
+      <c r="D32" s="12">
         <v>17.11</v>
       </c>
-      <c r="E29" s="12">
+      <c r="E32" s="12">
         <v>17.14</v>
       </c>
-      <c r="G29" s="12">
+      <c r="G32" s="12">
         <v>16.96</v>
       </c>
-      <c r="K29" s="12">
+      <c r="K32" s="12">
         <v>15.32</v>
       </c>
-      <c r="L29" s="12">
+      <c r="L32" s="12">
         <v>14.9</v>
       </c>
-      <c r="M29" s="12">
+      <c r="M32" s="12">
         <v>14.52</v>
       </c>
-      <c r="N29" s="12">
+      <c r="N32" s="12">
         <v>14.5</v>
       </c>
-      <c r="O29" s="12">
+      <c r="O32" s="12">
         <v>14.11</v>
       </c>
-      <c r="P29" s="12">
+      <c r="P32" s="12">
         <v>13.9</v>
       </c>
-      <c r="Q29" s="12">
+      <c r="Q32" s="12">
         <v>14.16</v>
       </c>
-      <c r="R29" s="12">
+      <c r="R32" s="12">
         <v>13.82</v>
       </c>
-      <c r="S29" s="12">
+      <c r="S32" s="12">
         <v>14.17</v>
       </c>
-      <c r="T29" s="12">
+      <c r="T32" s="12">
         <v>14.05</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A30" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B30" s="12">
-        <v>19.91</v>
-      </c>
-      <c r="D30" s="12">
-        <v>19.91</v>
-      </c>
-      <c r="E30" s="12">
-        <v>19.97</v>
-      </c>
-      <c r="G30" s="12">
-        <v>19.670000000000002</v>
-      </c>
-      <c r="K30" s="12">
-        <v>18.100000000000001</v>
-      </c>
-      <c r="L30" s="12">
-        <v>17.53</v>
-      </c>
-      <c r="M30" s="12">
-        <v>16.97</v>
-      </c>
-      <c r="N30" s="12">
-        <v>16.5</v>
-      </c>
-      <c r="O30" s="12">
-        <v>16.39</v>
-      </c>
-      <c r="P30" s="12">
-        <v>16.190000000000001</v>
-      </c>
-      <c r="Q30" s="12">
-        <v>16.09</v>
-      </c>
-      <c r="R30" s="12">
-        <v>16.100000000000001</v>
-      </c>
-      <c r="S30" s="12">
-        <v>16.02</v>
-      </c>
-      <c r="T30" s="12">
-        <v>16.43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A31" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B31" s="12">
-        <v>21.93</v>
-      </c>
-      <c r="D31" s="12">
-        <v>21.93</v>
-      </c>
-      <c r="E31" s="12">
-        <v>21.51</v>
-      </c>
-      <c r="G31" s="12">
-        <v>22.05</v>
-      </c>
-      <c r="K31" s="12">
-        <v>20.25</v>
-      </c>
-      <c r="L31" s="12">
-        <v>19.23</v>
-      </c>
-      <c r="M31" s="12">
-        <v>18.98</v>
-      </c>
-      <c r="N31" s="12">
-        <v>18.190000000000001</v>
-      </c>
-      <c r="O31" s="12">
-        <v>18.43</v>
-      </c>
-      <c r="P31" s="12">
-        <v>18.11</v>
-      </c>
-      <c r="Q31" s="12">
-        <v>18.48</v>
-      </c>
-      <c r="R31" s="12">
-        <v>17.899999999999999</v>
-      </c>
-      <c r="S31" s="12">
-        <v>18.12</v>
-      </c>
-      <c r="T31" s="12">
-        <v>18.7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A32" s="16" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E33" s="18">
-        <v>12.424250000000001</v>
-      </c>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18">
-        <v>12.70543</v>
-      </c>
-      <c r="H33" s="18"/>
-      <c r="J33" s="18"/>
+        <v>21</v>
+      </c>
+      <c r="B33" s="12">
+        <v>19.91</v>
+      </c>
+      <c r="D33" s="12">
+        <v>19.91</v>
+      </c>
+      <c r="E33" s="12">
+        <v>19.97</v>
+      </c>
+      <c r="G33" s="12">
+        <v>19.670000000000002</v>
+      </c>
       <c r="K33" s="12">
-        <v>11.25</v>
-      </c>
-      <c r="L33" s="18">
-        <v>10.94</v>
-      </c>
-      <c r="M33" s="18">
-        <v>11.318160000000001</v>
-      </c>
-      <c r="N33" s="18">
-        <v>10.539960000000001</v>
-      </c>
-      <c r="O33" s="18">
-        <v>10.694470000000001</v>
-      </c>
-      <c r="P33" s="18">
-        <v>10.268319999999999</v>
-      </c>
-      <c r="Q33" s="18">
-        <v>10.62804</v>
-      </c>
-      <c r="R33" s="18">
-        <v>10.31137</v>
-      </c>
-      <c r="S33" s="18">
-        <v>10.790929999999999</v>
-      </c>
-      <c r="T33" s="18">
-        <v>10.63754</v>
+        <v>18.100000000000001</v>
+      </c>
+      <c r="L33" s="12">
+        <v>17.53</v>
+      </c>
+      <c r="M33" s="12">
+        <v>16.97</v>
+      </c>
+      <c r="N33" s="12">
+        <v>16.5</v>
+      </c>
+      <c r="O33" s="12">
+        <v>16.39</v>
+      </c>
+      <c r="P33" s="12">
+        <v>16.190000000000001</v>
+      </c>
+      <c r="Q33" s="12">
+        <v>16.09</v>
+      </c>
+      <c r="R33" s="12">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="S33" s="12">
+        <v>16.02</v>
+      </c>
+      <c r="T33" s="12">
+        <v>16.43</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A34" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E34" s="18">
-        <v>17.172409999999999</v>
-      </c>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18">
-        <v>16.994779999999999</v>
-      </c>
-      <c r="H34" s="18"/>
-      <c r="J34" s="18"/>
+      <c r="A34" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" s="12">
+        <v>21.93</v>
+      </c>
+      <c r="D34" s="12">
+        <v>21.93</v>
+      </c>
+      <c r="E34" s="12">
+        <v>21.51</v>
+      </c>
+      <c r="G34" s="12">
+        <v>22.05</v>
+      </c>
       <c r="K34" s="12">
-        <v>15.29</v>
-      </c>
-      <c r="L34" s="18">
-        <v>14.893750000000001</v>
-      </c>
-      <c r="M34" s="18">
-        <v>14.557729999999999</v>
-      </c>
-      <c r="N34" s="18">
-        <v>14.503539999999999</v>
-      </c>
-      <c r="O34" s="18">
-        <v>14.145659999999999</v>
-      </c>
-      <c r="P34" s="18">
-        <v>13.90419</v>
-      </c>
-      <c r="Q34" s="18">
-        <v>14.12405</v>
-      </c>
-      <c r="R34" s="18">
-        <v>13.805199999999999</v>
-      </c>
-      <c r="S34" s="18">
-        <v>14.15784</v>
-      </c>
-      <c r="T34" s="18">
-        <v>14.05007</v>
+        <v>20.25</v>
+      </c>
+      <c r="L34" s="12">
+        <v>19.23</v>
+      </c>
+      <c r="M34" s="12">
+        <v>18.98</v>
+      </c>
+      <c r="N34" s="12">
+        <v>18.190000000000001</v>
+      </c>
+      <c r="O34" s="12">
+        <v>18.43</v>
+      </c>
+      <c r="P34" s="12">
+        <v>18.11</v>
+      </c>
+      <c r="Q34" s="12">
+        <v>18.48</v>
+      </c>
+      <c r="R34" s="12">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="S34" s="12">
+        <v>18.12</v>
+      </c>
+      <c r="T34" s="12">
+        <v>18.7</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A35" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E35" s="18">
-        <v>20.027909999999999</v>
-      </c>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18">
-        <v>19.678349999999998</v>
-      </c>
-      <c r="H35" s="18"/>
-      <c r="J35" s="18"/>
-      <c r="K35" s="12">
-        <v>18.100000000000001</v>
-      </c>
-      <c r="L35" s="18">
-        <v>17.530249999999999</v>
-      </c>
-      <c r="M35" s="18">
-        <v>16.97392</v>
-      </c>
-      <c r="N35" s="18">
-        <v>16.513439999999999</v>
-      </c>
-      <c r="O35" s="18">
-        <v>16.430779999999999</v>
-      </c>
-      <c r="P35" s="18">
-        <v>16.188140000000001</v>
-      </c>
-      <c r="Q35" s="18">
-        <v>16.082619999999999</v>
-      </c>
-      <c r="R35" s="18">
-        <v>16.132180000000002</v>
-      </c>
-      <c r="S35" s="18">
-        <v>16.044429999999998</v>
-      </c>
-      <c r="T35" s="18">
-        <v>16.440359999999998</v>
+      <c r="A35" s="16" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A36" s="21" t="s">
-        <v>22</v>
+      <c r="A36" s="14" t="s">
+        <v>19</v>
       </c>
       <c r="E36" s="18">
-        <v>21.590530000000001</v>
+        <v>12.424250000000001</v>
       </c>
       <c r="F36" s="18"/>
       <c r="G36" s="18">
-        <v>22.16356</v>
+        <v>12.70543</v>
       </c>
       <c r="H36" s="18"/>
-      <c r="J36" s="18"/>
       <c r="K36" s="12">
-        <v>20.239999999999998</v>
+        <v>11.25</v>
       </c>
       <c r="L36" s="18">
-        <v>19.233139999999999</v>
+        <v>10.94</v>
       </c>
       <c r="M36" s="18">
-        <v>18.981850000000001</v>
+        <v>11.318160000000001</v>
       </c>
       <c r="N36" s="18">
-        <v>18.19736</v>
+        <v>10.539960000000001</v>
       </c>
       <c r="O36" s="18">
-        <v>18.434570000000001</v>
+        <v>10.694470000000001</v>
       </c>
       <c r="P36" s="18">
-        <v>18.105</v>
+        <v>10.268319999999999</v>
       </c>
       <c r="Q36" s="18">
-        <v>18.491129999999998</v>
+        <v>10.62804</v>
       </c>
       <c r="R36" s="18">
-        <v>17.88139</v>
+        <v>10.31137</v>
       </c>
       <c r="S36" s="18">
-        <v>18.15222</v>
+        <v>10.790929999999999</v>
       </c>
       <c r="T36" s="18">
-        <v>18.70373</v>
+        <v>10.63754</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="G37" s="12">
-        <f>G33</f>
-        <v>12.70543</v>
-      </c>
-      <c r="I37" s="12">
-        <f>(G37+K37)/2</f>
-        <v>11.977715</v>
-      </c>
+      <c r="A37" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E37" s="18">
+        <v>17.172409999999999</v>
+      </c>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18">
+        <v>16.994779999999999</v>
+      </c>
+      <c r="H37" s="18"/>
+      <c r="J37" s="18"/>
       <c r="K37" s="12">
-        <f>K33</f>
-        <v>11.25</v>
+        <v>15.29</v>
+      </c>
+      <c r="L37" s="18">
+        <v>14.893750000000001</v>
+      </c>
+      <c r="M37" s="18">
+        <v>14.557729999999999</v>
+      </c>
+      <c r="N37" s="18">
+        <v>14.503539999999999</v>
+      </c>
+      <c r="O37" s="18">
+        <v>14.145659999999999</v>
+      </c>
+      <c r="P37" s="18">
+        <v>13.90419</v>
+      </c>
+      <c r="Q37" s="18">
+        <v>14.12405</v>
+      </c>
+      <c r="R37" s="18">
+        <v>13.805199999999999</v>
+      </c>
+      <c r="S37" s="18">
+        <v>14.15784</v>
+      </c>
+      <c r="T37" s="18">
+        <v>14.05007</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="G38" s="12">
-        <f t="shared" ref="G38:G40" si="3">G34</f>
-        <v>16.994779999999999</v>
-      </c>
-      <c r="I38" s="12">
-        <f>(G38+K38)/2</f>
-        <v>16.142389999999999</v>
-      </c>
+      <c r="A38" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E38" s="18">
+        <v>20.027909999999999</v>
+      </c>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18">
+        <v>19.678349999999998</v>
+      </c>
+      <c r="H38" s="18"/>
+      <c r="J38" s="18"/>
       <c r="K38" s="12">
-        <f t="shared" ref="K38:K40" si="4">K34</f>
-        <v>15.29</v>
+        <v>18.100000000000001</v>
+      </c>
+      <c r="L38" s="18">
+        <v>17.530249999999999</v>
+      </c>
+      <c r="M38" s="18">
+        <v>16.97392</v>
+      </c>
+      <c r="N38" s="18">
+        <v>16.513439999999999</v>
+      </c>
+      <c r="O38" s="18">
+        <v>16.430779999999999</v>
+      </c>
+      <c r="P38" s="18">
+        <v>16.188140000000001</v>
+      </c>
+      <c r="Q38" s="18">
+        <v>16.082619999999999</v>
+      </c>
+      <c r="R38" s="18">
+        <v>16.132180000000002</v>
+      </c>
+      <c r="S38" s="18">
+        <v>16.044429999999998</v>
+      </c>
+      <c r="T38" s="18">
+        <v>16.440359999999998</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="G39" s="12">
-        <f t="shared" si="3"/>
-        <v>19.678349999999998</v>
-      </c>
-      <c r="I39" s="12">
-        <f>(G39+K39)/2</f>
-        <v>18.889175000000002</v>
-      </c>
+      <c r="A39" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E39" s="18">
+        <v>21.590530000000001</v>
+      </c>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18">
+        <v>22.16356</v>
+      </c>
+      <c r="H39" s="18"/>
+      <c r="J39" s="18"/>
       <c r="K39" s="12">
-        <f t="shared" si="4"/>
-        <v>18.100000000000001</v>
+        <v>20.239999999999998</v>
+      </c>
+      <c r="L39" s="18">
+        <v>19.233139999999999</v>
+      </c>
+      <c r="M39" s="18">
+        <v>18.981850000000001</v>
+      </c>
+      <c r="N39" s="18">
+        <v>18.19736</v>
+      </c>
+      <c r="O39" s="18">
+        <v>18.434570000000001</v>
+      </c>
+      <c r="P39" s="18">
+        <v>18.105</v>
+      </c>
+      <c r="Q39" s="18">
+        <v>18.491129999999998</v>
+      </c>
+      <c r="R39" s="18">
+        <v>17.88139</v>
+      </c>
+      <c r="S39" s="18">
+        <v>18.15222</v>
+      </c>
+      <c r="T39" s="18">
+        <v>18.70373</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="G40" s="12">
-        <f t="shared" si="3"/>
+      <c r="A40" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="J40" s="18"/>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A41" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B41" s="12">
+        <v>12.66</v>
+      </c>
+      <c r="D41" s="12">
+        <v>12.66</v>
+      </c>
+      <c r="E41" s="12">
+        <v>12.41</v>
+      </c>
+      <c r="G41" s="12">
+        <v>12.7</v>
+      </c>
+      <c r="K41" s="12">
+        <v>11.2</v>
+      </c>
+      <c r="L41" s="12">
+        <v>10.98</v>
+      </c>
+      <c r="M41" s="12">
+        <v>11.35</v>
+      </c>
+      <c r="N41" s="12">
+        <v>10.55</v>
+      </c>
+      <c r="O41" s="12">
+        <v>10.72</v>
+      </c>
+      <c r="P41" s="12">
+        <v>10.27</v>
+      </c>
+      <c r="Q41" s="12">
+        <v>10.59</v>
+      </c>
+      <c r="R41" s="12">
+        <v>10.28</v>
+      </c>
+      <c r="S41" s="12">
+        <v>10.79</v>
+      </c>
+      <c r="T41" s="12">
+        <v>10.61</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A42" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B42" s="12">
+        <v>17.11</v>
+      </c>
+      <c r="D42" s="12">
+        <v>17.11</v>
+      </c>
+      <c r="E42" s="12">
+        <v>17.14</v>
+      </c>
+      <c r="G42" s="12">
+        <v>16.96</v>
+      </c>
+      <c r="K42" s="12">
+        <v>15.32</v>
+      </c>
+      <c r="L42" s="12">
+        <v>14.9</v>
+      </c>
+      <c r="M42" s="12">
+        <v>14.52</v>
+      </c>
+      <c r="N42" s="12">
+        <v>14.5</v>
+      </c>
+      <c r="O42" s="12">
+        <v>14.11</v>
+      </c>
+      <c r="P42" s="12">
+        <v>13.9</v>
+      </c>
+      <c r="Q42" s="12">
+        <v>14.16</v>
+      </c>
+      <c r="R42" s="12">
+        <v>13.82</v>
+      </c>
+      <c r="S42" s="12">
+        <v>14.17</v>
+      </c>
+      <c r="T42" s="12">
+        <v>14.05</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A43" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B43" s="12">
+        <v>19.91</v>
+      </c>
+      <c r="D43" s="12">
+        <v>19.91</v>
+      </c>
+      <c r="E43" s="12">
+        <v>19.97</v>
+      </c>
+      <c r="G43" s="12">
+        <v>19.670000000000002</v>
+      </c>
+      <c r="K43" s="12">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="L43" s="12">
+        <v>17.53</v>
+      </c>
+      <c r="M43" s="12">
+        <v>16.97</v>
+      </c>
+      <c r="N43" s="12">
+        <v>16.5</v>
+      </c>
+      <c r="O43" s="12">
+        <v>16.39</v>
+      </c>
+      <c r="P43" s="12">
+        <v>16.190000000000001</v>
+      </c>
+      <c r="Q43" s="12">
+        <v>16.09</v>
+      </c>
+      <c r="R43" s="12">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="S43" s="12">
+        <v>16.02</v>
+      </c>
+      <c r="T43" s="12">
+        <v>16.43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A44" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B44" s="12">
+        <v>21.93</v>
+      </c>
+      <c r="D44" s="12">
+        <v>21.93</v>
+      </c>
+      <c r="E44" s="12">
+        <v>21.51</v>
+      </c>
+      <c r="G44" s="12">
+        <v>22.05</v>
+      </c>
+      <c r="K44" s="12">
+        <v>20.25</v>
+      </c>
+      <c r="L44" s="12">
+        <v>19.23</v>
+      </c>
+      <c r="M44" s="12">
+        <v>18.98</v>
+      </c>
+      <c r="N44" s="12">
+        <v>18.190000000000001</v>
+      </c>
+      <c r="O44" s="12">
+        <v>18.43</v>
+      </c>
+      <c r="P44" s="12">
+        <v>18.11</v>
+      </c>
+      <c r="Q44" s="12">
+        <v>18.48</v>
+      </c>
+      <c r="R44" s="12">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="S44" s="12">
+        <v>18.12</v>
+      </c>
+      <c r="T44" s="12">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A45" s="35" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A46" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E46" s="18">
+        <v>12.424250000000001</v>
+      </c>
+      <c r="F46" s="18"/>
+      <c r="G46" s="18">
+        <v>12.70543</v>
+      </c>
+      <c r="H46" s="18"/>
+      <c r="K46" s="12">
+        <v>11.25</v>
+      </c>
+      <c r="L46" s="18">
+        <v>10.94</v>
+      </c>
+      <c r="M46" s="18">
+        <v>11.318160000000001</v>
+      </c>
+      <c r="N46" s="18">
+        <v>10.539960000000001</v>
+      </c>
+      <c r="O46" s="18">
+        <v>10.694470000000001</v>
+      </c>
+      <c r="P46" s="18">
+        <v>10.268319999999999</v>
+      </c>
+      <c r="Q46" s="18">
+        <v>10.62804</v>
+      </c>
+      <c r="R46" s="18">
+        <v>10.31137</v>
+      </c>
+      <c r="S46" s="18">
+        <v>10.790929999999999</v>
+      </c>
+      <c r="T46" s="18">
+        <v>10.63754</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A47" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E47" s="18">
+        <v>17.172409999999999</v>
+      </c>
+      <c r="F47" s="18"/>
+      <c r="G47" s="18">
+        <v>16.994779999999999</v>
+      </c>
+      <c r="H47" s="18"/>
+      <c r="J47" s="18"/>
+      <c r="K47" s="12">
+        <v>15.29</v>
+      </c>
+      <c r="L47" s="18">
+        <v>14.893750000000001</v>
+      </c>
+      <c r="M47" s="18">
+        <v>14.557729999999999</v>
+      </c>
+      <c r="N47" s="18">
+        <v>14.503539999999999</v>
+      </c>
+      <c r="O47" s="18">
+        <v>14.145659999999999</v>
+      </c>
+      <c r="P47" s="18">
+        <v>13.90419</v>
+      </c>
+      <c r="Q47" s="18">
+        <v>14.12405</v>
+      </c>
+      <c r="R47" s="18">
+        <v>13.805199999999999</v>
+      </c>
+      <c r="S47" s="18">
+        <v>14.15784</v>
+      </c>
+      <c r="T47" s="18">
+        <v>14.05007</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A48" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E48" s="18">
+        <v>20.027909999999999</v>
+      </c>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18">
+        <v>19.678349999999998</v>
+      </c>
+      <c r="H48" s="18"/>
+      <c r="J48" s="18"/>
+      <c r="K48" s="12">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="L48" s="18">
+        <v>17.530249999999999</v>
+      </c>
+      <c r="M48" s="18">
+        <v>16.97392</v>
+      </c>
+      <c r="N48" s="18">
+        <v>16.513439999999999</v>
+      </c>
+      <c r="O48" s="18">
+        <v>16.430779999999999</v>
+      </c>
+      <c r="P48" s="18">
+        <v>16.188140000000001</v>
+      </c>
+      <c r="Q48" s="18">
+        <v>16.082619999999999</v>
+      </c>
+      <c r="R48" s="18">
+        <v>16.132180000000002</v>
+      </c>
+      <c r="S48" s="18">
+        <v>16.044429999999998</v>
+      </c>
+      <c r="T48" s="18">
+        <v>16.440359999999998</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A49" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E49" s="18">
+        <v>21.590530000000001</v>
+      </c>
+      <c r="F49" s="18"/>
+      <c r="G49" s="18">
         <v>22.16356</v>
       </c>
-      <c r="I40" s="12">
-        <f>(G40+K40)/2</f>
-        <v>21.201779999999999</v>
-      </c>
-      <c r="K40" s="12">
-        <f t="shared" si="4"/>
+      <c r="H49" s="18"/>
+      <c r="J49" s="18"/>
+      <c r="K49" s="12">
         <v>20.239999999999998</v>
       </c>
-      <c r="M40" s="22"/>
-      <c r="N40" s="22"/>
-      <c r="O40" s="22"/>
-      <c r="P40" s="22"/>
+      <c r="L49" s="18">
+        <v>19.233139999999999</v>
+      </c>
+      <c r="M49" s="18">
+        <v>18.981850000000001</v>
+      </c>
+      <c r="N49" s="18">
+        <v>18.19736</v>
+      </c>
+      <c r="O49" s="18">
+        <v>18.434570000000001</v>
+      </c>
+      <c r="P49" s="18">
+        <v>18.105</v>
+      </c>
+      <c r="Q49" s="18">
+        <v>18.491129999999998</v>
+      </c>
+      <c r="R49" s="18">
+        <v>17.88139</v>
+      </c>
+      <c r="S49" s="18">
+        <v>18.15222</v>
+      </c>
+      <c r="T49" s="18">
+        <v>18.70373</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="G50" s="12">
+        <f>G36</f>
+        <v>12.70543</v>
+      </c>
+      <c r="I50" s="12">
+        <f>(G50+K49)/2</f>
+        <v>16.472715000000001</v>
+      </c>
+      <c r="J50" s="18"/>
+      <c r="K50" s="12">
+        <f>K36</f>
+        <v>11.25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="G51" s="12">
+        <f t="shared" ref="G51:G54" si="0">G37</f>
+        <v>16.994779999999999</v>
+      </c>
+      <c r="I51" s="12">
+        <f>(G51+K50)/2</f>
+        <v>14.122389999999999</v>
+      </c>
+      <c r="K51" s="12">
+        <f t="shared" ref="K51:K53" si="1">K37</f>
+        <v>15.29</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="G52" s="12">
+        <f t="shared" si="0"/>
+        <v>19.678349999999998</v>
+      </c>
+      <c r="I52" s="12">
+        <f>(G52+K51)/2</f>
+        <v>17.484175</v>
+      </c>
+      <c r="K52" s="12">
+        <f t="shared" si="1"/>
+        <v>18.100000000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="G53" s="12">
+        <f t="shared" si="0"/>
+        <v>22.16356</v>
+      </c>
+      <c r="I53" s="12">
+        <f>(G53+K52)/2</f>
+        <v>20.131779999999999</v>
+      </c>
+      <c r="K53" s="12">
+        <f t="shared" si="1"/>
+        <v>20.239999999999998</v>
+      </c>
+      <c r="M53" s="22"/>
+      <c r="N53" s="22"/>
+      <c r="O53" s="22"/>
+      <c r="P53" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="K1:T1"/>
-    <mergeCell ref="X15:Z15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10735,9 +11314,371 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="B1" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+    </row>
+    <row r="2" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="B2" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="36">
+        <v>4377</v>
+      </c>
+      <c r="C3" s="36">
+        <v>4873</v>
+      </c>
+      <c r="D3" s="36">
+        <v>4558</v>
+      </c>
+      <c r="E3" s="36">
+        <v>4524</v>
+      </c>
+      <c r="F3" s="36">
+        <v>4860</v>
+      </c>
+      <c r="G3" s="36">
+        <v>5177</v>
+      </c>
+      <c r="H3" s="36">
+        <v>4580</v>
+      </c>
+      <c r="I3" s="36">
+        <v>4816</v>
+      </c>
+      <c r="J3" s="36">
+        <v>4677</v>
+      </c>
+      <c r="K3" s="36">
+        <v>4552</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+    </row>
+    <row r="5" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="37">
+        <v>2225</v>
+      </c>
+      <c r="C5" s="4">
+        <v>2439</v>
+      </c>
+      <c r="D5" s="4">
+        <v>2355</v>
+      </c>
+      <c r="E5" s="4">
+        <v>2276</v>
+      </c>
+      <c r="F5" s="4">
+        <v>3076</v>
+      </c>
+      <c r="G5" s="4">
+        <v>3142</v>
+      </c>
+      <c r="H5" s="4">
+        <v>2641</v>
+      </c>
+      <c r="I5" s="4">
+        <v>2920</v>
+      </c>
+      <c r="J5" s="4">
+        <v>2924</v>
+      </c>
+      <c r="K5" s="4">
+        <v>2952</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="37">
+        <v>2225</v>
+      </c>
+      <c r="C6" s="4">
+        <v>2439</v>
+      </c>
+      <c r="D6" s="4">
+        <v>2355</v>
+      </c>
+      <c r="E6" s="4">
+        <v>2276</v>
+      </c>
+      <c r="F6" s="4">
+        <v>3076</v>
+      </c>
+      <c r="G6" s="4">
+        <v>3142</v>
+      </c>
+      <c r="H6" s="4">
+        <v>2641</v>
+      </c>
+      <c r="I6" s="4">
+        <v>2920</v>
+      </c>
+      <c r="J6" s="4">
+        <v>2924</v>
+      </c>
+      <c r="K6" s="4">
+        <v>2952</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="37">
+        <v>2225</v>
+      </c>
+      <c r="C7" s="4">
+        <v>2439</v>
+      </c>
+      <c r="D7" s="4">
+        <v>2355</v>
+      </c>
+      <c r="E7" s="4">
+        <v>2276</v>
+      </c>
+      <c r="F7" s="4">
+        <v>3076</v>
+      </c>
+      <c r="G7" s="4">
+        <v>3142</v>
+      </c>
+      <c r="H7" s="4">
+        <v>2641</v>
+      </c>
+      <c r="I7" s="4">
+        <v>2920</v>
+      </c>
+      <c r="J7" s="4">
+        <v>2924</v>
+      </c>
+      <c r="K7" s="4">
+        <v>2952</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="37">
+        <v>2225</v>
+      </c>
+      <c r="C8" s="4">
+        <v>2439</v>
+      </c>
+      <c r="D8" s="4">
+        <v>2355</v>
+      </c>
+      <c r="E8" s="4">
+        <v>2276</v>
+      </c>
+      <c r="F8" s="4">
+        <v>3076</v>
+      </c>
+      <c r="G8" s="4">
+        <v>3142</v>
+      </c>
+      <c r="H8" s="4">
+        <v>2641</v>
+      </c>
+      <c r="I8" s="4">
+        <v>2920</v>
+      </c>
+      <c r="J8" s="4">
+        <v>2924</v>
+      </c>
+      <c r="K8" s="4">
+        <v>2952</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="37">
+        <v>2218</v>
+      </c>
+      <c r="C9" s="4">
+        <v>2432</v>
+      </c>
+      <c r="D9" s="4">
+        <v>2320</v>
+      </c>
+      <c r="E9" s="4">
+        <v>2276</v>
+      </c>
+      <c r="F9" s="4">
+        <v>3076</v>
+      </c>
+      <c r="G9" s="4">
+        <v>3142</v>
+      </c>
+      <c r="H9" s="4">
+        <v>2641</v>
+      </c>
+      <c r="I9" s="4">
+        <v>2920</v>
+      </c>
+      <c r="J9" s="4">
+        <v>2924</v>
+      </c>
+      <c r="K9" s="4">
+        <v>2952</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="37">
+        <v>2225</v>
+      </c>
+      <c r="C10" s="4">
+        <v>2439</v>
+      </c>
+      <c r="D10" s="4">
+        <v>2355</v>
+      </c>
+      <c r="E10" s="4">
+        <v>2276</v>
+      </c>
+      <c r="F10" s="4">
+        <v>3076</v>
+      </c>
+      <c r="G10" s="4">
+        <v>3142</v>
+      </c>
+      <c r="H10" s="4">
+        <v>2641</v>
+      </c>
+      <c r="I10" s="4">
+        <v>2920</v>
+      </c>
+      <c r="J10" s="4">
+        <v>2924</v>
+      </c>
+      <c r="K10" s="4">
+        <v>2952</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" s="37">
+        <v>3035</v>
+      </c>
+      <c r="C11" s="4">
+        <v>3441</v>
+      </c>
+      <c r="D11" s="4">
+        <v>3169</v>
+      </c>
+      <c r="E11" s="4">
+        <v>3128</v>
+      </c>
+      <c r="F11" s="4">
+        <v>3110</v>
+      </c>
+      <c r="G11" s="4">
+        <v>3386</v>
+      </c>
+      <c r="H11" s="4">
+        <v>3033</v>
+      </c>
+      <c r="I11" s="4">
+        <v>3172</v>
+      </c>
+      <c r="J11" s="4">
+        <v>2972</v>
+      </c>
+      <c r="K11" s="4">
+        <v>2891</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:K1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5:XFD8"/>
     </sheetView>
   </sheetViews>
@@ -10747,13 +11688,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="32" t="s">
         <v>62</v>
       </c>
     </row>
@@ -10761,10 +11702,10 @@
       <c r="A2" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="33" t="s">
         <v>65</v>
       </c>
     </row>
@@ -10772,15 +11713,15 @@
       <c r="A3" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="33" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="32" t="s">
         <v>68</v>
       </c>
     </row>
@@ -10817,7 +11758,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="32" t="s">
         <v>71</v>
       </c>
     </row>
@@ -10830,7 +11771,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="32" t="s">
         <v>70</v>
       </c>
       <c r="B12" t="s">
@@ -10859,7 +11800,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T35"/>
   <sheetViews>
@@ -10881,23 +11822,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="F1" s="35" t="s">
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="F1" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
       <c r="R1" s="9"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
@@ -11922,7 +12863,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BR30"/>
   <sheetViews>
@@ -11948,81 +12889,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="P1" s="37" t="s">
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="P1" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="37"/>
-      <c r="V1" s="37"/>
-      <c r="W1" s="37"/>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="37"/>
-      <c r="Z1" s="37"/>
-      <c r="AA1" s="37"/>
-      <c r="AB1" s="37"/>
-      <c r="AD1" s="37" t="s">
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
+      <c r="U1" s="41"/>
+      <c r="V1" s="41"/>
+      <c r="W1" s="41"/>
+      <c r="X1" s="41"/>
+      <c r="Y1" s="41"/>
+      <c r="Z1" s="41"/>
+      <c r="AA1" s="41"/>
+      <c r="AB1" s="41"/>
+      <c r="AD1" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="AE1" s="37"/>
-      <c r="AF1" s="37"/>
-      <c r="AG1" s="37"/>
-      <c r="AH1" s="37"/>
-      <c r="AI1" s="37"/>
-      <c r="AJ1" s="37"/>
-      <c r="AK1" s="37"/>
-      <c r="AL1" s="37"/>
-      <c r="AM1" s="37"/>
-      <c r="AN1" s="37"/>
-      <c r="AO1" s="37"/>
-      <c r="AP1" s="37"/>
-      <c r="AR1" s="37" t="s">
+      <c r="AE1" s="41"/>
+      <c r="AF1" s="41"/>
+      <c r="AG1" s="41"/>
+      <c r="AH1" s="41"/>
+      <c r="AI1" s="41"/>
+      <c r="AJ1" s="41"/>
+      <c r="AK1" s="41"/>
+      <c r="AL1" s="41"/>
+      <c r="AM1" s="41"/>
+      <c r="AN1" s="41"/>
+      <c r="AO1" s="41"/>
+      <c r="AP1" s="41"/>
+      <c r="AR1" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="AS1" s="37"/>
-      <c r="AT1" s="37"/>
-      <c r="AU1" s="37"/>
-      <c r="AV1" s="37"/>
-      <c r="AW1" s="37"/>
-      <c r="AX1" s="37"/>
-      <c r="AY1" s="37"/>
-      <c r="AZ1" s="37"/>
-      <c r="BA1" s="37"/>
-      <c r="BB1" s="37"/>
-      <c r="BC1" s="37"/>
-      <c r="BD1" s="37"/>
-      <c r="BF1" s="37" t="s">
+      <c r="AS1" s="41"/>
+      <c r="AT1" s="41"/>
+      <c r="AU1" s="41"/>
+      <c r="AV1" s="41"/>
+      <c r="AW1" s="41"/>
+      <c r="AX1" s="41"/>
+      <c r="AY1" s="41"/>
+      <c r="AZ1" s="41"/>
+      <c r="BA1" s="41"/>
+      <c r="BB1" s="41"/>
+      <c r="BC1" s="41"/>
+      <c r="BD1" s="41"/>
+      <c r="BF1" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="BG1" s="37"/>
-      <c r="BH1" s="37"/>
-      <c r="BI1" s="37"/>
-      <c r="BJ1" s="37"/>
-      <c r="BK1" s="37"/>
-      <c r="BL1" s="37"/>
-      <c r="BM1" s="37"/>
-      <c r="BN1" s="37"/>
-      <c r="BO1" s="37"/>
-      <c r="BP1" s="37"/>
-      <c r="BQ1" s="37"/>
-      <c r="BR1" s="37"/>
+      <c r="BG1" s="41"/>
+      <c r="BH1" s="41"/>
+      <c r="BI1" s="41"/>
+      <c r="BJ1" s="41"/>
+      <c r="BK1" s="41"/>
+      <c r="BL1" s="41"/>
+      <c r="BM1" s="41"/>
+      <c r="BN1" s="41"/>
+      <c r="BO1" s="41"/>
+      <c r="BP1" s="41"/>
+      <c r="BQ1" s="41"/>
+      <c r="BR1" s="41"/>
     </row>
     <row r="2" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>

--- a/FRS_tabs.xlsx
+++ b/FRS_tabs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3840" yWindow="1280" windowWidth="20180" windowHeight="12920" activeTab="3"/>
+    <workbookView xWindow="2560" yWindow="460" windowWidth="25460" windowHeight="17040" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="FRS - All" sheetId="2" r:id="rId1"/>
@@ -222,9 +222,6 @@
     <t>All (using FPG)</t>
   </si>
   <si>
-    <t>using FPG</t>
-  </si>
-  <si>
     <t>Diabetic?</t>
   </si>
   <si>
@@ -270,12 +267,6 @@
     <t>Age-Sex adjusted All (using FPG)</t>
   </si>
   <si>
-    <t>Age-Sex adjusted (using FPG)</t>
-  </si>
-  <si>
-    <t>By Age (using FPG)</t>
-  </si>
-  <si>
     <t>Sex</t>
   </si>
   <si>
@@ -293,14 +284,30 @@
   <si>
     <t xml:space="preserve">Number of NA's </t>
   </si>
+  <si>
+    <t>w/ FPG,  regression imputation</t>
+  </si>
+  <si>
+    <t>By Age(w/ FPG,  regression imputation)</t>
+  </si>
+  <si>
+    <t>Age-Sex adjusted (w/ FPG,  regression imputation)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -384,6 +391,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -454,83 +468,92 @@
   </borders>
   <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -831,7 +854,37 @@
                   <c:v>16.53</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.265</c:v>
+                  <c:v>17.215985</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17.90197</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17.41119</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17.22202</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16.73902</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16.84385</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16.48735</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16.60422</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16.39835</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16.75603</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.96622</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -853,8 +906,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1803875616"/>
-        <c:axId val="-1768357440"/>
+        <c:axId val="74646064"/>
+        <c:axId val="-16842656"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -994,11 +1047,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1803868912"/>
-        <c:axId val="-1803871232"/>
+        <c:axId val="73176928"/>
+        <c:axId val="73174272"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1803875616"/>
+        <c:axId val="74646064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1038,7 +1091,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1768357440"/>
+        <c:crossAx val="-16842656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1046,7 +1099,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1768357440"/>
+        <c:axId val="-16842656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="12.0"/>
@@ -1141,13 +1194,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1803875616"/>
+        <c:crossAx val="74646064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1803871232"/>
+        <c:axId val="73174272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.08"/>
@@ -1185,12 +1238,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1803868912"/>
+        <c:crossAx val="73176928"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-1803868912"/>
+        <c:axId val="73176928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1199,7 +1252,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1803871232"/>
+        <c:crossAx val="73174272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2205,11 +2258,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1803822768"/>
-        <c:axId val="-1803819504"/>
+        <c:axId val="74697184"/>
+        <c:axId val="74700448"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1803822768"/>
+        <c:axId val="74697184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2252,7 +2305,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1803819504"/>
+        <c:crossAx val="74700448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2260,7 +2313,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1803819504"/>
+        <c:axId val="74700448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="10.0"/>
@@ -2367,7 +2420,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1803822768"/>
+        <c:crossAx val="74697184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3114,7 +3167,7 @@
                   <c:v>12.70543</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.472715</c:v>
+                  <c:v>18.10019</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>11.25</c:v>
@@ -3396,11 +3449,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1803754576"/>
-        <c:axId val="-1803751312"/>
+        <c:axId val="74766560"/>
+        <c:axId val="74769824"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1803754576"/>
+        <c:axId val="74766560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3443,7 +3496,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1803751312"/>
+        <c:crossAx val="74769824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3451,7 +3504,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1803751312"/>
+        <c:axId val="74769824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3502,7 +3555,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1803754576"/>
+        <c:crossAx val="74766560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3640,6 +3693,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3860,8 +3914,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1803700400"/>
-        <c:axId val="-1803697648"/>
+        <c:axId val="74808464"/>
+        <c:axId val="74811216"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4055,11 +4109,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1803690128"/>
-        <c:axId val="-1803693888"/>
+        <c:axId val="74818736"/>
+        <c:axId val="74814976"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1803700400"/>
+        <c:axId val="74808464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4102,7 +4156,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1803697648"/>
+        <c:crossAx val="74811216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4110,7 +4164,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1803697648"/>
+        <c:axId val="74811216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="180.0"/>
@@ -4157,6 +4211,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4217,12 +4272,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1803700400"/>
+        <c:crossAx val="74808464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1803693888"/>
+        <c:axId val="74814976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4254,6 +4309,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4314,12 +4370,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1803690128"/>
+        <c:crossAx val="74818736"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-1803690128"/>
+        <c:axId val="74818736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4328,7 +4384,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1803693888"/>
+        <c:crossAx val="74814976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4424,6 +4480,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5139,11 +5196,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1803629600"/>
-        <c:axId val="-1803626336"/>
+        <c:axId val="74877952"/>
+        <c:axId val="74881216"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1803629600"/>
+        <c:axId val="74877952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5186,7 +5243,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1803626336"/>
+        <c:crossAx val="74881216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5194,7 +5251,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1803626336"/>
+        <c:axId val="74881216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="180.0"/>
@@ -5246,7 +5303,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1803629600"/>
+        <c:crossAx val="74877952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5276,6 +5333,7 @@
         <c:idx val="7"/>
         <c:delete val="1"/>
       </c:legendEntry>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5580,11 +5638,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1803597520"/>
-        <c:axId val="-1803594768"/>
+        <c:axId val="74910112"/>
+        <c:axId val="74912864"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1803597520"/>
+        <c:axId val="74910112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5627,7 +5685,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1803594768"/>
+        <c:crossAx val="74912864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5635,7 +5693,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1803594768"/>
+        <c:axId val="74912864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5686,7 +5744,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1803597520"/>
+        <c:crossAx val="74910112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9056,7 +9114,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="83" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="124" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -9084,7 +9142,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3814DCA5-E739-48F8-B0E6-5DAE3BD8D6DF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3814DCA5-E739-48F8-B0E6-5DAE3BD8D6DF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9117,7 +9175,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5CB41B8-13DC-4EAE-B2CA-47CBAE4DA728}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F5CB41B8-13DC-4EAE-B2CA-47CBAE4DA728}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9150,7 +9208,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9718F15D-DDA3-4502-9814-C910CFD7923C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9718F15D-DDA3-4502-9814-C910CFD7923C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9183,7 +9241,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6799A617-2199-4FA0-9AAE-B022587C939D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6799A617-2199-4FA0-9AAE-B022587C939D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9210,13 +9268,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8691084" cy="6288795"/>
+    <xdr:ext cx="8674919" cy="6288548"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE41EAA9-E7EF-4331-BAC6-50A2C67981F5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CE41EAA9-E7EF-4331-BAC6-50A2C67981F5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9249,7 +9307,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7AFBC52-30D3-4075-9EC8-31B7671415DF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7AFBC52-30D3-4075-9EC8-31B7671415DF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9569,28 +9627,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W53"/>
+  <dimension ref="A1:Y53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="75" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H18" sqref="H18"/>
+      <selection pane="bottomRight" activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.83203125" style="12" customWidth="1"/>
+    <col min="1" max="1" width="29.83203125" style="12" customWidth="1"/>
     <col min="2" max="4" width="11.33203125" style="12" customWidth="1"/>
     <col min="5" max="6" width="13.1640625" style="12" customWidth="1"/>
     <col min="7" max="8" width="11.83203125" style="12" customWidth="1"/>
     <col min="9" max="9" width="8.83203125" style="12" customWidth="1"/>
     <col min="10" max="10" width="11.83203125" style="12" customWidth="1"/>
-    <col min="11" max="20" width="13.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="20" width="13.5" style="46" bestFit="1" customWidth="1"/>
     <col min="21" max="16384" width="9.33203125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B1" s="23" t="s">
         <v>54</v>
       </c>
@@ -9603,20 +9661,20 @@
       <c r="G1" s="40"/>
       <c r="H1" s="24"/>
       <c r="J1" s="24"/>
-      <c r="K1" s="40" t="s">
+      <c r="K1" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -9637,38 +9695,38 @@
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
       <c r="J2" s="13"/>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="L2" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="M2" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="13" t="s">
+      <c r="N2" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="13" t="s">
+      <c r="O2" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="13" t="s">
+      <c r="P2" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="13" t="s">
+      <c r="Q2" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="R2" s="13" t="s">
+      <c r="R2" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="S2" s="13" t="s">
+      <c r="S2" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="T2" s="13" t="s">
+      <c r="T2" s="51" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>11</v>
       </c>
@@ -9684,35 +9742,35 @@
       <c r="K3" s="2">
         <v>14.89</v>
       </c>
-      <c r="L3" s="12">
+      <c r="L3" s="46">
         <v>14.13</v>
       </c>
-      <c r="M3" s="12">
+      <c r="M3" s="46">
         <v>14.23</v>
       </c>
-      <c r="N3" s="12">
+      <c r="N3" s="46">
         <v>13.69</v>
       </c>
-      <c r="O3" s="12">
+      <c r="O3" s="46">
         <v>13.7</v>
       </c>
-      <c r="P3" s="12">
+      <c r="P3" s="46">
         <v>13.56</v>
       </c>
-      <c r="Q3" s="12">
+      <c r="Q3" s="46">
         <v>13.77</v>
       </c>
-      <c r="R3" s="12">
+      <c r="R3" s="46">
         <v>13.64</v>
       </c>
-      <c r="S3" s="12">
+      <c r="S3" s="46">
         <v>13.98</v>
       </c>
-      <c r="T3" s="12">
+      <c r="T3" s="46">
         <v>14.21</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="26" t="s">
         <v>56</v>
       </c>
@@ -9731,18 +9789,38 @@
       <c r="H4" s="28">
         <v>15.96039</v>
       </c>
-      <c r="K4" s="42"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="28"/>
-      <c r="R4" s="28"/>
-      <c r="S4" s="28"/>
-      <c r="T4" s="28"/>
+      <c r="K4" s="47">
+        <v>17.771899999999999</v>
+      </c>
+      <c r="L4" s="38">
+        <v>16.992370000000001</v>
+      </c>
+      <c r="M4" s="38">
+        <v>17.004639999999998</v>
+      </c>
+      <c r="N4" s="38">
+        <v>16.50055</v>
+      </c>
+      <c r="O4" s="38">
+        <v>16.637129999999999</v>
+      </c>
+      <c r="P4" s="38">
+        <v>16.487349999999999</v>
+      </c>
+      <c r="Q4" s="38">
+        <v>16.57394</v>
+      </c>
+      <c r="R4" s="38">
+        <v>16.543240000000001</v>
+      </c>
+      <c r="S4" s="38">
+        <v>16.9298</v>
+      </c>
+      <c r="T4" s="38">
+        <v>17.311620000000001</v>
+      </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>12</v>
       </c>
@@ -9757,40 +9835,40 @@
       </c>
       <c r="H5" s="18"/>
       <c r="J5" s="18"/>
-      <c r="K5" s="12">
+      <c r="K5" s="46">
         <v>15</v>
       </c>
-      <c r="L5" s="12">
+      <c r="L5" s="46">
         <v>14.52</v>
       </c>
-      <c r="M5" s="12">
+      <c r="M5" s="46">
         <v>14.42</v>
       </c>
-      <c r="N5" s="12">
+      <c r="N5" s="46">
         <v>13.92</v>
       </c>
-      <c r="O5" s="12">
+      <c r="O5" s="46">
         <v>13.88</v>
       </c>
-      <c r="P5" s="12">
+      <c r="P5" s="46">
         <v>13.56</v>
       </c>
-      <c r="Q5" s="12">
+      <c r="Q5" s="46">
         <v>13.79</v>
       </c>
-      <c r="R5" s="12">
+      <c r="R5" s="46">
         <v>13.51</v>
       </c>
-      <c r="S5" s="12">
+      <c r="S5" s="46">
         <v>13.81</v>
       </c>
-      <c r="T5" s="12">
+      <c r="T5" s="46">
         <v>13.87</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A6" s="34" t="s">
-        <v>72</v>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A6" s="33" t="s">
+        <v>71</v>
       </c>
       <c r="G6" s="12">
         <f>D5</f>
@@ -9798,37 +9876,63 @@
       </c>
       <c r="I6" s="12">
         <f>(G6+K6)/2</f>
-        <v>8.2650000000000006</v>
-      </c>
-      <c r="K6" s="39"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
-      <c r="N6" s="39"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="39"/>
-      <c r="R6" s="39"/>
-      <c r="S6" s="39"/>
-      <c r="T6" s="39"/>
+        <v>17.215985</v>
+      </c>
+      <c r="K6" s="47">
+        <v>17.901969999999999</v>
+      </c>
+      <c r="L6" s="38">
+        <v>17.411190000000001</v>
+      </c>
+      <c r="M6" s="38">
+        <v>17.222020000000001</v>
+      </c>
+      <c r="N6" s="38">
+        <v>16.73902</v>
+      </c>
+      <c r="O6" s="38">
+        <v>16.84385</v>
+      </c>
+      <c r="P6" s="38">
+        <v>16.487349999999999</v>
+      </c>
+      <c r="Q6" s="38">
+        <v>16.604220000000002</v>
+      </c>
+      <c r="R6" s="38">
+        <v>16.398350000000001</v>
+      </c>
+      <c r="S6" s="38">
+        <v>16.756029999999999</v>
+      </c>
+      <c r="T6" s="38">
+        <v>16.96622</v>
+      </c>
       <c r="U6" s="9"/>
       <c r="V6" s="9"/>
       <c r="W6" s="9"/>
+      <c r="X6" s="9"/>
+      <c r="Y6" s="9"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
       <c r="U7" s="9"/>
       <c r="V7" s="9"/>
       <c r="W7" s="9"/>
+      <c r="X7" s="9"/>
+      <c r="Y7" s="9"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A8" s="16" t="s">
+    <row r="8" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+      <c r="A8" s="44" t="s">
         <v>13</v>
       </c>
       <c r="U8" s="9"/>
       <c r="V8" s="9"/>
       <c r="W8" s="9"/>
+      <c r="X8" s="9"/>
+      <c r="Y8" s="9"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>14</v>
       </c>
@@ -9841,43 +9945,45 @@
       <c r="G9" s="12">
         <v>18.649999999999999</v>
       </c>
-      <c r="K9" s="12">
+      <c r="K9" s="46">
         <v>16.73</v>
       </c>
-      <c r="L9" s="12">
+      <c r="L9" s="46">
         <v>15.92</v>
       </c>
-      <c r="M9" s="12">
+      <c r="M9" s="46">
         <v>16.13</v>
       </c>
-      <c r="N9" s="12">
+      <c r="N9" s="46">
         <v>16.05</v>
       </c>
-      <c r="O9" s="12">
+      <c r="O9" s="46">
         <v>15.32</v>
       </c>
-      <c r="P9" s="12">
+      <c r="P9" s="46">
         <v>15.06</v>
       </c>
-      <c r="Q9" s="12">
+      <c r="Q9" s="46">
         <v>15.16</v>
       </c>
-      <c r="R9" s="12">
+      <c r="R9" s="46">
         <v>14.88</v>
       </c>
-      <c r="S9" s="12">
+      <c r="S9" s="46">
         <v>15.38</v>
       </c>
-      <c r="T9" s="12">
+      <c r="T9" s="46">
         <v>15.89</v>
       </c>
       <c r="U9" s="9"/>
       <c r="V9" s="9"/>
       <c r="W9" s="9"/>
+      <c r="X9" s="9"/>
+      <c r="Y9" s="9"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A10" s="30" t="s">
-        <v>57</v>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A10" s="45" t="s">
+        <v>78</v>
       </c>
       <c r="B10" s="28">
         <v>17.002870000000001</v>
@@ -9894,21 +10000,43 @@
       <c r="H10" s="29">
         <v>17.571290000000001</v>
       </c>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="28"/>
-      <c r="P10" s="28"/>
-      <c r="Q10" s="28"/>
-      <c r="R10" s="28"/>
-      <c r="S10" s="28"/>
-      <c r="T10" s="28"/>
+      <c r="K10" s="38">
+        <v>19.371960000000001</v>
+      </c>
+      <c r="L10" s="38">
+        <v>18.531379999999999</v>
+      </c>
+      <c r="M10" s="38">
+        <v>18.77075</v>
+      </c>
+      <c r="N10" s="38">
+        <v>18.565919999999998</v>
+      </c>
+      <c r="O10" s="38">
+        <v>18.015619999999998</v>
+      </c>
+      <c r="P10" s="38">
+        <v>17.571110000000001</v>
+      </c>
+      <c r="Q10" s="38">
+        <v>17.672239999999999</v>
+      </c>
+      <c r="R10" s="47">
+        <v>17.39913</v>
+      </c>
+      <c r="S10" s="47">
+        <v>18.101759999999999</v>
+      </c>
+      <c r="T10" s="47">
+        <v>18.793669999999999</v>
+      </c>
       <c r="U10" s="9"/>
       <c r="V10" s="9"/>
       <c r="W10" s="9"/>
+      <c r="X10" s="9"/>
+      <c r="Y10" s="9"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>15</v>
       </c>
@@ -9921,43 +10049,45 @@
       <c r="G11" s="12">
         <v>16.71</v>
       </c>
-      <c r="K11" s="12">
+      <c r="K11" s="46">
         <v>15.27</v>
       </c>
-      <c r="L11" s="12">
+      <c r="L11" s="46">
         <v>15.15</v>
       </c>
-      <c r="M11" s="12">
+      <c r="M11" s="46">
         <v>14.11</v>
       </c>
-      <c r="N11" s="12">
+      <c r="N11" s="46">
         <v>14.28</v>
       </c>
-      <c r="O11" s="12">
+      <c r="O11" s="46">
         <v>14.37</v>
       </c>
-      <c r="P11" s="12">
+      <c r="P11" s="46">
         <v>14.03</v>
       </c>
-      <c r="Q11" s="12">
+      <c r="Q11" s="46">
         <v>14.32</v>
       </c>
-      <c r="R11" s="12">
+      <c r="R11" s="46">
         <v>14.38</v>
       </c>
-      <c r="S11" s="12">
+      <c r="S11" s="46">
         <v>14.62</v>
       </c>
-      <c r="T11" s="12">
+      <c r="T11" s="46">
         <v>14.89</v>
       </c>
       <c r="U11" s="9"/>
       <c r="V11" s="9"/>
       <c r="W11" s="9"/>
+      <c r="X11" s="9"/>
+      <c r="Y11" s="9"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A12" s="30" t="s">
-        <v>57</v>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A12" s="45" t="s">
+        <v>78</v>
       </c>
       <c r="B12" s="28">
         <v>15.82869</v>
@@ -9974,21 +10104,43 @@
       <c r="H12" s="28">
         <v>15.975199999999999</v>
       </c>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="28"/>
-      <c r="P12" s="28"/>
-      <c r="Q12" s="28"/>
-      <c r="R12" s="28"/>
-      <c r="S12" s="28"/>
-      <c r="T12" s="28"/>
+      <c r="K12" s="38">
+        <v>18.065429999999999</v>
+      </c>
+      <c r="L12" s="38">
+        <v>17.838049999999999</v>
+      </c>
+      <c r="M12" s="38">
+        <v>16.7104</v>
+      </c>
+      <c r="N12" s="38">
+        <v>16.986940000000001</v>
+      </c>
+      <c r="O12" s="38">
+        <v>17.154219999999999</v>
+      </c>
+      <c r="P12" s="38">
+        <v>16.889769999999999</v>
+      </c>
+      <c r="Q12" s="38">
+        <v>16.981310000000001</v>
+      </c>
+      <c r="R12" s="47">
+        <v>17.03905</v>
+      </c>
+      <c r="S12" s="47">
+        <v>17.290040000000001</v>
+      </c>
+      <c r="T12" s="47">
+        <v>17.77327</v>
+      </c>
       <c r="U12" s="9"/>
       <c r="V12" s="9"/>
       <c r="W12" s="9"/>
+      <c r="X12" s="9"/>
+      <c r="Y12" s="9"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
         <v>16</v>
       </c>
@@ -10001,43 +10153,45 @@
       <c r="G13" s="12">
         <v>15.64</v>
       </c>
-      <c r="K13" s="12">
+      <c r="K13" s="46">
         <v>14.55</v>
       </c>
-      <c r="L13" s="12">
+      <c r="L13" s="46">
         <v>13.21</v>
       </c>
-      <c r="M13" s="12">
+      <c r="M13" s="46">
         <v>13.93</v>
       </c>
-      <c r="N13" s="12">
+      <c r="N13" s="46">
         <v>13.15</v>
       </c>
-      <c r="O13" s="12">
+      <c r="O13" s="46">
         <v>13.56</v>
       </c>
-      <c r="P13" s="12">
+      <c r="P13" s="46">
         <v>13.79</v>
       </c>
-      <c r="Q13" s="12">
+      <c r="Q13" s="46">
         <v>14.02</v>
       </c>
-      <c r="R13" s="12">
+      <c r="R13" s="46">
         <v>13.77</v>
       </c>
-      <c r="S13" s="12">
+      <c r="S13" s="46">
         <v>14.11</v>
       </c>
-      <c r="T13" s="12">
+      <c r="T13" s="46">
         <v>13.86</v>
       </c>
       <c r="U13" s="9"/>
       <c r="V13" s="9"/>
       <c r="W13" s="9"/>
+      <c r="X13" s="9"/>
+      <c r="Y13" s="9"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A14" s="30" t="s">
-        <v>57</v>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A14" s="45" t="s">
+        <v>78</v>
       </c>
       <c r="B14" s="28">
         <v>15.66764</v>
@@ -10054,20 +10208,43 @@
       <c r="H14" s="28">
         <v>14.952500000000001</v>
       </c>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="28"/>
-      <c r="P14" s="28"/>
-      <c r="Q14" s="28"/>
-      <c r="R14" s="28"/>
-      <c r="S14" s="28"/>
-      <c r="T14" s="28"/>
+      <c r="K14" s="38">
+        <v>17.414829999999998</v>
+      </c>
+      <c r="L14" s="38">
+        <v>16.01397</v>
+      </c>
+      <c r="M14" s="38">
+        <v>16.721309999999999</v>
+      </c>
+      <c r="N14" s="38">
+        <v>15.889049999999999</v>
+      </c>
+      <c r="O14" s="38">
+        <v>16.446739999999998</v>
+      </c>
+      <c r="P14" s="38">
+        <v>16.693819999999999</v>
+      </c>
+      <c r="Q14" s="38">
+        <v>16.65081</v>
+      </c>
+      <c r="R14" s="47">
+        <v>16.565460000000002</v>
+      </c>
+      <c r="S14" s="47">
+        <v>16.976199999999999</v>
+      </c>
+      <c r="T14" s="47">
+        <v>16.91076</v>
+      </c>
       <c r="U14" s="9"/>
       <c r="V14" s="9"/>
+      <c r="W14" s="9"/>
+      <c r="X14" s="9"/>
+      <c r="Y14" s="9"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
         <v>17</v>
       </c>
@@ -10080,42 +10257,45 @@
       <c r="G15" s="12">
         <v>15.21</v>
       </c>
-      <c r="K15" s="12">
+      <c r="K15" s="46">
         <v>12.46</v>
       </c>
-      <c r="L15" s="12">
+      <c r="L15" s="46">
         <v>12.91</v>
       </c>
-      <c r="M15" s="12">
+      <c r="M15" s="46">
         <v>13.07</v>
       </c>
-      <c r="N15" s="12">
+      <c r="N15" s="46">
         <v>12.1</v>
       </c>
-      <c r="O15" s="12">
+      <c r="O15" s="46">
         <v>11.85</v>
       </c>
-      <c r="P15" s="12">
+      <c r="P15" s="46">
         <v>11.79</v>
       </c>
-      <c r="Q15" s="12">
+      <c r="Q15" s="46">
         <v>12.44</v>
       </c>
-      <c r="R15" s="12">
+      <c r="R15" s="46">
         <v>12.4</v>
       </c>
-      <c r="S15" s="12">
+      <c r="S15" s="46">
         <v>12.82</v>
       </c>
-      <c r="T15" s="12">
+      <c r="T15" s="46">
         <v>13.33</v>
       </c>
       <c r="U15" s="9"/>
       <c r="V15" s="9"/>
+      <c r="W15" s="9"/>
+      <c r="X15" s="9"/>
+      <c r="Y15" s="9"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A16" s="30" t="s">
-        <v>57</v>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A16" s="45" t="s">
+        <v>78</v>
       </c>
       <c r="B16" s="28">
         <v>15.76737</v>
@@ -10132,20 +10312,40 @@
       <c r="H16" s="28">
         <v>14.55852</v>
       </c>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="28"/>
-      <c r="N16" s="28"/>
-      <c r="O16" s="28"/>
-      <c r="P16" s="28"/>
-      <c r="Q16" s="28"/>
-      <c r="R16" s="28"/>
-      <c r="S16" s="28"/>
-      <c r="T16" s="28"/>
+      <c r="K16" s="47">
+        <v>15.7791</v>
+      </c>
+      <c r="L16" s="47">
+        <v>16.1632</v>
+      </c>
+      <c r="M16" s="47">
+        <v>16.190550000000002</v>
+      </c>
+      <c r="N16" s="47">
+        <v>15.29542</v>
+      </c>
+      <c r="O16" s="47">
+        <v>15.192080000000001</v>
+      </c>
+      <c r="P16" s="47">
+        <v>15.111649999999999</v>
+      </c>
+      <c r="Q16" s="47">
+        <v>15.637269999999999</v>
+      </c>
+      <c r="R16" s="47">
+        <v>15.760730000000001</v>
+      </c>
+      <c r="S16" s="47">
+        <v>16.139209999999999</v>
+      </c>
+      <c r="T16" s="47">
+        <v>16.7303</v>
+      </c>
       <c r="U16" s="9"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="30" t="s">
         <v>26</v>
       </c>
       <c r="U17" s="9"/>
@@ -10167,58 +10367,78 @@
       </c>
       <c r="H18" s="18"/>
       <c r="J18" s="18"/>
-      <c r="K18" s="12">
+      <c r="K18" s="46">
         <v>16.809999999999999</v>
       </c>
-      <c r="L18" s="12">
+      <c r="L18" s="46">
         <v>16.21</v>
       </c>
-      <c r="M18" s="12">
+      <c r="M18" s="46">
         <v>16.28</v>
       </c>
-      <c r="N18" s="12">
+      <c r="N18" s="46">
         <v>16.22</v>
       </c>
-      <c r="O18" s="12">
+      <c r="O18" s="46">
         <v>15.48</v>
       </c>
-      <c r="P18" s="12">
+      <c r="P18" s="46">
         <v>15.06</v>
       </c>
-      <c r="Q18" s="12">
+      <c r="Q18" s="46">
         <v>15.2</v>
       </c>
-      <c r="R18" s="12">
+      <c r="R18" s="46">
         <v>14.75</v>
       </c>
-      <c r="S18" s="12">
+      <c r="S18" s="46">
         <v>15.22</v>
       </c>
-      <c r="T18" s="12">
+      <c r="T18" s="46">
         <v>15.46</v>
       </c>
       <c r="U18" s="9"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A19" s="30" t="s">
-        <v>57</v>
+      <c r="A19" s="45" t="s">
+        <v>78</v>
       </c>
       <c r="B19" s="28"/>
-      <c r="E19" s="44"/>
+      <c r="E19" s="39"/>
       <c r="F19" s="18"/>
-      <c r="G19" s="44"/>
+      <c r="G19" s="39"/>
       <c r="H19" s="18"/>
       <c r="J19" s="18"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="39"/>
-      <c r="N19" s="39"/>
-      <c r="O19" s="39"/>
-      <c r="P19" s="39"/>
-      <c r="Q19" s="39"/>
-      <c r="R19" s="39"/>
-      <c r="S19" s="39"/>
-      <c r="T19" s="39"/>
+      <c r="K19" s="37">
+        <v>19.47298</v>
+      </c>
+      <c r="L19" s="37">
+        <v>18.874870000000001</v>
+      </c>
+      <c r="M19" s="37">
+        <v>18.929390000000001</v>
+      </c>
+      <c r="N19" s="37">
+        <v>18.74699</v>
+      </c>
+      <c r="O19" s="37">
+        <v>18.211639999999999</v>
+      </c>
+      <c r="P19" s="37">
+        <v>17.571110000000001</v>
+      </c>
+      <c r="Q19" s="37">
+        <v>17.735279999999999</v>
+      </c>
+      <c r="R19" s="37">
+        <v>17.248950000000001</v>
+      </c>
+      <c r="S19" s="37">
+        <v>17.932759999999998</v>
+      </c>
+      <c r="T19" s="37">
+        <v>18.381910000000001</v>
+      </c>
       <c r="U19" s="9"/>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.2">
@@ -10238,59 +10458,79 @@
       </c>
       <c r="H20" s="18"/>
       <c r="J20" s="18"/>
-      <c r="K20" s="12">
+      <c r="K20" s="46">
         <f>K11</f>
         <v>15.27</v>
       </c>
-      <c r="L20" s="12">
+      <c r="L20" s="46">
         <v>15.42</v>
       </c>
-      <c r="M20" s="12">
+      <c r="M20" s="46">
         <v>15.48</v>
       </c>
-      <c r="N20" s="12">
+      <c r="N20" s="46">
         <v>14.28</v>
       </c>
-      <c r="O20" s="12">
+      <c r="O20" s="46">
         <v>14.5</v>
       </c>
-      <c r="P20" s="12">
+      <c r="P20" s="46">
         <v>14.03</v>
       </c>
-      <c r="Q20" s="12">
+      <c r="Q20" s="46">
         <v>14.33</v>
       </c>
-      <c r="R20" s="12">
+      <c r="R20" s="46">
         <v>14.25</v>
       </c>
-      <c r="S20" s="12">
+      <c r="S20" s="46">
         <v>14.48</v>
       </c>
-      <c r="T20" s="12">
+      <c r="T20" s="46">
         <v>14.66</v>
       </c>
       <c r="U20" s="9"/>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A21" s="30" t="s">
-        <v>57</v>
+      <c r="A21" s="45" t="s">
+        <v>78</v>
       </c>
       <c r="B21" s="28"/>
-      <c r="E21" s="44"/>
+      <c r="E21" s="39"/>
       <c r="F21" s="18"/>
-      <c r="G21" s="44"/>
+      <c r="G21" s="39"/>
       <c r="H21" s="18"/>
       <c r="J21" s="18"/>
-      <c r="K21" s="39"/>
-      <c r="L21" s="39"/>
-      <c r="M21" s="39"/>
-      <c r="N21" s="39"/>
-      <c r="O21" s="39"/>
-      <c r="P21" s="39"/>
-      <c r="Q21" s="39"/>
-      <c r="R21" s="39"/>
-      <c r="S21" s="39"/>
-      <c r="T21" s="39"/>
+      <c r="K21" s="37">
+        <v>18.22672</v>
+      </c>
+      <c r="L21" s="37">
+        <v>18.203949999999999</v>
+      </c>
+      <c r="M21" s="37">
+        <v>16.926590000000001</v>
+      </c>
+      <c r="N21" s="37">
+        <v>17.201000000000001</v>
+      </c>
+      <c r="O21" s="37">
+        <v>17.363019999999999</v>
+      </c>
+      <c r="P21" s="37">
+        <v>16.889769999999999</v>
+      </c>
+      <c r="Q21" s="37">
+        <v>17.004270000000002</v>
+      </c>
+      <c r="R21" s="37">
+        <v>16.893260000000001</v>
+      </c>
+      <c r="S21" s="37">
+        <v>17.134550000000001</v>
+      </c>
+      <c r="T21" s="37">
+        <v>17.53341</v>
+      </c>
       <c r="U21" s="9"/>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.2">
@@ -10310,58 +10550,78 @@
       </c>
       <c r="H22" s="18"/>
       <c r="J22" s="18"/>
-      <c r="K22" s="12">
+      <c r="K22" s="46">
         <v>15.58</v>
       </c>
-      <c r="L22" s="12">
+      <c r="L22" s="46">
         <v>13.65</v>
       </c>
-      <c r="M22" s="12">
+      <c r="M22" s="46">
         <v>14.13</v>
       </c>
-      <c r="N22" s="12">
+      <c r="N22" s="46">
         <v>13.43</v>
       </c>
-      <c r="O22" s="12">
+      <c r="O22" s="46">
         <v>13.74</v>
       </c>
-      <c r="P22" s="12">
+      <c r="P22" s="46">
         <v>13.79</v>
       </c>
-      <c r="Q22" s="12">
+      <c r="Q22" s="46">
         <v>14.02</v>
       </c>
-      <c r="R22" s="12">
+      <c r="R22" s="46">
         <v>13.65</v>
       </c>
-      <c r="S22" s="12">
+      <c r="S22" s="46">
         <v>13.95</v>
       </c>
-      <c r="T22" s="12">
+      <c r="T22" s="46">
         <v>13.49</v>
       </c>
       <c r="U22" s="9"/>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A23" s="30" t="s">
-        <v>57</v>
+      <c r="A23" s="45" t="s">
+        <v>78</v>
       </c>
       <c r="B23" s="28"/>
-      <c r="E23" s="44"/>
+      <c r="E23" s="39"/>
       <c r="F23" s="18"/>
-      <c r="G23" s="44"/>
+      <c r="G23" s="39"/>
       <c r="H23" s="18"/>
       <c r="J23" s="18"/>
-      <c r="K23" s="39"/>
-      <c r="L23" s="39"/>
-      <c r="M23" s="39"/>
-      <c r="N23" s="39"/>
-      <c r="O23" s="39"/>
-      <c r="P23" s="39"/>
-      <c r="Q23" s="39"/>
-      <c r="R23" s="39"/>
-      <c r="S23" s="39"/>
-      <c r="T23" s="39"/>
+      <c r="K23" s="37">
+        <v>17.456099999999999</v>
+      </c>
+      <c r="L23" s="37">
+        <v>16.467849999999999</v>
+      </c>
+      <c r="M23" s="37">
+        <v>16.93919</v>
+      </c>
+      <c r="N23" s="37">
+        <v>16.17155</v>
+      </c>
+      <c r="O23" s="37">
+        <v>16.65372</v>
+      </c>
+      <c r="P23" s="37">
+        <v>16.693819999999999</v>
+      </c>
+      <c r="Q23" s="37">
+        <v>16.66893</v>
+      </c>
+      <c r="R23" s="37">
+        <v>16.434640000000002</v>
+      </c>
+      <c r="S23" s="37">
+        <v>16.811350000000001</v>
+      </c>
+      <c r="T23" s="37">
+        <v>16.537120000000002</v>
+      </c>
       <c r="U23" s="9"/>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.2">
@@ -10381,61 +10641,81 @@
       </c>
       <c r="H24" s="18"/>
       <c r="J24" s="18"/>
-      <c r="K24" s="22">
+      <c r="K24" s="48">
         <v>12.65</v>
       </c>
-      <c r="L24" s="22">
+      <c r="L24" s="48">
         <v>13.3</v>
       </c>
-      <c r="M24" s="22">
+      <c r="M24" s="48">
         <v>13.28</v>
       </c>
-      <c r="N24" s="22">
+      <c r="N24" s="48">
         <v>13.31</v>
       </c>
-      <c r="O24" s="22">
+      <c r="O24" s="48">
         <v>12.06</v>
       </c>
-      <c r="P24" s="22">
+      <c r="P24" s="48">
         <v>11.79</v>
       </c>
-      <c r="Q24" s="22">
+      <c r="Q24" s="48">
         <v>12.44</v>
       </c>
-      <c r="R24" s="22">
+      <c r="R24" s="48">
         <v>12.25</v>
       </c>
-      <c r="S24" s="22">
+      <c r="S24" s="48">
         <v>12.62</v>
       </c>
-      <c r="T24" s="22">
+      <c r="T24" s="48">
         <v>12.95</v>
       </c>
       <c r="U24" s="9"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A25" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="B25" s="43"/>
+      <c r="A25" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" s="38"/>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
-      <c r="E25" s="43"/>
+      <c r="E25" s="38"/>
       <c r="F25" s="9"/>
-      <c r="G25" s="43"/>
+      <c r="G25" s="38"/>
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
-      <c r="K25" s="39"/>
-      <c r="L25" s="39"/>
-      <c r="M25" s="39"/>
-      <c r="N25" s="39"/>
-      <c r="O25" s="39"/>
-      <c r="P25" s="39"/>
-      <c r="Q25" s="39"/>
-      <c r="R25" s="39"/>
-      <c r="S25" s="39"/>
-      <c r="T25" s="39"/>
+      <c r="K25" s="37">
+        <v>15.99676</v>
+      </c>
+      <c r="L25" s="37">
+        <v>16.57414</v>
+      </c>
+      <c r="M25" s="37">
+        <v>16.438880000000001</v>
+      </c>
+      <c r="N25" s="37">
+        <v>15.535819999999999</v>
+      </c>
+      <c r="O25" s="37">
+        <v>15.410220000000001</v>
+      </c>
+      <c r="P25" s="37">
+        <v>15.111649999999999</v>
+      </c>
+      <c r="Q25" s="37">
+        <v>15.6501</v>
+      </c>
+      <c r="R25" s="37">
+        <v>15.60812</v>
+      </c>
+      <c r="S25" s="37">
+        <v>15.944900000000001</v>
+      </c>
+      <c r="T25" s="37">
+        <v>16.3536</v>
+      </c>
       <c r="U25" s="9"/>
       <c r="V25" s="9"/>
     </row>
@@ -10449,7 +10729,7 @@
         <f>(G26+#REF!)/2</f>
         <v>#REF!</v>
       </c>
-      <c r="K26" s="12">
+      <c r="K26" s="46">
         <f>K20</f>
         <v>15.27</v>
       </c>
@@ -10464,7 +10744,7 @@
         <f>(G27+K26)/2</f>
         <v>15.86322</v>
       </c>
-      <c r="K27" s="12">
+      <c r="K27" s="46">
         <f>K22</f>
         <v>15.58</v>
       </c>
@@ -10479,7 +10759,7 @@
         <f>(G28+K27)/2</f>
         <v>15.505265</v>
       </c>
-      <c r="K28" s="12">
+      <c r="K28" s="46">
         <f>K24</f>
         <v>12.65</v>
       </c>
@@ -10495,13 +10775,13 @@
         <v>13.819345</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A30" s="16" t="s">
+    <row r="30" spans="1:22" ht="19" x14ac:dyDescent="0.25">
+      <c r="A30" s="44" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="21" t="s">
         <v>19</v>
       </c>
       <c r="B31" s="12">
@@ -10516,39 +10796,39 @@
       <c r="G31" s="12">
         <v>12.7</v>
       </c>
-      <c r="K31" s="12">
+      <c r="K31" s="46">
         <v>11.2</v>
       </c>
-      <c r="L31" s="12">
+      <c r="L31" s="46">
         <v>10.98</v>
       </c>
-      <c r="M31" s="12">
+      <c r="M31" s="46">
         <v>11.35</v>
       </c>
-      <c r="N31" s="12">
+      <c r="N31" s="46">
         <v>10.55</v>
       </c>
-      <c r="O31" s="12">
+      <c r="O31" s="46">
         <v>10.72</v>
       </c>
-      <c r="P31" s="12">
+      <c r="P31" s="46">
         <v>10.27</v>
       </c>
-      <c r="Q31" s="12">
+      <c r="Q31" s="46">
         <v>10.59</v>
       </c>
-      <c r="R31" s="12">
+      <c r="R31" s="46">
         <v>10.28</v>
       </c>
-      <c r="S31" s="12">
+      <c r="S31" s="46">
         <v>10.79</v>
       </c>
-      <c r="T31" s="12">
+      <c r="T31" s="46">
         <v>10.61</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B32" s="12">
@@ -10563,39 +10843,39 @@
       <c r="G32" s="12">
         <v>16.96</v>
       </c>
-      <c r="K32" s="12">
+      <c r="K32" s="46">
         <v>15.32</v>
       </c>
-      <c r="L32" s="12">
+      <c r="L32" s="46">
         <v>14.9</v>
       </c>
-      <c r="M32" s="12">
+      <c r="M32" s="46">
         <v>14.52</v>
       </c>
-      <c r="N32" s="12">
+      <c r="N32" s="46">
         <v>14.5</v>
       </c>
-      <c r="O32" s="12">
+      <c r="O32" s="46">
         <v>14.11</v>
       </c>
-      <c r="P32" s="12">
+      <c r="P32" s="46">
         <v>13.9</v>
       </c>
-      <c r="Q32" s="12">
+      <c r="Q32" s="46">
         <v>14.16</v>
       </c>
-      <c r="R32" s="12">
+      <c r="R32" s="46">
         <v>13.82</v>
       </c>
-      <c r="S32" s="12">
+      <c r="S32" s="46">
         <v>14.17</v>
       </c>
-      <c r="T32" s="12">
+      <c r="T32" s="46">
         <v>14.05</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A33" s="14" t="s">
+      <c r="A33" s="21" t="s">
         <v>21</v>
       </c>
       <c r="B33" s="12">
@@ -10610,34 +10890,34 @@
       <c r="G33" s="12">
         <v>19.670000000000002</v>
       </c>
-      <c r="K33" s="12">
+      <c r="K33" s="46">
         <v>18.100000000000001</v>
       </c>
-      <c r="L33" s="12">
+      <c r="L33" s="46">
         <v>17.53</v>
       </c>
-      <c r="M33" s="12">
+      <c r="M33" s="46">
         <v>16.97</v>
       </c>
-      <c r="N33" s="12">
+      <c r="N33" s="46">
         <v>16.5</v>
       </c>
-      <c r="O33" s="12">
+      <c r="O33" s="46">
         <v>16.39</v>
       </c>
-      <c r="P33" s="12">
+      <c r="P33" s="46">
         <v>16.190000000000001</v>
       </c>
-      <c r="Q33" s="12">
+      <c r="Q33" s="46">
         <v>16.09</v>
       </c>
-      <c r="R33" s="12">
+      <c r="R33" s="46">
         <v>16.100000000000001</v>
       </c>
-      <c r="S33" s="12">
+      <c r="S33" s="46">
         <v>16.02</v>
       </c>
-      <c r="T33" s="12">
+      <c r="T33" s="46">
         <v>16.43</v>
       </c>
     </row>
@@ -10657,34 +10937,34 @@
       <c r="G34" s="12">
         <v>22.05</v>
       </c>
-      <c r="K34" s="12">
+      <c r="K34" s="46">
         <v>20.25</v>
       </c>
-      <c r="L34" s="12">
+      <c r="L34" s="46">
         <v>19.23</v>
       </c>
-      <c r="M34" s="12">
+      <c r="M34" s="46">
         <v>18.98</v>
       </c>
-      <c r="N34" s="12">
+      <c r="N34" s="46">
         <v>18.190000000000001</v>
       </c>
-      <c r="O34" s="12">
+      <c r="O34" s="46">
         <v>18.43</v>
       </c>
-      <c r="P34" s="12">
+      <c r="P34" s="46">
         <v>18.11</v>
       </c>
-      <c r="Q34" s="12">
+      <c r="Q34" s="46">
         <v>18.48</v>
       </c>
-      <c r="R34" s="12">
+      <c r="R34" s="46">
         <v>17.899999999999999</v>
       </c>
-      <c r="S34" s="12">
+      <c r="S34" s="46">
         <v>18.12</v>
       </c>
-      <c r="T34" s="12">
+      <c r="T34" s="46">
         <v>18.7</v>
       </c>
     </row>
@@ -10694,7 +10974,7 @@
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A36" s="14" t="s">
+      <c r="A36" s="21" t="s">
         <v>19</v>
       </c>
       <c r="E36" s="18">
@@ -10705,39 +10985,39 @@
         <v>12.70543</v>
       </c>
       <c r="H36" s="18"/>
-      <c r="K36" s="12">
+      <c r="K36" s="46">
         <v>11.25</v>
       </c>
-      <c r="L36" s="18">
+      <c r="L36" s="49">
         <v>10.94</v>
       </c>
-      <c r="M36" s="18">
+      <c r="M36" s="49">
         <v>11.318160000000001</v>
       </c>
-      <c r="N36" s="18">
+      <c r="N36" s="49">
         <v>10.539960000000001</v>
       </c>
-      <c r="O36" s="18">
+      <c r="O36" s="49">
         <v>10.694470000000001</v>
       </c>
-      <c r="P36" s="18">
+      <c r="P36" s="49">
         <v>10.268319999999999</v>
       </c>
-      <c r="Q36" s="18">
+      <c r="Q36" s="49">
         <v>10.62804</v>
       </c>
-      <c r="R36" s="18">
+      <c r="R36" s="49">
         <v>10.31137</v>
       </c>
-      <c r="S36" s="18">
+      <c r="S36" s="49">
         <v>10.790929999999999</v>
       </c>
-      <c r="T36" s="18">
+      <c r="T36" s="49">
         <v>10.63754</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A37" s="14" t="s">
+      <c r="A37" s="21" t="s">
         <v>20</v>
       </c>
       <c r="E37" s="18">
@@ -10749,39 +11029,39 @@
       </c>
       <c r="H37" s="18"/>
       <c r="J37" s="18"/>
-      <c r="K37" s="12">
+      <c r="K37" s="46">
         <v>15.29</v>
       </c>
-      <c r="L37" s="18">
+      <c r="L37" s="49">
         <v>14.893750000000001</v>
       </c>
-      <c r="M37" s="18">
+      <c r="M37" s="49">
         <v>14.557729999999999</v>
       </c>
-      <c r="N37" s="18">
+      <c r="N37" s="49">
         <v>14.503539999999999</v>
       </c>
-      <c r="O37" s="18">
+      <c r="O37" s="49">
         <v>14.145659999999999</v>
       </c>
-      <c r="P37" s="18">
+      <c r="P37" s="49">
         <v>13.90419</v>
       </c>
-      <c r="Q37" s="18">
+      <c r="Q37" s="49">
         <v>14.12405</v>
       </c>
-      <c r="R37" s="18">
+      <c r="R37" s="49">
         <v>13.805199999999999</v>
       </c>
-      <c r="S37" s="18">
+      <c r="S37" s="49">
         <v>14.15784</v>
       </c>
-      <c r="T37" s="18">
+      <c r="T37" s="49">
         <v>14.05007</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A38" s="14" t="s">
+      <c r="A38" s="21" t="s">
         <v>21</v>
       </c>
       <c r="E38" s="18">
@@ -10793,34 +11073,34 @@
       </c>
       <c r="H38" s="18"/>
       <c r="J38" s="18"/>
-      <c r="K38" s="12">
+      <c r="K38" s="46">
         <v>18.100000000000001</v>
       </c>
-      <c r="L38" s="18">
+      <c r="L38" s="49">
         <v>17.530249999999999</v>
       </c>
-      <c r="M38" s="18">
+      <c r="M38" s="49">
         <v>16.97392</v>
       </c>
-      <c r="N38" s="18">
+      <c r="N38" s="49">
         <v>16.513439999999999</v>
       </c>
-      <c r="O38" s="18">
+      <c r="O38" s="49">
         <v>16.430779999999999</v>
       </c>
-      <c r="P38" s="18">
+      <c r="P38" s="49">
         <v>16.188140000000001</v>
       </c>
-      <c r="Q38" s="18">
+      <c r="Q38" s="49">
         <v>16.082619999999999</v>
       </c>
-      <c r="R38" s="18">
+      <c r="R38" s="49">
         <v>16.132180000000002</v>
       </c>
-      <c r="S38" s="18">
+      <c r="S38" s="49">
         <v>16.044429999999998</v>
       </c>
-      <c r="T38" s="18">
+      <c r="T38" s="49">
         <v>16.440359999999998</v>
       </c>
     </row>
@@ -10837,45 +11117,45 @@
       </c>
       <c r="H39" s="18"/>
       <c r="J39" s="18"/>
-      <c r="K39" s="12">
+      <c r="K39" s="46">
         <v>20.239999999999998</v>
       </c>
-      <c r="L39" s="18">
+      <c r="L39" s="49">
         <v>19.233139999999999</v>
       </c>
-      <c r="M39" s="18">
+      <c r="M39" s="49">
         <v>18.981850000000001</v>
       </c>
-      <c r="N39" s="18">
+      <c r="N39" s="49">
         <v>18.19736</v>
       </c>
-      <c r="O39" s="18">
+      <c r="O39" s="49">
         <v>18.434570000000001</v>
       </c>
-      <c r="P39" s="18">
+      <c r="P39" s="49">
         <v>18.105</v>
       </c>
-      <c r="Q39" s="18">
+      <c r="Q39" s="49">
         <v>18.491129999999998</v>
       </c>
-      <c r="R39" s="18">
+      <c r="R39" s="49">
         <v>17.88139</v>
       </c>
-      <c r="S39" s="18">
+      <c r="S39" s="49">
         <v>18.15222</v>
       </c>
-      <c r="T39" s="18">
+      <c r="T39" s="49">
         <v>18.70373</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A40" s="35" t="s">
-        <v>74</v>
+      <c r="A40" s="43" t="s">
+        <v>79</v>
       </c>
       <c r="J40" s="18"/>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A41" s="14" t="s">
+      <c r="A41" s="21" t="s">
         <v>19</v>
       </c>
       <c r="B41" s="12">
@@ -10890,39 +11170,39 @@
       <c r="G41" s="12">
         <v>12.7</v>
       </c>
-      <c r="K41" s="12">
-        <v>11.2</v>
-      </c>
-      <c r="L41" s="12">
-        <v>10.98</v>
-      </c>
-      <c r="M41" s="12">
-        <v>11.35</v>
-      </c>
-      <c r="N41" s="12">
-        <v>10.55</v>
-      </c>
-      <c r="O41" s="12">
-        <v>10.72</v>
-      </c>
-      <c r="P41" s="12">
-        <v>10.27</v>
-      </c>
-      <c r="Q41" s="12">
-        <v>10.59</v>
-      </c>
-      <c r="R41" s="12">
-        <v>10.28</v>
-      </c>
-      <c r="S41" s="12">
-        <v>10.79</v>
-      </c>
-      <c r="T41" s="12">
-        <v>10.61</v>
+      <c r="K41" s="47">
+        <v>13.849170000000001</v>
+      </c>
+      <c r="L41" s="47">
+        <v>13.623089999999999</v>
+      </c>
+      <c r="M41" s="47">
+        <v>13.811120000000001</v>
+      </c>
+      <c r="N41" s="47">
+        <v>13.19242</v>
+      </c>
+      <c r="O41" s="47">
+        <v>13.32</v>
+      </c>
+      <c r="P41" s="47">
+        <v>12.990930000000001</v>
+      </c>
+      <c r="Q41" s="47">
+        <v>13.268929999999999</v>
+      </c>
+      <c r="R41" s="47">
+        <v>12.919689999999999</v>
+      </c>
+      <c r="S41" s="47">
+        <v>13.66994</v>
+      </c>
+      <c r="T41" s="47">
+        <v>13.568759999999999</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A42" s="14" t="s">
+      <c r="A42" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B42" s="12">
@@ -10937,39 +11217,39 @@
       <c r="G42" s="12">
         <v>16.96</v>
       </c>
-      <c r="K42" s="12">
-        <v>15.32</v>
-      </c>
-      <c r="L42" s="12">
-        <v>14.9</v>
-      </c>
-      <c r="M42" s="12">
-        <v>14.52</v>
-      </c>
-      <c r="N42" s="12">
-        <v>14.5</v>
-      </c>
-      <c r="O42" s="12">
-        <v>14.11</v>
-      </c>
-      <c r="P42" s="12">
-        <v>13.9</v>
-      </c>
-      <c r="Q42" s="12">
-        <v>14.16</v>
-      </c>
-      <c r="R42" s="12">
-        <v>13.82</v>
-      </c>
-      <c r="S42" s="12">
-        <v>14.17</v>
-      </c>
-      <c r="T42" s="12">
-        <v>14.05</v>
+      <c r="K42" s="47">
+        <v>18.232040000000001</v>
+      </c>
+      <c r="L42" s="47">
+        <v>17.7684</v>
+      </c>
+      <c r="M42" s="47">
+        <v>17.33136</v>
+      </c>
+      <c r="N42" s="47">
+        <v>17.182310000000001</v>
+      </c>
+      <c r="O42" s="47">
+        <v>17.105979999999999</v>
+      </c>
+      <c r="P42" s="47">
+        <v>16.80143</v>
+      </c>
+      <c r="Q42" s="47">
+        <v>16.88533</v>
+      </c>
+      <c r="R42" s="47">
+        <v>16.70242</v>
+      </c>
+      <c r="S42" s="47">
+        <v>16.912780000000001</v>
+      </c>
+      <c r="T42" s="47">
+        <v>17.048539999999999</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A43" s="14" t="s">
+      <c r="A43" s="21" t="s">
         <v>21</v>
       </c>
       <c r="B43" s="12">
@@ -10984,35 +11264,35 @@
       <c r="G43" s="12">
         <v>19.670000000000002</v>
       </c>
-      <c r="K43" s="12">
-        <v>18.100000000000001</v>
-      </c>
-      <c r="L43" s="12">
-        <v>17.53</v>
-      </c>
-      <c r="M43" s="12">
-        <v>16.97</v>
-      </c>
-      <c r="N43" s="12">
-        <v>16.5</v>
-      </c>
-      <c r="O43" s="12">
-        <v>16.39</v>
-      </c>
-      <c r="P43" s="12">
-        <v>16.190000000000001</v>
-      </c>
-      <c r="Q43" s="12">
-        <v>16.09</v>
-      </c>
-      <c r="R43" s="12">
-        <v>16.100000000000001</v>
-      </c>
-      <c r="S43" s="12">
-        <v>16.02</v>
-      </c>
-      <c r="T43" s="12">
-        <v>16.43</v>
+      <c r="K43" s="47">
+        <v>21.18892</v>
+      </c>
+      <c r="L43" s="47">
+        <v>20.667860000000001</v>
+      </c>
+      <c r="M43" s="47">
+        <v>20.093</v>
+      </c>
+      <c r="N43" s="47">
+        <v>19.528110000000002</v>
+      </c>
+      <c r="O43" s="47">
+        <v>19.621670000000002</v>
+      </c>
+      <c r="P43" s="47">
+        <v>19.33616</v>
+      </c>
+      <c r="Q43" s="47">
+        <v>18.99944</v>
+      </c>
+      <c r="R43" s="47">
+        <v>19.182120000000001</v>
+      </c>
+      <c r="S43" s="47">
+        <v>19.173539999999999</v>
+      </c>
+      <c r="T43" s="47">
+        <v>19.627189999999999</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.2">
@@ -11031,44 +11311,44 @@
       <c r="G44" s="12">
         <v>22.05</v>
       </c>
-      <c r="K44" s="12">
-        <v>20.25</v>
-      </c>
-      <c r="L44" s="12">
-        <v>19.23</v>
-      </c>
-      <c r="M44" s="12">
-        <v>18.98</v>
-      </c>
-      <c r="N44" s="12">
-        <v>18.190000000000001</v>
-      </c>
-      <c r="O44" s="12">
-        <v>18.43</v>
-      </c>
-      <c r="P44" s="12">
-        <v>18.11</v>
-      </c>
-      <c r="Q44" s="12">
-        <v>18.48</v>
-      </c>
-      <c r="R44" s="12">
-        <v>17.899999999999999</v>
-      </c>
-      <c r="S44" s="12">
-        <v>18.12</v>
-      </c>
-      <c r="T44" s="12">
-        <v>18.7</v>
+      <c r="K44" s="47">
+        <v>23.48385</v>
+      </c>
+      <c r="L44" s="47">
+        <v>22.546569999999999</v>
+      </c>
+      <c r="M44" s="47">
+        <v>22.266459999999999</v>
+      </c>
+      <c r="N44" s="47">
+        <v>21.47326</v>
+      </c>
+      <c r="O44" s="47">
+        <v>21.875240000000002</v>
+      </c>
+      <c r="P44" s="47">
+        <v>21.34441</v>
+      </c>
+      <c r="Q44" s="47">
+        <v>21.621490000000001</v>
+      </c>
+      <c r="R44" s="47">
+        <v>21.20477</v>
+      </c>
+      <c r="S44" s="47">
+        <v>21.355789999999999</v>
+      </c>
+      <c r="T44" s="47">
+        <v>22.202719999999999</v>
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A45" s="35" t="s">
-        <v>73</v>
+      <c r="A45" s="43" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A46" s="14" t="s">
+      <c r="A46" s="21" t="s">
         <v>19</v>
       </c>
       <c r="E46" s="18">
@@ -11079,39 +11359,39 @@
         <v>12.70543</v>
       </c>
       <c r="H46" s="18"/>
-      <c r="K46" s="12">
-        <v>11.25</v>
-      </c>
-      <c r="L46" s="18">
-        <v>10.94</v>
-      </c>
-      <c r="M46" s="18">
-        <v>11.318160000000001</v>
-      </c>
-      <c r="N46" s="18">
-        <v>10.539960000000001</v>
-      </c>
-      <c r="O46" s="18">
-        <v>10.694470000000001</v>
-      </c>
-      <c r="P46" s="18">
-        <v>10.268319999999999</v>
-      </c>
-      <c r="Q46" s="18">
-        <v>10.62804</v>
-      </c>
-      <c r="R46" s="18">
-        <v>10.31137</v>
-      </c>
-      <c r="S46" s="18">
-        <v>10.790929999999999</v>
-      </c>
-      <c r="T46" s="18">
-        <v>10.63754</v>
+      <c r="K46" s="37">
+        <v>13.93524</v>
+      </c>
+      <c r="L46" s="37">
+        <v>13.56888</v>
+      </c>
+      <c r="M46" s="37">
+        <v>13.77824</v>
+      </c>
+      <c r="N46" s="37">
+        <v>13.183820000000001</v>
+      </c>
+      <c r="O46" s="37">
+        <v>13.285080000000001</v>
+      </c>
+      <c r="P46" s="37">
+        <v>12.990930000000001</v>
+      </c>
+      <c r="Q46" s="37">
+        <v>13.33128</v>
+      </c>
+      <c r="R46" s="37">
+        <v>12.9681</v>
+      </c>
+      <c r="S46" s="37">
+        <v>13.67868</v>
+      </c>
+      <c r="T46" s="37">
+        <v>13.60735</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A47" s="14" t="s">
+      <c r="A47" s="21" t="s">
         <v>20</v>
       </c>
       <c r="E47" s="18">
@@ -11123,39 +11403,39 @@
       </c>
       <c r="H47" s="18"/>
       <c r="J47" s="18"/>
-      <c r="K47" s="12">
-        <v>15.29</v>
-      </c>
-      <c r="L47" s="18">
-        <v>14.893750000000001</v>
-      </c>
-      <c r="M47" s="18">
-        <v>14.557729999999999</v>
-      </c>
-      <c r="N47" s="18">
-        <v>14.503539999999999</v>
-      </c>
-      <c r="O47" s="18">
-        <v>14.145659999999999</v>
-      </c>
-      <c r="P47" s="18">
-        <v>13.90419</v>
-      </c>
-      <c r="Q47" s="18">
-        <v>14.12405</v>
-      </c>
-      <c r="R47" s="18">
-        <v>13.805199999999999</v>
-      </c>
-      <c r="S47" s="18">
-        <v>14.15784</v>
-      </c>
-      <c r="T47" s="18">
-        <v>14.05007</v>
+      <c r="K47" s="37">
+        <v>18.17726</v>
+      </c>
+      <c r="L47" s="37">
+        <v>17.761980000000001</v>
+      </c>
+      <c r="M47" s="37">
+        <v>17.38194</v>
+      </c>
+      <c r="N47" s="37">
+        <v>17.18655</v>
+      </c>
+      <c r="O47" s="37">
+        <v>17.158159999999999</v>
+      </c>
+      <c r="P47" s="37">
+        <v>16.80143</v>
+      </c>
+      <c r="Q47" s="42">
+        <v>16.84939</v>
+      </c>
+      <c r="R47" s="42">
+        <v>16.673249999999999</v>
+      </c>
+      <c r="S47" s="42">
+        <v>16.893529999999998</v>
+      </c>
+      <c r="T47" s="42">
+        <v>17.05078</v>
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A48" s="14" t="s">
+      <c r="A48" s="21" t="s">
         <v>21</v>
       </c>
       <c r="E48" s="18">
@@ -11167,35 +11447,35 @@
       </c>
       <c r="H48" s="18"/>
       <c r="J48" s="18"/>
-      <c r="K48" s="12">
-        <v>18.100000000000001</v>
-      </c>
-      <c r="L48" s="18">
-        <v>17.530249999999999</v>
-      </c>
-      <c r="M48" s="18">
-        <v>16.97392</v>
-      </c>
-      <c r="N48" s="18">
-        <v>16.513439999999999</v>
-      </c>
-      <c r="O48" s="18">
-        <v>16.430779999999999</v>
-      </c>
-      <c r="P48" s="18">
-        <v>16.188140000000001</v>
-      </c>
-      <c r="Q48" s="18">
-        <v>16.082619999999999</v>
-      </c>
-      <c r="R48" s="18">
-        <v>16.132180000000002</v>
-      </c>
-      <c r="S48" s="18">
-        <v>16.044429999999998</v>
-      </c>
-      <c r="T48" s="18">
-        <v>16.440359999999998</v>
+      <c r="K48" s="37">
+        <v>21.203379999999999</v>
+      </c>
+      <c r="L48" s="37">
+        <v>20.679449999999999</v>
+      </c>
+      <c r="M48" s="37">
+        <v>20.107330000000001</v>
+      </c>
+      <c r="N48" s="37">
+        <v>19.566859999999998</v>
+      </c>
+      <c r="O48" s="37">
+        <v>19.69097</v>
+      </c>
+      <c r="P48" s="37">
+        <v>19.33616</v>
+      </c>
+      <c r="Q48" s="42">
+        <v>18.99494</v>
+      </c>
+      <c r="R48" s="42">
+        <v>19.235949999999999</v>
+      </c>
+      <c r="S48" s="42">
+        <v>19.212900000000001</v>
+      </c>
+      <c r="T48" s="42">
+        <v>19.644359999999999</v>
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.2">
@@ -11211,35 +11491,35 @@
       </c>
       <c r="H49" s="18"/>
       <c r="J49" s="18"/>
-      <c r="K49" s="12">
-        <v>20.239999999999998</v>
-      </c>
-      <c r="L49" s="18">
-        <v>19.233139999999999</v>
-      </c>
-      <c r="M49" s="18">
-        <v>18.981850000000001</v>
-      </c>
-      <c r="N49" s="18">
-        <v>18.19736</v>
-      </c>
-      <c r="O49" s="18">
-        <v>18.434570000000001</v>
-      </c>
-      <c r="P49" s="18">
-        <v>18.105</v>
-      </c>
-      <c r="Q49" s="18">
-        <v>18.491129999999998</v>
-      </c>
-      <c r="R49" s="18">
-        <v>17.88139</v>
-      </c>
-      <c r="S49" s="18">
-        <v>18.15222</v>
-      </c>
-      <c r="T49" s="18">
-        <v>18.70373</v>
+      <c r="K49" s="37">
+        <v>23.494949999999999</v>
+      </c>
+      <c r="L49" s="37">
+        <v>22.58625</v>
+      </c>
+      <c r="M49" s="37">
+        <v>22.285039999999999</v>
+      </c>
+      <c r="N49" s="37">
+        <v>21.48685</v>
+      </c>
+      <c r="O49" s="37">
+        <v>21.87397</v>
+      </c>
+      <c r="P49" s="37">
+        <v>21.34441</v>
+      </c>
+      <c r="Q49" s="42">
+        <v>21.65164</v>
+      </c>
+      <c r="R49" s="42">
+        <v>21.177790000000002</v>
+      </c>
+      <c r="S49" s="42">
+        <v>21.415019999999998</v>
+      </c>
+      <c r="T49" s="42">
+        <v>22.20374</v>
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.2">
@@ -11249,24 +11529,24 @@
       </c>
       <c r="I50" s="12">
         <f>(G50+K49)/2</f>
-        <v>16.472715000000001</v>
+        <v>18.100189999999998</v>
       </c>
       <c r="J50" s="18"/>
-      <c r="K50" s="12">
+      <c r="K50" s="46">
         <f>K36</f>
         <v>11.25</v>
       </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.2">
       <c r="G51" s="12">
-        <f t="shared" ref="G51:G54" si="0">G37</f>
+        <f t="shared" ref="G51:G53" si="0">G37</f>
         <v>16.994779999999999</v>
       </c>
       <c r="I51" s="12">
         <f>(G51+K50)/2</f>
         <v>14.122389999999999</v>
       </c>
-      <c r="K51" s="12">
+      <c r="K51" s="46">
         <f t="shared" ref="K51:K53" si="1">K37</f>
         <v>15.29</v>
       </c>
@@ -11280,7 +11560,7 @@
         <f>(G52+K51)/2</f>
         <v>17.484175</v>
       </c>
-      <c r="K52" s="12">
+      <c r="K52" s="46">
         <f t="shared" si="1"/>
         <v>18.100000000000001</v>
       </c>
@@ -11294,14 +11574,14 @@
         <f>(G53+K52)/2</f>
         <v>20.131779999999999</v>
       </c>
-      <c r="K53" s="12">
+      <c r="K53" s="46">
         <f t="shared" si="1"/>
         <v>20.239999999999998</v>
       </c>
-      <c r="M53" s="22"/>
-      <c r="N53" s="22"/>
-      <c r="O53" s="22"/>
-      <c r="P53" s="22"/>
+      <c r="M53" s="48"/>
+      <c r="N53" s="48"/>
+      <c r="O53" s="48"/>
+      <c r="P53" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -11373,59 +11653,59 @@
     </row>
     <row r="3" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B3" s="36">
+        <v>76</v>
+      </c>
+      <c r="B3" s="34">
         <v>4377</v>
       </c>
-      <c r="C3" s="36">
+      <c r="C3" s="34">
         <v>4873</v>
       </c>
-      <c r="D3" s="36">
+      <c r="D3" s="34">
         <v>4558</v>
       </c>
-      <c r="E3" s="36">
+      <c r="E3" s="34">
         <v>4524</v>
       </c>
-      <c r="F3" s="36">
+      <c r="F3" s="34">
         <v>4860</v>
       </c>
-      <c r="G3" s="36">
+      <c r="G3" s="34">
         <v>5177</v>
       </c>
-      <c r="H3" s="36">
+      <c r="H3" s="34">
         <v>4580</v>
       </c>
-      <c r="I3" s="36">
+      <c r="I3" s="34">
         <v>4816</v>
       </c>
-      <c r="J3" s="36">
+      <c r="J3" s="34">
         <v>4677</v>
       </c>
-      <c r="K3" s="36">
+      <c r="K3" s="34">
         <v>4552</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="38" t="s">
-        <v>80</v>
-      </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
+      <c r="A4" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
     </row>
     <row r="5" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B5" s="37">
+        <v>72</v>
+      </c>
+      <c r="B5" s="35">
         <v>2225</v>
       </c>
       <c r="C5" s="4">
@@ -11460,7 +11740,7 @@
       <c r="A6" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="37">
+      <c r="B6" s="35">
         <v>2225</v>
       </c>
       <c r="C6" s="4">
@@ -11495,7 +11775,7 @@
       <c r="A7" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="37">
+      <c r="B7" s="35">
         <v>2225</v>
       </c>
       <c r="C7" s="4">
@@ -11528,9 +11808,9 @@
     </row>
     <row r="8" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B8" s="37">
+        <v>73</v>
+      </c>
+      <c r="B8" s="35">
         <v>2225</v>
       </c>
       <c r="C8" s="4">
@@ -11565,7 +11845,7 @@
       <c r="A9" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="37">
+      <c r="B9" s="35">
         <v>2218</v>
       </c>
       <c r="C9" s="4">
@@ -11598,9 +11878,9 @@
     </row>
     <row r="10" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>77</v>
-      </c>
-      <c r="B10" s="37">
+        <v>74</v>
+      </c>
+      <c r="B10" s="35">
         <v>2225</v>
       </c>
       <c r="C10" s="4">
@@ -11633,9 +11913,9 @@
     </row>
     <row r="11" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>78</v>
-      </c>
-      <c r="B11" s="37">
+        <v>75</v>
+      </c>
+      <c r="B11" s="35">
         <v>3035</v>
       </c>
       <c r="C11" s="4">
@@ -11688,46 +11968,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="B1" s="32" t="s">
+      <c r="A1" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="31" t="s">
         <v>61</v>
-      </c>
-      <c r="C1" s="32" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" s="33" t="s">
-        <v>65</v>
+        <v>58</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>66</v>
+        <v>59</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="32" t="s">
-        <v>68</v>
+      <c r="A5" s="31" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B6">
         <v>1151</v>
@@ -11746,7 +12026,7 @@
     </row>
     <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B8">
         <f>B6+B7</f>
@@ -11758,24 +12038,24 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C10" s="32" t="s">
-        <v>71</v>
+      <c r="C10" s="31" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="32" t="s">
-        <v>70</v>
+      <c r="A12" s="31" t="s">
+        <v>69</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C12">
         <v>6485</v>
@@ -11786,7 +12066,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C13">
         <v>339</v>

--- a/FRS_tabs.xlsx
+++ b/FRS_tabs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2020" yWindow="460" windowWidth="25460" windowHeight="17040" activeTab="3"/>
+    <workbookView xWindow="2020" yWindow="460" windowWidth="25460" windowHeight="17040" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="FRS - All" sheetId="2" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="116">
   <si>
     <t>FRS Average</t>
   </si>
@@ -326,14 +326,93 @@
   <si>
     <t>Age-Sex adjusted All (w/ FPG)</t>
   </si>
+  <si>
+    <t>[1] 1.451652</t>
+  </si>
+  <si>
+    <t>[1] 1.455423</t>
+  </si>
+  <si>
+    <t>[1] 1.469182</t>
+  </si>
+  <si>
+    <t>[1] 1.478995</t>
+  </si>
+  <si>
+    <t>[1] 1.473466</t>
+  </si>
+  <si>
+    <t>[1] 1.490877</t>
+  </si>
+  <si>
+    <t>[1] 1.467424</t>
+  </si>
+  <si>
+    <t>[1] 1.504665</t>
+  </si>
+  <si>
+    <t>[1] 1.50687</t>
+  </si>
+  <si>
+    <t>[1] 58.54882</t>
+  </si>
+  <si>
+    <t>[1] 59.1534</t>
+  </si>
+  <si>
+    <t>[1] 58.45313</t>
+  </si>
+  <si>
+    <t>[1] 58.96388</t>
+  </si>
+  <si>
+    <t>[1] 58.65582</t>
+  </si>
+  <si>
+    <t>[1] 58.59182</t>
+  </si>
+  <si>
+    <t>[1] 59.44865</t>
+  </si>
+  <si>
+    <t>[1] 59.07882</t>
+  </si>
+  <si>
+    <t>[1] 60.29214</t>
+  </si>
+  <si>
+    <t>* used regression imputation #2</t>
+  </si>
+  <si>
+    <t>384/2218 have fpg&gt;126</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>w/ FPG</t>
+  </si>
+  <si>
+    <t>101/1901 have fpg&gt;=126</t>
+  </si>
+  <si>
+    <t>497/3900 have fpg&gt;= 126</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -538,157 +617,170 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="39">
+  <cellStyleXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="39">
+  <cellStyles count="47">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -708,6 +800,10 @@
     <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -727,6 +823,10 @@
     <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1025,8 +1125,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1242526448"/>
-        <c:axId val="1242528768"/>
+        <c:axId val="873123856"/>
+        <c:axId val="873125632"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1166,11 +1266,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1242401520"/>
-        <c:axId val="1242532160"/>
+        <c:axId val="869124560"/>
+        <c:axId val="869122240"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1242526448"/>
+        <c:axId val="873123856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1210,7 +1310,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1242528768"/>
+        <c:crossAx val="873125632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1218,7 +1318,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1242528768"/>
+        <c:axId val="873125632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="12.0"/>
@@ -1313,13 +1413,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1242526448"/>
+        <c:crossAx val="873123856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1242532160"/>
+        <c:axId val="869122240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.08"/>
@@ -1357,12 +1457,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1242401520"/>
+        <c:crossAx val="869124560"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1242401520"/>
+        <c:axId val="869124560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1371,7 +1471,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1242532160"/>
+        <c:crossAx val="869122240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1544,7 +1644,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data!$A$32</c:f>
+              <c:f>Data!$A$36</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1612,7 +1712,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$E$32:$T$32</c:f>
+              <c:f>Data!$E$36:$T$36</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1667,7 +1767,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data!$A$36</c:f>
+              <c:f>Data!$A$41</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1735,7 +1835,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$E$36:$T$36</c:f>
+              <c:f>Data!$E$41:$T$41</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1790,7 +1890,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data!$A$40</c:f>
+              <c:f>Data!$A$46</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1860,7 +1960,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$E$40:$T$40</c:f>
+              <c:f>Data!$E$46:$T$46</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1915,7 +2015,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data!$A$44</c:f>
+              <c:f>Data!$A$51</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1983,7 +2083,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$E$44:$T$44</c:f>
+              <c:f>Data!$E$51:$T$51</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="16"/>
@@ -2173,7 +2273,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$E$48:$T$48</c:f>
+              <c:f>Data!$E$56:$T$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -2260,7 +2360,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$E$49:$T$49</c:f>
+              <c:f>Data!$E$57:$T$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -2345,7 +2445,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$E$50:$T$50</c:f>
+              <c:f>Data!$E$58:$T$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -2377,11 +2477,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1242689824"/>
-        <c:axId val="1242707264"/>
+        <c:axId val="869192688"/>
+        <c:axId val="869195952"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1242689824"/>
+        <c:axId val="869192688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2424,7 +2524,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1242707264"/>
+        <c:crossAx val="869195952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2432,7 +2532,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1242707264"/>
+        <c:axId val="869195952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="10.0"/>
@@ -2539,7 +2639,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1242689824"/>
+        <c:crossAx val="869192688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2677,7 +2777,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2789,7 +2888,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$E$70:$T$70</c:f>
+              <c:f>Data!$E$82:$T$82</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="16"/>
@@ -2915,7 +3014,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$E$74:$T$74</c:f>
+              <c:f>Data!$E$87:$T$87</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="16"/>
@@ -3041,7 +3140,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$E$78:$T$78</c:f>
+              <c:f>Data!$E$92:$T$92</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="16"/>
@@ -3167,7 +3266,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$E$82:$T$82</c:f>
+              <c:f>Data!$E$97:$T$97</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="16"/>
@@ -3279,7 +3378,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$E$86:$T$86</c:f>
+              <c:f>Data!$E$102:$T$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -3355,7 +3454,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$E$87:$T$87</c:f>
+              <c:f>Data!$E$103:$T$103</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -3433,7 +3532,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$E$88:$T$88</c:f>
+              <c:f>Data!$E$104:$T$104</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -3509,7 +3608,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$E$89:$T$89</c:f>
+              <c:f>Data!$E$105:$T$105</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -3533,11 +3632,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1243163344"/>
-        <c:axId val="1243173920"/>
+        <c:axId val="875562592"/>
+        <c:axId val="875565856"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1243163344"/>
+        <c:axId val="875562592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3580,7 +3679,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1243173920"/>
+        <c:crossAx val="875565856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3588,7 +3687,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1243173920"/>
+        <c:axId val="875565856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3639,7 +3738,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1243163344"/>
+        <c:crossAx val="875562592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3669,7 +3768,6 @@
         <c:idx val="7"/>
         <c:delete val="1"/>
       </c:legendEntry>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3907,34 +4005,34 @@
                 <c:pt idx="1">
                   <c:v>218.8188</c:v>
                 </c:pt>
-                <c:pt idx="3" formatCode="0.00">
-                  <c:v>215.1971</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="0.00">
-                  <c:v>211.6903</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="0.00">
-                  <c:v>208.929</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="0.00">
+                <c:pt idx="3">
+                  <c:v>215.2425</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>211.5606</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>208.959</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>205.0195</c:v>
                 </c:pt>
-                <c:pt idx="7" formatCode="0.00">
+                <c:pt idx="7">
                   <c:v>202.2142</c:v>
                 </c:pt>
-                <c:pt idx="8" formatCode="0.00">
+                <c:pt idx="8">
                   <c:v>202.2506</c:v>
                 </c:pt>
-                <c:pt idx="9" formatCode="0.00">
+                <c:pt idx="9">
                   <c:v>201.7394</c:v>
                 </c:pt>
-                <c:pt idx="10" formatCode="0.00">
+                <c:pt idx="10">
                   <c:v>194.1554</c:v>
                 </c:pt>
-                <c:pt idx="11" formatCode="0.00">
+                <c:pt idx="11">
                   <c:v>199.7664</c:v>
                 </c:pt>
-                <c:pt idx="12" formatCode="0.00">
+                <c:pt idx="12">
                   <c:v>194.4354</c:v>
                 </c:pt>
               </c:numCache>
@@ -3965,7 +4063,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Risk Factor Tabs'!$D$11:$P$11</c:f>
+              <c:f>'Risk Factor Tabs'!$D$12:$P$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="13"/>
@@ -3973,10 +4071,10 @@
                   <c:v>218.8188</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>217.00795</c:v>
+                  <c:v>217.03065</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>215.1971</c:v>
+                  <c:v>215.2425</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3998,8 +4096,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1232585968"/>
-        <c:axId val="1232361008"/>
+        <c:axId val="875615872"/>
+        <c:axId val="875618624"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4054,34 +4152,34 @@
                 <c:pt idx="1">
                   <c:v>50.30893</c:v>
                 </c:pt>
-                <c:pt idx="3" formatCode="0.00">
-                  <c:v>51.60009</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="0.00">
-                  <c:v>53.15338</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="0.00">
-                  <c:v>54.8624</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="0.00">
+                <c:pt idx="3">
+                  <c:v>51.59385</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>53.1118</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>54.82845</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>55.83755</c:v>
                 </c:pt>
-                <c:pt idx="7" formatCode="0.00">
+                <c:pt idx="7">
                   <c:v>52.82069</c:v>
                 </c:pt>
-                <c:pt idx="8" formatCode="0.00">
+                <c:pt idx="8">
                   <c:v>54.36357</c:v>
                 </c:pt>
-                <c:pt idx="9" formatCode="0.00">
+                <c:pt idx="9">
                   <c:v>53.97254</c:v>
                 </c:pt>
-                <c:pt idx="10" formatCode="0.00">
+                <c:pt idx="10">
                   <c:v>54.47526</c:v>
                 </c:pt>
-                <c:pt idx="11" formatCode="0.00">
+                <c:pt idx="11">
                   <c:v>56.8188</c:v>
                 </c:pt>
-                <c:pt idx="12" formatCode="0.00">
+                <c:pt idx="12">
                   <c:v>54.19771</c:v>
                 </c:pt>
               </c:numCache>
@@ -4160,7 +4258,7 @@
           </c:dPt>
           <c:val>
             <c:numRef>
-              <c:f>'Risk Factor Tabs'!$D$12:$P$12</c:f>
+              <c:f>'Risk Factor Tabs'!$D$13:$P$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="13"/>
@@ -4168,10 +4266,10 @@
                   <c:v>50.30893</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50.95451</c:v>
+                  <c:v>50.95139</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>51.60009</c:v>
+                  <c:v>51.59385</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4193,11 +4291,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1242870720"/>
-        <c:axId val="1242839200"/>
+        <c:axId val="875626144"/>
+        <c:axId val="875622384"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1232585968"/>
+        <c:axId val="875615872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4240,7 +4338,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1232361008"/>
+        <c:crossAx val="875618624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4248,7 +4346,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1232361008"/>
+        <c:axId val="875618624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="180.0"/>
@@ -4355,12 +4453,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1232585968"/>
+        <c:crossAx val="875615872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1242839200"/>
+        <c:axId val="875622384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4452,12 +4550,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1242870720"/>
+        <c:crossAx val="875626144"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1242870720"/>
+        <c:axId val="875626144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4466,7 +4564,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1242839200"/>
+        <c:crossAx val="875622384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5119,7 +5217,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Risk Factor Tabs'!$R$11:$AD$11</c:f>
+              <c:f>'Risk Factor Tabs'!$R$12:$AD$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="13"/>
@@ -5160,7 +5258,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Risk Factor Tabs'!$AF$11:$AR$11</c:f>
+              <c:f>'Risk Factor Tabs'!$AF$12:$AR$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="13"/>
@@ -5203,7 +5301,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Risk Factor Tabs'!$AT$11:$BF$11</c:f>
+              <c:f>'Risk Factor Tabs'!$AT$12:$BF$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="13"/>
@@ -5244,7 +5342,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Risk Factor Tabs'!$BH$11:$BT$11</c:f>
+              <c:f>'Risk Factor Tabs'!$BH$12:$BT$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="13"/>
@@ -5277,11 +5375,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1243350496"/>
-        <c:axId val="1241870352"/>
+        <c:axId val="875687056"/>
+        <c:axId val="875690320"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1243350496"/>
+        <c:axId val="875687056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5324,7 +5422,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1241870352"/>
+        <c:crossAx val="875690320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5332,7 +5430,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1241870352"/>
+        <c:axId val="875690320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="180.0"/>
@@ -5384,7 +5482,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1243350496"/>
+        <c:crossAx val="875687056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5628,35 +5726,35 @@
                 <c:pt idx="1">
                   <c:v>0.09577885</c:v>
                 </c:pt>
-                <c:pt idx="3" formatCode="0.00">
-                  <c:v>0.1083513</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="0.00">
-                  <c:v>0.09262847</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="0.00">
-                  <c:v>0.10653</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="0.00">
-                  <c:v>0.097551</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="0.00">
-                  <c:v>0.1259082</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="0.00">
-                  <c:v>0.1238412</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="0.00">
-                  <c:v>0.1233062</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="0.00">
-                  <c:v>0.1361672</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="0.00">
-                  <c:v>0.1365319</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="0.00">
-                  <c:v>0.1590949</c:v>
+                <c:pt idx="3">
+                  <c:v>0.1251555</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1108703</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1224906</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1083492</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.154837</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1239505</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1181139</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1395927</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.1546007</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.1823967</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5686,7 +5784,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Risk Factor Tabs'!$D$13:$P$13</c:f>
+              <c:f>'Risk Factor Tabs'!$D$14:$P$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="13"/>
@@ -5694,10 +5792,10 @@
                   <c:v>0.09577885</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.102065075</c:v>
+                  <c:v>0.110467175</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.1083513</c:v>
+                  <c:v>0.1251555</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5718,11 +5816,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1243171024"/>
-        <c:axId val="1242964272"/>
+        <c:axId val="875716416"/>
+        <c:axId val="875719168"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1243171024"/>
+        <c:axId val="875716416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5765,7 +5863,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1242964272"/>
+        <c:crossAx val="875719168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5773,7 +5871,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1242964272"/>
+        <c:axId val="875719168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5824,7 +5922,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1243171024"/>
+        <c:crossAx val="875716416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9707,13 +9805,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB89"/>
+  <dimension ref="A1:AB105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="75" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J21" sqref="J21"/>
+      <selection pane="bottomRight" activeCell="A98" activeCellId="14" sqref="A21 A26 A31 A37 A42 A47 A52 A62 A67 A72 A77 A83 A88 A93 A98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9733,26 +9831,26 @@
         <v>54</v>
       </c>
       <c r="C1" s="23"/>
-      <c r="D1" s="64" t="s">
+      <c r="D1" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
       <c r="H1" s="24"/>
       <c r="J1" s="24"/>
-      <c r="K1" s="65" t="s">
+      <c r="K1" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -9852,8 +9950,11 @@
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="64" t="s">
         <v>90</v>
+      </c>
+      <c r="B4" s="9">
+        <v>15.353820000000001</v>
       </c>
       <c r="F4" s="22"/>
       <c r="K4" s="2"/>
@@ -10004,13 +10105,16 @@
       <c r="X8" s="9"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A9" s="67" t="s">
+      <c r="A9" s="64" t="s">
         <v>91</v>
+      </c>
+      <c r="B9" s="12">
+        <v>15.24625</v>
       </c>
       <c r="F9" s="22"/>
       <c r="H9" s="22"/>
       <c r="U9" s="9"/>
-      <c r="V9" s="68"/>
+      <c r="V9" s="65"/>
       <c r="W9" s="9"/>
       <c r="X9" s="9"/>
     </row>
@@ -10214,44 +10318,14 @@
       <c r="Y15" s="9"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A16" s="45" t="s">
-        <v>83</v>
-      </c>
-      <c r="B16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="58"/>
-      <c r="K16" s="35">
-        <v>19.371960000000001</v>
-      </c>
-      <c r="L16" s="35">
-        <v>18.531379999999999</v>
-      </c>
-      <c r="M16" s="35">
-        <v>18.77075</v>
-      </c>
-      <c r="N16" s="35">
-        <v>18.565919999999998</v>
-      </c>
-      <c r="O16" s="35">
-        <v>18.015619999999998</v>
-      </c>
-      <c r="P16" s="35">
-        <v>17.571110000000001</v>
-      </c>
-      <c r="Q16" s="35">
-        <v>17.672239999999999</v>
-      </c>
-      <c r="R16" s="40">
-        <v>17.39913</v>
-      </c>
-      <c r="S16" s="40">
-        <v>18.101759999999999</v>
-      </c>
-      <c r="T16" s="40">
-        <v>18.793669999999999</v>
-      </c>
+      <c r="A16" s="52" t="s">
+        <v>113</v>
+      </c>
+      <c r="B16" s="9">
+        <v>16.05396</v>
+      </c>
+      <c r="F16" s="22"/>
+      <c r="H16" s="22"/>
       <c r="U16" s="9"/>
       <c r="V16" s="9"/>
       <c r="W16" s="9"/>
@@ -10260,42 +10334,42 @@
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="B17" s="22"/>
-      <c r="E17" s="26"/>
+        <v>83</v>
+      </c>
+      <c r="B17" s="27"/>
+      <c r="E17" s="27"/>
       <c r="F17" s="58"/>
-      <c r="G17" s="26"/>
+      <c r="G17" s="27"/>
       <c r="H17" s="58"/>
-      <c r="K17" s="54">
-        <v>19.364139999999999</v>
-      </c>
-      <c r="L17" s="54">
-        <v>18.530989999999999</v>
-      </c>
-      <c r="M17" s="54">
-        <v>18.77234</v>
-      </c>
-      <c r="N17" s="54">
-        <v>18.583570000000002</v>
-      </c>
-      <c r="O17" s="54">
-        <v>17.962039999999998</v>
-      </c>
-      <c r="P17" s="54">
-        <v>17.54241</v>
-      </c>
-      <c r="Q17" s="54">
-        <v>17.733640000000001</v>
-      </c>
-      <c r="R17" s="54">
-        <v>17.412099999999999</v>
-      </c>
-      <c r="S17" s="54">
-        <v>18.103079999999999</v>
-      </c>
-      <c r="T17" s="54">
-        <v>18.74934</v>
+      <c r="K17" s="35">
+        <v>19.371960000000001</v>
+      </c>
+      <c r="L17" s="35">
+        <v>18.531379999999999</v>
+      </c>
+      <c r="M17" s="35">
+        <v>18.77075</v>
+      </c>
+      <c r="N17" s="35">
+        <v>18.565919999999998</v>
+      </c>
+      <c r="O17" s="35">
+        <v>18.015619999999998</v>
+      </c>
+      <c r="P17" s="35">
+        <v>17.571110000000001</v>
+      </c>
+      <c r="Q17" s="35">
+        <v>17.672239999999999</v>
+      </c>
+      <c r="R17" s="40">
+        <v>17.39913</v>
+      </c>
+      <c r="S17" s="40">
+        <v>18.101759999999999</v>
+      </c>
+      <c r="T17" s="40">
+        <v>18.793669999999999</v>
       </c>
       <c r="U17" s="9"/>
       <c r="V17" s="9"/>
@@ -10305,42 +10379,42 @@
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" s="45" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B18" s="22"/>
       <c r="E18" s="26"/>
       <c r="F18" s="58"/>
       <c r="G18" s="26"/>
       <c r="H18" s="58"/>
-      <c r="K18" s="49">
-        <v>19.346730000000001</v>
-      </c>
-      <c r="L18" s="49">
-        <v>18.49729</v>
-      </c>
-      <c r="M18" s="49">
-        <v>18.758130000000001</v>
-      </c>
-      <c r="N18" s="49">
-        <v>18.604089999999999</v>
-      </c>
-      <c r="O18" s="49">
-        <v>17.915199999999999</v>
-      </c>
-      <c r="P18" s="49">
-        <v>17.538609999999998</v>
-      </c>
-      <c r="Q18" s="49">
-        <v>17.78445</v>
-      </c>
-      <c r="R18" s="49">
-        <v>17.447870000000002</v>
-      </c>
-      <c r="S18" s="49">
-        <v>18.145489999999999</v>
-      </c>
-      <c r="T18" s="49">
-        <v>18.684449999999998</v>
+      <c r="K18" s="54">
+        <v>19.364139999999999</v>
+      </c>
+      <c r="L18" s="54">
+        <v>18.530989999999999</v>
+      </c>
+      <c r="M18" s="54">
+        <v>18.77234</v>
+      </c>
+      <c r="N18" s="54">
+        <v>18.583570000000002</v>
+      </c>
+      <c r="O18" s="54">
+        <v>17.962039999999998</v>
+      </c>
+      <c r="P18" s="54">
+        <v>17.54241</v>
+      </c>
+      <c r="Q18" s="54">
+        <v>17.733640000000001</v>
+      </c>
+      <c r="R18" s="54">
+        <v>17.412099999999999</v>
+      </c>
+      <c r="S18" s="54">
+        <v>18.103079999999999</v>
+      </c>
+      <c r="T18" s="54">
+        <v>18.74934</v>
       </c>
       <c r="U18" s="9"/>
       <c r="V18" s="9"/>
@@ -10349,49 +10423,43 @@
       <c r="Y18" s="9"/>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A19" s="46" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" s="12">
-        <v>16.63</v>
-      </c>
-      <c r="E19" s="12">
-        <v>16.64</v>
-      </c>
-      <c r="F19" s="22"/>
-      <c r="G19" s="12">
-        <v>16.71</v>
-      </c>
-      <c r="H19" s="22"/>
-      <c r="K19" s="39">
-        <v>15.27</v>
-      </c>
-      <c r="L19" s="39">
-        <v>15.15</v>
-      </c>
-      <c r="M19" s="39">
-        <v>14.11</v>
-      </c>
-      <c r="N19" s="39">
-        <v>14.28</v>
-      </c>
-      <c r="O19" s="39">
-        <v>14.37</v>
-      </c>
-      <c r="P19" s="39">
-        <v>14.03</v>
-      </c>
-      <c r="Q19" s="39">
-        <v>14.32</v>
-      </c>
-      <c r="R19" s="39">
-        <v>14.38</v>
-      </c>
-      <c r="S19" s="39">
-        <v>14.62</v>
-      </c>
-      <c r="T19" s="39">
-        <v>14.89</v>
+      <c r="A19" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="B19" s="22"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="58"/>
+      <c r="K19" s="49">
+        <v>19.346730000000001</v>
+      </c>
+      <c r="L19" s="49">
+        <v>18.49729</v>
+      </c>
+      <c r="M19" s="49">
+        <v>18.758130000000001</v>
+      </c>
+      <c r="N19" s="49">
+        <v>18.604089999999999</v>
+      </c>
+      <c r="O19" s="49">
+        <v>17.915199999999999</v>
+      </c>
+      <c r="P19" s="49">
+        <v>17.538609999999998</v>
+      </c>
+      <c r="Q19" s="49">
+        <v>17.78445</v>
+      </c>
+      <c r="R19" s="49">
+        <v>17.447870000000002</v>
+      </c>
+      <c r="S19" s="49">
+        <v>18.145489999999999</v>
+      </c>
+      <c r="T19" s="49">
+        <v>18.684449999999998</v>
       </c>
       <c r="U19" s="9"/>
       <c r="V19" s="9"/>
@@ -10400,43 +10468,49 @@
       <c r="Y19" s="9"/>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A20" s="45" t="s">
-        <v>83</v>
-      </c>
-      <c r="B20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="27"/>
+      <c r="A20" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="12">
+        <v>16.63</v>
+      </c>
+      <c r="E20" s="12">
+        <v>16.64</v>
+      </c>
+      <c r="F20" s="22"/>
+      <c r="G20" s="12">
+        <v>16.71</v>
+      </c>
       <c r="H20" s="22"/>
-      <c r="K20" s="35">
-        <v>18.065429999999999</v>
-      </c>
-      <c r="L20" s="35">
-        <v>17.838049999999999</v>
-      </c>
-      <c r="M20" s="35">
-        <v>16.7104</v>
-      </c>
-      <c r="N20" s="35">
-        <v>16.986940000000001</v>
-      </c>
-      <c r="O20" s="35">
-        <v>17.154219999999999</v>
-      </c>
-      <c r="P20" s="35">
-        <v>16.889769999999999</v>
-      </c>
-      <c r="Q20" s="35">
-        <v>16.981310000000001</v>
-      </c>
-      <c r="R20" s="40">
-        <v>17.03905</v>
-      </c>
-      <c r="S20" s="40">
-        <v>17.290040000000001</v>
-      </c>
-      <c r="T20" s="40">
-        <v>17.77327</v>
+      <c r="K20" s="39">
+        <v>15.27</v>
+      </c>
+      <c r="L20" s="39">
+        <v>15.15</v>
+      </c>
+      <c r="M20" s="39">
+        <v>14.11</v>
+      </c>
+      <c r="N20" s="39">
+        <v>14.28</v>
+      </c>
+      <c r="O20" s="39">
+        <v>14.37</v>
+      </c>
+      <c r="P20" s="39">
+        <v>14.03</v>
+      </c>
+      <c r="Q20" s="39">
+        <v>14.32</v>
+      </c>
+      <c r="R20" s="39">
+        <v>14.38</v>
+      </c>
+      <c r="S20" s="39">
+        <v>14.62</v>
+      </c>
+      <c r="T20" s="39">
+        <v>14.89</v>
       </c>
       <c r="U20" s="9"/>
       <c r="V20" s="9"/>
@@ -10445,44 +10519,14 @@
       <c r="Y20" s="9"/>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A21" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="B21" s="22"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="58"/>
-      <c r="K21" s="54">
-        <v>18.085370000000001</v>
-      </c>
-      <c r="L21" s="54">
-        <v>17.848310000000001</v>
-      </c>
-      <c r="M21" s="54">
-        <v>16.721630000000001</v>
-      </c>
-      <c r="N21" s="54">
-        <v>16.978719999999999</v>
-      </c>
-      <c r="O21" s="54">
-        <v>17.136310000000002</v>
-      </c>
-      <c r="P21" s="54">
-        <v>16.912220000000001</v>
-      </c>
-      <c r="Q21" s="54">
-        <v>17.022770000000001</v>
-      </c>
-      <c r="R21" s="54">
-        <v>17.04053</v>
-      </c>
-      <c r="S21" s="54">
-        <v>17.356649999999998</v>
-      </c>
-      <c r="T21" s="54">
-        <v>17.691310000000001</v>
-      </c>
+      <c r="A21" s="52" t="s">
+        <v>113</v>
+      </c>
+      <c r="B21" s="12">
+        <v>14.91873</v>
+      </c>
+      <c r="F21" s="22"/>
+      <c r="H21" s="22"/>
       <c r="U21" s="9"/>
       <c r="V21" s="9"/>
       <c r="W21" s="9"/>
@@ -10491,42 +10535,42 @@
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A22" s="45" t="s">
-        <v>88</v>
-      </c>
-      <c r="B22" s="22"/>
-      <c r="E22" s="26"/>
+        <v>83</v>
+      </c>
+      <c r="B22" s="27"/>
+      <c r="E22" s="27"/>
       <c r="F22" s="58"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="58"/>
-      <c r="K22" s="49">
-        <v>18.09205</v>
-      </c>
-      <c r="L22" s="49">
-        <v>17.879580000000001</v>
-      </c>
-      <c r="M22" s="49">
-        <v>16.708559999999999</v>
-      </c>
-      <c r="N22" s="49">
-        <v>16.969860000000001</v>
-      </c>
-      <c r="O22" s="49">
-        <v>17.093509999999998</v>
-      </c>
-      <c r="P22" s="49">
-        <v>16.91582</v>
-      </c>
-      <c r="Q22" s="49">
-        <v>17.02646</v>
-      </c>
-      <c r="R22" s="49">
-        <v>17.058599999999998</v>
-      </c>
-      <c r="S22" s="49">
-        <v>17.384869999999999</v>
-      </c>
-      <c r="T22" s="49">
-        <v>17.623860000000001</v>
+      <c r="G22" s="27"/>
+      <c r="H22" s="22"/>
+      <c r="K22" s="35">
+        <v>18.065429999999999</v>
+      </c>
+      <c r="L22" s="35">
+        <v>17.838049999999999</v>
+      </c>
+      <c r="M22" s="35">
+        <v>16.7104</v>
+      </c>
+      <c r="N22" s="35">
+        <v>16.986940000000001</v>
+      </c>
+      <c r="O22" s="35">
+        <v>17.154219999999999</v>
+      </c>
+      <c r="P22" s="35">
+        <v>16.889769999999999</v>
+      </c>
+      <c r="Q22" s="35">
+        <v>16.981310000000001</v>
+      </c>
+      <c r="R22" s="40">
+        <v>17.03905</v>
+      </c>
+      <c r="S22" s="40">
+        <v>17.290040000000001</v>
+      </c>
+      <c r="T22" s="40">
+        <v>17.77327</v>
       </c>
       <c r="U22" s="9"/>
       <c r="V22" s="9"/>
@@ -10535,24 +10579,44 @@
       <c r="Y22" s="9"/>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A23" s="46" t="s">
-        <v>34</v>
+      <c r="A23" s="45" t="s">
+        <v>87</v>
       </c>
       <c r="B23" s="22"/>
       <c r="E23" s="26"/>
       <c r="F23" s="58"/>
       <c r="G23" s="26"/>
       <c r="H23" s="58"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="9"/>
-      <c r="S23" s="9"/>
-      <c r="T23" s="9"/>
+      <c r="K23" s="54">
+        <v>18.085370000000001</v>
+      </c>
+      <c r="L23" s="54">
+        <v>17.848310000000001</v>
+      </c>
+      <c r="M23" s="54">
+        <v>16.721630000000001</v>
+      </c>
+      <c r="N23" s="54">
+        <v>16.978719999999999</v>
+      </c>
+      <c r="O23" s="54">
+        <v>17.136310000000002</v>
+      </c>
+      <c r="P23" s="54">
+        <v>16.912220000000001</v>
+      </c>
+      <c r="Q23" s="54">
+        <v>17.022770000000001</v>
+      </c>
+      <c r="R23" s="54">
+        <v>17.04053</v>
+      </c>
+      <c r="S23" s="54">
+        <v>17.356649999999998</v>
+      </c>
+      <c r="T23" s="54">
+        <v>17.691310000000001</v>
+      </c>
       <c r="U23" s="9"/>
       <c r="V23" s="9"/>
       <c r="W23" s="9"/>
@@ -10561,42 +10625,42 @@
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A24" s="45" t="s">
-        <v>83</v>
-      </c>
-      <c r="B24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="22"/>
-      <c r="K24" s="35">
-        <v>17.414829999999998</v>
-      </c>
-      <c r="L24" s="35">
-        <v>16.01397</v>
-      </c>
-      <c r="M24" s="35">
-        <v>16.721309999999999</v>
-      </c>
-      <c r="N24" s="35">
-        <v>15.889049999999999</v>
-      </c>
-      <c r="O24" s="35">
-        <v>16.446739999999998</v>
-      </c>
-      <c r="P24" s="35">
-        <v>16.693819999999999</v>
-      </c>
-      <c r="Q24" s="35">
-        <v>16.65081</v>
-      </c>
-      <c r="R24" s="40">
-        <v>16.565460000000002</v>
-      </c>
-      <c r="S24" s="40">
-        <v>16.976199999999999</v>
-      </c>
-      <c r="T24" s="40">
-        <v>16.91076</v>
+        <v>88</v>
+      </c>
+      <c r="B24" s="22"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="58"/>
+      <c r="K24" s="49">
+        <v>18.09205</v>
+      </c>
+      <c r="L24" s="49">
+        <v>17.879580000000001</v>
+      </c>
+      <c r="M24" s="49">
+        <v>16.708559999999999</v>
+      </c>
+      <c r="N24" s="49">
+        <v>16.969860000000001</v>
+      </c>
+      <c r="O24" s="49">
+        <v>17.093509999999998</v>
+      </c>
+      <c r="P24" s="49">
+        <v>16.91582</v>
+      </c>
+      <c r="Q24" s="49">
+        <v>17.02646</v>
+      </c>
+      <c r="R24" s="49">
+        <v>17.058599999999998</v>
+      </c>
+      <c r="S24" s="49">
+        <v>17.384869999999999</v>
+      </c>
+      <c r="T24" s="49">
+        <v>17.623860000000001</v>
       </c>
       <c r="U24" s="9"/>
       <c r="V24" s="9"/>
@@ -10605,42 +10669,24 @@
       <c r="Y24" s="9"/>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A25" s="45" t="s">
-        <v>87</v>
+      <c r="A25" s="46" t="s">
+        <v>34</v>
       </c>
       <c r="B25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="K25" s="54">
-        <v>17.37133</v>
-      </c>
-      <c r="L25" s="54">
-        <v>16.062670000000001</v>
-      </c>
-      <c r="M25" s="54">
-        <v>16.760539999999999</v>
-      </c>
-      <c r="N25" s="54">
-        <v>15.967879999999999</v>
-      </c>
-      <c r="O25" s="54">
-        <v>16.43825</v>
-      </c>
-      <c r="P25" s="54">
-        <v>16.699719999999999</v>
-      </c>
-      <c r="Q25" s="54">
-        <v>16.699269999999999</v>
-      </c>
-      <c r="R25" s="54">
-        <v>16.637049999999999</v>
-      </c>
-      <c r="S25" s="54">
-        <v>17.019100000000002</v>
-      </c>
-      <c r="T25" s="54">
-        <v>16.864750000000001</v>
-      </c>
+      <c r="E25" s="26"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="58"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="9"/>
+      <c r="T25" s="9"/>
       <c r="U25" s="9"/>
       <c r="V25" s="9"/>
       <c r="W25" s="9"/>
@@ -10648,42 +10694,26 @@
       <c r="Y25" s="9"/>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A26" s="45" t="s">
-        <v>88</v>
-      </c>
-      <c r="B26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="K26" s="49">
-        <v>17.366029999999999</v>
-      </c>
-      <c r="L26" s="49">
-        <v>16.09863</v>
-      </c>
-      <c r="M26" s="49">
-        <v>16.664439999999999</v>
-      </c>
-      <c r="N26" s="49">
-        <v>15.95332</v>
-      </c>
-      <c r="O26" s="49">
-        <v>16.408639999999998</v>
-      </c>
-      <c r="P26" s="49">
-        <v>16.671869999999998</v>
-      </c>
-      <c r="Q26" s="49">
-        <v>16.741050000000001</v>
-      </c>
-      <c r="R26" s="49">
-        <v>16.627269999999999</v>
-      </c>
-      <c r="S26" s="49">
-        <v>17.06467</v>
-      </c>
-      <c r="T26" s="49">
-        <v>16.78576</v>
-      </c>
+      <c r="A26" s="52" t="s">
+        <v>113</v>
+      </c>
+      <c r="B26" s="22">
+        <v>14.47763</v>
+      </c>
+      <c r="E26" s="26"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="58"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="9"/>
+      <c r="T26" s="9"/>
       <c r="U26" s="9"/>
       <c r="V26" s="9"/>
       <c r="W26" s="9"/>
@@ -10691,49 +10721,43 @@
       <c r="Y26" s="9"/>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A27" s="48" t="s">
-        <v>35</v>
-      </c>
-      <c r="D27" s="12">
-        <v>15.38</v>
-      </c>
-      <c r="E27" s="12">
-        <v>15.24</v>
-      </c>
+      <c r="A27" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="B27" s="27"/>
+      <c r="E27" s="27"/>
       <c r="F27" s="22"/>
-      <c r="G27" s="12">
-        <v>15.21</v>
-      </c>
+      <c r="G27" s="27"/>
       <c r="H27" s="22"/>
-      <c r="K27" s="39">
-        <v>12.46</v>
-      </c>
-      <c r="L27" s="39">
-        <v>12.91</v>
-      </c>
-      <c r="M27" s="39">
-        <v>13.07</v>
-      </c>
-      <c r="N27" s="39">
-        <v>12.1</v>
-      </c>
-      <c r="O27" s="39">
-        <v>11.85</v>
-      </c>
-      <c r="P27" s="39">
-        <v>11.79</v>
-      </c>
-      <c r="Q27" s="39">
-        <v>12.44</v>
-      </c>
-      <c r="R27" s="39">
-        <v>12.4</v>
-      </c>
-      <c r="S27" s="39">
-        <v>12.82</v>
-      </c>
-      <c r="T27" s="39">
-        <v>13.33</v>
+      <c r="K27" s="35">
+        <v>17.414829999999998</v>
+      </c>
+      <c r="L27" s="35">
+        <v>16.01397</v>
+      </c>
+      <c r="M27" s="35">
+        <v>16.721309999999999</v>
+      </c>
+      <c r="N27" s="35">
+        <v>15.889049999999999</v>
+      </c>
+      <c r="O27" s="35">
+        <v>16.446739999999998</v>
+      </c>
+      <c r="P27" s="35">
+        <v>16.693819999999999</v>
+      </c>
+      <c r="Q27" s="35">
+        <v>16.65081</v>
+      </c>
+      <c r="R27" s="40">
+        <v>16.565460000000002</v>
+      </c>
+      <c r="S27" s="40">
+        <v>16.976199999999999</v>
+      </c>
+      <c r="T27" s="40">
+        <v>16.91076</v>
       </c>
       <c r="U27" s="9"/>
       <c r="V27" s="9"/>
@@ -10743,133 +10767,147 @@
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A28" s="45" t="s">
-        <v>83</v>
-      </c>
-      <c r="B28" s="27"/>
-      <c r="E28" s="61"/>
+        <v>87</v>
+      </c>
+      <c r="B28" s="22"/>
       <c r="F28" s="22"/>
-      <c r="G28" s="61"/>
       <c r="H28" s="22"/>
-      <c r="K28" s="40">
-        <v>15.7791</v>
-      </c>
-      <c r="L28" s="40">
-        <v>16.1632</v>
-      </c>
-      <c r="M28" s="40">
-        <v>16.190550000000002</v>
-      </c>
-      <c r="N28" s="40">
-        <v>15.29542</v>
-      </c>
-      <c r="O28" s="40">
-        <v>15.192080000000001</v>
-      </c>
-      <c r="P28" s="40">
-        <v>15.111649999999999</v>
-      </c>
-      <c r="Q28" s="40">
-        <v>15.637269999999999</v>
-      </c>
-      <c r="R28" s="40">
-        <v>15.760730000000001</v>
-      </c>
-      <c r="S28" s="40">
-        <v>16.139209999999999</v>
-      </c>
-      <c r="T28" s="40">
-        <v>16.7303</v>
+      <c r="K28" s="54">
+        <v>17.37133</v>
+      </c>
+      <c r="L28" s="54">
+        <v>16.062670000000001</v>
+      </c>
+      <c r="M28" s="54">
+        <v>16.760539999999999</v>
+      </c>
+      <c r="N28" s="54">
+        <v>15.967879999999999</v>
+      </c>
+      <c r="O28" s="54">
+        <v>16.43825</v>
+      </c>
+      <c r="P28" s="54">
+        <v>16.699719999999999</v>
+      </c>
+      <c r="Q28" s="54">
+        <v>16.699269999999999</v>
+      </c>
+      <c r="R28" s="54">
+        <v>16.637049999999999</v>
+      </c>
+      <c r="S28" s="54">
+        <v>17.019100000000002</v>
+      </c>
+      <c r="T28" s="54">
+        <v>16.864750000000001</v>
       </c>
       <c r="U28" s="9"/>
       <c r="V28" s="9"/>
       <c r="W28" s="9"/>
       <c r="X28" s="9"/>
+      <c r="Y28" s="9"/>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A29" s="45" t="s">
-        <v>87</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="B29" s="22"/>
       <c r="F29" s="22"/>
       <c r="H29" s="22"/>
-      <c r="K29" s="54">
-        <v>15.758929999999999</v>
-      </c>
-      <c r="L29" s="54">
-        <v>16.173179999999999</v>
-      </c>
-      <c r="M29" s="54">
-        <v>16.20438</v>
-      </c>
-      <c r="N29" s="54">
-        <v>15.337149999999999</v>
-      </c>
-      <c r="O29" s="54">
-        <v>15.139530000000001</v>
-      </c>
-      <c r="P29" s="54">
-        <v>15.18519</v>
-      </c>
-      <c r="Q29" s="54">
-        <v>15.67902</v>
-      </c>
-      <c r="R29" s="54">
-        <v>15.78384</v>
-      </c>
-      <c r="S29" s="54">
-        <v>16.187080000000002</v>
-      </c>
-      <c r="T29" s="54">
-        <v>16.72852</v>
+      <c r="K29" s="49">
+        <v>17.366029999999999</v>
+      </c>
+      <c r="L29" s="49">
+        <v>16.09863</v>
+      </c>
+      <c r="M29" s="49">
+        <v>16.664439999999999</v>
+      </c>
+      <c r="N29" s="49">
+        <v>15.95332</v>
+      </c>
+      <c r="O29" s="49">
+        <v>16.408639999999998</v>
+      </c>
+      <c r="P29" s="49">
+        <v>16.671869999999998</v>
+      </c>
+      <c r="Q29" s="49">
+        <v>16.741050000000001</v>
+      </c>
+      <c r="R29" s="49">
+        <v>16.627269999999999</v>
+      </c>
+      <c r="S29" s="49">
+        <v>17.06467</v>
+      </c>
+      <c r="T29" s="49">
+        <v>16.78576</v>
       </c>
       <c r="U29" s="9"/>
       <c r="V29" s="9"/>
       <c r="W29" s="9"/>
       <c r="X29" s="9"/>
+      <c r="Y29" s="9"/>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A30" s="45" t="s">
-        <v>88</v>
+      <c r="A30" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="12">
+        <v>15.38</v>
+      </c>
+      <c r="E30" s="12">
+        <v>15.24</v>
       </c>
       <c r="F30" s="22"/>
+      <c r="G30" s="12">
+        <v>15.21</v>
+      </c>
       <c r="H30" s="22"/>
-      <c r="K30" s="49">
-        <v>17.366029999999999</v>
-      </c>
-      <c r="L30" s="49">
-        <v>16.09863</v>
-      </c>
-      <c r="M30" s="49">
-        <v>16.664439999999999</v>
-      </c>
-      <c r="N30" s="49">
-        <v>15.95332</v>
-      </c>
-      <c r="O30" s="49">
-        <v>16.408639999999998</v>
-      </c>
-      <c r="P30" s="49">
-        <v>16.671869999999998</v>
-      </c>
-      <c r="Q30" s="49">
-        <v>16.741050000000001</v>
-      </c>
-      <c r="R30" s="49">
-        <v>16.627269999999999</v>
-      </c>
-      <c r="S30" s="49">
-        <v>17.06467</v>
-      </c>
-      <c r="T30" s="49">
-        <v>16.78576</v>
+      <c r="K30" s="39">
+        <v>12.46</v>
+      </c>
+      <c r="L30" s="39">
+        <v>12.91</v>
+      </c>
+      <c r="M30" s="39">
+        <v>13.07</v>
+      </c>
+      <c r="N30" s="39">
+        <v>12.1</v>
+      </c>
+      <c r="O30" s="39">
+        <v>11.85</v>
+      </c>
+      <c r="P30" s="39">
+        <v>11.79</v>
+      </c>
+      <c r="Q30" s="39">
+        <v>12.44</v>
+      </c>
+      <c r="R30" s="39">
+        <v>12.4</v>
+      </c>
+      <c r="S30" s="39">
+        <v>12.82</v>
+      </c>
+      <c r="T30" s="39">
+        <v>13.33</v>
       </c>
       <c r="U30" s="9"/>
       <c r="V30" s="9"/>
       <c r="W30" s="9"/>
       <c r="X30" s="9"/>
+      <c r="Y30" s="9"/>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A31" s="28" t="s">
-        <v>26</v>
+      <c r="A31" s="52" t="s">
+        <v>113</v>
+      </c>
+      <c r="B31" s="12">
+        <v>15.25309</v>
       </c>
       <c r="F31" s="22"/>
       <c r="H31" s="22"/>
@@ -10877,891 +10915,860 @@
       <c r="V31" s="9"/>
       <c r="W31" s="9"/>
       <c r="X31" s="9"/>
+      <c r="Y31" s="9"/>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A32" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="D32" s="12">
-        <f>D15</f>
-        <v>18.600000000000001</v>
-      </c>
-      <c r="E32" s="18">
-        <v>18.176780000000001</v>
-      </c>
-      <c r="F32" s="59"/>
-      <c r="G32" s="18">
-        <v>18.49119</v>
-      </c>
-      <c r="H32" s="59"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="39">
-        <v>16.809999999999999</v>
-      </c>
-      <c r="L32" s="39">
-        <v>16.21</v>
-      </c>
-      <c r="M32" s="39">
-        <v>16.28</v>
-      </c>
-      <c r="N32" s="39">
-        <v>16.22</v>
-      </c>
-      <c r="O32" s="39">
-        <v>15.48</v>
-      </c>
-      <c r="P32" s="39">
-        <v>15.06</v>
-      </c>
-      <c r="Q32" s="39">
-        <v>15.2</v>
-      </c>
-      <c r="R32" s="39">
-        <v>14.75</v>
-      </c>
-      <c r="S32" s="39">
-        <v>15.22</v>
-      </c>
-      <c r="T32" s="39">
-        <v>15.46</v>
+      <c r="A32" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="B32" s="27"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="61"/>
+      <c r="H32" s="22"/>
+      <c r="K32" s="40">
+        <v>15.7791</v>
+      </c>
+      <c r="L32" s="40">
+        <v>16.1632</v>
+      </c>
+      <c r="M32" s="40">
+        <v>16.190550000000002</v>
+      </c>
+      <c r="N32" s="40">
+        <v>15.29542</v>
+      </c>
+      <c r="O32" s="40">
+        <v>15.192080000000001</v>
+      </c>
+      <c r="P32" s="40">
+        <v>15.111649999999999</v>
+      </c>
+      <c r="Q32" s="40">
+        <v>15.637269999999999</v>
+      </c>
+      <c r="R32" s="40">
+        <v>15.760730000000001</v>
+      </c>
+      <c r="S32" s="40">
+        <v>16.139209999999999</v>
+      </c>
+      <c r="T32" s="40">
+        <v>16.7303</v>
       </c>
       <c r="U32" s="9"/>
       <c r="V32" s="9"/>
       <c r="W32" s="9"/>
       <c r="X32" s="9"/>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A33" s="45" t="s">
-        <v>83</v>
-      </c>
-      <c r="B33" s="27"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="59"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="59"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="34">
-        <v>19.47298</v>
-      </c>
-      <c r="L33" s="34">
-        <v>18.874870000000001</v>
-      </c>
-      <c r="M33" s="34">
-        <v>18.929390000000001</v>
-      </c>
-      <c r="N33" s="34">
-        <v>18.74699</v>
-      </c>
-      <c r="O33" s="34">
-        <v>18.211639999999999</v>
-      </c>
-      <c r="P33" s="34">
-        <v>17.571110000000001</v>
-      </c>
-      <c r="Q33" s="34">
-        <v>17.735279999999999</v>
-      </c>
-      <c r="R33" s="34">
-        <v>17.248950000000001</v>
-      </c>
-      <c r="S33" s="34">
-        <v>17.932759999999998</v>
-      </c>
-      <c r="T33" s="34">
-        <v>18.381910000000001</v>
+        <v>87</v>
+      </c>
+      <c r="F33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="K33" s="54">
+        <v>15.758929999999999</v>
+      </c>
+      <c r="L33" s="54">
+        <v>16.173179999999999</v>
+      </c>
+      <c r="M33" s="54">
+        <v>16.20438</v>
+      </c>
+      <c r="N33" s="54">
+        <v>15.337149999999999</v>
+      </c>
+      <c r="O33" s="54">
+        <v>15.139530000000001</v>
+      </c>
+      <c r="P33" s="54">
+        <v>15.18519</v>
+      </c>
+      <c r="Q33" s="54">
+        <v>15.67902</v>
+      </c>
+      <c r="R33" s="54">
+        <v>15.78384</v>
+      </c>
+      <c r="S33" s="54">
+        <v>16.187080000000002</v>
+      </c>
+      <c r="T33" s="54">
+        <v>16.72852</v>
       </c>
       <c r="U33" s="9"/>
       <c r="V33" s="9"/>
       <c r="W33" s="9"/>
       <c r="X33" s="9"/>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A34" s="45" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F34" s="22"/>
       <c r="H34" s="22"/>
-      <c r="K34" s="54">
-        <v>19.466290000000001</v>
-      </c>
-      <c r="L34" s="54">
-        <v>18.8735</v>
-      </c>
-      <c r="M34" s="54">
-        <v>18.931239999999999</v>
-      </c>
-      <c r="N34" s="54">
-        <v>18.76737</v>
-      </c>
-      <c r="O34" s="54">
-        <v>18.163450000000001</v>
-      </c>
-      <c r="P34" s="54">
-        <v>17.54241</v>
-      </c>
-      <c r="Q34" s="54">
-        <v>17.803940000000001</v>
-      </c>
-      <c r="R34" s="54">
-        <v>17.260339999999999</v>
-      </c>
-      <c r="S34" s="54">
-        <v>17.939109999999999</v>
-      </c>
-      <c r="T34" s="54">
-        <v>18.33813</v>
+      <c r="K34" s="49">
+        <v>17.366029999999999</v>
+      </c>
+      <c r="L34" s="49">
+        <v>16.09863</v>
+      </c>
+      <c r="M34" s="49">
+        <v>16.664439999999999</v>
+      </c>
+      <c r="N34" s="49">
+        <v>15.95332</v>
+      </c>
+      <c r="O34" s="49">
+        <v>16.408639999999998</v>
+      </c>
+      <c r="P34" s="49">
+        <v>16.671869999999998</v>
+      </c>
+      <c r="Q34" s="49">
+        <v>16.741050000000001</v>
+      </c>
+      <c r="R34" s="49">
+        <v>16.627269999999999</v>
+      </c>
+      <c r="S34" s="49">
+        <v>17.06467</v>
+      </c>
+      <c r="T34" s="49">
+        <v>16.78576</v>
       </c>
       <c r="U34" s="9"/>
       <c r="V34" s="9"/>
       <c r="W34" s="9"/>
       <c r="X34" s="9"/>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A35" s="53" t="s">
-        <v>88</v>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A35" s="28" t="s">
+        <v>26</v>
       </c>
       <c r="F35" s="22"/>
       <c r="H35" s="22"/>
-      <c r="K35" s="49">
-        <v>19.44866</v>
-      </c>
-      <c r="L35" s="49">
-        <v>18.836400000000001</v>
-      </c>
-      <c r="M35" s="49">
-        <v>18.918209999999998</v>
-      </c>
-      <c r="N35" s="49">
-        <v>18.78706</v>
-      </c>
-      <c r="O35" s="49">
-        <v>18.112200000000001</v>
-      </c>
-      <c r="P35" s="49">
-        <v>17.538609999999998</v>
-      </c>
-      <c r="Q35" s="49">
-        <v>17.8521</v>
-      </c>
-      <c r="R35" s="49">
-        <v>17.294899999999998</v>
-      </c>
-      <c r="S35" s="49">
-        <v>17.980440000000002</v>
-      </c>
-      <c r="T35" s="49">
-        <v>18.27347</v>
-      </c>
       <c r="U35" s="9"/>
       <c r="V35" s="9"/>
       <c r="W35" s="9"/>
       <c r="X35" s="9"/>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A36" s="51" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D36" s="12">
-        <f>D19</f>
-        <v>16.63</v>
+        <f>D15</f>
+        <v>18.600000000000001</v>
       </c>
       <c r="E36" s="18">
-        <v>16.101220000000001</v>
+        <v>18.176780000000001</v>
       </c>
       <c r="F36" s="59"/>
       <c r="G36" s="18">
-        <v>16.456440000000001</v>
+        <v>18.49119</v>
       </c>
       <c r="H36" s="59"/>
       <c r="J36" s="18"/>
       <c r="K36" s="39">
-        <f>K19</f>
-        <v>15.27</v>
+        <v>16.809999999999999</v>
       </c>
       <c r="L36" s="39">
-        <v>15.42</v>
+        <v>16.21</v>
       </c>
       <c r="M36" s="39">
+        <v>16.28</v>
+      </c>
+      <c r="N36" s="39">
+        <v>16.22</v>
+      </c>
+      <c r="O36" s="39">
         <v>15.48</v>
       </c>
-      <c r="N36" s="39">
-        <v>14.28</v>
-      </c>
-      <c r="O36" s="39">
-        <v>14.5</v>
-      </c>
       <c r="P36" s="39">
-        <v>14.03</v>
+        <v>15.06</v>
       </c>
       <c r="Q36" s="39">
-        <v>14.33</v>
+        <v>15.2</v>
       </c>
       <c r="R36" s="39">
-        <v>14.25</v>
+        <v>14.75</v>
       </c>
       <c r="S36" s="39">
-        <v>14.48</v>
+        <v>15.22</v>
       </c>
       <c r="T36" s="39">
-        <v>14.66</v>
+        <v>15.46</v>
       </c>
       <c r="U36" s="9"/>
-    </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A37" s="45" t="s">
-        <v>83</v>
-      </c>
-      <c r="B37" s="27"/>
-      <c r="E37" s="36"/>
+      <c r="V36" s="9"/>
+      <c r="W36" s="9"/>
+      <c r="X36" s="9"/>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A37" s="71" t="s">
+        <v>113</v>
+      </c>
+      <c r="B37" s="9">
+        <v>15.913130000000001</v>
+      </c>
+      <c r="E37" s="18"/>
       <c r="F37" s="59"/>
-      <c r="G37" s="36"/>
+      <c r="G37" s="18"/>
       <c r="H37" s="59"/>
       <c r="J37" s="18"/>
-      <c r="K37" s="34">
-        <v>18.22672</v>
-      </c>
-      <c r="L37" s="34">
-        <v>18.203949999999999</v>
-      </c>
-      <c r="M37" s="34">
-        <v>16.926590000000001</v>
-      </c>
-      <c r="N37" s="34">
-        <v>17.201000000000001</v>
-      </c>
-      <c r="O37" s="34">
-        <v>17.363019999999999</v>
-      </c>
-      <c r="P37" s="34">
-        <v>16.889769999999999</v>
-      </c>
-      <c r="Q37" s="34">
-        <v>17.004270000000002</v>
-      </c>
-      <c r="R37" s="34">
-        <v>16.893260000000001</v>
-      </c>
-      <c r="S37" s="34">
-        <v>17.134550000000001</v>
-      </c>
-      <c r="T37" s="34">
-        <v>17.53341</v>
-      </c>
       <c r="U37" s="9"/>
-    </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="V37" s="9"/>
+      <c r="W37" s="9"/>
+      <c r="X37" s="9"/>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A38" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="B38" s="22"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="59"/>
+        <v>83</v>
+      </c>
+      <c r="B38" s="27"/>
+      <c r="E38" s="36"/>
       <c r="F38" s="59"/>
-      <c r="G38" s="59"/>
+      <c r="G38" s="36"/>
       <c r="H38" s="59"/>
       <c r="J38" s="18"/>
-      <c r="K38" s="54">
-        <v>18.253589999999999</v>
-      </c>
-      <c r="L38" s="54">
-        <v>18.212209999999999</v>
-      </c>
-      <c r="M38" s="54">
-        <v>16.937270000000002</v>
-      </c>
-      <c r="N38" s="54">
-        <v>17.196149999999999</v>
-      </c>
-      <c r="O38" s="54">
-        <v>17.349399999999999</v>
-      </c>
-      <c r="P38" s="54">
-        <v>16.912220000000001</v>
-      </c>
-      <c r="Q38" s="54">
-        <v>17.047090000000001</v>
-      </c>
-      <c r="R38" s="54">
-        <v>16.895900000000001</v>
-      </c>
-      <c r="S38" s="54">
-        <v>17.200289999999999</v>
-      </c>
-      <c r="T38" s="54">
-        <v>17.451059999999998</v>
+      <c r="K38" s="34">
+        <v>19.47298</v>
+      </c>
+      <c r="L38" s="34">
+        <v>18.874870000000001</v>
+      </c>
+      <c r="M38" s="34">
+        <v>18.929390000000001</v>
+      </c>
+      <c r="N38" s="34">
+        <v>18.74699</v>
+      </c>
+      <c r="O38" s="34">
+        <v>18.211639999999999</v>
+      </c>
+      <c r="P38" s="34">
+        <v>17.571110000000001</v>
+      </c>
+      <c r="Q38" s="34">
+        <v>17.735279999999999</v>
+      </c>
+      <c r="R38" s="34">
+        <v>17.248950000000001</v>
+      </c>
+      <c r="S38" s="34">
+        <v>17.932759999999998</v>
+      </c>
+      <c r="T38" s="34">
+        <v>18.381910000000001</v>
       </c>
       <c r="U38" s="9"/>
-    </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="V38" s="9"/>
+      <c r="W38" s="9"/>
+      <c r="X38" s="9"/>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A39" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="F39" s="22"/>
+      <c r="H39" s="22"/>
+      <c r="K39" s="54">
+        <v>19.466290000000001</v>
+      </c>
+      <c r="L39" s="54">
+        <v>18.8735</v>
+      </c>
+      <c r="M39" s="54">
+        <v>18.931239999999999</v>
+      </c>
+      <c r="N39" s="54">
+        <v>18.76737</v>
+      </c>
+      <c r="O39" s="54">
+        <v>18.163450000000001</v>
+      </c>
+      <c r="P39" s="54">
+        <v>17.54241</v>
+      </c>
+      <c r="Q39" s="54">
+        <v>17.803940000000001</v>
+      </c>
+      <c r="R39" s="54">
+        <v>17.260339999999999</v>
+      </c>
+      <c r="S39" s="54">
+        <v>17.939109999999999</v>
+      </c>
+      <c r="T39" s="54">
+        <v>18.33813</v>
+      </c>
+      <c r="U39" s="9"/>
+      <c r="V39" s="9"/>
+      <c r="W39" s="9"/>
+      <c r="X39" s="9"/>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A40" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="B39" s="22"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="59"/>
-      <c r="F39" s="59"/>
-      <c r="G39" s="59"/>
-      <c r="H39" s="59"/>
-      <c r="J39" s="18"/>
-      <c r="K39" s="49">
-        <v>18.25468</v>
-      </c>
-      <c r="L39" s="49">
-        <v>18.245419999999999</v>
-      </c>
-      <c r="M39" s="49">
-        <v>16.92381</v>
-      </c>
-      <c r="N39" s="49">
-        <v>17.18779</v>
-      </c>
-      <c r="O39" s="49">
-        <v>17.30125</v>
-      </c>
-      <c r="P39" s="49">
-        <v>16.91582</v>
-      </c>
-      <c r="Q39" s="49">
-        <v>17.049859999999999</v>
-      </c>
-      <c r="R39" s="49">
-        <v>16.91534</v>
-      </c>
-      <c r="S39" s="49">
-        <v>17.230419999999999</v>
-      </c>
-      <c r="T39" s="49">
-        <v>17.384589999999999</v>
-      </c>
-      <c r="U39" s="9"/>
-    </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A40" s="51" t="s">
-        <v>34</v>
-      </c>
-      <c r="D40" s="12">
-        <f>D22</f>
-        <v>0</v>
-      </c>
-      <c r="E40" s="18">
-        <v>15.74198</v>
-      </c>
-      <c r="F40" s="59"/>
-      <c r="G40" s="18">
-        <v>15.430529999999999</v>
-      </c>
-      <c r="H40" s="59"/>
-      <c r="J40" s="18"/>
-      <c r="K40" s="39">
-        <v>15.58</v>
-      </c>
-      <c r="L40" s="39">
-        <v>13.65</v>
-      </c>
-      <c r="M40" s="39">
-        <v>14.13</v>
-      </c>
-      <c r="N40" s="39">
-        <v>13.43</v>
-      </c>
-      <c r="O40" s="39">
-        <v>13.74</v>
-      </c>
-      <c r="P40" s="39">
-        <v>13.79</v>
-      </c>
-      <c r="Q40" s="39">
-        <v>14.02</v>
-      </c>
-      <c r="R40" s="39">
-        <v>13.65</v>
-      </c>
-      <c r="S40" s="39">
-        <v>13.95</v>
-      </c>
-      <c r="T40" s="39">
-        <v>13.49</v>
+      <c r="F40" s="22"/>
+      <c r="H40" s="22"/>
+      <c r="K40" s="49">
+        <v>19.44866</v>
+      </c>
+      <c r="L40" s="49">
+        <v>18.836400000000001</v>
+      </c>
+      <c r="M40" s="49">
+        <v>18.918209999999998</v>
+      </c>
+      <c r="N40" s="49">
+        <v>18.78706</v>
+      </c>
+      <c r="O40" s="49">
+        <v>18.112200000000001</v>
+      </c>
+      <c r="P40" s="49">
+        <v>17.538609999999998</v>
+      </c>
+      <c r="Q40" s="49">
+        <v>17.8521</v>
+      </c>
+      <c r="R40" s="49">
+        <v>17.294899999999998</v>
+      </c>
+      <c r="S40" s="49">
+        <v>17.980440000000002</v>
+      </c>
+      <c r="T40" s="49">
+        <v>18.27347</v>
       </c>
       <c r="U40" s="9"/>
-    </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A41" s="45" t="s">
-        <v>83</v>
-      </c>
-      <c r="B41" s="27"/>
-      <c r="E41" s="36"/>
+      <c r="V40" s="9"/>
+      <c r="W40" s="9"/>
+      <c r="X40" s="9"/>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A41" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="D41" s="12">
+        <f>D20</f>
+        <v>16.63</v>
+      </c>
+      <c r="E41" s="18">
+        <v>16.101220000000001</v>
+      </c>
       <c r="F41" s="59"/>
-      <c r="G41" s="36"/>
+      <c r="G41" s="18">
+        <v>16.456440000000001</v>
+      </c>
       <c r="H41" s="59"/>
       <c r="J41" s="18"/>
-      <c r="K41" s="34">
-        <v>17.456099999999999</v>
-      </c>
-      <c r="L41" s="34">
-        <v>16.467849999999999</v>
-      </c>
-      <c r="M41" s="34">
-        <v>16.93919</v>
-      </c>
-      <c r="N41" s="34">
-        <v>16.17155</v>
-      </c>
-      <c r="O41" s="34">
-        <v>16.65372</v>
-      </c>
-      <c r="P41" s="34">
-        <v>16.693819999999999</v>
-      </c>
-      <c r="Q41" s="34">
-        <v>16.66893</v>
-      </c>
-      <c r="R41" s="34">
-        <v>16.434640000000002</v>
-      </c>
-      <c r="S41" s="34">
-        <v>16.811350000000001</v>
-      </c>
-      <c r="T41" s="34">
-        <v>16.537120000000002</v>
+      <c r="K41" s="39">
+        <f>K20</f>
+        <v>15.27</v>
+      </c>
+      <c r="L41" s="39">
+        <v>15.42</v>
+      </c>
+      <c r="M41" s="39">
+        <v>15.48</v>
+      </c>
+      <c r="N41" s="39">
+        <v>14.28</v>
+      </c>
+      <c r="O41" s="39">
+        <v>14.5</v>
+      </c>
+      <c r="P41" s="39">
+        <v>14.03</v>
+      </c>
+      <c r="Q41" s="39">
+        <v>14.33</v>
+      </c>
+      <c r="R41" s="39">
+        <v>14.25</v>
+      </c>
+      <c r="S41" s="39">
+        <v>14.48</v>
+      </c>
+      <c r="T41" s="39">
+        <v>14.66</v>
       </c>
       <c r="U41" s="9"/>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A42" s="45" t="s">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A42" s="71" t="s">
+        <v>113</v>
+      </c>
+      <c r="B42" s="12">
+        <v>14.841060000000001</v>
+      </c>
+      <c r="E42" s="18"/>
+      <c r="F42" s="59"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="59"/>
+      <c r="J42" s="18"/>
+      <c r="U42" s="9"/>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A43" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="B43" s="27"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="59"/>
+      <c r="G43" s="36"/>
+      <c r="H43" s="59"/>
+      <c r="J43" s="18"/>
+      <c r="K43" s="34">
+        <v>18.22672</v>
+      </c>
+      <c r="L43" s="34">
+        <v>18.203949999999999</v>
+      </c>
+      <c r="M43" s="34">
+        <v>16.926590000000001</v>
+      </c>
+      <c r="N43" s="34">
+        <v>17.201000000000001</v>
+      </c>
+      <c r="O43" s="34">
+        <v>17.363019999999999</v>
+      </c>
+      <c r="P43" s="34">
+        <v>16.889769999999999</v>
+      </c>
+      <c r="Q43" s="34">
+        <v>17.004270000000002</v>
+      </c>
+      <c r="R43" s="34">
+        <v>16.893260000000001</v>
+      </c>
+      <c r="S43" s="34">
+        <v>17.134550000000001</v>
+      </c>
+      <c r="T43" s="34">
+        <v>17.53341</v>
+      </c>
+      <c r="U43" s="9"/>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A44" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="F42" s="22"/>
-      <c r="H42" s="22"/>
-      <c r="K42" s="54">
-        <v>17.415130000000001</v>
-      </c>
-      <c r="L42" s="54">
-        <v>16.517219999999998</v>
-      </c>
-      <c r="M42" s="54">
-        <v>16.988810000000001</v>
-      </c>
-      <c r="N42" s="54">
-        <v>16.249939999999999</v>
-      </c>
-      <c r="O42" s="54">
-        <v>16.6431</v>
-      </c>
-      <c r="P42" s="54">
-        <v>16.699719999999999</v>
-      </c>
-      <c r="Q42" s="54">
-        <v>16.7194</v>
-      </c>
-      <c r="R42" s="54">
-        <v>16.50339</v>
-      </c>
-      <c r="S42" s="54">
-        <v>16.848839999999999</v>
-      </c>
-      <c r="T42" s="54">
-        <v>16.485499999999998</v>
-      </c>
-    </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A43" s="53" t="s">
-        <v>88</v>
-      </c>
-      <c r="F43" s="22"/>
-      <c r="H43" s="22"/>
-      <c r="K43" s="49">
-        <v>17.409179999999999</v>
-      </c>
-      <c r="L43" s="49">
-        <v>16.544899999999998</v>
-      </c>
-      <c r="M43" s="49">
-        <v>16.89038</v>
-      </c>
-      <c r="N43" s="49">
-        <v>16.233450000000001</v>
-      </c>
-      <c r="O43" s="49">
-        <v>16.611219999999999</v>
-      </c>
-      <c r="P43" s="49">
-        <v>16.671869999999998</v>
-      </c>
-      <c r="Q43" s="49">
-        <v>16.761759999999999</v>
-      </c>
-      <c r="R43" s="49">
-        <v>16.49492</v>
-      </c>
-      <c r="S43" s="49">
-        <v>16.895689999999998</v>
-      </c>
-      <c r="T43" s="49">
-        <v>16.406649999999999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A44" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="D44" s="12">
-        <f>D27</f>
-        <v>15.38</v>
-      </c>
-      <c r="E44" s="18">
-        <v>14.957509999999999</v>
-      </c>
+      <c r="B44" s="22"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="59"/>
       <c r="F44" s="59"/>
-      <c r="G44" s="18">
-        <v>14.98869</v>
-      </c>
+      <c r="G44" s="59"/>
       <c r="H44" s="59"/>
       <c r="J44" s="18"/>
-      <c r="K44" s="41">
+      <c r="K44" s="54">
+        <v>18.253589999999999</v>
+      </c>
+      <c r="L44" s="54">
+        <v>18.212209999999999</v>
+      </c>
+      <c r="M44" s="54">
+        <v>16.937270000000002</v>
+      </c>
+      <c r="N44" s="54">
+        <v>17.196149999999999</v>
+      </c>
+      <c r="O44" s="54">
+        <v>17.349399999999999</v>
+      </c>
+      <c r="P44" s="54">
+        <v>16.912220000000001</v>
+      </c>
+      <c r="Q44" s="54">
+        <v>17.047090000000001</v>
+      </c>
+      <c r="R44" s="54">
+        <v>16.895900000000001</v>
+      </c>
+      <c r="S44" s="54">
+        <v>17.200289999999999</v>
+      </c>
+      <c r="T44" s="54">
+        <v>17.451059999999998</v>
+      </c>
+      <c r="U44" s="9"/>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A45" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45" s="22"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="59"/>
+      <c r="F45" s="59"/>
+      <c r="G45" s="59"/>
+      <c r="H45" s="59"/>
+      <c r="J45" s="18"/>
+      <c r="K45" s="49">
+        <v>18.25468</v>
+      </c>
+      <c r="L45" s="49">
+        <v>18.245419999999999</v>
+      </c>
+      <c r="M45" s="49">
+        <v>16.92381</v>
+      </c>
+      <c r="N45" s="49">
+        <v>17.18779</v>
+      </c>
+      <c r="O45" s="49">
+        <v>17.30125</v>
+      </c>
+      <c r="P45" s="49">
+        <v>16.91582</v>
+      </c>
+      <c r="Q45" s="49">
+        <v>17.049859999999999</v>
+      </c>
+      <c r="R45" s="49">
+        <v>16.91534</v>
+      </c>
+      <c r="S45" s="49">
+        <v>17.230419999999999</v>
+      </c>
+      <c r="T45" s="49">
+        <v>17.384589999999999</v>
+      </c>
+      <c r="U45" s="9"/>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A46" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="D46" s="12">
+        <f>D24</f>
+        <v>0</v>
+      </c>
+      <c r="E46" s="18">
+        <v>15.74198</v>
+      </c>
+      <c r="F46" s="59"/>
+      <c r="G46" s="18">
+        <v>15.430529999999999</v>
+      </c>
+      <c r="H46" s="59"/>
+      <c r="J46" s="18"/>
+      <c r="K46" s="39">
+        <v>15.58</v>
+      </c>
+      <c r="L46" s="39">
+        <v>13.65</v>
+      </c>
+      <c r="M46" s="39">
+        <v>14.13</v>
+      </c>
+      <c r="N46" s="39">
+        <v>13.43</v>
+      </c>
+      <c r="O46" s="39">
+        <v>13.74</v>
+      </c>
+      <c r="P46" s="39">
+        <v>13.79</v>
+      </c>
+      <c r="Q46" s="39">
+        <v>14.02</v>
+      </c>
+      <c r="R46" s="39">
+        <v>13.65</v>
+      </c>
+      <c r="S46" s="39">
+        <v>13.95</v>
+      </c>
+      <c r="T46" s="39">
+        <v>13.49</v>
+      </c>
+      <c r="U46" s="9"/>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A47" s="71" t="s">
+        <v>113</v>
+      </c>
+      <c r="B47" s="22">
+        <v>14.42629</v>
+      </c>
+      <c r="E47" s="18"/>
+      <c r="F47" s="59"/>
+      <c r="G47" s="18"/>
+      <c r="H47" s="59"/>
+      <c r="J47" s="18"/>
+      <c r="U47" s="9"/>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A48" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="B48" s="27"/>
+      <c r="E48" s="36"/>
+      <c r="F48" s="59"/>
+      <c r="G48" s="36"/>
+      <c r="H48" s="59"/>
+      <c r="J48" s="18"/>
+      <c r="K48" s="34">
+        <v>17.456099999999999</v>
+      </c>
+      <c r="L48" s="34">
+        <v>16.467849999999999</v>
+      </c>
+      <c r="M48" s="34">
+        <v>16.93919</v>
+      </c>
+      <c r="N48" s="34">
+        <v>16.17155</v>
+      </c>
+      <c r="O48" s="34">
+        <v>16.65372</v>
+      </c>
+      <c r="P48" s="34">
+        <v>16.693819999999999</v>
+      </c>
+      <c r="Q48" s="34">
+        <v>16.66893</v>
+      </c>
+      <c r="R48" s="34">
+        <v>16.434640000000002</v>
+      </c>
+      <c r="S48" s="34">
+        <v>16.811350000000001</v>
+      </c>
+      <c r="T48" s="34">
+        <v>16.537120000000002</v>
+      </c>
+      <c r="U48" s="9"/>
+    </row>
+    <row r="49" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A49" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="F49" s="22"/>
+      <c r="H49" s="22"/>
+      <c r="K49" s="54">
+        <v>17.415130000000001</v>
+      </c>
+      <c r="L49" s="54">
+        <v>16.517219999999998</v>
+      </c>
+      <c r="M49" s="54">
+        <v>16.988810000000001</v>
+      </c>
+      <c r="N49" s="54">
+        <v>16.249939999999999</v>
+      </c>
+      <c r="O49" s="54">
+        <v>16.6431</v>
+      </c>
+      <c r="P49" s="54">
+        <v>16.699719999999999</v>
+      </c>
+      <c r="Q49" s="54">
+        <v>16.7194</v>
+      </c>
+      <c r="R49" s="54">
+        <v>16.50339</v>
+      </c>
+      <c r="S49" s="54">
+        <v>16.848839999999999</v>
+      </c>
+      <c r="T49" s="54">
+        <v>16.485499999999998</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A50" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="F50" s="22"/>
+      <c r="H50" s="22"/>
+      <c r="K50" s="49">
+        <v>17.409179999999999</v>
+      </c>
+      <c r="L50" s="49">
+        <v>16.544899999999998</v>
+      </c>
+      <c r="M50" s="49">
+        <v>16.89038</v>
+      </c>
+      <c r="N50" s="49">
+        <v>16.233450000000001</v>
+      </c>
+      <c r="O50" s="49">
+        <v>16.611219999999999</v>
+      </c>
+      <c r="P50" s="49">
+        <v>16.671869999999998</v>
+      </c>
+      <c r="Q50" s="49">
+        <v>16.761759999999999</v>
+      </c>
+      <c r="R50" s="49">
+        <v>16.49492</v>
+      </c>
+      <c r="S50" s="49">
+        <v>16.895689999999998</v>
+      </c>
+      <c r="T50" s="49">
+        <v>16.406649999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A51" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="D51" s="12">
+        <f>D30</f>
+        <v>15.38</v>
+      </c>
+      <c r="E51" s="18">
+        <v>14.957509999999999</v>
+      </c>
+      <c r="F51" s="59"/>
+      <c r="G51" s="18">
+        <v>14.98869</v>
+      </c>
+      <c r="H51" s="59"/>
+      <c r="J51" s="18"/>
+      <c r="K51" s="41">
         <v>12.65</v>
       </c>
-      <c r="L44" s="41">
+      <c r="L51" s="41">
         <v>13.3</v>
       </c>
-      <c r="M44" s="41">
+      <c r="M51" s="41">
         <v>13.28</v>
       </c>
-      <c r="N44" s="41">
+      <c r="N51" s="41">
         <v>13.31</v>
       </c>
-      <c r="O44" s="41">
+      <c r="O51" s="41">
         <v>12.06</v>
       </c>
-      <c r="P44" s="41">
+      <c r="P51" s="41">
         <v>11.79</v>
       </c>
-      <c r="Q44" s="41">
+      <c r="Q51" s="41">
         <v>12.44</v>
       </c>
-      <c r="R44" s="41">
+      <c r="R51" s="41">
         <v>12.25</v>
       </c>
-      <c r="S44" s="41">
+      <c r="S51" s="41">
         <v>12.62</v>
       </c>
-      <c r="T44" s="41">
+      <c r="T51" s="41">
         <v>12.95</v>
       </c>
-      <c r="U44" s="9"/>
-    </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A45" s="45" t="s">
+      <c r="U51" s="9"/>
+    </row>
+    <row r="52" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A52" s="71" t="s">
+        <v>113</v>
+      </c>
+      <c r="B52" s="12">
+        <v>15.126670000000001</v>
+      </c>
+      <c r="E52" s="18"/>
+      <c r="F52" s="59"/>
+      <c r="G52" s="18"/>
+      <c r="H52" s="59"/>
+      <c r="J52" s="18"/>
+      <c r="K52" s="41"/>
+      <c r="L52" s="41"/>
+      <c r="M52" s="41"/>
+      <c r="N52" s="41"/>
+      <c r="O52" s="41"/>
+      <c r="P52" s="41"/>
+      <c r="Q52" s="41"/>
+      <c r="R52" s="41"/>
+      <c r="S52" s="41"/>
+      <c r="T52" s="41"/>
+      <c r="U52" s="9"/>
+    </row>
+    <row r="53" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A53" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="H45" s="60"/>
-      <c r="I45" s="9"/>
-      <c r="J45" s="9"/>
-      <c r="K45" s="34">
+      <c r="H53" s="60"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="34">
         <v>15.99676</v>
       </c>
-      <c r="L45" s="34">
+      <c r="L53" s="34">
         <v>16.57414</v>
       </c>
-      <c r="M45" s="34">
+      <c r="M53" s="34">
         <v>16.438880000000001</v>
       </c>
-      <c r="N45" s="34">
+      <c r="N53" s="34">
         <v>15.535819999999999</v>
       </c>
-      <c r="O45" s="34">
+      <c r="O53" s="34">
         <v>15.410220000000001</v>
       </c>
-      <c r="P45" s="34">
+      <c r="P53" s="34">
         <v>15.111649999999999</v>
       </c>
-      <c r="Q45" s="34">
+      <c r="Q53" s="34">
         <v>15.6501</v>
       </c>
-      <c r="R45" s="34">
+      <c r="R53" s="34">
         <v>15.60812</v>
       </c>
-      <c r="S45" s="34">
+      <c r="S53" s="34">
         <v>15.944900000000001</v>
       </c>
-      <c r="T45" s="34">
+      <c r="T53" s="34">
         <v>16.3536</v>
       </c>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A46" s="45" t="s">
+    <row r="54" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A54" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="F46" s="22"/>
-      <c r="H46" s="22"/>
-      <c r="K46" s="54">
+      <c r="F54" s="22"/>
+      <c r="H54" s="22"/>
+      <c r="K54" s="54">
         <v>15.973050000000001</v>
       </c>
-      <c r="L46" s="54">
+      <c r="L54" s="54">
         <v>16.58747</v>
       </c>
-      <c r="M46" s="54">
+      <c r="M54" s="54">
         <v>16.448879999999999</v>
       </c>
-      <c r="N46" s="54">
+      <c r="N54" s="54">
         <v>15.57968</v>
       </c>
-      <c r="O46" s="54">
+      <c r="O54" s="54">
         <v>15.36007</v>
       </c>
-      <c r="P46" s="54">
+      <c r="P54" s="54">
         <v>15.18519</v>
       </c>
-      <c r="Q46" s="54">
+      <c r="Q54" s="54">
         <v>15.694940000000001</v>
       </c>
-      <c r="R46" s="54">
+      <c r="R54" s="54">
         <v>15.63279</v>
       </c>
-      <c r="S46" s="54">
+      <c r="S54" s="54">
         <v>15.98692</v>
       </c>
-      <c r="T46" s="54">
+      <c r="T54" s="54">
         <v>16.34759</v>
-      </c>
-      <c r="X46" s="9"/>
-      <c r="Y46" s="9"/>
-      <c r="Z46" s="9"/>
-      <c r="AA46" s="9"/>
-      <c r="AB46" s="9"/>
-    </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A47" s="53" t="s">
-        <v>88</v>
-      </c>
-      <c r="F47" s="22"/>
-      <c r="H47" s="22"/>
-      <c r="K47" s="49">
-        <v>15.99616</v>
-      </c>
-      <c r="L47" s="49">
-        <v>16.563269999999999</v>
-      </c>
-      <c r="M47" s="49">
-        <v>16.464009999999998</v>
-      </c>
-      <c r="N47" s="49">
-        <v>15.569179999999999</v>
-      </c>
-      <c r="O47" s="49">
-        <v>15.35516</v>
-      </c>
-      <c r="P47" s="49">
-        <v>15.172129999999999</v>
-      </c>
-      <c r="Q47" s="49">
-        <v>15.68346</v>
-      </c>
-      <c r="R47" s="49">
-        <v>15.63954</v>
-      </c>
-      <c r="S47" s="49">
-        <v>16.030280000000001</v>
-      </c>
-      <c r="T47" s="49">
-        <v>16.3017</v>
-      </c>
-      <c r="X47" s="9"/>
-      <c r="Y47" s="9"/>
-      <c r="Z47" s="9"/>
-      <c r="AA47" s="9"/>
-      <c r="AB47" s="9"/>
-    </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A48" s="14"/>
-      <c r="F48" s="22"/>
-      <c r="G48" s="12">
-        <f>G32</f>
-        <v>18.49119</v>
-      </c>
-      <c r="H48" s="22"/>
-      <c r="I48" s="12" t="e">
-        <f>(G48+#REF!)/2</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K48" s="39">
-        <f>K36</f>
-        <v>15.27</v>
-      </c>
-      <c r="X48" s="9"/>
-      <c r="Y48" s="9"/>
-      <c r="Z48" s="9"/>
-      <c r="AA48" s="9"/>
-      <c r="AB48" s="9"/>
-    </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A49" s="14"/>
-      <c r="F49" s="22"/>
-      <c r="G49" s="12">
-        <f>G36</f>
-        <v>16.456440000000001</v>
-      </c>
-      <c r="H49" s="22"/>
-      <c r="I49" s="12">
-        <f>(G49+K48)/2</f>
-        <v>15.86322</v>
-      </c>
-      <c r="K49" s="39">
-        <f>K40</f>
-        <v>15.58</v>
-      </c>
-      <c r="X49" s="9"/>
-      <c r="Y49" s="9"/>
-      <c r="Z49" s="9"/>
-      <c r="AA49" s="9"/>
-      <c r="AB49" s="9"/>
-    </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A50" s="14"/>
-      <c r="F50" s="22"/>
-      <c r="G50" s="12">
-        <f>G40</f>
-        <v>15.430529999999999</v>
-      </c>
-      <c r="H50" s="22"/>
-      <c r="I50" s="12">
-        <f>(G50+K49)/2</f>
-        <v>15.505265</v>
-      </c>
-      <c r="K50" s="39">
-        <f>K44</f>
-        <v>12.65</v>
-      </c>
-      <c r="X50" s="9"/>
-      <c r="Y50" s="9"/>
-      <c r="Z50" s="9"/>
-      <c r="AA50" s="9"/>
-      <c r="AB50" s="9"/>
-    </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A51" s="14"/>
-      <c r="F51" s="22"/>
-      <c r="G51" s="12">
-        <f>G44</f>
-        <v>14.98869</v>
-      </c>
-      <c r="H51" s="22"/>
-      <c r="I51" s="12">
-        <f>(G51+K50)/2</f>
-        <v>13.819345</v>
-      </c>
-      <c r="X51" s="9"/>
-      <c r="Y51" s="9"/>
-      <c r="Z51" s="9"/>
-      <c r="AA51" s="9"/>
-      <c r="AB51" s="9"/>
-    </row>
-    <row r="52" spans="1:28" ht="19" x14ac:dyDescent="0.25">
-      <c r="A52" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="F52" s="22"/>
-      <c r="H52" s="22"/>
-      <c r="X52" s="9"/>
-      <c r="Y52" s="9"/>
-      <c r="Z52" s="9"/>
-      <c r="AA52" s="9"/>
-      <c r="AB52" s="9"/>
-    </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A53" s="46" t="s">
-        <v>84</v>
-      </c>
-      <c r="B53" s="12">
-        <v>12.66</v>
-      </c>
-      <c r="D53" s="12">
-        <v>12.66</v>
-      </c>
-      <c r="E53" s="12">
-        <v>12.41</v>
-      </c>
-      <c r="G53" s="12">
-        <v>12.7</v>
-      </c>
-      <c r="H53" s="22"/>
-      <c r="K53" s="39">
-        <v>11.2</v>
-      </c>
-      <c r="L53" s="39">
-        <v>10.98</v>
-      </c>
-      <c r="M53" s="39">
-        <v>11.35</v>
-      </c>
-      <c r="N53" s="39">
-        <v>10.55</v>
-      </c>
-      <c r="O53" s="39">
-        <v>10.72</v>
-      </c>
-      <c r="P53" s="39">
-        <v>10.27</v>
-      </c>
-      <c r="Q53" s="39">
-        <v>10.59</v>
-      </c>
-      <c r="R53" s="39">
-        <v>10.28</v>
-      </c>
-      <c r="S53" s="39">
-        <v>10.79</v>
-      </c>
-      <c r="T53" s="39">
-        <v>10.61</v>
-      </c>
-      <c r="X53" s="9"/>
-      <c r="Y53" s="9"/>
-      <c r="Z53" s="9"/>
-      <c r="AA53" s="9"/>
-      <c r="AB53" s="9"/>
-    </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A54" s="52" t="s">
-        <v>83</v>
-      </c>
-      <c r="B54" s="35"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="35"/>
-      <c r="F54" s="60"/>
-      <c r="G54" s="35"/>
-      <c r="H54" s="22"/>
-      <c r="K54" s="40">
-        <v>13.849170000000001</v>
-      </c>
-      <c r="L54" s="40">
-        <v>13.623089999999999</v>
-      </c>
-      <c r="M54" s="40">
-        <v>13.811120000000001</v>
-      </c>
-      <c r="N54" s="40">
-        <v>13.19242</v>
-      </c>
-      <c r="O54" s="40">
-        <v>13.32</v>
-      </c>
-      <c r="P54" s="40">
-        <v>12.990930000000001</v>
-      </c>
-      <c r="Q54" s="40">
-        <v>13.268929999999999</v>
-      </c>
-      <c r="R54" s="40">
-        <v>12.919689999999999</v>
-      </c>
-      <c r="S54" s="40">
-        <v>13.66994</v>
-      </c>
-      <c r="T54" s="40">
-        <v>13.568759999999999</v>
       </c>
       <c r="X54" s="9"/>
       <c r="Y54" s="9"/>
@@ -11770,39 +11777,40 @@
       <c r="AB54" s="9"/>
     </row>
     <row r="55" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A55" s="52" t="s">
-        <v>87</v>
-      </c>
+      <c r="A55" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="F55" s="22"/>
       <c r="H55" s="22"/>
-      <c r="K55" s="54">
-        <v>13.806979999999999</v>
-      </c>
-      <c r="L55" s="54">
-        <v>13.622949999999999</v>
-      </c>
-      <c r="M55" s="54">
-        <v>13.807550000000001</v>
-      </c>
-      <c r="N55" s="54">
-        <v>13.18835</v>
-      </c>
-      <c r="O55" s="54">
-        <v>13.303050000000001</v>
-      </c>
-      <c r="P55" s="54">
-        <v>13.02102</v>
-      </c>
-      <c r="Q55" s="54">
-        <v>13.28543</v>
-      </c>
-      <c r="R55" s="54">
-        <v>12.93735</v>
-      </c>
-      <c r="S55" s="54">
-        <v>13.715009999999999</v>
-      </c>
-      <c r="T55" s="54">
-        <v>13.49605</v>
+      <c r="K55" s="49">
+        <v>15.99616</v>
+      </c>
+      <c r="L55" s="49">
+        <v>16.563269999999999</v>
+      </c>
+      <c r="M55" s="49">
+        <v>16.464009999999998</v>
+      </c>
+      <c r="N55" s="49">
+        <v>15.569179999999999</v>
+      </c>
+      <c r="O55" s="49">
+        <v>15.35516</v>
+      </c>
+      <c r="P55" s="49">
+        <v>15.172129999999999</v>
+      </c>
+      <c r="Q55" s="49">
+        <v>15.68346</v>
+      </c>
+      <c r="R55" s="49">
+        <v>15.63954</v>
+      </c>
+      <c r="S55" s="49">
+        <v>16.030280000000001</v>
+      </c>
+      <c r="T55" s="49">
+        <v>16.3017</v>
       </c>
       <c r="X55" s="9"/>
       <c r="Y55" s="9"/>
@@ -11811,133 +11819,64 @@
       <c r="AB55" s="9"/>
     </row>
     <row r="56" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A56" s="45" t="s">
-        <v>88</v>
+      <c r="A56" s="14"/>
+      <c r="F56" s="22"/>
+      <c r="G56" s="12">
+        <f>G36</f>
+        <v>18.49119</v>
       </c>
       <c r="H56" s="22"/>
-      <c r="K56" s="49">
-        <v>13.823539999999999</v>
-      </c>
-      <c r="L56" s="49">
-        <v>13.654210000000001</v>
-      </c>
-      <c r="M56" s="49">
-        <v>13.76412</v>
-      </c>
-      <c r="N56" s="49">
-        <v>13.18591</v>
-      </c>
-      <c r="O56" s="49">
-        <v>13.287380000000001</v>
-      </c>
-      <c r="P56" s="49">
-        <v>13.02256</v>
-      </c>
-      <c r="Q56" s="49">
-        <v>13.301069999999999</v>
-      </c>
-      <c r="R56" s="49">
-        <v>12.948270000000001</v>
-      </c>
-      <c r="S56" s="49">
-        <v>13.75249</v>
-      </c>
-      <c r="T56" s="49">
-        <v>13.45852</v>
-      </c>
+      <c r="I56" s="12" t="e">
+        <f>(G56+#REF!)/2</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K56" s="39">
+        <f>K41</f>
+        <v>15.27</v>
+      </c>
+      <c r="X56" s="9"/>
+      <c r="Y56" s="9"/>
+      <c r="Z56" s="9"/>
+      <c r="AA56" s="9"/>
+      <c r="AB56" s="9"/>
     </row>
     <row r="57" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A57" s="46" t="s">
-        <v>85</v>
-      </c>
-      <c r="B57" s="12">
-        <v>17.11</v>
-      </c>
-      <c r="D57" s="12">
-        <v>17.11</v>
-      </c>
-      <c r="E57" s="12">
-        <v>17.14</v>
-      </c>
+      <c r="A57" s="14"/>
+      <c r="F57" s="22"/>
       <c r="G57" s="12">
-        <v>16.96</v>
+        <f>G41</f>
+        <v>16.456440000000001</v>
       </c>
       <c r="H57" s="22"/>
-      <c r="K57" s="41">
-        <v>15.32</v>
-      </c>
-      <c r="L57" s="41">
-        <v>14.9</v>
-      </c>
-      <c r="M57" s="41">
-        <v>14.52</v>
-      </c>
-      <c r="N57" s="41">
-        <v>14.5</v>
-      </c>
-      <c r="O57" s="41">
-        <v>14.11</v>
-      </c>
-      <c r="P57" s="41">
-        <v>13.9</v>
-      </c>
-      <c r="Q57" s="41">
-        <v>14.16</v>
-      </c>
-      <c r="R57" s="41">
-        <v>13.82</v>
-      </c>
-      <c r="S57" s="41">
-        <v>14.17</v>
-      </c>
-      <c r="T57" s="41">
-        <v>14.05</v>
+      <c r="I57" s="12">
+        <f>(G57+K56)/2</f>
+        <v>15.86322</v>
+      </c>
+      <c r="K57" s="39">
+        <f>K46</f>
+        <v>15.58</v>
       </c>
       <c r="X57" s="9"/>
       <c r="Y57" s="9"/>
       <c r="Z57" s="9"/>
       <c r="AA57" s="9"/>
+      <c r="AB57" s="9"/>
     </row>
     <row r="58" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A58" s="52" t="s">
-        <v>83</v>
-      </c>
-      <c r="B58" s="35"/>
-      <c r="C58" s="9"/>
-      <c r="D58" s="9"/>
-      <c r="E58" s="35"/>
-      <c r="F58" s="60"/>
-      <c r="G58" s="35"/>
+      <c r="A58" s="14"/>
+      <c r="F58" s="22"/>
+      <c r="G58" s="12">
+        <f>G46</f>
+        <v>15.430529999999999</v>
+      </c>
       <c r="H58" s="22"/>
-      <c r="K58" s="40">
-        <v>18.232040000000001</v>
-      </c>
-      <c r="L58" s="40">
-        <v>17.7684</v>
-      </c>
-      <c r="M58" s="40">
-        <v>17.33136</v>
-      </c>
-      <c r="N58" s="40">
-        <v>17.182310000000001</v>
-      </c>
-      <c r="O58" s="40">
-        <v>17.105979999999999</v>
-      </c>
-      <c r="P58" s="40">
-        <v>16.80143</v>
-      </c>
-      <c r="Q58" s="40">
-        <v>16.88533</v>
-      </c>
-      <c r="R58" s="40">
-        <v>16.70242</v>
-      </c>
-      <c r="S58" s="40">
-        <v>16.912780000000001</v>
-      </c>
-      <c r="T58" s="40">
-        <v>17.048539999999999</v>
+      <c r="I58" s="12">
+        <f>(G58+K57)/2</f>
+        <v>15.505265</v>
+      </c>
+      <c r="K58" s="39">
+        <f>K51</f>
+        <v>12.65</v>
       </c>
       <c r="X58" s="9"/>
       <c r="Y58" s="9"/>
@@ -11946,39 +11885,16 @@
       <c r="AB58" s="9"/>
     </row>
     <row r="59" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A59" s="52" t="s">
-        <v>87</v>
+      <c r="A59" s="14"/>
+      <c r="F59" s="22"/>
+      <c r="G59" s="12">
+        <f>G51</f>
+        <v>14.98869</v>
       </c>
       <c r="H59" s="22"/>
-      <c r="K59" s="54">
-        <v>18.243200000000002</v>
-      </c>
-      <c r="L59" s="54">
-        <v>17.754020000000001</v>
-      </c>
-      <c r="M59" s="54">
-        <v>17.344180000000001</v>
-      </c>
-      <c r="N59" s="54">
-        <v>17.195730000000001</v>
-      </c>
-      <c r="O59" s="54">
-        <v>17.08343</v>
-      </c>
-      <c r="P59" s="54">
-        <v>16.802330000000001</v>
-      </c>
-      <c r="Q59" s="54">
-        <v>16.886479999999999</v>
-      </c>
-      <c r="R59" s="54">
-        <v>16.752410000000001</v>
-      </c>
-      <c r="S59" s="54">
-        <v>16.896139999999999</v>
-      </c>
-      <c r="T59" s="54">
-        <v>17.031680000000001</v>
+      <c r="I59" s="12">
+        <f>(G59+K58)/2</f>
+        <v>13.819345</v>
       </c>
       <c r="X59" s="9"/>
       <c r="Y59" s="9"/>
@@ -11986,41 +11902,12 @@
       <c r="AA59" s="9"/>
       <c r="AB59" s="9"/>
     </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A60" s="45" t="s">
-        <v>88</v>
-      </c>
+    <row r="60" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+      <c r="A60" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="F60" s="22"/>
       <c r="H60" s="22"/>
-      <c r="K60" s="49">
-        <v>18.234970000000001</v>
-      </c>
-      <c r="L60" s="49">
-        <v>17.746400000000001</v>
-      </c>
-      <c r="M60" s="49">
-        <v>17.317029999999999</v>
-      </c>
-      <c r="N60" s="49">
-        <v>17.191700000000001</v>
-      </c>
-      <c r="O60" s="49">
-        <v>17.033619999999999</v>
-      </c>
-      <c r="P60" s="49">
-        <v>16.789480000000001</v>
-      </c>
-      <c r="Q60" s="49">
-        <v>16.90447</v>
-      </c>
-      <c r="R60" s="49">
-        <v>16.754919999999998</v>
-      </c>
-      <c r="S60" s="49">
-        <v>16.954699999999999</v>
-      </c>
-      <c r="T60" s="49">
-        <v>16.99954</v>
-      </c>
       <c r="X60" s="9"/>
       <c r="Y60" s="9"/>
       <c r="Z60" s="9"/>
@@ -12029,50 +11916,50 @@
     </row>
     <row r="61" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A61" s="46" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B61" s="12">
-        <v>19.91</v>
+        <v>12.66</v>
       </c>
       <c r="D61" s="12">
-        <v>19.91</v>
+        <v>12.66</v>
       </c>
       <c r="E61" s="12">
-        <v>19.97</v>
+        <v>12.41</v>
       </c>
       <c r="G61" s="12">
-        <v>19.670000000000002</v>
+        <v>12.7</v>
       </c>
       <c r="H61" s="22"/>
-      <c r="K61" s="41">
-        <v>18.100000000000001</v>
-      </c>
-      <c r="L61" s="41">
-        <v>17.53</v>
-      </c>
-      <c r="M61" s="41">
-        <v>16.97</v>
-      </c>
-      <c r="N61" s="41">
-        <v>16.5</v>
-      </c>
-      <c r="O61" s="41">
-        <v>16.39</v>
-      </c>
-      <c r="P61" s="41">
-        <v>16.190000000000001</v>
-      </c>
-      <c r="Q61" s="41">
-        <v>16.09</v>
-      </c>
-      <c r="R61" s="41">
-        <v>16.100000000000001</v>
-      </c>
-      <c r="S61" s="41">
-        <v>16.02</v>
-      </c>
-      <c r="T61" s="41">
-        <v>16.43</v>
+      <c r="K61" s="39">
+        <v>11.2</v>
+      </c>
+      <c r="L61" s="39">
+        <v>10.98</v>
+      </c>
+      <c r="M61" s="39">
+        <v>11.35</v>
+      </c>
+      <c r="N61" s="39">
+        <v>10.55</v>
+      </c>
+      <c r="O61" s="39">
+        <v>10.72</v>
+      </c>
+      <c r="P61" s="39">
+        <v>10.27</v>
+      </c>
+      <c r="Q61" s="39">
+        <v>10.59</v>
+      </c>
+      <c r="R61" s="39">
+        <v>10.28</v>
+      </c>
+      <c r="S61" s="39">
+        <v>10.79</v>
+      </c>
+      <c r="T61" s="39">
+        <v>10.61</v>
       </c>
       <c r="X61" s="9"/>
       <c r="Y61" s="9"/>
@@ -12081,46 +11968,13 @@
       <c r="AB61" s="9"/>
     </row>
     <row r="62" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A62" s="52" t="s">
-        <v>83</v>
-      </c>
-      <c r="B62" s="35"/>
-      <c r="C62" s="9"/>
-      <c r="D62" s="9"/>
-      <c r="E62" s="35"/>
-      <c r="F62" s="60"/>
-      <c r="G62" s="35"/>
+      <c r="A62" s="71" t="s">
+        <v>113</v>
+      </c>
+      <c r="B62" s="12">
+        <v>12.439830000000001</v>
+      </c>
       <c r="H62" s="22"/>
-      <c r="K62" s="40">
-        <v>21.18892</v>
-      </c>
-      <c r="L62" s="40">
-        <v>20.667860000000001</v>
-      </c>
-      <c r="M62" s="40">
-        <v>20.093</v>
-      </c>
-      <c r="N62" s="40">
-        <v>19.528110000000002</v>
-      </c>
-      <c r="O62" s="40">
-        <v>19.621670000000002</v>
-      </c>
-      <c r="P62" s="40">
-        <v>19.33616</v>
-      </c>
-      <c r="Q62" s="40">
-        <v>18.99944</v>
-      </c>
-      <c r="R62" s="40">
-        <v>19.182120000000001</v>
-      </c>
-      <c r="S62" s="40">
-        <v>19.173539999999999</v>
-      </c>
-      <c r="T62" s="40">
-        <v>19.627189999999999</v>
-      </c>
       <c r="X62" s="9"/>
       <c r="Y62" s="9"/>
       <c r="Z62" s="9"/>
@@ -12129,38 +11983,44 @@
     </row>
     <row r="63" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A63" s="52" t="s">
-        <v>87</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="B63" s="35"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="35"/>
+      <c r="F63" s="60"/>
+      <c r="G63" s="35"/>
       <c r="H63" s="22"/>
-      <c r="K63" s="54">
-        <v>21.180599999999998</v>
-      </c>
-      <c r="L63" s="54">
-        <v>20.730039999999999</v>
-      </c>
-      <c r="M63" s="54">
-        <v>20.159269999999999</v>
-      </c>
-      <c r="N63" s="54">
-        <v>19.69454</v>
-      </c>
-      <c r="O63" s="54">
-        <v>19.571490000000001</v>
-      </c>
-      <c r="P63" s="54">
-        <v>19.357230000000001</v>
-      </c>
-      <c r="Q63" s="54">
-        <v>19.077680000000001</v>
-      </c>
-      <c r="R63" s="54">
-        <v>19.202179999999998</v>
-      </c>
-      <c r="S63" s="54">
-        <v>19.322959999999998</v>
-      </c>
-      <c r="T63" s="54">
-        <v>19.607859999999999</v>
+      <c r="K63" s="40">
+        <v>13.849170000000001</v>
+      </c>
+      <c r="L63" s="40">
+        <v>13.623089999999999</v>
+      </c>
+      <c r="M63" s="40">
+        <v>13.811120000000001</v>
+      </c>
+      <c r="N63" s="40">
+        <v>13.19242</v>
+      </c>
+      <c r="O63" s="40">
+        <v>13.32</v>
+      </c>
+      <c r="P63" s="40">
+        <v>12.990930000000001</v>
+      </c>
+      <c r="Q63" s="40">
+        <v>13.268929999999999</v>
+      </c>
+      <c r="R63" s="40">
+        <v>12.919689999999999</v>
+      </c>
+      <c r="S63" s="40">
+        <v>13.66994</v>
+      </c>
+      <c r="T63" s="40">
+        <v>13.568759999999999</v>
       </c>
       <c r="X63" s="9"/>
       <c r="Y63" s="9"/>
@@ -12169,39 +12029,39 @@
       <c r="AB63" s="9"/>
     </row>
     <row r="64" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A64" s="45" t="s">
-        <v>88</v>
+      <c r="A64" s="52" t="s">
+        <v>87</v>
       </c>
       <c r="H64" s="22"/>
-      <c r="K64" s="49">
-        <v>21.163229999999999</v>
-      </c>
-      <c r="L64" s="49">
-        <v>20.694130000000001</v>
-      </c>
-      <c r="M64" s="49">
-        <v>20.10848</v>
-      </c>
-      <c r="N64" s="49">
-        <v>19.6508</v>
-      </c>
-      <c r="O64" s="49">
-        <v>19.532319999999999</v>
-      </c>
-      <c r="P64" s="49">
-        <v>19.34207</v>
-      </c>
-      <c r="Q64" s="49">
-        <v>19.120550000000001</v>
-      </c>
-      <c r="R64" s="49">
-        <v>19.216229999999999</v>
-      </c>
-      <c r="S64" s="49">
-        <v>19.32254</v>
-      </c>
-      <c r="T64" s="49">
-        <v>19.52065</v>
+      <c r="K64" s="54">
+        <v>13.806979999999999</v>
+      </c>
+      <c r="L64" s="54">
+        <v>13.622949999999999</v>
+      </c>
+      <c r="M64" s="54">
+        <v>13.807550000000001</v>
+      </c>
+      <c r="N64" s="54">
+        <v>13.18835</v>
+      </c>
+      <c r="O64" s="54">
+        <v>13.303050000000001</v>
+      </c>
+      <c r="P64" s="54">
+        <v>13.02102</v>
+      </c>
+      <c r="Q64" s="54">
+        <v>13.28543</v>
+      </c>
+      <c r="R64" s="54">
+        <v>12.93735</v>
+      </c>
+      <c r="S64" s="54">
+        <v>13.715009999999999</v>
+      </c>
+      <c r="T64" s="54">
+        <v>13.49605</v>
       </c>
       <c r="X64" s="9"/>
       <c r="Y64" s="9"/>
@@ -12210,878 +12070,1447 @@
       <c r="AB64" s="9"/>
     </row>
     <row r="65" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A65" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="B65" s="12">
-        <v>21.93</v>
-      </c>
-      <c r="D65" s="12">
-        <v>21.93</v>
-      </c>
-      <c r="E65" s="12">
-        <v>21.51</v>
-      </c>
-      <c r="G65" s="12">
-        <v>22.05</v>
+      <c r="A65" s="45" t="s">
+        <v>88</v>
       </c>
       <c r="H65" s="22"/>
-      <c r="K65" s="39">
-        <v>20.25</v>
-      </c>
-      <c r="L65" s="39">
-        <v>19.23</v>
-      </c>
-      <c r="M65" s="39">
-        <v>18.98</v>
-      </c>
-      <c r="N65" s="39">
-        <v>18.190000000000001</v>
-      </c>
-      <c r="O65" s="39">
-        <v>18.43</v>
-      </c>
-      <c r="P65" s="39">
-        <v>18.11</v>
-      </c>
-      <c r="Q65" s="39">
-        <v>18.48</v>
-      </c>
-      <c r="R65" s="39">
-        <v>17.899999999999999</v>
-      </c>
-      <c r="S65" s="39">
-        <v>18.12</v>
-      </c>
-      <c r="T65" s="39">
-        <v>18.7</v>
-      </c>
-      <c r="U65" s="9"/>
-      <c r="V65" s="9"/>
-      <c r="W65" s="9"/>
-      <c r="X65" s="9"/>
-      <c r="Y65" s="9"/>
-      <c r="Z65" s="9"/>
-      <c r="AA65" s="9"/>
-      <c r="AB65" s="9"/>
+      <c r="K65" s="49">
+        <v>13.823539999999999</v>
+      </c>
+      <c r="L65" s="49">
+        <v>13.654210000000001</v>
+      </c>
+      <c r="M65" s="49">
+        <v>13.76412</v>
+      </c>
+      <c r="N65" s="49">
+        <v>13.18591</v>
+      </c>
+      <c r="O65" s="49">
+        <v>13.287380000000001</v>
+      </c>
+      <c r="P65" s="49">
+        <v>13.02256</v>
+      </c>
+      <c r="Q65" s="49">
+        <v>13.301069999999999</v>
+      </c>
+      <c r="R65" s="49">
+        <v>12.948270000000001</v>
+      </c>
+      <c r="S65" s="49">
+        <v>13.75249</v>
+      </c>
+      <c r="T65" s="49">
+        <v>13.45852</v>
+      </c>
     </row>
     <row r="66" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A66" s="52" t="s">
-        <v>83</v>
-      </c>
-      <c r="B66" s="35"/>
-      <c r="C66" s="9"/>
-      <c r="D66" s="9"/>
-      <c r="E66" s="35"/>
-      <c r="F66" s="60"/>
-      <c r="G66" s="35"/>
+      <c r="A66" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="B66" s="12">
+        <v>17.11</v>
+      </c>
+      <c r="D66" s="12">
+        <v>17.11</v>
+      </c>
+      <c r="E66" s="12">
+        <v>17.14</v>
+      </c>
+      <c r="G66" s="12">
+        <v>16.96</v>
+      </c>
       <c r="H66" s="22"/>
-      <c r="K66" s="40">
-        <v>23.48385</v>
-      </c>
-      <c r="L66" s="40">
-        <v>22.546569999999999</v>
-      </c>
-      <c r="M66" s="40">
-        <v>22.266459999999999</v>
-      </c>
-      <c r="N66" s="40">
-        <v>21.47326</v>
-      </c>
-      <c r="O66" s="40">
-        <v>21.875240000000002</v>
-      </c>
-      <c r="P66" s="40">
-        <v>21.34441</v>
-      </c>
-      <c r="Q66" s="40">
-        <v>21.621490000000001</v>
-      </c>
-      <c r="R66" s="40">
-        <v>21.20477</v>
-      </c>
-      <c r="S66" s="40">
-        <v>21.355789999999999</v>
-      </c>
-      <c r="T66" s="40">
-        <v>22.202719999999999</v>
-      </c>
-      <c r="U66" s="9"/>
-      <c r="V66" s="9"/>
-      <c r="W66" s="9"/>
+      <c r="K66" s="41">
+        <v>15.32</v>
+      </c>
+      <c r="L66" s="41">
+        <v>14.9</v>
+      </c>
+      <c r="M66" s="41">
+        <v>14.52</v>
+      </c>
+      <c r="N66" s="41">
+        <v>14.5</v>
+      </c>
+      <c r="O66" s="41">
+        <v>14.11</v>
+      </c>
+      <c r="P66" s="41">
+        <v>13.9</v>
+      </c>
+      <c r="Q66" s="41">
+        <v>14.16</v>
+      </c>
+      <c r="R66" s="41">
+        <v>13.82</v>
+      </c>
+      <c r="S66" s="41">
+        <v>14.17</v>
+      </c>
+      <c r="T66" s="41">
+        <v>14.05</v>
+      </c>
       <c r="X66" s="9"/>
       <c r="Y66" s="9"/>
+      <c r="Z66" s="9"/>
+      <c r="AA66" s="9"/>
     </row>
     <row r="67" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A67" s="52" t="s">
+      <c r="A67" s="71" t="s">
+        <v>113</v>
+      </c>
+      <c r="B67" s="12">
+        <v>16.23527</v>
+      </c>
+      <c r="H67" s="22"/>
+      <c r="K67" s="41"/>
+      <c r="L67" s="41"/>
+      <c r="M67" s="41"/>
+      <c r="N67" s="41"/>
+      <c r="O67" s="41"/>
+      <c r="P67" s="41"/>
+      <c r="Q67" s="41"/>
+      <c r="R67" s="41"/>
+      <c r="S67" s="41"/>
+      <c r="T67" s="41"/>
+      <c r="X67" s="9"/>
+      <c r="Y67" s="9"/>
+      <c r="Z67" s="9"/>
+      <c r="AA67" s="9"/>
+    </row>
+    <row r="68" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A68" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="B68" s="35"/>
+      <c r="C68" s="9"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="35"/>
+      <c r="F68" s="60"/>
+      <c r="G68" s="35"/>
+      <c r="H68" s="22"/>
+      <c r="K68" s="40">
+        <v>18.232040000000001</v>
+      </c>
+      <c r="L68" s="40">
+        <v>17.7684</v>
+      </c>
+      <c r="M68" s="40">
+        <v>17.33136</v>
+      </c>
+      <c r="N68" s="40">
+        <v>17.182310000000001</v>
+      </c>
+      <c r="O68" s="40">
+        <v>17.105979999999999</v>
+      </c>
+      <c r="P68" s="40">
+        <v>16.80143</v>
+      </c>
+      <c r="Q68" s="40">
+        <v>16.88533</v>
+      </c>
+      <c r="R68" s="40">
+        <v>16.70242</v>
+      </c>
+      <c r="S68" s="40">
+        <v>16.912780000000001</v>
+      </c>
+      <c r="T68" s="40">
+        <v>17.048539999999999</v>
+      </c>
+      <c r="X68" s="9"/>
+      <c r="Y68" s="9"/>
+      <c r="Z68" s="9"/>
+      <c r="AA68" s="9"/>
+      <c r="AB68" s="9"/>
+    </row>
+    <row r="69" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A69" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="H67" s="22"/>
-      <c r="K67" s="54">
-        <v>23.514320000000001</v>
-      </c>
-      <c r="L67" s="54">
-        <v>22.63833</v>
-      </c>
-      <c r="M67" s="54">
-        <v>22.296140000000001</v>
-      </c>
-      <c r="N67" s="54">
-        <v>21.491700000000002</v>
-      </c>
-      <c r="O67" s="54">
-        <v>21.80341</v>
-      </c>
-      <c r="P67" s="54">
-        <v>21.391110000000001</v>
-      </c>
-      <c r="Q67" s="54">
-        <v>21.82893</v>
-      </c>
-      <c r="R67" s="54">
-        <v>21.247800000000002</v>
-      </c>
-      <c r="S67" s="54">
-        <v>21.36018</v>
-      </c>
-      <c r="T67" s="54">
-        <v>22.122119999999999</v>
-      </c>
-    </row>
-    <row r="68" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A68" s="45" t="s">
+      <c r="H69" s="22"/>
+      <c r="K69" s="54">
+        <v>18.243200000000002</v>
+      </c>
+      <c r="L69" s="54">
+        <v>17.754020000000001</v>
+      </c>
+      <c r="M69" s="54">
+        <v>17.344180000000001</v>
+      </c>
+      <c r="N69" s="54">
+        <v>17.195730000000001</v>
+      </c>
+      <c r="O69" s="54">
+        <v>17.08343</v>
+      </c>
+      <c r="P69" s="54">
+        <v>16.802330000000001</v>
+      </c>
+      <c r="Q69" s="54">
+        <v>16.886479999999999</v>
+      </c>
+      <c r="R69" s="54">
+        <v>16.752410000000001</v>
+      </c>
+      <c r="S69" s="54">
+        <v>16.896139999999999</v>
+      </c>
+      <c r="T69" s="54">
+        <v>17.031680000000001</v>
+      </c>
+      <c r="X69" s="9"/>
+      <c r="Y69" s="9"/>
+      <c r="Z69" s="9"/>
+      <c r="AA69" s="9"/>
+      <c r="AB69" s="9"/>
+    </row>
+    <row r="70" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A70" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="H68" s="22"/>
-      <c r="K68" s="49">
-        <v>23.510570000000001</v>
-      </c>
-      <c r="L68" s="49">
-        <v>22.570810000000002</v>
-      </c>
-      <c r="M68" s="49">
-        <v>22.267160000000001</v>
-      </c>
-      <c r="N68" s="49">
-        <v>21.525729999999999</v>
-      </c>
-      <c r="O68" s="49">
-        <v>21.779530000000001</v>
-      </c>
-      <c r="P68" s="49">
-        <v>21.353300000000001</v>
-      </c>
-      <c r="Q68" s="49">
-        <v>21.823830000000001</v>
-      </c>
-      <c r="R68" s="49">
-        <v>21.258400000000002</v>
-      </c>
-      <c r="S68" s="49">
-        <v>21.43066</v>
-      </c>
-      <c r="T68" s="49">
-        <v>21.949120000000001</v>
-      </c>
-      <c r="U68" s="9"/>
-      <c r="V68" s="9"/>
-      <c r="W68" s="9"/>
-      <c r="X68" s="9"/>
-    </row>
-    <row r="69" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A69" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="H69" s="22"/>
-      <c r="U69" s="9"/>
-      <c r="V69" s="9"/>
-      <c r="W69" s="9"/>
-      <c r="X69" s="9"/>
-    </row>
-    <row r="70" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A70" s="46" t="s">
-        <v>84</v>
-      </c>
-      <c r="E70" s="18">
-        <v>12.424250000000001</v>
-      </c>
-      <c r="F70" s="18"/>
-      <c r="G70" s="18">
-        <v>12.70543</v>
-      </c>
-      <c r="H70" s="59"/>
-      <c r="K70" s="39">
-        <v>11.25</v>
-      </c>
-      <c r="L70" s="42">
-        <v>10.94</v>
-      </c>
-      <c r="M70" s="42">
-        <v>11.318160000000001</v>
-      </c>
-      <c r="N70" s="42">
-        <v>10.539960000000001</v>
-      </c>
-      <c r="O70" s="42">
-        <v>10.694470000000001</v>
-      </c>
-      <c r="P70" s="42">
-        <v>10.268319999999999</v>
-      </c>
-      <c r="Q70" s="42">
-        <v>10.62804</v>
-      </c>
-      <c r="R70" s="42">
-        <v>10.31137</v>
-      </c>
-      <c r="S70" s="42">
-        <v>10.790929999999999</v>
-      </c>
-      <c r="T70" s="42">
-        <v>10.63754</v>
-      </c>
-      <c r="U70" s="9"/>
-      <c r="V70" s="9"/>
-      <c r="W70" s="9"/>
+      <c r="H70" s="22"/>
+      <c r="K70" s="49">
+        <v>18.234970000000001</v>
+      </c>
+      <c r="L70" s="49">
+        <v>17.746400000000001</v>
+      </c>
+      <c r="M70" s="49">
+        <v>17.317029999999999</v>
+      </c>
+      <c r="N70" s="49">
+        <v>17.191700000000001</v>
+      </c>
+      <c r="O70" s="49">
+        <v>17.033619999999999</v>
+      </c>
+      <c r="P70" s="49">
+        <v>16.789480000000001</v>
+      </c>
+      <c r="Q70" s="49">
+        <v>16.90447</v>
+      </c>
+      <c r="R70" s="49">
+        <v>16.754919999999998</v>
+      </c>
+      <c r="S70" s="49">
+        <v>16.954699999999999</v>
+      </c>
+      <c r="T70" s="49">
+        <v>16.99954</v>
+      </c>
       <c r="X70" s="9"/>
+      <c r="Y70" s="9"/>
+      <c r="Z70" s="9"/>
+      <c r="AA70" s="9"/>
+      <c r="AB70" s="9"/>
     </row>
     <row r="71" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A71" s="52" t="s">
+      <c r="A71" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="B71" s="12">
+        <v>19.91</v>
+      </c>
+      <c r="D71" s="12">
+        <v>19.91</v>
+      </c>
+      <c r="E71" s="12">
+        <v>19.97</v>
+      </c>
+      <c r="G71" s="12">
+        <v>19.670000000000002</v>
+      </c>
+      <c r="H71" s="22"/>
+      <c r="K71" s="41">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="L71" s="41">
+        <v>17.53</v>
+      </c>
+      <c r="M71" s="41">
+        <v>16.97</v>
+      </c>
+      <c r="N71" s="41">
+        <v>16.5</v>
+      </c>
+      <c r="O71" s="41">
+        <v>16.39</v>
+      </c>
+      <c r="P71" s="41">
+        <v>16.190000000000001</v>
+      </c>
+      <c r="Q71" s="41">
+        <v>16.09</v>
+      </c>
+      <c r="R71" s="41">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="S71" s="41">
+        <v>16.02</v>
+      </c>
+      <c r="T71" s="41">
+        <v>16.43</v>
+      </c>
+      <c r="X71" s="9"/>
+      <c r="Y71" s="9"/>
+      <c r="Z71" s="9"/>
+      <c r="AA71" s="9"/>
+      <c r="AB71" s="9"/>
+    </row>
+    <row r="72" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A72" s="71" t="s">
+        <v>113</v>
+      </c>
+      <c r="B72" s="12">
+        <v>18.922329999999999</v>
+      </c>
+      <c r="H72" s="22"/>
+      <c r="K72" s="41"/>
+      <c r="L72" s="41"/>
+      <c r="M72" s="41"/>
+      <c r="N72" s="41"/>
+      <c r="O72" s="41"/>
+      <c r="P72" s="41"/>
+      <c r="Q72" s="41"/>
+      <c r="R72" s="41"/>
+      <c r="S72" s="41"/>
+      <c r="T72" s="41"/>
+      <c r="X72" s="9"/>
+      <c r="Y72" s="9"/>
+      <c r="Z72" s="9"/>
+      <c r="AA72" s="9"/>
+      <c r="AB72" s="9"/>
+    </row>
+    <row r="73" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A73" s="52" t="s">
         <v>83</v>
       </c>
-      <c r="B71" s="35"/>
-      <c r="C71" s="9"/>
-      <c r="D71" s="9"/>
-      <c r="E71" s="35"/>
-      <c r="F71" s="60"/>
-      <c r="G71" s="35"/>
-      <c r="H71" s="22"/>
-      <c r="K71" s="34">
-        <v>13.93524</v>
-      </c>
-      <c r="L71" s="34">
-        <v>13.56888</v>
-      </c>
-      <c r="M71" s="34">
-        <v>13.77824</v>
-      </c>
-      <c r="N71" s="34">
-        <v>13.183820000000001</v>
-      </c>
-      <c r="O71" s="34">
-        <v>13.285080000000001</v>
-      </c>
-      <c r="P71" s="34">
-        <v>12.990930000000001</v>
-      </c>
-      <c r="Q71" s="34">
-        <v>13.33128</v>
-      </c>
-      <c r="R71" s="34">
-        <v>12.9681</v>
-      </c>
-      <c r="S71" s="34">
-        <v>13.67868</v>
-      </c>
-      <c r="T71" s="34">
-        <v>13.60735</v>
-      </c>
-      <c r="U71" s="9"/>
-      <c r="V71" s="9"/>
-      <c r="W71" s="9"/>
-      <c r="X71" s="9"/>
-    </row>
-    <row r="72" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A72" s="52" t="s">
+      <c r="B73" s="35"/>
+      <c r="C73" s="9"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="35"/>
+      <c r="F73" s="60"/>
+      <c r="G73" s="35"/>
+      <c r="H73" s="22"/>
+      <c r="K73" s="40">
+        <v>21.18892</v>
+      </c>
+      <c r="L73" s="40">
+        <v>20.667860000000001</v>
+      </c>
+      <c r="M73" s="40">
+        <v>20.093</v>
+      </c>
+      <c r="N73" s="40">
+        <v>19.528110000000002</v>
+      </c>
+      <c r="O73" s="40">
+        <v>19.621670000000002</v>
+      </c>
+      <c r="P73" s="40">
+        <v>19.33616</v>
+      </c>
+      <c r="Q73" s="40">
+        <v>18.99944</v>
+      </c>
+      <c r="R73" s="40">
+        <v>19.182120000000001</v>
+      </c>
+      <c r="S73" s="40">
+        <v>19.173539999999999</v>
+      </c>
+      <c r="T73" s="40">
+        <v>19.627189999999999</v>
+      </c>
+      <c r="X73" s="9"/>
+      <c r="Y73" s="9"/>
+      <c r="Z73" s="9"/>
+      <c r="AA73" s="9"/>
+      <c r="AB73" s="9"/>
+    </row>
+    <row r="74" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A74" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="H72" s="22"/>
-      <c r="K72" s="54">
-        <v>13.89518</v>
-      </c>
-      <c r="L72" s="54">
-        <v>13.565469999999999</v>
-      </c>
-      <c r="M72" s="54">
-        <v>13.77373</v>
-      </c>
-      <c r="N72" s="54">
-        <v>13.17966</v>
-      </c>
-      <c r="O72" s="54">
-        <v>13.26778</v>
-      </c>
-      <c r="P72" s="54">
-        <v>13.02102</v>
-      </c>
-      <c r="Q72" s="54">
-        <v>13.35162</v>
-      </c>
-      <c r="R72" s="54">
-        <v>12.986800000000001</v>
-      </c>
-      <c r="S72" s="54">
-        <v>13.7239</v>
-      </c>
-      <c r="T72" s="54">
-        <v>13.538460000000001</v>
-      </c>
-      <c r="U72" s="9"/>
-      <c r="V72" s="9"/>
-      <c r="W72" s="9"/>
-      <c r="X72" s="9"/>
-    </row>
-    <row r="73" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A73" s="45" t="s">
+      <c r="H74" s="22"/>
+      <c r="K74" s="54">
+        <v>21.180599999999998</v>
+      </c>
+      <c r="L74" s="54">
+        <v>20.730039999999999</v>
+      </c>
+      <c r="M74" s="54">
+        <v>20.159269999999999</v>
+      </c>
+      <c r="N74" s="54">
+        <v>19.69454</v>
+      </c>
+      <c r="O74" s="54">
+        <v>19.571490000000001</v>
+      </c>
+      <c r="P74" s="54">
+        <v>19.357230000000001</v>
+      </c>
+      <c r="Q74" s="54">
+        <v>19.077680000000001</v>
+      </c>
+      <c r="R74" s="54">
+        <v>19.202179999999998</v>
+      </c>
+      <c r="S74" s="54">
+        <v>19.322959999999998</v>
+      </c>
+      <c r="T74" s="54">
+        <v>19.607859999999999</v>
+      </c>
+      <c r="X74" s="9"/>
+      <c r="Y74" s="9"/>
+      <c r="Z74" s="9"/>
+      <c r="AA74" s="9"/>
+      <c r="AB74" s="9"/>
+    </row>
+    <row r="75" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A75" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="H73" s="22"/>
-      <c r="K73" s="50">
-        <v>13.911339999999999</v>
-      </c>
-      <c r="L73" s="50">
-        <v>13.597479999999999</v>
-      </c>
-      <c r="M73" s="50">
-        <v>13.73001</v>
-      </c>
-      <c r="N73" s="50">
-        <v>13.177250000000001</v>
-      </c>
-      <c r="O73" s="50">
-        <v>13.25217</v>
-      </c>
-      <c r="P73" s="50">
-        <v>13.02256</v>
-      </c>
-      <c r="Q73" s="50">
-        <v>13.36439</v>
-      </c>
-      <c r="R73" s="50">
-        <v>12.997339999999999</v>
-      </c>
-      <c r="S73" s="50">
-        <v>13.76146</v>
-      </c>
-      <c r="T73" s="50">
-        <v>13.500389999999999</v>
-      </c>
-      <c r="U73" s="9"/>
-      <c r="V73" s="9"/>
-      <c r="W73" s="9"/>
-      <c r="X73" s="9"/>
-    </row>
-    <row r="74" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A74" s="46" t="s">
-        <v>85</v>
-      </c>
-      <c r="E74" s="18">
-        <v>17.172409999999999</v>
-      </c>
-      <c r="F74" s="18"/>
-      <c r="G74" s="18">
-        <v>16.994779999999999</v>
-      </c>
-      <c r="H74" s="59"/>
-      <c r="J74" s="18"/>
-      <c r="K74" s="39">
-        <v>15.29</v>
-      </c>
-      <c r="L74" s="42">
-        <v>14.893750000000001</v>
-      </c>
-      <c r="M74" s="42">
-        <v>14.557729999999999</v>
-      </c>
-      <c r="N74" s="42">
-        <v>14.503539999999999</v>
-      </c>
-      <c r="O74" s="42">
-        <v>14.145659999999999</v>
-      </c>
-      <c r="P74" s="42">
-        <v>13.90419</v>
-      </c>
-      <c r="Q74" s="42">
-        <v>14.12405</v>
-      </c>
-      <c r="R74" s="42">
-        <v>13.805199999999999</v>
-      </c>
-      <c r="S74" s="42">
-        <v>14.15784</v>
-      </c>
-      <c r="T74" s="42">
-        <v>14.05007</v>
-      </c>
-      <c r="U74" s="9"/>
-      <c r="V74" s="9"/>
-      <c r="W74" s="9"/>
-      <c r="X74" s="9"/>
-    </row>
-    <row r="75" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A75" s="52" t="s">
-        <v>83</v>
-      </c>
-      <c r="B75" s="35"/>
-      <c r="C75" s="9"/>
-      <c r="D75" s="9"/>
-      <c r="E75" s="35"/>
-      <c r="F75" s="60"/>
-      <c r="G75" s="35"/>
       <c r="H75" s="22"/>
-      <c r="K75" s="34">
-        <v>18.17726</v>
-      </c>
-      <c r="L75" s="34">
-        <v>17.761980000000001</v>
-      </c>
-      <c r="M75" s="34">
-        <v>17.38194</v>
-      </c>
-      <c r="N75" s="34">
-        <v>17.18655</v>
-      </c>
-      <c r="O75" s="34">
-        <v>17.158159999999999</v>
-      </c>
-      <c r="P75" s="34">
-        <v>16.80143</v>
-      </c>
-      <c r="Q75" s="37">
-        <v>16.84939</v>
-      </c>
-      <c r="R75" s="37">
-        <v>16.673249999999999</v>
-      </c>
-      <c r="S75" s="37">
-        <v>16.893529999999998</v>
-      </c>
-      <c r="T75" s="37">
-        <v>17.05078</v>
-      </c>
-      <c r="U75" s="9"/>
-      <c r="V75" s="9"/>
-      <c r="W75" s="9"/>
+      <c r="K75" s="49">
+        <v>21.163229999999999</v>
+      </c>
+      <c r="L75" s="49">
+        <v>20.694130000000001</v>
+      </c>
+      <c r="M75" s="49">
+        <v>20.10848</v>
+      </c>
+      <c r="N75" s="49">
+        <v>19.6508</v>
+      </c>
+      <c r="O75" s="49">
+        <v>19.532319999999999</v>
+      </c>
+      <c r="P75" s="49">
+        <v>19.34207</v>
+      </c>
+      <c r="Q75" s="49">
+        <v>19.120550000000001</v>
+      </c>
+      <c r="R75" s="49">
+        <v>19.216229999999999</v>
+      </c>
+      <c r="S75" s="49">
+        <v>19.32254</v>
+      </c>
+      <c r="T75" s="49">
+        <v>19.52065</v>
+      </c>
       <c r="X75" s="9"/>
+      <c r="Y75" s="9"/>
+      <c r="Z75" s="9"/>
+      <c r="AA75" s="9"/>
+      <c r="AB75" s="9"/>
     </row>
     <row r="76" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A76" s="52" t="s">
-        <v>87</v>
+      <c r="A76" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="B76" s="12">
+        <v>21.93</v>
+      </c>
+      <c r="D76" s="12">
+        <v>21.93</v>
+      </c>
+      <c r="E76" s="12">
+        <v>21.51</v>
+      </c>
+      <c r="G76" s="12">
+        <v>22.05</v>
       </c>
       <c r="H76" s="22"/>
-      <c r="K76" s="54">
-        <v>18.1873</v>
-      </c>
-      <c r="L76" s="54">
-        <v>17.74728</v>
-      </c>
-      <c r="M76" s="54">
-        <v>17.39753</v>
-      </c>
-      <c r="N76" s="54">
-        <v>17.200040000000001</v>
-      </c>
-      <c r="O76" s="54">
-        <v>17.139959999999999</v>
-      </c>
-      <c r="P76" s="54">
-        <v>16.802330000000001</v>
-      </c>
-      <c r="Q76" s="54">
-        <v>16.848700000000001</v>
-      </c>
-      <c r="R76" s="54">
-        <v>16.722169999999998</v>
-      </c>
-      <c r="S76" s="54">
-        <v>16.87546</v>
-      </c>
-      <c r="T76" s="54">
-        <v>17.033989999999999</v>
+      <c r="K76" s="39">
+        <v>20.25</v>
+      </c>
+      <c r="L76" s="39">
+        <v>19.23</v>
+      </c>
+      <c r="M76" s="39">
+        <v>18.98</v>
+      </c>
+      <c r="N76" s="39">
+        <v>18.190000000000001</v>
+      </c>
+      <c r="O76" s="39">
+        <v>18.43</v>
+      </c>
+      <c r="P76" s="39">
+        <v>18.11</v>
+      </c>
+      <c r="Q76" s="39">
+        <v>18.48</v>
+      </c>
+      <c r="R76" s="39">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="S76" s="39">
+        <v>18.12</v>
+      </c>
+      <c r="T76" s="39">
+        <v>18.7</v>
       </c>
       <c r="U76" s="9"/>
       <c r="V76" s="9"/>
       <c r="W76" s="9"/>
       <c r="X76" s="9"/>
+      <c r="Y76" s="9"/>
+      <c r="Z76" s="9"/>
+      <c r="AA76" s="9"/>
+      <c r="AB76" s="9"/>
     </row>
     <row r="77" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A77" s="45" t="s">
-        <v>88</v>
+      <c r="A77" s="71" t="s">
+        <v>113</v>
+      </c>
+      <c r="B77" s="69" t="s">
+        <v>112</v>
+      </c>
+      <c r="E77" s="70" t="s">
+        <v>112</v>
+      </c>
+      <c r="F77" s="18"/>
+      <c r="G77" s="70" t="s">
+        <v>112</v>
       </c>
       <c r="H77" s="22"/>
-      <c r="K77" s="50">
-        <v>18.180119999999999</v>
-      </c>
-      <c r="L77" s="50">
-        <v>17.739619999999999</v>
-      </c>
-      <c r="M77" s="50">
-        <v>17.36909</v>
-      </c>
-      <c r="N77" s="50">
-        <v>17.195989999999998</v>
-      </c>
-      <c r="O77" s="50">
-        <v>17.086860000000001</v>
-      </c>
-      <c r="P77" s="50">
-        <v>16.789480000000001</v>
-      </c>
-      <c r="Q77" s="50">
-        <v>16.867149999999999</v>
-      </c>
-      <c r="R77" s="50">
-        <v>16.72512</v>
-      </c>
-      <c r="S77" s="50">
-        <v>16.934709999999999</v>
-      </c>
-      <c r="T77" s="50">
-        <v>17.001850000000001</v>
-      </c>
       <c r="U77" s="9"/>
       <c r="V77" s="9"/>
       <c r="W77" s="9"/>
       <c r="X77" s="9"/>
+      <c r="Y77" s="9"/>
+      <c r="Z77" s="9"/>
+      <c r="AA77" s="9"/>
+      <c r="AB77" s="9"/>
     </row>
     <row r="78" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A78" s="46" t="s">
-        <v>86</v>
-      </c>
-      <c r="E78" s="18">
-        <v>20.027909999999999</v>
-      </c>
-      <c r="F78" s="18"/>
-      <c r="G78" s="18">
-        <v>19.678349999999998</v>
-      </c>
-      <c r="H78" s="59"/>
-      <c r="J78" s="18"/>
-      <c r="K78" s="39">
-        <v>18.100000000000001</v>
-      </c>
-      <c r="L78" s="42">
-        <v>17.530249999999999</v>
-      </c>
-      <c r="M78" s="42">
-        <v>16.97392</v>
-      </c>
-      <c r="N78" s="42">
-        <v>16.513439999999999</v>
-      </c>
-      <c r="O78" s="42">
-        <v>16.430779999999999</v>
-      </c>
-      <c r="P78" s="42">
-        <v>16.188140000000001</v>
-      </c>
-      <c r="Q78" s="42">
-        <v>16.082619999999999</v>
-      </c>
-      <c r="R78" s="42">
-        <v>16.132180000000002</v>
-      </c>
-      <c r="S78" s="42">
-        <v>16.044429999999998</v>
-      </c>
-      <c r="T78" s="42">
-        <v>16.440359999999998</v>
-      </c>
+      <c r="A78" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="B78" s="35"/>
+      <c r="C78" s="9"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="35"/>
+      <c r="F78" s="60"/>
+      <c r="G78" s="35"/>
+      <c r="H78" s="22"/>
+      <c r="K78" s="40">
+        <v>23.48385</v>
+      </c>
+      <c r="L78" s="40">
+        <v>22.546569999999999</v>
+      </c>
+      <c r="M78" s="40">
+        <v>22.266459999999999</v>
+      </c>
+      <c r="N78" s="40">
+        <v>21.47326</v>
+      </c>
+      <c r="O78" s="40">
+        <v>21.875240000000002</v>
+      </c>
+      <c r="P78" s="40">
+        <v>21.34441</v>
+      </c>
+      <c r="Q78" s="40">
+        <v>21.621490000000001</v>
+      </c>
+      <c r="R78" s="40">
+        <v>21.20477</v>
+      </c>
+      <c r="S78" s="40">
+        <v>21.355789999999999</v>
+      </c>
+      <c r="T78" s="40">
+        <v>22.202719999999999</v>
+      </c>
+      <c r="U78" s="9"/>
+      <c r="V78" s="9"/>
+      <c r="W78" s="9"/>
+      <c r="X78" s="9"/>
+      <c r="Y78" s="9"/>
     </row>
     <row r="79" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A79" s="52" t="s">
-        <v>83</v>
-      </c>
-      <c r="B79" s="35"/>
-      <c r="C79" s="9"/>
-      <c r="D79" s="9"/>
-      <c r="E79" s="35"/>
-      <c r="F79" s="60"/>
-      <c r="G79" s="35"/>
+        <v>87</v>
+      </c>
       <c r="H79" s="22"/>
-      <c r="K79" s="34">
-        <v>21.203379999999999</v>
-      </c>
-      <c r="L79" s="34">
-        <v>20.679449999999999</v>
-      </c>
-      <c r="M79" s="34">
-        <v>20.107330000000001</v>
-      </c>
-      <c r="N79" s="34">
-        <v>19.566859999999998</v>
-      </c>
-      <c r="O79" s="34">
-        <v>19.69097</v>
-      </c>
-      <c r="P79" s="34">
-        <v>19.33616</v>
-      </c>
-      <c r="Q79" s="37">
-        <v>18.99494</v>
-      </c>
-      <c r="R79" s="37">
-        <v>19.235949999999999</v>
-      </c>
-      <c r="S79" s="37">
-        <v>19.212900000000001</v>
-      </c>
-      <c r="T79" s="37">
-        <v>19.644359999999999</v>
+      <c r="K79" s="54">
+        <v>23.514320000000001</v>
+      </c>
+      <c r="L79" s="54">
+        <v>22.63833</v>
+      </c>
+      <c r="M79" s="54">
+        <v>22.296140000000001</v>
+      </c>
+      <c r="N79" s="54">
+        <v>21.491700000000002</v>
+      </c>
+      <c r="O79" s="54">
+        <v>21.80341</v>
+      </c>
+      <c r="P79" s="54">
+        <v>21.391110000000001</v>
+      </c>
+      <c r="Q79" s="54">
+        <v>21.82893</v>
+      </c>
+      <c r="R79" s="54">
+        <v>21.247800000000002</v>
+      </c>
+      <c r="S79" s="54">
+        <v>21.36018</v>
+      </c>
+      <c r="T79" s="54">
+        <v>22.122119999999999</v>
       </c>
     </row>
     <row r="80" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A80" s="52" t="s">
-        <v>87</v>
+      <c r="A80" s="45" t="s">
+        <v>88</v>
       </c>
       <c r="H80" s="22"/>
-      <c r="K80" s="54">
-        <v>21.193190000000001</v>
-      </c>
-      <c r="L80" s="54">
-        <v>20.743169999999999</v>
-      </c>
-      <c r="M80" s="54">
-        <v>20.177</v>
-      </c>
-      <c r="N80" s="54">
-        <v>19.731739999999999</v>
-      </c>
-      <c r="O80" s="54">
-        <v>19.64959</v>
-      </c>
-      <c r="P80" s="54">
-        <v>19.357230000000001</v>
-      </c>
-      <c r="Q80" s="54">
-        <v>19.072970000000002</v>
-      </c>
-      <c r="R80" s="54">
-        <v>19.256620000000002</v>
-      </c>
-      <c r="S80" s="54">
-        <v>19.365410000000001</v>
-      </c>
-      <c r="T80" s="54">
-        <v>19.625820000000001</v>
-      </c>
-    </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A81" s="45" t="s">
-        <v>88</v>
+      <c r="K80" s="49">
+        <v>23.510570000000001</v>
+      </c>
+      <c r="L80" s="49">
+        <v>22.570810000000002</v>
+      </c>
+      <c r="M80" s="49">
+        <v>22.267160000000001</v>
+      </c>
+      <c r="N80" s="49">
+        <v>21.525729999999999</v>
+      </c>
+      <c r="O80" s="49">
+        <v>21.779530000000001</v>
+      </c>
+      <c r="P80" s="49">
+        <v>21.353300000000001</v>
+      </c>
+      <c r="Q80" s="49">
+        <v>21.823830000000001</v>
+      </c>
+      <c r="R80" s="49">
+        <v>21.258400000000002</v>
+      </c>
+      <c r="S80" s="49">
+        <v>21.43066</v>
+      </c>
+      <c r="T80" s="49">
+        <v>21.949120000000001</v>
+      </c>
+      <c r="U80" s="9"/>
+      <c r="V80" s="9"/>
+      <c r="W80" s="9"/>
+      <c r="X80" s="9"/>
+    </row>
+    <row r="81" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A81" s="16" t="s">
+        <v>26</v>
       </c>
       <c r="H81" s="22"/>
-      <c r="K81" s="50">
-        <v>21.1755</v>
-      </c>
-      <c r="L81" s="50">
-        <v>20.707909999999998</v>
-      </c>
-      <c r="M81" s="50">
-        <v>20.12424</v>
-      </c>
-      <c r="N81" s="50">
-        <v>19.686350000000001</v>
-      </c>
-      <c r="O81" s="50">
-        <v>19.607340000000001</v>
-      </c>
-      <c r="P81" s="50">
-        <v>19.34207</v>
-      </c>
-      <c r="Q81" s="50">
-        <v>19.116219999999998</v>
-      </c>
-      <c r="R81" s="50">
-        <v>19.271159999999998</v>
-      </c>
-      <c r="S81" s="50">
-        <v>19.362729999999999</v>
-      </c>
-      <c r="T81" s="50">
-        <v>19.53791</v>
-      </c>
-    </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A82" s="47" t="s">
-        <v>22</v>
+      <c r="U81" s="9"/>
+      <c r="V81" s="9"/>
+      <c r="W81" s="9"/>
+      <c r="X81" s="9"/>
+    </row>
+    <row r="82" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A82" s="46" t="s">
+        <v>84</v>
       </c>
       <c r="E82" s="18">
-        <v>21.590530000000001</v>
+        <v>12.424250000000001</v>
       </c>
       <c r="F82" s="18"/>
       <c r="G82" s="18">
+        <v>12.70543</v>
+      </c>
+      <c r="H82" s="59"/>
+      <c r="K82" s="39">
+        <v>11.25</v>
+      </c>
+      <c r="L82" s="42">
+        <v>10.94</v>
+      </c>
+      <c r="M82" s="42">
+        <v>11.318160000000001</v>
+      </c>
+      <c r="N82" s="42">
+        <v>10.539960000000001</v>
+      </c>
+      <c r="O82" s="42">
+        <v>10.694470000000001</v>
+      </c>
+      <c r="P82" s="42">
+        <v>10.268319999999999</v>
+      </c>
+      <c r="Q82" s="42">
+        <v>10.62804</v>
+      </c>
+      <c r="R82" s="42">
+        <v>10.31137</v>
+      </c>
+      <c r="S82" s="42">
+        <v>10.790929999999999</v>
+      </c>
+      <c r="T82" s="42">
+        <v>10.63754</v>
+      </c>
+      <c r="U82" s="9"/>
+      <c r="V82" s="9"/>
+      <c r="W82" s="9"/>
+      <c r="X82" s="9"/>
+    </row>
+    <row r="83" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A83" s="71" t="s">
+        <v>113</v>
+      </c>
+      <c r="B83" s="12">
+        <v>12.53679</v>
+      </c>
+      <c r="E83" s="18"/>
+      <c r="F83" s="18"/>
+      <c r="G83" s="18"/>
+      <c r="H83" s="59"/>
+      <c r="L83" s="42"/>
+      <c r="M83" s="42"/>
+      <c r="N83" s="42"/>
+      <c r="O83" s="42"/>
+      <c r="P83" s="42"/>
+      <c r="Q83" s="42"/>
+      <c r="R83" s="42"/>
+      <c r="S83" s="42"/>
+      <c r="T83" s="42"/>
+      <c r="U83" s="9"/>
+      <c r="V83" s="9"/>
+      <c r="W83" s="9"/>
+      <c r="X83" s="9"/>
+    </row>
+    <row r="84" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A84" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="B84" s="35"/>
+      <c r="C84" s="9"/>
+      <c r="D84" s="9"/>
+      <c r="E84" s="35"/>
+      <c r="F84" s="60"/>
+      <c r="G84" s="35"/>
+      <c r="H84" s="22"/>
+      <c r="K84" s="34">
+        <v>13.93524</v>
+      </c>
+      <c r="L84" s="34">
+        <v>13.56888</v>
+      </c>
+      <c r="M84" s="34">
+        <v>13.77824</v>
+      </c>
+      <c r="N84" s="34">
+        <v>13.183820000000001</v>
+      </c>
+      <c r="O84" s="34">
+        <v>13.285080000000001</v>
+      </c>
+      <c r="P84" s="34">
+        <v>12.990930000000001</v>
+      </c>
+      <c r="Q84" s="34">
+        <v>13.33128</v>
+      </c>
+      <c r="R84" s="34">
+        <v>12.9681</v>
+      </c>
+      <c r="S84" s="34">
+        <v>13.67868</v>
+      </c>
+      <c r="T84" s="34">
+        <v>13.60735</v>
+      </c>
+      <c r="U84" s="9"/>
+      <c r="V84" s="9"/>
+      <c r="W84" s="9"/>
+      <c r="X84" s="9"/>
+    </row>
+    <row r="85" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A85" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="H85" s="22"/>
+      <c r="K85" s="54">
+        <v>13.89518</v>
+      </c>
+      <c r="L85" s="54">
+        <v>13.565469999999999</v>
+      </c>
+      <c r="M85" s="54">
+        <v>13.77373</v>
+      </c>
+      <c r="N85" s="54">
+        <v>13.17966</v>
+      </c>
+      <c r="O85" s="54">
+        <v>13.26778</v>
+      </c>
+      <c r="P85" s="54">
+        <v>13.02102</v>
+      </c>
+      <c r="Q85" s="54">
+        <v>13.35162</v>
+      </c>
+      <c r="R85" s="54">
+        <v>12.986800000000001</v>
+      </c>
+      <c r="S85" s="54">
+        <v>13.7239</v>
+      </c>
+      <c r="T85" s="54">
+        <v>13.538460000000001</v>
+      </c>
+      <c r="U85" s="9"/>
+      <c r="V85" s="9"/>
+      <c r="W85" s="9"/>
+      <c r="X85" s="9"/>
+    </row>
+    <row r="86" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A86" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="H86" s="22"/>
+      <c r="K86" s="50">
+        <v>13.911339999999999</v>
+      </c>
+      <c r="L86" s="50">
+        <v>13.597479999999999</v>
+      </c>
+      <c r="M86" s="50">
+        <v>13.73001</v>
+      </c>
+      <c r="N86" s="50">
+        <v>13.177250000000001</v>
+      </c>
+      <c r="O86" s="50">
+        <v>13.25217</v>
+      </c>
+      <c r="P86" s="50">
+        <v>13.02256</v>
+      </c>
+      <c r="Q86" s="50">
+        <v>13.36439</v>
+      </c>
+      <c r="R86" s="50">
+        <v>12.997339999999999</v>
+      </c>
+      <c r="S86" s="50">
+        <v>13.76146</v>
+      </c>
+      <c r="T86" s="50">
+        <v>13.500389999999999</v>
+      </c>
+      <c r="U86" s="9"/>
+      <c r="V86" s="9"/>
+      <c r="W86" s="9"/>
+      <c r="X86" s="9"/>
+    </row>
+    <row r="87" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A87" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="E87" s="18">
+        <v>17.172409999999999</v>
+      </c>
+      <c r="F87" s="18"/>
+      <c r="G87" s="18">
+        <v>16.994779999999999</v>
+      </c>
+      <c r="H87" s="59"/>
+      <c r="J87" s="18"/>
+      <c r="K87" s="39">
+        <v>15.29</v>
+      </c>
+      <c r="L87" s="42">
+        <v>14.893750000000001</v>
+      </c>
+      <c r="M87" s="42">
+        <v>14.557729999999999</v>
+      </c>
+      <c r="N87" s="42">
+        <v>14.503539999999999</v>
+      </c>
+      <c r="O87" s="42">
+        <v>14.145659999999999</v>
+      </c>
+      <c r="P87" s="42">
+        <v>13.90419</v>
+      </c>
+      <c r="Q87" s="42">
+        <v>14.12405</v>
+      </c>
+      <c r="R87" s="42">
+        <v>13.805199999999999</v>
+      </c>
+      <c r="S87" s="42">
+        <v>14.15784</v>
+      </c>
+      <c r="T87" s="42">
+        <v>14.05007</v>
+      </c>
+      <c r="U87" s="9"/>
+      <c r="V87" s="9"/>
+      <c r="W87" s="9"/>
+      <c r="X87" s="9"/>
+    </row>
+    <row r="88" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A88" s="71" t="s">
+        <v>113</v>
+      </c>
+      <c r="B88" s="12">
+        <v>16.233319999999999</v>
+      </c>
+      <c r="E88" s="18"/>
+      <c r="F88" s="18"/>
+      <c r="G88" s="18"/>
+      <c r="H88" s="59"/>
+      <c r="J88" s="18"/>
+      <c r="L88" s="42"/>
+      <c r="M88" s="42"/>
+      <c r="N88" s="42"/>
+      <c r="O88" s="42"/>
+      <c r="P88" s="42"/>
+      <c r="Q88" s="42"/>
+      <c r="R88" s="42"/>
+      <c r="S88" s="42"/>
+      <c r="T88" s="42"/>
+      <c r="U88" s="9"/>
+      <c r="V88" s="9"/>
+      <c r="W88" s="9"/>
+      <c r="X88" s="9"/>
+    </row>
+    <row r="89" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A89" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="B89" s="35"/>
+      <c r="C89" s="9"/>
+      <c r="D89" s="9"/>
+      <c r="E89" s="35"/>
+      <c r="F89" s="60"/>
+      <c r="G89" s="35"/>
+      <c r="H89" s="22"/>
+      <c r="K89" s="34">
+        <v>18.17726</v>
+      </c>
+      <c r="L89" s="34">
+        <v>17.761980000000001</v>
+      </c>
+      <c r="M89" s="34">
+        <v>17.38194</v>
+      </c>
+      <c r="N89" s="34">
+        <v>17.18655</v>
+      </c>
+      <c r="O89" s="34">
+        <v>17.158159999999999</v>
+      </c>
+      <c r="P89" s="34">
+        <v>16.80143</v>
+      </c>
+      <c r="Q89" s="37">
+        <v>16.84939</v>
+      </c>
+      <c r="R89" s="37">
+        <v>16.673249999999999</v>
+      </c>
+      <c r="S89" s="37">
+        <v>16.893529999999998</v>
+      </c>
+      <c r="T89" s="37">
+        <v>17.05078</v>
+      </c>
+      <c r="U89" s="9"/>
+      <c r="V89" s="9"/>
+      <c r="W89" s="9"/>
+      <c r="X89" s="9"/>
+    </row>
+    <row r="90" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A90" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="H90" s="22"/>
+      <c r="K90" s="54">
+        <v>18.1873</v>
+      </c>
+      <c r="L90" s="54">
+        <v>17.74728</v>
+      </c>
+      <c r="M90" s="54">
+        <v>17.39753</v>
+      </c>
+      <c r="N90" s="54">
+        <v>17.200040000000001</v>
+      </c>
+      <c r="O90" s="54">
+        <v>17.139959999999999</v>
+      </c>
+      <c r="P90" s="54">
+        <v>16.802330000000001</v>
+      </c>
+      <c r="Q90" s="54">
+        <v>16.848700000000001</v>
+      </c>
+      <c r="R90" s="54">
+        <v>16.722169999999998</v>
+      </c>
+      <c r="S90" s="54">
+        <v>16.87546</v>
+      </c>
+      <c r="T90" s="54">
+        <v>17.033989999999999</v>
+      </c>
+      <c r="U90" s="9"/>
+      <c r="V90" s="9"/>
+      <c r="W90" s="9"/>
+      <c r="X90" s="9"/>
+    </row>
+    <row r="91" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A91" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="H91" s="22"/>
+      <c r="K91" s="50">
+        <v>18.180119999999999</v>
+      </c>
+      <c r="L91" s="50">
+        <v>17.739619999999999</v>
+      </c>
+      <c r="M91" s="50">
+        <v>17.36909</v>
+      </c>
+      <c r="N91" s="50">
+        <v>17.195989999999998</v>
+      </c>
+      <c r="O91" s="50">
+        <v>17.086860000000001</v>
+      </c>
+      <c r="P91" s="50">
+        <v>16.789480000000001</v>
+      </c>
+      <c r="Q91" s="50">
+        <v>16.867149999999999</v>
+      </c>
+      <c r="R91" s="50">
+        <v>16.72512</v>
+      </c>
+      <c r="S91" s="50">
+        <v>16.934709999999999</v>
+      </c>
+      <c r="T91" s="50">
+        <v>17.001850000000001</v>
+      </c>
+      <c r="U91" s="9"/>
+      <c r="V91" s="9"/>
+      <c r="W91" s="9"/>
+      <c r="X91" s="9"/>
+    </row>
+    <row r="92" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A92" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="E92" s="18">
+        <v>20.027909999999999</v>
+      </c>
+      <c r="F92" s="18"/>
+      <c r="G92" s="18">
+        <v>19.678349999999998</v>
+      </c>
+      <c r="H92" s="59"/>
+      <c r="J92" s="18"/>
+      <c r="K92" s="39">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="L92" s="42">
+        <v>17.530249999999999</v>
+      </c>
+      <c r="M92" s="42">
+        <v>16.97392</v>
+      </c>
+      <c r="N92" s="42">
+        <v>16.513439999999999</v>
+      </c>
+      <c r="O92" s="42">
+        <v>16.430779999999999</v>
+      </c>
+      <c r="P92" s="42">
+        <v>16.188140000000001</v>
+      </c>
+      <c r="Q92" s="42">
+        <v>16.082619999999999</v>
+      </c>
+      <c r="R92" s="42">
+        <v>16.132180000000002</v>
+      </c>
+      <c r="S92" s="42">
+        <v>16.044429999999998</v>
+      </c>
+      <c r="T92" s="42">
+        <v>16.440359999999998</v>
+      </c>
+    </row>
+    <row r="93" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A93" s="71" t="s">
+        <v>113</v>
+      </c>
+      <c r="B93" s="12">
+        <v>18.928139999999999</v>
+      </c>
+      <c r="E93" s="18"/>
+      <c r="F93" s="18"/>
+      <c r="G93" s="18"/>
+      <c r="H93" s="59"/>
+      <c r="J93" s="18"/>
+      <c r="L93" s="42"/>
+      <c r="M93" s="42"/>
+      <c r="N93" s="42"/>
+      <c r="O93" s="42"/>
+      <c r="P93" s="42"/>
+      <c r="Q93" s="42"/>
+      <c r="R93" s="42"/>
+      <c r="S93" s="42"/>
+      <c r="T93" s="42"/>
+    </row>
+    <row r="94" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A94" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="B94" s="35"/>
+      <c r="C94" s="9"/>
+      <c r="D94" s="9"/>
+      <c r="E94" s="35"/>
+      <c r="F94" s="60"/>
+      <c r="G94" s="35"/>
+      <c r="H94" s="22"/>
+      <c r="K94" s="34">
+        <v>21.203379999999999</v>
+      </c>
+      <c r="L94" s="34">
+        <v>20.679449999999999</v>
+      </c>
+      <c r="M94" s="34">
+        <v>20.107330000000001</v>
+      </c>
+      <c r="N94" s="34">
+        <v>19.566859999999998</v>
+      </c>
+      <c r="O94" s="34">
+        <v>19.69097</v>
+      </c>
+      <c r="P94" s="34">
+        <v>19.33616</v>
+      </c>
+      <c r="Q94" s="37">
+        <v>18.99494</v>
+      </c>
+      <c r="R94" s="37">
+        <v>19.235949999999999</v>
+      </c>
+      <c r="S94" s="37">
+        <v>19.212900000000001</v>
+      </c>
+      <c r="T94" s="37">
+        <v>19.644359999999999</v>
+      </c>
+    </row>
+    <row r="95" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A95" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="H95" s="22"/>
+      <c r="K95" s="54">
+        <v>21.193190000000001</v>
+      </c>
+      <c r="L95" s="54">
+        <v>20.743169999999999</v>
+      </c>
+      <c r="M95" s="54">
+        <v>20.177</v>
+      </c>
+      <c r="N95" s="54">
+        <v>19.731739999999999</v>
+      </c>
+      <c r="O95" s="54">
+        <v>19.64959</v>
+      </c>
+      <c r="P95" s="54">
+        <v>19.357230000000001</v>
+      </c>
+      <c r="Q95" s="54">
+        <v>19.072970000000002</v>
+      </c>
+      <c r="R95" s="54">
+        <v>19.256620000000002</v>
+      </c>
+      <c r="S95" s="54">
+        <v>19.365410000000001</v>
+      </c>
+      <c r="T95" s="54">
+        <v>19.625820000000001</v>
+      </c>
+    </row>
+    <row r="96" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A96" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="H96" s="22"/>
+      <c r="K96" s="50">
+        <v>21.1755</v>
+      </c>
+      <c r="L96" s="50">
+        <v>20.707909999999998</v>
+      </c>
+      <c r="M96" s="50">
+        <v>20.12424</v>
+      </c>
+      <c r="N96" s="50">
+        <v>19.686350000000001</v>
+      </c>
+      <c r="O96" s="50">
+        <v>19.607340000000001</v>
+      </c>
+      <c r="P96" s="50">
+        <v>19.34207</v>
+      </c>
+      <c r="Q96" s="50">
+        <v>19.116219999999998</v>
+      </c>
+      <c r="R96" s="50">
+        <v>19.271159999999998</v>
+      </c>
+      <c r="S96" s="50">
+        <v>19.362729999999999</v>
+      </c>
+      <c r="T96" s="50">
+        <v>19.53791</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A97" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="E97" s="18">
+        <v>21.590530000000001</v>
+      </c>
+      <c r="F97" s="18"/>
+      <c r="G97" s="18">
         <v>22.16356</v>
       </c>
-      <c r="H82" s="59"/>
-      <c r="J82" s="18"/>
-      <c r="K82" s="39">
+      <c r="H97" s="59"/>
+      <c r="J97" s="18"/>
+      <c r="K97" s="39">
         <v>20.239999999999998</v>
       </c>
-      <c r="L82" s="42">
+      <c r="L97" s="42">
         <v>19.233139999999999</v>
       </c>
-      <c r="M82" s="42">
+      <c r="M97" s="42">
         <v>18.981850000000001</v>
       </c>
-      <c r="N82" s="42">
+      <c r="N97" s="42">
         <v>18.19736</v>
       </c>
-      <c r="O82" s="42">
+      <c r="O97" s="42">
         <v>18.434570000000001</v>
       </c>
-      <c r="P82" s="42">
+      <c r="P97" s="42">
         <v>18.105</v>
       </c>
-      <c r="Q82" s="42">
+      <c r="Q97" s="42">
         <v>18.491129999999998</v>
       </c>
-      <c r="R82" s="42">
+      <c r="R97" s="42">
         <v>17.88139</v>
       </c>
-      <c r="S82" s="42">
+      <c r="S97" s="42">
         <v>18.15222</v>
       </c>
-      <c r="T82" s="42">
+      <c r="T97" s="42">
         <v>18.70373</v>
       </c>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A83" s="52" t="s">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A98" s="71" t="s">
+        <v>113</v>
+      </c>
+      <c r="B98" s="69" t="s">
+        <v>112</v>
+      </c>
+      <c r="E98" s="70" t="s">
+        <v>112</v>
+      </c>
+      <c r="F98" s="18"/>
+      <c r="G98" s="70" t="s">
+        <v>112</v>
+      </c>
+      <c r="H98" s="59"/>
+      <c r="J98" s="18"/>
+      <c r="L98" s="42"/>
+      <c r="M98" s="42"/>
+      <c r="N98" s="42"/>
+      <c r="O98" s="42"/>
+      <c r="P98" s="42"/>
+      <c r="Q98" s="42"/>
+      <c r="R98" s="42"/>
+      <c r="S98" s="42"/>
+      <c r="T98" s="42"/>
+    </row>
+    <row r="99" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A99" s="52" t="s">
         <v>83</v>
       </c>
-      <c r="B83" s="35"/>
-      <c r="C83" s="9"/>
-      <c r="D83" s="9"/>
-      <c r="E83" s="35"/>
-      <c r="F83" s="60"/>
-      <c r="G83" s="35"/>
-      <c r="H83" s="59"/>
-      <c r="J83" s="18"/>
-      <c r="K83" s="34">
+      <c r="B99" s="35"/>
+      <c r="C99" s="9"/>
+      <c r="D99" s="9"/>
+      <c r="E99" s="35"/>
+      <c r="F99" s="60"/>
+      <c r="G99" s="35"/>
+      <c r="H99" s="59"/>
+      <c r="J99" s="18"/>
+      <c r="K99" s="34">
         <v>23.494949999999999</v>
       </c>
-      <c r="L83" s="34">
+      <c r="L99" s="34">
         <v>22.58625</v>
       </c>
-      <c r="M83" s="34">
+      <c r="M99" s="34">
         <v>22.285039999999999</v>
       </c>
-      <c r="N83" s="34">
+      <c r="N99" s="34">
         <v>21.48685</v>
       </c>
-      <c r="O83" s="34">
+      <c r="O99" s="34">
         <v>21.87397</v>
       </c>
-      <c r="P83" s="34">
+      <c r="P99" s="34">
         <v>21.34441</v>
       </c>
-      <c r="Q83" s="37">
+      <c r="Q99" s="37">
         <v>21.65164</v>
       </c>
-      <c r="R83" s="37">
+      <c r="R99" s="37">
         <v>21.177790000000002</v>
       </c>
-      <c r="S83" s="37">
+      <c r="S99" s="37">
         <v>21.415019999999998</v>
       </c>
-      <c r="T83" s="37">
+      <c r="T99" s="37">
         <v>22.20374</v>
       </c>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A84" s="52" t="s">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A100" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="E84" s="18"/>
-      <c r="F84" s="18"/>
-      <c r="G84" s="18"/>
-      <c r="H84" s="59"/>
-      <c r="J84" s="18"/>
-      <c r="K84" s="54">
+      <c r="E100" s="18"/>
+      <c r="F100" s="18"/>
+      <c r="G100" s="18"/>
+      <c r="H100" s="59"/>
+      <c r="J100" s="18"/>
+      <c r="K100" s="54">
         <v>23.52627</v>
       </c>
-      <c r="L84" s="54">
+      <c r="L100" s="54">
         <v>22.679010000000002</v>
       </c>
-      <c r="M84" s="54">
+      <c r="M100" s="54">
         <v>22.3142</v>
       </c>
-      <c r="N84" s="54">
+      <c r="N100" s="54">
         <v>21.506270000000001</v>
       </c>
-      <c r="O84" s="54">
+      <c r="O100" s="54">
         <v>21.802070000000001</v>
       </c>
-      <c r="P84" s="54">
+      <c r="P100" s="54">
         <v>21.391110000000001</v>
       </c>
-      <c r="Q84" s="54">
+      <c r="Q100" s="54">
         <v>21.85886</v>
       </c>
-      <c r="R84" s="54">
+      <c r="R100" s="54">
         <v>21.21942</v>
       </c>
-      <c r="S84" s="54">
+      <c r="S100" s="54">
         <v>21.41901</v>
       </c>
-      <c r="T84" s="54">
+      <c r="T100" s="54">
         <v>22.123270000000002</v>
       </c>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A85" s="45" t="s">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A101" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="E85" s="18"/>
-      <c r="F85" s="18"/>
-      <c r="G85" s="18"/>
-      <c r="H85" s="59"/>
-      <c r="J85" s="18"/>
-      <c r="K85" s="50">
+      <c r="E101" s="18"/>
+      <c r="F101" s="18"/>
+      <c r="G101" s="18"/>
+      <c r="H101" s="59"/>
+      <c r="J101" s="18"/>
+      <c r="K101" s="50">
         <v>23.520050000000001</v>
       </c>
-      <c r="L85" s="50">
+      <c r="L101" s="50">
         <v>22.612169999999999</v>
       </c>
-      <c r="M85" s="50">
+      <c r="M101" s="50">
         <v>22.285070000000001</v>
       </c>
-      <c r="N85" s="50">
+      <c r="N101" s="50">
         <v>21.53969</v>
       </c>
-      <c r="O85" s="50">
+      <c r="O101" s="50">
         <v>21.778310000000001</v>
       </c>
-      <c r="P85" s="50">
+      <c r="P101" s="50">
         <v>21.353300000000001</v>
       </c>
-      <c r="Q85" s="50">
+      <c r="Q101" s="50">
         <v>21.853940000000001</v>
       </c>
-      <c r="R85" s="50">
+      <c r="R101" s="50">
         <v>21.231649999999998</v>
       </c>
-      <c r="S85" s="50">
+      <c r="S101" s="50">
         <v>21.492429999999999</v>
       </c>
-      <c r="T85" s="50">
+      <c r="T101" s="50">
         <v>21.950240000000001</v>
       </c>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="H86" s="22"/>
-      <c r="J86" s="18"/>
-    </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="H87" s="22"/>
-    </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="M89" s="41"/>
-      <c r="N89" s="41"/>
-      <c r="O89" s="41"/>
-      <c r="P89" s="41"/>
+    <row r="102" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="H102" s="22"/>
+      <c r="J102" s="18"/>
+    </row>
+    <row r="103" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="H103" s="22"/>
+    </row>
+    <row r="105" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="M105" s="41"/>
+      <c r="N105" s="41"/>
+      <c r="O105" s="41"/>
+      <c r="P105" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -13106,18 +13535,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
     </row>
     <row r="2" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="B2" s="13" t="s">
@@ -13602,23 +14031,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="F1" s="64" t="s">
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="F1" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
       <c r="R1" s="9"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
@@ -14645,18 +15074,19 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BT20"/>
+  <dimension ref="A1:BT25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B17" sqref="B17:C21"/>
+      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="19.6640625" style="5" customWidth="1"/>
+    <col min="1" max="2" width="19.6640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="5" customWidth="1"/>
     <col min="4" max="16" width="8.83203125" style="5"/>
     <col min="17" max="17" width="2.33203125" style="5" customWidth="1"/>
     <col min="18" max="30" width="8.83203125" style="5"/>
@@ -14669,83 +15099,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:72" x14ac:dyDescent="0.2">
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="R1" s="66" t="s">
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="R1" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
-      <c r="W1" s="66"/>
-      <c r="X1" s="66"/>
-      <c r="Y1" s="66"/>
-      <c r="Z1" s="66"/>
-      <c r="AA1" s="66"/>
-      <c r="AB1" s="66"/>
-      <c r="AC1" s="66"/>
-      <c r="AD1" s="66"/>
-      <c r="AF1" s="66" t="s">
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
+      <c r="W1" s="68"/>
+      <c r="X1" s="68"/>
+      <c r="Y1" s="68"/>
+      <c r="Z1" s="68"/>
+      <c r="AA1" s="68"/>
+      <c r="AB1" s="68"/>
+      <c r="AC1" s="68"/>
+      <c r="AD1" s="68"/>
+      <c r="AF1" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="AG1" s="66"/>
-      <c r="AH1" s="66"/>
-      <c r="AI1" s="66"/>
-      <c r="AJ1" s="66"/>
-      <c r="AK1" s="66"/>
-      <c r="AL1" s="66"/>
-      <c r="AM1" s="66"/>
-      <c r="AN1" s="66"/>
-      <c r="AO1" s="66"/>
-      <c r="AP1" s="66"/>
-      <c r="AQ1" s="66"/>
-      <c r="AR1" s="66"/>
-      <c r="AT1" s="66" t="s">
+      <c r="AG1" s="68"/>
+      <c r="AH1" s="68"/>
+      <c r="AI1" s="68"/>
+      <c r="AJ1" s="68"/>
+      <c r="AK1" s="68"/>
+      <c r="AL1" s="68"/>
+      <c r="AM1" s="68"/>
+      <c r="AN1" s="68"/>
+      <c r="AO1" s="68"/>
+      <c r="AP1" s="68"/>
+      <c r="AQ1" s="68"/>
+      <c r="AR1" s="68"/>
+      <c r="AT1" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="AU1" s="66"/>
-      <c r="AV1" s="66"/>
-      <c r="AW1" s="66"/>
-      <c r="AX1" s="66"/>
-      <c r="AY1" s="66"/>
-      <c r="AZ1" s="66"/>
-      <c r="BA1" s="66"/>
-      <c r="BB1" s="66"/>
-      <c r="BC1" s="66"/>
-      <c r="BD1" s="66"/>
-      <c r="BE1" s="66"/>
-      <c r="BF1" s="66"/>
-      <c r="BH1" s="66" t="s">
+      <c r="AU1" s="68"/>
+      <c r="AV1" s="68"/>
+      <c r="AW1" s="68"/>
+      <c r="AX1" s="68"/>
+      <c r="AY1" s="68"/>
+      <c r="AZ1" s="68"/>
+      <c r="BA1" s="68"/>
+      <c r="BB1" s="68"/>
+      <c r="BC1" s="68"/>
+      <c r="BD1" s="68"/>
+      <c r="BE1" s="68"/>
+      <c r="BF1" s="68"/>
+      <c r="BH1" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="BI1" s="66"/>
-      <c r="BJ1" s="66"/>
-      <c r="BK1" s="66"/>
-      <c r="BL1" s="66"/>
-      <c r="BM1" s="66"/>
-      <c r="BN1" s="66"/>
-      <c r="BO1" s="66"/>
-      <c r="BP1" s="66"/>
-      <c r="BQ1" s="66"/>
-      <c r="BR1" s="66"/>
-      <c r="BS1" s="66"/>
-      <c r="BT1" s="66"/>
+      <c r="BI1" s="68"/>
+      <c r="BJ1" s="68"/>
+      <c r="BK1" s="68"/>
+      <c r="BL1" s="68"/>
+      <c r="BM1" s="68"/>
+      <c r="BN1" s="68"/>
+      <c r="BO1" s="68"/>
+      <c r="BP1" s="68"/>
+      <c r="BQ1" s="68"/>
+      <c r="BR1" s="68"/>
+      <c r="BS1" s="68"/>
+      <c r="BT1" s="68"/>
     </row>
     <row r="2" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
@@ -14956,35 +15386,35 @@
         <v>1.5291399999999999</v>
       </c>
       <c r="F3" s="3"/>
-      <c r="G3" s="3">
+      <c r="G3" s="9">
+        <v>1.51841</v>
+      </c>
+      <c r="H3" s="9">
+        <v>1.5181309999999999</v>
+      </c>
+      <c r="I3" s="9">
+        <v>1.518283</v>
+      </c>
+      <c r="J3" s="9">
         <v>1.5183009999999999</v>
       </c>
-      <c r="H3" s="3">
+      <c r="K3" s="9">
         <v>1.5183009999999999</v>
       </c>
-      <c r="I3" s="3">
+      <c r="L3" s="9">
         <v>1.5183009999999999</v>
       </c>
-      <c r="J3" s="3">
+      <c r="M3" s="9">
         <v>1.5183009999999999</v>
       </c>
-      <c r="K3" s="3">
+      <c r="N3" s="9">
         <v>1.5183009999999999</v>
       </c>
-      <c r="L3" s="3">
+      <c r="O3" s="9">
         <v>1.5183009999999999</v>
       </c>
-      <c r="M3" s="3">
+      <c r="P3" s="9">
         <v>1.5183009999999999</v>
-      </c>
-      <c r="N3" s="3">
-        <v>1.5183009999999999</v>
-      </c>
-      <c r="O3" s="3">
-        <v>1.5183009999999999</v>
-      </c>
-      <c r="P3" s="3">
-        <v>1.53</v>
       </c>
       <c r="R3" s="5">
         <v>1.4922390000000001</v>
@@ -15149,34 +15579,34 @@
         <v>60.961219999999997</v>
       </c>
       <c r="F4" s="3"/>
-      <c r="G4" s="3">
-        <v>60.174930000000003</v>
-      </c>
-      <c r="H4" s="3">
-        <v>60.20729</v>
-      </c>
-      <c r="I4" s="3">
-        <v>60.275179999999999</v>
-      </c>
-      <c r="J4" s="3">
+      <c r="G4" s="9">
+        <v>60.176400000000001</v>
+      </c>
+      <c r="H4" s="9">
+        <v>60.191650000000003</v>
+      </c>
+      <c r="I4" s="9">
+        <v>60.229959999999998</v>
+      </c>
+      <c r="J4" s="9">
         <v>60.278599999999997</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="9">
         <v>60.078479999999999</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4" s="9">
         <v>60.094000000000001</v>
       </c>
-      <c r="M4" s="3">
+      <c r="M4" s="9">
         <v>60.173830000000002</v>
       </c>
-      <c r="N4" s="3">
+      <c r="N4" s="9">
         <v>60.141089999999998</v>
       </c>
-      <c r="O4" s="3">
+      <c r="O4" s="9">
         <v>60.076529999999998</v>
       </c>
-      <c r="P4" s="3">
+      <c r="P4" s="9">
         <v>60.09986</v>
       </c>
       <c r="R4" s="5">
@@ -15342,34 +15772,34 @@
         <v>218.81880000000001</v>
       </c>
       <c r="F5" s="3"/>
-      <c r="G5" s="3">
-        <v>215.19710000000001</v>
-      </c>
-      <c r="H5" s="3">
-        <v>211.69030000000001</v>
-      </c>
-      <c r="I5" s="3">
-        <v>208.929</v>
-      </c>
-      <c r="J5" s="3">
+      <c r="G5" s="9">
+        <v>215.24250000000001</v>
+      </c>
+      <c r="H5" s="9">
+        <v>211.56059999999999</v>
+      </c>
+      <c r="I5" s="9">
+        <v>208.959</v>
+      </c>
+      <c r="J5" s="9">
         <v>205.01949999999999</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="9">
         <v>202.21420000000001</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L5" s="9">
         <v>202.25059999999999</v>
       </c>
-      <c r="M5" s="3">
+      <c r="M5" s="9">
         <v>201.73939999999999</v>
       </c>
-      <c r="N5" s="3">
+      <c r="N5" s="9">
         <v>194.15539999999999</v>
       </c>
-      <c r="O5" s="3">
+      <c r="O5" s="9">
         <v>199.7664</v>
       </c>
-      <c r="P5" s="3">
+      <c r="P5" s="9">
         <v>194.43539999999999</v>
       </c>
       <c r="R5" s="5">
@@ -15535,34 +15965,34 @@
         <v>50.308929999999997</v>
       </c>
       <c r="F6" s="3"/>
-      <c r="G6" s="3">
-        <v>51.600090000000002</v>
-      </c>
-      <c r="H6" s="3">
-        <v>53.153379999999999</v>
-      </c>
-      <c r="I6" s="3">
-        <v>54.862400000000001</v>
-      </c>
-      <c r="J6" s="3">
+      <c r="G6" s="9">
+        <v>51.593850000000003</v>
+      </c>
+      <c r="H6" s="9">
+        <v>53.111800000000002</v>
+      </c>
+      <c r="I6" s="9">
+        <v>54.828449999999997</v>
+      </c>
+      <c r="J6" s="9">
         <v>55.83755</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="9">
         <v>52.820689999999999</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L6" s="9">
         <v>54.363570000000003</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6" s="9">
         <v>53.972540000000002</v>
       </c>
-      <c r="N6" s="3">
+      <c r="N6" s="9">
         <v>54.475259999999999</v>
       </c>
-      <c r="O6" s="3">
+      <c r="O6" s="9">
         <v>56.818800000000003</v>
       </c>
-      <c r="P6" s="3">
+      <c r="P6" s="9">
         <v>54.197710000000001</v>
       </c>
       <c r="R6" s="5">
@@ -15728,34 +16158,34 @@
         <v>133.39189999999999</v>
       </c>
       <c r="F7" s="3"/>
-      <c r="G7" s="3">
-        <v>131.708</v>
-      </c>
-      <c r="H7" s="3">
-        <v>130.6696</v>
-      </c>
-      <c r="I7" s="3">
-        <v>130.19990000000001</v>
-      </c>
-      <c r="J7" s="3">
+      <c r="G7" s="9">
+        <v>131.6979</v>
+      </c>
+      <c r="H7" s="9">
+        <v>130.6455</v>
+      </c>
+      <c r="I7" s="9">
+        <v>130.1463</v>
+      </c>
+      <c r="J7" s="9">
         <v>128.39859999999999</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7" s="9">
         <v>126.65219999999999</v>
       </c>
-      <c r="L7" s="3">
+      <c r="L7" s="9">
         <v>125.123</v>
       </c>
-      <c r="M7" s="3">
+      <c r="M7" s="9">
         <v>126.405</v>
       </c>
-      <c r="N7" s="3">
+      <c r="N7" s="9">
         <v>126.2998</v>
       </c>
-      <c r="O7" s="3">
+      <c r="O7" s="9">
         <v>127.989</v>
       </c>
-      <c r="P7" s="3">
+      <c r="P7" s="9">
         <v>128.6833</v>
       </c>
       <c r="R7" s="5">
@@ -15912,7 +16342,7 @@
         <v>41</v>
       </c>
       <c r="B8" s="9">
-        <v>0.61393070000000005</v>
+        <v>0.29767270000000001</v>
       </c>
       <c r="D8" s="9">
         <v>0.23659649999999999</v>
@@ -15921,34 +16351,34 @@
         <v>0.1983635</v>
       </c>
       <c r="F8" s="3"/>
-      <c r="G8" s="3">
-        <v>0.18681780000000001</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0.18427060000000001</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0.19660949999999999</v>
-      </c>
-      <c r="J8" s="3">
+      <c r="G8" s="9">
+        <v>0.1864613</v>
+      </c>
+      <c r="H8" s="9">
+        <v>0.1850145</v>
+      </c>
+      <c r="I8" s="9">
+        <v>0.1983415</v>
+      </c>
+      <c r="J8" s="9">
         <v>0.19641359999999999</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="9">
         <v>0.17926310000000001</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L8" s="9">
         <v>0.15666089999999999</v>
       </c>
-      <c r="M8" s="3">
+      <c r="M8" s="9">
         <v>0.17175199999999999</v>
       </c>
-      <c r="N8" s="3">
+      <c r="N8" s="9">
         <v>0.16936699999999999</v>
       </c>
-      <c r="O8" s="3">
+      <c r="O8" s="9">
         <v>0.16514980000000001</v>
       </c>
-      <c r="P8" s="3">
+      <c r="P8" s="9">
         <v>0.14598939999999999</v>
       </c>
       <c r="R8" s="5">
@@ -16114,35 +16544,35 @@
         <v>9.5778849999999999E-2</v>
       </c>
       <c r="F9" s="3"/>
-      <c r="G9" s="3">
-        <v>0.1083513</v>
-      </c>
-      <c r="H9" s="3">
-        <v>9.2628470000000004E-2</v>
-      </c>
-      <c r="I9" s="3">
-        <v>0.10653</v>
-      </c>
-      <c r="J9" s="3">
-        <v>9.7550999999999999E-2</v>
-      </c>
-      <c r="K9" s="3">
-        <v>0.1259082</v>
-      </c>
-      <c r="L9" s="3">
-        <v>0.1238412</v>
-      </c>
-      <c r="M9" s="3">
-        <v>0.1233062</v>
-      </c>
-      <c r="N9" s="3">
-        <v>0.13616719999999999</v>
-      </c>
-      <c r="O9" s="3">
-        <v>0.13653190000000001</v>
-      </c>
-      <c r="P9" s="3">
-        <v>0.15909490000000001</v>
+      <c r="G9" s="9">
+        <v>0.1251555</v>
+      </c>
+      <c r="H9" s="9">
+        <v>0.1108703</v>
+      </c>
+      <c r="I9" s="9">
+        <v>0.12249060000000001</v>
+      </c>
+      <c r="J9" s="9">
+        <v>0.10834920000000001</v>
+      </c>
+      <c r="K9" s="9">
+        <v>0.154837</v>
+      </c>
+      <c r="L9" s="9">
+        <v>0.12395050000000001</v>
+      </c>
+      <c r="M9" s="9">
+        <v>0.11811389999999999</v>
+      </c>
+      <c r="N9" s="9">
+        <v>0.13959269999999999</v>
+      </c>
+      <c r="O9" s="9">
+        <v>0.15460070000000001</v>
+      </c>
+      <c r="P9" s="9">
+        <v>0.18239669999999999</v>
       </c>
       <c r="R9" s="5">
         <v>0.14000000000000001</v>
@@ -16294,8 +16724,17 @@
       </c>
     </row>
     <row r="10" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="B10" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>115</v>
+      </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
+      <c r="G10" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
       <c r="AG10" s="3"/>
@@ -16306,140 +16745,60 @@
       <c r="BJ10" s="3"/>
     </row>
     <row r="11" spans="1:72" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="AG11" s="3"/>
+      <c r="AH11" s="3"/>
+      <c r="AU11" s="3"/>
+      <c r="AV11" s="3"/>
+      <c r="BI11" s="3"/>
+      <c r="BJ11" s="3"/>
+    </row>
+    <row r="12" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E12" s="3">
         <f>E5</f>
         <v>218.81880000000001</v>
       </c>
-      <c r="F11" s="3">
-        <f>(E11+G11)/2</f>
-        <v>217.00794999999999</v>
-      </c>
-      <c r="G11" s="3">
-        <f>G5</f>
-        <v>215.19710000000001</v>
-      </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="S11" s="3">
-        <f>S5</f>
-        <v>227.85480000000001</v>
-      </c>
-      <c r="T11" s="3">
-        <f>(S11+U11)/2</f>
-        <v>222.51765</v>
-      </c>
-      <c r="U11" s="3">
-        <f>U5</f>
-        <v>217.18049999999999</v>
-      </c>
-      <c r="AG11" s="3">
-        <f>AG5</f>
-        <v>231.56800000000001</v>
-      </c>
-      <c r="AH11" s="3">
-        <f>(AG11+AI11)/2</f>
-        <v>225.72200000000001</v>
-      </c>
-      <c r="AI11" s="3">
-        <f>AI5</f>
-        <v>219.876</v>
-      </c>
-      <c r="AJ11" s="4"/>
-      <c r="AK11" s="4"/>
-      <c r="AL11" s="4"/>
-      <c r="AM11" s="4"/>
-      <c r="AN11" s="4"/>
-      <c r="AO11" s="4"/>
-      <c r="AU11" s="3">
-        <f>AU5</f>
-        <v>218.3228</v>
-      </c>
-      <c r="AV11" s="3">
-        <f>(AU11+AW11)/2</f>
-        <v>216.02625</v>
-      </c>
-      <c r="AW11" s="3">
-        <f>AW5</f>
-        <v>213.72970000000001</v>
-      </c>
-      <c r="AX11" s="4"/>
-      <c r="AY11" s="4"/>
-      <c r="AZ11" s="4"/>
-      <c r="BA11" s="4"/>
-      <c r="BB11" s="4"/>
-      <c r="BC11" s="4"/>
-      <c r="BI11" s="3">
-        <f>BI5</f>
-        <v>220.49270000000001</v>
-      </c>
-      <c r="BJ11" s="3">
-        <f>(BI11+BK11)/2</f>
-        <v>215.58320000000001</v>
-      </c>
-      <c r="BK11" s="3">
-        <f>BK5</f>
-        <v>210.6737</v>
-      </c>
-      <c r="BL11" s="4"/>
-      <c r="BM11" s="4"/>
-      <c r="BN11" s="4"/>
-      <c r="BO11" s="4"/>
-      <c r="BP11" s="4"/>
-      <c r="BQ11" s="4"/>
-    </row>
-    <row r="12" spans="1:72" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="3">
-        <f>E6</f>
-        <v>50.308929999999997</v>
-      </c>
       <c r="F12" s="3">
         <f>(E12+G12)/2</f>
-        <v>50.954509999999999</v>
+        <v>217.03065000000001</v>
       </c>
       <c r="G12" s="3">
-        <f>G6</f>
-        <v>51.600090000000002</v>
+        <f>G5</f>
+        <v>215.24250000000001</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
       <c r="S12" s="3">
-        <f>S6</f>
-        <v>62.643349999999998</v>
+        <f>S5</f>
+        <v>227.85480000000001</v>
       </c>
       <c r="T12" s="3">
         <f>(S12+U12)/2</f>
-        <v>56.16789</v>
+        <v>222.51765</v>
       </c>
       <c r="U12" s="3">
-        <f>U6</f>
-        <v>49.692430000000002</v>
+        <f>U5</f>
+        <v>217.18049999999999</v>
       </c>
       <c r="AG12" s="3">
-        <f>AG6</f>
-        <v>69.184389999999993</v>
+        <f>AG5</f>
+        <v>231.56800000000001</v>
       </c>
       <c r="AH12" s="3">
         <f>(AG12+AI12)/2</f>
-        <v>60.741954999999997</v>
+        <v>225.72200000000001</v>
       </c>
       <c r="AI12" s="3">
-        <f>AI6</f>
-        <v>52.299520000000001</v>
+        <f>AI5</f>
+        <v>219.876</v>
       </c>
       <c r="AJ12" s="4"/>
       <c r="AK12" s="4"/>
@@ -16448,16 +16807,16 @@
       <c r="AN12" s="4"/>
       <c r="AO12" s="4"/>
       <c r="AU12" s="3">
-        <f>AU6</f>
-        <v>56.850439999999999</v>
+        <f>AU5</f>
+        <v>218.3228</v>
       </c>
       <c r="AV12" s="3">
         <f>(AU12+AW12)/2</f>
-        <v>54.765509999999999</v>
+        <v>216.02625</v>
       </c>
       <c r="AW12" s="3">
-        <f>AW6</f>
-        <v>52.680579999999999</v>
+        <f>AW5</f>
+        <v>213.72970000000001</v>
       </c>
       <c r="AX12" s="4"/>
       <c r="AY12" s="4"/>
@@ -16466,16 +16825,16 @@
       <c r="BB12" s="4"/>
       <c r="BC12" s="4"/>
       <c r="BI12" s="3">
-        <f>BI6</f>
-        <v>67.921319999999994</v>
+        <f>BI5</f>
+        <v>220.49270000000001</v>
       </c>
       <c r="BJ12" s="3">
         <f>(BI12+BK12)/2</f>
-        <v>59.896394999999998</v>
+        <v>215.58320000000001</v>
       </c>
       <c r="BK12" s="3">
-        <f>BK6</f>
-        <v>51.871470000000002</v>
+        <f>BK5</f>
+        <v>210.6737</v>
       </c>
       <c r="BL12" s="4"/>
       <c r="BM12" s="4"/>
@@ -16486,54 +16845,89 @@
     </row>
     <row r="13" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="E13" s="3">
-        <f>E9</f>
-        <v>9.5778849999999999E-2</v>
+        <f>E6</f>
+        <v>50.308929999999997</v>
       </c>
       <c r="F13" s="3">
         <f>(E13+G13)/2</f>
-        <v>0.10206507500000001</v>
+        <v>50.951390000000004</v>
       </c>
       <c r="G13" s="3">
-        <f>G9</f>
-        <v>0.1083513</v>
+        <f>G6</f>
+        <v>51.593850000000003</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="4"/>
-      <c r="V13" s="4"/>
-      <c r="W13" s="4"/>
-      <c r="X13" s="4"/>
-      <c r="Y13" s="4"/>
-      <c r="Z13" s="4"/>
-      <c r="AA13" s="4"/>
-      <c r="AG13" s="3"/>
-      <c r="AH13" s="3"/>
-      <c r="AI13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="S13" s="3">
+        <f>S6</f>
+        <v>62.643349999999998</v>
+      </c>
+      <c r="T13" s="3">
+        <f>(S13+U13)/2</f>
+        <v>56.16789</v>
+      </c>
+      <c r="U13" s="3">
+        <f>U6</f>
+        <v>49.692430000000002</v>
+      </c>
+      <c r="AG13" s="3">
+        <f>AG6</f>
+        <v>69.184389999999993</v>
+      </c>
+      <c r="AH13" s="3">
+        <f>(AG13+AI13)/2</f>
+        <v>60.741954999999997</v>
+      </c>
+      <c r="AI13" s="3">
+        <f>AI6</f>
+        <v>52.299520000000001</v>
+      </c>
       <c r="AJ13" s="4"/>
       <c r="AK13" s="4"/>
       <c r="AL13" s="4"/>
       <c r="AM13" s="4"/>
       <c r="AN13" s="4"/>
       <c r="AO13" s="4"/>
-      <c r="AU13" s="3"/>
-      <c r="AV13" s="3"/>
-      <c r="AW13" s="4"/>
+      <c r="AU13" s="3">
+        <f>AU6</f>
+        <v>56.850439999999999</v>
+      </c>
+      <c r="AV13" s="3">
+        <f>(AU13+AW13)/2</f>
+        <v>54.765509999999999</v>
+      </c>
+      <c r="AW13" s="3">
+        <f>AW6</f>
+        <v>52.680579999999999</v>
+      </c>
       <c r="AX13" s="4"/>
       <c r="AY13" s="4"/>
       <c r="AZ13" s="4"/>
       <c r="BA13" s="4"/>
       <c r="BB13" s="4"/>
       <c r="BC13" s="4"/>
-      <c r="BI13" s="3"/>
-      <c r="BJ13" s="3"/>
-      <c r="BK13" s="4"/>
+      <c r="BI13" s="3">
+        <f>BI6</f>
+        <v>67.921319999999994</v>
+      </c>
+      <c r="BJ13" s="3">
+        <f>(BI13+BK13)/2</f>
+        <v>59.896394999999998</v>
+      </c>
+      <c r="BK13" s="3">
+        <f>BK6</f>
+        <v>51.871470000000002</v>
+      </c>
       <c r="BL13" s="4"/>
       <c r="BM13" s="4"/>
       <c r="BN13" s="4"/>
@@ -16542,9 +16936,21 @@
       <c r="BQ13" s="4"/>
     </row>
     <row r="14" spans="1:72" x14ac:dyDescent="0.2">
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="4"/>
+      <c r="A14" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="3">
+        <f>E9</f>
+        <v>9.5778849999999999E-2</v>
+      </c>
+      <c r="F14" s="3">
+        <f>(E14+G14)/2</f>
+        <v>0.110467175</v>
+      </c>
+      <c r="G14" s="3">
+        <f>G9</f>
+        <v>0.1251555</v>
+      </c>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
@@ -16634,18 +17040,13 @@
     <row r="16" spans="1:72" x14ac:dyDescent="0.2">
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="4"/>
@@ -16675,8 +17076,12 @@
       <c r="BC16" s="4"/>
       <c r="BI16" s="3"/>
       <c r="BJ16" s="3"/>
-      <c r="BK16" s="4"/>
-      <c r="BL16" s="4"/>
+      <c r="BK16" s="9">
+        <v>1.3998660000000001</v>
+      </c>
+      <c r="BL16" s="9">
+        <v>56.940649999999998</v>
+      </c>
       <c r="BM16" s="4"/>
       <c r="BN16" s="4"/>
       <c r="BO16" s="4"/>
@@ -16684,15 +17089,24 @@
       <c r="BQ16" s="4"/>
     </row>
     <row r="17" spans="2:69" x14ac:dyDescent="0.2">
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="9" t="s">
+        <v>110</v>
+      </c>
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
       <c r="U17" s="4"/>
       <c r="V17" s="4"/>
       <c r="W17" s="4"/>
@@ -16700,6 +17114,8 @@
       <c r="Y17" s="4"/>
       <c r="Z17" s="4"/>
       <c r="AA17" s="4"/>
+      <c r="AG17" s="3"/>
+      <c r="AH17" s="3"/>
       <c r="AI17" s="4"/>
       <c r="AJ17" s="4"/>
       <c r="AK17" s="4"/>
@@ -16707,6 +17123,8 @@
       <c r="AM17" s="4"/>
       <c r="AN17" s="4"/>
       <c r="AO17" s="4"/>
+      <c r="AU17" s="3"/>
+      <c r="AV17" s="3"/>
       <c r="AW17" s="4"/>
       <c r="AX17" s="4"/>
       <c r="AY17" s="4"/>
@@ -16714,8 +17132,14 @@
       <c r="BA17" s="4"/>
       <c r="BB17" s="4"/>
       <c r="BC17" s="4"/>
-      <c r="BK17" s="4"/>
-      <c r="BL17" s="4"/>
+      <c r="BI17" s="3"/>
+      <c r="BJ17" s="3"/>
+      <c r="BK17" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="BL17" s="9" t="s">
+        <v>101</v>
+      </c>
       <c r="BM17" s="4"/>
       <c r="BN17" s="4"/>
       <c r="BO17" s="4"/>
@@ -16725,18 +17149,165 @@
     <row r="18" spans="2:69" x14ac:dyDescent="0.2">
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="4"/>
+      <c r="Z18" s="4"/>
+      <c r="AA18" s="4"/>
+      <c r="AI18" s="4"/>
+      <c r="AJ18" s="4"/>
+      <c r="AK18" s="4"/>
+      <c r="AL18" s="4"/>
+      <c r="AM18" s="4"/>
+      <c r="AN18" s="4"/>
+      <c r="AO18" s="4"/>
+      <c r="AW18" s="4"/>
+      <c r="AX18" s="4"/>
+      <c r="AY18" s="4"/>
+      <c r="AZ18" s="4"/>
+      <c r="BA18" s="4"/>
+      <c r="BB18" s="4"/>
+      <c r="BC18" s="4"/>
+      <c r="BK18" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="BL18" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="BM18" s="4"/>
+      <c r="BN18" s="4"/>
+      <c r="BO18" s="4"/>
+      <c r="BP18" s="4"/>
+      <c r="BQ18" s="4"/>
     </row>
     <row r="19" spans="2:69" x14ac:dyDescent="0.2">
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="BK19" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="BL19" s="9" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="20" spans="2:69" x14ac:dyDescent="0.2">
+      <c r="B20" s="9"/>
       <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="BK20" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="BL20" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="2:69" x14ac:dyDescent="0.2">
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="BK21" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="BL21" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="22" spans="2:69" x14ac:dyDescent="0.2">
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="BK22" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="BL22" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" spans="2:69" x14ac:dyDescent="0.2">
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="BK23" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="BL23" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24" spans="2:69" x14ac:dyDescent="0.2">
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="BK24" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="BL24" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="25" spans="2:69" x14ac:dyDescent="0.2">
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="BK25" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="BL25" s="9" t="s">
+        <v>109</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/FRS_tabs.xlsx
+++ b/FRS_tabs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2020" yWindow="460" windowWidth="25460" windowHeight="17040" activeTab="10"/>
+    <workbookView xWindow="1360" yWindow="460" windowWidth="26280" windowHeight="16820" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="FRS - All" sheetId="2" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="146">
   <si>
     <t>FRS Average</t>
   </si>
@@ -175,9 +175,6 @@
   </si>
   <si>
     <t>Smoking Status {0,1}</t>
-  </si>
-  <si>
-    <t>Diabetes {0,1}</t>
   </si>
   <si>
     <t>2011-12</t>
@@ -398,12 +395,105 @@
   <si>
     <t>497/3900 have fpg&gt;= 126</t>
   </si>
+  <si>
+    <t>Diabetes w/ FPG</t>
+  </si>
+  <si>
+    <t>Diabetes w/ HbA1c</t>
+  </si>
+  <si>
+    <t>nhanes III (1988-1994)</t>
+  </si>
+  <si>
+    <t>nhanes III P1 (1988-1991)</t>
+  </si>
+  <si>
+    <t>nhanes III P2 (1991-1994)</t>
+  </si>
+  <si>
+    <t>% Yes</t>
+  </si>
+  <si>
+    <t>Fix 1</t>
+  </si>
+  <si>
+    <t>Missing error term</t>
+  </si>
+  <si>
+    <t>FPG_hat = pred(FPG) + random error (mean=0, std devn = sigma)</t>
+  </si>
+  <si>
+    <t>Get std devn of error in regression (sigma)</t>
+  </si>
+  <si>
+    <t>Fix 2</t>
+  </si>
+  <si>
+    <t>Develop own risk model</t>
+  </si>
+  <si>
+    <t>Do fix 1</t>
+  </si>
+  <si>
+    <t>BP</t>
+  </si>
+  <si>
+    <t>CVD event</t>
+  </si>
+  <si>
+    <t>Death in 5 years = Stuff</t>
+  </si>
+  <si>
+    <t>Stuff</t>
+  </si>
+  <si>
+    <t>SBP, SBP^2</t>
+  </si>
+  <si>
+    <t>HDL, HDL^2</t>
+  </si>
+  <si>
+    <t>BMI, BMI^2</t>
+  </si>
+  <si>
+    <t>Develop own model (NHANES II)</t>
+  </si>
+  <si>
+    <t>chol, chol^2</t>
+  </si>
+  <si>
+    <t>FPG, FPG^2</t>
+  </si>
+  <si>
+    <t>Current/former/never smoker</t>
+  </si>
+  <si>
+    <t>Age-sex groups</t>
+  </si>
+  <si>
+    <t>BP meds (current)</t>
+  </si>
+  <si>
+    <t>Race</t>
+  </si>
+  <si>
+    <t>BMImax, BMImax^2</t>
+  </si>
+  <si>
+    <t>Look at trend with Framingham definitions</t>
+  </si>
+  <si>
+    <t>reg Y X; predict resid, resid; sum resid;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FPG = </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -531,6 +621,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Monaco"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -617,7 +729,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="47">
+  <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -665,8 +777,13 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -765,6 +882,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="51" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -774,13 +902,11 @@
     <xf numFmtId="2" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="47">
+  <cellStyles count="52">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -804,6 +930,8 @@
     <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -827,7 +955,10 @@
     <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="51" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1075,36 +1206,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
-                <c:pt idx="6">
-                  <c:v>17.90197</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>17.41119</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>17.22202</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16.73902</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>16.84385</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>16.48735</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>16.60422</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>16.39835</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>16.75603</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16.96622</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1125,8 +1226,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="873123856"/>
-        <c:axId val="873125632"/>
+        <c:axId val="-377897984"/>
+        <c:axId val="-379884416"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1266,11 +1367,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="869124560"/>
-        <c:axId val="869122240"/>
+        <c:axId val="-377891280"/>
+        <c:axId val="-377893600"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="873123856"/>
+        <c:axId val="-377897984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1310,7 +1411,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="873125632"/>
+        <c:crossAx val="-379884416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1318,7 +1419,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="873125632"/>
+        <c:axId val="-379884416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="12.0"/>
@@ -1413,13 +1514,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="873123856"/>
+        <c:crossAx val="-377897984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="869122240"/>
+        <c:axId val="-377893600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.08"/>
@@ -1457,12 +1558,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="869124560"/>
+        <c:crossAx val="-377891280"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="869124560"/>
+        <c:axId val="-377891280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1471,7 +1572,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="869122240"/>
+        <c:crossAx val="-377893600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2477,11 +2578,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="869192688"/>
-        <c:axId val="869195952"/>
+        <c:axId val="-377846928"/>
+        <c:axId val="-377843664"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="869192688"/>
+        <c:axId val="-377846928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2524,7 +2625,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="869195952"/>
+        <c:crossAx val="-377843664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2532,7 +2633,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="869195952"/>
+        <c:axId val="-377843664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="10.0"/>
@@ -2639,7 +2740,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="869192688"/>
+        <c:crossAx val="-377846928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2777,6 +2878,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3632,11 +3734,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="875562592"/>
-        <c:axId val="875565856"/>
+        <c:axId val="-480298096"/>
+        <c:axId val="-480294832"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="875562592"/>
+        <c:axId val="-480298096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3679,7 +3781,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="875565856"/>
+        <c:crossAx val="-480294832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3687,7 +3789,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="875565856"/>
+        <c:axId val="-480294832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3738,7 +3840,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="875562592"/>
+        <c:crossAx val="-480298096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3768,6 +3870,7 @@
         <c:idx val="7"/>
         <c:delete val="1"/>
       </c:legendEntry>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3876,6 +3979,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4063,7 +4167,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Risk Factor Tabs'!$D$12:$P$12</c:f>
+              <c:f>'Risk Factor Tabs'!$D$13:$P$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="13"/>
@@ -4096,8 +4200,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="875615872"/>
-        <c:axId val="875618624"/>
+        <c:axId val="-369072752"/>
+        <c:axId val="-369070000"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4258,7 +4362,7 @@
           </c:dPt>
           <c:val>
             <c:numRef>
-              <c:f>'Risk Factor Tabs'!$D$13:$P$13</c:f>
+              <c:f>'Risk Factor Tabs'!$D$14:$P$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="13"/>
@@ -4291,11 +4395,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="875626144"/>
-        <c:axId val="875622384"/>
+        <c:axId val="-369062480"/>
+        <c:axId val="-369066240"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="875615872"/>
+        <c:axId val="-369072752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4338,7 +4442,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="875618624"/>
+        <c:crossAx val="-369070000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4346,7 +4450,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="875618624"/>
+        <c:axId val="-369070000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="180.0"/>
@@ -4393,6 +4497,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4453,12 +4558,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="875615872"/>
+        <c:crossAx val="-369072752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="875622384"/>
+        <c:axId val="-369066240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4490,6 +4595,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4550,12 +4656,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="875626144"/>
+        <c:crossAx val="-369062480"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="875626144"/>
+        <c:axId val="-369062480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4564,7 +4670,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="875622384"/>
+        <c:crossAx val="-369066240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4660,6 +4766,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5217,7 +5324,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Risk Factor Tabs'!$R$12:$AD$12</c:f>
+              <c:f>'Risk Factor Tabs'!$R$13:$AD$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="13"/>
@@ -5258,7 +5365,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Risk Factor Tabs'!$AF$12:$AR$12</c:f>
+              <c:f>'Risk Factor Tabs'!$AF$13:$AR$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="13"/>
@@ -5301,7 +5408,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Risk Factor Tabs'!$AT$12:$BF$12</c:f>
+              <c:f>'Risk Factor Tabs'!$AT$13:$BF$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="13"/>
@@ -5342,7 +5449,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Risk Factor Tabs'!$BH$12:$BT$12</c:f>
+              <c:f>'Risk Factor Tabs'!$BH$13:$BT$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="13"/>
@@ -5375,11 +5482,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="875687056"/>
-        <c:axId val="875690320"/>
+        <c:axId val="-377785536"/>
+        <c:axId val="-377782544"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="875687056"/>
+        <c:axId val="-377785536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5422,7 +5529,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="875690320"/>
+        <c:crossAx val="-377782544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5430,7 +5537,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="875690320"/>
+        <c:axId val="-377782544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="180.0"/>
@@ -5482,7 +5589,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="875687056"/>
+        <c:crossAx val="-377785536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5512,6 +5619,7 @@
         <c:idx val="7"/>
         <c:delete val="1"/>
       </c:legendEntry>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5620,6 +5728,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5784,7 +5893,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Risk Factor Tabs'!$D$14:$P$14</c:f>
+              <c:f>'Risk Factor Tabs'!$D$15:$P$15</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="13"/>
@@ -5816,11 +5925,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="875716416"/>
-        <c:axId val="875719168"/>
+        <c:axId val="-478387536"/>
+        <c:axId val="-478338416"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="875716416"/>
+        <c:axId val="-478387536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5863,7 +5972,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="875719168"/>
+        <c:crossAx val="-478338416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5871,7 +5980,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="875719168"/>
+        <c:axId val="-478338416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5922,7 +6031,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="875716416"/>
+        <c:crossAx val="-478387536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9248,7 +9357,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="83" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="41" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -9259,7 +9368,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="83" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="41" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -9292,7 +9401,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="124" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="121" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -9303,7 +9412,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="83" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="121" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -9314,13 +9423,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8691084" cy="6288795"/>
+    <xdr:ext cx="19491402" cy="14148110"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3814DCA5-E739-48F8-B0E6-5DAE3BD8D6DF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3814DCA5-E739-48F8-B0E6-5DAE3BD8D6DF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9347,13 +9456,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8691084" cy="6288795"/>
+    <xdr:ext cx="19491402" cy="14148110"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5CB41B8-13DC-4EAE-B2CA-47CBAE4DA728}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F5CB41B8-13DC-4EAE-B2CA-47CBAE4DA728}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9386,7 +9495,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9718F15D-DDA3-4502-9814-C910CFD7923C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9718F15D-DDA3-4502-9814-C910CFD7923C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9411,6 +9520,513 @@
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>143932</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>354538</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>122766</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEDB33E-0C98-4268-8DFA-48B4492B8054}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7153275" y="505882"/>
+          <a:ext cx="11638" cy="2226734"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>152398</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A5DCBB81-D5FD-41FB-8679-A378BAA3A6A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7153275" y="2743199"/>
+          <a:ext cx="3600450" cy="19049"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B8871975-A065-40B2-A8DF-972697C7B8CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7286625" y="733425"/>
+          <a:ext cx="2990850" cy="1943100"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Connector 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A40778BC-5665-464C-BFBB-9C5CBCE83F7A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7162800" y="1581150"/>
+          <a:ext cx="3514725" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{50138399-B3EB-434F-836D-1875B4B06BE1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8953500" y="1609725"/>
+          <a:ext cx="9525" cy="1190625"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="sysDot"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>477304</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>68791</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Straight Connector 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6D660D21-B51A-446B-942C-1A3FCF697F7E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7277100" y="4162425"/>
+          <a:ext cx="10579" cy="2230966"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>78316</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>159808</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Straight Connector 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{199C4030-AB22-4529-BEE1-4A656793B298}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7277100" y="6402916"/>
+          <a:ext cx="3598333" cy="16933"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>158433</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Freeform: Shape 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B9175F49-0BEE-4CB9-BB7E-8989C18D5AF1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7467600" y="3876675"/>
+          <a:ext cx="2625408" cy="2343150"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 2625408"/>
+            <a:gd name="connsiteY0" fmla="*/ 2343150 h 2343150"/>
+            <a:gd name="connsiteX1" fmla="*/ 1295400 w 2625408"/>
+            <a:gd name="connsiteY1" fmla="*/ 1847850 h 2343150"/>
+            <a:gd name="connsiteX2" fmla="*/ 1562100 w 2625408"/>
+            <a:gd name="connsiteY2" fmla="*/ 1809750 h 2343150"/>
+            <a:gd name="connsiteX3" fmla="*/ 2085975 w 2625408"/>
+            <a:gd name="connsiteY3" fmla="*/ 1409700 h 2343150"/>
+            <a:gd name="connsiteX4" fmla="*/ 2324100 w 2625408"/>
+            <a:gd name="connsiteY4" fmla="*/ 971550 h 2343150"/>
+            <a:gd name="connsiteX5" fmla="*/ 2609850 w 2625408"/>
+            <a:gd name="connsiteY5" fmla="*/ 447675 h 2343150"/>
+            <a:gd name="connsiteX6" fmla="*/ 2590800 w 2625408"/>
+            <a:gd name="connsiteY6" fmla="*/ 190500 h 2343150"/>
+            <a:gd name="connsiteX7" fmla="*/ 2619375 w 2625408"/>
+            <a:gd name="connsiteY7" fmla="*/ 0 h 2343150"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX4" y="connsiteY4"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX5" y="connsiteY5"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX6" y="connsiteY6"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX7" y="connsiteY7"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="2625408" h="2343150">
+              <a:moveTo>
+                <a:pt x="0" y="2343150"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="517525" y="2139950"/>
+                <a:pt x="1035050" y="1936750"/>
+                <a:pt x="1295400" y="1847850"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1555750" y="1758950"/>
+                <a:pt x="1430338" y="1882775"/>
+                <a:pt x="1562100" y="1809750"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1693862" y="1736725"/>
+                <a:pt x="1958975" y="1549400"/>
+                <a:pt x="2085975" y="1409700"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2212975" y="1270000"/>
+                <a:pt x="2324100" y="971550"/>
+                <a:pt x="2324100" y="971550"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2411412" y="811213"/>
+                <a:pt x="2565400" y="577850"/>
+                <a:pt x="2609850" y="447675"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2654300" y="317500"/>
+                <a:pt x="2589213" y="265112"/>
+                <a:pt x="2590800" y="190500"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2592387" y="115888"/>
+                <a:pt x="2605881" y="57944"/>
+                <a:pt x="2619375" y="0"/>
+              </a:cubicBezTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
     <xdr:ext cx="8636000" cy="6254750"/>
@@ -9419,40 +10035,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6799A617-2199-4FA0-9AAE-B022587C939D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:absoluteAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8674919" cy="6288548"/>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE41EAA9-E7EF-4331-BAC6-50A2C67981F5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6799A617-2199-4FA0-9AAE-B022587C939D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9479,13 +10062,46 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8691084" cy="6288795"/>
+    <xdr:ext cx="8671393" cy="6287541"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7AFBC52-30D3-4075-9EC8-31B7671415DF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CE41EAA9-E7EF-4331-BAC6-50A2C67981F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8671393" cy="6287541"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7AFBC52-30D3-4075-9EC8-31B7671415DF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9807,11 +10423,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB105"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="75" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B68" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A98" activeCellId="14" sqref="A21 A26 A31 A37 A42 A47 A52 A62 A67 A72 A77 A83 A88 A93 A98"/>
+      <selection pane="bottomRight" activeCell="G98" sqref="G98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9828,36 +10444,36 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B1" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C1" s="23"/>
-      <c r="D1" s="66" t="s">
+      <c r="D1" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
       <c r="H1" s="24"/>
       <c r="J1" s="24"/>
-      <c r="K1" s="67" t="s">
+      <c r="K1" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C2" s="25"/>
       <c r="D2" s="13" t="s">
@@ -9906,7 +10522,7 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="51" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D3" s="12">
         <v>16.93</v>
@@ -9951,17 +10567,25 @@
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="64" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B4" s="9">
         <v>15.353820000000001</v>
       </c>
+      <c r="E4" s="12">
+        <v>15.334949999999999</v>
+      </c>
       <c r="F4" s="22"/>
+      <c r="G4" s="12">
+        <v>15.46475</v>
+      </c>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="51" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B5" s="62"/>
       <c r="C5" s="9"/>
@@ -9969,44 +10593,25 @@
       <c r="E5" s="62"/>
       <c r="F5" s="9"/>
       <c r="G5" s="62"/>
-      <c r="H5" s="22"/>
-      <c r="K5" s="40">
-        <v>17.771899999999999</v>
-      </c>
-      <c r="L5" s="35">
-        <v>16.992370000000001</v>
-      </c>
-      <c r="M5" s="35">
-        <v>17.004639999999998</v>
-      </c>
-      <c r="N5" s="35">
-        <v>16.50055</v>
-      </c>
-      <c r="O5" s="35">
-        <v>16.637129999999999</v>
-      </c>
-      <c r="P5" s="35">
-        <v>16.487349999999999</v>
-      </c>
-      <c r="Q5" s="35">
-        <v>16.57394</v>
-      </c>
-      <c r="R5" s="35">
-        <v>16.543240000000001</v>
-      </c>
-      <c r="S5" s="35">
-        <v>16.9298</v>
-      </c>
-      <c r="T5" s="35">
-        <v>17.311620000000001</v>
-      </c>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="35"/>
+      <c r="Q5" s="35"/>
+      <c r="R5" s="35"/>
+      <c r="S5" s="35"/>
+      <c r="T5" s="35"/>
       <c r="V5" s="57" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" s="51" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B6" s="22"/>
       <c r="C6" s="22"/>
@@ -10014,81 +10619,63 @@
       <c r="E6" s="22"/>
       <c r="F6" s="22"/>
       <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
       <c r="K6" s="54">
-        <v>17.760470000000002</v>
+        <v>14.6517</v>
       </c>
       <c r="L6" s="54">
-        <v>17.011369999999999</v>
+        <v>14.129759999999999</v>
       </c>
       <c r="M6" s="54">
-        <v>17.022880000000001</v>
+        <v>13.81373</v>
       </c>
       <c r="N6" s="54">
-        <v>16.53558</v>
+        <v>13.508789999999999</v>
       </c>
       <c r="O6" s="54">
-        <v>16.605350000000001</v>
+        <v>13.28754</v>
       </c>
       <c r="P6" s="54">
-        <v>16.5091</v>
+        <v>13.151070000000001</v>
       </c>
       <c r="Q6" s="54">
-        <v>16.620989999999999</v>
+        <v>13.90686</v>
       </c>
       <c r="R6" s="54">
-        <v>16.575030000000002</v>
+        <v>13.593579999999999</v>
       </c>
       <c r="S6" s="54">
-        <v>16.973859999999998</v>
+        <v>13.96894</v>
       </c>
       <c r="T6" s="54">
-        <v>17.269480000000001</v>
+        <v>13.883570000000001</v>
       </c>
       <c r="V6" s="55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" s="51" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F7" s="22"/>
       <c r="G7" s="18"/>
-      <c r="H7" s="59"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
       <c r="J7" s="18"/>
-      <c r="K7" s="49">
-        <v>17.760750000000002</v>
-      </c>
-      <c r="L7" s="49">
-        <v>17.01521</v>
-      </c>
-      <c r="M7" s="49">
-        <v>16.99146</v>
-      </c>
-      <c r="N7" s="49">
-        <v>16.529979999999998</v>
-      </c>
-      <c r="O7" s="49">
-        <v>16.574999999999999</v>
-      </c>
-      <c r="P7" s="49">
-        <v>16.497769999999999</v>
-      </c>
-      <c r="Q7" s="49">
-        <v>16.63982</v>
-      </c>
-      <c r="R7" s="49">
-        <v>16.5839</v>
-      </c>
-      <c r="S7" s="49">
-        <v>17.013770000000001</v>
-      </c>
-      <c r="T7" s="49">
-        <v>17.204660000000001</v>
-      </c>
+      <c r="K7" s="76"/>
+      <c r="L7" s="76"/>
+      <c r="M7" s="76"/>
+      <c r="N7" s="76"/>
+      <c r="O7" s="76"/>
+      <c r="P7" s="76"/>
+      <c r="Q7" s="76"/>
+      <c r="R7" s="76"/>
+      <c r="S7" s="76"/>
+      <c r="T7" s="76"/>
       <c r="V7" s="56" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
@@ -10099,20 +10686,26 @@
       <c r="H8" s="22"/>
       <c r="U8" s="9"/>
       <c r="V8" s="63" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="W8" s="9"/>
       <c r="X8" s="9"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" s="64" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B9" s="12">
         <v>15.24625</v>
       </c>
+      <c r="E9" s="12">
+        <v>15.1851</v>
+      </c>
       <c r="F9" s="22"/>
-      <c r="H9" s="22"/>
+      <c r="G9" s="12">
+        <v>15.26534</v>
+      </c>
+      <c r="H9" s="9"/>
       <c r="U9" s="9"/>
       <c r="V9" s="65"/>
       <c r="W9" s="9"/>
@@ -10120,40 +10713,20 @@
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" s="44" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="K10" s="40">
-        <v>17.901969999999999</v>
-      </c>
-      <c r="L10" s="35">
-        <v>17.411190000000001</v>
-      </c>
-      <c r="M10" s="35">
-        <v>17.222020000000001</v>
-      </c>
-      <c r="N10" s="35">
-        <v>16.73902</v>
-      </c>
-      <c r="O10" s="35">
-        <v>16.84385</v>
-      </c>
-      <c r="P10" s="35">
-        <v>16.487349999999999</v>
-      </c>
-      <c r="Q10" s="35">
-        <v>16.604220000000002</v>
-      </c>
-      <c r="R10" s="35">
-        <v>16.398350000000001</v>
-      </c>
-      <c r="S10" s="35">
-        <v>16.756029999999999</v>
-      </c>
-      <c r="T10" s="35">
-        <v>16.96622</v>
-      </c>
+      <c r="H10" s="9"/>
+      <c r="K10" s="74"/>
+      <c r="L10" s="75"/>
+      <c r="M10" s="75"/>
+      <c r="N10" s="75"/>
+      <c r="O10" s="75"/>
+      <c r="P10" s="75"/>
+      <c r="Q10" s="75"/>
+      <c r="R10" s="75"/>
+      <c r="S10" s="75"/>
+      <c r="T10" s="75"/>
       <c r="U10" s="9"/>
       <c r="V10" s="9"/>
       <c r="W10" s="9"/>
@@ -10162,39 +10735,39 @@
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" s="44" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F11" s="22"/>
-      <c r="H11" s="22"/>
+      <c r="H11" s="9"/>
       <c r="K11" s="54">
-        <v>17.89245</v>
+        <v>14.78481</v>
       </c>
       <c r="L11" s="54">
-        <v>17.43008</v>
+        <v>14.49381</v>
       </c>
       <c r="M11" s="54">
-        <v>17.24231</v>
+        <v>14.02425</v>
       </c>
       <c r="N11" s="54">
-        <v>16.775700000000001</v>
+        <v>13.73213</v>
       </c>
       <c r="O11" s="54">
-        <v>16.814309999999999</v>
+        <v>13.476990000000001</v>
       </c>
       <c r="P11" s="54">
-        <v>16.5091</v>
+        <v>13.151070000000001</v>
       </c>
       <c r="Q11" s="54">
-        <v>16.654419999999998</v>
+        <v>13.93413</v>
       </c>
       <c r="R11" s="54">
-        <v>16.4297</v>
+        <v>13.470800000000001</v>
       </c>
       <c r="S11" s="54">
-        <v>16.796980000000001</v>
+        <v>13.803900000000001</v>
       </c>
       <c r="T11" s="54">
-        <v>16.921199999999999</v>
+        <v>13.51606</v>
       </c>
       <c r="U11" s="9"/>
       <c r="V11" s="9"/>
@@ -10204,40 +10777,20 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" s="44" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="K12" s="49">
-        <v>17.891850000000002</v>
-      </c>
-      <c r="L12" s="49">
-        <v>17.430019999999999</v>
-      </c>
-      <c r="M12" s="49">
-        <v>17.21096</v>
-      </c>
-      <c r="N12" s="49">
-        <v>16.769410000000001</v>
-      </c>
-      <c r="O12" s="49">
-        <v>16.781130000000001</v>
-      </c>
-      <c r="P12" s="49">
-        <v>16.497769999999999</v>
-      </c>
-      <c r="Q12" s="49">
-        <v>16.672350000000002</v>
-      </c>
-      <c r="R12" s="49">
-        <v>16.438929999999999</v>
-      </c>
-      <c r="S12" s="49">
-        <v>16.838270000000001</v>
-      </c>
-      <c r="T12" s="49">
-        <v>16.857199999999999</v>
-      </c>
+      <c r="H12"/>
+      <c r="K12" s="76"/>
+      <c r="L12" s="76"/>
+      <c r="M12" s="76"/>
+      <c r="N12" s="76"/>
+      <c r="O12" s="76"/>
+      <c r="P12" s="76"/>
+      <c r="Q12" s="76"/>
+      <c r="R12" s="76"/>
+      <c r="S12" s="76"/>
+      <c r="T12" s="76"/>
       <c r="U12" s="9"/>
       <c r="V12" s="9"/>
       <c r="W12" s="9"/>
@@ -10247,7 +10800,7 @@
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" s="14"/>
       <c r="F13" s="22"/>
-      <c r="H13" s="22"/>
+      <c r="H13" s="9"/>
       <c r="U13" s="9"/>
       <c r="V13" s="9"/>
       <c r="W13" s="9"/>
@@ -10259,7 +10812,7 @@
         <v>13</v>
       </c>
       <c r="F14" s="22"/>
-      <c r="H14" s="22"/>
+      <c r="H14" s="9"/>
       <c r="U14" s="9"/>
       <c r="V14" s="9"/>
       <c r="W14" s="9"/>
@@ -10319,12 +10872,18 @@
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" s="52" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B16" s="9">
         <v>16.05396</v>
       </c>
+      <c r="E16" s="12">
+        <v>16.876090000000001</v>
+      </c>
       <c r="F16" s="22"/>
+      <c r="G16" s="12">
+        <v>17.281040000000001</v>
+      </c>
       <c r="H16" s="22"/>
       <c r="U16" s="9"/>
       <c r="V16" s="9"/>
@@ -10334,43 +10893,23 @@
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" s="45" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B17" s="27"/>
       <c r="E17" s="27"/>
       <c r="F17" s="58"/>
       <c r="G17" s="27"/>
       <c r="H17" s="58"/>
-      <c r="K17" s="35">
-        <v>19.371960000000001</v>
-      </c>
-      <c r="L17" s="35">
-        <v>18.531379999999999</v>
-      </c>
-      <c r="M17" s="35">
-        <v>18.77075</v>
-      </c>
-      <c r="N17" s="35">
-        <v>18.565919999999998</v>
-      </c>
-      <c r="O17" s="35">
-        <v>18.015619999999998</v>
-      </c>
-      <c r="P17" s="35">
-        <v>17.571110000000001</v>
-      </c>
-      <c r="Q17" s="35">
-        <v>17.672239999999999</v>
-      </c>
-      <c r="R17" s="40">
-        <v>17.39913</v>
-      </c>
-      <c r="S17" s="40">
-        <v>18.101759999999999</v>
-      </c>
-      <c r="T17" s="40">
-        <v>18.793669999999999</v>
-      </c>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="35"/>
+      <c r="O17" s="35"/>
+      <c r="P17" s="35"/>
+      <c r="Q17" s="35"/>
+      <c r="R17" s="35"/>
+      <c r="S17" s="35"/>
+      <c r="T17" s="35"/>
       <c r="U17" s="9"/>
       <c r="V17" s="9"/>
       <c r="W17" s="9"/>
@@ -10379,7 +10918,7 @@
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" s="45" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B18" s="22"/>
       <c r="E18" s="26"/>
@@ -10387,34 +10926,34 @@
       <c r="G18" s="26"/>
       <c r="H18" s="58"/>
       <c r="K18" s="54">
-        <v>19.364139999999999</v>
+        <v>16.060780000000001</v>
       </c>
       <c r="L18" s="54">
-        <v>18.530989999999999</v>
+        <v>15.913130000000001</v>
       </c>
       <c r="M18" s="54">
-        <v>18.77234</v>
+        <v>15.19979</v>
       </c>
       <c r="N18" s="54">
-        <v>18.583570000000002</v>
+        <v>15.770390000000001</v>
       </c>
       <c r="O18" s="54">
-        <v>17.962039999999998</v>
+        <v>15.055289999999999</v>
       </c>
       <c r="P18" s="54">
-        <v>17.54241</v>
+        <v>14.565060000000001</v>
       </c>
       <c r="Q18" s="54">
-        <v>17.733640000000001</v>
+        <v>14.871980000000001</v>
       </c>
       <c r="R18" s="54">
-        <v>17.412099999999999</v>
+        <v>14.92534</v>
       </c>
       <c r="S18" s="54">
-        <v>18.103079999999999</v>
+        <v>15.377190000000001</v>
       </c>
       <c r="T18" s="54">
-        <v>18.74934</v>
+        <v>15.666</v>
       </c>
       <c r="U18" s="9"/>
       <c r="V18" s="9"/>
@@ -10424,43 +10963,23 @@
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19" s="45" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B19" s="22"/>
       <c r="E19" s="26"/>
       <c r="F19" s="58"/>
       <c r="G19" s="26"/>
       <c r="H19" s="58"/>
-      <c r="K19" s="49">
-        <v>19.346730000000001</v>
-      </c>
-      <c r="L19" s="49">
-        <v>18.49729</v>
-      </c>
-      <c r="M19" s="49">
-        <v>18.758130000000001</v>
-      </c>
-      <c r="N19" s="49">
-        <v>18.604089999999999</v>
-      </c>
-      <c r="O19" s="49">
-        <v>17.915199999999999</v>
-      </c>
-      <c r="P19" s="49">
-        <v>17.538609999999998</v>
-      </c>
-      <c r="Q19" s="49">
-        <v>17.78445</v>
-      </c>
-      <c r="R19" s="49">
-        <v>17.447870000000002</v>
-      </c>
-      <c r="S19" s="49">
-        <v>18.145489999999999</v>
-      </c>
-      <c r="T19" s="49">
-        <v>18.684449999999998</v>
-      </c>
+      <c r="K19" s="76"/>
+      <c r="L19" s="76"/>
+      <c r="M19" s="76"/>
+      <c r="N19" s="76"/>
+      <c r="O19" s="76"/>
+      <c r="P19" s="76"/>
+      <c r="Q19" s="76"/>
+      <c r="R19" s="76"/>
+      <c r="S19" s="76"/>
+      <c r="T19" s="76"/>
       <c r="U19" s="9"/>
       <c r="V19" s="9"/>
       <c r="W19" s="9"/>
@@ -10520,12 +11039,18 @@
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A21" s="52" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B21" s="12">
         <v>14.91873</v>
       </c>
+      <c r="E21" s="12">
+        <v>15.07733</v>
+      </c>
       <c r="F21" s="22"/>
+      <c r="G21" s="12">
+        <v>15.37388</v>
+      </c>
       <c r="H21" s="22"/>
       <c r="U21" s="9"/>
       <c r="V21" s="9"/>
@@ -10535,43 +11060,23 @@
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A22" s="45" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B22" s="27"/>
       <c r="E22" s="27"/>
       <c r="F22" s="58"/>
       <c r="G22" s="27"/>
       <c r="H22" s="22"/>
-      <c r="K22" s="35">
-        <v>18.065429999999999</v>
-      </c>
-      <c r="L22" s="35">
-        <v>17.838049999999999</v>
-      </c>
-      <c r="M22" s="35">
-        <v>16.7104</v>
-      </c>
-      <c r="N22" s="35">
-        <v>16.986940000000001</v>
-      </c>
-      <c r="O22" s="35">
-        <v>17.154219999999999</v>
-      </c>
-      <c r="P22" s="35">
-        <v>16.889769999999999</v>
-      </c>
-      <c r="Q22" s="35">
-        <v>16.981310000000001</v>
-      </c>
-      <c r="R22" s="40">
-        <v>17.03905</v>
-      </c>
-      <c r="S22" s="40">
-        <v>17.290040000000001</v>
-      </c>
-      <c r="T22" s="40">
-        <v>17.77327</v>
-      </c>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="35"/>
+      <c r="N22" s="35"/>
+      <c r="O22" s="35"/>
+      <c r="P22" s="35"/>
+      <c r="Q22" s="35"/>
+      <c r="R22" s="40"/>
+      <c r="S22" s="40"/>
+      <c r="T22" s="40"/>
       <c r="U22" s="9"/>
       <c r="V22" s="9"/>
       <c r="W22" s="9"/>
@@ -10580,7 +11085,7 @@
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A23" s="45" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B23" s="22"/>
       <c r="E23" s="26"/>
@@ -10588,34 +11093,34 @@
       <c r="G23" s="26"/>
       <c r="H23" s="58"/>
       <c r="K23" s="54">
-        <v>18.085370000000001</v>
+        <v>14.8286</v>
       </c>
       <c r="L23" s="54">
-        <v>17.848310000000001</v>
+        <v>14.853859999999999</v>
       </c>
       <c r="M23" s="54">
-        <v>16.721630000000001</v>
+        <v>13.820919999999999</v>
       </c>
       <c r="N23" s="54">
-        <v>16.978719999999999</v>
+        <v>14.22864</v>
       </c>
       <c r="O23" s="54">
-        <v>17.136310000000002</v>
+        <v>14.070449999999999</v>
       </c>
       <c r="P23" s="54">
-        <v>16.912220000000001</v>
+        <v>14.07893</v>
       </c>
       <c r="Q23" s="54">
-        <v>17.022770000000001</v>
+        <v>14.91869</v>
       </c>
       <c r="R23" s="54">
-        <v>17.04053</v>
+        <v>14.273490000000001</v>
       </c>
       <c r="S23" s="54">
-        <v>17.356649999999998</v>
+        <v>14.439209999999999</v>
       </c>
       <c r="T23" s="54">
-        <v>17.691310000000001</v>
+        <v>14.72203</v>
       </c>
       <c r="U23" s="9"/>
       <c r="V23" s="9"/>
@@ -10625,43 +11130,23 @@
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A24" s="45" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B24" s="22"/>
       <c r="E24" s="26"/>
       <c r="F24" s="58"/>
       <c r="G24" s="26"/>
       <c r="H24" s="58"/>
-      <c r="K24" s="49">
-        <v>18.09205</v>
-      </c>
-      <c r="L24" s="49">
-        <v>17.879580000000001</v>
-      </c>
-      <c r="M24" s="49">
-        <v>16.708559999999999</v>
-      </c>
-      <c r="N24" s="49">
-        <v>16.969860000000001</v>
-      </c>
-      <c r="O24" s="49">
-        <v>17.093509999999998</v>
-      </c>
-      <c r="P24" s="49">
-        <v>16.91582</v>
-      </c>
-      <c r="Q24" s="49">
-        <v>17.02646</v>
-      </c>
-      <c r="R24" s="49">
-        <v>17.058599999999998</v>
-      </c>
-      <c r="S24" s="49">
-        <v>17.384869999999999</v>
-      </c>
-      <c r="T24" s="49">
-        <v>17.623860000000001</v>
-      </c>
+      <c r="K24" s="49"/>
+      <c r="L24" s="49"/>
+      <c r="M24" s="49"/>
+      <c r="N24" s="49"/>
+      <c r="O24" s="49"/>
+      <c r="P24" s="49"/>
+      <c r="Q24" s="49"/>
+      <c r="R24" s="49"/>
+      <c r="S24" s="49"/>
+      <c r="T24" s="49"/>
       <c r="U24" s="9"/>
       <c r="V24" s="9"/>
       <c r="W24" s="9"/>
@@ -10695,25 +11180,29 @@
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A26" s="52" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B26" s="22">
         <v>14.47763</v>
       </c>
-      <c r="E26" s="26"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="26"/>
+      <c r="E26" s="12">
+        <v>14.39232</v>
+      </c>
+      <c r="F26" s="22"/>
+      <c r="G26" s="12">
+        <v>14.31466</v>
+      </c>
       <c r="H26" s="58"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="9"/>
-      <c r="Q26" s="9"/>
-      <c r="R26" s="9"/>
-      <c r="S26" s="9"/>
-      <c r="T26" s="9"/>
+      <c r="K26" s="60"/>
+      <c r="L26" s="60"/>
+      <c r="M26" s="60"/>
+      <c r="N26" s="60"/>
+      <c r="O26" s="60"/>
+      <c r="P26" s="60"/>
+      <c r="Q26" s="60"/>
+      <c r="R26" s="60"/>
+      <c r="S26" s="60"/>
+      <c r="T26" s="60"/>
       <c r="U26" s="9"/>
       <c r="V26" s="9"/>
       <c r="W26" s="9"/>
@@ -10722,43 +11211,23 @@
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A27" s="45" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B27" s="27"/>
       <c r="E27" s="27"/>
       <c r="F27" s="22"/>
       <c r="G27" s="27"/>
       <c r="H27" s="22"/>
-      <c r="K27" s="35">
-        <v>17.414829999999998</v>
-      </c>
-      <c r="L27" s="35">
-        <v>16.01397</v>
-      </c>
-      <c r="M27" s="35">
-        <v>16.721309999999999</v>
-      </c>
-      <c r="N27" s="35">
-        <v>15.889049999999999</v>
-      </c>
-      <c r="O27" s="35">
-        <v>16.446739999999998</v>
-      </c>
-      <c r="P27" s="35">
-        <v>16.693819999999999</v>
-      </c>
-      <c r="Q27" s="35">
-        <v>16.65081</v>
-      </c>
-      <c r="R27" s="40">
-        <v>16.565460000000002</v>
-      </c>
-      <c r="S27" s="40">
-        <v>16.976199999999999</v>
-      </c>
-      <c r="T27" s="40">
-        <v>16.91076</v>
-      </c>
+      <c r="K27" s="35"/>
+      <c r="L27" s="35"/>
+      <c r="M27" s="35"/>
+      <c r="N27" s="35"/>
+      <c r="O27" s="35"/>
+      <c r="P27" s="35"/>
+      <c r="Q27" s="35"/>
+      <c r="R27" s="40"/>
+      <c r="S27" s="40"/>
+      <c r="T27" s="40"/>
       <c r="U27" s="9"/>
       <c r="V27" s="9"/>
       <c r="W27" s="9"/>
@@ -10767,40 +11236,40 @@
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A28" s="45" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B28" s="22"/>
       <c r="F28" s="22"/>
       <c r="H28" s="22"/>
       <c r="K28" s="54">
-        <v>17.37133</v>
+        <v>14.75849</v>
       </c>
       <c r="L28" s="54">
-        <v>16.062670000000001</v>
+        <v>13.269159999999999</v>
       </c>
       <c r="M28" s="54">
-        <v>16.760539999999999</v>
+        <v>13.463430000000001</v>
       </c>
       <c r="N28" s="54">
-        <v>15.967879999999999</v>
+        <v>13.14076</v>
       </c>
       <c r="O28" s="54">
-        <v>16.43825</v>
+        <v>13.14944</v>
       </c>
       <c r="P28" s="54">
-        <v>16.699719999999999</v>
+        <v>13.43695</v>
       </c>
       <c r="Q28" s="54">
-        <v>16.699269999999999</v>
+        <v>14.17698</v>
       </c>
       <c r="R28" s="54">
-        <v>16.637049999999999</v>
+        <v>13.59694</v>
       </c>
       <c r="S28" s="54">
-        <v>17.019100000000002</v>
+        <v>13.997260000000001</v>
       </c>
       <c r="T28" s="54">
-        <v>16.864750000000001</v>
+        <v>13.32067</v>
       </c>
       <c r="U28" s="9"/>
       <c r="V28" s="9"/>
@@ -10810,41 +11279,21 @@
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A29" s="45" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B29" s="22"/>
       <c r="F29" s="22"/>
       <c r="H29" s="22"/>
-      <c r="K29" s="49">
-        <v>17.366029999999999</v>
-      </c>
-      <c r="L29" s="49">
-        <v>16.09863</v>
-      </c>
-      <c r="M29" s="49">
-        <v>16.664439999999999</v>
-      </c>
-      <c r="N29" s="49">
-        <v>15.95332</v>
-      </c>
-      <c r="O29" s="49">
-        <v>16.408639999999998</v>
-      </c>
-      <c r="P29" s="49">
-        <v>16.671869999999998</v>
-      </c>
-      <c r="Q29" s="49">
-        <v>16.741050000000001</v>
-      </c>
-      <c r="R29" s="49">
-        <v>16.627269999999999</v>
-      </c>
-      <c r="S29" s="49">
-        <v>17.06467</v>
-      </c>
-      <c r="T29" s="49">
-        <v>16.78576</v>
-      </c>
+      <c r="K29" s="49"/>
+      <c r="L29" s="49"/>
+      <c r="M29" s="49"/>
+      <c r="N29" s="49"/>
+      <c r="O29" s="49"/>
+      <c r="P29" s="49"/>
+      <c r="Q29" s="49"/>
+      <c r="R29" s="49"/>
+      <c r="S29" s="49"/>
+      <c r="T29" s="49"/>
       <c r="U29" s="9"/>
       <c r="V29" s="9"/>
       <c r="W29" s="9"/>
@@ -10904,12 +11353,18 @@
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A31" s="52" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B31" s="12">
         <v>15.25309</v>
       </c>
+      <c r="E31" s="12">
+        <v>13.69</v>
+      </c>
       <c r="F31" s="22"/>
+      <c r="G31" s="12">
+        <v>13.669980000000001</v>
+      </c>
       <c r="H31" s="22"/>
       <c r="U31" s="9"/>
       <c r="V31" s="9"/>
@@ -10919,43 +11374,23 @@
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A32" s="45" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B32" s="27"/>
       <c r="E32" s="61"/>
       <c r="F32" s="22"/>
       <c r="G32" s="61"/>
       <c r="H32" s="22"/>
-      <c r="K32" s="40">
-        <v>15.7791</v>
-      </c>
-      <c r="L32" s="40">
-        <v>16.1632</v>
-      </c>
-      <c r="M32" s="40">
-        <v>16.190550000000002</v>
-      </c>
-      <c r="N32" s="40">
-        <v>15.29542</v>
-      </c>
-      <c r="O32" s="40">
-        <v>15.192080000000001</v>
-      </c>
-      <c r="P32" s="40">
-        <v>15.111649999999999</v>
-      </c>
-      <c r="Q32" s="40">
-        <v>15.637269999999999</v>
-      </c>
-      <c r="R32" s="40">
-        <v>15.760730000000001</v>
-      </c>
-      <c r="S32" s="40">
-        <v>16.139209999999999</v>
-      </c>
-      <c r="T32" s="40">
-        <v>16.7303</v>
-      </c>
+      <c r="K32" s="40"/>
+      <c r="L32" s="40"/>
+      <c r="M32" s="40"/>
+      <c r="N32" s="40"/>
+      <c r="O32" s="40"/>
+      <c r="P32" s="40"/>
+      <c r="Q32" s="40"/>
+      <c r="R32" s="40"/>
+      <c r="S32" s="40"/>
+      <c r="T32" s="40"/>
       <c r="U32" s="9"/>
       <c r="V32" s="9"/>
       <c r="W32" s="9"/>
@@ -10963,39 +11398,39 @@
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A33" s="45" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F33" s="22"/>
       <c r="H33" s="22"/>
       <c r="K33" s="54">
-        <v>15.758929999999999</v>
+        <v>12.67426</v>
       </c>
       <c r="L33" s="54">
-        <v>16.173179999999999</v>
+        <v>13.03101</v>
       </c>
       <c r="M33" s="54">
-        <v>16.20438</v>
+        <v>13.0748</v>
       </c>
       <c r="N33" s="54">
-        <v>15.337149999999999</v>
+        <v>11.60012</v>
       </c>
       <c r="O33" s="54">
-        <v>15.139530000000001</v>
+        <v>11.27725</v>
       </c>
       <c r="P33" s="54">
-        <v>15.18519</v>
+        <v>11.249689999999999</v>
       </c>
       <c r="Q33" s="54">
-        <v>15.67902</v>
+        <v>12.335459999999999</v>
       </c>
       <c r="R33" s="54">
-        <v>15.78384</v>
+        <v>12.42188</v>
       </c>
       <c r="S33" s="54">
-        <v>16.187080000000002</v>
+        <v>13.018230000000001</v>
       </c>
       <c r="T33" s="54">
-        <v>16.72852</v>
+        <v>12.85135</v>
       </c>
       <c r="U33" s="9"/>
       <c r="V33" s="9"/>
@@ -11004,40 +11439,20 @@
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A34" s="45" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F34" s="22"/>
       <c r="H34" s="22"/>
-      <c r="K34" s="49">
-        <v>17.366029999999999</v>
-      </c>
-      <c r="L34" s="49">
-        <v>16.09863</v>
-      </c>
-      <c r="M34" s="49">
-        <v>16.664439999999999</v>
-      </c>
-      <c r="N34" s="49">
-        <v>15.95332</v>
-      </c>
-      <c r="O34" s="49">
-        <v>16.408639999999998</v>
-      </c>
-      <c r="P34" s="49">
-        <v>16.671869999999998</v>
-      </c>
-      <c r="Q34" s="49">
-        <v>16.741050000000001</v>
-      </c>
-      <c r="R34" s="49">
-        <v>16.627269999999999</v>
-      </c>
-      <c r="S34" s="49">
-        <v>17.06467</v>
-      </c>
-      <c r="T34" s="49">
-        <v>16.78576</v>
-      </c>
+      <c r="K34" s="49"/>
+      <c r="L34" s="49"/>
+      <c r="M34" s="49"/>
+      <c r="N34" s="49"/>
+      <c r="O34" s="49"/>
+      <c r="P34" s="49"/>
+      <c r="Q34" s="49"/>
+      <c r="R34" s="49"/>
+      <c r="S34" s="49"/>
+      <c r="T34" s="49"/>
       <c r="U34" s="9"/>
       <c r="V34" s="9"/>
       <c r="W34" s="9"/>
@@ -11107,15 +11522,19 @@
       <c r="X36" s="9"/>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A37" s="71" t="s">
-        <v>113</v>
+      <c r="A37" s="68" t="s">
+        <v>112</v>
       </c>
       <c r="B37" s="9">
         <v>15.913130000000001</v>
       </c>
-      <c r="E37" s="18"/>
+      <c r="E37" s="18">
+        <v>16.800380000000001</v>
+      </c>
       <c r="F37" s="59"/>
-      <c r="G37" s="18"/>
+      <c r="G37" s="18">
+        <v>17.09845</v>
+      </c>
       <c r="H37" s="59"/>
       <c r="J37" s="18"/>
       <c r="U37" s="9"/>
@@ -11125,7 +11544,7 @@
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A38" s="45" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B38" s="27"/>
       <c r="E38" s="36"/>
@@ -11133,36 +11552,16 @@
       <c r="G38" s="36"/>
       <c r="H38" s="59"/>
       <c r="J38" s="18"/>
-      <c r="K38" s="34">
-        <v>19.47298</v>
-      </c>
-      <c r="L38" s="34">
-        <v>18.874870000000001</v>
-      </c>
-      <c r="M38" s="34">
-        <v>18.929390000000001</v>
-      </c>
-      <c r="N38" s="34">
-        <v>18.74699</v>
-      </c>
-      <c r="O38" s="34">
-        <v>18.211639999999999</v>
-      </c>
-      <c r="P38" s="34">
-        <v>17.571110000000001</v>
-      </c>
-      <c r="Q38" s="34">
-        <v>17.735279999999999</v>
-      </c>
-      <c r="R38" s="34">
-        <v>17.248950000000001</v>
-      </c>
-      <c r="S38" s="34">
-        <v>17.932759999999998</v>
-      </c>
-      <c r="T38" s="34">
-        <v>18.381910000000001</v>
-      </c>
+      <c r="K38" s="34"/>
+      <c r="L38" s="34"/>
+      <c r="M38" s="34"/>
+      <c r="N38" s="34"/>
+      <c r="O38" s="34"/>
+      <c r="P38" s="34"/>
+      <c r="Q38" s="34"/>
+      <c r="R38" s="34"/>
+      <c r="S38" s="34"/>
+      <c r="T38" s="34"/>
       <c r="U38" s="9"/>
       <c r="V38" s="9"/>
       <c r="W38" s="9"/>
@@ -11170,39 +11569,39 @@
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A39" s="45" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F39" s="22"/>
       <c r="H39" s="22"/>
       <c r="K39" s="54">
-        <v>19.466290000000001</v>
+        <v>16.146460000000001</v>
       </c>
       <c r="L39" s="54">
-        <v>18.8735</v>
+        <v>16.27862</v>
       </c>
       <c r="M39" s="54">
-        <v>18.931239999999999</v>
+        <v>15.430429999999999</v>
       </c>
       <c r="N39" s="54">
-        <v>18.76737</v>
+        <v>15.93717</v>
       </c>
       <c r="O39" s="54">
-        <v>18.163450000000001</v>
+        <v>15.22517</v>
       </c>
       <c r="P39" s="54">
-        <v>17.54241</v>
+        <v>14.565060000000001</v>
       </c>
       <c r="Q39" s="54">
-        <v>17.803940000000001</v>
+        <v>14.93369</v>
       </c>
       <c r="R39" s="54">
-        <v>17.260339999999999</v>
+        <v>14.78468</v>
       </c>
       <c r="S39" s="54">
-        <v>17.939109999999999</v>
+        <v>15.217460000000001</v>
       </c>
       <c r="T39" s="54">
-        <v>18.33813</v>
+        <v>15.134309999999999</v>
       </c>
       <c r="U39" s="9"/>
       <c r="V39" s="9"/>
@@ -11211,40 +11610,20 @@
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A40" s="53" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F40" s="22"/>
       <c r="H40" s="22"/>
-      <c r="K40" s="49">
-        <v>19.44866</v>
-      </c>
-      <c r="L40" s="49">
-        <v>18.836400000000001</v>
-      </c>
-      <c r="M40" s="49">
-        <v>18.918209999999998</v>
-      </c>
-      <c r="N40" s="49">
-        <v>18.78706</v>
-      </c>
-      <c r="O40" s="49">
-        <v>18.112200000000001</v>
-      </c>
-      <c r="P40" s="49">
-        <v>17.538609999999998</v>
-      </c>
-      <c r="Q40" s="49">
-        <v>17.8521</v>
-      </c>
-      <c r="R40" s="49">
-        <v>17.294899999999998</v>
-      </c>
-      <c r="S40" s="49">
-        <v>17.980440000000002</v>
-      </c>
-      <c r="T40" s="49">
-        <v>18.27347</v>
-      </c>
+      <c r="K40" s="49"/>
+      <c r="L40" s="49"/>
+      <c r="M40" s="49"/>
+      <c r="N40" s="49"/>
+      <c r="O40" s="49"/>
+      <c r="P40" s="49"/>
+      <c r="Q40" s="49"/>
+      <c r="R40" s="49"/>
+      <c r="S40" s="49"/>
+      <c r="T40" s="49"/>
       <c r="U40" s="9"/>
       <c r="V40" s="9"/>
       <c r="W40" s="9"/>
@@ -11299,24 +11678,34 @@
         <v>14.66</v>
       </c>
       <c r="U41" s="9"/>
+      <c r="V41" s="9"/>
+      <c r="W41" s="9"/>
+      <c r="X41" s="9"/>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A42" s="71" t="s">
-        <v>113</v>
+      <c r="A42" s="68" t="s">
+        <v>112</v>
       </c>
       <c r="B42" s="12">
         <v>14.841060000000001</v>
       </c>
-      <c r="E42" s="18"/>
+      <c r="E42" s="18">
+        <v>14.87846</v>
+      </c>
       <c r="F42" s="59"/>
-      <c r="G42" s="18"/>
+      <c r="G42" s="18">
+        <v>15.216570000000001</v>
+      </c>
       <c r="H42" s="59"/>
       <c r="J42" s="18"/>
       <c r="U42" s="9"/>
+      <c r="V42" s="9"/>
+      <c r="W42" s="9"/>
+      <c r="X42" s="9"/>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A43" s="45" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B43" s="27"/>
       <c r="E43" s="36"/>
@@ -11324,41 +11713,24 @@
       <c r="G43" s="36"/>
       <c r="H43" s="59"/>
       <c r="J43" s="18"/>
-      <c r="K43" s="34">
-        <v>18.22672</v>
-      </c>
-      <c r="L43" s="34">
-        <v>18.203949999999999</v>
-      </c>
-      <c r="M43" s="34">
-        <v>16.926590000000001</v>
-      </c>
-      <c r="N43" s="34">
-        <v>17.201000000000001</v>
-      </c>
-      <c r="O43" s="34">
-        <v>17.363019999999999</v>
-      </c>
-      <c r="P43" s="34">
-        <v>16.889769999999999</v>
-      </c>
-      <c r="Q43" s="34">
-        <v>17.004270000000002</v>
-      </c>
-      <c r="R43" s="34">
-        <v>16.893260000000001</v>
-      </c>
-      <c r="S43" s="34">
-        <v>17.134550000000001</v>
-      </c>
-      <c r="T43" s="34">
-        <v>17.53341</v>
-      </c>
+      <c r="K43" s="34"/>
+      <c r="L43" s="34"/>
+      <c r="M43" s="34"/>
+      <c r="N43" s="34"/>
+      <c r="O43" s="34"/>
+      <c r="P43" s="34"/>
+      <c r="Q43" s="34"/>
+      <c r="R43" s="34"/>
+      <c r="S43" s="34"/>
+      <c r="T43" s="34"/>
       <c r="U43" s="9"/>
+      <c r="V43" s="9"/>
+      <c r="W43" s="9"/>
+      <c r="X43" s="9"/>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A44" s="45" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B44" s="22"/>
       <c r="C44" s="22"/>
@@ -11369,40 +11741,43 @@
       <c r="H44" s="59"/>
       <c r="J44" s="18"/>
       <c r="K44" s="54">
-        <v>18.253589999999999</v>
+        <v>15.00088</v>
       </c>
       <c r="L44" s="54">
-        <v>18.212209999999999</v>
+        <v>15.142289999999999</v>
       </c>
       <c r="M44" s="54">
-        <v>16.937270000000002</v>
+        <v>14.03617</v>
       </c>
       <c r="N44" s="54">
-        <v>17.196149999999999</v>
+        <v>14.44088</v>
       </c>
       <c r="O44" s="54">
-        <v>17.349399999999999</v>
+        <v>14.24966</v>
       </c>
       <c r="P44" s="54">
-        <v>16.912220000000001</v>
+        <v>14.07893</v>
       </c>
       <c r="Q44" s="54">
-        <v>17.047090000000001</v>
+        <v>14.93174</v>
       </c>
       <c r="R44" s="54">
-        <v>16.895900000000001</v>
+        <v>14.15527</v>
       </c>
       <c r="S44" s="54">
-        <v>17.200289999999999</v>
+        <v>14.281370000000001</v>
       </c>
       <c r="T44" s="54">
-        <v>17.451059999999998</v>
+        <v>14.513909999999999</v>
       </c>
       <c r="U44" s="9"/>
+      <c r="V44" s="9"/>
+      <c r="W44" s="9"/>
+      <c r="X44" s="9"/>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A45" s="45" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B45" s="22"/>
       <c r="C45" s="22"/>
@@ -11412,37 +11787,20 @@
       <c r="G45" s="59"/>
       <c r="H45" s="59"/>
       <c r="J45" s="18"/>
-      <c r="K45" s="49">
-        <v>18.25468</v>
-      </c>
-      <c r="L45" s="49">
-        <v>18.245419999999999</v>
-      </c>
-      <c r="M45" s="49">
-        <v>16.92381</v>
-      </c>
-      <c r="N45" s="49">
-        <v>17.18779</v>
-      </c>
-      <c r="O45" s="49">
-        <v>17.30125</v>
-      </c>
-      <c r="P45" s="49">
-        <v>16.91582</v>
-      </c>
-      <c r="Q45" s="49">
-        <v>17.049859999999999</v>
-      </c>
-      <c r="R45" s="49">
-        <v>16.91534</v>
-      </c>
-      <c r="S45" s="49">
-        <v>17.230419999999999</v>
-      </c>
-      <c r="T45" s="49">
-        <v>17.384589999999999</v>
-      </c>
+      <c r="K45" s="49"/>
+      <c r="L45" s="49"/>
+      <c r="M45" s="49"/>
+      <c r="N45" s="49"/>
+      <c r="O45" s="49"/>
+      <c r="P45" s="49"/>
+      <c r="Q45" s="49"/>
+      <c r="R45" s="49"/>
+      <c r="S45" s="49"/>
+      <c r="T45" s="49"/>
       <c r="U45" s="9"/>
+      <c r="V45" s="9"/>
+      <c r="W45" s="9"/>
+      <c r="X45" s="9"/>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A46" s="51" t="s">
@@ -11492,24 +11850,31 @@
         <v>13.49</v>
       </c>
       <c r="U46" s="9"/>
+      <c r="V46" s="9"/>
+      <c r="W46" s="9"/>
+      <c r="X46" s="9"/>
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A47" s="71" t="s">
-        <v>113</v>
+      <c r="A47" s="68" t="s">
+        <v>112</v>
       </c>
       <c r="B47" s="22">
         <v>14.42629</v>
       </c>
-      <c r="E47" s="18"/>
+      <c r="E47" s="18">
+        <v>14.244</v>
+      </c>
       <c r="F47" s="59"/>
-      <c r="G47" s="18"/>
+      <c r="G47" s="18">
+        <v>14.11279</v>
+      </c>
       <c r="H47" s="59"/>
       <c r="J47" s="18"/>
       <c r="U47" s="9"/>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A48" s="45" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B48" s="27"/>
       <c r="E48" s="36"/>
@@ -11517,111 +11882,71 @@
       <c r="G48" s="36"/>
       <c r="H48" s="59"/>
       <c r="J48" s="18"/>
-      <c r="K48" s="34">
-        <v>17.456099999999999</v>
-      </c>
-      <c r="L48" s="34">
-        <v>16.467849999999999</v>
-      </c>
-      <c r="M48" s="34">
-        <v>16.93919</v>
-      </c>
-      <c r="N48" s="34">
-        <v>16.17155</v>
-      </c>
-      <c r="O48" s="34">
-        <v>16.65372</v>
-      </c>
-      <c r="P48" s="34">
-        <v>16.693819999999999</v>
-      </c>
-      <c r="Q48" s="34">
-        <v>16.66893</v>
-      </c>
-      <c r="R48" s="34">
-        <v>16.434640000000002</v>
-      </c>
-      <c r="S48" s="34">
-        <v>16.811350000000001</v>
-      </c>
-      <c r="T48" s="34">
-        <v>16.537120000000002</v>
-      </c>
+      <c r="K48" s="34"/>
+      <c r="L48" s="34"/>
+      <c r="M48" s="34"/>
+      <c r="N48" s="34"/>
+      <c r="O48" s="34"/>
+      <c r="P48" s="34"/>
+      <c r="Q48" s="34"/>
+      <c r="R48" s="34"/>
+      <c r="S48" s="34"/>
+      <c r="T48" s="34"/>
       <c r="U48" s="9"/>
     </row>
     <row r="49" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A49" s="45" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F49" s="22"/>
       <c r="H49" s="22"/>
       <c r="K49" s="54">
-        <v>17.415130000000001</v>
+        <v>14.86412</v>
       </c>
       <c r="L49" s="54">
-        <v>16.517219999999998</v>
+        <v>13.69772</v>
       </c>
       <c r="M49" s="54">
-        <v>16.988810000000001</v>
+        <v>13.64823</v>
       </c>
       <c r="N49" s="54">
-        <v>16.249939999999999</v>
+        <v>13.422079999999999</v>
       </c>
       <c r="O49" s="54">
-        <v>16.6431</v>
+        <v>13.352080000000001</v>
       </c>
       <c r="P49" s="54">
-        <v>16.699719999999999</v>
+        <v>13.43695</v>
       </c>
       <c r="Q49" s="54">
-        <v>16.7194</v>
+        <v>14.17337</v>
       </c>
       <c r="R49" s="54">
-        <v>16.50339</v>
+        <v>13.4695</v>
       </c>
       <c r="S49" s="54">
-        <v>16.848839999999999</v>
+        <v>13.864319999999999</v>
       </c>
       <c r="T49" s="54">
-        <v>16.485499999999998</v>
+        <v>12.999409999999999</v>
       </c>
     </row>
     <row r="50" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A50" s="53" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F50" s="22"/>
       <c r="H50" s="22"/>
-      <c r="K50" s="49">
-        <v>17.409179999999999</v>
-      </c>
-      <c r="L50" s="49">
-        <v>16.544899999999998</v>
-      </c>
-      <c r="M50" s="49">
-        <v>16.89038</v>
-      </c>
-      <c r="N50" s="49">
-        <v>16.233450000000001</v>
-      </c>
-      <c r="O50" s="49">
-        <v>16.611219999999999</v>
-      </c>
-      <c r="P50" s="49">
-        <v>16.671869999999998</v>
-      </c>
-      <c r="Q50" s="49">
-        <v>16.761759999999999</v>
-      </c>
-      <c r="R50" s="49">
-        <v>16.49492</v>
-      </c>
-      <c r="S50" s="49">
-        <v>16.895689999999998</v>
-      </c>
-      <c r="T50" s="49">
-        <v>16.406649999999999</v>
-      </c>
+      <c r="K50" s="49"/>
+      <c r="L50" s="49"/>
+      <c r="M50" s="49"/>
+      <c r="N50" s="49"/>
+      <c r="O50" s="49"/>
+      <c r="P50" s="49"/>
+      <c r="Q50" s="49"/>
+      <c r="R50" s="49"/>
+      <c r="S50" s="49"/>
+      <c r="T50" s="49"/>
     </row>
     <row r="51" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A51" s="51" t="s">
@@ -11673,15 +11998,19 @@
       <c r="U51" s="9"/>
     </row>
     <row r="52" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A52" s="71" t="s">
-        <v>113</v>
+      <c r="A52" s="68" t="s">
+        <v>112</v>
       </c>
       <c r="B52" s="12">
         <v>15.126670000000001</v>
       </c>
-      <c r="E52" s="18"/>
+      <c r="E52" s="18">
+        <v>13.5219</v>
+      </c>
       <c r="F52" s="59"/>
-      <c r="G52" s="18"/>
+      <c r="G52" s="18">
+        <v>13.453329999999999</v>
+      </c>
       <c r="H52" s="59"/>
       <c r="J52" s="18"/>
       <c r="K52" s="41"/>
@@ -11698,77 +12027,57 @@
     </row>
     <row r="53" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A53" s="45" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H53" s="60"/>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
-      <c r="K53" s="34">
-        <v>15.99676</v>
-      </c>
-      <c r="L53" s="34">
-        <v>16.57414</v>
-      </c>
-      <c r="M53" s="34">
-        <v>16.438880000000001</v>
-      </c>
-      <c r="N53" s="34">
-        <v>15.535819999999999</v>
-      </c>
-      <c r="O53" s="34">
-        <v>15.410220000000001</v>
-      </c>
-      <c r="P53" s="34">
-        <v>15.111649999999999</v>
-      </c>
-      <c r="Q53" s="34">
-        <v>15.6501</v>
-      </c>
-      <c r="R53" s="34">
-        <v>15.60812</v>
-      </c>
-      <c r="S53" s="34">
-        <v>15.944900000000001</v>
-      </c>
-      <c r="T53" s="34">
-        <v>16.3536</v>
-      </c>
+      <c r="K53" s="34"/>
+      <c r="L53" s="34"/>
+      <c r="M53" s="34"/>
+      <c r="N53" s="34"/>
+      <c r="O53" s="34"/>
+      <c r="P53" s="34"/>
+      <c r="Q53" s="34"/>
+      <c r="R53" s="34"/>
+      <c r="S53" s="34"/>
+      <c r="T53" s="34"/>
     </row>
     <row r="54" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A54" s="45" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F54" s="22"/>
       <c r="H54" s="22"/>
       <c r="K54" s="54">
-        <v>15.973050000000001</v>
+        <v>12.845829999999999</v>
       </c>
       <c r="L54" s="54">
-        <v>16.58747</v>
+        <v>13.333830000000001</v>
       </c>
       <c r="M54" s="54">
-        <v>16.448879999999999</v>
+        <v>13.271229999999999</v>
       </c>
       <c r="N54" s="54">
-        <v>15.57968</v>
+        <v>11.798349999999999</v>
       </c>
       <c r="O54" s="54">
-        <v>15.36007</v>
+        <v>11.49788</v>
       </c>
       <c r="P54" s="54">
-        <v>15.18519</v>
+        <v>11.249689999999999</v>
       </c>
       <c r="Q54" s="54">
-        <v>15.694940000000001</v>
+        <v>12.354290000000001</v>
       </c>
       <c r="R54" s="54">
-        <v>15.63279</v>
+        <v>12.3088</v>
       </c>
       <c r="S54" s="54">
-        <v>15.98692</v>
+        <v>12.80823</v>
       </c>
       <c r="T54" s="54">
-        <v>16.34759</v>
+        <v>12.38555</v>
       </c>
       <c r="X54" s="9"/>
       <c r="Y54" s="9"/>
@@ -11778,40 +12087,20 @@
     </row>
     <row r="55" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A55" s="53" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F55" s="22"/>
       <c r="H55" s="22"/>
-      <c r="K55" s="49">
-        <v>15.99616</v>
-      </c>
-      <c r="L55" s="49">
-        <v>16.563269999999999</v>
-      </c>
-      <c r="M55" s="49">
-        <v>16.464009999999998</v>
-      </c>
-      <c r="N55" s="49">
-        <v>15.569179999999999</v>
-      </c>
-      <c r="O55" s="49">
-        <v>15.35516</v>
-      </c>
-      <c r="P55" s="49">
-        <v>15.172129999999999</v>
-      </c>
-      <c r="Q55" s="49">
-        <v>15.68346</v>
-      </c>
-      <c r="R55" s="49">
-        <v>15.63954</v>
-      </c>
-      <c r="S55" s="49">
-        <v>16.030280000000001</v>
-      </c>
-      <c r="T55" s="49">
-        <v>16.3017</v>
-      </c>
+      <c r="K55" s="49"/>
+      <c r="L55" s="49"/>
+      <c r="M55" s="49"/>
+      <c r="N55" s="49"/>
+      <c r="O55" s="49"/>
+      <c r="P55" s="49"/>
+      <c r="Q55" s="49"/>
+      <c r="R55" s="49"/>
+      <c r="S55" s="49"/>
+      <c r="T55" s="49"/>
       <c r="X55" s="9"/>
       <c r="Y55" s="9"/>
       <c r="Z55" s="9"/>
@@ -11916,7 +12205,7 @@
     </row>
     <row r="61" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A61" s="46" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B61" s="12">
         <v>12.66</v>
@@ -11968,11 +12257,17 @@
       <c r="AB61" s="9"/>
     </row>
     <row r="62" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A62" s="71" t="s">
-        <v>113</v>
+      <c r="A62" s="68" t="s">
+        <v>112</v>
       </c>
       <c r="B62" s="12">
         <v>12.439830000000001</v>
+      </c>
+      <c r="E62" s="12">
+        <v>11.243919999999999</v>
+      </c>
+      <c r="G62" s="9">
+        <v>11.59456</v>
       </c>
       <c r="H62" s="22"/>
       <c r="X62" s="9"/>
@@ -11983,7 +12278,7 @@
     </row>
     <row r="63" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A63" s="52" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B63" s="35"/>
       <c r="C63" s="9"/>
@@ -11992,36 +12287,16 @@
       <c r="F63" s="60"/>
       <c r="G63" s="35"/>
       <c r="H63" s="22"/>
-      <c r="K63" s="40">
-        <v>13.849170000000001</v>
-      </c>
-      <c r="L63" s="40">
-        <v>13.623089999999999</v>
-      </c>
-      <c r="M63" s="40">
-        <v>13.811120000000001</v>
-      </c>
-      <c r="N63" s="40">
-        <v>13.19242</v>
-      </c>
-      <c r="O63" s="40">
-        <v>13.32</v>
-      </c>
-      <c r="P63" s="40">
-        <v>12.990930000000001</v>
-      </c>
-      <c r="Q63" s="40">
-        <v>13.268929999999999</v>
-      </c>
-      <c r="R63" s="40">
-        <v>12.919689999999999</v>
-      </c>
-      <c r="S63" s="40">
-        <v>13.66994</v>
-      </c>
-      <c r="T63" s="40">
-        <v>13.568759999999999</v>
-      </c>
+      <c r="K63" s="40"/>
+      <c r="L63" s="40"/>
+      <c r="M63" s="40"/>
+      <c r="N63" s="40"/>
+      <c r="O63" s="40"/>
+      <c r="P63" s="40"/>
+      <c r="Q63" s="40"/>
+      <c r="R63" s="40"/>
+      <c r="S63" s="40"/>
+      <c r="T63" s="40"/>
       <c r="X63" s="9"/>
       <c r="Y63" s="9"/>
       <c r="Z63" s="9"/>
@@ -12030,38 +12305,38 @@
     </row>
     <row r="64" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A64" s="52" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H64" s="22"/>
       <c r="K64" s="54">
-        <v>13.806979999999999</v>
+        <v>10.917389999999999</v>
       </c>
       <c r="L64" s="54">
-        <v>13.622949999999999</v>
+        <v>11.07845</v>
       </c>
       <c r="M64" s="54">
-        <v>13.807550000000001</v>
+        <v>10.73516</v>
       </c>
       <c r="N64" s="54">
-        <v>13.18835</v>
+        <v>10.455170000000001</v>
       </c>
       <c r="O64" s="54">
-        <v>13.303050000000001</v>
+        <v>10.26596</v>
       </c>
       <c r="P64" s="54">
-        <v>13.02102</v>
+        <v>9.8426860000000005</v>
       </c>
       <c r="Q64" s="54">
-        <v>13.28543</v>
+        <v>10.679169999999999</v>
       </c>
       <c r="R64" s="54">
-        <v>12.93735</v>
+        <v>10.34238</v>
       </c>
       <c r="S64" s="54">
-        <v>13.715009999999999</v>
+        <v>10.620810000000001</v>
       </c>
       <c r="T64" s="54">
-        <v>13.49605</v>
+        <v>10.501860000000001</v>
       </c>
       <c r="X64" s="9"/>
       <c r="Y64" s="9"/>
@@ -12071,43 +12346,23 @@
     </row>
     <row r="65" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A65" s="45" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H65" s="22"/>
-      <c r="K65" s="49">
-        <v>13.823539999999999</v>
-      </c>
-      <c r="L65" s="49">
-        <v>13.654210000000001</v>
-      </c>
-      <c r="M65" s="49">
-        <v>13.76412</v>
-      </c>
-      <c r="N65" s="49">
-        <v>13.18591</v>
-      </c>
-      <c r="O65" s="49">
-        <v>13.287380000000001</v>
-      </c>
-      <c r="P65" s="49">
-        <v>13.02256</v>
-      </c>
-      <c r="Q65" s="49">
-        <v>13.301069999999999</v>
-      </c>
-      <c r="R65" s="49">
-        <v>12.948270000000001</v>
-      </c>
-      <c r="S65" s="49">
-        <v>13.75249</v>
-      </c>
-      <c r="T65" s="49">
-        <v>13.45852</v>
-      </c>
+      <c r="K65" s="49"/>
+      <c r="L65" s="49"/>
+      <c r="M65" s="49"/>
+      <c r="N65" s="49"/>
+      <c r="O65" s="49"/>
+      <c r="P65" s="49"/>
+      <c r="Q65" s="49"/>
+      <c r="R65" s="49"/>
+      <c r="S65" s="49"/>
+      <c r="T65" s="49"/>
     </row>
     <row r="66" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A66" s="46" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B66" s="12">
         <v>17.11</v>
@@ -12158,11 +12413,17 @@
       <c r="AA66" s="9"/>
     </row>
     <row r="67" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A67" s="71" t="s">
-        <v>113</v>
+      <c r="A67" s="68" t="s">
+        <v>112</v>
       </c>
       <c r="B67" s="12">
         <v>16.23527</v>
+      </c>
+      <c r="E67" s="12">
+        <v>15.730589999999999</v>
+      </c>
+      <c r="G67" s="9">
+        <v>15.552070000000001</v>
       </c>
       <c r="H67" s="22"/>
       <c r="K67" s="41"/>
@@ -12182,7 +12443,7 @@
     </row>
     <row r="68" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A68" s="52" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B68" s="35"/>
       <c r="C68" s="9"/>
@@ -12191,36 +12452,16 @@
       <c r="F68" s="60"/>
       <c r="G68" s="35"/>
       <c r="H68" s="22"/>
-      <c r="K68" s="40">
-        <v>18.232040000000001</v>
-      </c>
-      <c r="L68" s="40">
-        <v>17.7684</v>
-      </c>
-      <c r="M68" s="40">
-        <v>17.33136</v>
-      </c>
-      <c r="N68" s="40">
-        <v>17.182310000000001</v>
-      </c>
-      <c r="O68" s="40">
-        <v>17.105979999999999</v>
-      </c>
-      <c r="P68" s="40">
-        <v>16.80143</v>
-      </c>
-      <c r="Q68" s="40">
-        <v>16.88533</v>
-      </c>
-      <c r="R68" s="40">
-        <v>16.70242</v>
-      </c>
-      <c r="S68" s="40">
-        <v>16.912780000000001</v>
-      </c>
-      <c r="T68" s="40">
-        <v>17.048539999999999</v>
-      </c>
+      <c r="K68" s="40"/>
+      <c r="L68" s="40"/>
+      <c r="M68" s="40"/>
+      <c r="N68" s="40"/>
+      <c r="O68" s="40"/>
+      <c r="P68" s="40"/>
+      <c r="Q68" s="40"/>
+      <c r="R68" s="40"/>
+      <c r="S68" s="40"/>
+      <c r="T68" s="40"/>
       <c r="X68" s="9"/>
       <c r="Y68" s="9"/>
       <c r="Z68" s="9"/>
@@ -12229,38 +12470,38 @@
     </row>
     <row r="69" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A69" s="52" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H69" s="22"/>
       <c r="K69" s="54">
-        <v>18.243200000000002</v>
+        <v>15.18754</v>
       </c>
       <c r="L69" s="54">
-        <v>17.754020000000001</v>
+        <v>14.69533</v>
       </c>
       <c r="M69" s="54">
-        <v>17.344180000000001</v>
+        <v>14.33548</v>
       </c>
       <c r="N69" s="54">
-        <v>17.195730000000001</v>
+        <v>14.18177</v>
       </c>
       <c r="O69" s="54">
-        <v>17.08343</v>
+        <v>13.61598</v>
       </c>
       <c r="P69" s="54">
-        <v>16.802330000000001</v>
+        <v>13.53036</v>
       </c>
       <c r="Q69" s="54">
-        <v>16.886479999999999</v>
+        <v>14.081580000000001</v>
       </c>
       <c r="R69" s="54">
-        <v>16.752410000000001</v>
+        <v>13.641030000000001</v>
       </c>
       <c r="S69" s="54">
-        <v>16.896139999999999</v>
+        <v>14.20506</v>
       </c>
       <c r="T69" s="54">
-        <v>17.031680000000001</v>
+        <v>13.933160000000001</v>
       </c>
       <c r="X69" s="9"/>
       <c r="Y69" s="9"/>
@@ -12270,39 +12511,19 @@
     </row>
     <row r="70" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A70" s="45" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H70" s="22"/>
-      <c r="K70" s="49">
-        <v>18.234970000000001</v>
-      </c>
-      <c r="L70" s="49">
-        <v>17.746400000000001</v>
-      </c>
-      <c r="M70" s="49">
-        <v>17.317029999999999</v>
-      </c>
-      <c r="N70" s="49">
-        <v>17.191700000000001</v>
-      </c>
-      <c r="O70" s="49">
-        <v>17.033619999999999</v>
-      </c>
-      <c r="P70" s="49">
-        <v>16.789480000000001</v>
-      </c>
-      <c r="Q70" s="49">
-        <v>16.90447</v>
-      </c>
-      <c r="R70" s="49">
-        <v>16.754919999999998</v>
-      </c>
-      <c r="S70" s="49">
-        <v>16.954699999999999</v>
-      </c>
-      <c r="T70" s="49">
-        <v>16.99954</v>
-      </c>
+      <c r="K70" s="49"/>
+      <c r="L70" s="49"/>
+      <c r="M70" s="49"/>
+      <c r="N70" s="49"/>
+      <c r="O70" s="49"/>
+      <c r="P70" s="49"/>
+      <c r="Q70" s="49"/>
+      <c r="R70" s="49"/>
+      <c r="S70" s="49"/>
+      <c r="T70" s="49"/>
       <c r="X70" s="9"/>
       <c r="Y70" s="9"/>
       <c r="Z70" s="9"/>
@@ -12311,7 +12532,7 @@
     </row>
     <row r="71" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A71" s="46" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B71" s="12">
         <v>19.91</v>
@@ -12363,11 +12584,17 @@
       <c r="AB71" s="9"/>
     </row>
     <row r="72" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A72" s="71" t="s">
-        <v>113</v>
+      <c r="A72" s="68" t="s">
+        <v>112</v>
       </c>
       <c r="B72" s="12">
         <v>18.922329999999999</v>
+      </c>
+      <c r="E72" s="12">
+        <v>18.35697</v>
+      </c>
+      <c r="G72" s="9">
+        <v>18.111979999999999</v>
       </c>
       <c r="H72" s="22"/>
       <c r="K72" s="41"/>
@@ -12388,7 +12615,7 @@
     </row>
     <row r="73" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A73" s="52" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B73" s="35"/>
       <c r="C73" s="9"/>
@@ -12397,36 +12624,16 @@
       <c r="F73" s="60"/>
       <c r="G73" s="35"/>
       <c r="H73" s="22"/>
-      <c r="K73" s="40">
-        <v>21.18892</v>
-      </c>
-      <c r="L73" s="40">
-        <v>20.667860000000001</v>
-      </c>
-      <c r="M73" s="40">
-        <v>20.093</v>
-      </c>
-      <c r="N73" s="40">
-        <v>19.528110000000002</v>
-      </c>
-      <c r="O73" s="40">
-        <v>19.621670000000002</v>
-      </c>
-      <c r="P73" s="40">
-        <v>19.33616</v>
-      </c>
-      <c r="Q73" s="40">
-        <v>18.99944</v>
-      </c>
-      <c r="R73" s="40">
-        <v>19.182120000000001</v>
-      </c>
-      <c r="S73" s="40">
-        <v>19.173539999999999</v>
-      </c>
-      <c r="T73" s="40">
-        <v>19.627189999999999</v>
-      </c>
+      <c r="K73" s="40"/>
+      <c r="L73" s="40"/>
+      <c r="M73" s="40"/>
+      <c r="N73" s="40"/>
+      <c r="O73" s="40"/>
+      <c r="P73" s="40"/>
+      <c r="Q73" s="40"/>
+      <c r="R73" s="40"/>
+      <c r="S73" s="40"/>
+      <c r="T73" s="40"/>
       <c r="X73" s="9"/>
       <c r="Y73" s="9"/>
       <c r="Z73" s="9"/>
@@ -12435,38 +12642,38 @@
     </row>
     <row r="74" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A74" s="52" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H74" s="22"/>
       <c r="K74" s="54">
-        <v>21.180599999999998</v>
+        <v>17.673259999999999</v>
       </c>
       <c r="L74" s="54">
-        <v>20.730039999999999</v>
+        <v>17.682040000000001</v>
       </c>
       <c r="M74" s="54">
-        <v>20.159269999999999</v>
+        <v>16.872430000000001</v>
       </c>
       <c r="N74" s="54">
-        <v>19.69454</v>
+        <v>16.60172</v>
       </c>
       <c r="O74" s="54">
-        <v>19.571490000000001</v>
+        <v>16.18909</v>
       </c>
       <c r="P74" s="54">
-        <v>19.357230000000001</v>
+        <v>15.787750000000001</v>
       </c>
       <c r="Q74" s="54">
-        <v>19.077680000000001</v>
+        <v>15.930580000000001</v>
       </c>
       <c r="R74" s="54">
-        <v>19.202179999999998</v>
+        <v>15.794879999999999</v>
       </c>
       <c r="S74" s="54">
-        <v>19.322959999999998</v>
+        <v>15.70274</v>
       </c>
       <c r="T74" s="54">
-        <v>19.607859999999999</v>
+        <v>16.15475</v>
       </c>
       <c r="X74" s="9"/>
       <c r="Y74" s="9"/>
@@ -12476,39 +12683,19 @@
     </row>
     <row r="75" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A75" s="45" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H75" s="22"/>
-      <c r="K75" s="49">
-        <v>21.163229999999999</v>
-      </c>
-      <c r="L75" s="49">
-        <v>20.694130000000001</v>
-      </c>
-      <c r="M75" s="49">
-        <v>20.10848</v>
-      </c>
-      <c r="N75" s="49">
-        <v>19.6508</v>
-      </c>
-      <c r="O75" s="49">
-        <v>19.532319999999999</v>
-      </c>
-      <c r="P75" s="49">
-        <v>19.34207</v>
-      </c>
-      <c r="Q75" s="49">
-        <v>19.120550000000001</v>
-      </c>
-      <c r="R75" s="49">
-        <v>19.216229999999999</v>
-      </c>
-      <c r="S75" s="49">
-        <v>19.32254</v>
-      </c>
-      <c r="T75" s="49">
-        <v>19.52065</v>
-      </c>
+      <c r="K75" s="49"/>
+      <c r="L75" s="49"/>
+      <c r="M75" s="49"/>
+      <c r="N75" s="49"/>
+      <c r="O75" s="49"/>
+      <c r="P75" s="49"/>
+      <c r="Q75" s="49"/>
+      <c r="R75" s="49"/>
+      <c r="S75" s="49"/>
+      <c r="T75" s="49"/>
       <c r="X75" s="9"/>
       <c r="Y75" s="9"/>
       <c r="Z75" s="9"/>
@@ -12572,18 +12759,18 @@
       <c r="AB76" s="9"/>
     </row>
     <row r="77" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A77" s="71" t="s">
-        <v>113</v>
-      </c>
-      <c r="B77" s="69" t="s">
+      <c r="A77" s="68" t="s">
         <v>112</v>
       </c>
-      <c r="E77" s="70" t="s">
-        <v>112</v>
+      <c r="B77" s="66" t="s">
+        <v>111</v>
+      </c>
+      <c r="E77" s="67">
+        <v>20.219889999999999</v>
       </c>
       <c r="F77" s="18"/>
-      <c r="G77" s="70" t="s">
-        <v>112</v>
+      <c r="G77" s="9">
+        <v>20.619810000000001</v>
       </c>
       <c r="H77" s="22"/>
       <c r="U77" s="9"/>
@@ -12597,7 +12784,7 @@
     </row>
     <row r="78" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A78" s="52" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B78" s="35"/>
       <c r="C78" s="9"/>
@@ -12606,36 +12793,16 @@
       <c r="F78" s="60"/>
       <c r="G78" s="35"/>
       <c r="H78" s="22"/>
-      <c r="K78" s="40">
-        <v>23.48385</v>
-      </c>
-      <c r="L78" s="40">
-        <v>22.546569999999999</v>
-      </c>
-      <c r="M78" s="40">
-        <v>22.266459999999999</v>
-      </c>
-      <c r="N78" s="40">
-        <v>21.47326</v>
-      </c>
-      <c r="O78" s="40">
-        <v>21.875240000000002</v>
-      </c>
-      <c r="P78" s="40">
-        <v>21.34441</v>
-      </c>
-      <c r="Q78" s="40">
-        <v>21.621490000000001</v>
-      </c>
-      <c r="R78" s="40">
-        <v>21.20477</v>
-      </c>
-      <c r="S78" s="40">
-        <v>21.355789999999999</v>
-      </c>
-      <c r="T78" s="40">
-        <v>22.202719999999999</v>
-      </c>
+      <c r="K78" s="40"/>
+      <c r="L78" s="40"/>
+      <c r="M78" s="40"/>
+      <c r="N78" s="40"/>
+      <c r="O78" s="40"/>
+      <c r="P78" s="40"/>
+      <c r="Q78" s="40"/>
+      <c r="R78" s="40"/>
+      <c r="S78" s="40"/>
+      <c r="T78" s="40"/>
       <c r="U78" s="9"/>
       <c r="V78" s="9"/>
       <c r="W78" s="9"/>
@@ -12644,75 +12811,55 @@
     </row>
     <row r="79" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A79" s="52" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H79" s="22"/>
       <c r="K79" s="54">
-        <v>23.514320000000001</v>
+        <v>20.05134</v>
       </c>
       <c r="L79" s="54">
-        <v>22.63833</v>
+        <v>18.83736</v>
       </c>
       <c r="M79" s="54">
-        <v>22.296140000000001</v>
+        <v>18.621590000000001</v>
       </c>
       <c r="N79" s="54">
-        <v>21.491700000000002</v>
+        <v>17.873360000000002</v>
       </c>
       <c r="O79" s="54">
-        <v>21.80341</v>
+        <v>18.46462</v>
       </c>
       <c r="P79" s="54">
-        <v>21.391110000000001</v>
+        <v>17.722999999999999</v>
       </c>
       <c r="Q79" s="54">
-        <v>21.82893</v>
+        <v>18.50583</v>
       </c>
       <c r="R79" s="54">
-        <v>21.247800000000002</v>
+        <v>17.51951</v>
       </c>
       <c r="S79" s="54">
-        <v>21.36018</v>
+        <v>18.153759999999998</v>
       </c>
       <c r="T79" s="54">
-        <v>22.122119999999999</v>
+        <v>18.491669999999999</v>
       </c>
     </row>
     <row r="80" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A80" s="45" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H80" s="22"/>
-      <c r="K80" s="49">
-        <v>23.510570000000001</v>
-      </c>
-      <c r="L80" s="49">
-        <v>22.570810000000002</v>
-      </c>
-      <c r="M80" s="49">
-        <v>22.267160000000001</v>
-      </c>
-      <c r="N80" s="49">
-        <v>21.525729999999999</v>
-      </c>
-      <c r="O80" s="49">
-        <v>21.779530000000001</v>
-      </c>
-      <c r="P80" s="49">
-        <v>21.353300000000001</v>
-      </c>
-      <c r="Q80" s="49">
-        <v>21.823830000000001</v>
-      </c>
-      <c r="R80" s="49">
-        <v>21.258400000000002</v>
-      </c>
-      <c r="S80" s="49">
-        <v>21.43066</v>
-      </c>
-      <c r="T80" s="49">
-        <v>21.949120000000001</v>
-      </c>
+      <c r="K80" s="49"/>
+      <c r="L80" s="49"/>
+      <c r="M80" s="49"/>
+      <c r="N80" s="49"/>
+      <c r="O80" s="49"/>
+      <c r="P80" s="49"/>
+      <c r="Q80" s="49"/>
+      <c r="R80" s="49"/>
+      <c r="S80" s="49"/>
+      <c r="T80" s="49"/>
       <c r="U80" s="9"/>
       <c r="V80" s="9"/>
       <c r="W80" s="9"/>
@@ -12730,7 +12877,7 @@
     </row>
     <row r="82" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A82" s="46" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E82" s="18">
         <v>12.424250000000001</v>
@@ -12776,13 +12923,15 @@
       <c r="X82" s="9"/>
     </row>
     <row r="83" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A83" s="71" t="s">
-        <v>113</v>
+      <c r="A83" s="68" t="s">
+        <v>112</v>
       </c>
       <c r="B83" s="12">
         <v>12.53679</v>
       </c>
-      <c r="E83" s="18"/>
+      <c r="E83" s="9">
+        <v>11.253970000000001</v>
+      </c>
       <c r="F83" s="18"/>
       <c r="G83" s="18"/>
       <c r="H83" s="59"/>
@@ -12802,7 +12951,7 @@
     </row>
     <row r="84" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A84" s="52" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B84" s="35"/>
       <c r="C84" s="9"/>
@@ -12811,36 +12960,16 @@
       <c r="F84" s="60"/>
       <c r="G84" s="35"/>
       <c r="H84" s="22"/>
-      <c r="K84" s="34">
-        <v>13.93524</v>
-      </c>
-      <c r="L84" s="34">
-        <v>13.56888</v>
-      </c>
-      <c r="M84" s="34">
-        <v>13.77824</v>
-      </c>
-      <c r="N84" s="34">
-        <v>13.183820000000001</v>
-      </c>
-      <c r="O84" s="34">
-        <v>13.285080000000001</v>
-      </c>
-      <c r="P84" s="34">
-        <v>12.990930000000001</v>
-      </c>
-      <c r="Q84" s="34">
-        <v>13.33128</v>
-      </c>
-      <c r="R84" s="34">
-        <v>12.9681</v>
-      </c>
-      <c r="S84" s="34">
-        <v>13.67868</v>
-      </c>
-      <c r="T84" s="34">
-        <v>13.60735</v>
-      </c>
+      <c r="K84" s="34"/>
+      <c r="L84" s="34"/>
+      <c r="M84" s="34"/>
+      <c r="N84" s="34"/>
+      <c r="O84" s="34"/>
+      <c r="P84" s="34"/>
+      <c r="Q84" s="34"/>
+      <c r="R84" s="34"/>
+      <c r="S84" s="34"/>
+      <c r="T84" s="34"/>
       <c r="U84" s="9"/>
       <c r="V84" s="9"/>
       <c r="W84" s="9"/>
@@ -12848,38 +12977,38 @@
     </row>
     <row r="85" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A85" s="52" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H85" s="22"/>
       <c r="K85" s="54">
-        <v>13.89518</v>
+        <v>11.01193</v>
       </c>
       <c r="L85" s="54">
-        <v>13.565469999999999</v>
+        <v>11.04129</v>
       </c>
       <c r="M85" s="54">
-        <v>13.77373</v>
+        <v>10.70688</v>
       </c>
       <c r="N85" s="54">
-        <v>13.17966</v>
+        <v>10.44722</v>
       </c>
       <c r="O85" s="54">
-        <v>13.26778</v>
+        <v>10.236890000000001</v>
       </c>
       <c r="P85" s="54">
-        <v>13.02102</v>
+        <v>9.8426860000000005</v>
       </c>
       <c r="Q85" s="54">
-        <v>13.35162</v>
+        <v>10.729889999999999</v>
       </c>
       <c r="R85" s="54">
-        <v>12.986800000000001</v>
+        <v>10.37612</v>
       </c>
       <c r="S85" s="54">
-        <v>13.7239</v>
+        <v>10.627840000000001</v>
       </c>
       <c r="T85" s="54">
-        <v>13.538460000000001</v>
+        <v>10.516529999999999</v>
       </c>
       <c r="U85" s="9"/>
       <c r="V85" s="9"/>
@@ -12888,39 +13017,19 @@
     </row>
     <row r="86" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A86" s="45" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H86" s="22"/>
-      <c r="K86" s="50">
-        <v>13.911339999999999</v>
-      </c>
-      <c r="L86" s="50">
-        <v>13.597479999999999</v>
-      </c>
-      <c r="M86" s="50">
-        <v>13.73001</v>
-      </c>
-      <c r="N86" s="50">
-        <v>13.177250000000001</v>
-      </c>
-      <c r="O86" s="50">
-        <v>13.25217</v>
-      </c>
-      <c r="P86" s="50">
-        <v>13.02256</v>
-      </c>
-      <c r="Q86" s="50">
-        <v>13.36439</v>
-      </c>
-      <c r="R86" s="50">
-        <v>12.997339999999999</v>
-      </c>
-      <c r="S86" s="50">
-        <v>13.76146</v>
-      </c>
-      <c r="T86" s="50">
-        <v>13.500389999999999</v>
-      </c>
+      <c r="K86" s="50"/>
+      <c r="L86" s="50"/>
+      <c r="M86" s="50"/>
+      <c r="N86" s="50"/>
+      <c r="O86" s="50"/>
+      <c r="P86" s="50"/>
+      <c r="Q86" s="50"/>
+      <c r="R86" s="50"/>
+      <c r="S86" s="50"/>
+      <c r="T86" s="50"/>
       <c r="U86" s="9"/>
       <c r="V86" s="9"/>
       <c r="W86" s="9"/>
@@ -12928,7 +13037,7 @@
     </row>
     <row r="87" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A87" s="46" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E87" s="18">
         <v>17.172409999999999</v>
@@ -12975,15 +13084,19 @@
       <c r="X87" s="9"/>
     </row>
     <row r="88" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A88" s="71" t="s">
-        <v>113</v>
+      <c r="A88" s="68" t="s">
+        <v>112</v>
       </c>
       <c r="B88" s="12">
         <v>16.233319999999999</v>
       </c>
-      <c r="E88" s="18"/>
+      <c r="E88" s="9">
+        <v>15.73494</v>
+      </c>
       <c r="F88" s="18"/>
-      <c r="G88" s="18"/>
+      <c r="G88" s="9">
+        <v>15.5692</v>
+      </c>
       <c r="H88" s="59"/>
       <c r="J88" s="18"/>
       <c r="L88" s="42"/>
@@ -13002,7 +13115,7 @@
     </row>
     <row r="89" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A89" s="52" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B89" s="35"/>
       <c r="C89" s="9"/>
@@ -13011,36 +13124,16 @@
       <c r="F89" s="60"/>
       <c r="G89" s="35"/>
       <c r="H89" s="22"/>
-      <c r="K89" s="34">
-        <v>18.17726</v>
-      </c>
-      <c r="L89" s="34">
-        <v>17.761980000000001</v>
-      </c>
-      <c r="M89" s="34">
-        <v>17.38194</v>
-      </c>
-      <c r="N89" s="34">
-        <v>17.18655</v>
-      </c>
-      <c r="O89" s="34">
-        <v>17.158159999999999</v>
-      </c>
-      <c r="P89" s="34">
-        <v>16.80143</v>
-      </c>
-      <c r="Q89" s="37">
-        <v>16.84939</v>
-      </c>
-      <c r="R89" s="37">
-        <v>16.673249999999999</v>
-      </c>
-      <c r="S89" s="37">
-        <v>16.893529999999998</v>
-      </c>
-      <c r="T89" s="37">
-        <v>17.05078</v>
-      </c>
+      <c r="K89" s="34"/>
+      <c r="L89" s="34"/>
+      <c r="M89" s="34"/>
+      <c r="N89" s="34"/>
+      <c r="O89" s="34"/>
+      <c r="P89" s="34"/>
+      <c r="Q89" s="37"/>
+      <c r="R89" s="37"/>
+      <c r="S89" s="37"/>
+      <c r="T89" s="37"/>
       <c r="U89" s="9"/>
       <c r="V89" s="9"/>
       <c r="W89" s="9"/>
@@ -13048,38 +13141,38 @@
     </row>
     <row r="90" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A90" s="52" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H90" s="22"/>
       <c r="K90" s="54">
-        <v>18.1873</v>
+        <v>15.179930000000001</v>
       </c>
       <c r="L90" s="54">
-        <v>17.74728</v>
+        <v>14.690429999999999</v>
       </c>
       <c r="M90" s="54">
-        <v>17.39753</v>
+        <v>14.3529</v>
       </c>
       <c r="N90" s="54">
-        <v>17.200040000000001</v>
+        <v>14.185230000000001</v>
       </c>
       <c r="O90" s="54">
-        <v>17.139959999999999</v>
+        <v>13.667289999999999</v>
       </c>
       <c r="P90" s="54">
-        <v>16.802330000000001</v>
+        <v>13.53036</v>
       </c>
       <c r="Q90" s="54">
-        <v>16.848700000000001</v>
+        <v>14.047829999999999</v>
       </c>
       <c r="R90" s="54">
-        <v>16.722169999999998</v>
+        <v>13.631019999999999</v>
       </c>
       <c r="S90" s="54">
-        <v>16.87546</v>
+        <v>14.19497</v>
       </c>
       <c r="T90" s="54">
-        <v>17.033989999999999</v>
+        <v>13.935269999999999</v>
       </c>
       <c r="U90" s="9"/>
       <c r="V90" s="9"/>
@@ -13088,39 +13181,19 @@
     </row>
     <row r="91" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A91" s="45" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H91" s="22"/>
-      <c r="K91" s="50">
-        <v>18.180119999999999</v>
-      </c>
-      <c r="L91" s="50">
-        <v>17.739619999999999</v>
-      </c>
-      <c r="M91" s="50">
-        <v>17.36909</v>
-      </c>
-      <c r="N91" s="50">
-        <v>17.195989999999998</v>
-      </c>
-      <c r="O91" s="50">
-        <v>17.086860000000001</v>
-      </c>
-      <c r="P91" s="50">
-        <v>16.789480000000001</v>
-      </c>
-      <c r="Q91" s="50">
-        <v>16.867149999999999</v>
-      </c>
-      <c r="R91" s="50">
-        <v>16.72512</v>
-      </c>
-      <c r="S91" s="50">
-        <v>16.934709999999999</v>
-      </c>
-      <c r="T91" s="50">
-        <v>17.001850000000001</v>
-      </c>
+      <c r="K91" s="50"/>
+      <c r="L91" s="50"/>
+      <c r="M91" s="50"/>
+      <c r="N91" s="50"/>
+      <c r="O91" s="50"/>
+      <c r="P91" s="50"/>
+      <c r="Q91" s="50"/>
+      <c r="R91" s="50"/>
+      <c r="S91" s="50"/>
+      <c r="T91" s="50"/>
       <c r="U91" s="9"/>
       <c r="V91" s="9"/>
       <c r="W91" s="9"/>
@@ -13128,7 +13201,7 @@
     </row>
     <row r="92" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A92" s="46" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E92" s="18">
         <v>20.027909999999999</v>
@@ -13171,15 +13244,19 @@
       </c>
     </row>
     <row r="93" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A93" s="71" t="s">
-        <v>113</v>
+      <c r="A93" s="68" t="s">
+        <v>112</v>
       </c>
       <c r="B93" s="12">
         <v>18.928139999999999</v>
       </c>
-      <c r="E93" s="18"/>
+      <c r="E93" s="9">
+        <v>18.378430000000002</v>
+      </c>
       <c r="F93" s="18"/>
-      <c r="G93" s="18"/>
+      <c r="G93" s="9">
+        <v>18.110900000000001</v>
+      </c>
       <c r="H93" s="59"/>
       <c r="J93" s="18"/>
       <c r="L93" s="42"/>
@@ -13194,7 +13271,7 @@
     </row>
     <row r="94" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A94" s="52" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B94" s="35"/>
       <c r="C94" s="9"/>
@@ -13203,108 +13280,68 @@
       <c r="F94" s="60"/>
       <c r="G94" s="35"/>
       <c r="H94" s="22"/>
-      <c r="K94" s="34">
-        <v>21.203379999999999</v>
-      </c>
-      <c r="L94" s="34">
-        <v>20.679449999999999</v>
-      </c>
-      <c r="M94" s="34">
-        <v>20.107330000000001</v>
-      </c>
-      <c r="N94" s="34">
-        <v>19.566859999999998</v>
-      </c>
-      <c r="O94" s="34">
-        <v>19.69097</v>
-      </c>
-      <c r="P94" s="34">
-        <v>19.33616</v>
-      </c>
-      <c r="Q94" s="37">
-        <v>18.99494</v>
-      </c>
-      <c r="R94" s="37">
-        <v>19.235949999999999</v>
-      </c>
-      <c r="S94" s="37">
-        <v>19.212900000000001</v>
-      </c>
-      <c r="T94" s="37">
-        <v>19.644359999999999</v>
-      </c>
+      <c r="K94" s="34"/>
+      <c r="L94" s="34"/>
+      <c r="M94" s="34"/>
+      <c r="N94" s="34"/>
+      <c r="O94" s="34"/>
+      <c r="P94" s="34"/>
+      <c r="Q94" s="37"/>
+      <c r="R94" s="37"/>
+      <c r="S94" s="37"/>
+      <c r="T94" s="37"/>
     </row>
     <row r="95" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A95" s="52" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H95" s="22"/>
       <c r="K95" s="54">
-        <v>21.193190000000001</v>
+        <v>17.676200000000001</v>
       </c>
       <c r="L95" s="54">
-        <v>20.743169999999999</v>
+        <v>17.688030000000001</v>
       </c>
       <c r="M95" s="54">
-        <v>20.177</v>
+        <v>16.87921</v>
       </c>
       <c r="N95" s="54">
-        <v>19.731739999999999</v>
+        <v>16.618179999999999</v>
       </c>
       <c r="O95" s="54">
-        <v>19.64959</v>
+        <v>16.23574</v>
       </c>
       <c r="P95" s="54">
-        <v>19.357230000000001</v>
+        <v>15.787750000000001</v>
       </c>
       <c r="Q95" s="54">
-        <v>19.072970000000002</v>
+        <v>15.92689</v>
       </c>
       <c r="R95" s="54">
-        <v>19.256620000000002</v>
+        <v>15.83423</v>
       </c>
       <c r="S95" s="54">
-        <v>19.365410000000001</v>
+        <v>15.720969999999999</v>
       </c>
       <c r="T95" s="54">
-        <v>19.625820000000001</v>
+        <v>16.167539999999999</v>
       </c>
     </row>
     <row r="96" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A96" s="45" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H96" s="22"/>
-      <c r="K96" s="50">
-        <v>21.1755</v>
-      </c>
-      <c r="L96" s="50">
-        <v>20.707909999999998</v>
-      </c>
-      <c r="M96" s="50">
-        <v>20.12424</v>
-      </c>
-      <c r="N96" s="50">
-        <v>19.686350000000001</v>
-      </c>
-      <c r="O96" s="50">
-        <v>19.607340000000001</v>
-      </c>
-      <c r="P96" s="50">
-        <v>19.34207</v>
-      </c>
-      <c r="Q96" s="50">
-        <v>19.116219999999998</v>
-      </c>
-      <c r="R96" s="50">
-        <v>19.271159999999998</v>
-      </c>
-      <c r="S96" s="50">
-        <v>19.362729999999999</v>
-      </c>
-      <c r="T96" s="50">
-        <v>19.53791</v>
-      </c>
+      <c r="K96" s="50"/>
+      <c r="L96" s="50"/>
+      <c r="M96" s="50"/>
+      <c r="N96" s="50"/>
+      <c r="O96" s="50"/>
+      <c r="P96" s="50"/>
+      <c r="Q96" s="50"/>
+      <c r="R96" s="50"/>
+      <c r="S96" s="50"/>
+      <c r="T96" s="50"/>
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A97" s="47" t="s">
@@ -13351,18 +13388,18 @@
       </c>
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A98" s="71" t="s">
-        <v>113</v>
-      </c>
-      <c r="B98" s="69" t="s">
+      <c r="A98" s="68" t="s">
         <v>112</v>
       </c>
-      <c r="E98" s="70" t="s">
-        <v>112</v>
+      <c r="B98" s="66" t="s">
+        <v>111</v>
+      </c>
+      <c r="E98" s="9">
+        <v>20.217140000000001</v>
       </c>
       <c r="F98" s="18"/>
-      <c r="G98" s="70" t="s">
-        <v>112</v>
+      <c r="G98" s="9">
+        <v>20.616230000000002</v>
       </c>
       <c r="H98" s="59"/>
       <c r="J98" s="18"/>
@@ -13378,7 +13415,7 @@
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A99" s="52" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B99" s="35"/>
       <c r="C99" s="9"/>
@@ -13388,40 +13425,20 @@
       <c r="G99" s="35"/>
       <c r="H99" s="59"/>
       <c r="J99" s="18"/>
-      <c r="K99" s="34">
-        <v>23.494949999999999</v>
-      </c>
-      <c r="L99" s="34">
-        <v>22.58625</v>
-      </c>
-      <c r="M99" s="34">
-        <v>22.285039999999999</v>
-      </c>
-      <c r="N99" s="34">
-        <v>21.48685</v>
-      </c>
-      <c r="O99" s="34">
-        <v>21.87397</v>
-      </c>
-      <c r="P99" s="34">
-        <v>21.34441</v>
-      </c>
-      <c r="Q99" s="37">
-        <v>21.65164</v>
-      </c>
-      <c r="R99" s="37">
-        <v>21.177790000000002</v>
-      </c>
-      <c r="S99" s="37">
-        <v>21.415019999999998</v>
-      </c>
-      <c r="T99" s="37">
-        <v>22.20374</v>
-      </c>
+      <c r="K99" s="34"/>
+      <c r="L99" s="34"/>
+      <c r="M99" s="34"/>
+      <c r="N99" s="34"/>
+      <c r="O99" s="34"/>
+      <c r="P99" s="34"/>
+      <c r="Q99" s="37"/>
+      <c r="R99" s="37"/>
+      <c r="S99" s="37"/>
+      <c r="T99" s="37"/>
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A100" s="52" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E100" s="18"/>
       <c r="F100" s="18"/>
@@ -13429,75 +13446,55 @@
       <c r="H100" s="59"/>
       <c r="J100" s="18"/>
       <c r="K100" s="54">
-        <v>23.52627</v>
+        <v>20.04233</v>
       </c>
       <c r="L100" s="54">
-        <v>22.679010000000002</v>
+        <v>18.856629999999999</v>
       </c>
       <c r="M100" s="54">
-        <v>22.3142</v>
+        <v>18.6297</v>
       </c>
       <c r="N100" s="54">
-        <v>21.506270000000001</v>
+        <v>17.883240000000001</v>
       </c>
       <c r="O100" s="54">
-        <v>21.802070000000001</v>
+        <v>18.46407</v>
       </c>
       <c r="P100" s="54">
-        <v>21.391110000000001</v>
+        <v>17.722999999999999</v>
       </c>
       <c r="Q100" s="54">
-        <v>21.85886</v>
+        <v>18.523630000000001</v>
       </c>
       <c r="R100" s="54">
-        <v>21.21942</v>
+        <v>17.505289999999999</v>
       </c>
       <c r="S100" s="54">
-        <v>21.41901</v>
+        <v>18.18845</v>
       </c>
       <c r="T100" s="54">
-        <v>22.123270000000002</v>
+        <v>18.492290000000001</v>
       </c>
     </row>
     <row r="101" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A101" s="45" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E101" s="18"/>
       <c r="F101" s="18"/>
       <c r="G101" s="18"/>
       <c r="H101" s="59"/>
       <c r="J101" s="18"/>
-      <c r="K101" s="50">
-        <v>23.520050000000001</v>
-      </c>
-      <c r="L101" s="50">
-        <v>22.612169999999999</v>
-      </c>
-      <c r="M101" s="50">
-        <v>22.285070000000001</v>
-      </c>
-      <c r="N101" s="50">
-        <v>21.53969</v>
-      </c>
-      <c r="O101" s="50">
-        <v>21.778310000000001</v>
-      </c>
-      <c r="P101" s="50">
-        <v>21.353300000000001</v>
-      </c>
-      <c r="Q101" s="50">
-        <v>21.853940000000001</v>
-      </c>
-      <c r="R101" s="50">
-        <v>21.231649999999998</v>
-      </c>
-      <c r="S101" s="50">
-        <v>21.492429999999999</v>
-      </c>
-      <c r="T101" s="50">
-        <v>21.950240000000001</v>
-      </c>
+      <c r="K101" s="50"/>
+      <c r="L101" s="50"/>
+      <c r="M101" s="50"/>
+      <c r="N101" s="50"/>
+      <c r="O101" s="50"/>
+      <c r="P101" s="50"/>
+      <c r="Q101" s="50"/>
+      <c r="R101" s="50"/>
+      <c r="S101" s="50"/>
+      <c r="T101" s="50"/>
     </row>
     <row r="102" spans="1:20" x14ac:dyDescent="0.2">
       <c r="H102" s="22"/>
@@ -13529,24 +13526,24 @@
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
     </row>
     <row r="2" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="B2" s="13" t="s">
@@ -13582,7 +13579,7 @@
     </row>
     <row r="3" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B3" s="31">
         <v>4377</v>
@@ -13617,7 +13614,7 @@
     </row>
     <row r="4" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B4" s="31"/>
       <c r="C4" s="31"/>
@@ -13632,7 +13629,7 @@
     </row>
     <row r="5" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B5" s="32">
         <v>2225</v>
@@ -13737,7 +13734,7 @@
     </row>
     <row r="8" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B8" s="32">
         <v>2225</v>
@@ -13807,7 +13804,7 @@
     </row>
     <row r="10" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B10" s="32">
         <v>2225</v>
@@ -13842,7 +13839,7 @@
     </row>
     <row r="11" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B11" s="32">
         <v>3035</v>
@@ -13885,58 +13882,82 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD8"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B2" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="I2" t="s">
+        <v>145</v>
+      </c>
+      <c r="J2">
+        <v>-58.9</v>
+      </c>
+      <c r="K2">
+        <v>29.4</v>
+      </c>
+      <c r="L2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="I3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G4" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="29" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I4">
+        <f>(126+58.9)/29.4</f>
+        <v>6.2891156462585043</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="29" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>67</v>
       </c>
       <c r="B6">
         <v>1151</v>
@@ -13945,7 +13966,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>6748</v>
       </c>
@@ -13953,9 +13974,9 @@
         <v>6824</v>
       </c>
     </row>
-    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B8">
         <f>B6+B7</f>
@@ -13966,46 +13987,301 @@
         <v>7899</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>117</v>
+      </c>
       <c r="C10" s="29" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="9">
+        <v>6368</v>
+      </c>
+      <c r="D12">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="9">
+        <v>366</v>
+      </c>
+      <c r="D13">
+        <v>787</v>
+      </c>
+      <c r="G13">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C14" s="29"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C15" s="29"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>118</v>
+      </c>
+      <c r="B17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="9">
+        <v>3237</v>
+      </c>
+      <c r="D17">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="9">
+        <v>124</v>
+      </c>
+      <c r="D18">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C19" s="29"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>119</v>
+      </c>
+      <c r="C20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="9">
+        <v>3131</v>
+      </c>
+      <c r="D21">
+        <v>97</v>
+      </c>
+      <c r="J21">
+        <v>6.2</v>
+      </c>
+      <c r="L21" t="s">
         <v>58</v>
       </c>
-      <c r="D11" t="s">
+    </row>
+    <row r="22" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="9">
+        <v>195</v>
+      </c>
+      <c r="D22">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="D24" t="s">
+        <v>56</v>
+      </c>
+      <c r="G24" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="9">
+        <v>1834</v>
+      </c>
+      <c r="D25" s="9">
+        <v>45</v>
+      </c>
+      <c r="F25" t="s">
         <v>58</v>
       </c>
-      <c r="C12">
-        <v>6485</v>
-      </c>
-      <c r="D12">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13">
+      <c r="G25" s="69">
+        <f>SUM(C26:D26)/SUM(C25:D26)</f>
+        <v>0.15284039675383229</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="29"/>
+      <c r="B26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26" s="9">
         <v>339</v>
       </c>
-      <c r="D13">
-        <v>812</v>
+      <c r="F26" t="s">
+        <v>59</v>
+      </c>
+      <c r="G26" s="69">
+        <f>SUM(D25:D26)/SUM(C25:D26)</f>
+        <v>0.17312894499549145</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="D27" s="9"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G28" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>121</v>
+      </c>
+      <c r="B29" s="29" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>125</v>
+      </c>
+      <c r="B35" s="29" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>131</v>
+      </c>
+      <c r="C39" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C40" t="s">
+        <v>136</v>
+      </c>
+      <c r="L40" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C41" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C42" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C43" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C44" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C45" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C46" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C47" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C48" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -14031,23 +14307,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="F1" s="66" t="s">
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="F1" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
       <c r="R1" s="9"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
@@ -15074,13 +15350,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BT25"/>
+  <dimension ref="A1:BT26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
+      <selection pane="bottomRight" activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15099,123 +15375,123 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:72" x14ac:dyDescent="0.2">
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="R1" s="68" t="s">
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="R1" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
-      <c r="W1" s="68"/>
-      <c r="X1" s="68"/>
-      <c r="Y1" s="68"/>
-      <c r="Z1" s="68"/>
-      <c r="AA1" s="68"/>
-      <c r="AB1" s="68"/>
-      <c r="AC1" s="68"/>
-      <c r="AD1" s="68"/>
-      <c r="AF1" s="68" t="s">
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
+      <c r="W1" s="73"/>
+      <c r="X1" s="73"/>
+      <c r="Y1" s="73"/>
+      <c r="Z1" s="73"/>
+      <c r="AA1" s="73"/>
+      <c r="AB1" s="73"/>
+      <c r="AC1" s="73"/>
+      <c r="AD1" s="73"/>
+      <c r="AF1" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="AG1" s="68"/>
-      <c r="AH1" s="68"/>
-      <c r="AI1" s="68"/>
-      <c r="AJ1" s="68"/>
-      <c r="AK1" s="68"/>
-      <c r="AL1" s="68"/>
-      <c r="AM1" s="68"/>
-      <c r="AN1" s="68"/>
-      <c r="AO1" s="68"/>
-      <c r="AP1" s="68"/>
-      <c r="AQ1" s="68"/>
-      <c r="AR1" s="68"/>
-      <c r="AT1" s="68" t="s">
+      <c r="AG1" s="73"/>
+      <c r="AH1" s="73"/>
+      <c r="AI1" s="73"/>
+      <c r="AJ1" s="73"/>
+      <c r="AK1" s="73"/>
+      <c r="AL1" s="73"/>
+      <c r="AM1" s="73"/>
+      <c r="AN1" s="73"/>
+      <c r="AO1" s="73"/>
+      <c r="AP1" s="73"/>
+      <c r="AQ1" s="73"/>
+      <c r="AR1" s="73"/>
+      <c r="AT1" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="AU1" s="68"/>
-      <c r="AV1" s="68"/>
-      <c r="AW1" s="68"/>
-      <c r="AX1" s="68"/>
-      <c r="AY1" s="68"/>
-      <c r="AZ1" s="68"/>
-      <c r="BA1" s="68"/>
-      <c r="BB1" s="68"/>
-      <c r="BC1" s="68"/>
-      <c r="BD1" s="68"/>
-      <c r="BE1" s="68"/>
-      <c r="BF1" s="68"/>
-      <c r="BH1" s="68" t="s">
+      <c r="AU1" s="73"/>
+      <c r="AV1" s="73"/>
+      <c r="AW1" s="73"/>
+      <c r="AX1" s="73"/>
+      <c r="AY1" s="73"/>
+      <c r="AZ1" s="73"/>
+      <c r="BA1" s="73"/>
+      <c r="BB1" s="73"/>
+      <c r="BC1" s="73"/>
+      <c r="BD1" s="73"/>
+      <c r="BE1" s="73"/>
+      <c r="BF1" s="73"/>
+      <c r="BH1" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="BI1" s="68"/>
-      <c r="BJ1" s="68"/>
-      <c r="BK1" s="68"/>
-      <c r="BL1" s="68"/>
-      <c r="BM1" s="68"/>
-      <c r="BN1" s="68"/>
-      <c r="BO1" s="68"/>
-      <c r="BP1" s="68"/>
-      <c r="BQ1" s="68"/>
-      <c r="BR1" s="68"/>
-      <c r="BS1" s="68"/>
-      <c r="BT1" s="68"/>
+      <c r="BI1" s="73"/>
+      <c r="BJ1" s="73"/>
+      <c r="BK1" s="73"/>
+      <c r="BL1" s="73"/>
+      <c r="BM1" s="73"/>
+      <c r="BN1" s="73"/>
+      <c r="BO1" s="73"/>
+      <c r="BP1" s="73"/>
+      <c r="BQ1" s="73"/>
+      <c r="BR1" s="73"/>
+      <c r="BS1" s="73"/>
+      <c r="BT1" s="73"/>
     </row>
     <row r="2" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
       <c r="B2" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="7" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="J2" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="K2" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="L2" s="7" t="s">
         <v>30</v>
       </c>
       <c r="M2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="N2" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="O2" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="P2" s="7" t="s">
         <v>31</v>
@@ -15225,35 +15501,35 @@
         <v>24</v>
       </c>
       <c r="S2" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T2" s="7"/>
       <c r="U2" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="V2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="W2" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="W2" s="7" t="s">
+      <c r="X2" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="X2" s="7" t="s">
+      <c r="Y2" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="Y2" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="Z2" s="7" t="s">
         <v>30</v>
       </c>
       <c r="AA2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB2" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AB2" s="7" t="s">
+      <c r="AC2" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="AC2" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="AD2" s="7" t="s">
         <v>31</v>
@@ -15263,35 +15539,35 @@
         <v>24</v>
       </c>
       <c r="AG2" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AH2" s="7"/>
       <c r="AI2" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AJ2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK2" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="AK2" s="7" t="s">
+      <c r="AL2" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="AL2" s="7" t="s">
+      <c r="AM2" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="AM2" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="AN2" s="7" t="s">
         <v>30</v>
       </c>
       <c r="AO2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP2" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AP2" s="7" t="s">
+      <c r="AQ2" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="AQ2" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="AR2" s="7" t="s">
         <v>31</v>
@@ -15301,35 +15577,35 @@
         <v>24</v>
       </c>
       <c r="AU2" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AV2" s="7"/>
       <c r="AW2" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AX2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="AY2" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="AY2" s="7" t="s">
+      <c r="AZ2" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="AZ2" s="7" t="s">
+      <c r="BA2" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="BA2" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="BB2" s="7" t="s">
         <v>30</v>
       </c>
       <c r="BC2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="BD2" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="BD2" s="7" t="s">
+      <c r="BE2" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="BE2" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="BF2" s="7" t="s">
         <v>31</v>
@@ -15338,35 +15614,35 @@
         <v>24</v>
       </c>
       <c r="BI2" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="BJ2" s="7"/>
       <c r="BK2" s="7" t="s">
         <v>1</v>
       </c>
       <c r="BL2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="BM2" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="BM2" s="7" t="s">
+      <c r="BN2" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="BN2" s="7" t="s">
+      <c r="BO2" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="BO2" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="BP2" s="7" t="s">
         <v>30</v>
       </c>
       <c r="BQ2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="BR2" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="BR2" s="7" t="s">
+      <c r="BS2" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="BS2" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="BT2" s="7" t="s">
         <v>31</v>
@@ -16532,7 +16808,7 @@
     </row>
     <row r="9" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>42</v>
+        <v>115</v>
       </c>
       <c r="B9" s="9">
         <v>5.0098320000000002E-2</v>
@@ -16724,29 +17000,110 @@
       </c>
     </row>
     <row r="10" spans="1:72" x14ac:dyDescent="0.2">
-      <c r="B10" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="E10" s="3"/>
+      <c r="A10" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" s="9">
+        <v>0.10280209999999999</v>
+      </c>
+      <c r="E10" s="9">
+        <v>0.1075291</v>
+      </c>
       <c r="F10" s="3"/>
-      <c r="G10" s="5" t="s">
-        <v>111</v>
+      <c r="G10" s="9">
+        <v>0.10817350000000001</v>
+      </c>
+      <c r="H10" s="9">
+        <v>9.228066E-2</v>
+      </c>
+      <c r="I10" s="9">
+        <v>0.1060107</v>
+      </c>
+      <c r="J10" s="9">
+        <v>9.7550999999999999E-2</v>
+      </c>
+      <c r="K10" s="5">
+        <v>0.1259082</v>
+      </c>
+      <c r="L10" s="5">
+        <v>0.1238412</v>
+      </c>
+      <c r="M10" s="5">
+        <v>0.1233062</v>
+      </c>
+      <c r="N10" s="5">
+        <v>0.13616719999999999</v>
+      </c>
+      <c r="O10" s="5">
+        <v>0.13653190000000001</v>
+      </c>
+      <c r="P10" s="5">
+        <v>0.15909490000000001</v>
       </c>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="3"/>
+      <c r="AC10" s="3"/>
+      <c r="AD10" s="3"/>
       <c r="AG10" s="3"/>
       <c r="AH10" s="3"/>
+      <c r="AI10" s="3"/>
+      <c r="AJ10" s="3"/>
+      <c r="AK10" s="3"/>
+      <c r="AL10" s="3"/>
+      <c r="AM10" s="3"/>
+      <c r="AN10" s="3"/>
+      <c r="AO10" s="3"/>
+      <c r="AP10" s="3"/>
+      <c r="AQ10" s="3"/>
+      <c r="AR10" s="3"/>
       <c r="AU10" s="3"/>
       <c r="AV10" s="3"/>
+      <c r="AW10" s="3"/>
+      <c r="AX10" s="3"/>
+      <c r="AY10" s="3"/>
+      <c r="AZ10" s="3"/>
+      <c r="BA10" s="3"/>
+      <c r="BB10" s="3"/>
+      <c r="BC10" s="3"/>
+      <c r="BD10" s="3"/>
+      <c r="BE10" s="3"/>
+      <c r="BF10" s="3"/>
       <c r="BI10" s="3"/>
       <c r="BJ10" s="3"/>
+      <c r="BK10" s="3"/>
+      <c r="BL10" s="3"/>
+      <c r="BM10" s="3"/>
+      <c r="BN10" s="3"/>
+      <c r="BO10" s="3"/>
+      <c r="BP10" s="3"/>
+      <c r="BQ10" s="3"/>
+      <c r="BR10" s="3"/>
+      <c r="BS10" s="3"/>
+      <c r="BT10" s="3"/>
     </row>
     <row r="11" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="B11" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>114</v>
+      </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
+      <c r="G11" s="5" t="s">
+        <v>110</v>
+      </c>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="AG11" s="3"/>
@@ -16757,140 +17114,60 @@
       <c r="BJ11" s="3"/>
     </row>
     <row r="12" spans="1:72" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E12" s="3">
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="AG12" s="3"/>
+      <c r="AH12" s="3"/>
+      <c r="AU12" s="3"/>
+      <c r="AV12" s="3"/>
+      <c r="BI12" s="3"/>
+      <c r="BJ12" s="3"/>
+    </row>
+    <row r="13" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="3">
         <f>E5</f>
         <v>218.81880000000001</v>
       </c>
-      <c r="F12" s="3">
-        <f>(E12+G12)/2</f>
+      <c r="F13" s="3">
+        <f>(E13+G13)/2</f>
         <v>217.03065000000001</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G13" s="3">
         <f>G5</f>
         <v>215.24250000000001</v>
-      </c>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="S12" s="3">
-        <f>S5</f>
-        <v>227.85480000000001</v>
-      </c>
-      <c r="T12" s="3">
-        <f>(S12+U12)/2</f>
-        <v>222.51765</v>
-      </c>
-      <c r="U12" s="3">
-        <f>U5</f>
-        <v>217.18049999999999</v>
-      </c>
-      <c r="AG12" s="3">
-        <f>AG5</f>
-        <v>231.56800000000001</v>
-      </c>
-      <c r="AH12" s="3">
-        <f>(AG12+AI12)/2</f>
-        <v>225.72200000000001</v>
-      </c>
-      <c r="AI12" s="3">
-        <f>AI5</f>
-        <v>219.876</v>
-      </c>
-      <c r="AJ12" s="4"/>
-      <c r="AK12" s="4"/>
-      <c r="AL12" s="4"/>
-      <c r="AM12" s="4"/>
-      <c r="AN12" s="4"/>
-      <c r="AO12" s="4"/>
-      <c r="AU12" s="3">
-        <f>AU5</f>
-        <v>218.3228</v>
-      </c>
-      <c r="AV12" s="3">
-        <f>(AU12+AW12)/2</f>
-        <v>216.02625</v>
-      </c>
-      <c r="AW12" s="3">
-        <f>AW5</f>
-        <v>213.72970000000001</v>
-      </c>
-      <c r="AX12" s="4"/>
-      <c r="AY12" s="4"/>
-      <c r="AZ12" s="4"/>
-      <c r="BA12" s="4"/>
-      <c r="BB12" s="4"/>
-      <c r="BC12" s="4"/>
-      <c r="BI12" s="3">
-        <f>BI5</f>
-        <v>220.49270000000001</v>
-      </c>
-      <c r="BJ12" s="3">
-        <f>(BI12+BK12)/2</f>
-        <v>215.58320000000001</v>
-      </c>
-      <c r="BK12" s="3">
-        <f>BK5</f>
-        <v>210.6737</v>
-      </c>
-      <c r="BL12" s="4"/>
-      <c r="BM12" s="4"/>
-      <c r="BN12" s="4"/>
-      <c r="BO12" s="4"/>
-      <c r="BP12" s="4"/>
-      <c r="BQ12" s="4"/>
-    </row>
-    <row r="13" spans="1:72" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="3">
-        <f>E6</f>
-        <v>50.308929999999997</v>
-      </c>
-      <c r="F13" s="3">
-        <f>(E13+G13)/2</f>
-        <v>50.951390000000004</v>
-      </c>
-      <c r="G13" s="3">
-        <f>G6</f>
-        <v>51.593850000000003</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
       <c r="S13" s="3">
-        <f>S6</f>
-        <v>62.643349999999998</v>
+        <f>S5</f>
+        <v>227.85480000000001</v>
       </c>
       <c r="T13" s="3">
         <f>(S13+U13)/2</f>
-        <v>56.16789</v>
+        <v>222.51765</v>
       </c>
       <c r="U13" s="3">
-        <f>U6</f>
-        <v>49.692430000000002</v>
+        <f>U5</f>
+        <v>217.18049999999999</v>
       </c>
       <c r="AG13" s="3">
-        <f>AG6</f>
-        <v>69.184389999999993</v>
+        <f>AG5</f>
+        <v>231.56800000000001</v>
       </c>
       <c r="AH13" s="3">
         <f>(AG13+AI13)/2</f>
-        <v>60.741954999999997</v>
+        <v>225.72200000000001</v>
       </c>
       <c r="AI13" s="3">
-        <f>AI6</f>
-        <v>52.299520000000001</v>
+        <f>AI5</f>
+        <v>219.876</v>
       </c>
       <c r="AJ13" s="4"/>
       <c r="AK13" s="4"/>
@@ -16899,16 +17176,16 @@
       <c r="AN13" s="4"/>
       <c r="AO13" s="4"/>
       <c r="AU13" s="3">
-        <f>AU6</f>
-        <v>56.850439999999999</v>
+        <f>AU5</f>
+        <v>218.3228</v>
       </c>
       <c r="AV13" s="3">
         <f>(AU13+AW13)/2</f>
-        <v>54.765509999999999</v>
+        <v>216.02625</v>
       </c>
       <c r="AW13" s="3">
-        <f>AW6</f>
-        <v>52.680579999999999</v>
+        <f>AW5</f>
+        <v>213.72970000000001</v>
       </c>
       <c r="AX13" s="4"/>
       <c r="AY13" s="4"/>
@@ -16917,16 +17194,16 @@
       <c r="BB13" s="4"/>
       <c r="BC13" s="4"/>
       <c r="BI13" s="3">
-        <f>BI6</f>
-        <v>67.921319999999994</v>
+        <f>BI5</f>
+        <v>220.49270000000001</v>
       </c>
       <c r="BJ13" s="3">
         <f>(BI13+BK13)/2</f>
-        <v>59.896394999999998</v>
+        <v>215.58320000000001</v>
       </c>
       <c r="BK13" s="3">
-        <f>BK6</f>
-        <v>51.871470000000002</v>
+        <f>BK5</f>
+        <v>210.6737</v>
       </c>
       <c r="BL13" s="4"/>
       <c r="BM13" s="4"/>
@@ -16937,54 +17214,89 @@
     </row>
     <row r="14" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="E14" s="3">
-        <f>E9</f>
-        <v>9.5778849999999999E-2</v>
+        <f>E6</f>
+        <v>50.308929999999997</v>
       </c>
       <c r="F14" s="3">
         <f>(E14+G14)/2</f>
-        <v>0.110467175</v>
+        <v>50.951390000000004</v>
       </c>
       <c r="G14" s="3">
-        <f>G9</f>
-        <v>0.1251555</v>
+        <f>G6</f>
+        <v>51.593850000000003</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
-      <c r="W14" s="4"/>
-      <c r="X14" s="4"/>
-      <c r="Y14" s="4"/>
-      <c r="Z14" s="4"/>
-      <c r="AA14" s="4"/>
-      <c r="AG14" s="3"/>
-      <c r="AH14" s="3"/>
-      <c r="AI14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="S14" s="3">
+        <f>S6</f>
+        <v>62.643349999999998</v>
+      </c>
+      <c r="T14" s="3">
+        <f>(S14+U14)/2</f>
+        <v>56.16789</v>
+      </c>
+      <c r="U14" s="3">
+        <f>U6</f>
+        <v>49.692430000000002</v>
+      </c>
+      <c r="AG14" s="3">
+        <f>AG6</f>
+        <v>69.184389999999993</v>
+      </c>
+      <c r="AH14" s="3">
+        <f>(AG14+AI14)/2</f>
+        <v>60.741954999999997</v>
+      </c>
+      <c r="AI14" s="3">
+        <f>AI6</f>
+        <v>52.299520000000001</v>
+      </c>
       <c r="AJ14" s="4"/>
       <c r="AK14" s="4"/>
       <c r="AL14" s="4"/>
       <c r="AM14" s="4"/>
       <c r="AN14" s="4"/>
       <c r="AO14" s="4"/>
-      <c r="AU14" s="3"/>
-      <c r="AV14" s="3"/>
-      <c r="AW14" s="4"/>
+      <c r="AU14" s="3">
+        <f>AU6</f>
+        <v>56.850439999999999</v>
+      </c>
+      <c r="AV14" s="3">
+        <f>(AU14+AW14)/2</f>
+        <v>54.765509999999999</v>
+      </c>
+      <c r="AW14" s="3">
+        <f>AW6</f>
+        <v>52.680579999999999</v>
+      </c>
       <c r="AX14" s="4"/>
       <c r="AY14" s="4"/>
       <c r="AZ14" s="4"/>
       <c r="BA14" s="4"/>
       <c r="BB14" s="4"/>
       <c r="BC14" s="4"/>
-      <c r="BI14" s="3"/>
-      <c r="BJ14" s="3"/>
-      <c r="BK14" s="4"/>
+      <c r="BI14" s="3">
+        <f>BI6</f>
+        <v>67.921319999999994</v>
+      </c>
+      <c r="BJ14" s="3">
+        <f>(BI14+BK14)/2</f>
+        <v>59.896394999999998</v>
+      </c>
+      <c r="BK14" s="3">
+        <f>BK6</f>
+        <v>51.871470000000002</v>
+      </c>
       <c r="BL14" s="4"/>
       <c r="BM14" s="4"/>
       <c r="BN14" s="4"/>
@@ -16993,9 +17305,21 @@
       <c r="BQ14" s="4"/>
     </row>
     <row r="15" spans="1:72" x14ac:dyDescent="0.2">
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="4"/>
+      <c r="A15" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="3">
+        <f>E9</f>
+        <v>9.5778849999999999E-2</v>
+      </c>
+      <c r="F15" s="3">
+        <f>(E15+G15)/2</f>
+        <v>0.110467175</v>
+      </c>
+      <c r="G15" s="3">
+        <f>G9</f>
+        <v>0.1251555</v>
+      </c>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
@@ -17040,13 +17364,11 @@
     <row r="16" spans="1:72" x14ac:dyDescent="0.2">
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="4"/>
@@ -17076,12 +17398,8 @@
       <c r="BC16" s="4"/>
       <c r="BI16" s="3"/>
       <c r="BJ16" s="3"/>
-      <c r="BK16" s="9">
-        <v>1.3998660000000001</v>
-      </c>
-      <c r="BL16" s="9">
-        <v>56.940649999999998</v>
-      </c>
+      <c r="BK16" s="4"/>
+      <c r="BL16" s="4"/>
       <c r="BM16" s="4"/>
       <c r="BN16" s="4"/>
       <c r="BO16" s="4"/>
@@ -17091,20 +17409,13 @@
     <row r="17" spans="2:69" x14ac:dyDescent="0.2">
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
-      <c r="G17" s="9" t="s">
-        <v>110</v>
-      </c>
+      <c r="G17" s="9"/>
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
       <c r="M17" s="9"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
       <c r="U17" s="4"/>
@@ -17134,11 +17445,11 @@
       <c r="BC17" s="4"/>
       <c r="BI17" s="3"/>
       <c r="BJ17" s="3"/>
-      <c r="BK17" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="BL17" s="9" t="s">
-        <v>101</v>
+      <c r="BK17" s="9">
+        <v>1.3998660000000001</v>
+      </c>
+      <c r="BL17" s="9">
+        <v>56.940649999999998</v>
       </c>
       <c r="BM17" s="4"/>
       <c r="BN17" s="4"/>
@@ -17147,17 +17458,24 @@
       <c r="BQ17" s="4"/>
     </row>
     <row r="18" spans="2:69" x14ac:dyDescent="0.2">
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="9" t="s">
+        <v>109</v>
+      </c>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
       <c r="M18" s="9"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
       <c r="U18" s="4"/>
       <c r="V18" s="4"/>
       <c r="W18" s="4"/>
@@ -17165,6 +17483,8 @@
       <c r="Y18" s="4"/>
       <c r="Z18" s="4"/>
       <c r="AA18" s="4"/>
+      <c r="AG18" s="3"/>
+      <c r="AH18" s="3"/>
       <c r="AI18" s="4"/>
       <c r="AJ18" s="4"/>
       <c r="AK18" s="4"/>
@@ -17172,6 +17492,8 @@
       <c r="AM18" s="4"/>
       <c r="AN18" s="4"/>
       <c r="AO18" s="4"/>
+      <c r="AU18" s="3"/>
+      <c r="AV18" s="3"/>
       <c r="AW18" s="4"/>
       <c r="AX18" s="4"/>
       <c r="AY18" s="4"/>
@@ -17179,11 +17501,13 @@
       <c r="BA18" s="4"/>
       <c r="BB18" s="4"/>
       <c r="BC18" s="4"/>
+      <c r="BI18" s="3"/>
+      <c r="BJ18" s="3"/>
       <c r="BK18" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="BL18" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="BM18" s="4"/>
       <c r="BN18" s="4"/>
@@ -17194,6 +17518,8 @@
     <row r="19" spans="2:69" x14ac:dyDescent="0.2">
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
@@ -17201,18 +17527,42 @@
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="4"/>
+      <c r="W19" s="4"/>
+      <c r="X19" s="4"/>
+      <c r="Y19" s="4"/>
+      <c r="Z19" s="4"/>
+      <c r="AA19" s="4"/>
+      <c r="AI19" s="4"/>
+      <c r="AJ19" s="4"/>
+      <c r="AK19" s="4"/>
+      <c r="AL19" s="4"/>
+      <c r="AM19" s="4"/>
+      <c r="AN19" s="4"/>
+      <c r="AO19" s="4"/>
+      <c r="AW19" s="4"/>
+      <c r="AX19" s="4"/>
+      <c r="AY19" s="4"/>
+      <c r="AZ19" s="4"/>
+      <c r="BA19" s="4"/>
+      <c r="BB19" s="4"/>
+      <c r="BC19" s="4"/>
       <c r="BK19" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="BL19" s="9" t="s">
-        <v>103</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="BM19" s="4"/>
+      <c r="BN19" s="4"/>
+      <c r="BO19" s="4"/>
+      <c r="BP19" s="4"/>
+      <c r="BQ19" s="4"/>
     </row>
     <row r="20" spans="2:69" x14ac:dyDescent="0.2">
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
@@ -17221,13 +17571,14 @@
       <c r="L20" s="9"/>
       <c r="M20" s="9"/>
       <c r="BK20" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="BL20" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="2:69" x14ac:dyDescent="0.2">
+      <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
@@ -17239,13 +17590,14 @@
       <c r="L21" s="9"/>
       <c r="M21" s="9"/>
       <c r="BK21" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="BL21" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="2:69" x14ac:dyDescent="0.2">
+      <c r="C22" s="9"/>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
       <c r="G22" s="9"/>
@@ -17256,10 +17608,10 @@
       <c r="L22" s="9"/>
       <c r="M22" s="9"/>
       <c r="BK22" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="BL22" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="2:69" x14ac:dyDescent="0.2">
@@ -17273,13 +17625,15 @@
       <c r="L23" s="9"/>
       <c r="M23" s="9"/>
       <c r="BK23" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="BL23" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24" spans="2:69" x14ac:dyDescent="0.2">
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
@@ -17288,10 +17642,10 @@
       <c r="L24" s="9"/>
       <c r="M24" s="9"/>
       <c r="BK24" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="BL24" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25" spans="2:69" x14ac:dyDescent="0.2">
@@ -17303,10 +17657,25 @@
       <c r="L25" s="9"/>
       <c r="M25" s="9"/>
       <c r="BK25" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="BL25" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="26" spans="2:69" x14ac:dyDescent="0.2">
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="BK26" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="BL26" s="9" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/FRS_tabs.xlsx
+++ b/FRS_tabs.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bryankim/Documents/NBER/Framingham /"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bryankim/Documents/NBER/Case Deaton/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1360" yWindow="460" windowWidth="26280" windowHeight="16820" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="4080" yWindow="460" windowWidth="26280" windowHeight="16820" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="FRS - All" sheetId="2" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="146">
   <si>
     <t>FRS Average</t>
   </si>
@@ -644,7 +644,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -667,12 +667,6 @@
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -783,7 +777,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -823,7 +817,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -834,7 +827,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -873,8 +865,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -893,6 +883,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -902,9 +895,11 @@
     <xf numFmtId="2" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="52">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1226,8 +1221,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-377897984"/>
-        <c:axId val="-379884416"/>
+        <c:axId val="1243789440"/>
+        <c:axId val="1244210448"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1367,11 +1362,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-377891280"/>
-        <c:axId val="-377893600"/>
+        <c:axId val="1241584400"/>
+        <c:axId val="1245196704"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-377897984"/>
+        <c:axId val="1243789440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1411,7 +1406,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-379884416"/>
+        <c:crossAx val="1244210448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1419,7 +1414,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-379884416"/>
+        <c:axId val="1244210448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="12.0"/>
@@ -1514,13 +1509,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-377897984"/>
+        <c:crossAx val="1243789440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-377893600"/>
+        <c:axId val="1245196704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.08"/>
@@ -1558,12 +1553,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-377891280"/>
+        <c:crossAx val="1241584400"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-377891280"/>
+        <c:axId val="1241584400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1572,7 +1567,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-377893600"/>
+        <c:crossAx val="1245196704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2578,11 +2573,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-377846928"/>
-        <c:axId val="-377843664"/>
+        <c:axId val="1244994784"/>
+        <c:axId val="1245128912"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-377846928"/>
+        <c:axId val="1244994784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2625,7 +2620,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-377843664"/>
+        <c:crossAx val="1245128912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2633,7 +2628,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-377843664"/>
+        <c:axId val="1245128912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="10.0"/>
@@ -2740,7 +2735,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-377846928"/>
+        <c:crossAx val="1244994784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2878,7 +2873,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3734,11 +3728,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-480298096"/>
-        <c:axId val="-480294832"/>
+        <c:axId val="1241595280"/>
+        <c:axId val="1241597568"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-480298096"/>
+        <c:axId val="1241595280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3781,7 +3775,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-480294832"/>
+        <c:crossAx val="1241597568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3789,7 +3783,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-480294832"/>
+        <c:axId val="1241597568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3840,7 +3834,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-480298096"/>
+        <c:crossAx val="1241595280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3870,7 +3864,6 @@
         <c:idx val="7"/>
         <c:delete val="1"/>
       </c:legendEntry>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3979,7 +3972,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4200,8 +4192,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-369072752"/>
-        <c:axId val="-369070000"/>
+        <c:axId val="1241941408"/>
+        <c:axId val="1241943728"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4395,11 +4387,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-369062480"/>
-        <c:axId val="-369066240"/>
+        <c:axId val="1242090976"/>
+        <c:axId val="1241947120"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-369072752"/>
+        <c:axId val="1241941408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4442,7 +4434,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-369070000"/>
+        <c:crossAx val="1241943728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4450,7 +4442,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-369070000"/>
+        <c:axId val="1241943728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="180.0"/>
@@ -4497,7 +4489,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4558,12 +4549,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-369072752"/>
+        <c:crossAx val="1241941408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-369066240"/>
+        <c:axId val="1241947120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4595,7 +4586,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4656,12 +4646,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-369062480"/>
+        <c:crossAx val="1242090976"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-369062480"/>
+        <c:axId val="1242090976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4670,7 +4660,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-369066240"/>
+        <c:crossAx val="1241947120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4766,7 +4756,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5482,11 +5471,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-377785536"/>
-        <c:axId val="-377782544"/>
+        <c:axId val="1242099680"/>
+        <c:axId val="1242067632"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-377785536"/>
+        <c:axId val="1242099680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5529,7 +5518,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-377782544"/>
+        <c:crossAx val="1242067632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5537,7 +5526,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-377782544"/>
+        <c:axId val="1242067632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="180.0"/>
@@ -5589,7 +5578,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-377785536"/>
+        <c:crossAx val="1242099680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5619,7 +5608,6 @@
         <c:idx val="7"/>
         <c:delete val="1"/>
       </c:legendEntry>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5728,7 +5716,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5925,11 +5912,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-478387536"/>
-        <c:axId val="-478338416"/>
+        <c:axId val="1242081408"/>
+        <c:axId val="1242051120"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-478387536"/>
+        <c:axId val="1242081408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5972,7 +5959,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-478338416"/>
+        <c:crossAx val="1242051120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5980,7 +5967,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-478338416"/>
+        <c:axId val="1242051120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6031,7 +6018,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-478387536"/>
+        <c:crossAx val="1242081408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9429,7 +9416,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3814DCA5-E739-48F8-B0E6-5DAE3BD8D6DF}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3814DCA5-E739-48F8-B0E6-5DAE3BD8D6DF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9462,7 +9449,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F5CB41B8-13DC-4EAE-B2CA-47CBAE4DA728}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5CB41B8-13DC-4EAE-B2CA-47CBAE4DA728}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9495,7 +9482,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9718F15D-DDA3-4502-9814-C910CFD7923C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9718F15D-DDA3-4502-9814-C910CFD7923C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9538,7 +9525,7 @@
         <xdr:cNvPr id="3" name="Straight Connector 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEDB33E-0C98-4268-8DFA-48B4492B8054}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEDB33E-0C98-4268-8DFA-48B4492B8054}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9588,7 +9575,7 @@
         <xdr:cNvPr id="5" name="Straight Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A5DCBB81-D5FD-41FB-8679-A378BAA3A6A0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5DCBB81-D5FD-41FB-8679-A378BAA3A6A0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9638,7 +9625,7 @@
         <xdr:cNvPr id="7" name="Straight Connector 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B8871975-A065-40B2-A8DF-972697C7B8CD}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8871975-A065-40B2-A8DF-972697C7B8CD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9688,7 +9675,7 @@
         <xdr:cNvPr id="9" name="Straight Connector 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A40778BC-5665-464C-BFBB-9C5CBCE83F7A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A40778BC-5665-464C-BFBB-9C5CBCE83F7A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9738,7 +9725,7 @@
         <xdr:cNvPr id="11" name="Straight Connector 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{50138399-B3EB-434F-836D-1875B4B06BE1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50138399-B3EB-434F-836D-1875B4B06BE1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9791,7 +9778,7 @@
         <xdr:cNvPr id="12" name="Straight Connector 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6D660D21-B51A-446B-942C-1A3FCF697F7E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D660D21-B51A-446B-942C-1A3FCF697F7E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9841,7 +9828,7 @@
         <xdr:cNvPr id="13" name="Straight Connector 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{199C4030-AB22-4529-BEE1-4A656793B298}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{199C4030-AB22-4529-BEE1-4A656793B298}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9891,7 +9878,7 @@
         <xdr:cNvPr id="14" name="Freeform: Shape 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B9175F49-0BEE-4CB9-BB7E-8989C18D5AF1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9175F49-0BEE-4CB9-BB7E-8989C18D5AF1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10035,7 +10022,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6799A617-2199-4FA0-9AAE-B022587C939D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6799A617-2199-4FA0-9AAE-B022587C939D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10068,7 +10055,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CE41EAA9-E7EF-4331-BAC6-50A2C67981F5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE41EAA9-E7EF-4331-BAC6-50A2C67981F5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10101,7 +10088,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7AFBC52-30D3-4075-9EC8-31B7671415DF}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7AFBC52-30D3-4075-9EC8-31B7671415DF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10424,10 +10411,10 @@
   <dimension ref="A1:AB105"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B68" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B85" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G98" sqref="G98"/>
+      <selection pane="bottomRight" activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10438,7 +10425,7 @@
     <col min="7" max="8" width="11.83203125" style="12" customWidth="1"/>
     <col min="9" max="9" width="8.83203125" style="12" customWidth="1"/>
     <col min="10" max="10" width="11.83203125" style="12" customWidth="1"/>
-    <col min="11" max="20" width="13.5" style="39" bestFit="1" customWidth="1"/>
+    <col min="11" max="20" width="13.5" style="37" bestFit="1" customWidth="1"/>
     <col min="21" max="16384" width="9.33203125" style="12"/>
   </cols>
   <sheetData>
@@ -10447,26 +10434,26 @@
         <v>53</v>
       </c>
       <c r="C1" s="23"/>
-      <c r="D1" s="71" t="s">
+      <c r="D1" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
       <c r="H1" s="24"/>
       <c r="J1" s="24"/>
-      <c r="K1" s="72" t="s">
+      <c r="K1" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -10489,39 +10476,39 @@
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
       <c r="J2" s="13"/>
-      <c r="K2" s="43" t="s">
+      <c r="K2" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="43" t="s">
+      <c r="L2" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="43" t="s">
+      <c r="M2" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="43" t="s">
+      <c r="N2" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="43" t="s">
+      <c r="O2" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="43" t="s">
+      <c r="P2" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="43" t="s">
+      <c r="Q2" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="R2" s="43" t="s">
+      <c r="R2" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="S2" s="43" t="s">
+      <c r="S2" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="T2" s="43" t="s">
+      <c r="T2" s="41" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="49" t="s">
         <v>81</v>
       </c>
       <c r="D3" s="12">
@@ -10537,36 +10524,36 @@
       <c r="K3" s="2">
         <v>14.89</v>
       </c>
-      <c r="L3" s="39">
+      <c r="L3" s="37">
         <v>14.13</v>
       </c>
-      <c r="M3" s="39">
+      <c r="M3" s="37">
         <v>14.23</v>
       </c>
-      <c r="N3" s="39">
+      <c r="N3" s="37">
         <v>13.69</v>
       </c>
-      <c r="O3" s="39">
+      <c r="O3" s="37">
         <v>13.7</v>
       </c>
-      <c r="P3" s="39">
+      <c r="P3" s="37">
         <v>13.56</v>
       </c>
-      <c r="Q3" s="39">
+      <c r="Q3" s="37">
         <v>13.77</v>
       </c>
-      <c r="R3" s="39">
+      <c r="R3" s="37">
         <v>13.64</v>
       </c>
-      <c r="S3" s="39">
+      <c r="S3" s="37">
         <v>13.98</v>
       </c>
-      <c r="T3" s="39">
+      <c r="T3" s="37">
         <v>14.21</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="60" t="s">
         <v>89</v>
       </c>
       <c r="B4" s="9">
@@ -10584,79 +10571,85 @@
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="62"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="35"/>
-      <c r="O5" s="35"/>
-      <c r="P5" s="35"/>
-      <c r="Q5" s="35"/>
-      <c r="R5" s="35"/>
-      <c r="S5" s="35"/>
-      <c r="T5" s="35"/>
-      <c r="V5" s="57" t="s">
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="34"/>
+      <c r="S5" s="34"/>
+      <c r="T5" s="34"/>
+      <c r="V5" s="55" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="22"/>
+      <c r="B6" s="74">
+        <v>16.140450000000001</v>
+      </c>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
+      <c r="E6" s="74">
+        <v>15.07868</v>
+      </c>
       <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
+      <c r="G6" s="74">
+        <v>15.15945</v>
+      </c>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
-      <c r="K6" s="54">
+      <c r="K6" s="52">
         <v>14.6517</v>
       </c>
-      <c r="L6" s="54">
+      <c r="L6" s="52">
         <v>14.129759999999999</v>
       </c>
-      <c r="M6" s="54">
+      <c r="M6" s="52">
         <v>13.81373</v>
       </c>
-      <c r="N6" s="54">
+      <c r="N6" s="52">
         <v>13.508789999999999</v>
       </c>
-      <c r="O6" s="54">
+      <c r="O6" s="52">
         <v>13.28754</v>
       </c>
-      <c r="P6" s="54">
+      <c r="P6" s="52">
         <v>13.151070000000001</v>
       </c>
-      <c r="Q6" s="54">
+      <c r="Q6" s="52">
         <v>13.90686</v>
       </c>
-      <c r="R6" s="54">
+      <c r="R6" s="52">
         <v>13.593579999999999</v>
       </c>
-      <c r="S6" s="54">
+      <c r="S6" s="52">
         <v>13.96894</v>
       </c>
-      <c r="T6" s="54">
+      <c r="T6" s="52">
         <v>13.883570000000001</v>
       </c>
-      <c r="V6" s="55" t="s">
+      <c r="V6" s="53" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="49" t="s">
         <v>80</v>
       </c>
       <c r="F7" s="22"/>
@@ -10664,35 +10657,35 @@
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
       <c r="J7" s="18"/>
-      <c r="K7" s="76"/>
-      <c r="L7" s="76"/>
-      <c r="M7" s="76"/>
-      <c r="N7" s="76"/>
-      <c r="O7" s="76"/>
-      <c r="P7" s="76"/>
-      <c r="Q7" s="76"/>
-      <c r="R7" s="76"/>
-      <c r="S7" s="76"/>
-      <c r="T7" s="76"/>
-      <c r="V7" s="56" t="s">
+      <c r="K7" s="69"/>
+      <c r="L7" s="69"/>
+      <c r="M7" s="69"/>
+      <c r="N7" s="69"/>
+      <c r="O7" s="69"/>
+      <c r="P7" s="69"/>
+      <c r="Q7" s="69"/>
+      <c r="R7" s="69"/>
+      <c r="S7" s="69"/>
+      <c r="T7" s="69"/>
+      <c r="V7" s="54" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="27" t="s">
         <v>26</v>
       </c>
       <c r="F8" s="22"/>
       <c r="H8" s="22"/>
       <c r="U8" s="9"/>
-      <c r="V8" s="63" t="s">
+      <c r="V8" s="59" t="s">
         <v>87</v>
       </c>
       <c r="W8" s="9"/>
       <c r="X8" s="9"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A9" s="64" t="s">
+      <c r="A9" s="60" t="s">
         <v>90</v>
       </c>
       <c r="B9" s="12">
@@ -10707,26 +10700,26 @@
       </c>
       <c r="H9" s="9"/>
       <c r="U9" s="9"/>
-      <c r="V9" s="65"/>
+      <c r="V9" s="61"/>
       <c r="W9" s="9"/>
       <c r="X9" s="9"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="42" t="s">
         <v>76</v>
       </c>
       <c r="F10" s="22"/>
       <c r="H10" s="9"/>
-      <c r="K10" s="74"/>
-      <c r="L10" s="75"/>
-      <c r="M10" s="75"/>
-      <c r="N10" s="75"/>
-      <c r="O10" s="75"/>
-      <c r="P10" s="75"/>
-      <c r="Q10" s="75"/>
-      <c r="R10" s="75"/>
-      <c r="S10" s="75"/>
-      <c r="T10" s="75"/>
+      <c r="K10" s="67"/>
+      <c r="L10" s="68"/>
+      <c r="M10" s="68"/>
+      <c r="N10" s="68"/>
+      <c r="O10" s="68"/>
+      <c r="P10" s="68"/>
+      <c r="Q10" s="68"/>
+      <c r="R10" s="68"/>
+      <c r="S10" s="68"/>
+      <c r="T10" s="68"/>
       <c r="U10" s="9"/>
       <c r="V10" s="9"/>
       <c r="W10" s="9"/>
@@ -10734,39 +10727,48 @@
       <c r="Y10" s="9"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A11" s="44" t="s">
+      <c r="A11" s="42" t="s">
         <v>75</v>
       </c>
+      <c r="B11" s="74">
+        <v>15.9945</v>
+      </c>
+      <c r="E11" s="74">
+        <v>15.1851</v>
+      </c>
       <c r="F11" s="22"/>
+      <c r="G11" s="74">
+        <v>15.26534</v>
+      </c>
       <c r="H11" s="9"/>
-      <c r="K11" s="54">
+      <c r="K11" s="52">
         <v>14.78481</v>
       </c>
-      <c r="L11" s="54">
+      <c r="L11" s="52">
         <v>14.49381</v>
       </c>
-      <c r="M11" s="54">
+      <c r="M11" s="52">
         <v>14.02425</v>
       </c>
-      <c r="N11" s="54">
+      <c r="N11" s="52">
         <v>13.73213</v>
       </c>
-      <c r="O11" s="54">
+      <c r="O11" s="52">
         <v>13.476990000000001</v>
       </c>
-      <c r="P11" s="54">
+      <c r="P11" s="52">
         <v>13.151070000000001</v>
       </c>
-      <c r="Q11" s="54">
+      <c r="Q11" s="52">
         <v>13.93413</v>
       </c>
-      <c r="R11" s="54">
+      <c r="R11" s="52">
         <v>13.470800000000001</v>
       </c>
-      <c r="S11" s="54">
+      <c r="S11" s="52">
         <v>13.803900000000001</v>
       </c>
-      <c r="T11" s="54">
+      <c r="T11" s="52">
         <v>13.51606</v>
       </c>
       <c r="U11" s="9"/>
@@ -10776,21 +10778,21 @@
       <c r="Y11" s="9"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="42" t="s">
         <v>77</v>
       </c>
       <c r="F12" s="22"/>
       <c r="H12"/>
-      <c r="K12" s="76"/>
-      <c r="L12" s="76"/>
-      <c r="M12" s="76"/>
-      <c r="N12" s="76"/>
-      <c r="O12" s="76"/>
-      <c r="P12" s="76"/>
-      <c r="Q12" s="76"/>
-      <c r="R12" s="76"/>
-      <c r="S12" s="76"/>
-      <c r="T12" s="76"/>
+      <c r="K12" s="69"/>
+      <c r="L12" s="69"/>
+      <c r="M12" s="69"/>
+      <c r="N12" s="69"/>
+      <c r="O12" s="69"/>
+      <c r="P12" s="69"/>
+      <c r="Q12" s="69"/>
+      <c r="R12" s="69"/>
+      <c r="S12" s="69"/>
+      <c r="T12" s="69"/>
       <c r="U12" s="9"/>
       <c r="V12" s="9"/>
       <c r="W12" s="9"/>
@@ -10808,7 +10810,7 @@
       <c r="Y13" s="9"/>
     </row>
     <row r="14" spans="1:25" ht="19" x14ac:dyDescent="0.25">
-      <c r="A14" s="38" t="s">
+      <c r="A14" s="36" t="s">
         <v>13</v>
       </c>
       <c r="F14" s="22"/>
@@ -10820,7 +10822,7 @@
       <c r="Y14" s="9"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A15" s="48" t="s">
+      <c r="A15" s="46" t="s">
         <v>32</v>
       </c>
       <c r="D15" s="12">
@@ -10834,34 +10836,34 @@
         <v>18.649999999999999</v>
       </c>
       <c r="H15" s="22"/>
-      <c r="K15" s="39">
+      <c r="K15" s="37">
         <v>16.73</v>
       </c>
-      <c r="L15" s="39">
+      <c r="L15" s="37">
         <v>15.92</v>
       </c>
-      <c r="M15" s="39">
+      <c r="M15" s="37">
         <v>16.13</v>
       </c>
-      <c r="N15" s="39">
+      <c r="N15" s="37">
         <v>16.05</v>
       </c>
-      <c r="O15" s="39">
+      <c r="O15" s="37">
         <v>15.32</v>
       </c>
-      <c r="P15" s="39">
+      <c r="P15" s="37">
         <v>15.06</v>
       </c>
-      <c r="Q15" s="39">
+      <c r="Q15" s="37">
         <v>15.16</v>
       </c>
-      <c r="R15" s="39">
+      <c r="R15" s="37">
         <v>14.88</v>
       </c>
-      <c r="S15" s="39">
+      <c r="S15" s="37">
         <v>15.38</v>
       </c>
-      <c r="T15" s="39">
+      <c r="T15" s="37">
         <v>15.89</v>
       </c>
       <c r="U15" s="9"/>
@@ -10871,7 +10873,7 @@
       <c r="Y15" s="9"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A16" s="52" t="s">
+      <c r="A16" s="50" t="s">
         <v>112</v>
       </c>
       <c r="B16" s="9">
@@ -10892,24 +10894,26 @@
       <c r="Y16" s="9"/>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A17" s="45" t="s">
+      <c r="A17" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="58"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="35"/>
-      <c r="N17" s="35"/>
-      <c r="O17" s="35"/>
-      <c r="P17" s="35"/>
-      <c r="Q17" s="35"/>
-      <c r="R17" s="35"/>
-      <c r="S17" s="35"/>
-      <c r="T17" s="35"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="56"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="34"/>
+      <c r="O17" s="34"/>
+      <c r="P17" s="34"/>
+      <c r="Q17" s="34"/>
+      <c r="R17" s="34"/>
+      <c r="S17" s="34"/>
+      <c r="T17" s="34"/>
       <c r="U17" s="9"/>
       <c r="V17" s="9"/>
       <c r="W17" s="9"/>
@@ -10917,42 +10921,48 @@
       <c r="Y17" s="9"/>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="B18" s="22"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="58"/>
-      <c r="K18" s="54">
+      <c r="B18" s="52">
+        <v>16.7758</v>
+      </c>
+      <c r="E18" s="76">
+        <v>16.876090000000001</v>
+      </c>
+      <c r="F18" s="56"/>
+      <c r="G18" s="76">
+        <v>17.281040000000001</v>
+      </c>
+      <c r="H18" s="56"/>
+      <c r="K18" s="52">
         <v>16.060780000000001</v>
       </c>
-      <c r="L18" s="54">
+      <c r="L18" s="52">
         <v>15.913130000000001</v>
       </c>
-      <c r="M18" s="54">
+      <c r="M18" s="52">
         <v>15.19979</v>
       </c>
-      <c r="N18" s="54">
+      <c r="N18" s="52">
         <v>15.770390000000001</v>
       </c>
-      <c r="O18" s="54">
+      <c r="O18" s="52">
         <v>15.055289999999999</v>
       </c>
-      <c r="P18" s="54">
+      <c r="P18" s="52">
         <v>14.565060000000001</v>
       </c>
-      <c r="Q18" s="54">
+      <c r="Q18" s="52">
         <v>14.871980000000001</v>
       </c>
-      <c r="R18" s="54">
+      <c r="R18" s="52">
         <v>14.92534</v>
       </c>
-      <c r="S18" s="54">
+      <c r="S18" s="52">
         <v>15.377190000000001</v>
       </c>
-      <c r="T18" s="54">
+      <c r="T18" s="52">
         <v>15.666</v>
       </c>
       <c r="U18" s="9"/>
@@ -10962,24 +10972,24 @@
       <c r="Y18" s="9"/>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A19" s="45" t="s">
+      <c r="A19" s="43" t="s">
         <v>87</v>
       </c>
       <c r="B19" s="22"/>
       <c r="E19" s="26"/>
-      <c r="F19" s="58"/>
+      <c r="F19" s="56"/>
       <c r="G19" s="26"/>
-      <c r="H19" s="58"/>
-      <c r="K19" s="76"/>
-      <c r="L19" s="76"/>
-      <c r="M19" s="76"/>
-      <c r="N19" s="76"/>
-      <c r="O19" s="76"/>
-      <c r="P19" s="76"/>
-      <c r="Q19" s="76"/>
-      <c r="R19" s="76"/>
-      <c r="S19" s="76"/>
-      <c r="T19" s="76"/>
+      <c r="H19" s="56"/>
+      <c r="K19" s="69"/>
+      <c r="L19" s="69"/>
+      <c r="M19" s="69"/>
+      <c r="N19" s="69"/>
+      <c r="O19" s="69"/>
+      <c r="P19" s="69"/>
+      <c r="Q19" s="69"/>
+      <c r="R19" s="69"/>
+      <c r="S19" s="69"/>
+      <c r="T19" s="69"/>
       <c r="U19" s="9"/>
       <c r="V19" s="9"/>
       <c r="W19" s="9"/>
@@ -10987,7 +10997,7 @@
       <c r="Y19" s="9"/>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A20" s="46" t="s">
+      <c r="A20" s="44" t="s">
         <v>33</v>
       </c>
       <c r="D20" s="12">
@@ -11001,34 +11011,34 @@
         <v>16.71</v>
       </c>
       <c r="H20" s="22"/>
-      <c r="K20" s="39">
+      <c r="K20" s="37">
         <v>15.27</v>
       </c>
-      <c r="L20" s="39">
+      <c r="L20" s="37">
         <v>15.15</v>
       </c>
-      <c r="M20" s="39">
+      <c r="M20" s="37">
         <v>14.11</v>
       </c>
-      <c r="N20" s="39">
+      <c r="N20" s="37">
         <v>14.28</v>
       </c>
-      <c r="O20" s="39">
+      <c r="O20" s="37">
         <v>14.37</v>
       </c>
-      <c r="P20" s="39">
+      <c r="P20" s="37">
         <v>14.03</v>
       </c>
-      <c r="Q20" s="39">
+      <c r="Q20" s="37">
         <v>14.32</v>
       </c>
-      <c r="R20" s="39">
+      <c r="R20" s="37">
         <v>14.38</v>
       </c>
-      <c r="S20" s="39">
+      <c r="S20" s="37">
         <v>14.62</v>
       </c>
-      <c r="T20" s="39">
+      <c r="T20" s="37">
         <v>14.89</v>
       </c>
       <c r="U20" s="9"/>
@@ -11038,7 +11048,7 @@
       <c r="Y20" s="9"/>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A21" s="52" t="s">
+      <c r="A21" s="50" t="s">
         <v>112</v>
       </c>
       <c r="B21" s="12">
@@ -11059,24 +11069,26 @@
       <c r="Y21" s="9"/>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A22" s="45" t="s">
+      <c r="A22" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="B22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="27"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="22"/>
       <c r="H22" s="22"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="35"/>
-      <c r="M22" s="35"/>
-      <c r="N22" s="35"/>
-      <c r="O22" s="35"/>
-      <c r="P22" s="35"/>
-      <c r="Q22" s="35"/>
-      <c r="R22" s="40"/>
-      <c r="S22" s="40"/>
-      <c r="T22" s="40"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="34"/>
+      <c r="M22" s="34"/>
+      <c r="N22" s="34"/>
+      <c r="O22" s="34"/>
+      <c r="P22" s="34"/>
+      <c r="Q22" s="34"/>
+      <c r="R22" s="38"/>
+      <c r="S22" s="38"/>
+      <c r="T22" s="38"/>
       <c r="U22" s="9"/>
       <c r="V22" s="9"/>
       <c r="W22" s="9"/>
@@ -11084,42 +11096,48 @@
       <c r="Y22" s="9"/>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A23" s="45" t="s">
+      <c r="A23" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="B23" s="22"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="58"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="58"/>
-      <c r="K23" s="54">
+      <c r="B23" s="52">
+        <v>15.64917</v>
+      </c>
+      <c r="E23" s="76">
+        <v>15.37388</v>
+      </c>
+      <c r="F23" s="56"/>
+      <c r="G23" s="76">
+        <v>14.87846</v>
+      </c>
+      <c r="H23" s="56"/>
+      <c r="K23" s="52">
         <v>14.8286</v>
       </c>
-      <c r="L23" s="54">
+      <c r="L23" s="52">
         <v>14.853859999999999</v>
       </c>
-      <c r="M23" s="54">
+      <c r="M23" s="52">
         <v>13.820919999999999</v>
       </c>
-      <c r="N23" s="54">
+      <c r="N23" s="52">
         <v>14.22864</v>
       </c>
-      <c r="O23" s="54">
+      <c r="O23" s="52">
         <v>14.070449999999999</v>
       </c>
-      <c r="P23" s="54">
+      <c r="P23" s="52">
         <v>14.07893</v>
       </c>
-      <c r="Q23" s="54">
+      <c r="Q23" s="52">
         <v>14.91869</v>
       </c>
-      <c r="R23" s="54">
+      <c r="R23" s="52">
         <v>14.273490000000001</v>
       </c>
-      <c r="S23" s="54">
+      <c r="S23" s="52">
         <v>14.439209999999999</v>
       </c>
-      <c r="T23" s="54">
+      <c r="T23" s="52">
         <v>14.72203</v>
       </c>
       <c r="U23" s="9"/>
@@ -11129,24 +11147,24 @@
       <c r="Y23" s="9"/>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A24" s="45" t="s">
+      <c r="A24" s="43" t="s">
         <v>87</v>
       </c>
       <c r="B24" s="22"/>
       <c r="E24" s="26"/>
-      <c r="F24" s="58"/>
+      <c r="F24" s="56"/>
       <c r="G24" s="26"/>
-      <c r="H24" s="58"/>
-      <c r="K24" s="49"/>
-      <c r="L24" s="49"/>
-      <c r="M24" s="49"/>
-      <c r="N24" s="49"/>
-      <c r="O24" s="49"/>
-      <c r="P24" s="49"/>
-      <c r="Q24" s="49"/>
-      <c r="R24" s="49"/>
-      <c r="S24" s="49"/>
-      <c r="T24" s="49"/>
+      <c r="H24" s="56"/>
+      <c r="K24" s="47"/>
+      <c r="L24" s="47"/>
+      <c r="M24" s="47"/>
+      <c r="N24" s="47"/>
+      <c r="O24" s="47"/>
+      <c r="P24" s="47"/>
+      <c r="Q24" s="47"/>
+      <c r="R24" s="47"/>
+      <c r="S24" s="47"/>
+      <c r="T24" s="47"/>
       <c r="U24" s="9"/>
       <c r="V24" s="9"/>
       <c r="W24" s="9"/>
@@ -11154,14 +11172,14 @@
       <c r="Y24" s="9"/>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A25" s="46" t="s">
+      <c r="A25" s="44" t="s">
         <v>34</v>
       </c>
       <c r="B25" s="22"/>
       <c r="E25" s="26"/>
-      <c r="F25" s="58"/>
+      <c r="F25" s="56"/>
       <c r="G25" s="26"/>
-      <c r="H25" s="58"/>
+      <c r="H25" s="56"/>
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
       <c r="M25" s="9"/>
@@ -11179,7 +11197,7 @@
       <c r="Y25" s="9"/>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A26" s="52" t="s">
+      <c r="A26" s="50" t="s">
         <v>112</v>
       </c>
       <c r="B26" s="22">
@@ -11192,17 +11210,17 @@
       <c r="G26" s="12">
         <v>14.31466</v>
       </c>
-      <c r="H26" s="58"/>
-      <c r="K26" s="60"/>
-      <c r="L26" s="60"/>
-      <c r="M26" s="60"/>
-      <c r="N26" s="60"/>
-      <c r="O26" s="60"/>
-      <c r="P26" s="60"/>
-      <c r="Q26" s="60"/>
-      <c r="R26" s="60"/>
-      <c r="S26" s="60"/>
-      <c r="T26" s="60"/>
+      <c r="H26" s="56"/>
+      <c r="K26" s="58"/>
+      <c r="L26" s="58"/>
+      <c r="M26" s="58"/>
+      <c r="N26" s="58"/>
+      <c r="O26" s="58"/>
+      <c r="P26" s="58"/>
+      <c r="Q26" s="58"/>
+      <c r="R26" s="58"/>
+      <c r="S26" s="58"/>
+      <c r="T26" s="58"/>
       <c r="U26" s="9"/>
       <c r="V26" s="9"/>
       <c r="W26" s="9"/>
@@ -11210,24 +11228,26 @@
       <c r="Y26" s="9"/>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A27" s="45" t="s">
+      <c r="A27" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="B27" s="27"/>
-      <c r="E27" s="27"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
       <c r="F27" s="22"/>
-      <c r="G27" s="27"/>
+      <c r="G27" s="22"/>
       <c r="H27" s="22"/>
-      <c r="K27" s="35"/>
-      <c r="L27" s="35"/>
-      <c r="M27" s="35"/>
-      <c r="N27" s="35"/>
-      <c r="O27" s="35"/>
-      <c r="P27" s="35"/>
-      <c r="Q27" s="35"/>
-      <c r="R27" s="40"/>
-      <c r="S27" s="40"/>
-      <c r="T27" s="40"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="34"/>
+      <c r="M27" s="34"/>
+      <c r="N27" s="34"/>
+      <c r="O27" s="34"/>
+      <c r="P27" s="34"/>
+      <c r="Q27" s="34"/>
+      <c r="R27" s="38"/>
+      <c r="S27" s="38"/>
+      <c r="T27" s="38"/>
       <c r="U27" s="9"/>
       <c r="V27" s="9"/>
       <c r="W27" s="9"/>
@@ -11235,40 +11255,48 @@
       <c r="Y27" s="9"/>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A28" s="45" t="s">
+      <c r="A28" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="B28" s="22"/>
+      <c r="B28" s="52">
+        <v>15.62261</v>
+      </c>
+      <c r="E28" s="74">
+        <v>14.39232</v>
+      </c>
       <c r="F28" s="22"/>
+      <c r="G28" s="74">
+        <v>14.31466</v>
+      </c>
       <c r="H28" s="22"/>
-      <c r="K28" s="54">
+      <c r="K28" s="52">
         <v>14.75849</v>
       </c>
-      <c r="L28" s="54">
+      <c r="L28" s="52">
         <v>13.269159999999999</v>
       </c>
-      <c r="M28" s="54">
+      <c r="M28" s="52">
         <v>13.463430000000001</v>
       </c>
-      <c r="N28" s="54">
+      <c r="N28" s="52">
         <v>13.14076</v>
       </c>
-      <c r="O28" s="54">
+      <c r="O28" s="52">
         <v>13.14944</v>
       </c>
-      <c r="P28" s="54">
+      <c r="P28" s="52">
         <v>13.43695</v>
       </c>
-      <c r="Q28" s="54">
+      <c r="Q28" s="52">
         <v>14.17698</v>
       </c>
-      <c r="R28" s="54">
+      <c r="R28" s="52">
         <v>13.59694</v>
       </c>
-      <c r="S28" s="54">
+      <c r="S28" s="52">
         <v>13.997260000000001</v>
       </c>
-      <c r="T28" s="54">
+      <c r="T28" s="52">
         <v>13.32067</v>
       </c>
       <c r="U28" s="9"/>
@@ -11278,22 +11306,22 @@
       <c r="Y28" s="9"/>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A29" s="45" t="s">
+      <c r="A29" s="43" t="s">
         <v>87</v>
       </c>
       <c r="B29" s="22"/>
       <c r="F29" s="22"/>
       <c r="H29" s="22"/>
-      <c r="K29" s="49"/>
-      <c r="L29" s="49"/>
-      <c r="M29" s="49"/>
-      <c r="N29" s="49"/>
-      <c r="O29" s="49"/>
-      <c r="P29" s="49"/>
-      <c r="Q29" s="49"/>
-      <c r="R29" s="49"/>
-      <c r="S29" s="49"/>
-      <c r="T29" s="49"/>
+      <c r="K29" s="47"/>
+      <c r="L29" s="47"/>
+      <c r="M29" s="47"/>
+      <c r="N29" s="47"/>
+      <c r="O29" s="47"/>
+      <c r="P29" s="47"/>
+      <c r="Q29" s="47"/>
+      <c r="R29" s="47"/>
+      <c r="S29" s="47"/>
+      <c r="T29" s="47"/>
       <c r="U29" s="9"/>
       <c r="V29" s="9"/>
       <c r="W29" s="9"/>
@@ -11301,7 +11329,7 @@
       <c r="Y29" s="9"/>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A30" s="48" t="s">
+      <c r="A30" s="46" t="s">
         <v>35</v>
       </c>
       <c r="D30" s="12">
@@ -11315,34 +11343,34 @@
         <v>15.21</v>
       </c>
       <c r="H30" s="22"/>
-      <c r="K30" s="39">
+      <c r="K30" s="37">
         <v>12.46</v>
       </c>
-      <c r="L30" s="39">
+      <c r="L30" s="37">
         <v>12.91</v>
       </c>
-      <c r="M30" s="39">
+      <c r="M30" s="37">
         <v>13.07</v>
       </c>
-      <c r="N30" s="39">
+      <c r="N30" s="37">
         <v>12.1</v>
       </c>
-      <c r="O30" s="39">
+      <c r="O30" s="37">
         <v>11.85</v>
       </c>
-      <c r="P30" s="39">
+      <c r="P30" s="37">
         <v>11.79</v>
       </c>
-      <c r="Q30" s="39">
+      <c r="Q30" s="37">
         <v>12.44</v>
       </c>
-      <c r="R30" s="39">
+      <c r="R30" s="37">
         <v>12.4</v>
       </c>
-      <c r="S30" s="39">
+      <c r="S30" s="37">
         <v>12.82</v>
       </c>
-      <c r="T30" s="39">
+      <c r="T30" s="37">
         <v>13.33</v>
       </c>
       <c r="U30" s="9"/>
@@ -11352,7 +11380,7 @@
       <c r="Y30" s="9"/>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A31" s="52" t="s">
+      <c r="A31" s="50" t="s">
         <v>112</v>
       </c>
       <c r="B31" s="12">
@@ -11373,63 +11401,74 @@
       <c r="Y31" s="9"/>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A32" s="45" t="s">
+      <c r="A32" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="B32" s="27"/>
-      <c r="E32" s="61"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="73"/>
       <c r="F32" s="22"/>
-      <c r="G32" s="61"/>
+      <c r="G32" s="73"/>
       <c r="H32" s="22"/>
-      <c r="K32" s="40"/>
-      <c r="L32" s="40"/>
-      <c r="M32" s="40"/>
-      <c r="N32" s="40"/>
-      <c r="O32" s="40"/>
-      <c r="P32" s="40"/>
-      <c r="Q32" s="40"/>
-      <c r="R32" s="40"/>
-      <c r="S32" s="40"/>
-      <c r="T32" s="40"/>
+      <c r="K32" s="38"/>
+      <c r="L32" s="38"/>
+      <c r="M32" s="38"/>
+      <c r="N32" s="38"/>
+      <c r="O32" s="38"/>
+      <c r="P32" s="38"/>
+      <c r="Q32" s="38"/>
+      <c r="R32" s="38"/>
+      <c r="S32" s="38"/>
+      <c r="T32" s="38"/>
       <c r="U32" s="9"/>
       <c r="V32" s="9"/>
       <c r="W32" s="9"/>
       <c r="X32" s="9"/>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A33" s="45" t="s">
+      <c r="A33" s="43" t="s">
         <v>86</v>
       </c>
+      <c r="B33" s="52">
+        <v>15.80556</v>
+      </c>
+      <c r="E33" s="74">
+        <v>13.69</v>
+      </c>
       <c r="F33" s="22"/>
+      <c r="G33" s="74">
+        <v>13.669980000000001</v>
+      </c>
       <c r="H33" s="22"/>
-      <c r="K33" s="54">
+      <c r="K33" s="52">
         <v>12.67426</v>
       </c>
-      <c r="L33" s="54">
+      <c r="L33" s="52">
         <v>13.03101</v>
       </c>
-      <c r="M33" s="54">
+      <c r="M33" s="52">
         <v>13.0748</v>
       </c>
-      <c r="N33" s="54">
+      <c r="N33" s="52">
         <v>11.60012</v>
       </c>
-      <c r="O33" s="54">
+      <c r="O33" s="52">
         <v>11.27725</v>
       </c>
-      <c r="P33" s="54">
+      <c r="P33" s="52">
         <v>11.249689999999999</v>
       </c>
-      <c r="Q33" s="54">
+      <c r="Q33" s="52">
         <v>12.335459999999999</v>
       </c>
-      <c r="R33" s="54">
+      <c r="R33" s="52">
         <v>12.42188</v>
       </c>
-      <c r="S33" s="54">
+      <c r="S33" s="52">
         <v>13.018230000000001</v>
       </c>
-      <c r="T33" s="54">
+      <c r="T33" s="52">
         <v>12.85135</v>
       </c>
       <c r="U33" s="9"/>
@@ -11438,28 +11477,28 @@
       <c r="X33" s="9"/>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A34" s="45" t="s">
+      <c r="A34" s="43" t="s">
         <v>87</v>
       </c>
       <c r="F34" s="22"/>
       <c r="H34" s="22"/>
-      <c r="K34" s="49"/>
-      <c r="L34" s="49"/>
-      <c r="M34" s="49"/>
-      <c r="N34" s="49"/>
-      <c r="O34" s="49"/>
-      <c r="P34" s="49"/>
-      <c r="Q34" s="49"/>
-      <c r="R34" s="49"/>
-      <c r="S34" s="49"/>
-      <c r="T34" s="49"/>
+      <c r="K34" s="47"/>
+      <c r="L34" s="47"/>
+      <c r="M34" s="47"/>
+      <c r="N34" s="47"/>
+      <c r="O34" s="47"/>
+      <c r="P34" s="47"/>
+      <c r="Q34" s="47"/>
+      <c r="R34" s="47"/>
+      <c r="S34" s="47"/>
+      <c r="T34" s="47"/>
       <c r="U34" s="9"/>
       <c r="V34" s="9"/>
       <c r="W34" s="9"/>
       <c r="X34" s="9"/>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A35" s="28" t="s">
+      <c r="A35" s="27" t="s">
         <v>26</v>
       </c>
       <c r="F35" s="22"/>
@@ -11470,7 +11509,7 @@
       <c r="X35" s="9"/>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A36" s="51" t="s">
+      <c r="A36" s="49" t="s">
         <v>32</v>
       </c>
       <c r="D36" s="12">
@@ -11480,40 +11519,40 @@
       <c r="E36" s="18">
         <v>18.176780000000001</v>
       </c>
-      <c r="F36" s="59"/>
+      <c r="F36" s="57"/>
       <c r="G36" s="18">
         <v>18.49119</v>
       </c>
-      <c r="H36" s="59"/>
+      <c r="H36" s="57"/>
       <c r="J36" s="18"/>
-      <c r="K36" s="39">
+      <c r="K36" s="37">
         <v>16.809999999999999</v>
       </c>
-      <c r="L36" s="39">
+      <c r="L36" s="37">
         <v>16.21</v>
       </c>
-      <c r="M36" s="39">
+      <c r="M36" s="37">
         <v>16.28</v>
       </c>
-      <c r="N36" s="39">
+      <c r="N36" s="37">
         <v>16.22</v>
       </c>
-      <c r="O36" s="39">
+      <c r="O36" s="37">
         <v>15.48</v>
       </c>
-      <c r="P36" s="39">
+      <c r="P36" s="37">
         <v>15.06</v>
       </c>
-      <c r="Q36" s="39">
+      <c r="Q36" s="37">
         <v>15.2</v>
       </c>
-      <c r="R36" s="39">
+      <c r="R36" s="37">
         <v>14.75</v>
       </c>
-      <c r="S36" s="39">
+      <c r="S36" s="37">
         <v>15.22</v>
       </c>
-      <c r="T36" s="39">
+      <c r="T36" s="37">
         <v>15.46</v>
       </c>
       <c r="U36" s="9"/>
@@ -11522,7 +11561,7 @@
       <c r="X36" s="9"/>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A37" s="68" t="s">
+      <c r="A37" s="64" t="s">
         <v>112</v>
       </c>
       <c r="B37" s="9">
@@ -11531,11 +11570,11 @@
       <c r="E37" s="18">
         <v>16.800380000000001</v>
       </c>
-      <c r="F37" s="59"/>
+      <c r="F37" s="57"/>
       <c r="G37" s="18">
         <v>17.09845</v>
       </c>
-      <c r="H37" s="59"/>
+      <c r="H37" s="57"/>
       <c r="J37" s="18"/>
       <c r="U37" s="9"/>
       <c r="V37" s="9"/>
@@ -11543,64 +11582,75 @@
       <c r="X37" s="9"/>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A38" s="45" t="s">
+      <c r="A38" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="B38" s="27"/>
-      <c r="E38" s="36"/>
-      <c r="F38" s="59"/>
-      <c r="G38" s="36"/>
-      <c r="H38" s="59"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="57"/>
+      <c r="F38" s="57"/>
+      <c r="G38" s="57"/>
+      <c r="H38" s="57"/>
       <c r="J38" s="18"/>
-      <c r="K38" s="34"/>
-      <c r="L38" s="34"/>
-      <c r="M38" s="34"/>
-      <c r="N38" s="34"/>
-      <c r="O38" s="34"/>
-      <c r="P38" s="34"/>
-      <c r="Q38" s="34"/>
-      <c r="R38" s="34"/>
-      <c r="S38" s="34"/>
-      <c r="T38" s="34"/>
+      <c r="K38" s="33"/>
+      <c r="L38" s="33"/>
+      <c r="M38" s="33"/>
+      <c r="N38" s="33"/>
+      <c r="O38" s="33"/>
+      <c r="P38" s="33"/>
+      <c r="Q38" s="33"/>
+      <c r="R38" s="33"/>
+      <c r="S38" s="33"/>
+      <c r="T38" s="33"/>
       <c r="U38" s="9"/>
       <c r="V38" s="9"/>
       <c r="W38" s="9"/>
       <c r="X38" s="9"/>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A39" s="45" t="s">
+      <c r="A39" s="43" t="s">
         <v>86</v>
       </c>
+      <c r="B39" s="52">
+        <v>16.628</v>
+      </c>
+      <c r="E39" s="74">
+        <v>16.800380000000001</v>
+      </c>
       <c r="F39" s="22"/>
+      <c r="G39" s="74">
+        <v>17.09845</v>
+      </c>
       <c r="H39" s="22"/>
-      <c r="K39" s="54">
+      <c r="K39" s="52">
         <v>16.146460000000001</v>
       </c>
-      <c r="L39" s="54">
+      <c r="L39" s="52">
         <v>16.27862</v>
       </c>
-      <c r="M39" s="54">
+      <c r="M39" s="52">
         <v>15.430429999999999</v>
       </c>
-      <c r="N39" s="54">
+      <c r="N39" s="52">
         <v>15.93717</v>
       </c>
-      <c r="O39" s="54">
+      <c r="O39" s="52">
         <v>15.22517</v>
       </c>
-      <c r="P39" s="54">
+      <c r="P39" s="52">
         <v>14.565060000000001</v>
       </c>
-      <c r="Q39" s="54">
+      <c r="Q39" s="52">
         <v>14.93369</v>
       </c>
-      <c r="R39" s="54">
+      <c r="R39" s="52">
         <v>14.78468</v>
       </c>
-      <c r="S39" s="54">
+      <c r="S39" s="52">
         <v>15.217460000000001</v>
       </c>
-      <c r="T39" s="54">
+      <c r="T39" s="52">
         <v>15.134309999999999</v>
       </c>
       <c r="U39" s="9"/>
@@ -11609,28 +11659,28 @@
       <c r="X39" s="9"/>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A40" s="53" t="s">
+      <c r="A40" s="51" t="s">
         <v>87</v>
       </c>
       <c r="F40" s="22"/>
       <c r="H40" s="22"/>
-      <c r="K40" s="49"/>
-      <c r="L40" s="49"/>
-      <c r="M40" s="49"/>
-      <c r="N40" s="49"/>
-      <c r="O40" s="49"/>
-      <c r="P40" s="49"/>
-      <c r="Q40" s="49"/>
-      <c r="R40" s="49"/>
-      <c r="S40" s="49"/>
-      <c r="T40" s="49"/>
+      <c r="K40" s="47"/>
+      <c r="L40" s="47"/>
+      <c r="M40" s="47"/>
+      <c r="N40" s="47"/>
+      <c r="O40" s="47"/>
+      <c r="P40" s="47"/>
+      <c r="Q40" s="47"/>
+      <c r="R40" s="47"/>
+      <c r="S40" s="47"/>
+      <c r="T40" s="47"/>
       <c r="U40" s="9"/>
       <c r="V40" s="9"/>
       <c r="W40" s="9"/>
       <c r="X40" s="9"/>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A41" s="51" t="s">
+      <c r="A41" s="49" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="12">
@@ -11640,41 +11690,41 @@
       <c r="E41" s="18">
         <v>16.101220000000001</v>
       </c>
-      <c r="F41" s="59"/>
+      <c r="F41" s="57"/>
       <c r="G41" s="18">
         <v>16.456440000000001</v>
       </c>
-      <c r="H41" s="59"/>
+      <c r="H41" s="57"/>
       <c r="J41" s="18"/>
-      <c r="K41" s="39">
+      <c r="K41" s="37">
         <f>K20</f>
         <v>15.27</v>
       </c>
-      <c r="L41" s="39">
+      <c r="L41" s="37">
         <v>15.42</v>
       </c>
-      <c r="M41" s="39">
+      <c r="M41" s="37">
         <v>15.48</v>
       </c>
-      <c r="N41" s="39">
+      <c r="N41" s="37">
         <v>14.28</v>
       </c>
-      <c r="O41" s="39">
+      <c r="O41" s="37">
         <v>14.5</v>
       </c>
-      <c r="P41" s="39">
+      <c r="P41" s="37">
         <v>14.03</v>
       </c>
-      <c r="Q41" s="39">
+      <c r="Q41" s="37">
         <v>14.33</v>
       </c>
-      <c r="R41" s="39">
+      <c r="R41" s="37">
         <v>14.25</v>
       </c>
-      <c r="S41" s="39">
+      <c r="S41" s="37">
         <v>14.48</v>
       </c>
-      <c r="T41" s="39">
+      <c r="T41" s="37">
         <v>14.66</v>
       </c>
       <c r="U41" s="9"/>
@@ -11683,7 +11733,7 @@
       <c r="X41" s="9"/>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A42" s="68" t="s">
+      <c r="A42" s="64" t="s">
         <v>112</v>
       </c>
       <c r="B42" s="12">
@@ -11692,11 +11742,11 @@
       <c r="E42" s="18">
         <v>14.87846</v>
       </c>
-      <c r="F42" s="59"/>
+      <c r="F42" s="57"/>
       <c r="G42" s="18">
         <v>15.216570000000001</v>
       </c>
-      <c r="H42" s="59"/>
+      <c r="H42" s="57"/>
       <c r="J42" s="18"/>
       <c r="U42" s="9"/>
       <c r="V42" s="9"/>
@@ -11704,70 +11754,78 @@
       <c r="X42" s="9"/>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A43" s="45" t="s">
+      <c r="A43" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="B43" s="27"/>
-      <c r="E43" s="36"/>
-      <c r="F43" s="59"/>
-      <c r="G43" s="36"/>
-      <c r="H43" s="59"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="57"/>
+      <c r="F43" s="57"/>
+      <c r="G43" s="57"/>
+      <c r="H43" s="57"/>
       <c r="J43" s="18"/>
-      <c r="K43" s="34"/>
-      <c r="L43" s="34"/>
-      <c r="M43" s="34"/>
-      <c r="N43" s="34"/>
-      <c r="O43" s="34"/>
-      <c r="P43" s="34"/>
-      <c r="Q43" s="34"/>
-      <c r="R43" s="34"/>
-      <c r="S43" s="34"/>
-      <c r="T43" s="34"/>
+      <c r="K43" s="33"/>
+      <c r="L43" s="33"/>
+      <c r="M43" s="33"/>
+      <c r="N43" s="33"/>
+      <c r="O43" s="33"/>
+      <c r="P43" s="33"/>
+      <c r="Q43" s="33"/>
+      <c r="R43" s="33"/>
+      <c r="S43" s="33"/>
+      <c r="T43" s="33"/>
       <c r="U43" s="9"/>
       <c r="V43" s="9"/>
       <c r="W43" s="9"/>
       <c r="X43" s="9"/>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A44" s="45" t="s">
+      <c r="A44" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="B44" s="22"/>
+      <c r="B44" s="52">
+        <v>15.51125</v>
+      </c>
       <c r="C44" s="22"/>
       <c r="D44" s="22"/>
-      <c r="E44" s="59"/>
-      <c r="F44" s="59"/>
-      <c r="G44" s="59"/>
-      <c r="H44" s="59"/>
+      <c r="E44" s="75">
+        <v>14.87846</v>
+      </c>
+      <c r="F44" s="57"/>
+      <c r="G44" s="75">
+        <v>15.216570000000001</v>
+      </c>
+      <c r="H44" s="57"/>
       <c r="J44" s="18"/>
-      <c r="K44" s="54">
+      <c r="K44" s="52">
         <v>15.00088</v>
       </c>
-      <c r="L44" s="54">
+      <c r="L44" s="52">
         <v>15.142289999999999</v>
       </c>
-      <c r="M44" s="54">
+      <c r="M44" s="52">
         <v>14.03617</v>
       </c>
-      <c r="N44" s="54">
+      <c r="N44" s="52">
         <v>14.44088</v>
       </c>
-      <c r="O44" s="54">
+      <c r="O44" s="52">
         <v>14.24966</v>
       </c>
-      <c r="P44" s="54">
+      <c r="P44" s="52">
         <v>14.07893</v>
       </c>
-      <c r="Q44" s="54">
+      <c r="Q44" s="52">
         <v>14.93174</v>
       </c>
-      <c r="R44" s="54">
+      <c r="R44" s="52">
         <v>14.15527</v>
       </c>
-      <c r="S44" s="54">
+      <c r="S44" s="52">
         <v>14.281370000000001</v>
       </c>
-      <c r="T44" s="54">
+      <c r="T44" s="52">
         <v>14.513909999999999</v>
       </c>
       <c r="U44" s="9"/>
@@ -11776,34 +11834,34 @@
       <c r="X44" s="9"/>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A45" s="45" t="s">
+      <c r="A45" s="43" t="s">
         <v>87</v>
       </c>
       <c r="B45" s="22"/>
       <c r="C45" s="22"/>
       <c r="D45" s="22"/>
-      <c r="E45" s="59"/>
-      <c r="F45" s="59"/>
-      <c r="G45" s="59"/>
-      <c r="H45" s="59"/>
+      <c r="E45" s="57"/>
+      <c r="F45" s="57"/>
+      <c r="G45" s="57"/>
+      <c r="H45" s="57"/>
       <c r="J45" s="18"/>
-      <c r="K45" s="49"/>
-      <c r="L45" s="49"/>
-      <c r="M45" s="49"/>
-      <c r="N45" s="49"/>
-      <c r="O45" s="49"/>
-      <c r="P45" s="49"/>
-      <c r="Q45" s="49"/>
-      <c r="R45" s="49"/>
-      <c r="S45" s="49"/>
-      <c r="T45" s="49"/>
+      <c r="K45" s="47"/>
+      <c r="L45" s="47"/>
+      <c r="M45" s="47"/>
+      <c r="N45" s="47"/>
+      <c r="O45" s="47"/>
+      <c r="P45" s="47"/>
+      <c r="Q45" s="47"/>
+      <c r="R45" s="47"/>
+      <c r="S45" s="47"/>
+      <c r="T45" s="47"/>
       <c r="U45" s="9"/>
       <c r="V45" s="9"/>
       <c r="W45" s="9"/>
       <c r="X45" s="9"/>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A46" s="51" t="s">
+      <c r="A46" s="49" t="s">
         <v>34</v>
       </c>
       <c r="D46" s="12">
@@ -11813,40 +11871,40 @@
       <c r="E46" s="18">
         <v>15.74198</v>
       </c>
-      <c r="F46" s="59"/>
+      <c r="F46" s="57"/>
       <c r="G46" s="18">
         <v>15.430529999999999</v>
       </c>
-      <c r="H46" s="59"/>
+      <c r="H46" s="57"/>
       <c r="J46" s="18"/>
-      <c r="K46" s="39">
+      <c r="K46" s="37">
         <v>15.58</v>
       </c>
-      <c r="L46" s="39">
+      <c r="L46" s="37">
         <v>13.65</v>
       </c>
-      <c r="M46" s="39">
+      <c r="M46" s="37">
         <v>14.13</v>
       </c>
-      <c r="N46" s="39">
+      <c r="N46" s="37">
         <v>13.43</v>
       </c>
-      <c r="O46" s="39">
+      <c r="O46" s="37">
         <v>13.74</v>
       </c>
-      <c r="P46" s="39">
+      <c r="P46" s="37">
         <v>13.79</v>
       </c>
-      <c r="Q46" s="39">
+      <c r="Q46" s="37">
         <v>14.02</v>
       </c>
-      <c r="R46" s="39">
+      <c r="R46" s="37">
         <v>13.65</v>
       </c>
-      <c r="S46" s="39">
+      <c r="S46" s="37">
         <v>13.95</v>
       </c>
-      <c r="T46" s="39">
+      <c r="T46" s="37">
         <v>13.49</v>
       </c>
       <c r="U46" s="9"/>
@@ -11855,7 +11913,7 @@
       <c r="X46" s="9"/>
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A47" s="68" t="s">
+      <c r="A47" s="64" t="s">
         <v>112</v>
       </c>
       <c r="B47" s="22">
@@ -11864,92 +11922,105 @@
       <c r="E47" s="18">
         <v>14.244</v>
       </c>
-      <c r="F47" s="59"/>
+      <c r="F47" s="57"/>
       <c r="G47" s="18">
         <v>14.11279</v>
       </c>
-      <c r="H47" s="59"/>
+      <c r="H47" s="57"/>
       <c r="J47" s="18"/>
       <c r="U47" s="9"/>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A48" s="45" t="s">
+      <c r="A48" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="B48" s="27"/>
-      <c r="E48" s="36"/>
-      <c r="F48" s="59"/>
-      <c r="G48" s="36"/>
-      <c r="H48" s="59"/>
+      <c r="B48" s="22"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="57"/>
+      <c r="F48" s="57"/>
+      <c r="G48" s="57"/>
+      <c r="H48" s="57"/>
       <c r="J48" s="18"/>
-      <c r="K48" s="34"/>
-      <c r="L48" s="34"/>
-      <c r="M48" s="34"/>
-      <c r="N48" s="34"/>
-      <c r="O48" s="34"/>
-      <c r="P48" s="34"/>
-      <c r="Q48" s="34"/>
-      <c r="R48" s="34"/>
-      <c r="S48" s="34"/>
-      <c r="T48" s="34"/>
+      <c r="K48" s="33"/>
+      <c r="L48" s="33"/>
+      <c r="M48" s="33"/>
+      <c r="N48" s="33"/>
+      <c r="O48" s="33"/>
+      <c r="P48" s="33"/>
+      <c r="Q48" s="33"/>
+      <c r="R48" s="33"/>
+      <c r="S48" s="33"/>
+      <c r="T48" s="33"/>
       <c r="U48" s="9"/>
     </row>
     <row r="49" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A49" s="45" t="s">
+      <c r="A49" s="43" t="s">
         <v>86</v>
       </c>
+      <c r="B49" s="52">
+        <v>15.523479999999999</v>
+      </c>
+      <c r="C49" s="22"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="74">
+        <v>14.244</v>
+      </c>
       <c r="F49" s="22"/>
+      <c r="G49" s="74">
+        <v>14.11279</v>
+      </c>
       <c r="H49" s="22"/>
-      <c r="K49" s="54">
+      <c r="K49" s="52">
         <v>14.86412</v>
       </c>
-      <c r="L49" s="54">
+      <c r="L49" s="52">
         <v>13.69772</v>
       </c>
-      <c r="M49" s="54">
+      <c r="M49" s="52">
         <v>13.64823</v>
       </c>
-      <c r="N49" s="54">
+      <c r="N49" s="52">
         <v>13.422079999999999</v>
       </c>
-      <c r="O49" s="54">
+      <c r="O49" s="52">
         <v>13.352080000000001</v>
       </c>
-      <c r="P49" s="54">
+      <c r="P49" s="52">
         <v>13.43695</v>
       </c>
-      <c r="Q49" s="54">
+      <c r="Q49" s="52">
         <v>14.17337</v>
       </c>
-      <c r="R49" s="54">
+      <c r="R49" s="52">
         <v>13.4695</v>
       </c>
-      <c r="S49" s="54">
+      <c r="S49" s="52">
         <v>13.864319999999999</v>
       </c>
-      <c r="T49" s="54">
+      <c r="T49" s="52">
         <v>12.999409999999999</v>
       </c>
     </row>
     <row r="50" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A50" s="53" t="s">
+      <c r="A50" s="51" t="s">
         <v>87</v>
       </c>
       <c r="F50" s="22"/>
       <c r="H50" s="22"/>
-      <c r="K50" s="49"/>
-      <c r="L50" s="49"/>
-      <c r="M50" s="49"/>
-      <c r="N50" s="49"/>
-      <c r="O50" s="49"/>
-      <c r="P50" s="49"/>
-      <c r="Q50" s="49"/>
-      <c r="R50" s="49"/>
-      <c r="S50" s="49"/>
-      <c r="T50" s="49"/>
+      <c r="K50" s="47"/>
+      <c r="L50" s="47"/>
+      <c r="M50" s="47"/>
+      <c r="N50" s="47"/>
+      <c r="O50" s="47"/>
+      <c r="P50" s="47"/>
+      <c r="Q50" s="47"/>
+      <c r="R50" s="47"/>
+      <c r="S50" s="47"/>
+      <c r="T50" s="47"/>
     </row>
     <row r="51" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A51" s="51" t="s">
+      <c r="A51" s="49" t="s">
         <v>35</v>
       </c>
       <c r="D51" s="12">
@@ -11959,46 +12030,46 @@
       <c r="E51" s="18">
         <v>14.957509999999999</v>
       </c>
-      <c r="F51" s="59"/>
+      <c r="F51" s="57"/>
       <c r="G51" s="18">
         <v>14.98869</v>
       </c>
-      <c r="H51" s="59"/>
+      <c r="H51" s="57"/>
       <c r="J51" s="18"/>
-      <c r="K51" s="41">
+      <c r="K51" s="39">
         <v>12.65</v>
       </c>
-      <c r="L51" s="41">
+      <c r="L51" s="39">
         <v>13.3</v>
       </c>
-      <c r="M51" s="41">
+      <c r="M51" s="39">
         <v>13.28</v>
       </c>
-      <c r="N51" s="41">
+      <c r="N51" s="39">
         <v>13.31</v>
       </c>
-      <c r="O51" s="41">
+      <c r="O51" s="39">
         <v>12.06</v>
       </c>
-      <c r="P51" s="41">
+      <c r="P51" s="39">
         <v>11.79</v>
       </c>
-      <c r="Q51" s="41">
+      <c r="Q51" s="39">
         <v>12.44</v>
       </c>
-      <c r="R51" s="41">
+      <c r="R51" s="39">
         <v>12.25</v>
       </c>
-      <c r="S51" s="41">
+      <c r="S51" s="39">
         <v>12.62</v>
       </c>
-      <c r="T51" s="41">
+      <c r="T51" s="39">
         <v>12.95</v>
       </c>
       <c r="U51" s="9"/>
     </row>
     <row r="52" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A52" s="68" t="s">
+      <c r="A52" s="64" t="s">
         <v>112</v>
       </c>
       <c r="B52" s="12">
@@ -12007,76 +12078,85 @@
       <c r="E52" s="18">
         <v>13.5219</v>
       </c>
-      <c r="F52" s="59"/>
+      <c r="F52" s="57"/>
       <c r="G52" s="18">
         <v>13.453329999999999</v>
       </c>
-      <c r="H52" s="59"/>
+      <c r="H52" s="57"/>
       <c r="J52" s="18"/>
-      <c r="K52" s="41"/>
-      <c r="L52" s="41"/>
-      <c r="M52" s="41"/>
-      <c r="N52" s="41"/>
-      <c r="O52" s="41"/>
-      <c r="P52" s="41"/>
-      <c r="Q52" s="41"/>
-      <c r="R52" s="41"/>
-      <c r="S52" s="41"/>
-      <c r="T52" s="41"/>
+      <c r="K52" s="39"/>
+      <c r="L52" s="39"/>
+      <c r="M52" s="39"/>
+      <c r="N52" s="39"/>
+      <c r="O52" s="39"/>
+      <c r="P52" s="39"/>
+      <c r="Q52" s="39"/>
+      <c r="R52" s="39"/>
+      <c r="S52" s="39"/>
+      <c r="T52" s="39"/>
       <c r="U52" s="9"/>
     </row>
     <row r="53" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A53" s="45" t="s">
+      <c r="A53" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="H53" s="60"/>
+      <c r="H53" s="58"/>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
-      <c r="K53" s="34"/>
-      <c r="L53" s="34"/>
-      <c r="M53" s="34"/>
-      <c r="N53" s="34"/>
-      <c r="O53" s="34"/>
-      <c r="P53" s="34"/>
-      <c r="Q53" s="34"/>
-      <c r="R53" s="34"/>
-      <c r="S53" s="34"/>
-      <c r="T53" s="34"/>
+      <c r="K53" s="33"/>
+      <c r="L53" s="33"/>
+      <c r="M53" s="33"/>
+      <c r="N53" s="33"/>
+      <c r="O53" s="33"/>
+      <c r="P53" s="33"/>
+      <c r="Q53" s="33"/>
+      <c r="R53" s="33"/>
+      <c r="S53" s="33"/>
+      <c r="T53" s="33"/>
     </row>
     <row r="54" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A54" s="45" t="s">
+      <c r="A54" s="43" t="s">
         <v>86</v>
       </c>
+      <c r="B54" s="52">
+        <v>15.597569999999999</v>
+      </c>
+      <c r="E54" s="74">
+        <v>13.5219</v>
+      </c>
       <c r="F54" s="22"/>
+      <c r="G54" s="74">
+        <v>13.453329999999999</v>
+      </c>
       <c r="H54" s="22"/>
-      <c r="K54" s="54">
+      <c r="K54" s="52">
         <v>12.845829999999999</v>
       </c>
-      <c r="L54" s="54">
+      <c r="L54" s="52">
         <v>13.333830000000001</v>
       </c>
-      <c r="M54" s="54">
+      <c r="M54" s="52">
         <v>13.271229999999999</v>
       </c>
-      <c r="N54" s="54">
+      <c r="N54" s="52">
         <v>11.798349999999999</v>
       </c>
-      <c r="O54" s="54">
+      <c r="O54" s="52">
         <v>11.49788</v>
       </c>
-      <c r="P54" s="54">
+      <c r="P54" s="52">
         <v>11.249689999999999</v>
       </c>
-      <c r="Q54" s="54">
+      <c r="Q54" s="52">
         <v>12.354290000000001</v>
       </c>
-      <c r="R54" s="54">
+      <c r="R54" s="52">
         <v>12.3088</v>
       </c>
-      <c r="S54" s="54">
+      <c r="S54" s="52">
         <v>12.80823</v>
       </c>
-      <c r="T54" s="54">
+      <c r="T54" s="52">
         <v>12.38555</v>
       </c>
       <c r="X54" s="9"/>
@@ -12086,21 +12166,21 @@
       <c r="AB54" s="9"/>
     </row>
     <row r="55" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A55" s="53" t="s">
+      <c r="A55" s="51" t="s">
         <v>87</v>
       </c>
       <c r="F55" s="22"/>
       <c r="H55" s="22"/>
-      <c r="K55" s="49"/>
-      <c r="L55" s="49"/>
-      <c r="M55" s="49"/>
-      <c r="N55" s="49"/>
-      <c r="O55" s="49"/>
-      <c r="P55" s="49"/>
-      <c r="Q55" s="49"/>
-      <c r="R55" s="49"/>
-      <c r="S55" s="49"/>
-      <c r="T55" s="49"/>
+      <c r="K55" s="47"/>
+      <c r="L55" s="47"/>
+      <c r="M55" s="47"/>
+      <c r="N55" s="47"/>
+      <c r="O55" s="47"/>
+      <c r="P55" s="47"/>
+      <c r="Q55" s="47"/>
+      <c r="R55" s="47"/>
+      <c r="S55" s="47"/>
+      <c r="T55" s="47"/>
       <c r="X55" s="9"/>
       <c r="Y55" s="9"/>
       <c r="Z55" s="9"/>
@@ -12119,7 +12199,7 @@
         <f>(G56+#REF!)/2</f>
         <v>#REF!</v>
       </c>
-      <c r="K56" s="39">
+      <c r="K56" s="37">
         <f>K41</f>
         <v>15.27</v>
       </c>
@@ -12141,7 +12221,7 @@
         <f>(G57+K56)/2</f>
         <v>15.86322</v>
       </c>
-      <c r="K57" s="39">
+      <c r="K57" s="37">
         <f>K46</f>
         <v>15.58</v>
       </c>
@@ -12163,7 +12243,7 @@
         <f>(G58+K57)/2</f>
         <v>15.505265</v>
       </c>
-      <c r="K58" s="39">
+      <c r="K58" s="37">
         <f>K51</f>
         <v>12.65</v>
       </c>
@@ -12192,7 +12272,7 @@
       <c r="AB59" s="9"/>
     </row>
     <row r="60" spans="1:28" ht="19" x14ac:dyDescent="0.25">
-      <c r="A60" s="38" t="s">
+      <c r="A60" s="36" t="s">
         <v>18</v>
       </c>
       <c r="F60" s="22"/>
@@ -12204,7 +12284,7 @@
       <c r="AB60" s="9"/>
     </row>
     <row r="61" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A61" s="46" t="s">
+      <c r="A61" s="44" t="s">
         <v>83</v>
       </c>
       <c r="B61" s="12">
@@ -12220,34 +12300,34 @@
         <v>12.7</v>
       </c>
       <c r="H61" s="22"/>
-      <c r="K61" s="39">
+      <c r="K61" s="37">
         <v>11.2</v>
       </c>
-      <c r="L61" s="39">
+      <c r="L61" s="37">
         <v>10.98</v>
       </c>
-      <c r="M61" s="39">
+      <c r="M61" s="37">
         <v>11.35</v>
       </c>
-      <c r="N61" s="39">
+      <c r="N61" s="37">
         <v>10.55</v>
       </c>
-      <c r="O61" s="39">
+      <c r="O61" s="37">
         <v>10.72</v>
       </c>
-      <c r="P61" s="39">
+      <c r="P61" s="37">
         <v>10.27</v>
       </c>
-      <c r="Q61" s="39">
+      <c r="Q61" s="37">
         <v>10.59</v>
       </c>
-      <c r="R61" s="39">
+      <c r="R61" s="37">
         <v>10.28</v>
       </c>
-      <c r="S61" s="39">
+      <c r="S61" s="37">
         <v>10.79</v>
       </c>
-      <c r="T61" s="39">
+      <c r="T61" s="37">
         <v>10.61</v>
       </c>
       <c r="X61" s="9"/>
@@ -12257,7 +12337,7 @@
       <c r="AB61" s="9"/>
     </row>
     <row r="62" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A62" s="68" t="s">
+      <c r="A62" s="64" t="s">
         <v>112</v>
       </c>
       <c r="B62" s="12">
@@ -12277,26 +12357,26 @@
       <c r="AB62" s="9"/>
     </row>
     <row r="63" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A63" s="52" t="s">
+      <c r="A63" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="B63" s="35"/>
-      <c r="C63" s="9"/>
-      <c r="D63" s="9"/>
-      <c r="E63" s="35"/>
-      <c r="F63" s="60"/>
-      <c r="G63" s="35"/>
+      <c r="B63" s="58"/>
+      <c r="C63" s="58"/>
+      <c r="D63" s="58"/>
+      <c r="E63" s="58"/>
+      <c r="F63" s="58"/>
+      <c r="G63" s="58"/>
       <c r="H63" s="22"/>
-      <c r="K63" s="40"/>
-      <c r="L63" s="40"/>
-      <c r="M63" s="40"/>
-      <c r="N63" s="40"/>
-      <c r="O63" s="40"/>
-      <c r="P63" s="40"/>
-      <c r="Q63" s="40"/>
-      <c r="R63" s="40"/>
-      <c r="S63" s="40"/>
-      <c r="T63" s="40"/>
+      <c r="K63" s="38"/>
+      <c r="L63" s="38"/>
+      <c r="M63" s="38"/>
+      <c r="N63" s="38"/>
+      <c r="O63" s="38"/>
+      <c r="P63" s="38"/>
+      <c r="Q63" s="38"/>
+      <c r="R63" s="38"/>
+      <c r="S63" s="38"/>
+      <c r="T63" s="38"/>
       <c r="X63" s="9"/>
       <c r="Y63" s="9"/>
       <c r="Z63" s="9"/>
@@ -12304,38 +12384,47 @@
       <c r="AB63" s="9"/>
     </row>
     <row r="64" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A64" s="52" t="s">
+      <c r="A64" s="50" t="s">
         <v>86</v>
       </c>
+      <c r="B64" s="52">
+        <v>13.23739</v>
+      </c>
+      <c r="E64" s="74">
+        <v>11.243919999999999</v>
+      </c>
+      <c r="G64" s="74">
+        <v>11.59456</v>
+      </c>
       <c r="H64" s="22"/>
-      <c r="K64" s="54">
+      <c r="K64" s="52">
         <v>10.917389999999999</v>
       </c>
-      <c r="L64" s="54">
+      <c r="L64" s="52">
         <v>11.07845</v>
       </c>
-      <c r="M64" s="54">
+      <c r="M64" s="52">
         <v>10.73516</v>
       </c>
-      <c r="N64" s="54">
+      <c r="N64" s="52">
         <v>10.455170000000001</v>
       </c>
-      <c r="O64" s="54">
+      <c r="O64" s="52">
         <v>10.26596</v>
       </c>
-      <c r="P64" s="54">
+      <c r="P64" s="52">
         <v>9.8426860000000005</v>
       </c>
-      <c r="Q64" s="54">
+      <c r="Q64" s="52">
         <v>10.679169999999999</v>
       </c>
-      <c r="R64" s="54">
+      <c r="R64" s="52">
         <v>10.34238</v>
       </c>
-      <c r="S64" s="54">
+      <c r="S64" s="52">
         <v>10.620810000000001</v>
       </c>
-      <c r="T64" s="54">
+      <c r="T64" s="52">
         <v>10.501860000000001</v>
       </c>
       <c r="X64" s="9"/>
@@ -12345,23 +12434,23 @@
       <c r="AB64" s="9"/>
     </row>
     <row r="65" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A65" s="45" t="s">
+      <c r="A65" s="43" t="s">
         <v>87</v>
       </c>
       <c r="H65" s="22"/>
-      <c r="K65" s="49"/>
-      <c r="L65" s="49"/>
-      <c r="M65" s="49"/>
-      <c r="N65" s="49"/>
-      <c r="O65" s="49"/>
-      <c r="P65" s="49"/>
-      <c r="Q65" s="49"/>
-      <c r="R65" s="49"/>
-      <c r="S65" s="49"/>
-      <c r="T65" s="49"/>
+      <c r="K65" s="47"/>
+      <c r="L65" s="47"/>
+      <c r="M65" s="47"/>
+      <c r="N65" s="47"/>
+      <c r="O65" s="47"/>
+      <c r="P65" s="47"/>
+      <c r="Q65" s="47"/>
+      <c r="R65" s="47"/>
+      <c r="S65" s="47"/>
+      <c r="T65" s="47"/>
     </row>
     <row r="66" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A66" s="46" t="s">
+      <c r="A66" s="44" t="s">
         <v>84</v>
       </c>
       <c r="B66" s="12">
@@ -12377,34 +12466,34 @@
         <v>16.96</v>
       </c>
       <c r="H66" s="22"/>
-      <c r="K66" s="41">
+      <c r="K66" s="39">
         <v>15.32</v>
       </c>
-      <c r="L66" s="41">
+      <c r="L66" s="39">
         <v>14.9</v>
       </c>
-      <c r="M66" s="41">
+      <c r="M66" s="39">
         <v>14.52</v>
       </c>
-      <c r="N66" s="41">
+      <c r="N66" s="39">
         <v>14.5</v>
       </c>
-      <c r="O66" s="41">
+      <c r="O66" s="39">
         <v>14.11</v>
       </c>
-      <c r="P66" s="41">
+      <c r="P66" s="39">
         <v>13.9</v>
       </c>
-      <c r="Q66" s="41">
+      <c r="Q66" s="39">
         <v>14.16</v>
       </c>
-      <c r="R66" s="41">
+      <c r="R66" s="39">
         <v>13.82</v>
       </c>
-      <c r="S66" s="41">
+      <c r="S66" s="39">
         <v>14.17</v>
       </c>
-      <c r="T66" s="41">
+      <c r="T66" s="39">
         <v>14.05</v>
       </c>
       <c r="X66" s="9"/>
@@ -12413,7 +12502,7 @@
       <c r="AA66" s="9"/>
     </row>
     <row r="67" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A67" s="68" t="s">
+      <c r="A67" s="64" t="s">
         <v>112</v>
       </c>
       <c r="B67" s="12">
@@ -12426,42 +12515,42 @@
         <v>15.552070000000001</v>
       </c>
       <c r="H67" s="22"/>
-      <c r="K67" s="41"/>
-      <c r="L67" s="41"/>
-      <c r="M67" s="41"/>
-      <c r="N67" s="41"/>
-      <c r="O67" s="41"/>
-      <c r="P67" s="41"/>
-      <c r="Q67" s="41"/>
-      <c r="R67" s="41"/>
-      <c r="S67" s="41"/>
-      <c r="T67" s="41"/>
+      <c r="K67" s="39"/>
+      <c r="L67" s="39"/>
+      <c r="M67" s="39"/>
+      <c r="N67" s="39"/>
+      <c r="O67" s="39"/>
+      <c r="P67" s="39"/>
+      <c r="Q67" s="39"/>
+      <c r="R67" s="39"/>
+      <c r="S67" s="39"/>
+      <c r="T67" s="39"/>
       <c r="X67" s="9"/>
       <c r="Y67" s="9"/>
       <c r="Z67" s="9"/>
       <c r="AA67" s="9"/>
     </row>
     <row r="68" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A68" s="52" t="s">
+      <c r="A68" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="B68" s="35"/>
-      <c r="C68" s="9"/>
-      <c r="D68" s="9"/>
-      <c r="E68" s="35"/>
-      <c r="F68" s="60"/>
-      <c r="G68" s="35"/>
+      <c r="B68" s="58"/>
+      <c r="C68" s="58"/>
+      <c r="D68" s="58"/>
+      <c r="E68" s="58"/>
+      <c r="F68" s="58"/>
+      <c r="G68" s="58"/>
       <c r="H68" s="22"/>
-      <c r="K68" s="40"/>
-      <c r="L68" s="40"/>
-      <c r="M68" s="40"/>
-      <c r="N68" s="40"/>
-      <c r="O68" s="40"/>
-      <c r="P68" s="40"/>
-      <c r="Q68" s="40"/>
-      <c r="R68" s="40"/>
-      <c r="S68" s="40"/>
-      <c r="T68" s="40"/>
+      <c r="K68" s="38"/>
+      <c r="L68" s="38"/>
+      <c r="M68" s="38"/>
+      <c r="N68" s="38"/>
+      <c r="O68" s="38"/>
+      <c r="P68" s="38"/>
+      <c r="Q68" s="38"/>
+      <c r="R68" s="38"/>
+      <c r="S68" s="38"/>
+      <c r="T68" s="38"/>
       <c r="X68" s="9"/>
       <c r="Y68" s="9"/>
       <c r="Z68" s="9"/>
@@ -12469,38 +12558,47 @@
       <c r="AB68" s="9"/>
     </row>
     <row r="69" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A69" s="52" t="s">
+      <c r="A69" s="50" t="s">
         <v>86</v>
       </c>
+      <c r="B69" s="52">
+        <v>16.97439</v>
+      </c>
+      <c r="E69" s="74">
+        <v>15.730589999999999</v>
+      </c>
+      <c r="G69" s="74">
+        <v>15.552070000000001</v>
+      </c>
       <c r="H69" s="22"/>
-      <c r="K69" s="54">
+      <c r="K69" s="52">
         <v>15.18754</v>
       </c>
-      <c r="L69" s="54">
+      <c r="L69" s="52">
         <v>14.69533</v>
       </c>
-      <c r="M69" s="54">
+      <c r="M69" s="52">
         <v>14.33548</v>
       </c>
-      <c r="N69" s="54">
+      <c r="N69" s="52">
         <v>14.18177</v>
       </c>
-      <c r="O69" s="54">
+      <c r="O69" s="52">
         <v>13.61598</v>
       </c>
-      <c r="P69" s="54">
+      <c r="P69" s="52">
         <v>13.53036</v>
       </c>
-      <c r="Q69" s="54">
+      <c r="Q69" s="52">
         <v>14.081580000000001</v>
       </c>
-      <c r="R69" s="54">
+      <c r="R69" s="52">
         <v>13.641030000000001</v>
       </c>
-      <c r="S69" s="54">
+      <c r="S69" s="52">
         <v>14.20506</v>
       </c>
-      <c r="T69" s="54">
+      <c r="T69" s="52">
         <v>13.933160000000001</v>
       </c>
       <c r="X69" s="9"/>
@@ -12510,20 +12608,20 @@
       <c r="AB69" s="9"/>
     </row>
     <row r="70" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A70" s="45" t="s">
+      <c r="A70" s="43" t="s">
         <v>87</v>
       </c>
       <c r="H70" s="22"/>
-      <c r="K70" s="49"/>
-      <c r="L70" s="49"/>
-      <c r="M70" s="49"/>
-      <c r="N70" s="49"/>
-      <c r="O70" s="49"/>
-      <c r="P70" s="49"/>
-      <c r="Q70" s="49"/>
-      <c r="R70" s="49"/>
-      <c r="S70" s="49"/>
-      <c r="T70" s="49"/>
+      <c r="K70" s="47"/>
+      <c r="L70" s="47"/>
+      <c r="M70" s="47"/>
+      <c r="N70" s="47"/>
+      <c r="O70" s="47"/>
+      <c r="P70" s="47"/>
+      <c r="Q70" s="47"/>
+      <c r="R70" s="47"/>
+      <c r="S70" s="47"/>
+      <c r="T70" s="47"/>
       <c r="X70" s="9"/>
       <c r="Y70" s="9"/>
       <c r="Z70" s="9"/>
@@ -12531,7 +12629,7 @@
       <c r="AB70" s="9"/>
     </row>
     <row r="71" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A71" s="46" t="s">
+      <c r="A71" s="44" t="s">
         <v>85</v>
       </c>
       <c r="B71" s="12">
@@ -12547,34 +12645,34 @@
         <v>19.670000000000002</v>
       </c>
       <c r="H71" s="22"/>
-      <c r="K71" s="41">
+      <c r="K71" s="39">
         <v>18.100000000000001</v>
       </c>
-      <c r="L71" s="41">
+      <c r="L71" s="39">
         <v>17.53</v>
       </c>
-      <c r="M71" s="41">
+      <c r="M71" s="39">
         <v>16.97</v>
       </c>
-      <c r="N71" s="41">
+      <c r="N71" s="39">
         <v>16.5</v>
       </c>
-      <c r="O71" s="41">
+      <c r="O71" s="39">
         <v>16.39</v>
       </c>
-      <c r="P71" s="41">
+      <c r="P71" s="39">
         <v>16.190000000000001</v>
       </c>
-      <c r="Q71" s="41">
+      <c r="Q71" s="39">
         <v>16.09</v>
       </c>
-      <c r="R71" s="41">
+      <c r="R71" s="39">
         <v>16.100000000000001</v>
       </c>
-      <c r="S71" s="41">
+      <c r="S71" s="39">
         <v>16.02</v>
       </c>
-      <c r="T71" s="41">
+      <c r="T71" s="39">
         <v>16.43</v>
       </c>
       <c r="X71" s="9"/>
@@ -12584,7 +12682,7 @@
       <c r="AB71" s="9"/>
     </row>
     <row r="72" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A72" s="68" t="s">
+      <c r="A72" s="64" t="s">
         <v>112</v>
       </c>
       <c r="B72" s="12">
@@ -12597,16 +12695,16 @@
         <v>18.111979999999999</v>
       </c>
       <c r="H72" s="22"/>
-      <c r="K72" s="41"/>
-      <c r="L72" s="41"/>
-      <c r="M72" s="41"/>
-      <c r="N72" s="41"/>
-      <c r="O72" s="41"/>
-      <c r="P72" s="41"/>
-      <c r="Q72" s="41"/>
-      <c r="R72" s="41"/>
-      <c r="S72" s="41"/>
-      <c r="T72" s="41"/>
+      <c r="K72" s="39"/>
+      <c r="L72" s="39"/>
+      <c r="M72" s="39"/>
+      <c r="N72" s="39"/>
+      <c r="O72" s="39"/>
+      <c r="P72" s="39"/>
+      <c r="Q72" s="39"/>
+      <c r="R72" s="39"/>
+      <c r="S72" s="39"/>
+      <c r="T72" s="39"/>
       <c r="X72" s="9"/>
       <c r="Y72" s="9"/>
       <c r="Z72" s="9"/>
@@ -12614,26 +12712,26 @@
       <c r="AB72" s="9"/>
     </row>
     <row r="73" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A73" s="52" t="s">
+      <c r="A73" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="B73" s="35"/>
-      <c r="C73" s="9"/>
-      <c r="D73" s="9"/>
-      <c r="E73" s="35"/>
-      <c r="F73" s="60"/>
-      <c r="G73" s="35"/>
+      <c r="B73" s="58"/>
+      <c r="C73" s="58"/>
+      <c r="D73" s="58"/>
+      <c r="E73" s="58"/>
+      <c r="F73" s="58"/>
+      <c r="G73" s="58"/>
       <c r="H73" s="22"/>
-      <c r="K73" s="40"/>
-      <c r="L73" s="40"/>
-      <c r="M73" s="40"/>
-      <c r="N73" s="40"/>
-      <c r="O73" s="40"/>
-      <c r="P73" s="40"/>
-      <c r="Q73" s="40"/>
-      <c r="R73" s="40"/>
-      <c r="S73" s="40"/>
-      <c r="T73" s="40"/>
+      <c r="K73" s="38"/>
+      <c r="L73" s="38"/>
+      <c r="M73" s="38"/>
+      <c r="N73" s="38"/>
+      <c r="O73" s="38"/>
+      <c r="P73" s="38"/>
+      <c r="Q73" s="38"/>
+      <c r="R73" s="38"/>
+      <c r="S73" s="38"/>
+      <c r="T73" s="38"/>
       <c r="X73" s="9"/>
       <c r="Y73" s="9"/>
       <c r="Z73" s="9"/>
@@ -12641,38 +12739,47 @@
       <c r="AB73" s="9"/>
     </row>
     <row r="74" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A74" s="52" t="s">
+      <c r="A74" s="50" t="s">
         <v>86</v>
       </c>
+      <c r="B74" s="52">
+        <v>19.534559999999999</v>
+      </c>
+      <c r="E74" s="74">
+        <v>18.35697</v>
+      </c>
+      <c r="G74" s="74">
+        <v>18.111979999999999</v>
+      </c>
       <c r="H74" s="22"/>
-      <c r="K74" s="54">
+      <c r="K74" s="52">
         <v>17.673259999999999</v>
       </c>
-      <c r="L74" s="54">
+      <c r="L74" s="52">
         <v>17.682040000000001</v>
       </c>
-      <c r="M74" s="54">
+      <c r="M74" s="52">
         <v>16.872430000000001</v>
       </c>
-      <c r="N74" s="54">
+      <c r="N74" s="52">
         <v>16.60172</v>
       </c>
-      <c r="O74" s="54">
+      <c r="O74" s="52">
         <v>16.18909</v>
       </c>
-      <c r="P74" s="54">
+      <c r="P74" s="52">
         <v>15.787750000000001</v>
       </c>
-      <c r="Q74" s="54">
+      <c r="Q74" s="52">
         <v>15.930580000000001</v>
       </c>
-      <c r="R74" s="54">
+      <c r="R74" s="52">
         <v>15.794879999999999</v>
       </c>
-      <c r="S74" s="54">
+      <c r="S74" s="52">
         <v>15.70274</v>
       </c>
-      <c r="T74" s="54">
+      <c r="T74" s="52">
         <v>16.15475</v>
       </c>
       <c r="X74" s="9"/>
@@ -12682,20 +12789,20 @@
       <c r="AB74" s="9"/>
     </row>
     <row r="75" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A75" s="45" t="s">
+      <c r="A75" s="43" t="s">
         <v>87</v>
       </c>
       <c r="H75" s="22"/>
-      <c r="K75" s="49"/>
-      <c r="L75" s="49"/>
-      <c r="M75" s="49"/>
-      <c r="N75" s="49"/>
-      <c r="O75" s="49"/>
-      <c r="P75" s="49"/>
-      <c r="Q75" s="49"/>
-      <c r="R75" s="49"/>
-      <c r="S75" s="49"/>
-      <c r="T75" s="49"/>
+      <c r="K75" s="47"/>
+      <c r="L75" s="47"/>
+      <c r="M75" s="47"/>
+      <c r="N75" s="47"/>
+      <c r="O75" s="47"/>
+      <c r="P75" s="47"/>
+      <c r="Q75" s="47"/>
+      <c r="R75" s="47"/>
+      <c r="S75" s="47"/>
+      <c r="T75" s="47"/>
       <c r="X75" s="9"/>
       <c r="Y75" s="9"/>
       <c r="Z75" s="9"/>
@@ -12703,7 +12810,7 @@
       <c r="AB75" s="9"/>
     </row>
     <row r="76" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A76" s="47" t="s">
+      <c r="A76" s="45" t="s">
         <v>22</v>
       </c>
       <c r="B76" s="12">
@@ -12719,34 +12826,34 @@
         <v>22.05</v>
       </c>
       <c r="H76" s="22"/>
-      <c r="K76" s="39">
+      <c r="K76" s="37">
         <v>20.25</v>
       </c>
-      <c r="L76" s="39">
+      <c r="L76" s="37">
         <v>19.23</v>
       </c>
-      <c r="M76" s="39">
+      <c r="M76" s="37">
         <v>18.98</v>
       </c>
-      <c r="N76" s="39">
+      <c r="N76" s="37">
         <v>18.190000000000001</v>
       </c>
-      <c r="O76" s="39">
+      <c r="O76" s="37">
         <v>18.43</v>
       </c>
-      <c r="P76" s="39">
+      <c r="P76" s="37">
         <v>18.11</v>
       </c>
-      <c r="Q76" s="39">
+      <c r="Q76" s="37">
         <v>18.48</v>
       </c>
-      <c r="R76" s="39">
+      <c r="R76" s="37">
         <v>17.899999999999999</v>
       </c>
-      <c r="S76" s="39">
+      <c r="S76" s="37">
         <v>18.12</v>
       </c>
-      <c r="T76" s="39">
+      <c r="T76" s="37">
         <v>18.7</v>
       </c>
       <c r="U76" s="9"/>
@@ -12759,13 +12866,13 @@
       <c r="AB76" s="9"/>
     </row>
     <row r="77" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A77" s="68" t="s">
+      <c r="A77" s="64" t="s">
         <v>112</v>
       </c>
-      <c r="B77" s="66" t="s">
+      <c r="B77" s="62" t="s">
         <v>111</v>
       </c>
-      <c r="E77" s="67">
+      <c r="E77" s="63">
         <v>20.219889999999999</v>
       </c>
       <c r="F77" s="18"/>
@@ -12783,26 +12890,26 @@
       <c r="AB77" s="9"/>
     </row>
     <row r="78" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A78" s="52" t="s">
+      <c r="A78" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="B78" s="35"/>
-      <c r="C78" s="9"/>
-      <c r="D78" s="9"/>
-      <c r="E78" s="35"/>
-      <c r="F78" s="60"/>
-      <c r="G78" s="35"/>
+      <c r="B78" s="58"/>
+      <c r="C78" s="58"/>
+      <c r="D78" s="58"/>
+      <c r="E78" s="58"/>
+      <c r="F78" s="58"/>
+      <c r="G78" s="58"/>
       <c r="H78" s="22"/>
-      <c r="K78" s="40"/>
-      <c r="L78" s="40"/>
-      <c r="M78" s="40"/>
-      <c r="N78" s="40"/>
-      <c r="O78" s="40"/>
-      <c r="P78" s="40"/>
-      <c r="Q78" s="40"/>
-      <c r="R78" s="40"/>
-      <c r="S78" s="40"/>
-      <c r="T78" s="40"/>
+      <c r="K78" s="38"/>
+      <c r="L78" s="38"/>
+      <c r="M78" s="38"/>
+      <c r="N78" s="38"/>
+      <c r="O78" s="38"/>
+      <c r="P78" s="38"/>
+      <c r="Q78" s="38"/>
+      <c r="R78" s="38"/>
+      <c r="S78" s="38"/>
+      <c r="T78" s="38"/>
       <c r="U78" s="9"/>
       <c r="V78" s="9"/>
       <c r="W78" s="9"/>
@@ -12810,56 +12917,65 @@
       <c r="Y78" s="9"/>
     </row>
     <row r="79" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A79" s="52" t="s">
+      <c r="A79" s="50" t="s">
         <v>86</v>
       </c>
+      <c r="B79" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="E79" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="G79" s="62" t="s">
+        <v>111</v>
+      </c>
       <c r="H79" s="22"/>
-      <c r="K79" s="54">
+      <c r="K79" s="52">
         <v>20.05134</v>
       </c>
-      <c r="L79" s="54">
+      <c r="L79" s="52">
         <v>18.83736</v>
       </c>
-      <c r="M79" s="54">
+      <c r="M79" s="52">
         <v>18.621590000000001</v>
       </c>
-      <c r="N79" s="54">
+      <c r="N79" s="52">
         <v>17.873360000000002</v>
       </c>
-      <c r="O79" s="54">
+      <c r="O79" s="52">
         <v>18.46462</v>
       </c>
-      <c r="P79" s="54">
+      <c r="P79" s="52">
         <v>17.722999999999999</v>
       </c>
-      <c r="Q79" s="54">
+      <c r="Q79" s="52">
         <v>18.50583</v>
       </c>
-      <c r="R79" s="54">
+      <c r="R79" s="52">
         <v>17.51951</v>
       </c>
-      <c r="S79" s="54">
+      <c r="S79" s="52">
         <v>18.153759999999998</v>
       </c>
-      <c r="T79" s="54">
+      <c r="T79" s="52">
         <v>18.491669999999999</v>
       </c>
     </row>
     <row r="80" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A80" s="45" t="s">
+      <c r="A80" s="43" t="s">
         <v>87</v>
       </c>
       <c r="H80" s="22"/>
-      <c r="K80" s="49"/>
-      <c r="L80" s="49"/>
-      <c r="M80" s="49"/>
-      <c r="N80" s="49"/>
-      <c r="O80" s="49"/>
-      <c r="P80" s="49"/>
-      <c r="Q80" s="49"/>
-      <c r="R80" s="49"/>
-      <c r="S80" s="49"/>
-      <c r="T80" s="49"/>
+      <c r="K80" s="47"/>
+      <c r="L80" s="47"/>
+      <c r="M80" s="47"/>
+      <c r="N80" s="47"/>
+      <c r="O80" s="47"/>
+      <c r="P80" s="47"/>
+      <c r="Q80" s="47"/>
+      <c r="R80" s="47"/>
+      <c r="S80" s="47"/>
+      <c r="T80" s="47"/>
       <c r="U80" s="9"/>
       <c r="V80" s="9"/>
       <c r="W80" s="9"/>
@@ -12876,7 +12992,7 @@
       <c r="X81" s="9"/>
     </row>
     <row r="82" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A82" s="46" t="s">
+      <c r="A82" s="44" t="s">
         <v>83</v>
       </c>
       <c r="E82" s="18">
@@ -12886,35 +13002,35 @@
       <c r="G82" s="18">
         <v>12.70543</v>
       </c>
-      <c r="H82" s="59"/>
-      <c r="K82" s="39">
+      <c r="H82" s="57"/>
+      <c r="K82" s="37">
         <v>11.25</v>
       </c>
-      <c r="L82" s="42">
+      <c r="L82" s="40">
         <v>10.94</v>
       </c>
-      <c r="M82" s="42">
+      <c r="M82" s="40">
         <v>11.318160000000001</v>
       </c>
-      <c r="N82" s="42">
+      <c r="N82" s="40">
         <v>10.539960000000001</v>
       </c>
-      <c r="O82" s="42">
+      <c r="O82" s="40">
         <v>10.694470000000001</v>
       </c>
-      <c r="P82" s="42">
+      <c r="P82" s="40">
         <v>10.268319999999999</v>
       </c>
-      <c r="Q82" s="42">
+      <c r="Q82" s="40">
         <v>10.62804</v>
       </c>
-      <c r="R82" s="42">
+      <c r="R82" s="40">
         <v>10.31137</v>
       </c>
-      <c r="S82" s="42">
+      <c r="S82" s="40">
         <v>10.790929999999999</v>
       </c>
-      <c r="T82" s="42">
+      <c r="T82" s="40">
         <v>10.63754</v>
       </c>
       <c r="U82" s="9"/>
@@ -12923,7 +13039,7 @@
       <c r="X82" s="9"/>
     </row>
     <row r="83" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A83" s="68" t="s">
+      <c r="A83" s="64" t="s">
         <v>112</v>
       </c>
       <c r="B83" s="12">
@@ -12934,80 +13050,89 @@
       </c>
       <c r="F83" s="18"/>
       <c r="G83" s="18"/>
-      <c r="H83" s="59"/>
-      <c r="L83" s="42"/>
-      <c r="M83" s="42"/>
-      <c r="N83" s="42"/>
-      <c r="O83" s="42"/>
-      <c r="P83" s="42"/>
-      <c r="Q83" s="42"/>
-      <c r="R83" s="42"/>
-      <c r="S83" s="42"/>
-      <c r="T83" s="42"/>
+      <c r="H83" s="57"/>
+      <c r="L83" s="40"/>
+      <c r="M83" s="40"/>
+      <c r="N83" s="40"/>
+      <c r="O83" s="40"/>
+      <c r="P83" s="40"/>
+      <c r="Q83" s="40"/>
+      <c r="R83" s="40"/>
+      <c r="S83" s="40"/>
+      <c r="T83" s="40"/>
       <c r="U83" s="9"/>
       <c r="V83" s="9"/>
       <c r="W83" s="9"/>
       <c r="X83" s="9"/>
     </row>
     <row r="84" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A84" s="52" t="s">
+      <c r="A84" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="B84" s="35"/>
-      <c r="C84" s="9"/>
-      <c r="D84" s="9"/>
-      <c r="E84" s="35"/>
-      <c r="F84" s="60"/>
-      <c r="G84" s="35"/>
+      <c r="B84" s="58"/>
+      <c r="C84" s="58"/>
+      <c r="D84" s="58"/>
+      <c r="E84" s="58"/>
+      <c r="F84" s="58"/>
+      <c r="G84" s="58"/>
       <c r="H84" s="22"/>
-      <c r="K84" s="34"/>
-      <c r="L84" s="34"/>
-      <c r="M84" s="34"/>
-      <c r="N84" s="34"/>
-      <c r="O84" s="34"/>
-      <c r="P84" s="34"/>
-      <c r="Q84" s="34"/>
-      <c r="R84" s="34"/>
-      <c r="S84" s="34"/>
-      <c r="T84" s="34"/>
+      <c r="K84" s="33"/>
+      <c r="L84" s="33"/>
+      <c r="M84" s="33"/>
+      <c r="N84" s="33"/>
+      <c r="O84" s="33"/>
+      <c r="P84" s="33"/>
+      <c r="Q84" s="33"/>
+      <c r="R84" s="33"/>
+      <c r="S84" s="33"/>
+      <c r="T84" s="33"/>
       <c r="U84" s="9"/>
       <c r="V84" s="9"/>
       <c r="W84" s="9"/>
       <c r="X84" s="9"/>
     </row>
     <row r="85" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A85" s="52" t="s">
+      <c r="A85" s="50" t="s">
         <v>86</v>
       </c>
+      <c r="B85" s="52">
+        <v>13.380990000000001</v>
+      </c>
+      <c r="E85" s="74">
+        <v>11.253970000000001</v>
+      </c>
+      <c r="G85" s="74">
+        <v>11.59909</v>
+      </c>
       <c r="H85" s="22"/>
-      <c r="K85" s="54">
+      <c r="K85" s="52">
         <v>11.01193</v>
       </c>
-      <c r="L85" s="54">
+      <c r="L85" s="52">
         <v>11.04129</v>
       </c>
-      <c r="M85" s="54">
+      <c r="M85" s="52">
         <v>10.70688</v>
       </c>
-      <c r="N85" s="54">
+      <c r="N85" s="52">
         <v>10.44722</v>
       </c>
-      <c r="O85" s="54">
+      <c r="O85" s="52">
         <v>10.236890000000001</v>
       </c>
-      <c r="P85" s="54">
+      <c r="P85" s="52">
         <v>9.8426860000000005</v>
       </c>
-      <c r="Q85" s="54">
+      <c r="Q85" s="52">
         <v>10.729889999999999</v>
       </c>
-      <c r="R85" s="54">
+      <c r="R85" s="52">
         <v>10.37612</v>
       </c>
-      <c r="S85" s="54">
+      <c r="S85" s="52">
         <v>10.627840000000001</v>
       </c>
-      <c r="T85" s="54">
+      <c r="T85" s="52">
         <v>10.516529999999999</v>
       </c>
       <c r="U85" s="9"/>
@@ -13016,27 +13141,27 @@
       <c r="X85" s="9"/>
     </row>
     <row r="86" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A86" s="45" t="s">
+      <c r="A86" s="43" t="s">
         <v>87</v>
       </c>
       <c r="H86" s="22"/>
-      <c r="K86" s="50"/>
-      <c r="L86" s="50"/>
-      <c r="M86" s="50"/>
-      <c r="N86" s="50"/>
-      <c r="O86" s="50"/>
-      <c r="P86" s="50"/>
-      <c r="Q86" s="50"/>
-      <c r="R86" s="50"/>
-      <c r="S86" s="50"/>
-      <c r="T86" s="50"/>
+      <c r="K86" s="48"/>
+      <c r="L86" s="48"/>
+      <c r="M86" s="48"/>
+      <c r="N86" s="48"/>
+      <c r="O86" s="48"/>
+      <c r="P86" s="48"/>
+      <c r="Q86" s="48"/>
+      <c r="R86" s="48"/>
+      <c r="S86" s="48"/>
+      <c r="T86" s="48"/>
       <c r="U86" s="9"/>
       <c r="V86" s="9"/>
       <c r="W86" s="9"/>
       <c r="X86" s="9"/>
     </row>
     <row r="87" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A87" s="46" t="s">
+      <c r="A87" s="44" t="s">
         <v>84</v>
       </c>
       <c r="E87" s="18">
@@ -13046,36 +13171,36 @@
       <c r="G87" s="18">
         <v>16.994779999999999</v>
       </c>
-      <c r="H87" s="59"/>
+      <c r="H87" s="57"/>
       <c r="J87" s="18"/>
-      <c r="K87" s="39">
+      <c r="K87" s="37">
         <v>15.29</v>
       </c>
-      <c r="L87" s="42">
+      <c r="L87" s="40">
         <v>14.893750000000001</v>
       </c>
-      <c r="M87" s="42">
+      <c r="M87" s="40">
         <v>14.557729999999999</v>
       </c>
-      <c r="N87" s="42">
+      <c r="N87" s="40">
         <v>14.503539999999999</v>
       </c>
-      <c r="O87" s="42">
+      <c r="O87" s="40">
         <v>14.145659999999999</v>
       </c>
-      <c r="P87" s="42">
+      <c r="P87" s="40">
         <v>13.90419</v>
       </c>
-      <c r="Q87" s="42">
+      <c r="Q87" s="40">
         <v>14.12405</v>
       </c>
-      <c r="R87" s="42">
+      <c r="R87" s="40">
         <v>13.805199999999999</v>
       </c>
-      <c r="S87" s="42">
+      <c r="S87" s="40">
         <v>14.15784</v>
       </c>
-      <c r="T87" s="42">
+      <c r="T87" s="40">
         <v>14.05007</v>
       </c>
       <c r="U87" s="9"/>
@@ -13084,7 +13209,7 @@
       <c r="X87" s="9"/>
     </row>
     <row r="88" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A88" s="68" t="s">
+      <c r="A88" s="64" t="s">
         <v>112</v>
       </c>
       <c r="B88" s="12">
@@ -13097,81 +13222,90 @@
       <c r="G88" s="9">
         <v>15.5692</v>
       </c>
-      <c r="H88" s="59"/>
+      <c r="H88" s="57"/>
       <c r="J88" s="18"/>
-      <c r="L88" s="42"/>
-      <c r="M88" s="42"/>
-      <c r="N88" s="42"/>
-      <c r="O88" s="42"/>
-      <c r="P88" s="42"/>
-      <c r="Q88" s="42"/>
-      <c r="R88" s="42"/>
-      <c r="S88" s="42"/>
-      <c r="T88" s="42"/>
+      <c r="L88" s="40"/>
+      <c r="M88" s="40"/>
+      <c r="N88" s="40"/>
+      <c r="O88" s="40"/>
+      <c r="P88" s="40"/>
+      <c r="Q88" s="40"/>
+      <c r="R88" s="40"/>
+      <c r="S88" s="40"/>
+      <c r="T88" s="40"/>
       <c r="U88" s="9"/>
       <c r="V88" s="9"/>
       <c r="W88" s="9"/>
       <c r="X88" s="9"/>
     </row>
     <row r="89" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A89" s="52" t="s">
+      <c r="A89" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="B89" s="35"/>
-      <c r="C89" s="9"/>
-      <c r="D89" s="9"/>
-      <c r="E89" s="35"/>
-      <c r="F89" s="60"/>
-      <c r="G89" s="35"/>
+      <c r="B89" s="58"/>
+      <c r="C89" s="58"/>
+      <c r="D89" s="58"/>
+      <c r="E89" s="58"/>
+      <c r="F89" s="58"/>
+      <c r="G89" s="58"/>
       <c r="H89" s="22"/>
-      <c r="K89" s="34"/>
-      <c r="L89" s="34"/>
-      <c r="M89" s="34"/>
-      <c r="N89" s="34"/>
-      <c r="O89" s="34"/>
-      <c r="P89" s="34"/>
-      <c r="Q89" s="37"/>
-      <c r="R89" s="37"/>
-      <c r="S89" s="37"/>
-      <c r="T89" s="37"/>
+      <c r="K89" s="33"/>
+      <c r="L89" s="33"/>
+      <c r="M89" s="33"/>
+      <c r="N89" s="33"/>
+      <c r="O89" s="33"/>
+      <c r="P89" s="33"/>
+      <c r="Q89" s="35"/>
+      <c r="R89" s="35"/>
+      <c r="S89" s="35"/>
+      <c r="T89" s="35"/>
       <c r="U89" s="9"/>
       <c r="V89" s="9"/>
       <c r="W89" s="9"/>
       <c r="X89" s="9"/>
     </row>
     <row r="90" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A90" s="52" t="s">
+      <c r="A90" s="50" t="s">
         <v>86</v>
       </c>
+      <c r="B90" s="52">
+        <v>16.91761</v>
+      </c>
+      <c r="E90" s="74">
+        <v>15.73494</v>
+      </c>
+      <c r="G90" s="74">
+        <v>15.5692</v>
+      </c>
       <c r="H90" s="22"/>
-      <c r="K90" s="54">
+      <c r="K90" s="52">
         <v>15.179930000000001</v>
       </c>
-      <c r="L90" s="54">
+      <c r="L90" s="52">
         <v>14.690429999999999</v>
       </c>
-      <c r="M90" s="54">
+      <c r="M90" s="52">
         <v>14.3529</v>
       </c>
-      <c r="N90" s="54">
+      <c r="N90" s="52">
         <v>14.185230000000001</v>
       </c>
-      <c r="O90" s="54">
+      <c r="O90" s="52">
         <v>13.667289999999999</v>
       </c>
-      <c r="P90" s="54">
+      <c r="P90" s="52">
         <v>13.53036</v>
       </c>
-      <c r="Q90" s="54">
+      <c r="Q90" s="52">
         <v>14.047829999999999</v>
       </c>
-      <c r="R90" s="54">
+      <c r="R90" s="52">
         <v>13.631019999999999</v>
       </c>
-      <c r="S90" s="54">
+      <c r="S90" s="52">
         <v>14.19497</v>
       </c>
-      <c r="T90" s="54">
+      <c r="T90" s="52">
         <v>13.935269999999999</v>
       </c>
       <c r="U90" s="9"/>
@@ -13180,27 +13314,27 @@
       <c r="X90" s="9"/>
     </row>
     <row r="91" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A91" s="45" t="s">
+      <c r="A91" s="43" t="s">
         <v>87</v>
       </c>
       <c r="H91" s="22"/>
-      <c r="K91" s="50"/>
-      <c r="L91" s="50"/>
-      <c r="M91" s="50"/>
-      <c r="N91" s="50"/>
-      <c r="O91" s="50"/>
-      <c r="P91" s="50"/>
-      <c r="Q91" s="50"/>
-      <c r="R91" s="50"/>
-      <c r="S91" s="50"/>
-      <c r="T91" s="50"/>
+      <c r="K91" s="48"/>
+      <c r="L91" s="48"/>
+      <c r="M91" s="48"/>
+      <c r="N91" s="48"/>
+      <c r="O91" s="48"/>
+      <c r="P91" s="48"/>
+      <c r="Q91" s="48"/>
+      <c r="R91" s="48"/>
+      <c r="S91" s="48"/>
+      <c r="T91" s="48"/>
       <c r="U91" s="9"/>
       <c r="V91" s="9"/>
       <c r="W91" s="9"/>
       <c r="X91" s="9"/>
     </row>
     <row r="92" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A92" s="46" t="s">
+      <c r="A92" s="44" t="s">
         <v>85</v>
       </c>
       <c r="E92" s="18">
@@ -13210,41 +13344,41 @@
       <c r="G92" s="18">
         <v>19.678349999999998</v>
       </c>
-      <c r="H92" s="59"/>
+      <c r="H92" s="57"/>
       <c r="J92" s="18"/>
-      <c r="K92" s="39">
+      <c r="K92" s="37">
         <v>18.100000000000001</v>
       </c>
-      <c r="L92" s="42">
+      <c r="L92" s="40">
         <v>17.530249999999999</v>
       </c>
-      <c r="M92" s="42">
+      <c r="M92" s="40">
         <v>16.97392</v>
       </c>
-      <c r="N92" s="42">
+      <c r="N92" s="40">
         <v>16.513439999999999</v>
       </c>
-      <c r="O92" s="42">
+      <c r="O92" s="40">
         <v>16.430779999999999</v>
       </c>
-      <c r="P92" s="42">
+      <c r="P92" s="40">
         <v>16.188140000000001</v>
       </c>
-      <c r="Q92" s="42">
+      <c r="Q92" s="40">
         <v>16.082619999999999</v>
       </c>
-      <c r="R92" s="42">
+      <c r="R92" s="40">
         <v>16.132180000000002</v>
       </c>
-      <c r="S92" s="42">
+      <c r="S92" s="40">
         <v>16.044429999999998</v>
       </c>
-      <c r="T92" s="42">
+      <c r="T92" s="40">
         <v>16.440359999999998</v>
       </c>
     </row>
     <row r="93" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A93" s="68" t="s">
+      <c r="A93" s="64" t="s">
         <v>112</v>
       </c>
       <c r="B93" s="12">
@@ -13257,257 +13391,304 @@
       <c r="G93" s="9">
         <v>18.110900000000001</v>
       </c>
-      <c r="H93" s="59"/>
+      <c r="H93" s="57"/>
       <c r="J93" s="18"/>
-      <c r="L93" s="42"/>
-      <c r="M93" s="42"/>
-      <c r="N93" s="42"/>
-      <c r="O93" s="42"/>
-      <c r="P93" s="42"/>
-      <c r="Q93" s="42"/>
-      <c r="R93" s="42"/>
-      <c r="S93" s="42"/>
-      <c r="T93" s="42"/>
+      <c r="L93" s="40"/>
+      <c r="M93" s="40"/>
+      <c r="N93" s="40"/>
+      <c r="O93" s="40"/>
+      <c r="P93" s="40"/>
+      <c r="Q93" s="40"/>
+      <c r="R93" s="40"/>
+      <c r="S93" s="40"/>
+      <c r="T93" s="40"/>
     </row>
     <row r="94" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A94" s="52" t="s">
+      <c r="A94" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="B94" s="35"/>
-      <c r="C94" s="9"/>
-      <c r="D94" s="9"/>
-      <c r="E94" s="35"/>
-      <c r="F94" s="60"/>
-      <c r="G94" s="35"/>
+      <c r="B94" s="58"/>
+      <c r="C94" s="58"/>
+      <c r="D94" s="58"/>
+      <c r="E94" s="58"/>
+      <c r="F94" s="58"/>
+      <c r="G94" s="58"/>
       <c r="H94" s="22"/>
-      <c r="K94" s="34"/>
-      <c r="L94" s="34"/>
-      <c r="M94" s="34"/>
-      <c r="N94" s="34"/>
-      <c r="O94" s="34"/>
-      <c r="P94" s="34"/>
-      <c r="Q94" s="37"/>
-      <c r="R94" s="37"/>
-      <c r="S94" s="37"/>
-      <c r="T94" s="37"/>
+      <c r="K94" s="33"/>
+      <c r="L94" s="33"/>
+      <c r="M94" s="33"/>
+      <c r="N94" s="33"/>
+      <c r="O94" s="33"/>
+      <c r="P94" s="33"/>
+      <c r="Q94" s="35"/>
+      <c r="R94" s="35"/>
+      <c r="S94" s="35"/>
+      <c r="T94" s="35"/>
     </row>
     <row r="95" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A95" s="52" t="s">
+      <c r="A95" s="50" t="s">
         <v>86</v>
       </c>
+      <c r="B95" s="52">
+        <v>19.593779999999999</v>
+      </c>
+      <c r="C95" s="22"/>
+      <c r="D95" s="22"/>
+      <c r="E95" s="74">
+        <v>18.378430000000002</v>
+      </c>
+      <c r="F95" s="22"/>
+      <c r="G95" s="74">
+        <v>18.110900000000001</v>
+      </c>
       <c r="H95" s="22"/>
-      <c r="K95" s="54">
+      <c r="K95" s="52">
         <v>17.676200000000001</v>
       </c>
-      <c r="L95" s="54">
+      <c r="L95" s="52">
         <v>17.688030000000001</v>
       </c>
-      <c r="M95" s="54">
+      <c r="M95" s="52">
         <v>16.87921</v>
       </c>
-      <c r="N95" s="54">
+      <c r="N95" s="52">
         <v>16.618179999999999</v>
       </c>
-      <c r="O95" s="54">
+      <c r="O95" s="52">
         <v>16.23574</v>
       </c>
-      <c r="P95" s="54">
+      <c r="P95" s="52">
         <v>15.787750000000001</v>
       </c>
-      <c r="Q95" s="54">
+      <c r="Q95" s="52">
         <v>15.92689</v>
       </c>
-      <c r="R95" s="54">
+      <c r="R95" s="52">
         <v>15.83423</v>
       </c>
-      <c r="S95" s="54">
+      <c r="S95" s="52">
         <v>15.720969999999999</v>
       </c>
-      <c r="T95" s="54">
+      <c r="T95" s="52">
         <v>16.167539999999999</v>
       </c>
     </row>
     <row r="96" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A96" s="45" t="s">
+      <c r="A96" s="43" t="s">
         <v>87</v>
       </c>
+      <c r="B96" s="22"/>
+      <c r="C96" s="22"/>
+      <c r="D96" s="22"/>
+      <c r="E96" s="22"/>
+      <c r="F96" s="22"/>
+      <c r="G96" s="22"/>
       <c r="H96" s="22"/>
-      <c r="K96" s="50"/>
-      <c r="L96" s="50"/>
-      <c r="M96" s="50"/>
-      <c r="N96" s="50"/>
-      <c r="O96" s="50"/>
-      <c r="P96" s="50"/>
-      <c r="Q96" s="50"/>
-      <c r="R96" s="50"/>
-      <c r="S96" s="50"/>
-      <c r="T96" s="50"/>
+      <c r="K96" s="48"/>
+      <c r="L96" s="48"/>
+      <c r="M96" s="48"/>
+      <c r="N96" s="48"/>
+      <c r="O96" s="48"/>
+      <c r="P96" s="48"/>
+      <c r="Q96" s="48"/>
+      <c r="R96" s="48"/>
+      <c r="S96" s="48"/>
+      <c r="T96" s="48"/>
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A97" s="47" t="s">
+      <c r="A97" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="E97" s="18">
+      <c r="B97" s="22"/>
+      <c r="C97" s="22"/>
+      <c r="D97" s="22"/>
+      <c r="E97" s="57">
         <v>21.590530000000001</v>
       </c>
-      <c r="F97" s="18"/>
-      <c r="G97" s="18">
+      <c r="F97" s="57"/>
+      <c r="G97" s="57">
         <v>22.16356</v>
       </c>
-      <c r="H97" s="59"/>
+      <c r="H97" s="57"/>
       <c r="J97" s="18"/>
-      <c r="K97" s="39">
+      <c r="K97" s="37">
         <v>20.239999999999998</v>
       </c>
-      <c r="L97" s="42">
+      <c r="L97" s="40">
         <v>19.233139999999999</v>
       </c>
-      <c r="M97" s="42">
+      <c r="M97" s="40">
         <v>18.981850000000001</v>
       </c>
-      <c r="N97" s="42">
+      <c r="N97" s="40">
         <v>18.19736</v>
       </c>
-      <c r="O97" s="42">
+      <c r="O97" s="40">
         <v>18.434570000000001</v>
       </c>
-      <c r="P97" s="42">
+      <c r="P97" s="40">
         <v>18.105</v>
       </c>
-      <c r="Q97" s="42">
+      <c r="Q97" s="40">
         <v>18.491129999999998</v>
       </c>
-      <c r="R97" s="42">
+      <c r="R97" s="40">
         <v>17.88139</v>
       </c>
-      <c r="S97" s="42">
+      <c r="S97" s="40">
         <v>18.15222</v>
       </c>
-      <c r="T97" s="42">
+      <c r="T97" s="40">
         <v>18.70373</v>
       </c>
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A98" s="68" t="s">
+      <c r="A98" s="64" t="s">
         <v>112</v>
       </c>
-      <c r="B98" s="66" t="s">
+      <c r="B98" s="77" t="s">
         <v>111</v>
       </c>
-      <c r="E98" s="9">
+      <c r="C98" s="22"/>
+      <c r="D98" s="22"/>
+      <c r="E98" s="58">
         <v>20.217140000000001</v>
       </c>
-      <c r="F98" s="18"/>
-      <c r="G98" s="9">
+      <c r="F98" s="57"/>
+      <c r="G98" s="58">
         <v>20.616230000000002</v>
       </c>
-      <c r="H98" s="59"/>
+      <c r="H98" s="57"/>
       <c r="J98" s="18"/>
-      <c r="L98" s="42"/>
-      <c r="M98" s="42"/>
-      <c r="N98" s="42"/>
-      <c r="O98" s="42"/>
-      <c r="P98" s="42"/>
-      <c r="Q98" s="42"/>
-      <c r="R98" s="42"/>
-      <c r="S98" s="42"/>
-      <c r="T98" s="42"/>
+      <c r="L98" s="40"/>
+      <c r="M98" s="40"/>
+      <c r="N98" s="40"/>
+      <c r="O98" s="40"/>
+      <c r="P98" s="40"/>
+      <c r="Q98" s="40"/>
+      <c r="R98" s="40"/>
+      <c r="S98" s="40"/>
+      <c r="T98" s="40"/>
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A99" s="52" t="s">
+      <c r="A99" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="B99" s="35"/>
-      <c r="C99" s="9"/>
-      <c r="D99" s="9"/>
-      <c r="E99" s="35"/>
-      <c r="F99" s="60"/>
-      <c r="G99" s="35"/>
-      <c r="H99" s="59"/>
+      <c r="B99" s="58"/>
+      <c r="C99" s="58"/>
+      <c r="D99" s="58"/>
+      <c r="E99" s="58"/>
+      <c r="F99" s="58"/>
+      <c r="G99" s="58"/>
+      <c r="H99" s="57"/>
       <c r="J99" s="18"/>
-      <c r="K99" s="34"/>
-      <c r="L99" s="34"/>
-      <c r="M99" s="34"/>
-      <c r="N99" s="34"/>
-      <c r="O99" s="34"/>
-      <c r="P99" s="34"/>
-      <c r="Q99" s="37"/>
-      <c r="R99" s="37"/>
-      <c r="S99" s="37"/>
-      <c r="T99" s="37"/>
+      <c r="K99" s="33"/>
+      <c r="L99" s="33"/>
+      <c r="M99" s="33"/>
+      <c r="N99" s="33"/>
+      <c r="O99" s="33"/>
+      <c r="P99" s="33"/>
+      <c r="Q99" s="35"/>
+      <c r="R99" s="35"/>
+      <c r="S99" s="35"/>
+      <c r="T99" s="35"/>
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A100" s="52" t="s">
+      <c r="A100" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="E100" s="18"/>
-      <c r="F100" s="18"/>
-      <c r="G100" s="18"/>
-      <c r="H100" s="59"/>
+      <c r="B100" s="77" t="s">
+        <v>111</v>
+      </c>
+      <c r="C100" s="22"/>
+      <c r="D100" s="22"/>
+      <c r="E100" s="77" t="s">
+        <v>111</v>
+      </c>
+      <c r="F100" s="57"/>
+      <c r="G100" s="77" t="s">
+        <v>111</v>
+      </c>
+      <c r="H100" s="57"/>
       <c r="J100" s="18"/>
-      <c r="K100" s="54">
+      <c r="K100" s="52">
         <v>20.04233</v>
       </c>
-      <c r="L100" s="54">
+      <c r="L100" s="52">
         <v>18.856629999999999</v>
       </c>
-      <c r="M100" s="54">
+      <c r="M100" s="52">
         <v>18.6297</v>
       </c>
-      <c r="N100" s="54">
+      <c r="N100" s="52">
         <v>17.883240000000001</v>
       </c>
-      <c r="O100" s="54">
+      <c r="O100" s="52">
         <v>18.46407</v>
       </c>
-      <c r="P100" s="54">
+      <c r="P100" s="52">
         <v>17.722999999999999</v>
       </c>
-      <c r="Q100" s="54">
+      <c r="Q100" s="52">
         <v>18.523630000000001</v>
       </c>
-      <c r="R100" s="54">
+      <c r="R100" s="52">
         <v>17.505289999999999</v>
       </c>
-      <c r="S100" s="54">
+      <c r="S100" s="52">
         <v>18.18845</v>
       </c>
-      <c r="T100" s="54">
+      <c r="T100" s="52">
         <v>18.492290000000001</v>
       </c>
     </row>
     <row r="101" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A101" s="45" t="s">
+      <c r="A101" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="E101" s="18"/>
-      <c r="F101" s="18"/>
-      <c r="G101" s="18"/>
-      <c r="H101" s="59"/>
+      <c r="B101" s="22"/>
+      <c r="C101" s="22"/>
+      <c r="D101" s="22"/>
+      <c r="E101" s="57"/>
+      <c r="F101" s="57"/>
+      <c r="G101" s="57"/>
+      <c r="H101" s="57"/>
       <c r="J101" s="18"/>
-      <c r="K101" s="50"/>
-      <c r="L101" s="50"/>
-      <c r="M101" s="50"/>
-      <c r="N101" s="50"/>
-      <c r="O101" s="50"/>
-      <c r="P101" s="50"/>
-      <c r="Q101" s="50"/>
-      <c r="R101" s="50"/>
-      <c r="S101" s="50"/>
-      <c r="T101" s="50"/>
+      <c r="K101" s="48"/>
+      <c r="L101" s="48"/>
+      <c r="M101" s="48"/>
+      <c r="N101" s="48"/>
+      <c r="O101" s="48"/>
+      <c r="P101" s="48"/>
+      <c r="Q101" s="48"/>
+      <c r="R101" s="48"/>
+      <c r="S101" s="48"/>
+      <c r="T101" s="48"/>
     </row>
     <row r="102" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B102" s="22"/>
+      <c r="C102" s="22"/>
+      <c r="D102" s="22"/>
+      <c r="E102" s="22"/>
+      <c r="F102" s="22"/>
+      <c r="G102" s="22"/>
       <c r="H102" s="22"/>
       <c r="J102" s="18"/>
     </row>
     <row r="103" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B103" s="22"/>
+      <c r="C103" s="22"/>
+      <c r="D103" s="22"/>
+      <c r="E103" s="22"/>
+      <c r="F103" s="22"/>
+      <c r="G103" s="22"/>
       <c r="H103" s="22"/>
     </row>
     <row r="105" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="M105" s="41"/>
-      <c r="N105" s="41"/>
-      <c r="O105" s="41"/>
-      <c r="P105" s="41"/>
+      <c r="M105" s="39"/>
+      <c r="N105" s="39"/>
+      <c r="O105" s="39"/>
+      <c r="P105" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -13532,18 +13713,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
     </row>
     <row r="2" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="B2" s="13" t="s">
@@ -13581,57 +13762,57 @@
       <c r="A3" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="31">
+      <c r="B3" s="30">
         <v>4377</v>
       </c>
-      <c r="C3" s="31">
+      <c r="C3" s="30">
         <v>4873</v>
       </c>
-      <c r="D3" s="31">
+      <c r="D3" s="30">
         <v>4558</v>
       </c>
-      <c r="E3" s="31">
+      <c r="E3" s="30">
         <v>4524</v>
       </c>
-      <c r="F3" s="31">
+      <c r="F3" s="30">
         <v>4860</v>
       </c>
-      <c r="G3" s="31">
+      <c r="G3" s="30">
         <v>5177</v>
       </c>
-      <c r="H3" s="31">
+      <c r="H3" s="30">
         <v>4580</v>
       </c>
-      <c r="I3" s="31">
+      <c r="I3" s="30">
         <v>4816</v>
       </c>
-      <c r="J3" s="31">
+      <c r="J3" s="30">
         <v>4677</v>
       </c>
-      <c r="K3" s="31">
+      <c r="K3" s="30">
         <v>4552</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
     </row>
     <row r="5" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="32">
+      <c r="B5" s="31">
         <v>2225</v>
       </c>
       <c r="C5" s="4">
@@ -13666,7 +13847,7 @@
       <c r="A6" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="32">
+      <c r="B6" s="31">
         <v>2225</v>
       </c>
       <c r="C6" s="4">
@@ -13701,7 +13882,7 @@
       <c r="A7" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="32">
+      <c r="B7" s="31">
         <v>2225</v>
       </c>
       <c r="C7" s="4">
@@ -13736,7 +13917,7 @@
       <c r="A8" t="s">
         <v>70</v>
       </c>
-      <c r="B8" s="32">
+      <c r="B8" s="31">
         <v>2225</v>
       </c>
       <c r="C8" s="4">
@@ -13771,7 +13952,7 @@
       <c r="A9" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="32">
+      <c r="B9" s="31">
         <v>2218</v>
       </c>
       <c r="C9" s="4">
@@ -13806,7 +13987,7 @@
       <c r="A10" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="32">
+      <c r="B10" s="31">
         <v>2225</v>
       </c>
       <c r="C10" s="4">
@@ -13841,7 +14022,7 @@
       <c r="A11" t="s">
         <v>72</v>
       </c>
-      <c r="B11" s="32">
+      <c r="B11" s="31">
         <v>3035</v>
       </c>
       <c r="C11" s="4">
@@ -13894,13 +14075,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="28" t="s">
         <v>59</v>
       </c>
     </row>
@@ -13908,10 +14089,10 @@
       <c r="A2" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="29" t="s">
         <v>62</v>
       </c>
       <c r="I2" t="s">
@@ -13931,10 +14112,10 @@
       <c r="A3" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="29" t="s">
         <v>63</v>
       </c>
       <c r="I3">
@@ -13942,7 +14123,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G4" s="70" t="s">
+      <c r="G4" s="66" t="s">
         <v>59</v>
       </c>
       <c r="I4">
@@ -13951,7 +14132,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="28" t="s">
         <v>65</v>
       </c>
     </row>
@@ -13991,7 +14172,7 @@
       <c r="A10" t="s">
         <v>117</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="28" t="s">
         <v>68</v>
       </c>
     </row>
@@ -14004,7 +14185,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="28" t="s">
         <v>67</v>
       </c>
       <c r="B12" t="s">
@@ -14032,10 +14213,10 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C14" s="29"/>
+      <c r="C14" s="28"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C15" s="29"/>
+      <c r="C15" s="28"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
@@ -14071,7 +14252,7 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C19" s="29"/>
+      <c r="C19" s="28"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
@@ -14139,13 +14320,13 @@
       <c r="F25" t="s">
         <v>58</v>
       </c>
-      <c r="G25" s="69">
+      <c r="G25" s="65">
         <f>SUM(C26:D26)/SUM(C25:D26)</f>
         <v>0.15284039675383229</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="29"/>
+      <c r="A26" s="28"/>
       <c r="B26" t="s">
         <v>56</v>
       </c>
@@ -14158,7 +14339,7 @@
       <c r="F26" t="s">
         <v>59</v>
       </c>
-      <c r="G26" s="69">
+      <c r="G26" s="65">
         <f>SUM(D25:D26)/SUM(C25:D26)</f>
         <v>0.17312894499549145</v>
       </c>
@@ -14175,7 +14356,7 @@
       <c r="A29" t="s">
         <v>121</v>
       </c>
-      <c r="B29" s="29" t="s">
+      <c r="B29" s="28" t="s">
         <v>122</v>
       </c>
     </row>
@@ -14203,7 +14384,7 @@
       <c r="A35" t="s">
         <v>125</v>
       </c>
-      <c r="B35" s="29" t="s">
+      <c r="B35" s="28" t="s">
         <v>126</v>
       </c>
     </row>
@@ -14307,23 +14488,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="F1" s="71" t="s">
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="F1" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
       <c r="R1" s="9"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
@@ -15375,83 +15556,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:72" x14ac:dyDescent="0.2">
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="R1" s="73" t="s">
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="R1" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="S1" s="73"/>
-      <c r="T1" s="73"/>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73"/>
-      <c r="W1" s="73"/>
-      <c r="X1" s="73"/>
-      <c r="Y1" s="73"/>
-      <c r="Z1" s="73"/>
-      <c r="AA1" s="73"/>
-      <c r="AB1" s="73"/>
-      <c r="AC1" s="73"/>
-      <c r="AD1" s="73"/>
-      <c r="AF1" s="73" t="s">
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
+      <c r="W1" s="72"/>
+      <c r="X1" s="72"/>
+      <c r="Y1" s="72"/>
+      <c r="Z1" s="72"/>
+      <c r="AA1" s="72"/>
+      <c r="AB1" s="72"/>
+      <c r="AC1" s="72"/>
+      <c r="AD1" s="72"/>
+      <c r="AF1" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="AG1" s="73"/>
-      <c r="AH1" s="73"/>
-      <c r="AI1" s="73"/>
-      <c r="AJ1" s="73"/>
-      <c r="AK1" s="73"/>
-      <c r="AL1" s="73"/>
-      <c r="AM1" s="73"/>
-      <c r="AN1" s="73"/>
-      <c r="AO1" s="73"/>
-      <c r="AP1" s="73"/>
-      <c r="AQ1" s="73"/>
-      <c r="AR1" s="73"/>
-      <c r="AT1" s="73" t="s">
+      <c r="AG1" s="72"/>
+      <c r="AH1" s="72"/>
+      <c r="AI1" s="72"/>
+      <c r="AJ1" s="72"/>
+      <c r="AK1" s="72"/>
+      <c r="AL1" s="72"/>
+      <c r="AM1" s="72"/>
+      <c r="AN1" s="72"/>
+      <c r="AO1" s="72"/>
+      <c r="AP1" s="72"/>
+      <c r="AQ1" s="72"/>
+      <c r="AR1" s="72"/>
+      <c r="AT1" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="AU1" s="73"/>
-      <c r="AV1" s="73"/>
-      <c r="AW1" s="73"/>
-      <c r="AX1" s="73"/>
-      <c r="AY1" s="73"/>
-      <c r="AZ1" s="73"/>
-      <c r="BA1" s="73"/>
-      <c r="BB1" s="73"/>
-      <c r="BC1" s="73"/>
-      <c r="BD1" s="73"/>
-      <c r="BE1" s="73"/>
-      <c r="BF1" s="73"/>
-      <c r="BH1" s="73" t="s">
+      <c r="AU1" s="72"/>
+      <c r="AV1" s="72"/>
+      <c r="AW1" s="72"/>
+      <c r="AX1" s="72"/>
+      <c r="AY1" s="72"/>
+      <c r="AZ1" s="72"/>
+      <c r="BA1" s="72"/>
+      <c r="BB1" s="72"/>
+      <c r="BC1" s="72"/>
+      <c r="BD1" s="72"/>
+      <c r="BE1" s="72"/>
+      <c r="BF1" s="72"/>
+      <c r="BH1" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="BI1" s="73"/>
-      <c r="BJ1" s="73"/>
-      <c r="BK1" s="73"/>
-      <c r="BL1" s="73"/>
-      <c r="BM1" s="73"/>
-      <c r="BN1" s="73"/>
-      <c r="BO1" s="73"/>
-      <c r="BP1" s="73"/>
-      <c r="BQ1" s="73"/>
-      <c r="BR1" s="73"/>
-      <c r="BS1" s="73"/>
-      <c r="BT1" s="73"/>
+      <c r="BI1" s="72"/>
+      <c r="BJ1" s="72"/>
+      <c r="BK1" s="72"/>
+      <c r="BL1" s="72"/>
+      <c r="BM1" s="72"/>
+      <c r="BN1" s="72"/>
+      <c r="BO1" s="72"/>
+      <c r="BP1" s="72"/>
+      <c r="BQ1" s="72"/>
+      <c r="BR1" s="72"/>
+      <c r="BS1" s="72"/>
+      <c r="BT1" s="72"/>
     </row>
     <row r="2" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>

--- a/FRS_tabs.xlsx
+++ b/FRS_tabs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4080" yWindow="460" windowWidth="26280" windowHeight="16820" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="6560" yWindow="-18820" windowWidth="26280" windowHeight="16820" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="FRS - All" sheetId="2" r:id="rId1"/>
@@ -886,6 +886,11 @@
     <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -895,11 +900,6 @@
     <xf numFmtId="2" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="52">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1221,8 +1221,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1243789440"/>
-        <c:axId val="1244210448"/>
+        <c:axId val="-840233280"/>
+        <c:axId val="-841074656"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1362,11 +1362,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1241584400"/>
-        <c:axId val="1245196704"/>
+        <c:axId val="-841067952"/>
+        <c:axId val="-841070272"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1243789440"/>
+        <c:axId val="-840233280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1406,7 +1406,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1244210448"/>
+        <c:crossAx val="-841074656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1414,7 +1414,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1244210448"/>
+        <c:axId val="-841074656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="12.0"/>
@@ -1509,13 +1509,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1243789440"/>
+        <c:crossAx val="-840233280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1245196704"/>
+        <c:axId val="-841070272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.08"/>
@@ -1553,12 +1553,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1241584400"/>
+        <c:crossAx val="-841067952"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1241584400"/>
+        <c:axId val="-841067952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1567,7 +1567,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1245196704"/>
+        <c:crossAx val="-841070272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2573,11 +2573,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1244994784"/>
-        <c:axId val="1245128912"/>
+        <c:axId val="-840199872"/>
+        <c:axId val="-840196608"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1244994784"/>
+        <c:axId val="-840199872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2620,7 +2620,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1245128912"/>
+        <c:crossAx val="-840196608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2628,7 +2628,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1245128912"/>
+        <c:axId val="-840196608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="10.0"/>
@@ -2735,7 +2735,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1244994784"/>
+        <c:crossAx val="-840199872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3728,11 +3728,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1241595280"/>
-        <c:axId val="1241597568"/>
+        <c:axId val="-840130544"/>
+        <c:axId val="-840127280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1241595280"/>
+        <c:axId val="-840130544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3775,7 +3775,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1241597568"/>
+        <c:crossAx val="-840127280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3783,7 +3783,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1241597568"/>
+        <c:axId val="-840127280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3834,7 +3834,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1241595280"/>
+        <c:crossAx val="-840130544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4192,8 +4192,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1241941408"/>
-        <c:axId val="1241943728"/>
+        <c:axId val="-813661152"/>
+        <c:axId val="-813658400"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4387,11 +4387,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1242090976"/>
-        <c:axId val="1241947120"/>
+        <c:axId val="-813650880"/>
+        <c:axId val="-813654640"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1241941408"/>
+        <c:axId val="-813661152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4434,7 +4434,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1241943728"/>
+        <c:crossAx val="-813658400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4442,7 +4442,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1241943728"/>
+        <c:axId val="-813658400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="180.0"/>
@@ -4549,12 +4549,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1241941408"/>
+        <c:crossAx val="-813661152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1241947120"/>
+        <c:axId val="-813654640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4646,12 +4646,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1242090976"/>
+        <c:crossAx val="-813650880"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1242090976"/>
+        <c:axId val="-813650880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4660,7 +4660,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1241947120"/>
+        <c:crossAx val="-813654640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5471,11 +5471,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1242099680"/>
-        <c:axId val="1242067632"/>
+        <c:axId val="-840982112"/>
+        <c:axId val="-840978848"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1242099680"/>
+        <c:axId val="-840982112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5518,7 +5518,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1242067632"/>
+        <c:crossAx val="-840978848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5526,7 +5526,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1242067632"/>
+        <c:axId val="-840978848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="180.0"/>
@@ -5578,7 +5578,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1242099680"/>
+        <c:crossAx val="-840982112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5912,11 +5912,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1242081408"/>
-        <c:axId val="1242051120"/>
+        <c:axId val="-812623856"/>
+        <c:axId val="-812621104"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1242081408"/>
+        <c:axId val="-812623856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5959,7 +5959,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1242051120"/>
+        <c:crossAx val="-812621104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5967,7 +5967,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1242051120"/>
+        <c:axId val="-812621104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6018,7 +6018,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1242081408"/>
+        <c:crossAx val="-812623856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9416,7 +9416,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3814DCA5-E739-48F8-B0E6-5DAE3BD8D6DF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3814DCA5-E739-48F8-B0E6-5DAE3BD8D6DF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9449,7 +9449,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5CB41B8-13DC-4EAE-B2CA-47CBAE4DA728}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F5CB41B8-13DC-4EAE-B2CA-47CBAE4DA728}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9482,7 +9482,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9718F15D-DDA3-4502-9814-C910CFD7923C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9718F15D-DDA3-4502-9814-C910CFD7923C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9525,7 +9525,7 @@
         <xdr:cNvPr id="3" name="Straight Connector 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEDB33E-0C98-4268-8DFA-48B4492B8054}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEDB33E-0C98-4268-8DFA-48B4492B8054}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9575,7 +9575,7 @@
         <xdr:cNvPr id="5" name="Straight Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5DCBB81-D5FD-41FB-8679-A378BAA3A6A0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A5DCBB81-D5FD-41FB-8679-A378BAA3A6A0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9625,7 +9625,7 @@
         <xdr:cNvPr id="7" name="Straight Connector 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8871975-A065-40B2-A8DF-972697C7B8CD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B8871975-A065-40B2-A8DF-972697C7B8CD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9675,7 +9675,7 @@
         <xdr:cNvPr id="9" name="Straight Connector 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A40778BC-5665-464C-BFBB-9C5CBCE83F7A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A40778BC-5665-464C-BFBB-9C5CBCE83F7A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9725,7 +9725,7 @@
         <xdr:cNvPr id="11" name="Straight Connector 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50138399-B3EB-434F-836D-1875B4B06BE1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{50138399-B3EB-434F-836D-1875B4B06BE1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9778,7 +9778,7 @@
         <xdr:cNvPr id="12" name="Straight Connector 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D660D21-B51A-446B-942C-1A3FCF697F7E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6D660D21-B51A-446B-942C-1A3FCF697F7E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9828,7 +9828,7 @@
         <xdr:cNvPr id="13" name="Straight Connector 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{199C4030-AB22-4529-BEE1-4A656793B298}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{199C4030-AB22-4529-BEE1-4A656793B298}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9878,7 +9878,7 @@
         <xdr:cNvPr id="14" name="Freeform: Shape 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9175F49-0BEE-4CB9-BB7E-8989C18D5AF1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B9175F49-0BEE-4CB9-BB7E-8989C18D5AF1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10022,7 +10022,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6799A617-2199-4FA0-9AAE-B022587C939D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6799A617-2199-4FA0-9AAE-B022587C939D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10055,7 +10055,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE41EAA9-E7EF-4331-BAC6-50A2C67981F5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CE41EAA9-E7EF-4331-BAC6-50A2C67981F5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10088,7 +10088,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7AFBC52-30D3-4075-9EC8-31B7671415DF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7AFBC52-30D3-4075-9EC8-31B7671415DF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10411,10 +10411,10 @@
   <dimension ref="A1:AB105"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B85" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G56" sqref="G56"/>
+      <selection pane="bottomRight" activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10434,26 +10434,26 @@
         <v>53</v>
       </c>
       <c r="C1" s="23"/>
-      <c r="D1" s="70" t="s">
+      <c r="D1" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
       <c r="H1" s="24"/>
       <c r="J1" s="24"/>
-      <c r="K1" s="71" t="s">
+      <c r="K1" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -10600,16 +10600,16 @@
       <c r="A6" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="74">
+      <c r="B6" s="71">
         <v>16.140450000000001</v>
       </c>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
-      <c r="E6" s="74">
+      <c r="E6" s="71">
         <v>15.07868</v>
       </c>
       <c r="F6" s="22"/>
-      <c r="G6" s="74">
+      <c r="G6" s="71">
         <v>15.15945</v>
       </c>
       <c r="H6" s="9"/>
@@ -10730,14 +10730,14 @@
       <c r="A11" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="B11" s="74">
+      <c r="B11" s="71">
         <v>15.9945</v>
       </c>
-      <c r="E11" s="74">
+      <c r="E11" s="71">
         <v>15.1851</v>
       </c>
       <c r="F11" s="22"/>
-      <c r="G11" s="74">
+      <c r="G11" s="71">
         <v>15.26534</v>
       </c>
       <c r="H11" s="9"/>
@@ -10927,11 +10927,11 @@
       <c r="B18" s="52">
         <v>16.7758</v>
       </c>
-      <c r="E18" s="76">
+      <c r="E18" s="73">
         <v>16.876090000000001</v>
       </c>
       <c r="F18" s="56"/>
-      <c r="G18" s="76">
+      <c r="G18" s="73">
         <v>17.281040000000001</v>
       </c>
       <c r="H18" s="56"/>
@@ -11102,11 +11102,11 @@
       <c r="B23" s="52">
         <v>15.64917</v>
       </c>
-      <c r="E23" s="76">
+      <c r="E23" s="73">
         <v>15.37388</v>
       </c>
       <c r="F23" s="56"/>
-      <c r="G23" s="76">
+      <c r="G23" s="73">
         <v>14.87846</v>
       </c>
       <c r="H23" s="56"/>
@@ -11261,11 +11261,11 @@
       <c r="B28" s="52">
         <v>15.62261</v>
       </c>
-      <c r="E28" s="74">
+      <c r="E28" s="71">
         <v>14.39232</v>
       </c>
       <c r="F28" s="22"/>
-      <c r="G28" s="74">
+      <c r="G28" s="71">
         <v>14.31466</v>
       </c>
       <c r="H28" s="22"/>
@@ -11407,9 +11407,9 @@
       <c r="B32" s="22"/>
       <c r="C32" s="22"/>
       <c r="D32" s="22"/>
-      <c r="E32" s="73"/>
+      <c r="E32" s="70"/>
       <c r="F32" s="22"/>
-      <c r="G32" s="73"/>
+      <c r="G32" s="70"/>
       <c r="H32" s="22"/>
       <c r="K32" s="38"/>
       <c r="L32" s="38"/>
@@ -11433,11 +11433,11 @@
       <c r="B33" s="52">
         <v>15.80556</v>
       </c>
-      <c r="E33" s="74">
+      <c r="E33" s="71">
         <v>13.69</v>
       </c>
       <c r="F33" s="22"/>
-      <c r="G33" s="74">
+      <c r="G33" s="71">
         <v>13.669980000000001</v>
       </c>
       <c r="H33" s="22"/>
@@ -11615,11 +11615,11 @@
       <c r="B39" s="52">
         <v>16.628</v>
       </c>
-      <c r="E39" s="74">
+      <c r="E39" s="71">
         <v>16.800380000000001</v>
       </c>
       <c r="F39" s="22"/>
-      <c r="G39" s="74">
+      <c r="G39" s="71">
         <v>17.09845</v>
       </c>
       <c r="H39" s="22"/>
@@ -11789,11 +11789,11 @@
       </c>
       <c r="C44" s="22"/>
       <c r="D44" s="22"/>
-      <c r="E44" s="75">
+      <c r="E44" s="72">
         <v>14.87846</v>
       </c>
       <c r="F44" s="57"/>
-      <c r="G44" s="75">
+      <c r="G44" s="72">
         <v>15.216570000000001</v>
       </c>
       <c r="H44" s="57"/>
@@ -11963,11 +11963,11 @@
       </c>
       <c r="C49" s="22"/>
       <c r="D49" s="22"/>
-      <c r="E49" s="74">
+      <c r="E49" s="71">
         <v>14.244</v>
       </c>
       <c r="F49" s="22"/>
-      <c r="G49" s="74">
+      <c r="G49" s="71">
         <v>14.11279</v>
       </c>
       <c r="H49" s="22"/>
@@ -12121,11 +12121,11 @@
       <c r="B54" s="52">
         <v>15.597569999999999</v>
       </c>
-      <c r="E54" s="74">
+      <c r="E54" s="71">
         <v>13.5219</v>
       </c>
       <c r="F54" s="22"/>
-      <c r="G54" s="74">
+      <c r="G54" s="71">
         <v>13.453329999999999</v>
       </c>
       <c r="H54" s="22"/>
@@ -12390,10 +12390,10 @@
       <c r="B64" s="52">
         <v>13.23739</v>
       </c>
-      <c r="E64" s="74">
+      <c r="E64" s="71">
         <v>11.243919999999999</v>
       </c>
-      <c r="G64" s="74">
+      <c r="G64" s="71">
         <v>11.59456</v>
       </c>
       <c r="H64" s="22"/>
@@ -12564,10 +12564,10 @@
       <c r="B69" s="52">
         <v>16.97439</v>
       </c>
-      <c r="E69" s="74">
+      <c r="E69" s="71">
         <v>15.730589999999999</v>
       </c>
-      <c r="G69" s="74">
+      <c r="G69" s="71">
         <v>15.552070000000001</v>
       </c>
       <c r="H69" s="22"/>
@@ -12745,10 +12745,10 @@
       <c r="B74" s="52">
         <v>19.534559999999999</v>
       </c>
-      <c r="E74" s="74">
+      <c r="E74" s="71">
         <v>18.35697</v>
       </c>
-      <c r="G74" s="74">
+      <c r="G74" s="71">
         <v>18.111979999999999</v>
       </c>
       <c r="H74" s="22"/>
@@ -13098,10 +13098,10 @@
       <c r="B85" s="52">
         <v>13.380990000000001</v>
       </c>
-      <c r="E85" s="74">
+      <c r="E85" s="71">
         <v>11.253970000000001</v>
       </c>
-      <c r="G85" s="74">
+      <c r="G85" s="71">
         <v>11.59909</v>
       </c>
       <c r="H85" s="22"/>
@@ -13271,10 +13271,10 @@
       <c r="B90" s="52">
         <v>16.91761</v>
       </c>
-      <c r="E90" s="74">
+      <c r="E90" s="71">
         <v>15.73494</v>
       </c>
-      <c r="G90" s="74">
+      <c r="G90" s="71">
         <v>15.5692</v>
       </c>
       <c r="H90" s="22"/>
@@ -13434,11 +13434,11 @@
       </c>
       <c r="C95" s="22"/>
       <c r="D95" s="22"/>
-      <c r="E95" s="74">
+      <c r="E95" s="71">
         <v>18.378430000000002</v>
       </c>
       <c r="F95" s="22"/>
-      <c r="G95" s="74">
+      <c r="G95" s="71">
         <v>18.110900000000001</v>
       </c>
       <c r="H95" s="22"/>
@@ -13546,7 +13546,7 @@
       <c r="A98" s="64" t="s">
         <v>112</v>
       </c>
-      <c r="B98" s="77" t="s">
+      <c r="B98" s="74" t="s">
         <v>111</v>
       </c>
       <c r="C98" s="22"/>
@@ -13597,16 +13597,16 @@
       <c r="A100" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="B100" s="77" t="s">
+      <c r="B100" s="74" t="s">
         <v>111</v>
       </c>
       <c r="C100" s="22"/>
       <c r="D100" s="22"/>
-      <c r="E100" s="77" t="s">
+      <c r="E100" s="74" t="s">
         <v>111</v>
       </c>
       <c r="F100" s="57"/>
-      <c r="G100" s="77" t="s">
+      <c r="G100" s="74" t="s">
         <v>111</v>
       </c>
       <c r="H100" s="57"/>
@@ -13713,18 +13713,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
     </row>
     <row r="2" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="B2" s="13" t="s">
@@ -14488,23 +14488,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="F1" s="70" t="s">
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="F1" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
       <c r="R1" s="9"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
@@ -15556,83 +15556,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:72" x14ac:dyDescent="0.2">
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="R1" s="72" t="s">
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="R1" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
-      <c r="W1" s="72"/>
-      <c r="X1" s="72"/>
-      <c r="Y1" s="72"/>
-      <c r="Z1" s="72"/>
-      <c r="AA1" s="72"/>
-      <c r="AB1" s="72"/>
-      <c r="AC1" s="72"/>
-      <c r="AD1" s="72"/>
-      <c r="AF1" s="72" t="s">
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
+      <c r="W1" s="77"/>
+      <c r="X1" s="77"/>
+      <c r="Y1" s="77"/>
+      <c r="Z1" s="77"/>
+      <c r="AA1" s="77"/>
+      <c r="AB1" s="77"/>
+      <c r="AC1" s="77"/>
+      <c r="AD1" s="77"/>
+      <c r="AF1" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="AG1" s="72"/>
-      <c r="AH1" s="72"/>
-      <c r="AI1" s="72"/>
-      <c r="AJ1" s="72"/>
-      <c r="AK1" s="72"/>
-      <c r="AL1" s="72"/>
-      <c r="AM1" s="72"/>
-      <c r="AN1" s="72"/>
-      <c r="AO1" s="72"/>
-      <c r="AP1" s="72"/>
-      <c r="AQ1" s="72"/>
-      <c r="AR1" s="72"/>
-      <c r="AT1" s="72" t="s">
+      <c r="AG1" s="77"/>
+      <c r="AH1" s="77"/>
+      <c r="AI1" s="77"/>
+      <c r="AJ1" s="77"/>
+      <c r="AK1" s="77"/>
+      <c r="AL1" s="77"/>
+      <c r="AM1" s="77"/>
+      <c r="AN1" s="77"/>
+      <c r="AO1" s="77"/>
+      <c r="AP1" s="77"/>
+      <c r="AQ1" s="77"/>
+      <c r="AR1" s="77"/>
+      <c r="AT1" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="AU1" s="72"/>
-      <c r="AV1" s="72"/>
-      <c r="AW1" s="72"/>
-      <c r="AX1" s="72"/>
-      <c r="AY1" s="72"/>
-      <c r="AZ1" s="72"/>
-      <c r="BA1" s="72"/>
-      <c r="BB1" s="72"/>
-      <c r="BC1" s="72"/>
-      <c r="BD1" s="72"/>
-      <c r="BE1" s="72"/>
-      <c r="BF1" s="72"/>
-      <c r="BH1" s="72" t="s">
+      <c r="AU1" s="77"/>
+      <c r="AV1" s="77"/>
+      <c r="AW1" s="77"/>
+      <c r="AX1" s="77"/>
+      <c r="AY1" s="77"/>
+      <c r="AZ1" s="77"/>
+      <c r="BA1" s="77"/>
+      <c r="BB1" s="77"/>
+      <c r="BC1" s="77"/>
+      <c r="BD1" s="77"/>
+      <c r="BE1" s="77"/>
+      <c r="BF1" s="77"/>
+      <c r="BH1" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="BI1" s="72"/>
-      <c r="BJ1" s="72"/>
-      <c r="BK1" s="72"/>
-      <c r="BL1" s="72"/>
-      <c r="BM1" s="72"/>
-      <c r="BN1" s="72"/>
-      <c r="BO1" s="72"/>
-      <c r="BP1" s="72"/>
-      <c r="BQ1" s="72"/>
-      <c r="BR1" s="72"/>
-      <c r="BS1" s="72"/>
-      <c r="BT1" s="72"/>
+      <c r="BI1" s="77"/>
+      <c r="BJ1" s="77"/>
+      <c r="BK1" s="77"/>
+      <c r="BL1" s="77"/>
+      <c r="BM1" s="77"/>
+      <c r="BN1" s="77"/>
+      <c r="BO1" s="77"/>
+      <c r="BP1" s="77"/>
+      <c r="BQ1" s="77"/>
+      <c r="BR1" s="77"/>
+      <c r="BS1" s="77"/>
+      <c r="BT1" s="77"/>
     </row>
     <row r="2" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>

--- a/FRS_tabs.xlsx
+++ b/FRS_tabs.xlsx
@@ -1,55 +1,48 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28702"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bryankim/Library/Mobile Documents/com~apple~CloudDocs/Documents/NBER/Case Deaton/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bryankim/Documents/NBER/Case Deaton/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC11F46F-1DD3-AC4E-8BCD-3BDA75D04881}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28420" windowHeight="15260"/>
+    <workbookView xWindow="3620" yWindow="2100" windowWidth="20040" windowHeight="13020" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="To Do" sheetId="16" r:id="rId1"/>
     <sheet name="All" sheetId="14" r:id="rId2"/>
     <sheet name="By Education" sheetId="15" r:id="rId3"/>
     <sheet name="Data" sheetId="1" r:id="rId4"/>
-    <sheet name="FGT v HbA1c" sheetId="12" r:id="rId5"/>
-    <sheet name="Cox Data" sheetId="11" r:id="rId6"/>
-    <sheet name="Cholesterol" sheetId="7" r:id="rId7"/>
-    <sheet name="Cholesterol - By Education" sheetId="8" r:id="rId8"/>
-    <sheet name="Diabetes" sheetId="9" r:id="rId9"/>
-    <sheet name="Missing Data" sheetId="13" r:id="rId10"/>
-    <sheet name="Risk Factor Tabs" sheetId="6" r:id="rId11"/>
+    <sheet name="ATP3" sheetId="17" r:id="rId5"/>
+    <sheet name="Missing Data" sheetId="13" r:id="rId6"/>
+    <sheet name="FGT v HbA1c" sheetId="12" r:id="rId7"/>
+    <sheet name="Cox Data" sheetId="11" r:id="rId8"/>
+    <sheet name="Cholesterol" sheetId="7" r:id="rId9"/>
+    <sheet name="Cholesterol - By Education" sheetId="8" r:id="rId10"/>
+    <sheet name="Diabetes" sheetId="9" r:id="rId11"/>
+    <sheet name="Risk Factor Tabs" sheetId="6" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="180">
   <si>
     <t>FRS Average</t>
   </si>
@@ -540,16 +533,71 @@
     <t>Predict mortality by education</t>
   </si>
   <si>
-    <t>l</t>
+    <t>treated</t>
+  </si>
+  <si>
+    <t>Age-Sex adjusted All ATP3</t>
+  </si>
+  <si>
+    <t>All ATP3</t>
+  </si>
+  <si>
+    <t>Survey</t>
+  </si>
+  <si>
+    <t>N 45-74</t>
+  </si>
+  <si>
+    <t>NHANES III P1</t>
+  </si>
+  <si>
+    <t>NHANES III P2</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>hdl</t>
+  </si>
+  <si>
+    <t>total chol</t>
+  </si>
+  <si>
+    <t>asbp</t>
+  </si>
+  <si>
+    <t>curr_smq</t>
+  </si>
+  <si>
+    <t># missing:</t>
+  </si>
+  <si>
+    <t>Sample</t>
+  </si>
+  <si>
+    <t># start with:</t>
+  </si>
+  <si>
+    <t># use:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="21" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -724,7 +772,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -776,159 +824,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="51" applyFont="1" applyAlignment="1">
@@ -937,21 +994,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1023,7 +1093,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1037,7 +1107,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1142,22 +1211,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>16.78532</c:v>
+                  <c:v>18.180810000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16.05023</c:v>
+                  <c:v>16.747975</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>15.31514</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.41031</c:v>
+                  <c:v>15.410310000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15.09756</c:v>
+                  <c:v>16.9619</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14.78481</c:v>
+                  <c:v>18.513490000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>14.49381</c:v>
@@ -1169,19 +1238,19 @@
                   <c:v>13.73213</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13.47699</c:v>
+                  <c:v>13.476990000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13.15107</c:v>
+                  <c:v>13.151070000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>13.93413</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13.4708</c:v>
+                  <c:v>13.470800000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13.8039</c:v>
+                  <c:v>13.803900000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>13.51606</c:v>
@@ -1190,7 +1259,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2C2D-484A-B55E-F08D8DFBB01D}"/>
             </c:ext>
@@ -1205,11 +1274,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1950814768"/>
-        <c:axId val="-1950812448"/>
+        <c:axId val="590309551"/>
+        <c:axId val="590312047"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1950814768"/>
+        <c:axId val="590309551"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1252,7 +1321,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1950812448"/>
+        <c:crossAx val="590312047"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1260,10 +1329,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1950812448"/>
+        <c:axId val="590312047"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="10.0"/>
+          <c:min val="10"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1312,7 +1381,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1950814768"/>
+        <c:crossAx val="590309551"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1326,14 +1395,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1364,7 +1433,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1378,7 +1447,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1436,28 +1504,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>17.49143</c:v>
+                  <c:v>17.491430000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>17.056075</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16.62072</c:v>
+                  <c:v>16.620719999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>16.8552</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.50083</c:v>
+                  <c:v>16.500830000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16.14646</c:v>
+                  <c:v>16.146460000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>16.27862</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15.43043</c:v>
+                  <c:v>15.430429999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>15.93717</c:v>
@@ -1466,7 +1534,7 @@
                   <c:v>15.22517</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>14.56506</c:v>
+                  <c:v>14.565060000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>14.93369</c:v>
@@ -1475,16 +1543,16 @@
                   <c:v>14.78468</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>15.21746</c:v>
+                  <c:v>15.217460000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15.13431</c:v>
+                  <c:v>15.134309999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-96EA-4E8D-9431-883859A1BEF8}"/>
             </c:ext>
@@ -1515,13 +1583,13 @@
                   <c:v>16.35652</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.68963</c:v>
+                  <c:v>15.689630000000001</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0.00">
-                  <c:v>15.02274</c:v>
+                  <c:v>15.022740000000001</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="0.00">
-                  <c:v>15.26958</c:v>
+                  <c:v>15.269579999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>15.13523</c:v>
@@ -1530,7 +1598,7 @@
                   <c:v>15.00088</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15.14229</c:v>
+                  <c:v>15.142289999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>14.03617</c:v>
@@ -1551,16 +1619,16 @@
                   <c:v>14.15527</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14.28137</c:v>
+                  <c:v>14.281370000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14.51391</c:v>
+                  <c:v>14.513909999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-96EA-4E8D-9431-883859A1BEF8}"/>
             </c:ext>
@@ -1588,19 +1656,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>16.20659</c:v>
+                  <c:v>16.206589999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.30409</c:v>
+                  <c:v>15.304089999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.40159</c:v>
+                  <c:v>14.401590000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>14.58329</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14.723705</c:v>
+                  <c:v>14.723704999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>14.86412</c:v>
@@ -1612,10 +1680,10 @@
                   <c:v>13.64823</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13.42208</c:v>
+                  <c:v>13.422079999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13.35208</c:v>
+                  <c:v>13.352080000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>13.43695</c:v>
@@ -1627,16 +1695,16 @@
                   <c:v>13.4695</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13.86432</c:v>
+                  <c:v>13.864319999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>12.99941</c:v>
+                  <c:v>12.999409999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-96EA-4E8D-9431-883859A1BEF8}"/>
             </c:ext>
@@ -1664,10 +1732,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>16.01216</c:v>
+                  <c:v>16.012160000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.07522</c:v>
+                  <c:v>15.075220000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>14.13828</c:v>
@@ -1679,25 +1747,25 @@
                   <c:v>13.40879</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.84583</c:v>
+                  <c:v>12.845829999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13.33383</c:v>
+                  <c:v>13.333830000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13.27123</c:v>
+                  <c:v>13.271229999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.79835</c:v>
+                  <c:v>11.798349999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>11.49788</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.24969</c:v>
+                  <c:v>11.249689999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.35429</c:v>
+                  <c:v>12.354290000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>12.3088</c:v>
@@ -1712,7 +1780,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-96EA-4E8D-9431-883859A1BEF8}"/>
             </c:ext>
@@ -1727,11 +1795,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1950782832"/>
-        <c:axId val="-1950779568"/>
+        <c:axId val="931602335"/>
+        <c:axId val="931598175"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1950782832"/>
+        <c:axId val="931602335"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1773,7 +1841,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1950779568"/>
+        <c:crossAx val="931598175"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1781,10 +1849,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1950779568"/>
+        <c:axId val="931598175"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="10.0"/>
+          <c:min val="10"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1833,7 +1901,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1950782832"/>
+        <c:crossAx val="931602335"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1847,7 +1915,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1879,14 +1946,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1917,7 +1984,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1956,7 +2023,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2084,43 +2150,43 @@
                   <c:v>223.2714</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>218.8188</c:v>
+                  <c:v>218.81880000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>215.2425</c:v>
+                  <c:v>215.24250000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>211.5606</c:v>
+                  <c:v>211.56059999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>208.959</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>205.0195</c:v>
+                  <c:v>205.01949999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>202.2142</c:v>
+                  <c:v>202.21420000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>202.2506</c:v>
+                  <c:v>202.25059999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>201.7394</c:v>
+                  <c:v>201.73939999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>194.1554</c:v>
+                  <c:v>194.15539999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>199.7664</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>194.4354</c:v>
+                  <c:v>194.43539999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-122B-42E5-AF9D-1CBF6212C3BD}"/>
             </c:ext>
@@ -2149,19 +2215,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="1">
-                  <c:v>218.8188</c:v>
+                  <c:v>218.81880000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>217.03065</c:v>
+                  <c:v>217.03065000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>215.2425</c:v>
+                  <c:v>215.24250000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-122B-42E5-AF9D-1CBF6212C3BD}"/>
             </c:ext>
@@ -2177,8 +2243,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1950698960"/>
-        <c:axId val="-1950696208"/>
+        <c:axId val="1425071776"/>
+        <c:axId val="1425074096"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2228,46 +2294,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>51.72928</c:v>
+                  <c:v>51.729280000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50.30893</c:v>
+                  <c:v>50.308929999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>51.59385</c:v>
+                  <c:v>51.593850000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>53.1118</c:v>
+                  <c:v>53.111800000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>54.82845</c:v>
+                  <c:v>54.828449999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>55.83755</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>52.82069</c:v>
+                  <c:v>52.820689999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>54.36357</c:v>
+                  <c:v>54.363570000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>53.97254</c:v>
+                  <c:v>53.972540000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>54.47526</c:v>
+                  <c:v>54.475259999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>56.8188</c:v>
+                  <c:v>56.818800000000003</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>54.19771</c:v>
+                  <c:v>54.197710000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-122B-42E5-AF9D-1CBF6212C3BD}"/>
             </c:ext>
@@ -2307,7 +2373,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000006-122B-42E5-AF9D-1CBF6212C3BD}"/>
               </c:ext>
@@ -2331,7 +2397,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000005-122B-42E5-AF9D-1CBF6212C3BD}"/>
               </c:ext>
@@ -2344,19 +2410,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="1">
-                  <c:v>50.30893</c:v>
+                  <c:v>50.308929999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50.95139</c:v>
+                  <c:v>50.951390000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>51.59385</c:v>
+                  <c:v>51.593850000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-122B-42E5-AF9D-1CBF6212C3BD}"/>
             </c:ext>
@@ -2372,11 +2438,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1950688416"/>
-        <c:axId val="-1950692448"/>
+        <c:axId val="1425080880"/>
+        <c:axId val="1425077488"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1950698960"/>
+        <c:axId val="1425071776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2419,7 +2485,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1950696208"/>
+        <c:crossAx val="1425074096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2427,10 +2493,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1950696208"/>
+        <c:axId val="1425074096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="180.0"/>
+          <c:min val="180"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2474,7 +2540,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2535,12 +2600,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1950698960"/>
+        <c:crossAx val="1425071776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1950692448"/>
+        <c:axId val="1425077488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2572,7 +2637,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2633,12 +2697,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1950688416"/>
+        <c:crossAx val="1425080880"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-1950688416"/>
+        <c:axId val="1425080880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2647,7 +2711,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1950692448"/>
+        <c:crossAx val="1425077488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2664,14 +2728,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2704,7 +2768,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2743,7 +2807,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2863,43 +2926,43 @@
                   <c:v>241.0411</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>227.8548</c:v>
+                  <c:v>227.85480000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>217.1805</c:v>
+                  <c:v>217.18049999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>208.1079</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>209.2639</c:v>
+                  <c:v>209.26390000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>206.3212</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>203.4646</c:v>
+                  <c:v>203.46459999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>202.3484</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>199.8925</c:v>
+                  <c:v>199.89250000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>190.4754</c:v>
+                  <c:v>190.47540000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>192.1876</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>192.6714</c:v>
+                  <c:v>192.67140000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5EDA-402B-8935-EA1B93BACE17}"/>
             </c:ext>
@@ -2989,7 +3052,7 @@
                   <c:v>237.5146</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>231.568</c:v>
+                  <c:v>231.56800000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>219.876</c:v>
@@ -2998,13 +3061,13 @@
                   <c:v>214.2064</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>208.1988</c:v>
+                  <c:v>208.19880000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>204.3272</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>200.5049</c:v>
+                  <c:v>200.50489999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>204.1275</c:v>
@@ -3016,16 +3079,16 @@
                   <c:v>194.0855</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>199.8547</c:v>
+                  <c:v>199.85470000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>195.1031</c:v>
+                  <c:v>195.10310000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-5EDA-402B-8935-EA1B93BACE17}"/>
             </c:ext>
@@ -3112,46 +3175,46 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>225.5202</c:v>
+                  <c:v>225.52019999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>218.3228</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>213.7297</c:v>
+                  <c:v>213.72970000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>214.2996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>212.7464</c:v>
+                  <c:v>212.74639999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>206.2748</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>205.6716</c:v>
+                  <c:v>205.67160000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>202.1012</c:v>
+                  <c:v>202.10120000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>204.9287</c:v>
+                  <c:v>204.92869999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>195.0101</c:v>
+                  <c:v>195.01009999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>201.4603</c:v>
+                  <c:v>201.46029999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>194.8857</c:v>
+                  <c:v>194.88570000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-5EDA-402B-8935-EA1B93BACE17}"/>
             </c:ext>
@@ -3238,10 +3301,10 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>227.6959</c:v>
+                  <c:v>227.69589999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>220.4927</c:v>
+                  <c:v>220.49270000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>210.6737</c:v>
@@ -3250,10 +3313,10 @@
                   <c:v>210.9101</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>203.8583</c:v>
+                  <c:v>203.85830000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>204.4157</c:v>
+                  <c:v>204.41569999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>200.6874</c:v>
@@ -3262,13 +3325,13 @@
                   <c:v>202.221</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>200.9877</c:v>
+                  <c:v>200.98769999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>195.0157</c:v>
+                  <c:v>195.01570000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>200.3915</c:v>
+                  <c:v>200.39150000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>193.9564</c:v>
@@ -3277,7 +3340,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-5EDA-402B-8935-EA1B93BACE17}"/>
             </c:ext>
@@ -3306,19 +3369,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="1">
-                  <c:v>227.8548</c:v>
+                  <c:v>227.85480000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>222.51765</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>217.1805</c:v>
+                  <c:v>217.18049999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-5EDA-402B-8935-EA1B93BACE17}"/>
             </c:ext>
@@ -3347,10 +3410,10 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="1">
-                  <c:v>231.568</c:v>
+                  <c:v>231.56800000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>225.722</c:v>
+                  <c:v>225.72200000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>219.876</c:v>
@@ -3359,7 +3422,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-5EDA-402B-8935-EA1B93BACE17}"/>
             </c:ext>
@@ -3396,13 +3459,13 @@
                   <c:v>216.02625</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>213.7297</c:v>
+                  <c:v>213.72970000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-5EDA-402B-8935-EA1B93BACE17}"/>
             </c:ext>
@@ -3431,10 +3494,10 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="1">
-                  <c:v>220.4927</c:v>
+                  <c:v>220.49270000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>215.5832</c:v>
+                  <c:v>215.58320000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>210.6737</c:v>
@@ -3443,7 +3506,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-5EDA-402B-8935-EA1B93BACE17}"/>
             </c:ext>
@@ -3459,11 +3522,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1950648528"/>
-        <c:axId val="-1950645264"/>
+        <c:axId val="1422839328"/>
+        <c:axId val="1422841616"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1950648528"/>
+        <c:axId val="1422839328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3506,7 +3569,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1950645264"/>
+        <c:crossAx val="1422841616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3514,10 +3577,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1950645264"/>
+        <c:axId val="1422841616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="180.0"/>
+          <c:min val="180"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3566,7 +3629,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1950648528"/>
+        <c:crossAx val="1422839328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3596,7 +3659,6 @@
         <c:idx val="7"/>
         <c:delete val="1"/>
       </c:legendEntry>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3628,14 +3690,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3666,7 +3728,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3705,7 +3767,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3807,10 +3868,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>0.09609559</c:v>
+                  <c:v>9.6095589999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.09577885</c:v>
+                  <c:v>9.5778849999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.1251555</c:v>
@@ -3819,34 +3880,34 @@
                   <c:v>0.1108703</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.1224906</c:v>
+                  <c:v>0.12249060000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.1083492</c:v>
+                  <c:v>0.10834920000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.154837</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.1239505</c:v>
+                  <c:v>0.12395050000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.1181139</c:v>
+                  <c:v>0.11811389999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.1395927</c:v>
+                  <c:v>0.13959269999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.1546007</c:v>
+                  <c:v>0.15460070000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.1823967</c:v>
+                  <c:v>0.18239669999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-BACB-482D-A05F-358DE98D6D96}"/>
             </c:ext>
@@ -3875,7 +3936,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="1">
-                  <c:v>0.09577885</c:v>
+                  <c:v>9.5778849999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.110467175</c:v>
@@ -3887,7 +3948,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-BACB-482D-A05F-358DE98D6D96}"/>
             </c:ext>
@@ -3902,11 +3963,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1950607088"/>
-        <c:axId val="-1950604336"/>
+        <c:axId val="1440870352"/>
+        <c:axId val="1440955408"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1950607088"/>
+        <c:axId val="1440870352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3949,7 +4010,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1950604336"/>
+        <c:crossAx val="1440955408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3957,7 +4018,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1950604336"/>
+        <c:axId val="1440955408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4008,7 +4069,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1950607088"/>
+        <c:crossAx val="1440870352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4022,14 +4083,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -6814,12 +6875,12 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{87E754FE-A78F-49DC-900D-FC4CA2F7EAB2}">
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>
   <sheetViews>
-    <sheetView zoomScale="84" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="40" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6827,12 +6888,12 @@
 </file>
 
 <file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{2D4B4709-D9DB-481C-B80F-D92338A3780B}">
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>
   <sheetViews>
-    <sheetView zoomScale="84" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="40" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6840,7 +6901,7 @@
 </file>
 
 <file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr/>
   <sheetViews>
     <sheetView zoomScale="40" workbookViewId="0"/>
@@ -6851,7 +6912,7 @@
 </file>
 
 <file path=xl/chartsheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr/>
   <sheetViews>
     <sheetView zoomScale="84" workbookViewId="0" zoomToFit="1"/>
@@ -6862,10 +6923,10 @@
 </file>
 
 <file path=xl/chartsheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="106" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="121" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6876,13 +6937,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8678333" cy="6304643"/>
+    <xdr:ext cx="19526250" cy="14181667"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6FBE3248-7D97-42D0-B46C-BAD5E4A66853}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FBE3248-7D97-42D0-B46C-BAD5E4A66853}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6909,13 +6970,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8678333" cy="6304643"/>
+    <xdr:ext cx="19526250" cy="14181667"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F3048B45-89F7-4492-BA9C-F8AAAC77C441}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3048B45-89F7-4492-BA9C-F8AAAC77C441}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6958,7 +7019,7 @@
         <xdr:cNvPr id="3" name="Straight Connector 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEDB33E-0C98-4268-8DFA-48B4492B8054}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEDB33E-0C98-4268-8DFA-48B4492B8054}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7008,7 +7069,7 @@
         <xdr:cNvPr id="5" name="Straight Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A5DCBB81-D5FD-41FB-8679-A378BAA3A6A0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5DCBB81-D5FD-41FB-8679-A378BAA3A6A0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7058,7 +7119,7 @@
         <xdr:cNvPr id="7" name="Straight Connector 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B8871975-A065-40B2-A8DF-972697C7B8CD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8871975-A065-40B2-A8DF-972697C7B8CD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7108,7 +7169,7 @@
         <xdr:cNvPr id="9" name="Straight Connector 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A40778BC-5665-464C-BFBB-9C5CBCE83F7A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A40778BC-5665-464C-BFBB-9C5CBCE83F7A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7158,7 +7219,7 @@
         <xdr:cNvPr id="11" name="Straight Connector 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{50138399-B3EB-434F-836D-1875B4B06BE1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50138399-B3EB-434F-836D-1875B4B06BE1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7211,7 +7272,7 @@
         <xdr:cNvPr id="12" name="Straight Connector 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6D660D21-B51A-446B-942C-1A3FCF697F7E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D660D21-B51A-446B-942C-1A3FCF697F7E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7261,7 +7322,7 @@
         <xdr:cNvPr id="13" name="Straight Connector 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{199C4030-AB22-4529-BEE1-4A656793B298}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{199C4030-AB22-4529-BEE1-4A656793B298}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7311,7 +7372,7 @@
         <xdr:cNvPr id="14" name="Freeform: Shape 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B9175F49-0BEE-4CB9-BB7E-8989C18D5AF1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9175F49-0BEE-4CB9-BB7E-8989C18D5AF1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7455,7 +7516,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6799A617-2199-4FA0-9AAE-B022587C939D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6799A617-2199-4FA0-9AAE-B022587C939D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7488,7 +7549,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CE41EAA9-E7EF-4331-BAC6-50A2C67981F5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE41EAA9-E7EF-4331-BAC6-50A2C67981F5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7515,13 +7576,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8678333" cy="6304643"/>
+    <xdr:ext cx="8671393" cy="6287541"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7AFBC52-30D3-4075-9EC8-31B7671415DF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7AFBC52-30D3-4075-9EC8-31B7671415DF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7840,11 +7901,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF2908FE-0FD8-435D-9858-C0C984D79C5A}">
+  <dimension ref="A2:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7852,7 +7913,7 @@
     <col min="2" max="2" width="33.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>146</v>
       </c>
@@ -7860,12 +7921,12 @@
         <v>147</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="28" t="s">
         <v>158</v>
       </c>
@@ -7873,7 +7934,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>149</v>
       </c>
@@ -7881,7 +7942,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>150</v>
       </c>
@@ -7889,7 +7950,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>151</v>
       </c>
@@ -7897,7 +7958,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>152</v>
       </c>
@@ -7905,12 +7966,12 @@
         <v>155</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>153</v>
       </c>
@@ -7918,7 +7979,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>38</v>
       </c>
@@ -7926,27 +7987,22 @@
         <v>133</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D12" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D13" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H14" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B15" s="28" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>160</v>
       </c>
@@ -7962,14 +8018,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:X105"/>
   <sheetViews>
     <sheetView zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G16" sqref="G16"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7989,21 +8045,21 @@
         <v>53</v>
       </c>
       <c r="C1" s="23"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
       <c r="F1" s="24"/>
-      <c r="G1" s="76" t="s">
+      <c r="G1" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -8136,11 +8192,11 @@
         <v>78</v>
       </c>
       <c r="B6" s="71">
-        <v>16.945160000000001</v>
+        <v>18.380299999999998</v>
       </c>
       <c r="C6" s="22">
         <f>(B6+D6)/2</f>
-        <v>16.299585</v>
+        <v>17.017154999999999</v>
       </c>
       <c r="D6" s="71">
         <v>15.65401</v>
@@ -8150,10 +8206,10 @@
       </c>
       <c r="F6" s="22">
         <f>(E6+G6)/2</f>
-        <v>15.188995</v>
+        <v>17.107984999999999</v>
       </c>
       <c r="G6" s="52">
-        <v>14.6517</v>
+        <v>18.48968</v>
       </c>
       <c r="H6" s="52">
         <v>14.129759999999999</v>
@@ -8211,6 +8267,9 @@
         <v>26</v>
       </c>
       <c r="F8" s="22"/>
+      <c r="G8" s="37">
+        <v>17.611630000000002</v>
+      </c>
       <c r="Q8" s="9"/>
       <c r="R8" s="59" t="s">
         <v>87</v>
@@ -8263,11 +8322,11 @@
         <v>75</v>
       </c>
       <c r="B11" s="71">
-        <v>16.785319999999999</v>
+        <v>18.180810000000001</v>
       </c>
       <c r="C11" s="22">
         <f>(B11+D11)/2</f>
-        <v>16.050229999999999</v>
+        <v>16.747975</v>
       </c>
       <c r="D11" s="71">
         <v>15.31514</v>
@@ -8277,10 +8336,10 @@
       </c>
       <c r="F11" s="22">
         <f>(E11+G11)/2</f>
-        <v>15.097560000000001</v>
+        <v>16.9619</v>
       </c>
       <c r="G11" s="52">
-        <v>14.78481</v>
+        <v>18.513490000000001</v>
       </c>
       <c r="H11" s="52">
         <v>14.49381</v>
@@ -8338,7 +8397,9 @@
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="14"/>
-      <c r="F13" s="9"/>
+      <c r="G13" s="9">
+        <v>17.729289999999999</v>
+      </c>
       <c r="Q13" s="9"/>
       <c r="R13" s="9"/>
       <c r="S13" s="9"/>
@@ -11079,7 +11140,2154 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8A3FBC7-7A01-284D-A03B-BE342E59CEBE}">
+  <dimension ref="A1:AH50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="89" workbookViewId="0">
+      <selection activeCell="AH21" sqref="AH21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="36.83203125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="6" style="12" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" style="12" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" style="12" customWidth="1"/>
+    <col min="7" max="16" width="13.5" style="37" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="9.33203125" style="12"/>
+    <col min="19" max="19" width="15.5" style="12" customWidth="1"/>
+    <col min="20" max="20" width="9.33203125" style="12"/>
+    <col min="21" max="21" width="11.6640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.83203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.33203125" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+      <c r="B1" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="23"/>
+      <c r="D1" s="79" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="76"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="77" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+    </row>
+    <row r="2" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="25"/>
+      <c r="D2" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="13"/>
+      <c r="G2" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="P2" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
+      <c r="AA2" s="9"/>
+      <c r="AB2" s="9"/>
+      <c r="AC2" s="9"/>
+      <c r="AD2" s="9"/>
+    </row>
+    <row r="3" spans="1:34" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="80" t="s">
+        <v>165</v>
+      </c>
+      <c r="B3" s="71">
+        <v>14.715210000000001</v>
+      </c>
+      <c r="C3" s="22">
+        <f>(B3+D3)/2</f>
+        <v>14.163119999999999</v>
+      </c>
+      <c r="D3" s="71">
+        <v>13.61103</v>
+      </c>
+      <c r="E3" s="71">
+        <v>13.575939999999999</v>
+      </c>
+      <c r="F3" s="22">
+        <f>(E3+G3)/2</f>
+        <v>13.38374</v>
+      </c>
+      <c r="G3" s="9">
+        <v>13.19154</v>
+      </c>
+      <c r="H3" s="9">
+        <v>12.52542</v>
+      </c>
+      <c r="I3" s="9">
+        <v>12.73157</v>
+      </c>
+      <c r="J3" s="9">
+        <v>12.411910000000001</v>
+      </c>
+      <c r="K3" s="9">
+        <v>12.37703</v>
+      </c>
+      <c r="L3" s="9">
+        <v>12.3072</v>
+      </c>
+      <c r="M3" s="9">
+        <v>12.380739999999999</v>
+      </c>
+      <c r="N3" s="9">
+        <v>12.37642</v>
+      </c>
+      <c r="O3" s="9">
+        <v>12.495279999999999</v>
+      </c>
+      <c r="P3" s="9">
+        <v>12.55397</v>
+      </c>
+      <c r="R3" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="9"/>
+      <c r="AA3" s="9"/>
+      <c r="AB3" s="9"/>
+      <c r="AC3" s="9"/>
+      <c r="AD3" s="9"/>
+    </row>
+    <row r="4" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="80" t="s">
+        <v>164</v>
+      </c>
+      <c r="B4" s="71">
+        <v>14.53228</v>
+      </c>
+      <c r="C4" s="22">
+        <f>(B4+D4)/2</f>
+        <v>13.878325</v>
+      </c>
+      <c r="D4" s="71">
+        <v>13.22437</v>
+      </c>
+      <c r="E4" s="71">
+        <v>12.847</v>
+      </c>
+      <c r="F4" s="22">
+        <f>(E4+G4)/2</f>
+        <v>13.051105</v>
+      </c>
+      <c r="G4" s="9">
+        <v>13.25521</v>
+      </c>
+      <c r="H4" s="9">
+        <v>12.844469999999999</v>
+      </c>
+      <c r="I4" s="9">
+        <v>12.87027</v>
+      </c>
+      <c r="J4" s="9">
+        <v>12.58384</v>
+      </c>
+      <c r="K4" s="9">
+        <v>12.543380000000001</v>
+      </c>
+      <c r="L4" s="9">
+        <v>12.3072</v>
+      </c>
+      <c r="M4" s="9">
+        <v>12.33254</v>
+      </c>
+      <c r="N4" s="9">
+        <v>12.21552</v>
+      </c>
+      <c r="O4" s="9">
+        <v>12.307980000000001</v>
+      </c>
+      <c r="P4" s="9">
+        <v>12.189909999999999</v>
+      </c>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="9"/>
+      <c r="AA4" s="9"/>
+      <c r="AB4" s="9"/>
+      <c r="AC4" s="9"/>
+      <c r="AD4" s="9"/>
+    </row>
+    <row r="5" spans="1:34" ht="19" x14ac:dyDescent="0.25">
+      <c r="A5" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="U5" s="6"/>
+      <c r="V5" s="75" t="s">
+        <v>24</v>
+      </c>
+      <c r="W5" s="75" t="s">
+        <v>45</v>
+      </c>
+      <c r="X5" s="75"/>
+      <c r="Y5" s="75" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z5" s="75" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA5" s="75" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB5" s="75" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC5" s="75" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD5" s="75" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE5" s="75" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF5" s="75" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG5" s="75" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH5" s="75" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="22"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T6" s="9">
+        <v>1.515733</v>
+      </c>
+      <c r="U6" s="5"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="9">
+        <v>1.514974</v>
+      </c>
+      <c r="Z6" s="9"/>
+      <c r="AA6" s="9"/>
+      <c r="AB6" s="9"/>
+      <c r="AC6" s="9"/>
+      <c r="AD6" s="9"/>
+      <c r="AE6" s="9"/>
+      <c r="AF6" s="9"/>
+      <c r="AG6" s="9"/>
+      <c r="AH6" s="9"/>
+    </row>
+    <row r="7" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="43"/>
+      <c r="B7" s="52">
+        <v>15.13148</v>
+      </c>
+      <c r="D7" s="73">
+        <v>14.37852</v>
+      </c>
+      <c r="E7" s="73">
+        <v>14.6517</v>
+      </c>
+      <c r="F7" s="56"/>
+      <c r="G7" s="9">
+        <v>14.56338</v>
+      </c>
+      <c r="H7" s="9">
+        <v>13.89188</v>
+      </c>
+      <c r="I7" s="9">
+        <v>13.71274</v>
+      </c>
+      <c r="J7" s="9">
+        <v>13.80762</v>
+      </c>
+      <c r="K7" s="9">
+        <v>13.531969999999999</v>
+      </c>
+      <c r="L7" s="9">
+        <v>13.270239999999999</v>
+      </c>
+      <c r="M7" s="9">
+        <v>13.0076</v>
+      </c>
+      <c r="N7" s="9">
+        <v>13.12378</v>
+      </c>
+      <c r="O7" s="9">
+        <v>12.97181</v>
+      </c>
+      <c r="P7" s="9">
+        <v>13.35895</v>
+      </c>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="T7" s="9">
+        <v>50.177419999999998</v>
+      </c>
+      <c r="U7" s="5"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="9"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="9">
+        <v>51.484479999999998</v>
+      </c>
+      <c r="Z7" s="9"/>
+      <c r="AA7" s="9"/>
+      <c r="AB7" s="9"/>
+      <c r="AC7" s="9"/>
+      <c r="AD7" s="9"/>
+      <c r="AE7" s="9"/>
+      <c r="AF7" s="9"/>
+      <c r="AG7" s="9"/>
+      <c r="AH7" s="9"/>
+    </row>
+    <row r="8" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="22"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="T8" s="9">
+        <v>0.32518019999999997</v>
+      </c>
+      <c r="U8" s="5"/>
+      <c r="V8" s="9">
+        <v>0.23416670000000001</v>
+      </c>
+      <c r="W8" s="9"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="9">
+        <v>0.18549189999999999</v>
+      </c>
+      <c r="Z8" s="9"/>
+      <c r="AA8" s="9"/>
+      <c r="AB8" s="9"/>
+      <c r="AC8" s="9"/>
+      <c r="AD8" s="9"/>
+      <c r="AE8" s="9"/>
+      <c r="AF8" s="9"/>
+      <c r="AG8" s="9"/>
+      <c r="AH8" s="9"/>
+    </row>
+    <row r="9" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="43"/>
+      <c r="B9" s="52">
+        <v>14.739940000000001</v>
+      </c>
+      <c r="D9" s="73">
+        <v>13.47021</v>
+      </c>
+      <c r="E9" s="73">
+        <v>13.8734</v>
+      </c>
+      <c r="F9" s="56"/>
+      <c r="G9" s="9">
+        <v>13.574350000000001</v>
+      </c>
+      <c r="H9" s="9">
+        <v>13.39536</v>
+      </c>
+      <c r="I9" s="9">
+        <v>13.12035</v>
+      </c>
+      <c r="J9" s="9">
+        <v>12.78956</v>
+      </c>
+      <c r="K9" s="9">
+        <v>12.95058</v>
+      </c>
+      <c r="L9" s="9">
+        <v>12.87365</v>
+      </c>
+      <c r="M9" s="9">
+        <v>12.74583</v>
+      </c>
+      <c r="N9" s="9">
+        <v>13.002649999999999</v>
+      </c>
+      <c r="O9" s="9">
+        <v>12.97907</v>
+      </c>
+      <c r="P9" s="9">
+        <v>13.26188</v>
+      </c>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+    </row>
+    <row r="10" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="22"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="9"/>
+      <c r="Z10" s="9"/>
+      <c r="AA10" s="9"/>
+      <c r="AB10" s="9"/>
+    </row>
+    <row r="11" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="43"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="38"/>
+      <c r="O11" s="38"/>
+      <c r="P11" s="38"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="9"/>
+      <c r="W11" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="Z11" s="9"/>
+      <c r="AA11" s="9"/>
+      <c r="AB11" s="9"/>
+    </row>
+    <row r="12" spans="1:34" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="43"/>
+      <c r="B12" s="52">
+        <v>13.99296</v>
+      </c>
+      <c r="D12" s="71">
+        <v>13.08267</v>
+      </c>
+      <c r="E12" s="71">
+        <v>12.99112</v>
+      </c>
+      <c r="F12" s="22"/>
+      <c r="G12" s="9">
+        <v>13.07898</v>
+      </c>
+      <c r="H12" s="9">
+        <v>11.915789999999999</v>
+      </c>
+      <c r="I12" s="9">
+        <v>12.66611</v>
+      </c>
+      <c r="J12" s="9">
+        <v>12.181850000000001</v>
+      </c>
+      <c r="K12" s="9">
+        <v>12.25615</v>
+      </c>
+      <c r="L12" s="9">
+        <v>12.49348</v>
+      </c>
+      <c r="M12" s="9">
+        <v>12.708769999999999</v>
+      </c>
+      <c r="N12" s="9">
+        <v>12.704789999999999</v>
+      </c>
+      <c r="O12" s="9">
+        <v>12.82169</v>
+      </c>
+      <c r="P12" s="9">
+        <v>12.411060000000001</v>
+      </c>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="82" t="s">
+        <v>53</v>
+      </c>
+      <c r="V12" s="82" t="s">
+        <v>168</v>
+      </c>
+      <c r="W12" s="83" t="s">
+        <v>169</v>
+      </c>
+      <c r="X12" s="84" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y12" s="84" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z12" s="84" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA12" s="84" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB12" s="84" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC12" s="84" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD12" s="84" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE12" s="84" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF12" s="84" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG12" s="84" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="22"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="T13" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="U13" s="9">
+        <v>14671</v>
+      </c>
+      <c r="V13" s="9">
+        <v>3641</v>
+      </c>
+      <c r="W13" s="12">
+        <v>3436</v>
+      </c>
+      <c r="X13" s="12">
+        <v>2091</v>
+      </c>
+      <c r="Y13" s="12">
+        <v>2208</v>
+      </c>
+      <c r="Z13" s="9">
+        <v>2091</v>
+      </c>
+      <c r="AA13" s="9">
+        <v>2022</v>
+      </c>
+      <c r="AB13" s="9">
+        <v>2787</v>
+      </c>
+      <c r="AC13" s="12">
+        <v>2868</v>
+      </c>
+      <c r="AD13" s="12">
+        <v>2560</v>
+      </c>
+      <c r="AE13" s="12">
+        <v>2708</v>
+      </c>
+      <c r="AF13" s="12">
+        <v>2672</v>
+      </c>
+      <c r="AG13" s="12">
+        <v>2793</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="43"/>
+      <c r="B14" s="52">
+        <v>13.87668</v>
+      </c>
+      <c r="D14" s="71">
+        <v>12.39373</v>
+      </c>
+      <c r="E14" s="71">
+        <v>12.05036</v>
+      </c>
+      <c r="F14" s="22"/>
+      <c r="G14" s="9">
+        <v>11.356629999999999</v>
+      </c>
+      <c r="H14" s="9">
+        <v>11.612080000000001</v>
+      </c>
+      <c r="I14" s="9">
+        <v>11.579739999999999</v>
+      </c>
+      <c r="J14" s="9">
+        <v>11.552049999999999</v>
+      </c>
+      <c r="K14" s="9">
+        <v>11.14316</v>
+      </c>
+      <c r="L14" s="9">
+        <v>11.01352</v>
+      </c>
+      <c r="M14" s="9">
+        <v>11.57606</v>
+      </c>
+      <c r="N14" s="9">
+        <v>11.27783</v>
+      </c>
+      <c r="O14" s="9">
+        <v>11.70871</v>
+      </c>
+      <c r="P14" s="9">
+        <v>11.789289999999999</v>
+      </c>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="T14" s="81" t="s">
+        <v>170</v>
+      </c>
+      <c r="U14" s="9">
+        <v>0</v>
+      </c>
+      <c r="V14" s="9">
+        <v>0</v>
+      </c>
+      <c r="W14" s="12">
+        <v>0</v>
+      </c>
+      <c r="X14" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="9"/>
+    </row>
+    <row r="15" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="22"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="81" t="s">
+        <v>171</v>
+      </c>
+      <c r="U15" s="12">
+        <v>5843</v>
+      </c>
+      <c r="V15" s="12">
+        <v>0</v>
+      </c>
+      <c r="W15" s="12">
+        <v>0</v>
+      </c>
+      <c r="X15" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="57"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="81" t="s">
+        <v>172</v>
+      </c>
+      <c r="U16" s="12">
+        <v>9313</v>
+      </c>
+      <c r="V16" s="12">
+        <v>602</v>
+      </c>
+      <c r="W16" s="12">
+        <v>418</v>
+      </c>
+      <c r="X16" s="12">
+        <v>294</v>
+      </c>
+      <c r="Y16" s="12">
+        <v>246</v>
+      </c>
+      <c r="Z16" s="12">
+        <v>204</v>
+      </c>
+      <c r="AA16" s="12">
+        <v>152</v>
+      </c>
+      <c r="AB16" s="12">
+        <v>230</v>
+      </c>
+      <c r="AC16" s="12">
+        <v>225</v>
+      </c>
+      <c r="AD16" s="12">
+        <v>285</v>
+      </c>
+      <c r="AE16" s="12">
+        <v>183</v>
+      </c>
+      <c r="AF16" s="12">
+        <v>214</v>
+      </c>
+      <c r="AG16" s="12">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="43"/>
+      <c r="B17" s="52">
+        <v>14.93436</v>
+      </c>
+      <c r="C17" s="22"/>
+      <c r="D17" s="71">
+        <v>14.1914</v>
+      </c>
+      <c r="E17" s="71">
+        <v>13.866580000000001</v>
+      </c>
+      <c r="F17" s="22"/>
+      <c r="G17" s="9">
+        <v>14.57283</v>
+      </c>
+      <c r="H17" s="9">
+        <v>14.15011</v>
+      </c>
+      <c r="I17" s="9">
+        <v>13.832520000000001</v>
+      </c>
+      <c r="J17" s="9">
+        <v>13.94741</v>
+      </c>
+      <c r="K17" s="9">
+        <v>13.689159999999999</v>
+      </c>
+      <c r="L17" s="9">
+        <v>13.270239999999999</v>
+      </c>
+      <c r="M17" s="9">
+        <v>12.992229999999999</v>
+      </c>
+      <c r="N17" s="9">
+        <v>12.953530000000001</v>
+      </c>
+      <c r="O17" s="9">
+        <v>12.787990000000001</v>
+      </c>
+      <c r="P17" s="9">
+        <v>12.945119999999999</v>
+      </c>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="U17" s="12">
+        <v>5843</v>
+      </c>
+      <c r="V17" s="12">
+        <v>581</v>
+      </c>
+      <c r="W17" s="12">
+        <v>397</v>
+      </c>
+      <c r="X17" s="12">
+        <v>292</v>
+      </c>
+      <c r="Y17" s="12">
+        <v>246</v>
+      </c>
+      <c r="Z17" s="12">
+        <v>204</v>
+      </c>
+      <c r="AA17" s="12">
+        <v>152</v>
+      </c>
+      <c r="AB17" s="12">
+        <v>230</v>
+      </c>
+      <c r="AC17" s="12">
+        <v>225</v>
+      </c>
+      <c r="AD17" s="12">
+        <v>285</v>
+      </c>
+      <c r="AE17" s="12">
+        <v>183</v>
+      </c>
+      <c r="AF17" s="12">
+        <v>214</v>
+      </c>
+      <c r="AG17" s="12">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="U18" s="12">
+        <v>6381</v>
+      </c>
+      <c r="V18" s="12">
+        <v>453</v>
+      </c>
+      <c r="W18" s="12">
+        <v>372</v>
+      </c>
+      <c r="X18" s="12">
+        <v>209</v>
+      </c>
+      <c r="Y18" s="12">
+        <v>212</v>
+      </c>
+      <c r="Z18" s="12">
+        <v>256</v>
+      </c>
+      <c r="AA18" s="12">
+        <v>154</v>
+      </c>
+      <c r="AB18" s="12">
+        <v>201</v>
+      </c>
+      <c r="AC18" s="12">
+        <v>161</v>
+      </c>
+      <c r="AD18" s="12">
+        <v>198</v>
+      </c>
+      <c r="AE18" s="12">
+        <v>153</v>
+      </c>
+      <c r="AF18" s="12">
+        <v>152</v>
+      </c>
+      <c r="AG18" s="12">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="43"/>
+      <c r="B19" s="52">
+        <v>14.591659999999999</v>
+      </c>
+      <c r="C19" s="22"/>
+      <c r="D19" s="72">
+        <v>13.47021</v>
+      </c>
+      <c r="E19" s="72">
+        <v>13.268219999999999</v>
+      </c>
+      <c r="F19" s="22"/>
+      <c r="G19" s="9">
+        <v>13.66131</v>
+      </c>
+      <c r="H19" s="9">
+        <v>13.70003</v>
+      </c>
+      <c r="I19" s="9">
+        <v>13.24807</v>
+      </c>
+      <c r="J19" s="9">
+        <v>12.95363</v>
+      </c>
+      <c r="K19" s="9">
+        <v>13.12932</v>
+      </c>
+      <c r="L19" s="9">
+        <v>12.87365</v>
+      </c>
+      <c r="M19" s="9">
+        <v>12.70284</v>
+      </c>
+      <c r="N19" s="9">
+        <v>12.85896</v>
+      </c>
+      <c r="O19" s="9">
+        <v>12.8291</v>
+      </c>
+      <c r="P19" s="9">
+        <v>12.9879</v>
+      </c>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="U19" s="12">
+        <v>5845</v>
+      </c>
+      <c r="V19" s="12">
+        <v>0</v>
+      </c>
+      <c r="W19" s="12">
+        <v>0</v>
+      </c>
+      <c r="X19" s="12">
+        <v>4</v>
+      </c>
+      <c r="Y19" s="12">
+        <v>8</v>
+      </c>
+      <c r="Z19" s="12">
+        <v>2</v>
+      </c>
+      <c r="AA19" s="12">
+        <v>1</v>
+      </c>
+      <c r="AB19" s="12">
+        <v>3</v>
+      </c>
+      <c r="AC19" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="12">
+        <v>2</v>
+      </c>
+      <c r="AE19" s="12">
+        <v>1</v>
+      </c>
+      <c r="AF19" s="12">
+        <v>3</v>
+      </c>
+      <c r="AG19" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="U20" s="12">
+        <v>5861</v>
+      </c>
+      <c r="V20" s="12">
+        <v>7</v>
+      </c>
+      <c r="W20" s="12">
+        <v>1</v>
+      </c>
+      <c r="X20" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="12">
+        <v>1</v>
+      </c>
+      <c r="Z20" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA20" s="12">
+        <v>1</v>
+      </c>
+      <c r="AB20" s="12">
+        <v>1</v>
+      </c>
+      <c r="AC20" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="12">
+        <v>2</v>
+      </c>
+      <c r="AE20" s="12">
+        <v>1</v>
+      </c>
+      <c r="AF20" s="12">
+        <v>1</v>
+      </c>
+      <c r="AG20" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="43"/>
+      <c r="B21" s="52">
+        <v>13.813789999999999</v>
+      </c>
+      <c r="C21" s="22"/>
+      <c r="D21" s="71">
+        <v>12.49175</v>
+      </c>
+      <c r="E21" s="71">
+        <v>12.340450000000001</v>
+      </c>
+      <c r="F21" s="22"/>
+      <c r="G21" s="9">
+        <v>13.10487</v>
+      </c>
+      <c r="H21" s="9">
+        <v>12.279170000000001</v>
+      </c>
+      <c r="I21" s="9">
+        <v>12.801019999999999</v>
+      </c>
+      <c r="J21" s="9">
+        <v>12.37323</v>
+      </c>
+      <c r="K21" s="9">
+        <v>12.4025</v>
+      </c>
+      <c r="L21" s="9">
+        <v>12.49348</v>
+      </c>
+      <c r="M21" s="9">
+        <v>12.664110000000001</v>
+      </c>
+      <c r="N21" s="9">
+        <v>12.560140000000001</v>
+      </c>
+      <c r="O21" s="9">
+        <v>12.63083</v>
+      </c>
+      <c r="P21" s="9">
+        <v>12.017010000000001</v>
+      </c>
+      <c r="S21" s="81" t="s">
+        <v>179</v>
+      </c>
+      <c r="T21" s="81" t="s">
+        <v>177</v>
+      </c>
+      <c r="U21" s="12">
+        <v>5218</v>
+      </c>
+      <c r="V21" s="12">
+        <v>2981</v>
+      </c>
+      <c r="W21" s="12">
+        <v>2966</v>
+      </c>
+      <c r="X21" s="12">
+        <v>1748</v>
+      </c>
+      <c r="Y21" s="12">
+        <v>1878</v>
+      </c>
+      <c r="Z21" s="12">
+        <v>1762</v>
+      </c>
+      <c r="AA21" s="12">
+        <v>1796</v>
+      </c>
+      <c r="AB21" s="12">
+        <v>2459</v>
+      </c>
+      <c r="AC21" s="12">
+        <v>2556</v>
+      </c>
+      <c r="AD21" s="12">
+        <v>2190</v>
+      </c>
+      <c r="AE21" s="12">
+        <v>2446</v>
+      </c>
+      <c r="AF21" s="12">
+        <v>2407</v>
+      </c>
+      <c r="AG21" s="12">
+        <v>2404</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="39"/>
+      <c r="O22" s="39"/>
+      <c r="P22" s="39"/>
+      <c r="Q22" s="9"/>
+    </row>
+    <row r="23" spans="1:33" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="43"/>
+      <c r="B23" s="52">
+        <v>13.68699</v>
+      </c>
+      <c r="C23" s="22"/>
+      <c r="D23" s="71">
+        <v>11.94974</v>
+      </c>
+      <c r="E23" s="71">
+        <v>11.37632</v>
+      </c>
+      <c r="F23" s="22"/>
+      <c r="G23" s="9">
+        <v>11.47505</v>
+      </c>
+      <c r="H23" s="9">
+        <v>11.889060000000001</v>
+      </c>
+      <c r="I23" s="9">
+        <v>11.75159</v>
+      </c>
+      <c r="J23" s="9">
+        <v>11.72268</v>
+      </c>
+      <c r="K23" s="9">
+        <v>11.319599999999999</v>
+      </c>
+      <c r="L23" s="9">
+        <v>11.01352</v>
+      </c>
+      <c r="M23" s="9">
+        <v>11.49935</v>
+      </c>
+      <c r="N23" s="9">
+        <v>11.102980000000001</v>
+      </c>
+      <c r="O23" s="9">
+        <v>11.50155</v>
+      </c>
+      <c r="P23" s="9">
+        <v>11.4101</v>
+      </c>
+      <c r="T23" s="9"/>
+      <c r="U23" s="9"/>
+      <c r="V23" s="9"/>
+      <c r="W23" s="9"/>
+      <c r="X23" s="9"/>
+    </row>
+    <row r="24" spans="1:33" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="14"/>
+      <c r="F24" s="22"/>
+      <c r="T24" s="9"/>
+      <c r="U24" s="9"/>
+      <c r="V24" s="9"/>
+      <c r="W24" s="9"/>
+      <c r="X24" s="9"/>
+    </row>
+    <row r="25" spans="1:33" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="14"/>
+      <c r="F25" s="22"/>
+      <c r="T25" s="9"/>
+      <c r="U25" s="9"/>
+      <c r="V25" s="9"/>
+      <c r="W25" s="9"/>
+      <c r="X25" s="9"/>
+    </row>
+    <row r="26" spans="1:33" ht="19" x14ac:dyDescent="0.25">
+      <c r="A26" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26" s="22"/>
+      <c r="T26" s="9"/>
+      <c r="U26" s="9"/>
+      <c r="V26" s="9"/>
+      <c r="W26" s="9"/>
+      <c r="X26" s="9"/>
+    </row>
+    <row r="27" spans="1:33" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="F27" s="22"/>
+      <c r="T27" s="9"/>
+      <c r="U27" s="9"/>
+      <c r="V27" s="9"/>
+      <c r="W27" s="9"/>
+      <c r="X27" s="9"/>
+    </row>
+    <row r="28" spans="1:33" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="50"/>
+      <c r="B28" s="52">
+        <v>12.966100000000001</v>
+      </c>
+      <c r="D28" s="71">
+        <v>11.17319</v>
+      </c>
+      <c r="E28" s="71">
+        <v>11.391690000000001</v>
+      </c>
+      <c r="F28" s="22"/>
+      <c r="G28" s="9">
+        <v>11.15817</v>
+      </c>
+      <c r="H28" s="9">
+        <v>10.65774</v>
+      </c>
+      <c r="I28" s="9">
+        <v>10.95018</v>
+      </c>
+      <c r="J28" s="9">
+        <v>10.342919999999999</v>
+      </c>
+      <c r="K28" s="9">
+        <v>10.46991</v>
+      </c>
+      <c r="L28" s="9">
+        <v>10.17449</v>
+      </c>
+      <c r="M28" s="9">
+        <v>10.28655</v>
+      </c>
+      <c r="N28" s="9">
+        <v>9.9836810000000007</v>
+      </c>
+      <c r="O28" s="9">
+        <v>10.1449</v>
+      </c>
+      <c r="P28" s="9">
+        <v>9.8589490000000009</v>
+      </c>
+      <c r="T28" s="9"/>
+      <c r="U28" s="9"/>
+      <c r="V28" s="9"/>
+      <c r="W28" s="9"/>
+      <c r="X28" s="9"/>
+    </row>
+    <row r="29" spans="1:33" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="F29" s="22"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="39"/>
+      <c r="K29" s="39"/>
+      <c r="L29" s="39"/>
+      <c r="M29" s="39"/>
+      <c r="N29" s="39"/>
+      <c r="O29" s="39"/>
+      <c r="P29" s="39"/>
+      <c r="T29" s="9"/>
+      <c r="U29" s="9"/>
+      <c r="V29" s="9"/>
+      <c r="W29" s="9"/>
+    </row>
+    <row r="30" spans="1:33" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" s="50"/>
+      <c r="B30" s="52">
+        <v>15.141299999999999</v>
+      </c>
+      <c r="D30" s="71">
+        <v>14.359299999999999</v>
+      </c>
+      <c r="E30" s="71">
+        <v>14.16846</v>
+      </c>
+      <c r="F30" s="22"/>
+      <c r="G30" s="9">
+        <v>13.955399999999999</v>
+      </c>
+      <c r="H30" s="9">
+        <v>13.69727</v>
+      </c>
+      <c r="I30" s="9">
+        <v>13.50836</v>
+      </c>
+      <c r="J30" s="9">
+        <v>13.558199999999999</v>
+      </c>
+      <c r="K30" s="9">
+        <v>13.3368</v>
+      </c>
+      <c r="L30" s="9">
+        <v>13.07652</v>
+      </c>
+      <c r="M30" s="9">
+        <v>13.126440000000001</v>
+      </c>
+      <c r="N30" s="9">
+        <v>12.987880000000001</v>
+      </c>
+      <c r="O30" s="9">
+        <v>13.16901</v>
+      </c>
+      <c r="P30" s="9">
+        <v>13.09385</v>
+      </c>
+      <c r="T30" s="9"/>
+      <c r="U30" s="9"/>
+      <c r="V30" s="9"/>
+      <c r="W30" s="9"/>
+      <c r="X30" s="9"/>
+    </row>
+    <row r="31" spans="1:33" ht="16" x14ac:dyDescent="0.2">
+      <c r="A31" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="F31" s="22"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="39"/>
+      <c r="K31" s="39"/>
+      <c r="L31" s="39"/>
+      <c r="M31" s="39"/>
+      <c r="N31" s="39"/>
+      <c r="O31" s="39"/>
+      <c r="P31" s="39"/>
+      <c r="T31" s="9"/>
+      <c r="U31" s="9"/>
+      <c r="V31" s="9"/>
+      <c r="W31" s="9"/>
+      <c r="X31" s="9"/>
+    </row>
+    <row r="32" spans="1:33" ht="16" x14ac:dyDescent="0.2">
+      <c r="A32" s="50"/>
+      <c r="B32" s="52">
+        <v>17.012879999999999</v>
+      </c>
+      <c r="D32" s="71">
+        <v>16.262730000000001</v>
+      </c>
+      <c r="E32" s="71">
+        <v>16.11824</v>
+      </c>
+      <c r="F32" s="22"/>
+      <c r="G32" s="9">
+        <v>16.232669999999999</v>
+      </c>
+      <c r="H32" s="9">
+        <v>15.95051</v>
+      </c>
+      <c r="I32" s="9">
+        <v>15.6898</v>
+      </c>
+      <c r="J32" s="9">
+        <v>15.56049</v>
+      </c>
+      <c r="K32" s="9">
+        <v>15.41423</v>
+      </c>
+      <c r="L32" s="9">
+        <v>15.22424</v>
+      </c>
+      <c r="M32" s="9">
+        <v>15.131030000000001</v>
+      </c>
+      <c r="N32" s="9">
+        <v>15.26807</v>
+      </c>
+      <c r="O32" s="9">
+        <v>15.110469999999999</v>
+      </c>
+      <c r="P32" s="9">
+        <v>15.2437</v>
+      </c>
+      <c r="T32" s="9"/>
+      <c r="U32" s="9"/>
+      <c r="V32" s="9"/>
+      <c r="W32" s="9"/>
+      <c r="X32" s="9"/>
+    </row>
+    <row r="33" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+      <c r="A33" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="F33" s="22"/>
+      <c r="Q33" s="9"/>
+      <c r="R33" s="9"/>
+      <c r="S33" s="9"/>
+      <c r="T33" s="9"/>
+      <c r="U33" s="9"/>
+      <c r="V33" s="9"/>
+      <c r="W33" s="9"/>
+      <c r="X33" s="9"/>
+    </row>
+    <row r="34" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+      <c r="A34" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F34" s="22"/>
+      <c r="Q34" s="9"/>
+      <c r="R34" s="9"/>
+      <c r="S34" s="9"/>
+      <c r="T34" s="9"/>
+    </row>
+    <row r="35" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+      <c r="A35" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="57"/>
+      <c r="H35" s="40"/>
+      <c r="I35" s="40"/>
+      <c r="J35" s="40"/>
+      <c r="K35" s="40"/>
+      <c r="L35" s="40"/>
+      <c r="M35" s="40"/>
+      <c r="N35" s="40"/>
+      <c r="O35" s="40"/>
+      <c r="P35" s="40"/>
+      <c r="Q35" s="9"/>
+      <c r="R35" s="9"/>
+      <c r="S35" s="9"/>
+      <c r="T35" s="9"/>
+    </row>
+    <row r="36" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+      <c r="A36" s="50"/>
+      <c r="B36" s="52">
+        <v>12.943759999999999</v>
+      </c>
+      <c r="D36" s="71">
+        <v>11.317069999999999</v>
+      </c>
+      <c r="E36" s="71">
+        <v>11.353249999999999</v>
+      </c>
+      <c r="F36" s="22"/>
+      <c r="G36" s="9">
+        <v>11.12555</v>
+      </c>
+      <c r="H36" s="9">
+        <v>10.66836</v>
+      </c>
+      <c r="I36" s="9">
+        <v>10.957330000000001</v>
+      </c>
+      <c r="J36" s="9">
+        <v>10.363630000000001</v>
+      </c>
+      <c r="K36" s="9">
+        <v>10.488939999999999</v>
+      </c>
+      <c r="L36" s="9">
+        <v>10.17449</v>
+      </c>
+      <c r="M36" s="9">
+        <v>10.26618</v>
+      </c>
+      <c r="N36" s="9">
+        <v>9.9768699999999999</v>
+      </c>
+      <c r="O36" s="9">
+        <v>10.15199</v>
+      </c>
+      <c r="P36" s="9">
+        <v>9.8563779999999994</v>
+      </c>
+      <c r="Q36" s="9"/>
+      <c r="R36" s="9"/>
+      <c r="S36" s="9"/>
+      <c r="T36" s="9"/>
+    </row>
+    <row r="37" spans="1:24" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="57"/>
+      <c r="H37" s="40"/>
+      <c r="I37" s="40"/>
+      <c r="J37" s="40"/>
+      <c r="K37" s="40"/>
+      <c r="L37" s="40"/>
+      <c r="M37" s="40"/>
+      <c r="N37" s="40"/>
+      <c r="O37" s="40"/>
+      <c r="P37" s="40"/>
+      <c r="Q37" s="9"/>
+      <c r="R37" s="9"/>
+      <c r="S37" s="9"/>
+      <c r="T37" s="9"/>
+    </row>
+    <row r="38" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+      <c r="A38" s="50"/>
+      <c r="B38" s="52">
+        <v>15.130089999999999</v>
+      </c>
+      <c r="D38" s="71">
+        <v>14.77895</v>
+      </c>
+      <c r="E38" s="71">
+        <v>14.08722</v>
+      </c>
+      <c r="F38" s="22"/>
+      <c r="G38" s="9">
+        <v>13.99513</v>
+      </c>
+      <c r="H38" s="9">
+        <v>13.67897</v>
+      </c>
+      <c r="I38" s="9">
+        <v>13.464029999999999</v>
+      </c>
+      <c r="J38" s="9">
+        <v>13.55259</v>
+      </c>
+      <c r="K38" s="9">
+        <v>13.298730000000001</v>
+      </c>
+      <c r="L38" s="9">
+        <v>13.07652</v>
+      </c>
+      <c r="M38" s="9">
+        <v>13.129519999999999</v>
+      </c>
+      <c r="N38" s="9">
+        <v>13.00203</v>
+      </c>
+      <c r="O38" s="9">
+        <v>13.18505</v>
+      </c>
+      <c r="P38" s="9">
+        <v>13.07681</v>
+      </c>
+      <c r="Q38" s="9"/>
+      <c r="R38" s="9"/>
+      <c r="S38" s="9"/>
+      <c r="T38" s="9"/>
+    </row>
+    <row r="39" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+      <c r="A39" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="57"/>
+      <c r="H39" s="40"/>
+      <c r="I39" s="40"/>
+      <c r="J39" s="40"/>
+      <c r="K39" s="40"/>
+      <c r="L39" s="40"/>
+      <c r="M39" s="40"/>
+      <c r="N39" s="40"/>
+      <c r="O39" s="40"/>
+      <c r="P39" s="40"/>
+    </row>
+    <row r="40" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+      <c r="A40" s="50"/>
+      <c r="B40" s="52">
+        <v>16.811450000000001</v>
+      </c>
+      <c r="C40" s="22"/>
+      <c r="D40" s="71">
+        <v>16.85596</v>
+      </c>
+      <c r="E40" s="71">
+        <v>15.8911</v>
+      </c>
+      <c r="F40" s="22"/>
+      <c r="G40" s="9">
+        <v>16.20842</v>
+      </c>
+      <c r="H40" s="9">
+        <v>15.92962</v>
+      </c>
+      <c r="I40" s="9">
+        <v>15.66325</v>
+      </c>
+      <c r="J40" s="9">
+        <v>15.471259999999999</v>
+      </c>
+      <c r="K40" s="9">
+        <v>15.322950000000001</v>
+      </c>
+      <c r="L40" s="9">
+        <v>15.22424</v>
+      </c>
+      <c r="M40" s="9">
+        <v>15.13564</v>
+      </c>
+      <c r="N40" s="9">
+        <v>15.223129999999999</v>
+      </c>
+      <c r="O40" s="9">
+        <v>15.079689999999999</v>
+      </c>
+      <c r="P40" s="9">
+        <v>15.237830000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+      <c r="A41" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="57"/>
+      <c r="E41" s="57"/>
+      <c r="F41" s="57"/>
+      <c r="H41" s="40"/>
+      <c r="I41" s="40"/>
+      <c r="J41" s="40"/>
+      <c r="K41" s="40"/>
+      <c r="L41" s="40"/>
+      <c r="M41" s="40"/>
+      <c r="N41" s="40"/>
+      <c r="O41" s="40"/>
+      <c r="P41" s="40"/>
+    </row>
+    <row r="42" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+    </row>
+    <row r="43" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
+    </row>
+    <row r="45" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+      <c r="I45" s="39"/>
+      <c r="J45" s="39"/>
+      <c r="K45" s="39"/>
+      <c r="L45" s="39"/>
+    </row>
+    <row r="47" spans="1:24" ht="16" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="1:24" ht="16" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="16" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="16" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="G1:P1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="B1" s="76" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+    </row>
+    <row r="2" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="B2" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="30">
+        <v>4377</v>
+      </c>
+      <c r="C3" s="30">
+        <v>4873</v>
+      </c>
+      <c r="D3" s="30">
+        <v>4558</v>
+      </c>
+      <c r="E3" s="30">
+        <v>4524</v>
+      </c>
+      <c r="F3" s="30">
+        <v>4860</v>
+      </c>
+      <c r="G3" s="30">
+        <v>5177</v>
+      </c>
+      <c r="H3" s="30">
+        <v>4580</v>
+      </c>
+      <c r="I3" s="30">
+        <v>4816</v>
+      </c>
+      <c r="J3" s="30">
+        <v>4677</v>
+      </c>
+      <c r="K3" s="30">
+        <v>4552</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+    </row>
+    <row r="5" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="31">
+        <v>2225</v>
+      </c>
+      <c r="C5" s="4">
+        <v>2439</v>
+      </c>
+      <c r="D5" s="4">
+        <v>2355</v>
+      </c>
+      <c r="E5" s="4">
+        <v>2276</v>
+      </c>
+      <c r="F5" s="4">
+        <v>3076</v>
+      </c>
+      <c r="G5" s="4">
+        <v>3142</v>
+      </c>
+      <c r="H5" s="4">
+        <v>2641</v>
+      </c>
+      <c r="I5" s="4">
+        <v>2920</v>
+      </c>
+      <c r="J5" s="4">
+        <v>2924</v>
+      </c>
+      <c r="K5" s="4">
+        <v>2952</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="31">
+        <v>2225</v>
+      </c>
+      <c r="C6" s="4">
+        <v>2439</v>
+      </c>
+      <c r="D6" s="4">
+        <v>2355</v>
+      </c>
+      <c r="E6" s="4">
+        <v>2276</v>
+      </c>
+      <c r="F6" s="4">
+        <v>3076</v>
+      </c>
+      <c r="G6" s="4">
+        <v>3142</v>
+      </c>
+      <c r="H6" s="4">
+        <v>2641</v>
+      </c>
+      <c r="I6" s="4">
+        <v>2920</v>
+      </c>
+      <c r="J6" s="4">
+        <v>2924</v>
+      </c>
+      <c r="K6" s="4">
+        <v>2952</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="31">
+        <v>2225</v>
+      </c>
+      <c r="C7" s="4">
+        <v>2439</v>
+      </c>
+      <c r="D7" s="4">
+        <v>2355</v>
+      </c>
+      <c r="E7" s="4">
+        <v>2276</v>
+      </c>
+      <c r="F7" s="4">
+        <v>3076</v>
+      </c>
+      <c r="G7" s="4">
+        <v>3142</v>
+      </c>
+      <c r="H7" s="4">
+        <v>2641</v>
+      </c>
+      <c r="I7" s="4">
+        <v>2920</v>
+      </c>
+      <c r="J7" s="4">
+        <v>2924</v>
+      </c>
+      <c r="K7" s="4">
+        <v>2952</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="31">
+        <v>2225</v>
+      </c>
+      <c r="C8" s="4">
+        <v>2439</v>
+      </c>
+      <c r="D8" s="4">
+        <v>2355</v>
+      </c>
+      <c r="E8" s="4">
+        <v>2276</v>
+      </c>
+      <c r="F8" s="4">
+        <v>3076</v>
+      </c>
+      <c r="G8" s="4">
+        <v>3142</v>
+      </c>
+      <c r="H8" s="4">
+        <v>2641</v>
+      </c>
+      <c r="I8" s="4">
+        <v>2920</v>
+      </c>
+      <c r="J8" s="4">
+        <v>2924</v>
+      </c>
+      <c r="K8" s="4">
+        <v>2952</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="31">
+        <v>2218</v>
+      </c>
+      <c r="C9" s="4">
+        <v>2432</v>
+      </c>
+      <c r="D9" s="4">
+        <v>2320</v>
+      </c>
+      <c r="E9" s="4">
+        <v>2276</v>
+      </c>
+      <c r="F9" s="4">
+        <v>3076</v>
+      </c>
+      <c r="G9" s="4">
+        <v>3142</v>
+      </c>
+      <c r="H9" s="4">
+        <v>2641</v>
+      </c>
+      <c r="I9" s="4">
+        <v>2920</v>
+      </c>
+      <c r="J9" s="4">
+        <v>2924</v>
+      </c>
+      <c r="K9" s="4">
+        <v>2952</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="31">
+        <v>2225</v>
+      </c>
+      <c r="C10" s="4">
+        <v>2439</v>
+      </c>
+      <c r="D10" s="4">
+        <v>2355</v>
+      </c>
+      <c r="E10" s="4">
+        <v>2276</v>
+      </c>
+      <c r="F10" s="4">
+        <v>3076</v>
+      </c>
+      <c r="G10" s="4">
+        <v>3142</v>
+      </c>
+      <c r="H10" s="4">
+        <v>2641</v>
+      </c>
+      <c r="I10" s="4">
+        <v>2920</v>
+      </c>
+      <c r="J10" s="4">
+        <v>2924</v>
+      </c>
+      <c r="K10" s="4">
+        <v>2952</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" s="31">
+        <v>3035</v>
+      </c>
+      <c r="C11" s="4">
+        <v>3441</v>
+      </c>
+      <c r="D11" s="4">
+        <v>3169</v>
+      </c>
+      <c r="E11" s="4">
+        <v>3128</v>
+      </c>
+      <c r="F11" s="4">
+        <v>3110</v>
+      </c>
+      <c r="G11" s="4">
+        <v>3386</v>
+      </c>
+      <c r="H11" s="4">
+        <v>3033</v>
+      </c>
+      <c r="I11" s="4">
+        <v>3172</v>
+      </c>
+      <c r="J11" s="4">
+        <v>2972</v>
+      </c>
+      <c r="K11" s="4">
+        <v>2891</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:K1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:L48"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
@@ -11483,8 +13691,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:T35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11505,23 +13713,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B1" s="75" t="s">
+      <c r="B1" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="F1" s="75" t="s">
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="F1" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
       <c r="R1" s="9"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
@@ -12546,377 +14754,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="B1" s="75" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-    </row>
-    <row r="2" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="B2" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B3" s="30">
-        <v>4377</v>
-      </c>
-      <c r="C3" s="30">
-        <v>4873</v>
-      </c>
-      <c r="D3" s="30">
-        <v>4558</v>
-      </c>
-      <c r="E3" s="30">
-        <v>4524</v>
-      </c>
-      <c r="F3" s="30">
-        <v>4860</v>
-      </c>
-      <c r="G3" s="30">
-        <v>5177</v>
-      </c>
-      <c r="H3" s="30">
-        <v>4580</v>
-      </c>
-      <c r="I3" s="30">
-        <v>4816</v>
-      </c>
-      <c r="J3" s="30">
-        <v>4677</v>
-      </c>
-      <c r="K3" s="30">
-        <v>4552</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-    </row>
-    <row r="5" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B5" s="31">
-        <v>2225</v>
-      </c>
-      <c r="C5" s="4">
-        <v>2439</v>
-      </c>
-      <c r="D5" s="4">
-        <v>2355</v>
-      </c>
-      <c r="E5" s="4">
-        <v>2276</v>
-      </c>
-      <c r="F5" s="4">
-        <v>3076</v>
-      </c>
-      <c r="G5" s="4">
-        <v>3142</v>
-      </c>
-      <c r="H5" s="4">
-        <v>2641</v>
-      </c>
-      <c r="I5" s="4">
-        <v>2920</v>
-      </c>
-      <c r="J5" s="4">
-        <v>2924</v>
-      </c>
-      <c r="K5" s="4">
-        <v>2952</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="31">
-        <v>2225</v>
-      </c>
-      <c r="C6" s="4">
-        <v>2439</v>
-      </c>
-      <c r="D6" s="4">
-        <v>2355</v>
-      </c>
-      <c r="E6" s="4">
-        <v>2276</v>
-      </c>
-      <c r="F6" s="4">
-        <v>3076</v>
-      </c>
-      <c r="G6" s="4">
-        <v>3142</v>
-      </c>
-      <c r="H6" s="4">
-        <v>2641</v>
-      </c>
-      <c r="I6" s="4">
-        <v>2920</v>
-      </c>
-      <c r="J6" s="4">
-        <v>2924</v>
-      </c>
-      <c r="K6" s="4">
-        <v>2952</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="31">
-        <v>2225</v>
-      </c>
-      <c r="C7" s="4">
-        <v>2439</v>
-      </c>
-      <c r="D7" s="4">
-        <v>2355</v>
-      </c>
-      <c r="E7" s="4">
-        <v>2276</v>
-      </c>
-      <c r="F7" s="4">
-        <v>3076</v>
-      </c>
-      <c r="G7" s="4">
-        <v>3142</v>
-      </c>
-      <c r="H7" s="4">
-        <v>2641</v>
-      </c>
-      <c r="I7" s="4">
-        <v>2920</v>
-      </c>
-      <c r="J7" s="4">
-        <v>2924</v>
-      </c>
-      <c r="K7" s="4">
-        <v>2952</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B8" s="31">
-        <v>2225</v>
-      </c>
-      <c r="C8" s="4">
-        <v>2439</v>
-      </c>
-      <c r="D8" s="4">
-        <v>2355</v>
-      </c>
-      <c r="E8" s="4">
-        <v>2276</v>
-      </c>
-      <c r="F8" s="4">
-        <v>3076</v>
-      </c>
-      <c r="G8" s="4">
-        <v>3142</v>
-      </c>
-      <c r="H8" s="4">
-        <v>2641</v>
-      </c>
-      <c r="I8" s="4">
-        <v>2920</v>
-      </c>
-      <c r="J8" s="4">
-        <v>2924</v>
-      </c>
-      <c r="K8" s="4">
-        <v>2952</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="31">
-        <v>2218</v>
-      </c>
-      <c r="C9" s="4">
-        <v>2432</v>
-      </c>
-      <c r="D9" s="4">
-        <v>2320</v>
-      </c>
-      <c r="E9" s="4">
-        <v>2276</v>
-      </c>
-      <c r="F9" s="4">
-        <v>3076</v>
-      </c>
-      <c r="G9" s="4">
-        <v>3142</v>
-      </c>
-      <c r="H9" s="4">
-        <v>2641</v>
-      </c>
-      <c r="I9" s="4">
-        <v>2920</v>
-      </c>
-      <c r="J9" s="4">
-        <v>2924</v>
-      </c>
-      <c r="K9" s="4">
-        <v>2952</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>71</v>
-      </c>
-      <c r="B10" s="31">
-        <v>2225</v>
-      </c>
-      <c r="C10" s="4">
-        <v>2439</v>
-      </c>
-      <c r="D10" s="4">
-        <v>2355</v>
-      </c>
-      <c r="E10" s="4">
-        <v>2276</v>
-      </c>
-      <c r="F10" s="4">
-        <v>3076</v>
-      </c>
-      <c r="G10" s="4">
-        <v>3142</v>
-      </c>
-      <c r="H10" s="4">
-        <v>2641</v>
-      </c>
-      <c r="I10" s="4">
-        <v>2920</v>
-      </c>
-      <c r="J10" s="4">
-        <v>2924</v>
-      </c>
-      <c r="K10" s="4">
-        <v>2952</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>72</v>
-      </c>
-      <c r="B11" s="31">
-        <v>3035</v>
-      </c>
-      <c r="C11" s="4">
-        <v>3441</v>
-      </c>
-      <c r="D11" s="4">
-        <v>3169</v>
-      </c>
-      <c r="E11" s="4">
-        <v>3128</v>
-      </c>
-      <c r="F11" s="4">
-        <v>3110</v>
-      </c>
-      <c r="G11" s="4">
-        <v>3386</v>
-      </c>
-      <c r="H11" s="4">
-        <v>3033</v>
-      </c>
-      <c r="I11" s="4">
-        <v>3172</v>
-      </c>
-      <c r="J11" s="4">
-        <v>2972</v>
-      </c>
-      <c r="K11" s="4">
-        <v>2891</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:K1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:BT26"/>
   <sheetViews>
     <sheetView zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I10" sqref="I10"/>
+      <selection pane="bottomRight" sqref="A1:P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12935,83 +14781,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:72" x14ac:dyDescent="0.2">
-      <c r="B1" s="77" t="s">
+      <c r="B1" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="R1" s="77" t="s">
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="R1" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
-      <c r="W1" s="77"/>
-      <c r="X1" s="77"/>
-      <c r="Y1" s="77"/>
-      <c r="Z1" s="77"/>
-      <c r="AA1" s="77"/>
-      <c r="AB1" s="77"/>
-      <c r="AC1" s="77"/>
-      <c r="AD1" s="77"/>
-      <c r="AF1" s="77" t="s">
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
+      <c r="W1" s="78"/>
+      <c r="X1" s="78"/>
+      <c r="Y1" s="78"/>
+      <c r="Z1" s="78"/>
+      <c r="AA1" s="78"/>
+      <c r="AB1" s="78"/>
+      <c r="AC1" s="78"/>
+      <c r="AD1" s="78"/>
+      <c r="AF1" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="AG1" s="77"/>
-      <c r="AH1" s="77"/>
-      <c r="AI1" s="77"/>
-      <c r="AJ1" s="77"/>
-      <c r="AK1" s="77"/>
-      <c r="AL1" s="77"/>
-      <c r="AM1" s="77"/>
-      <c r="AN1" s="77"/>
-      <c r="AO1" s="77"/>
-      <c r="AP1" s="77"/>
-      <c r="AQ1" s="77"/>
-      <c r="AR1" s="77"/>
-      <c r="AT1" s="77" t="s">
+      <c r="AG1" s="78"/>
+      <c r="AH1" s="78"/>
+      <c r="AI1" s="78"/>
+      <c r="AJ1" s="78"/>
+      <c r="AK1" s="78"/>
+      <c r="AL1" s="78"/>
+      <c r="AM1" s="78"/>
+      <c r="AN1" s="78"/>
+      <c r="AO1" s="78"/>
+      <c r="AP1" s="78"/>
+      <c r="AQ1" s="78"/>
+      <c r="AR1" s="78"/>
+      <c r="AT1" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="AU1" s="77"/>
-      <c r="AV1" s="77"/>
-      <c r="AW1" s="77"/>
-      <c r="AX1" s="77"/>
-      <c r="AY1" s="77"/>
-      <c r="AZ1" s="77"/>
-      <c r="BA1" s="77"/>
-      <c r="BB1" s="77"/>
-      <c r="BC1" s="77"/>
-      <c r="BD1" s="77"/>
-      <c r="BE1" s="77"/>
-      <c r="BF1" s="77"/>
-      <c r="BH1" s="77" t="s">
+      <c r="AU1" s="78"/>
+      <c r="AV1" s="78"/>
+      <c r="AW1" s="78"/>
+      <c r="AX1" s="78"/>
+      <c r="AY1" s="78"/>
+      <c r="AZ1" s="78"/>
+      <c r="BA1" s="78"/>
+      <c r="BB1" s="78"/>
+      <c r="BC1" s="78"/>
+      <c r="BD1" s="78"/>
+      <c r="BE1" s="78"/>
+      <c r="BF1" s="78"/>
+      <c r="BH1" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="BI1" s="77"/>
-      <c r="BJ1" s="77"/>
-      <c r="BK1" s="77"/>
-      <c r="BL1" s="77"/>
-      <c r="BM1" s="77"/>
-      <c r="BN1" s="77"/>
-      <c r="BO1" s="77"/>
-      <c r="BP1" s="77"/>
-      <c r="BQ1" s="77"/>
-      <c r="BR1" s="77"/>
-      <c r="BS1" s="77"/>
-      <c r="BT1" s="77"/>
+      <c r="BI1" s="78"/>
+      <c r="BJ1" s="78"/>
+      <c r="BK1" s="78"/>
+      <c r="BL1" s="78"/>
+      <c r="BM1" s="78"/>
+      <c r="BN1" s="78"/>
+      <c r="BO1" s="78"/>
+      <c r="BP1" s="78"/>
+      <c r="BQ1" s="78"/>
+      <c r="BR1" s="78"/>
+      <c r="BS1" s="78"/>
+      <c r="BT1" s="78"/>
     </row>
     <row r="2" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>

--- a/FRS_tabs.xlsx
+++ b/FRS_tabs.xlsx
@@ -8,23 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bryankim/Documents/NBER/Case Deaton/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC11F46F-1DD3-AC4E-8BCD-3BDA75D04881}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4359DE0E-040E-2A4B-B358-1BD731591C02}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3620" yWindow="2100" windowWidth="20040" windowHeight="13020" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="540" windowWidth="28800" windowHeight="17240" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="To Do" sheetId="16" r:id="rId1"/>
     <sheet name="All" sheetId="14" r:id="rId2"/>
     <sheet name="By Education" sheetId="15" r:id="rId3"/>
-    <sheet name="Data" sheetId="1" r:id="rId4"/>
-    <sheet name="ATP3" sheetId="17" r:id="rId5"/>
-    <sheet name="Missing Data" sheetId="13" r:id="rId6"/>
-    <sheet name="FGT v HbA1c" sheetId="12" r:id="rId7"/>
-    <sheet name="Cox Data" sheetId="11" r:id="rId8"/>
-    <sheet name="Cholesterol" sheetId="7" r:id="rId9"/>
-    <sheet name="Cholesterol - By Education" sheetId="8" r:id="rId10"/>
-    <sheet name="Diabetes" sheetId="9" r:id="rId11"/>
-    <sheet name="Risk Factor Tabs" sheetId="6" r:id="rId12"/>
+    <sheet name="What's in each model" sheetId="19" r:id="rId4"/>
+    <sheet name="Old Framingham" sheetId="1" r:id="rId5"/>
+    <sheet name="ATP3" sheetId="17" r:id="rId6"/>
+    <sheet name="Pooled Cohort" sheetId="18" r:id="rId7"/>
+    <sheet name="Missing Data" sheetId="13" r:id="rId8"/>
+    <sheet name="FGT v HbA1c" sheetId="12" r:id="rId9"/>
+    <sheet name="Cox Data" sheetId="11" r:id="rId10"/>
+    <sheet name="Cholesterol" sheetId="7" r:id="rId11"/>
+    <sheet name="Cholesterol - By Education" sheetId="8" r:id="rId12"/>
+    <sheet name="Diabetes" sheetId="9" r:id="rId13"/>
+    <sheet name="Risk Factor Tabs" sheetId="6" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="211">
   <si>
     <t>FRS Average</t>
   </si>
@@ -582,15 +584,122 @@
   </si>
   <si>
     <t># use:</t>
+  </si>
+  <si>
+    <t>All Pooled Cohort</t>
+  </si>
+  <si>
+    <t>Age-Sex adjusted All Pooled Cohort</t>
+  </si>
+  <si>
+    <t>age x hdl</t>
+  </si>
+  <si>
+    <t>lbxtc</t>
+  </si>
+  <si>
+    <t>* study and its derived beta coefficients are based on a White and African American population so wee need to take out the "Other" race categories</t>
+  </si>
+  <si>
+    <t>current smoker</t>
+  </si>
+  <si>
+    <t>ATP3</t>
+  </si>
+  <si>
+    <t>Pooled Cohort</t>
+  </si>
+  <si>
+    <t>age x totchol</t>
+  </si>
+  <si>
+    <t>totchol</t>
+  </si>
+  <si>
+    <t>sbp</t>
+  </si>
+  <si>
+    <t>age x current smoker</t>
+  </si>
+  <si>
+    <t>Pooled Cohort ^</t>
+  </si>
+  <si>
+    <t>^ points based, but translatable to 10-year risk profiles</t>
+  </si>
+  <si>
+    <t>Old Frmaingham</t>
+  </si>
+  <si>
+    <t>ATP3**</t>
+  </si>
+  <si>
+    <t>agesq ***</t>
+  </si>
+  <si>
+    <t>** based on AfricanAmerican and White only sample</t>
+  </si>
+  <si>
+    <t>* CVD risk</t>
+  </si>
+  <si>
+    <t>treated ****</t>
+  </si>
+  <si>
+    <t>**** are you currently taking medication for hypertension/high blood pressure</t>
+  </si>
+  <si>
+    <t>*** this interaction is only in the model for females</t>
+  </si>
+  <si>
+    <t>Old Framingham ^*</t>
+  </si>
+  <si>
+    <t>race</t>
+  </si>
+  <si>
+    <t>weight_lbs</t>
+  </si>
+  <si>
+    <t>height_inches</t>
+  </si>
+  <si>
+    <t>because we need</t>
+  </si>
+  <si>
+    <t>to impute using bmi</t>
+  </si>
+  <si>
+    <t>don't drop because impute</t>
+  </si>
+  <si>
+    <t>race (drop missing | non-African American | non-White *)</t>
+  </si>
+  <si>
+    <t>bmi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -745,6 +854,13 @@
       <name val="Monaco"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Monaco"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -836,156 +952,156 @@
   </borders>
   <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="51" applyFont="1" applyAlignment="1">
@@ -994,36 +1110,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="52">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1159,7 +1282,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$B$2:$P$2</c:f>
+              <c:f>'Old Framingham'!$B$2:$P$2</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
@@ -1206,7 +1329,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$B$11:$P$11</c:f>
+              <c:f>'Old Framingham'!$B$11:$P$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1499,7 +1622,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Data!$B$39:$P$39</c:f>
+              <c:f>'Old Framingham'!$B$39:$P$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1575,7 +1698,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Data!$B$44:$P$44</c:f>
+              <c:f>'Old Framingham'!$B$44:$P$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1651,7 +1774,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Data!$B$49:$P$49</c:f>
+              <c:f>'Old Framingham'!$B$49:$P$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1727,7 +1850,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Data!$B$54:$P$54</c:f>
+              <c:f>'Old Framingham'!$B$54:$P$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -6893,7 +7016,7 @@
     <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>
   <sheetViews>
-    <sheetView zoomScale="40" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="126" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6970,7 +7093,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="19526250" cy="14181667"/>
+    <xdr:ext cx="8678333" cy="6289524"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -7000,6 +7123,143 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>155876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>588432</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>161032</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1044979B-31E2-4543-8F1B-70B43BE91E10}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10301216" y="5463339"/>
+          <a:ext cx="5148112" cy="5691723"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>200800</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>29918</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>471732</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>12985</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99B71302-50F1-DF42-98E6-22EFC4396CED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17563785" y="5337381"/>
+          <a:ext cx="8611231" cy="6617395"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>388801</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>155092</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>54971</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>139647</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD160645-C5C2-1748-8241-6F22974146C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="388801" y="5462555"/>
+          <a:ext cx="8823012" cy="5292017"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7506,7 +7766,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
@@ -7539,7 +7799,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
@@ -7572,7 +7832,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
@@ -8018,11 +8278,176 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00820E8F-3ABF-3241-B854-407848826B72}">
+  <dimension ref="A1:V25"/>
+  <sheetViews>
+    <sheetView zoomScale="142" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="28" t="s">
+        <v>202</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B7" t="s">
+        <v>172</v>
+      </c>
+      <c r="C7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" t="s">
+        <v>182</v>
+      </c>
+      <c r="C8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>190</v>
+      </c>
+      <c r="C9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>198</v>
+      </c>
+      <c r="B10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="M24" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="25" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>194</v>
+      </c>
+      <c r="V25" t="s">
+        <v>187</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:X105"/>
   <sheetViews>
     <sheetView zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="D2" sqref="D2:E2"/>
@@ -8045,21 +8470,21 @@
         <v>53</v>
       </c>
       <c r="C1" s="23"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
       <c r="F1" s="24"/>
-      <c r="G1" s="77" t="s">
+      <c r="G1" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -11139,15 +11564,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8A3FBC7-7A01-284D-A03B-BE342E59CEBE}">
-  <dimension ref="A1:AH50"/>
+  <dimension ref="A1:AH45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="89" workbookViewId="0">
-      <selection activeCell="AH21" sqref="AH21"/>
+    <sheetView topLeftCell="P4" zoomScale="106" workbookViewId="0">
+      <selection activeCell="U21" sqref="U21:AG21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="36.83203125" style="12" customWidth="1"/>
     <col min="2" max="2" width="11.33203125" style="12" customWidth="1"/>
@@ -11165,30 +11590,30 @@
     <col min="24" max="16384" width="9.33203125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B1" s="23" t="s">
         <v>53</v>
       </c>
       <c r="C1" s="23"/>
-      <c r="D1" s="79" t="s">
+      <c r="D1" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="76"/>
+      <c r="E1" s="83"/>
       <c r="F1" s="24"/>
-      <c r="G1" s="77" t="s">
+      <c r="G1" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-    </row>
-    <row r="2" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -11243,7 +11668,7 @@
       <c r="AD2" s="9"/>
     </row>
     <row r="3" spans="1:34" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="77" t="s">
         <v>165</v>
       </c>
       <c r="B3" s="71">
@@ -11305,8 +11730,8 @@
       <c r="AC3" s="9"/>
       <c r="AD3" s="9"/>
     </row>
-    <row r="4" spans="1:34" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="80" t="s">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A4" s="77" t="s">
         <v>164</v>
       </c>
       <c r="B4" s="71">
@@ -11419,7 +11844,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A6" s="46" t="s">
         <v>32</v>
       </c>
@@ -11449,7 +11874,7 @@
       <c r="AG6" s="9"/>
       <c r="AH6" s="9"/>
     </row>
-    <row r="7" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A7" s="43"/>
       <c r="B7" s="52">
         <v>15.13148</v>
@@ -11516,7 +11941,7 @@
       <c r="AG7" s="9"/>
       <c r="AH7" s="9"/>
     </row>
-    <row r="8" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A8" s="44" t="s">
         <v>33</v>
       </c>
@@ -11548,7 +11973,7 @@
       <c r="AG8" s="9"/>
       <c r="AH8" s="9"/>
     </row>
-    <row r="9" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A9" s="43"/>
       <c r="B9" s="52">
         <v>14.739940000000001</v>
@@ -11596,7 +12021,7 @@
       <c r="T9" s="9"/>
       <c r="U9" s="9"/>
     </row>
-    <row r="10" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A10" s="44" t="s">
         <v>34</v>
       </c>
@@ -11624,7 +12049,7 @@
       <c r="AA10" s="9"/>
       <c r="AB10" s="9"/>
     </row>
-    <row r="11" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A11" s="43"/>
       <c r="B11" s="22"/>
       <c r="C11" s="22"/>
@@ -11700,47 +12125,47 @@
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
       <c r="T12" s="9"/>
-      <c r="U12" s="82" t="s">
+      <c r="U12" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="V12" s="82" t="s">
+      <c r="V12" s="79" t="s">
         <v>168</v>
       </c>
-      <c r="W12" s="83" t="s">
+      <c r="W12" s="80" t="s">
         <v>169</v>
       </c>
-      <c r="X12" s="84" t="s">
+      <c r="X12" s="81" t="s">
         <v>51</v>
       </c>
-      <c r="Y12" s="84" t="s">
+      <c r="Y12" s="81" t="s">
         <v>46</v>
       </c>
-      <c r="Z12" s="84" t="s">
+      <c r="Z12" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="AA12" s="84" t="s">
+      <c r="AA12" s="81" t="s">
         <v>48</v>
       </c>
-      <c r="AB12" s="84" t="s">
+      <c r="AB12" s="81" t="s">
         <v>49</v>
       </c>
-      <c r="AC12" s="84" t="s">
+      <c r="AC12" s="81" t="s">
         <v>30</v>
       </c>
-      <c r="AD12" s="84" t="s">
+      <c r="AD12" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="AE12" s="84" t="s">
+      <c r="AE12" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="AF12" s="84" t="s">
+      <c r="AF12" s="81" t="s">
         <v>44</v>
       </c>
-      <c r="AG12" s="84" t="s">
+      <c r="AG12" s="81" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A13" s="46" t="s">
         <v>35</v>
       </c>
@@ -11793,7 +12218,7 @@
         <v>2793</v>
       </c>
     </row>
-    <row r="14" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A14" s="43"/>
       <c r="B14" s="52">
         <v>13.87668</v>
@@ -11840,7 +12265,7 @@
       <c r="S14" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="T14" s="81" t="s">
+      <c r="T14" s="78" t="s">
         <v>170</v>
       </c>
       <c r="U14" s="9">
@@ -11884,7 +12309,7 @@
       </c>
       <c r="AH14" s="9"/>
     </row>
-    <row r="15" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A15" s="27" t="s">
         <v>26</v>
       </c>
@@ -11892,7 +12317,7 @@
       <c r="Q15" s="9"/>
       <c r="R15" s="9"/>
       <c r="S15" s="9"/>
-      <c r="T15" s="81" t="s">
+      <c r="T15" s="78" t="s">
         <v>171</v>
       </c>
       <c r="U15" s="12">
@@ -11935,7 +12360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A16" s="49" t="s">
         <v>32</v>
       </c>
@@ -11945,7 +12370,7 @@
       <c r="Q16" s="9"/>
       <c r="R16" s="9"/>
       <c r="S16" s="9"/>
-      <c r="T16" s="81" t="s">
+      <c r="T16" s="78" t="s">
         <v>172</v>
       </c>
       <c r="U16" s="12">
@@ -11988,7 +12413,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="17" spans="1:33" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A17" s="43"/>
       <c r="B17" s="52">
         <v>14.93436</v>
@@ -12077,7 +12502,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="18" spans="1:33" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A18" s="49" t="s">
         <v>33</v>
       </c>
@@ -12129,7 +12554,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="19" spans="1:33" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A19" s="43"/>
       <c r="B19" s="52">
         <v>14.591659999999999</v>
@@ -12218,7 +12643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:33" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A20" s="49" t="s">
         <v>34</v>
       </c>
@@ -12270,7 +12695,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:33" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A21" s="43"/>
       <c r="B21" s="52">
         <v>13.813789999999999</v>
@@ -12313,53 +12738,53 @@
       <c r="P21" s="9">
         <v>12.017010000000001</v>
       </c>
-      <c r="S21" s="81" t="s">
+      <c r="S21" s="78" t="s">
         <v>179</v>
       </c>
-      <c r="T21" s="81" t="s">
+      <c r="T21" s="78" t="s">
         <v>177</v>
       </c>
-      <c r="U21" s="12">
+      <c r="U21" s="88">
         <v>5218</v>
       </c>
-      <c r="V21" s="12">
+      <c r="V21" s="88">
         <v>2981</v>
       </c>
-      <c r="W21" s="12">
+      <c r="W21" s="88">
         <v>2966</v>
       </c>
-      <c r="X21" s="12">
+      <c r="X21" s="88">
         <v>1748</v>
       </c>
-      <c r="Y21" s="12">
+      <c r="Y21" s="88">
         <v>1878</v>
       </c>
-      <c r="Z21" s="12">
+      <c r="Z21" s="88">
         <v>1762</v>
       </c>
-      <c r="AA21" s="12">
+      <c r="AA21" s="88">
         <v>1796</v>
       </c>
-      <c r="AB21" s="12">
+      <c r="AB21" s="88">
         <v>2459</v>
       </c>
-      <c r="AC21" s="12">
+      <c r="AC21" s="88">
         <v>2556</v>
       </c>
-      <c r="AD21" s="12">
+      <c r="AD21" s="88">
         <v>2190</v>
       </c>
-      <c r="AE21" s="12">
+      <c r="AE21" s="88">
         <v>2446</v>
       </c>
-      <c r="AF21" s="12">
+      <c r="AF21" s="88">
         <v>2407</v>
       </c>
-      <c r="AG21" s="12">
+      <c r="AG21" s="88">
         <v>2404</v>
       </c>
     </row>
-    <row r="22" spans="1:33" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A22" s="49" t="s">
         <v>35</v>
       </c>
@@ -12377,7 +12802,7 @@
       <c r="P22" s="39"/>
       <c r="Q22" s="9"/>
     </row>
-    <row r="23" spans="1:33" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A23" s="43"/>
       <c r="B23" s="52">
         <v>13.68699</v>
@@ -12426,7 +12851,7 @@
       <c r="W23" s="9"/>
       <c r="X23" s="9"/>
     </row>
-    <row r="24" spans="1:33" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A24" s="14"/>
       <c r="F24" s="22"/>
       <c r="T24" s="9"/>
@@ -12435,7 +12860,7 @@
       <c r="W24" s="9"/>
       <c r="X24" s="9"/>
     </row>
-    <row r="25" spans="1:33" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A25" s="14"/>
       <c r="F25" s="22"/>
       <c r="T25" s="9"/>
@@ -12455,7 +12880,7 @@
       <c r="W26" s="9"/>
       <c r="X26" s="9"/>
     </row>
-    <row r="27" spans="1:33" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A27" s="44" t="s">
         <v>83</v>
       </c>
@@ -12466,7 +12891,7 @@
       <c r="W27" s="9"/>
       <c r="X27" s="9"/>
     </row>
-    <row r="28" spans="1:33" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A28" s="50"/>
       <c r="B28" s="52">
         <v>12.966100000000001</v>
@@ -12514,7 +12939,7 @@
       <c r="W28" s="9"/>
       <c r="X28" s="9"/>
     </row>
-    <row r="29" spans="1:33" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A29" s="44" t="s">
         <v>84</v>
       </c>
@@ -12534,7 +12959,7 @@
       <c r="V29" s="9"/>
       <c r="W29" s="9"/>
     </row>
-    <row r="30" spans="1:33" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A30" s="50"/>
       <c r="B30" s="52">
         <v>15.141299999999999</v>
@@ -12582,7 +13007,7 @@
       <c r="W30" s="9"/>
       <c r="X30" s="9"/>
     </row>
-    <row r="31" spans="1:33" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A31" s="44" t="s">
         <v>85</v>
       </c>
@@ -12603,7 +13028,7 @@
       <c r="W31" s="9"/>
       <c r="X31" s="9"/>
     </row>
-    <row r="32" spans="1:33" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A32" s="50"/>
       <c r="B32" s="52">
         <v>17.012879999999999</v>
@@ -12651,7 +13076,7 @@
       <c r="W32" s="9"/>
       <c r="X32" s="9"/>
     </row>
-    <row r="33" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A33" s="45" t="s">
         <v>22</v>
       </c>
@@ -12665,7 +13090,7 @@
       <c r="W33" s="9"/>
       <c r="X33" s="9"/>
     </row>
-    <row r="34" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A34" s="16" t="s">
         <v>26</v>
       </c>
@@ -12675,7 +13100,7 @@
       <c r="S34" s="9"/>
       <c r="T34" s="9"/>
     </row>
-    <row r="35" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A35" s="44" t="s">
         <v>83</v>
       </c>
@@ -12696,7 +13121,7 @@
       <c r="S35" s="9"/>
       <c r="T35" s="9"/>
     </row>
-    <row r="36" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A36" s="50"/>
       <c r="B36" s="52">
         <v>12.943759999999999</v>
@@ -12764,7 +13189,7 @@
       <c r="S37" s="9"/>
       <c r="T37" s="9"/>
     </row>
-    <row r="38" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A38" s="50"/>
       <c r="B38" s="52">
         <v>15.130089999999999</v>
@@ -12811,7 +13236,7 @@
       <c r="S38" s="9"/>
       <c r="T38" s="9"/>
     </row>
-    <row r="39" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A39" s="44" t="s">
         <v>85</v>
       </c>
@@ -12828,7 +13253,7 @@
       <c r="O39" s="40"/>
       <c r="P39" s="40"/>
     </row>
-    <row r="40" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A40" s="50"/>
       <c r="B40" s="52">
         <v>16.811450000000001</v>
@@ -12872,7 +13297,7 @@
         <v>15.237830000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A41" s="45" t="s">
         <v>22</v>
       </c>
@@ -12891,30 +13316,26 @@
       <c r="O41" s="40"/>
       <c r="P41" s="40"/>
     </row>
-    <row r="42" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B42" s="22"/>
       <c r="C42" s="22"/>
       <c r="D42" s="22"/>
       <c r="E42" s="22"/>
       <c r="F42" s="22"/>
     </row>
-    <row r="43" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B43" s="22"/>
       <c r="C43" s="22"/>
       <c r="D43" s="22"/>
       <c r="E43" s="22"/>
       <c r="F43" s="22"/>
     </row>
-    <row r="45" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
       <c r="I45" s="39"/>
       <c r="J45" s="39"/>
       <c r="K45" s="39"/>
       <c r="L45" s="39"/>
     </row>
-    <row r="47" spans="1:24" ht="16" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="1:24" ht="16" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="16" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="16" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D1:E1"/>
@@ -12924,12 +13345,1464 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{874CC2B9-CF8F-CE4D-8ECC-F01D0CB189A3}">
+  <dimension ref="A1:AH45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="P4" zoomScale="107" workbookViewId="0">
+      <selection activeCell="Z23" sqref="Z23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="36.83203125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="6" style="12" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" style="12" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" style="12" customWidth="1"/>
+    <col min="7" max="16" width="13.5" style="37" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="9.33203125" style="12"/>
+    <col min="19" max="19" width="18.1640625" style="12" customWidth="1"/>
+    <col min="20" max="20" width="9.33203125" style="12"/>
+    <col min="21" max="21" width="11.6640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.83203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.33203125" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="B1" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="23"/>
+      <c r="D1" s="85" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="83"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="84" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="25"/>
+      <c r="D2" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="13"/>
+      <c r="G2" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="P2" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
+      <c r="AA2" s="9"/>
+      <c r="AB2" s="9"/>
+      <c r="AC2" s="9"/>
+      <c r="AD2" s="9"/>
+    </row>
+    <row r="3" spans="1:34" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="82" t="s">
+        <v>180</v>
+      </c>
+      <c r="B3" s="71"/>
+      <c r="C3" s="22">
+        <f>(B3+D3)/2</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="22">
+        <f>(E3+G3)/2</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="R3" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="9"/>
+      <c r="AA3" s="9"/>
+      <c r="AB3" s="9"/>
+      <c r="AC3" s="9"/>
+      <c r="AD3" s="9"/>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A4" s="82" t="s">
+        <v>181</v>
+      </c>
+      <c r="B4" s="71"/>
+      <c r="C4" s="22">
+        <f>(B4+D4)/2</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="22">
+        <f>(E4+G4)/2</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="9"/>
+      <c r="AA4" s="9"/>
+      <c r="AB4" s="9"/>
+      <c r="AC4" s="9"/>
+      <c r="AD4" s="9"/>
+    </row>
+    <row r="5" spans="1:34" ht="19" x14ac:dyDescent="0.25">
+      <c r="A5" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="U5" s="6"/>
+      <c r="V5" s="76" t="s">
+        <v>24</v>
+      </c>
+      <c r="W5" s="76" t="s">
+        <v>45</v>
+      </c>
+      <c r="X5" s="76"/>
+      <c r="Y5" s="76" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z5" s="76" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA5" s="76" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB5" s="76" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC5" s="76" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD5" s="76" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE5" s="76" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF5" s="76" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG5" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH5" s="76" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A6" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="22"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T6" s="9">
+        <v>1.515733</v>
+      </c>
+      <c r="U6" s="5"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="9">
+        <v>1.514974</v>
+      </c>
+      <c r="Z6" s="9"/>
+      <c r="AA6" s="9"/>
+      <c r="AB6" s="9"/>
+      <c r="AC6" s="9"/>
+      <c r="AD6" s="9"/>
+      <c r="AE6" s="9"/>
+      <c r="AF6" s="9"/>
+      <c r="AG6" s="9"/>
+      <c r="AH6" s="9"/>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A7" s="43"/>
+      <c r="B7" s="52"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="T7" s="9">
+        <v>50.177419999999998</v>
+      </c>
+      <c r="U7" s="5"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="9"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="9">
+        <v>51.484479999999998</v>
+      </c>
+      <c r="Z7" s="9"/>
+      <c r="AA7" s="9"/>
+      <c r="AB7" s="9"/>
+      <c r="AC7" s="9"/>
+      <c r="AD7" s="9"/>
+      <c r="AE7" s="9"/>
+      <c r="AF7" s="9"/>
+      <c r="AG7" s="9"/>
+      <c r="AH7" s="9"/>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A8" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="22"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="T8" s="9">
+        <v>0.32518019999999997</v>
+      </c>
+      <c r="U8" s="5"/>
+      <c r="V8" s="9">
+        <v>0.23416670000000001</v>
+      </c>
+      <c r="W8" s="9"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="9">
+        <v>0.18549189999999999</v>
+      </c>
+      <c r="Z8" s="9"/>
+      <c r="AA8" s="9"/>
+      <c r="AB8" s="9"/>
+      <c r="AC8" s="9"/>
+      <c r="AD8" s="9"/>
+      <c r="AE8" s="9"/>
+      <c r="AF8" s="9"/>
+      <c r="AG8" s="9"/>
+      <c r="AH8" s="9"/>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A9" s="43"/>
+      <c r="B9" s="52"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A10" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="22"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="9"/>
+      <c r="Z10" s="9"/>
+      <c r="AA10" s="9"/>
+      <c r="AB10" s="9"/>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A11" s="43"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="38"/>
+      <c r="O11" s="38"/>
+      <c r="P11" s="38"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="9"/>
+      <c r="W11" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="Z11" s="9"/>
+      <c r="AA11" s="9"/>
+      <c r="AB11" s="9"/>
+    </row>
+    <row r="12" spans="1:34" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="43"/>
+      <c r="B12" s="52"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="79" t="s">
+        <v>53</v>
+      </c>
+      <c r="V12" s="79" t="s">
+        <v>168</v>
+      </c>
+      <c r="W12" s="80" t="s">
+        <v>169</v>
+      </c>
+      <c r="X12" s="81" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y12" s="81" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z12" s="81" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA12" s="81" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB12" s="81" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC12" s="81" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD12" s="81" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE12" s="81" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF12" s="81" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG12" s="81" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A13" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="22"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="T13" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="U13" s="9">
+        <v>14671</v>
+      </c>
+      <c r="V13" s="9">
+        <v>3641</v>
+      </c>
+      <c r="W13" s="12">
+        <v>3436</v>
+      </c>
+      <c r="X13" s="12">
+        <v>2091</v>
+      </c>
+      <c r="Y13" s="12">
+        <v>2208</v>
+      </c>
+      <c r="Z13" s="9">
+        <v>2091</v>
+      </c>
+      <c r="AA13" s="9">
+        <v>2022</v>
+      </c>
+      <c r="AB13" s="9">
+        <v>2787</v>
+      </c>
+      <c r="AC13" s="12">
+        <v>2868</v>
+      </c>
+      <c r="AD13" s="12">
+        <v>2560</v>
+      </c>
+      <c r="AE13" s="12">
+        <v>2708</v>
+      </c>
+      <c r="AF13" s="12">
+        <v>2672</v>
+      </c>
+      <c r="AG13" s="12">
+        <v>2793</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A14" s="43"/>
+      <c r="B14" s="52"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="T14" s="87" t="s">
+        <v>209</v>
+      </c>
+      <c r="U14" s="9">
+        <v>524</v>
+      </c>
+      <c r="V14" s="9">
+        <v>69</v>
+      </c>
+      <c r="W14" s="12">
+        <v>111</v>
+      </c>
+      <c r="X14" s="12">
+        <v>772</v>
+      </c>
+      <c r="Y14" s="12">
+        <v>574</v>
+      </c>
+      <c r="Z14" s="9">
+        <v>557</v>
+      </c>
+      <c r="AA14" s="9">
+        <v>462</v>
+      </c>
+      <c r="AB14" s="9">
+        <v>889</v>
+      </c>
+      <c r="AC14" s="12">
+        <v>987</v>
+      </c>
+      <c r="AD14" s="9">
+        <v>938</v>
+      </c>
+      <c r="AE14" s="9">
+        <v>996</v>
+      </c>
+      <c r="AF14" s="12">
+        <v>1272</v>
+      </c>
+      <c r="AG14" s="9">
+        <v>1205</v>
+      </c>
+      <c r="AH14" s="9" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A15" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="22"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="78" t="s">
+        <v>170</v>
+      </c>
+      <c r="U15" s="9">
+        <v>0</v>
+      </c>
+      <c r="V15" s="9">
+        <v>0</v>
+      </c>
+      <c r="W15" s="12">
+        <v>0</v>
+      </c>
+      <c r="X15" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A16" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="57"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="U16" s="12">
+        <v>5843</v>
+      </c>
+      <c r="V16" s="12">
+        <v>0</v>
+      </c>
+      <c r="W16" s="12">
+        <v>0</v>
+      </c>
+      <c r="X16" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A17" s="43"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="78" t="s">
+        <v>172</v>
+      </c>
+      <c r="U17" s="12">
+        <v>9313</v>
+      </c>
+      <c r="V17" s="12">
+        <v>602</v>
+      </c>
+      <c r="W17" s="12">
+        <v>418</v>
+      </c>
+      <c r="X17" s="12">
+        <v>294</v>
+      </c>
+      <c r="Y17" s="12">
+        <v>246</v>
+      </c>
+      <c r="Z17" s="12">
+        <v>204</v>
+      </c>
+      <c r="AA17" s="12">
+        <v>152</v>
+      </c>
+      <c r="AB17" s="12">
+        <v>230</v>
+      </c>
+      <c r="AC17" s="12">
+        <v>225</v>
+      </c>
+      <c r="AD17" s="12">
+        <v>285</v>
+      </c>
+      <c r="AE17" s="12">
+        <v>183</v>
+      </c>
+      <c r="AF17" s="12">
+        <v>214</v>
+      </c>
+      <c r="AG17" s="12">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A18" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="U18" s="12">
+        <v>5843</v>
+      </c>
+      <c r="V18" s="12">
+        <v>581</v>
+      </c>
+      <c r="W18" s="12">
+        <v>397</v>
+      </c>
+      <c r="X18" s="12">
+        <v>292</v>
+      </c>
+      <c r="Y18" s="12">
+        <v>246</v>
+      </c>
+      <c r="Z18" s="12">
+        <v>204</v>
+      </c>
+      <c r="AA18" s="12">
+        <v>152</v>
+      </c>
+      <c r="AB18" s="12">
+        <v>230</v>
+      </c>
+      <c r="AC18" s="12">
+        <v>225</v>
+      </c>
+      <c r="AD18" s="12">
+        <v>285</v>
+      </c>
+      <c r="AE18" s="12">
+        <v>183</v>
+      </c>
+      <c r="AF18" s="12">
+        <v>214</v>
+      </c>
+      <c r="AG18" s="12">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A19" s="43"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="72"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="U19" s="12">
+        <v>6381</v>
+      </c>
+      <c r="V19" s="12">
+        <v>453</v>
+      </c>
+      <c r="W19" s="12">
+        <v>372</v>
+      </c>
+      <c r="X19" s="12">
+        <v>209</v>
+      </c>
+      <c r="Y19" s="12">
+        <v>212</v>
+      </c>
+      <c r="Z19" s="12">
+        <v>256</v>
+      </c>
+      <c r="AA19" s="12">
+        <v>154</v>
+      </c>
+      <c r="AB19" s="12">
+        <v>201</v>
+      </c>
+      <c r="AC19" s="12">
+        <v>161</v>
+      </c>
+      <c r="AD19" s="12">
+        <v>198</v>
+      </c>
+      <c r="AE19" s="12">
+        <v>153</v>
+      </c>
+      <c r="AF19" s="12">
+        <v>152</v>
+      </c>
+      <c r="AG19" s="12">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A20" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="U20" s="12">
+        <v>5845</v>
+      </c>
+      <c r="V20" s="12">
+        <v>0</v>
+      </c>
+      <c r="W20" s="12">
+        <v>0</v>
+      </c>
+      <c r="X20" s="12">
+        <v>4</v>
+      </c>
+      <c r="Y20" s="12">
+        <v>8</v>
+      </c>
+      <c r="Z20" s="12">
+        <v>2</v>
+      </c>
+      <c r="AA20" s="12">
+        <v>1</v>
+      </c>
+      <c r="AB20" s="12">
+        <v>3</v>
+      </c>
+      <c r="AC20" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="12">
+        <v>2</v>
+      </c>
+      <c r="AE20" s="12">
+        <v>1</v>
+      </c>
+      <c r="AF20" s="12">
+        <v>3</v>
+      </c>
+      <c r="AG20" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A21" s="43"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="71"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="S21" s="9"/>
+      <c r="T21" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="U21" s="87" t="s">
+        <v>208</v>
+      </c>
+      <c r="V21" s="87" t="s">
+        <v>208</v>
+      </c>
+      <c r="W21" s="87" t="s">
+        <v>208</v>
+      </c>
+      <c r="X21" s="87" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y21" s="87" t="s">
+        <v>208</v>
+      </c>
+      <c r="Z21" s="87" t="s">
+        <v>208</v>
+      </c>
+      <c r="AA21" s="87" t="s">
+        <v>208</v>
+      </c>
+      <c r="AB21" s="87" t="s">
+        <v>208</v>
+      </c>
+      <c r="AC21" s="87" t="s">
+        <v>208</v>
+      </c>
+      <c r="AD21" s="87" t="s">
+        <v>208</v>
+      </c>
+      <c r="AE21" s="87" t="s">
+        <v>208</v>
+      </c>
+      <c r="AF21" s="87" t="s">
+        <v>208</v>
+      </c>
+      <c r="AG21" s="87" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A22" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="39"/>
+      <c r="O22" s="39"/>
+      <c r="P22" s="39"/>
+      <c r="Q22" s="9"/>
+      <c r="S22" s="87" t="s">
+        <v>206</v>
+      </c>
+      <c r="T22" s="87" t="s">
+        <v>204</v>
+      </c>
+      <c r="U22" s="12">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A23" s="43"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="71"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="S23" s="87" t="s">
+        <v>207</v>
+      </c>
+      <c r="T23" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="U23" s="9">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A24" s="14"/>
+      <c r="F24" s="22"/>
+      <c r="S24" s="78"/>
+      <c r="T24" s="87" t="s">
+        <v>210</v>
+      </c>
+      <c r="U24" s="12">
+        <f>U22+U23</f>
+        <v>586</v>
+      </c>
+      <c r="V24" s="9">
+        <v>394</v>
+      </c>
+      <c r="W24" s="9">
+        <v>294</v>
+      </c>
+      <c r="X24" s="9">
+        <v>179</v>
+      </c>
+      <c r="Y24" s="12">
+        <v>222</v>
+      </c>
+      <c r="Z24" s="12">
+        <v>143</v>
+      </c>
+      <c r="AA24" s="12">
+        <v>101</v>
+      </c>
+      <c r="AB24" s="12">
+        <v>130</v>
+      </c>
+      <c r="AC24" s="12">
+        <v>94</v>
+      </c>
+      <c r="AD24" s="12">
+        <v>135</v>
+      </c>
+      <c r="AE24" s="12">
+        <v>101</v>
+      </c>
+      <c r="AF24" s="12">
+        <v>127</v>
+      </c>
+      <c r="AG24" s="12">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A25" s="14"/>
+      <c r="F25" s="22"/>
+      <c r="S25" s="78" t="s">
+        <v>179</v>
+      </c>
+      <c r="T25" s="78" t="s">
+        <v>177</v>
+      </c>
+      <c r="U25" s="88">
+        <v>5146</v>
+      </c>
+      <c r="V25" s="89">
+        <v>2914</v>
+      </c>
+      <c r="W25" s="89">
+        <v>2860</v>
+      </c>
+      <c r="X25" s="89">
+        <v>1449</v>
+      </c>
+      <c r="Y25" s="88">
+        <v>1768</v>
+      </c>
+      <c r="Z25" s="88">
+        <v>1730</v>
+      </c>
+      <c r="AA25" s="88">
+        <v>1302</v>
+      </c>
+      <c r="AB25" s="88">
+        <v>1591</v>
+      </c>
+      <c r="AC25" s="88">
+        <v>1623</v>
+      </c>
+      <c r="AD25" s="88">
+        <v>1033</v>
+      </c>
+      <c r="AE25" s="88">
+        <v>1348</v>
+      </c>
+      <c r="AF25" s="88">
+        <v>1053</v>
+      </c>
+      <c r="AG25" s="88">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33" ht="19" x14ac:dyDescent="0.25">
+      <c r="A26" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26" s="22"/>
+      <c r="S26" s="87"/>
+      <c r="T26" s="87"/>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A27" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="F27" s="22"/>
+      <c r="S27" s="87"/>
+      <c r="T27" s="9"/>
+      <c r="U27" s="9"/>
+      <c r="V27" s="9"/>
+      <c r="W27" s="9"/>
+      <c r="X27" s="9"/>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A28" s="50"/>
+      <c r="B28" s="52"/>
+      <c r="D28" s="71"/>
+      <c r="E28" s="71"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+      <c r="S28" s="78"/>
+      <c r="T28" s="78"/>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A29" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="F29" s="22"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="39"/>
+      <c r="K29" s="39"/>
+      <c r="L29" s="39"/>
+      <c r="M29" s="39"/>
+      <c r="N29" s="39"/>
+      <c r="O29" s="39"/>
+      <c r="P29" s="39"/>
+      <c r="T29" s="9"/>
+      <c r="U29" s="9"/>
+      <c r="V29" s="9"/>
+      <c r="W29" s="9"/>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A30" s="50"/>
+      <c r="B30" s="52"/>
+      <c r="D30" s="71"/>
+      <c r="E30" s="71"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="9"/>
+      <c r="T30" s="9"/>
+      <c r="U30" s="9"/>
+      <c r="V30" s="9"/>
+      <c r="W30" s="9"/>
+      <c r="X30" s="9"/>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A31" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="F31" s="22"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="39"/>
+      <c r="K31" s="39"/>
+      <c r="L31" s="39"/>
+      <c r="M31" s="39"/>
+      <c r="N31" s="39"/>
+      <c r="O31" s="39"/>
+      <c r="P31" s="39"/>
+      <c r="T31" s="9"/>
+      <c r="U31" s="9"/>
+      <c r="V31" s="9"/>
+      <c r="W31" s="9"/>
+      <c r="X31" s="9"/>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A32" s="50"/>
+      <c r="B32" s="52"/>
+      <c r="D32" s="71"/>
+      <c r="E32" s="71"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9"/>
+      <c r="T32" s="9"/>
+      <c r="U32" s="9"/>
+      <c r="V32" s="9"/>
+      <c r="W32" s="9"/>
+      <c r="X32" s="9"/>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A33" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="F33" s="22"/>
+      <c r="Q33" s="9"/>
+      <c r="R33" s="9"/>
+      <c r="S33" s="9"/>
+      <c r="T33" s="9"/>
+      <c r="U33" s="9"/>
+      <c r="V33" s="9"/>
+      <c r="W33" s="9"/>
+      <c r="X33" s="9"/>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A34" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F34" s="22"/>
+      <c r="Q34" s="9"/>
+      <c r="R34" s="9"/>
+      <c r="S34" s="9"/>
+      <c r="T34" s="9"/>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A35" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="57"/>
+      <c r="H35" s="40"/>
+      <c r="I35" s="40"/>
+      <c r="J35" s="40"/>
+      <c r="K35" s="40"/>
+      <c r="L35" s="40"/>
+      <c r="M35" s="40"/>
+      <c r="N35" s="40"/>
+      <c r="O35" s="40"/>
+      <c r="P35" s="40"/>
+      <c r="Q35" s="9"/>
+      <c r="R35" s="9"/>
+      <c r="S35" s="9"/>
+      <c r="T35" s="9"/>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A36" s="50"/>
+      <c r="B36" s="52"/>
+      <c r="D36" s="71"/>
+      <c r="E36" s="71"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="9"/>
+      <c r="P36" s="9"/>
+      <c r="Q36" s="9"/>
+      <c r="R36" s="9"/>
+      <c r="S36" s="9"/>
+      <c r="T36" s="9"/>
+    </row>
+    <row r="37" spans="1:24" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="57"/>
+      <c r="H37" s="40"/>
+      <c r="I37" s="40"/>
+      <c r="J37" s="40"/>
+      <c r="K37" s="40"/>
+      <c r="L37" s="40"/>
+      <c r="M37" s="40"/>
+      <c r="N37" s="40"/>
+      <c r="O37" s="40"/>
+      <c r="P37" s="40"/>
+      <c r="Q37" s="9"/>
+      <c r="R37" s="9"/>
+      <c r="S37" s="9"/>
+      <c r="T37" s="9"/>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A38" s="50"/>
+      <c r="B38" s="52"/>
+      <c r="D38" s="71"/>
+      <c r="E38" s="71"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="9"/>
+      <c r="P38" s="9"/>
+      <c r="Q38" s="9"/>
+      <c r="R38" s="9"/>
+      <c r="S38" s="9"/>
+      <c r="T38" s="9"/>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A39" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="57"/>
+      <c r="H39" s="40"/>
+      <c r="I39" s="40"/>
+      <c r="J39" s="40"/>
+      <c r="K39" s="40"/>
+      <c r="L39" s="40"/>
+      <c r="M39" s="40"/>
+      <c r="N39" s="40"/>
+      <c r="O39" s="40"/>
+      <c r="P39" s="40"/>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A40" s="50"/>
+      <c r="B40" s="52"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="71"/>
+      <c r="E40" s="71"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="9"/>
+      <c r="O40" s="9"/>
+      <c r="P40" s="9"/>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A41" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="57"/>
+      <c r="E41" s="57"/>
+      <c r="F41" s="57"/>
+      <c r="H41" s="40"/>
+      <c r="I41" s="40"/>
+      <c r="J41" s="40"/>
+      <c r="K41" s="40"/>
+      <c r="L41" s="40"/>
+      <c r="M41" s="40"/>
+      <c r="N41" s="40"/>
+      <c r="O41" s="40"/>
+      <c r="P41" s="40"/>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="I45" s="39"/>
+      <c r="J45" s="39"/>
+      <c r="K45" s="39"/>
+      <c r="L45" s="39"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="G1:P1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12938,18 +14811,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="B1" s="76" t="s">
+      <c r="B1" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
     </row>
     <row r="2" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="B2" s="13" t="s">
@@ -13286,7 +15159,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:L48"/>
   <sheetViews>
@@ -13691,7 +15564,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:T35"/>
   <sheetViews>
@@ -13713,23 +15586,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B1" s="76" t="s">
+      <c r="B1" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="F1" s="76" t="s">
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="F1" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
+      <c r="O1" s="83"/>
       <c r="R1" s="9"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
@@ -14754,7 +16627,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:BT26"/>
   <sheetViews>
@@ -14781,83 +16654,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:72" x14ac:dyDescent="0.2">
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="R1" s="78" t="s">
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="R1" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
-      <c r="W1" s="78"/>
-      <c r="X1" s="78"/>
-      <c r="Y1" s="78"/>
-      <c r="Z1" s="78"/>
-      <c r="AA1" s="78"/>
-      <c r="AB1" s="78"/>
-      <c r="AC1" s="78"/>
-      <c r="AD1" s="78"/>
-      <c r="AF1" s="78" t="s">
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
+      <c r="W1" s="86"/>
+      <c r="X1" s="86"/>
+      <c r="Y1" s="86"/>
+      <c r="Z1" s="86"/>
+      <c r="AA1" s="86"/>
+      <c r="AB1" s="86"/>
+      <c r="AC1" s="86"/>
+      <c r="AD1" s="86"/>
+      <c r="AF1" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="AG1" s="78"/>
-      <c r="AH1" s="78"/>
-      <c r="AI1" s="78"/>
-      <c r="AJ1" s="78"/>
-      <c r="AK1" s="78"/>
-      <c r="AL1" s="78"/>
-      <c r="AM1" s="78"/>
-      <c r="AN1" s="78"/>
-      <c r="AO1" s="78"/>
-      <c r="AP1" s="78"/>
-      <c r="AQ1" s="78"/>
-      <c r="AR1" s="78"/>
-      <c r="AT1" s="78" t="s">
+      <c r="AG1" s="86"/>
+      <c r="AH1" s="86"/>
+      <c r="AI1" s="86"/>
+      <c r="AJ1" s="86"/>
+      <c r="AK1" s="86"/>
+      <c r="AL1" s="86"/>
+      <c r="AM1" s="86"/>
+      <c r="AN1" s="86"/>
+      <c r="AO1" s="86"/>
+      <c r="AP1" s="86"/>
+      <c r="AQ1" s="86"/>
+      <c r="AR1" s="86"/>
+      <c r="AT1" s="86" t="s">
         <v>34</v>
       </c>
-      <c r="AU1" s="78"/>
-      <c r="AV1" s="78"/>
-      <c r="AW1" s="78"/>
-      <c r="AX1" s="78"/>
-      <c r="AY1" s="78"/>
-      <c r="AZ1" s="78"/>
-      <c r="BA1" s="78"/>
-      <c r="BB1" s="78"/>
-      <c r="BC1" s="78"/>
-      <c r="BD1" s="78"/>
-      <c r="BE1" s="78"/>
-      <c r="BF1" s="78"/>
-      <c r="BH1" s="78" t="s">
+      <c r="AU1" s="86"/>
+      <c r="AV1" s="86"/>
+      <c r="AW1" s="86"/>
+      <c r="AX1" s="86"/>
+      <c r="AY1" s="86"/>
+      <c r="AZ1" s="86"/>
+      <c r="BA1" s="86"/>
+      <c r="BB1" s="86"/>
+      <c r="BC1" s="86"/>
+      <c r="BD1" s="86"/>
+      <c r="BE1" s="86"/>
+      <c r="BF1" s="86"/>
+      <c r="BH1" s="86" t="s">
         <v>35</v>
       </c>
-      <c r="BI1" s="78"/>
-      <c r="BJ1" s="78"/>
-      <c r="BK1" s="78"/>
-      <c r="BL1" s="78"/>
-      <c r="BM1" s="78"/>
-      <c r="BN1" s="78"/>
-      <c r="BO1" s="78"/>
-      <c r="BP1" s="78"/>
-      <c r="BQ1" s="78"/>
-      <c r="BR1" s="78"/>
-      <c r="BS1" s="78"/>
-      <c r="BT1" s="78"/>
+      <c r="BI1" s="86"/>
+      <c r="BJ1" s="86"/>
+      <c r="BK1" s="86"/>
+      <c r="BL1" s="86"/>
+      <c r="BM1" s="86"/>
+      <c r="BN1" s="86"/>
+      <c r="BO1" s="86"/>
+      <c r="BP1" s="86"/>
+      <c r="BQ1" s="86"/>
+      <c r="BR1" s="86"/>
+      <c r="BS1" s="86"/>
+      <c r="BT1" s="86"/>
     </row>
     <row r="2" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>

--- a/FRS_tabs.xlsx
+++ b/FRS_tabs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bryankim/Documents/NBER/Case Deaton/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4359DE0E-040E-2A4B-B358-1BD731591C02}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E2FAC89-3B26-8F4A-9C4A-14A583805F48}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="540" windowWidth="28800" windowHeight="17240" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5040" yWindow="-21100" windowWidth="28800" windowHeight="17240" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="To Do" sheetId="16" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="213">
   <si>
     <t>FRS Average</t>
   </si>
@@ -670,22 +670,35 @@
     <t>to impute using bmi</t>
   </si>
   <si>
-    <t>don't drop because impute</t>
-  </si>
-  <si>
     <t>race (drop missing | non-African American | non-White *)</t>
   </si>
   <si>
     <t>bmi</t>
+  </si>
+  <si>
+    <t># use (after imputing):</t>
+  </si>
+  <si>
+    <t>w/out imputing</t>
+  </si>
+  <si>
+    <t>fpg_reg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -862,7 +875,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -884,6 +897,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -952,156 +971,156 @@
   </borders>
   <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="51" applyFont="1" applyAlignment="1">
@@ -1110,43 +1129,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="52">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1337,46 +1365,46 @@
                   <c:v>18.180810000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16.747975</c:v>
+                  <c:v>17.439525</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.31514</c:v>
+                  <c:v>16.698239999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.410310000000001</c:v>
+                  <c:v>16.695460000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.9619</c:v>
+                  <c:v>17.301880000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18.513490000000001</c:v>
+                  <c:v>17.908300000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14.49381</c:v>
+                  <c:v>17.468409999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14.02425</c:v>
+                  <c:v>17.328099999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13.73213</c:v>
+                  <c:v>16.971229999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13.476990000000001</c:v>
+                  <c:v>16.93206</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13.151070000000001</c:v>
+                  <c:v>16.455159999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>13.93413</c:v>
+                  <c:v>16.658899999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13.470800000000001</c:v>
+                  <c:v>16.454270000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13.803900000000001</c:v>
+                  <c:v>17.087900000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>13.51606</c:v>
+                  <c:v>17.024090000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8444,13 +8472,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:X105"/>
+  <sheetPr>
+    <tabColor theme="1"/>
+  </sheetPr>
+  <dimension ref="A1:AM105"/>
   <sheetViews>
-    <sheetView zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="94" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="U3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2:E2"/>
+      <selection pane="bottomRight" activeCell="AJ19" sqref="AJ19:AJ20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8465,28 +8496,28 @@
     <col min="17" max="16384" width="9.33203125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B1" s="23" t="s">
         <v>53</v>
       </c>
       <c r="C1" s="23"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
       <c r="F1" s="24"/>
-      <c r="G1" s="84" t="s">
+      <c r="G1" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -8531,8 +8562,10 @@
       <c r="P2" s="41" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A3" s="49" t="s">
         <v>81</v>
       </c>
@@ -8572,8 +8605,10 @@
       <c r="P3" s="37">
         <v>14.21</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A4" s="60" t="s">
         <v>89</v>
       </c>
@@ -8588,8 +8623,10 @@
       </c>
       <c r="F4" s="9"/>
       <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V4" s="9"/>
+      <c r="W4" s="9"/>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A5" s="49" t="s">
         <v>79</v>
       </c>
@@ -8611,8 +8648,10 @@
       <c r="R5" s="55" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A6" s="49" t="s">
         <v>78</v>
       </c>
@@ -8621,53 +8660,96 @@
       </c>
       <c r="C6" s="22">
         <f>(B6+D6)/2</f>
-        <v>17.017154999999999</v>
-      </c>
-      <c r="D6" s="71">
-        <v>15.65401</v>
-      </c>
-      <c r="E6" s="71">
-        <v>15.726290000000001</v>
+        <v>17.678154999999997</v>
+      </c>
+      <c r="D6" s="52">
+        <v>16.976009999999999</v>
+      </c>
+      <c r="E6" s="52">
+        <v>16.94689</v>
       </c>
       <c r="F6" s="22">
         <f>(E6+G6)/2</f>
-        <v>17.107984999999999</v>
+        <v>17.371090000000002</v>
       </c>
       <c r="G6" s="52">
-        <v>18.48968</v>
+        <v>17.795290000000001</v>
       </c>
       <c r="H6" s="52">
-        <v>14.129759999999999</v>
+        <v>16.960560000000001</v>
       </c>
       <c r="I6" s="52">
-        <v>13.81373</v>
+        <v>17.09834</v>
       </c>
       <c r="J6" s="52">
-        <v>13.508789999999999</v>
+        <v>16.695219999999999</v>
       </c>
       <c r="K6" s="52">
-        <v>13.28754</v>
+        <v>16.683949999999999</v>
       </c>
       <c r="L6" s="52">
-        <v>13.151070000000001</v>
+        <v>16.455159999999999</v>
       </c>
       <c r="M6" s="52">
-        <v>13.90686</v>
+        <v>16.6938</v>
       </c>
       <c r="N6" s="52">
-        <v>13.593579999999999</v>
+        <v>16.639669999999999</v>
       </c>
       <c r="O6" s="52">
-        <v>13.96894</v>
+        <v>17.319330000000001</v>
       </c>
       <c r="P6" s="52">
-        <v>13.883570000000001</v>
+        <v>17.440919999999998</v>
       </c>
       <c r="R6" s="53" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V6" s="9"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y6" s="82" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z6" s="82" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA6" s="82" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB6" s="82" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC6" s="82" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD6" s="82" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE6" s="82" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF6" s="82" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG6" s="82" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH6" s="82" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI6" s="82" t="s">
+        <v>44</v>
+      </c>
+      <c r="AJ6" s="82" t="s">
+        <v>31</v>
+      </c>
+      <c r="AK6" s="95"/>
+      <c r="AL6" s="95"/>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A7" s="49" t="s">
         <v>80</v>
       </c>
@@ -8686,8 +8768,53 @@
       <c r="R7" s="54" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V7" s="9"/>
+      <c r="W7" s="77" t="s">
+        <v>170</v>
+      </c>
+      <c r="X7" s="9">
+        <v>1.5160119999999999</v>
+      </c>
+      <c r="Y7" s="12">
+        <v>1.5125660000000001</v>
+      </c>
+      <c r="Z7" s="12">
+        <v>1.5125660000000001</v>
+      </c>
+      <c r="AA7" s="12">
+        <v>1.5125660000000001</v>
+      </c>
+      <c r="AB7" s="12">
+        <v>1.5125660000000001</v>
+      </c>
+      <c r="AC7" s="12">
+        <v>1.5125660000000001</v>
+      </c>
+      <c r="AD7" s="12">
+        <v>1.5125660000000001</v>
+      </c>
+      <c r="AE7" s="12">
+        <v>1.5125660000000001</v>
+      </c>
+      <c r="AF7" s="12">
+        <v>1.5125660000000001</v>
+      </c>
+      <c r="AG7" s="9">
+        <v>1.5125660000000001</v>
+      </c>
+      <c r="AH7" s="12">
+        <v>1.5125660000000001</v>
+      </c>
+      <c r="AI7" s="12">
+        <v>1.5125660000000001</v>
+      </c>
+      <c r="AJ7" s="12">
+        <v>1.5125660000000001</v>
+      </c>
+      <c r="AK7" s="93"/>
+      <c r="AL7" s="93"/>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A8" s="27" t="s">
         <v>26</v>
       </c>
@@ -8701,8 +8828,53 @@
       </c>
       <c r="S8" s="9"/>
       <c r="T8" s="9"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="91"/>
+      <c r="W8" s="77" t="s">
+        <v>171</v>
+      </c>
+      <c r="X8" s="9">
+        <v>57.173369999999998</v>
+      </c>
+      <c r="Y8" s="12">
+        <v>57.078400000000002</v>
+      </c>
+      <c r="Z8" s="12">
+        <v>57.1175</v>
+      </c>
+      <c r="AA8" s="12">
+        <v>57.085320000000003</v>
+      </c>
+      <c r="AB8" s="12">
+        <v>57.077539999999999</v>
+      </c>
+      <c r="AC8" s="12">
+        <v>57.17436</v>
+      </c>
+      <c r="AD8" s="12">
+        <v>57.120310000000003</v>
+      </c>
+      <c r="AE8" s="12">
+        <v>57.173909999999999</v>
+      </c>
+      <c r="AF8" s="12">
+        <v>57.160150000000002</v>
+      </c>
+      <c r="AG8" s="12">
+        <v>57.241149999999998</v>
+      </c>
+      <c r="AH8" s="12">
+        <v>57.233499999999999</v>
+      </c>
+      <c r="AI8" s="12">
+        <v>57.160089999999997</v>
+      </c>
+      <c r="AJ8" s="12">
+        <v>57.206870000000002</v>
+      </c>
+      <c r="AK8" s="93"/>
+      <c r="AL8" s="93"/>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A9" s="60" t="s">
         <v>90</v>
       </c>
@@ -8720,8 +8892,53 @@
       <c r="R9" s="61"/>
       <c r="S9" s="9"/>
       <c r="T9" s="9"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="77"/>
+      <c r="W9" s="77" t="s">
+        <v>172</v>
+      </c>
+      <c r="X9" s="9">
+        <v>50.181950000000001</v>
+      </c>
+      <c r="Y9" s="12">
+        <v>51.384270000000001</v>
+      </c>
+      <c r="Z9" s="12">
+        <v>50.09648</v>
+      </c>
+      <c r="AA9" s="12">
+        <v>51.518180000000001</v>
+      </c>
+      <c r="AB9" s="12">
+        <v>52.745280000000001</v>
+      </c>
+      <c r="AC9" s="12">
+        <v>54.575580000000002</v>
+      </c>
+      <c r="AD9" s="12">
+        <v>55.564630000000001</v>
+      </c>
+      <c r="AE9" s="12">
+        <v>52.769399999999997</v>
+      </c>
+      <c r="AF9" s="12">
+        <v>54.181649999999998</v>
+      </c>
+      <c r="AG9" s="12">
+        <v>53.801189999999998</v>
+      </c>
+      <c r="AH9" s="12">
+        <v>54.364649999999997</v>
+      </c>
+      <c r="AI9" s="12">
+        <v>56.431010000000001</v>
+      </c>
+      <c r="AJ9" s="12">
+        <v>53.818449999999999</v>
+      </c>
+      <c r="AK9" s="93"/>
+      <c r="AL9" s="93"/>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A10" s="42" t="s">
         <v>76</v>
       </c>
@@ -8741,8 +8958,53 @@
       <c r="S10" s="9"/>
       <c r="T10" s="9"/>
       <c r="U10" s="9"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="77"/>
+      <c r="W10" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="X10" s="9">
+        <v>233.95320000000001</v>
+      </c>
+      <c r="Y10" s="12">
+        <v>222.77680000000001</v>
+      </c>
+      <c r="Z10" s="12">
+        <v>218.6831</v>
+      </c>
+      <c r="AA10" s="12">
+        <v>216.2817</v>
+      </c>
+      <c r="AB10" s="12">
+        <v>212.49979999999999</v>
+      </c>
+      <c r="AC10" s="12">
+        <v>210.0523</v>
+      </c>
+      <c r="AD10" s="12">
+        <v>207.21</v>
+      </c>
+      <c r="AE10" s="12">
+        <v>203.64590000000001</v>
+      </c>
+      <c r="AF10" s="12">
+        <v>204.3449</v>
+      </c>
+      <c r="AG10" s="12">
+        <v>203.83789999999999</v>
+      </c>
+      <c r="AH10" s="12">
+        <v>196.11500000000001</v>
+      </c>
+      <c r="AI10" s="12">
+        <v>201.88910000000001</v>
+      </c>
+      <c r="AJ10" s="12">
+        <v>196.59989999999999</v>
+      </c>
+      <c r="AK10" s="93"/>
+      <c r="AL10" s="93"/>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A11" s="42" t="s">
         <v>75</v>
       </c>
@@ -8751,55 +9013,100 @@
       </c>
       <c r="C11" s="22">
         <f>(B11+D11)/2</f>
-        <v>16.747975</v>
+        <v>17.439525</v>
       </c>
       <c r="D11" s="71">
-        <v>15.31514</v>
-      </c>
-      <c r="E11" s="71">
-        <v>15.410310000000001</v>
+        <v>16.698239999999998</v>
+      </c>
+      <c r="E11" s="52">
+        <v>16.695460000000001</v>
       </c>
       <c r="F11" s="22">
         <f>(E11+G11)/2</f>
-        <v>16.9619</v>
+        <v>17.301880000000001</v>
       </c>
       <c r="G11" s="52">
-        <v>18.513490000000001</v>
+        <v>17.908300000000001</v>
       </c>
       <c r="H11" s="52">
-        <v>14.49381</v>
+        <v>17.468409999999999</v>
       </c>
       <c r="I11" s="52">
-        <v>14.02425</v>
+        <v>17.328099999999999</v>
       </c>
       <c r="J11" s="52">
-        <v>13.73213</v>
+        <v>16.971229999999998</v>
       </c>
       <c r="K11" s="52">
-        <v>13.476990000000001</v>
+        <v>16.93206</v>
       </c>
       <c r="L11" s="52">
-        <v>13.151070000000001</v>
+        <v>16.455159999999999</v>
       </c>
       <c r="M11" s="52">
-        <v>13.93413</v>
+        <v>16.658899999999999</v>
       </c>
       <c r="N11" s="52">
-        <v>13.470800000000001</v>
+        <v>16.454270000000001</v>
       </c>
       <c r="O11" s="52">
-        <v>13.803900000000001</v>
+        <v>17.087900000000001</v>
       </c>
       <c r="P11" s="52">
-        <v>13.51606</v>
+        <v>17.024090000000001</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="R11" s="9"/>
       <c r="S11" s="9"/>
       <c r="T11" s="9"/>
       <c r="U11" s="9"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="77"/>
+      <c r="W11" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="X11" s="12">
+        <v>136.38300000000001</v>
+      </c>
+      <c r="Y11" s="12">
+        <v>129.65129999999999</v>
+      </c>
+      <c r="Z11" s="12">
+        <v>129.9427</v>
+      </c>
+      <c r="AA11" s="12">
+        <v>129.28819999999999</v>
+      </c>
+      <c r="AB11" s="12">
+        <v>128.75219999999999</v>
+      </c>
+      <c r="AC11" s="12">
+        <v>128.4462</v>
+      </c>
+      <c r="AD11" s="12">
+        <v>126.9545</v>
+      </c>
+      <c r="AE11" s="12">
+        <v>125.19280000000001</v>
+      </c>
+      <c r="AF11" s="12">
+        <v>123.6131</v>
+      </c>
+      <c r="AG11" s="12">
+        <v>124.5737</v>
+      </c>
+      <c r="AH11" s="12">
+        <v>124.9961</v>
+      </c>
+      <c r="AI11" s="12">
+        <v>126.492</v>
+      </c>
+      <c r="AJ11" s="12">
+        <v>126.7413</v>
+      </c>
+      <c r="AK11" s="93"/>
+      <c r="AL11" s="93"/>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A12" s="42" t="s">
         <v>77</v>
       </c>
@@ -8819,8 +9126,53 @@
       <c r="S12" s="9"/>
       <c r="T12" s="9"/>
       <c r="U12" s="9"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="9"/>
+      <c r="W12" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="X12" s="12">
+        <v>0.32531300000000002</v>
+      </c>
+      <c r="Y12" s="12">
+        <v>0.2631771</v>
+      </c>
+      <c r="Z12" s="12">
+        <v>0.22350990000000001</v>
+      </c>
+      <c r="AA12" s="12">
+        <v>0.18526229999999999</v>
+      </c>
+      <c r="AB12" s="12">
+        <v>0.1833198</v>
+      </c>
+      <c r="AC12" s="12">
+        <v>0.20197280000000001</v>
+      </c>
+      <c r="AD12" s="12">
+        <v>0.19240109999999999</v>
+      </c>
+      <c r="AE12" s="12">
+        <v>0.17992130000000001</v>
+      </c>
+      <c r="AF12" s="12">
+        <v>0.15644379999999999</v>
+      </c>
+      <c r="AG12" s="12">
+        <v>0.16872480000000001</v>
+      </c>
+      <c r="AH12" s="12">
+        <v>0.16525590000000001</v>
+      </c>
+      <c r="AI12" s="12">
+        <v>0.15192620000000001</v>
+      </c>
+      <c r="AJ12" s="12">
+        <v>0.1311512</v>
+      </c>
+      <c r="AK12" s="93"/>
+      <c r="AL12" s="93"/>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A13" s="14"/>
       <c r="G13" s="9">
         <v>17.729289999999999</v>
@@ -8830,8 +9182,53 @@
       <c r="S13" s="9"/>
       <c r="T13" s="9"/>
       <c r="U13" s="9"/>
-    </row>
-    <row r="14" spans="1:21" ht="19" x14ac:dyDescent="0.25">
+      <c r="V13" s="9"/>
+      <c r="W13" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="X13" s="96">
+        <v>7.7409149999999996E-2</v>
+      </c>
+      <c r="Y13" s="12">
+        <v>0.35790129999999998</v>
+      </c>
+      <c r="Z13" s="12">
+        <v>0.37272699999999997</v>
+      </c>
+      <c r="AA13" s="12">
+        <v>0.37518109999999999</v>
+      </c>
+      <c r="AB13" s="12">
+        <v>0.34799619999999998</v>
+      </c>
+      <c r="AC13" s="12">
+        <v>0.36642409999999997</v>
+      </c>
+      <c r="AD13" s="12">
+        <v>0.3783782</v>
+      </c>
+      <c r="AE13" s="12">
+        <v>0.40791519999999998</v>
+      </c>
+      <c r="AF13" s="12">
+        <v>0.33452549999999998</v>
+      </c>
+      <c r="AG13" s="12">
+        <v>0.3564138</v>
+      </c>
+      <c r="AH13" s="12">
+        <v>0.36214560000000001</v>
+      </c>
+      <c r="AI13" s="12">
+        <v>0.4593428</v>
+      </c>
+      <c r="AJ13" s="12">
+        <v>0.4367799</v>
+      </c>
+      <c r="AK13" s="93"/>
+      <c r="AL13" s="93"/>
+    </row>
+    <row r="14" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A14" s="36" t="s">
         <v>13</v>
       </c>
@@ -8841,8 +9238,51 @@
       <c r="S14" s="9"/>
       <c r="T14" s="9"/>
       <c r="U14" s="9"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="9"/>
+      <c r="W14" s="90" t="s">
+        <v>212</v>
+      </c>
+      <c r="X14" s="12">
+        <v>97.512810000000002</v>
+      </c>
+      <c r="Y14" s="12">
+        <v>108.7567</v>
+      </c>
+      <c r="Z14" s="12">
+        <v>110.4768</v>
+      </c>
+      <c r="AA14" s="12">
+        <v>111.56780000000001</v>
+      </c>
+      <c r="AB14" s="12">
+        <v>110.95659999999999</v>
+      </c>
+      <c r="AC14" s="12">
+        <v>111.5017</v>
+      </c>
+      <c r="AD14" s="12">
+        <v>115.1493</v>
+      </c>
+      <c r="AE14" s="12">
+        <v>116.0682</v>
+      </c>
+      <c r="AF14" s="12">
+        <v>112.13639999999999</v>
+      </c>
+      <c r="AG14" s="12">
+        <v>113.0693</v>
+      </c>
+      <c r="AH14" s="12">
+        <v>113.7563</v>
+      </c>
+      <c r="AI14" s="12">
+        <v>121.1271</v>
+      </c>
+      <c r="AJ14" s="12">
+        <v>118.0381</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A15" s="46" t="s">
         <v>32</v>
       </c>
@@ -8888,8 +9328,9 @@
       <c r="S15" s="9"/>
       <c r="T15" s="9"/>
       <c r="U15" s="9"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="9"/>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A16" s="50" t="s">
         <v>112</v>
       </c>
@@ -8908,8 +9349,15 @@
       <c r="S16" s="9"/>
       <c r="T16" s="9"/>
       <c r="U16" s="9"/>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="9"/>
+      <c r="W16" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="Z16" s="9"/>
+      <c r="AA16" s="9"/>
+      <c r="AB16" s="9"/>
+    </row>
+    <row r="17" spans="1:34" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="43" t="s">
         <v>82</v>
       </c>
@@ -8932,9 +9380,47 @@
       <c r="R17" s="9"/>
       <c r="S17" s="9"/>
       <c r="T17" s="9"/>
-      <c r="U17" s="9"/>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U17" s="78" t="s">
+        <v>53</v>
+      </c>
+      <c r="V17" s="78" t="s">
+        <v>168</v>
+      </c>
+      <c r="W17" s="79" t="s">
+        <v>169</v>
+      </c>
+      <c r="X17" s="80" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y17" s="80" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z17" s="80" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA17" s="80" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB17" s="80" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC17" s="80" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD17" s="80" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE17" s="80" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF17" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG17" s="80" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A18" s="43" t="s">
         <v>86</v>
       </c>
@@ -8980,11 +9466,53 @@
       </c>
       <c r="Q18" s="9"/>
       <c r="R18" s="9"/>
-      <c r="S18" s="9"/>
-      <c r="T18" s="9"/>
-      <c r="U18" s="9"/>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="S18" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="T18" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="U18" s="9">
+        <v>8828</v>
+      </c>
+      <c r="V18" s="9">
+        <v>3641</v>
+      </c>
+      <c r="W18" s="12">
+        <v>3436</v>
+      </c>
+      <c r="X18" s="12">
+        <v>2091</v>
+      </c>
+      <c r="Y18" s="12">
+        <v>2208</v>
+      </c>
+      <c r="Z18" s="9">
+        <v>2091</v>
+      </c>
+      <c r="AA18" s="9">
+        <v>2022</v>
+      </c>
+      <c r="AB18" s="9">
+        <v>2787</v>
+      </c>
+      <c r="AC18" s="12">
+        <v>2868</v>
+      </c>
+      <c r="AD18" s="12">
+        <v>2560</v>
+      </c>
+      <c r="AE18" s="12">
+        <v>2708</v>
+      </c>
+      <c r="AF18" s="12">
+        <v>2672</v>
+      </c>
+      <c r="AG18" s="12">
+        <v>2793</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A19" s="43" t="s">
         <v>87</v>
       </c>
@@ -9005,10 +9533,51 @@
       <c r="Q19" s="9"/>
       <c r="R19" s="9"/>
       <c r="S19" s="9"/>
-      <c r="T19" s="9"/>
-      <c r="U19" s="9"/>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T19" s="77" t="s">
+        <v>170</v>
+      </c>
+      <c r="U19" s="9">
+        <v>0</v>
+      </c>
+      <c r="V19" s="9">
+        <v>0</v>
+      </c>
+      <c r="W19" s="12">
+        <v>0</v>
+      </c>
+      <c r="X19" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG19" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH19" s="9"/>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A20" s="44" t="s">
         <v>33</v>
       </c>
@@ -9052,10 +9621,50 @@
       <c r="Q20" s="9"/>
       <c r="R20" s="9"/>
       <c r="S20" s="9"/>
-      <c r="T20" s="9"/>
-      <c r="U20" s="9"/>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T20" s="77" t="s">
+        <v>171</v>
+      </c>
+      <c r="U20" s="12">
+        <v>0</v>
+      </c>
+      <c r="V20" s="12">
+        <v>0</v>
+      </c>
+      <c r="W20" s="12">
+        <v>0</v>
+      </c>
+      <c r="X20" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A21" s="50" t="s">
         <v>112</v>
       </c>
@@ -9072,10 +9681,50 @@
       <c r="Q21" s="9"/>
       <c r="R21" s="9"/>
       <c r="S21" s="9"/>
-      <c r="T21" s="9"/>
-      <c r="U21" s="9"/>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T21" s="77" t="s">
+        <v>172</v>
+      </c>
+      <c r="U21" s="12">
+        <v>3470</v>
+      </c>
+      <c r="V21" s="12">
+        <v>602</v>
+      </c>
+      <c r="W21" s="12">
+        <v>418</v>
+      </c>
+      <c r="X21" s="12">
+        <v>294</v>
+      </c>
+      <c r="Y21" s="12">
+        <v>246</v>
+      </c>
+      <c r="Z21" s="12">
+        <v>204</v>
+      </c>
+      <c r="AA21" s="12">
+        <v>152</v>
+      </c>
+      <c r="AB21" s="12">
+        <v>230</v>
+      </c>
+      <c r="AC21" s="12">
+        <v>225</v>
+      </c>
+      <c r="AD21" s="12">
+        <v>285</v>
+      </c>
+      <c r="AE21" s="12">
+        <v>183</v>
+      </c>
+      <c r="AF21" s="12">
+        <v>214</v>
+      </c>
+      <c r="AG21" s="12">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A22" s="43" t="s">
         <v>82</v>
       </c>
@@ -9097,10 +9746,50 @@
       <c r="Q22" s="9"/>
       <c r="R22" s="9"/>
       <c r="S22" s="9"/>
-      <c r="T22" s="9"/>
-      <c r="U22" s="9"/>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T22" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="U22" s="12">
+        <v>0</v>
+      </c>
+      <c r="V22" s="12">
+        <v>581</v>
+      </c>
+      <c r="W22" s="12">
+        <v>397</v>
+      </c>
+      <c r="X22" s="12">
+        <v>292</v>
+      </c>
+      <c r="Y22" s="12">
+        <v>246</v>
+      </c>
+      <c r="Z22" s="12">
+        <v>204</v>
+      </c>
+      <c r="AA22" s="12">
+        <v>152</v>
+      </c>
+      <c r="AB22" s="12">
+        <v>230</v>
+      </c>
+      <c r="AC22" s="12">
+        <v>225</v>
+      </c>
+      <c r="AD22" s="12">
+        <v>285</v>
+      </c>
+      <c r="AE22" s="12">
+        <v>183</v>
+      </c>
+      <c r="AF22" s="12">
+        <v>214</v>
+      </c>
+      <c r="AG22" s="12">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A23" s="43" t="s">
         <v>86</v>
       </c>
@@ -9147,10 +9836,50 @@
       <c r="Q23" s="9"/>
       <c r="R23" s="9"/>
       <c r="S23" s="9"/>
-      <c r="T23" s="9"/>
-      <c r="U23" s="9"/>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T23" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="U23" s="12">
+        <v>2231</v>
+      </c>
+      <c r="V23" s="12">
+        <v>453</v>
+      </c>
+      <c r="W23" s="12">
+        <v>372</v>
+      </c>
+      <c r="X23" s="12">
+        <v>209</v>
+      </c>
+      <c r="Y23" s="12">
+        <v>212</v>
+      </c>
+      <c r="Z23" s="12">
+        <v>256</v>
+      </c>
+      <c r="AA23" s="12">
+        <v>154</v>
+      </c>
+      <c r="AB23" s="12">
+        <v>201</v>
+      </c>
+      <c r="AC23" s="12">
+        <v>161</v>
+      </c>
+      <c r="AD23" s="12">
+        <v>198</v>
+      </c>
+      <c r="AE23" s="12">
+        <v>153</v>
+      </c>
+      <c r="AF23" s="12">
+        <v>152</v>
+      </c>
+      <c r="AG23" s="12">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A24" s="43" t="s">
         <v>87</v>
       </c>
@@ -9171,10 +9900,50 @@
       <c r="Q24" s="9"/>
       <c r="R24" s="9"/>
       <c r="S24" s="9"/>
-      <c r="T24" s="9"/>
-      <c r="U24" s="9"/>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T24" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="U24" s="12">
+        <v>2</v>
+      </c>
+      <c r="V24" s="12">
+        <v>0</v>
+      </c>
+      <c r="W24" s="12">
+        <v>0</v>
+      </c>
+      <c r="X24" s="12">
+        <v>4</v>
+      </c>
+      <c r="Y24" s="12">
+        <v>8</v>
+      </c>
+      <c r="Z24" s="12">
+        <v>2</v>
+      </c>
+      <c r="AA24" s="12">
+        <v>1</v>
+      </c>
+      <c r="AB24" s="12">
+        <v>3</v>
+      </c>
+      <c r="AC24" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="12">
+        <v>2</v>
+      </c>
+      <c r="AE24" s="12">
+        <v>1</v>
+      </c>
+      <c r="AF24" s="12">
+        <v>3</v>
+      </c>
+      <c r="AG24" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A25" s="44" t="s">
         <v>34</v>
       </c>
@@ -9195,10 +9964,50 @@
       <c r="Q25" s="9"/>
       <c r="R25" s="9"/>
       <c r="S25" s="9"/>
-      <c r="T25" s="9"/>
-      <c r="U25" s="9"/>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T25" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="U25" s="83">
+        <v>4339</v>
+      </c>
+      <c r="V25" s="83">
+        <v>129</v>
+      </c>
+      <c r="W25" s="83">
+        <v>50</v>
+      </c>
+      <c r="X25" s="83">
+        <v>1184</v>
+      </c>
+      <c r="Y25" s="83">
+        <v>1185</v>
+      </c>
+      <c r="Z25" s="83">
+        <v>1165</v>
+      </c>
+      <c r="AA25" s="83">
+        <v>1102</v>
+      </c>
+      <c r="AB25" s="83">
+        <v>1502</v>
+      </c>
+      <c r="AC25" s="83">
+        <v>1548</v>
+      </c>
+      <c r="AD25" s="83">
+        <v>1425</v>
+      </c>
+      <c r="AE25" s="83">
+        <v>1473</v>
+      </c>
+      <c r="AF25" s="83">
+        <v>1464</v>
+      </c>
+      <c r="AG25" s="83">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="26" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A26" s="50" t="s">
         <v>112</v>
       </c>
@@ -9224,11 +10033,17 @@
       <c r="P26" s="58"/>
       <c r="Q26" s="9"/>
       <c r="R26" s="9"/>
-      <c r="S26" s="9"/>
-      <c r="T26" s="9"/>
-      <c r="U26" s="9"/>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="S26" s="83" t="s">
+        <v>206</v>
+      </c>
+      <c r="T26" s="83" t="s">
+        <v>204</v>
+      </c>
+      <c r="U26" s="12">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="27" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A27" s="43" t="s">
         <v>82</v>
       </c>
@@ -9249,11 +10064,17 @@
       <c r="P27" s="38"/>
       <c r="Q27" s="9"/>
       <c r="R27" s="9"/>
-      <c r="S27" s="9"/>
-      <c r="T27" s="9"/>
-      <c r="U27" s="9"/>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="S27" s="83" t="s">
+        <v>207</v>
+      </c>
+      <c r="T27" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="U27" s="9">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A28" s="43" t="s">
         <v>86</v>
       </c>
@@ -9299,11 +10120,52 @@
       </c>
       <c r="Q28" s="9"/>
       <c r="R28" s="9"/>
-      <c r="S28" s="9"/>
-      <c r="T28" s="9"/>
-      <c r="U28" s="9"/>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="S28" s="77"/>
+      <c r="T28" s="83" t="s">
+        <v>209</v>
+      </c>
+      <c r="U28" s="12">
+        <f>U26+U27</f>
+        <v>254</v>
+      </c>
+      <c r="V28" s="9">
+        <v>394</v>
+      </c>
+      <c r="W28" s="9">
+        <v>294</v>
+      </c>
+      <c r="X28" s="9">
+        <v>179</v>
+      </c>
+      <c r="Y28" s="12">
+        <v>222</v>
+      </c>
+      <c r="Z28" s="12">
+        <v>143</v>
+      </c>
+      <c r="AA28" s="12">
+        <v>101</v>
+      </c>
+      <c r="AB28" s="12">
+        <v>130</v>
+      </c>
+      <c r="AC28" s="12">
+        <v>94</v>
+      </c>
+      <c r="AD28" s="12">
+        <v>135</v>
+      </c>
+      <c r="AE28" s="12">
+        <v>101</v>
+      </c>
+      <c r="AF28" s="12">
+        <v>127</v>
+      </c>
+      <c r="AG28" s="12">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="29" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A29" s="43" t="s">
         <v>87</v>
       </c>
@@ -9321,11 +10183,53 @@
       <c r="P29" s="47"/>
       <c r="Q29" s="9"/>
       <c r="R29" s="9"/>
-      <c r="S29" s="9"/>
-      <c r="T29" s="9"/>
-      <c r="U29" s="9"/>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="S29" s="90" t="s">
+        <v>210</v>
+      </c>
+      <c r="T29" s="77" t="s">
+        <v>177</v>
+      </c>
+      <c r="U29" s="84">
+        <v>5225</v>
+      </c>
+      <c r="V29" s="85">
+        <v>2968</v>
+      </c>
+      <c r="W29" s="85">
+        <v>2961</v>
+      </c>
+      <c r="X29" s="85">
+        <v>1735</v>
+      </c>
+      <c r="Y29" s="84">
+        <v>1822</v>
+      </c>
+      <c r="Z29" s="84">
+        <v>1741</v>
+      </c>
+      <c r="AA29" s="84">
+        <v>1778</v>
+      </c>
+      <c r="AB29" s="84">
+        <v>2425</v>
+      </c>
+      <c r="AC29" s="84">
+        <v>2531</v>
+      </c>
+      <c r="AD29" s="84">
+        <v>2164</v>
+      </c>
+      <c r="AE29" s="84">
+        <v>2423</v>
+      </c>
+      <c r="AF29" s="84">
+        <v>2384</v>
+      </c>
+      <c r="AG29" s="84">
+        <v>2386</v>
+      </c>
+    </row>
+    <row r="30" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A30" s="46" t="s">
         <v>35</v>
       </c>
@@ -9368,11 +10272,13 @@
       </c>
       <c r="Q30" s="9"/>
       <c r="R30" s="9"/>
-      <c r="S30" s="9"/>
-      <c r="T30" s="9"/>
-      <c r="U30" s="9"/>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="S30" s="90" t="s">
+        <v>211</v>
+      </c>
+      <c r="T30" s="83"/>
+      <c r="U30" s="90"/>
+    </row>
+    <row r="31" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A31" s="50" t="s">
         <v>112</v>
       </c>
@@ -9390,9 +10296,8 @@
       <c r="R31" s="9"/>
       <c r="S31" s="9"/>
       <c r="T31" s="9"/>
-      <c r="U31" s="9"/>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A32" s="43" t="s">
         <v>82</v>
       </c>
@@ -9416,7 +10321,7 @@
       <c r="S32" s="9"/>
       <c r="T32" s="9"/>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A33" s="43" t="s">
         <v>86</v>
       </c>
@@ -9465,7 +10370,7 @@
       <c r="S33" s="9"/>
       <c r="T33" s="9"/>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A34" s="43" t="s">
         <v>87</v>
       </c>
@@ -9484,8 +10389,9 @@
       <c r="R34" s="9"/>
       <c r="S34" s="9"/>
       <c r="T34" s="9"/>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="AM34" s="9"/>
+    </row>
+    <row r="35" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A35" s="27" t="s">
         <v>26</v>
       </c>
@@ -9495,7 +10401,7 @@
       <c r="S35" s="9"/>
       <c r="T35" s="9"/>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A36" s="49" t="s">
         <v>32</v>
       </c>
@@ -9541,7 +10447,7 @@
       <c r="S36" s="9"/>
       <c r="T36" s="9"/>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A37" s="64" t="s">
         <v>112</v>
       </c>
@@ -9560,7 +10466,7 @@
       <c r="S37" s="9"/>
       <c r="T37" s="9"/>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A38" s="43" t="s">
         <v>82</v>
       </c>
@@ -9584,7 +10490,7 @@
       <c r="S38" s="9"/>
       <c r="T38" s="9"/>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A39" s="43" t="s">
         <v>86</v>
       </c>
@@ -9640,7 +10546,7 @@
       <c r="S39" s="9"/>
       <c r="T39" s="9"/>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A40" s="51" t="s">
         <v>87</v>
       </c>
@@ -9659,7 +10565,7 @@
       <c r="S40" s="9"/>
       <c r="T40" s="9"/>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A41" s="49" t="s">
         <v>33</v>
       </c>
@@ -9705,7 +10611,7 @@
       <c r="S41" s="9"/>
       <c r="T41" s="9"/>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A42" s="64" t="s">
         <v>112</v>
       </c>
@@ -9723,7 +10629,7 @@
       <c r="S42" s="9"/>
       <c r="T42" s="9"/>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A43" s="43" t="s">
         <v>82</v>
       </c>
@@ -9747,7 +10653,7 @@
       <c r="S43" s="9"/>
       <c r="T43" s="9"/>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A44" s="43" t="s">
         <v>86</v>
       </c>
@@ -9803,7 +10709,7 @@
       <c r="S44" s="9"/>
       <c r="T44" s="9"/>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A45" s="43" t="s">
         <v>87</v>
       </c>
@@ -9827,7 +10733,7 @@
       <c r="S45" s="9"/>
       <c r="T45" s="9"/>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A46" s="49" t="s">
         <v>34</v>
       </c>
@@ -9872,7 +10778,7 @@
       <c r="S46" s="9"/>
       <c r="T46" s="9"/>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A47" s="64" t="s">
         <v>112</v>
       </c>
@@ -9887,7 +10793,7 @@
       </c>
       <c r="Q47" s="9"/>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A48" s="43" t="s">
         <v>82</v>
       </c>
@@ -11566,10 +12472,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8A3FBC7-7A01-284D-A03B-BE342E59CEBE}">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="A1:AH45"/>
   <sheetViews>
-    <sheetView topLeftCell="P4" zoomScale="106" workbookViewId="0">
-      <selection activeCell="U21" sqref="U21:AG21"/>
+    <sheetView topLeftCell="N1" zoomScale="106" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11595,23 +12504,23 @@
         <v>53</v>
       </c>
       <c r="C1" s="23"/>
-      <c r="D1" s="85" t="s">
+      <c r="D1" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="83"/>
+      <c r="E1" s="86"/>
       <c r="F1" s="24"/>
-      <c r="G1" s="84" t="s">
+      <c r="G1" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -11668,7 +12577,7 @@
       <c r="AD2" s="9"/>
     </row>
     <row r="3" spans="1:34" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="76" t="s">
         <v>165</v>
       </c>
       <c r="B3" s="71">
@@ -11731,7 +12640,7 @@
       <c r="AD3" s="9"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A4" s="77" t="s">
+      <c r="A4" s="76" t="s">
         <v>164</v>
       </c>
       <c r="B4" s="71">
@@ -12125,43 +13034,43 @@
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
       <c r="T12" s="9"/>
-      <c r="U12" s="79" t="s">
+      <c r="U12" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="V12" s="79" t="s">
+      <c r="V12" s="78" t="s">
         <v>168</v>
       </c>
-      <c r="W12" s="80" t="s">
+      <c r="W12" s="79" t="s">
         <v>169</v>
       </c>
-      <c r="X12" s="81" t="s">
+      <c r="X12" s="80" t="s">
         <v>51</v>
       </c>
-      <c r="Y12" s="81" t="s">
+      <c r="Y12" s="80" t="s">
         <v>46</v>
       </c>
-      <c r="Z12" s="81" t="s">
+      <c r="Z12" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="AA12" s="81" t="s">
+      <c r="AA12" s="80" t="s">
         <v>48</v>
       </c>
-      <c r="AB12" s="81" t="s">
+      <c r="AB12" s="80" t="s">
         <v>49</v>
       </c>
-      <c r="AC12" s="81" t="s">
+      <c r="AC12" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="AD12" s="81" t="s">
+      <c r="AD12" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="AE12" s="81" t="s">
+      <c r="AE12" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="AF12" s="81" t="s">
+      <c r="AF12" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="AG12" s="81" t="s">
+      <c r="AG12" s="80" t="s">
         <v>31</v>
       </c>
     </row>
@@ -12265,7 +13174,7 @@
       <c r="S14" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="T14" s="78" t="s">
+      <c r="T14" s="77" t="s">
         <v>170</v>
       </c>
       <c r="U14" s="9">
@@ -12317,7 +13226,7 @@
       <c r="Q15" s="9"/>
       <c r="R15" s="9"/>
       <c r="S15" s="9"/>
-      <c r="T15" s="78" t="s">
+      <c r="T15" s="77" t="s">
         <v>171</v>
       </c>
       <c r="U15" s="12">
@@ -12370,7 +13279,7 @@
       <c r="Q16" s="9"/>
       <c r="R16" s="9"/>
       <c r="S16" s="9"/>
-      <c r="T16" s="78" t="s">
+      <c r="T16" s="77" t="s">
         <v>172</v>
       </c>
       <c r="U16" s="12">
@@ -12738,49 +13647,49 @@
       <c r="P21" s="9">
         <v>12.017010000000001</v>
       </c>
-      <c r="S21" s="78" t="s">
+      <c r="S21" s="77" t="s">
         <v>179</v>
       </c>
-      <c r="T21" s="78" t="s">
+      <c r="T21" s="77" t="s">
         <v>177</v>
       </c>
-      <c r="U21" s="88">
+      <c r="U21" s="84">
         <v>5218</v>
       </c>
-      <c r="V21" s="88">
+      <c r="V21" s="84">
         <v>2981</v>
       </c>
-      <c r="W21" s="88">
+      <c r="W21" s="84">
         <v>2966</v>
       </c>
-      <c r="X21" s="88">
+      <c r="X21" s="84">
         <v>1748</v>
       </c>
-      <c r="Y21" s="88">
+      <c r="Y21" s="84">
         <v>1878</v>
       </c>
-      <c r="Z21" s="88">
+      <c r="Z21" s="84">
         <v>1762</v>
       </c>
-      <c r="AA21" s="88">
+      <c r="AA21" s="84">
         <v>1796</v>
       </c>
-      <c r="AB21" s="88">
+      <c r="AB21" s="84">
         <v>2459</v>
       </c>
-      <c r="AC21" s="88">
+      <c r="AC21" s="84">
         <v>2556</v>
       </c>
-      <c r="AD21" s="88">
+      <c r="AD21" s="84">
         <v>2190</v>
       </c>
-      <c r="AE21" s="88">
+      <c r="AE21" s="84">
         <v>2446</v>
       </c>
-      <c r="AF21" s="88">
+      <c r="AF21" s="84">
         <v>2407</v>
       </c>
-      <c r="AG21" s="88">
+      <c r="AG21" s="84">
         <v>2404</v>
       </c>
     </row>
@@ -13347,10 +14256,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{874CC2B9-CF8F-CE4D-8ECC-F01D0CB189A3}">
-  <dimension ref="A1:AH45"/>
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:AK45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P4" zoomScale="107" workbookViewId="0">
-      <selection activeCell="Z23" sqref="Z23"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="107" workbookViewId="0">
+      <selection activeCell="AI27" sqref="AI27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13371,30 +14283,30 @@
     <col min="24" max="16384" width="9.33203125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B1" s="23" t="s">
         <v>53</v>
       </c>
       <c r="C1" s="23"/>
-      <c r="D1" s="85" t="s">
+      <c r="D1" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="83"/>
+      <c r="E1" s="86"/>
       <c r="F1" s="24"/>
-      <c r="G1" s="84" t="s">
+      <c r="G1" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-    </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+    </row>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -13448,8 +14360,8 @@
       <c r="AC2" s="9"/>
       <c r="AD2" s="9"/>
     </row>
-    <row r="3" spans="1:34" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="82" t="s">
+    <row r="3" spans="1:37" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="81" t="s">
         <v>180</v>
       </c>
       <c r="B3" s="71"/>
@@ -13461,149 +14373,291 @@
       <c r="E3" s="71"/>
       <c r="F3" s="22">
         <f>(E3+G3)/2</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
+        <v>4.2061330000000003</v>
+      </c>
+      <c r="G3" s="9">
+        <v>8.4122660000000007</v>
+      </c>
+      <c r="H3" s="9">
+        <v>8.2754159999999999</v>
+      </c>
+      <c r="I3" s="9">
+        <v>8.2940690000000004</v>
+      </c>
+      <c r="J3" s="9">
+        <v>8.5329689999999996</v>
+      </c>
+      <c r="K3" s="9">
+        <v>7.8886539999999998</v>
+      </c>
+      <c r="L3" s="12">
+        <v>8.2339420000000008</v>
+      </c>
+      <c r="M3" s="12">
+        <v>8.0446639999999991</v>
+      </c>
+      <c r="N3" s="12">
+        <v>8.6482989999999997</v>
+      </c>
+      <c r="O3" s="12">
+        <v>8.4143899999999991</v>
+      </c>
+      <c r="P3" s="12">
+        <v>8.1941500000000005</v>
+      </c>
       <c r="R3" s="53" t="s">
         <v>82</v>
       </c>
       <c r="U3" s="9"/>
-      <c r="V3" s="9"/>
-      <c r="W3" s="9"/>
-      <c r="X3" s="9"/>
-      <c r="AA3" s="9"/>
-      <c r="AB3" s="9"/>
-      <c r="AC3" s="9"/>
-      <c r="AD3" s="9"/>
-    </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A4" s="82" t="s">
+      <c r="V3" s="6"/>
+      <c r="W3" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="X3" s="82" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y3" s="82" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z3" s="82" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA3" s="82" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB3" s="82" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC3" s="82" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD3" s="82" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE3" s="82" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF3" s="82" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG3" s="82" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH3" s="82" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI3" s="82" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ3" s="95"/>
+      <c r="AK3" s="95"/>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A4" s="81" t="s">
         <v>181</v>
       </c>
-      <c r="B4" s="71"/>
+      <c r="B4" s="71">
+        <v>7.9168000000000003</v>
+      </c>
       <c r="C4" s="22">
         <f>(B4+D4)/2</f>
-        <v>0</v>
-      </c>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
+        <v>8.0616960000000013</v>
+      </c>
+      <c r="D4" s="71">
+        <v>8.2065920000000006</v>
+      </c>
+      <c r="E4" s="71">
+        <v>7.845783</v>
+      </c>
       <c r="F4" s="22">
         <f>(E4+G4)/2</f>
-        <v>0</v>
-      </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
+        <v>8.1500304999999997</v>
+      </c>
+      <c r="G4" s="9">
+        <v>8.4542780000000004</v>
+      </c>
+      <c r="H4" s="9">
+        <v>8.9606709999999996</v>
+      </c>
+      <c r="I4" s="9">
+        <v>8.5346709999999995</v>
+      </c>
+      <c r="J4" s="9">
+        <v>8.9287320000000001</v>
+      </c>
+      <c r="K4" s="9">
+        <v>8.2656209999999994</v>
+      </c>
+      <c r="L4" s="9">
+        <v>8.2339420000000008</v>
+      </c>
+      <c r="M4" s="9">
+        <v>7.989789</v>
+      </c>
+      <c r="N4" s="9">
+        <v>8.3919949999999996</v>
+      </c>
+      <c r="O4" s="9">
+        <v>8.0446869999999997</v>
+      </c>
+      <c r="P4" s="9">
+        <v>7.657108</v>
+      </c>
       <c r="Q4" s="9"/>
       <c r="R4" s="9"/>
       <c r="S4" s="9"/>
       <c r="T4" s="9"/>
       <c r="U4" s="9"/>
-      <c r="V4" s="9"/>
-      <c r="W4" s="9"/>
-      <c r="X4" s="9"/>
-      <c r="AA4" s="9"/>
-      <c r="AB4" s="9"/>
-      <c r="AC4" s="9"/>
-      <c r="AD4" s="9"/>
-    </row>
-    <row r="5" spans="1:34" ht="19" x14ac:dyDescent="0.25">
+      <c r="V4" s="77" t="s">
+        <v>170</v>
+      </c>
+      <c r="W4" s="9">
+        <v>1.53037</v>
+      </c>
+      <c r="X4" s="5">
+        <v>1.5125660000000001</v>
+      </c>
+      <c r="Y4" s="12">
+        <v>1.5134369999999999</v>
+      </c>
+      <c r="Z4" s="12">
+        <v>1.501563</v>
+      </c>
+      <c r="AA4" s="12">
+        <v>1.5104679999999999</v>
+      </c>
+      <c r="AB4" s="12">
+        <v>1.513236</v>
+      </c>
+      <c r="AC4" s="12">
+        <v>1.511539</v>
+      </c>
+      <c r="AD4" s="12">
+        <v>1.508289</v>
+      </c>
+      <c r="AE4" s="12">
+        <v>1.5127699999999999</v>
+      </c>
+      <c r="AF4" s="12">
+        <v>1.512337</v>
+      </c>
+      <c r="AG4" s="12">
+        <v>1.5121960000000001</v>
+      </c>
+      <c r="AH4" s="12">
+        <v>1.518777</v>
+      </c>
+      <c r="AI4" s="12">
+        <v>1.5232650000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="36" t="s">
         <v>13</v>
       </c>
       <c r="F5" s="9"/>
       <c r="Q5" s="9"/>
       <c r="R5" s="9"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="U5" s="6"/>
-      <c r="V5" s="76" t="s">
-        <v>24</v>
-      </c>
-      <c r="W5" s="76" t="s">
-        <v>45</v>
-      </c>
-      <c r="X5" s="76"/>
-      <c r="Y5" s="76" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z5" s="76" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA5" s="76" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB5" s="76" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC5" s="76" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD5" s="76" t="s">
-        <v>30</v>
-      </c>
-      <c r="AE5" s="76" t="s">
-        <v>42</v>
-      </c>
-      <c r="AF5" s="76" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG5" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="AH5" s="76" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="S5" s="91"/>
+      <c r="T5" s="91"/>
+      <c r="U5" s="91"/>
+      <c r="V5" s="77" t="s">
+        <v>171</v>
+      </c>
+      <c r="W5" s="9">
+        <v>57.092869999999998</v>
+      </c>
+      <c r="X5" s="5">
+        <v>57.079560000000001</v>
+      </c>
+      <c r="Y5" s="12">
+        <v>57.158180000000002</v>
+      </c>
+      <c r="Z5" s="12">
+        <v>57.248489999999997</v>
+      </c>
+      <c r="AA5" s="12">
+        <v>57.283619999999999</v>
+      </c>
+      <c r="AB5" s="12">
+        <v>57.279789999999998</v>
+      </c>
+      <c r="AC5" s="12">
+        <v>57.279449999999997</v>
+      </c>
+      <c r="AD5" s="12">
+        <v>57.39987</v>
+      </c>
+      <c r="AE5" s="12">
+        <v>57.497140000000002</v>
+      </c>
+      <c r="AF5" s="12">
+        <v>57.51914</v>
+      </c>
+      <c r="AG5" s="12">
+        <v>57.487270000000002</v>
+      </c>
+      <c r="AH5" s="12">
+        <v>57.494370000000004</v>
+      </c>
+      <c r="AI5" s="12">
+        <v>57.655479999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A6" s="46" t="s">
         <v>32</v>
       </c>
       <c r="F6" s="22"/>
       <c r="Q6" s="9"/>
       <c r="R6" s="9"/>
-      <c r="S6" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="T6" s="9">
-        <v>1.515733</v>
-      </c>
+      <c r="S6" s="5"/>
+      <c r="T6" s="9"/>
       <c r="U6" s="5"/>
-      <c r="V6" s="9"/>
-      <c r="W6" s="9"/>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="9">
-        <v>1.514974</v>
-      </c>
-      <c r="Z6" s="9"/>
-      <c r="AA6" s="9"/>
-      <c r="AB6" s="9"/>
-      <c r="AC6" s="9"/>
-      <c r="AD6" s="9"/>
-      <c r="AE6" s="9"/>
-      <c r="AF6" s="9"/>
-      <c r="AG6" s="9"/>
-      <c r="AH6" s="9"/>
-    </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="V6" s="77" t="s">
+        <v>172</v>
+      </c>
+      <c r="W6" s="9">
+        <v>50.353700000000003</v>
+      </c>
+      <c r="X6" s="5">
+        <v>51.424160000000001</v>
+      </c>
+      <c r="Y6" s="12">
+        <v>50.243569999999998</v>
+      </c>
+      <c r="Z6" s="12">
+        <v>52.141919999999999</v>
+      </c>
+      <c r="AA6" s="12">
+        <v>53.217239999999997</v>
+      </c>
+      <c r="AB6" s="12">
+        <v>54.890099999999997</v>
+      </c>
+      <c r="AC6" s="12">
+        <v>55.852629999999998</v>
+      </c>
+      <c r="AD6" s="12">
+        <v>53.236609999999999</v>
+      </c>
+      <c r="AE6" s="12">
+        <v>54.645350000000001</v>
+      </c>
+      <c r="AF6" s="12">
+        <v>54.484119999999997</v>
+      </c>
+      <c r="AG6" s="12">
+        <v>54.688180000000003</v>
+      </c>
+      <c r="AH6" s="12">
+        <v>57.721380000000003</v>
+      </c>
+      <c r="AI6" s="12">
+        <v>54.543979999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A7" s="43"/>
       <c r="B7" s="52"/>
       <c r="D7" s="73"/>
@@ -13621,62 +14675,106 @@
       <c r="P7" s="9"/>
       <c r="Q7" s="9"/>
       <c r="R7" s="9"/>
-      <c r="S7" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="T7" s="9">
-        <v>50.177419999999998</v>
-      </c>
+      <c r="S7" s="5"/>
+      <c r="T7" s="9"/>
       <c r="U7" s="5"/>
-      <c r="V7" s="9"/>
-      <c r="W7" s="9"/>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="9">
-        <v>51.484479999999998</v>
-      </c>
-      <c r="Z7" s="9"/>
-      <c r="AA7" s="9"/>
-      <c r="AB7" s="9"/>
-      <c r="AC7" s="9"/>
-      <c r="AD7" s="9"/>
-      <c r="AE7" s="9"/>
-      <c r="AF7" s="9"/>
-      <c r="AG7" s="9"/>
-      <c r="AH7" s="9"/>
-    </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="V7" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="W7" s="9">
+        <v>234.43469999999999</v>
+      </c>
+      <c r="X7" s="9">
+        <v>222.9973</v>
+      </c>
+      <c r="Y7" s="12">
+        <v>218.86019999999999</v>
+      </c>
+      <c r="Z7" s="12">
+        <v>217.05340000000001</v>
+      </c>
+      <c r="AA7" s="12">
+        <v>211.94239999999999</v>
+      </c>
+      <c r="AB7" s="12">
+        <v>210.06020000000001</v>
+      </c>
+      <c r="AC7" s="12">
+        <v>206.5127</v>
+      </c>
+      <c r="AD7" s="12">
+        <v>203.1362</v>
+      </c>
+      <c r="AE7" s="12">
+        <v>204.3511</v>
+      </c>
+      <c r="AF7" s="12">
+        <v>204.0872</v>
+      </c>
+      <c r="AG7" s="12">
+        <v>195.47559999999999</v>
+      </c>
+      <c r="AH7" s="12">
+        <v>202.37270000000001</v>
+      </c>
+      <c r="AI7" s="12">
+        <v>196.23410000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A8" s="44" t="s">
         <v>33</v>
       </c>
       <c r="F8" s="22"/>
       <c r="Q8" s="9"/>
       <c r="R8" s="9"/>
-      <c r="S8" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="T8" s="9">
-        <v>0.32518019999999997</v>
-      </c>
+      <c r="S8" s="5"/>
+      <c r="T8" s="9"/>
       <c r="U8" s="5"/>
-      <c r="V8" s="9">
-        <v>0.23416670000000001</v>
-      </c>
-      <c r="W8" s="9"/>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="9">
-        <v>0.18549189999999999</v>
-      </c>
-      <c r="Z8" s="9"/>
-      <c r="AA8" s="9"/>
-      <c r="AB8" s="9"/>
-      <c r="AC8" s="9"/>
-      <c r="AD8" s="9"/>
-      <c r="AE8" s="9"/>
-      <c r="AF8" s="9"/>
-      <c r="AG8" s="9"/>
-      <c r="AH8" s="9"/>
-    </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="V8" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="W8" s="12">
+        <v>136.30590000000001</v>
+      </c>
+      <c r="X8" s="12">
+        <v>129.63550000000001</v>
+      </c>
+      <c r="Y8" s="12">
+        <v>130.03129999999999</v>
+      </c>
+      <c r="Z8" s="12">
+        <v>128.70259999999999</v>
+      </c>
+      <c r="AA8" s="12">
+        <v>128.71680000000001</v>
+      </c>
+      <c r="AB8" s="12">
+        <v>128.11850000000001</v>
+      </c>
+      <c r="AC8" s="12">
+        <v>127.05289999999999</v>
+      </c>
+      <c r="AD8" s="12">
+        <v>125.1794</v>
+      </c>
+      <c r="AE8" s="12">
+        <v>123.4157</v>
+      </c>
+      <c r="AF8" s="12">
+        <v>124.4999</v>
+      </c>
+      <c r="AG8" s="12">
+        <v>124.8627</v>
+      </c>
+      <c r="AH8" s="12">
+        <v>126.0103</v>
+      </c>
+      <c r="AI8" s="12">
+        <v>126.9683</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A9" s="43"/>
       <c r="B9" s="52"/>
       <c r="D9" s="73"/>
@@ -13697,8 +14795,50 @@
       <c r="S9" s="9"/>
       <c r="T9" s="9"/>
       <c r="U9" s="9"/>
-    </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="V9" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="W9" s="12">
+        <v>0.3277042</v>
+      </c>
+      <c r="X9" s="12">
+        <v>0.26452720000000002</v>
+      </c>
+      <c r="Y9" s="12">
+        <v>0.22384860000000001</v>
+      </c>
+      <c r="Z9" s="12">
+        <v>0.19410050000000001</v>
+      </c>
+      <c r="AA9" s="12">
+        <v>0.18154100000000001</v>
+      </c>
+      <c r="AB9" s="12">
+        <v>0.2098534</v>
+      </c>
+      <c r="AC9" s="12">
+        <v>0.19631419999999999</v>
+      </c>
+      <c r="AD9" s="12">
+        <v>0.1852299</v>
+      </c>
+      <c r="AE9" s="12">
+        <v>0.16395390000000001</v>
+      </c>
+      <c r="AF9" s="12">
+        <v>0.1733345</v>
+      </c>
+      <c r="AG9" s="12">
+        <v>0.17701230000000001</v>
+      </c>
+      <c r="AH9" s="12">
+        <v>0.15859509999999999</v>
+      </c>
+      <c r="AI9" s="12">
+        <v>0.1343433</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A10" s="44" t="s">
         <v>34</v>
       </c>
@@ -13721,12 +14861,50 @@
       <c r="S10" s="9"/>
       <c r="T10" s="9"/>
       <c r="U10" s="9"/>
-      <c r="V10" s="9"/>
-      <c r="Z10" s="9"/>
-      <c r="AA10" s="9"/>
-      <c r="AB10" s="9"/>
-    </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="V10" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="W10" s="12">
+        <v>7.6778410000000005E-2</v>
+      </c>
+      <c r="X10" s="12">
+        <v>0.3566201</v>
+      </c>
+      <c r="Y10" s="12">
+        <v>0.37473289999999998</v>
+      </c>
+      <c r="Z10" s="12">
+        <v>0.38516810000000001</v>
+      </c>
+      <c r="AA10" s="12">
+        <v>0.3589136</v>
+      </c>
+      <c r="AB10" s="12">
+        <v>0.3668669</v>
+      </c>
+      <c r="AC10" s="12">
+        <v>0.37837999999999999</v>
+      </c>
+      <c r="AD10" s="12">
+        <v>0.40695009999999998</v>
+      </c>
+      <c r="AE10" s="12">
+        <v>0.33370100000000003</v>
+      </c>
+      <c r="AF10" s="12">
+        <v>0.3567862</v>
+      </c>
+      <c r="AG10" s="12">
+        <v>0.36649929999999997</v>
+      </c>
+      <c r="AH10" s="12">
+        <v>0.46108589999999999</v>
+      </c>
+      <c r="AI10" s="12">
+        <v>0.43487290000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A11" s="43"/>
       <c r="B11" s="22"/>
       <c r="C11" s="22"/>
@@ -13747,16 +14925,51 @@
       <c r="R11" s="9"/>
       <c r="S11" s="9"/>
       <c r="T11" s="9"/>
-      <c r="U11" s="9"/>
-      <c r="V11" s="9"/>
-      <c r="W11" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="Z11" s="9"/>
-      <c r="AA11" s="9"/>
-      <c r="AB11" s="9"/>
-    </row>
-    <row r="12" spans="1:34" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="U11" s="92"/>
+      <c r="V11" s="92" t="s">
+        <v>212</v>
+      </c>
+      <c r="W11" s="92">
+        <v>97.538589999999999</v>
+      </c>
+      <c r="X11" s="93">
+        <v>108.5891</v>
+      </c>
+      <c r="Y11" s="93">
+        <v>110.4127</v>
+      </c>
+      <c r="Z11" s="12">
+        <v>112.51739999999999</v>
+      </c>
+      <c r="AA11" s="12">
+        <v>112.2492</v>
+      </c>
+      <c r="AB11" s="12">
+        <v>111.285</v>
+      </c>
+      <c r="AC11" s="12">
+        <v>115.1301</v>
+      </c>
+      <c r="AD11" s="12">
+        <v>115.56100000000001</v>
+      </c>
+      <c r="AE11" s="12">
+        <v>112.2954</v>
+      </c>
+      <c r="AF11" s="12">
+        <v>113.4054</v>
+      </c>
+      <c r="AG11" s="12">
+        <v>114.6656</v>
+      </c>
+      <c r="AH11" s="12">
+        <v>121.5304</v>
+      </c>
+      <c r="AI11" s="12">
+        <v>118.05459999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A12" s="43"/>
       <c r="B12" s="52"/>
       <c r="D12" s="71"/>
@@ -13776,100 +14989,46 @@
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
       <c r="T12" s="9"/>
-      <c r="U12" s="79" t="s">
-        <v>53</v>
-      </c>
-      <c r="V12" s="79" t="s">
-        <v>168</v>
-      </c>
-      <c r="W12" s="80" t="s">
-        <v>169</v>
-      </c>
-      <c r="X12" s="81" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y12" s="81" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z12" s="81" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA12" s="81" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB12" s="81" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC12" s="81" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD12" s="81" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE12" s="81" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF12" s="81" t="s">
-        <v>44</v>
-      </c>
-      <c r="AG12" s="81" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="U12" s="92"/>
+      <c r="V12" s="92"/>
+      <c r="W12" s="94"/>
+      <c r="X12" s="95"/>
+      <c r="Y12" s="95"/>
+      <c r="Z12" s="95"/>
+      <c r="AA12" s="95"/>
+      <c r="AB12" s="95"/>
+      <c r="AC12" s="95"/>
+      <c r="AD12" s="95"/>
+      <c r="AE12" s="95"/>
+      <c r="AF12" s="95"/>
+      <c r="AG12" s="95"/>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A13" s="46" t="s">
         <v>35</v>
       </c>
       <c r="F13" s="22"/>
       <c r="Q13" s="9"/>
       <c r="R13" s="9"/>
-      <c r="S13" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="T13" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="U13" s="9">
-        <v>14671</v>
-      </c>
-      <c r="V13" s="9">
-        <v>3641</v>
-      </c>
-      <c r="W13" s="12">
-        <v>3436</v>
-      </c>
-      <c r="X13" s="12">
-        <v>2091</v>
-      </c>
-      <c r="Y13" s="12">
-        <v>2208</v>
-      </c>
-      <c r="Z13" s="9">
-        <v>2091</v>
-      </c>
-      <c r="AA13" s="9">
-        <v>2022</v>
-      </c>
-      <c r="AB13" s="9">
-        <v>2787</v>
-      </c>
-      <c r="AC13" s="12">
-        <v>2868</v>
-      </c>
-      <c r="AD13" s="12">
-        <v>2560</v>
-      </c>
-      <c r="AE13" s="12">
-        <v>2708</v>
-      </c>
-      <c r="AF13" s="12">
-        <v>2672</v>
-      </c>
-      <c r="AG13" s="12">
-        <v>2793</v>
-      </c>
-    </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="92"/>
+      <c r="V13" s="92"/>
+      <c r="W13" s="92"/>
+      <c r="X13" s="92" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y13" s="93"/>
+      <c r="Z13" s="93"/>
+      <c r="AA13" s="92"/>
+      <c r="AB13" s="92"/>
+      <c r="AC13" s="92"/>
+      <c r="AD13" s="93"/>
+      <c r="AE13" s="93"/>
+      <c r="AF13" s="93"/>
+      <c r="AG13" s="93"/>
+    </row>
+    <row r="14" spans="1:37" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="43"/>
       <c r="B14" s="52"/>
       <c r="D14" s="71"/>
@@ -13887,56 +15046,50 @@
       <c r="P14" s="9"/>
       <c r="Q14" s="9"/>
       <c r="R14" s="9"/>
-      <c r="S14" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="T14" s="87" t="s">
-        <v>209</v>
-      </c>
-      <c r="U14" s="9">
-        <v>524</v>
-      </c>
-      <c r="V14" s="9">
-        <v>69</v>
-      </c>
-      <c r="W14" s="12">
-        <v>111</v>
-      </c>
-      <c r="X14" s="12">
-        <v>772</v>
-      </c>
-      <c r="Y14" s="12">
-        <v>574</v>
-      </c>
-      <c r="Z14" s="9">
-        <v>557</v>
-      </c>
-      <c r="AA14" s="9">
-        <v>462</v>
-      </c>
-      <c r="AB14" s="9">
-        <v>889</v>
-      </c>
-      <c r="AC14" s="12">
-        <v>987</v>
-      </c>
-      <c r="AD14" s="9">
-        <v>938</v>
-      </c>
-      <c r="AE14" s="9">
-        <v>996</v>
-      </c>
-      <c r="AF14" s="12">
-        <v>1272</v>
-      </c>
-      <c r="AG14" s="9">
-        <v>1205</v>
-      </c>
-      <c r="AH14" s="9" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="78" t="s">
+        <v>53</v>
+      </c>
+      <c r="W14" s="78" t="s">
+        <v>168</v>
+      </c>
+      <c r="X14" s="79" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y14" s="80" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z14" s="80" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA14" s="80" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB14" s="80" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC14" s="80" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD14" s="80" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE14" s="80" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF14" s="80" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG14" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH14" s="80" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A15" s="27" t="s">
         <v>26</v>
       </c>
@@ -13944,50 +15097,53 @@
       <c r="Q15" s="9"/>
       <c r="R15" s="9"/>
       <c r="S15" s="9"/>
-      <c r="T15" s="78" t="s">
-        <v>170</v>
-      </c>
-      <c r="U15" s="9">
-        <v>0</v>
+      <c r="T15" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="U15" s="9" t="s">
+        <v>167</v>
       </c>
       <c r="V15" s="9">
-        <v>0</v>
-      </c>
-      <c r="W15" s="12">
-        <v>0</v>
+        <v>8828</v>
+      </c>
+      <c r="W15" s="9">
+        <v>3641</v>
       </c>
       <c r="X15" s="12">
-        <v>0</v>
+        <v>3436</v>
       </c>
       <c r="Y15" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="9">
-        <v>0</v>
+        <v>2091</v>
+      </c>
+      <c r="Z15" s="12">
+        <v>2208</v>
       </c>
       <c r="AA15" s="9">
-        <v>0</v>
+        <v>2091</v>
       </c>
       <c r="AB15" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC15" s="12">
-        <v>0</v>
-      </c>
-      <c r="AD15" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE15" s="9">
-        <v>0</v>
+        <v>2022</v>
+      </c>
+      <c r="AC15" s="9">
+        <v>2787</v>
+      </c>
+      <c r="AD15" s="12">
+        <v>2868</v>
+      </c>
+      <c r="AE15" s="12">
+        <v>2560</v>
       </c>
       <c r="AF15" s="12">
-        <v>0</v>
-      </c>
-      <c r="AG15" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
+        <v>2708</v>
+      </c>
+      <c r="AG15" s="12">
+        <v>2672</v>
+      </c>
+      <c r="AH15" s="12">
+        <v>2793</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A16" s="49" t="s">
         <v>32</v>
       </c>
@@ -13997,50 +15153,56 @@
       <c r="Q16" s="9"/>
       <c r="R16" s="9"/>
       <c r="S16" s="9"/>
-      <c r="T16" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="U16" s="12">
-        <v>5843</v>
-      </c>
-      <c r="V16" s="12">
-        <v>0</v>
-      </c>
-      <c r="W16" s="12">
-        <v>0</v>
+      <c r="T16" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="U16" s="83" t="s">
+        <v>208</v>
+      </c>
+      <c r="V16" s="9">
+        <v>135</v>
+      </c>
+      <c r="W16" s="9">
+        <v>69</v>
       </c>
       <c r="X16" s="12">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="Y16" s="12">
-        <v>0</v>
+        <v>772</v>
       </c>
       <c r="Z16" s="12">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="12">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC16" s="12">
-        <v>0</v>
+        <v>574</v>
+      </c>
+      <c r="AA16" s="9">
+        <v>557</v>
+      </c>
+      <c r="AB16" s="9">
+        <v>462</v>
+      </c>
+      <c r="AC16" s="9">
+        <v>889</v>
       </c>
       <c r="AD16" s="12">
-        <v>0</v>
-      </c>
-      <c r="AE16" s="12">
-        <v>0</v>
-      </c>
-      <c r="AF16" s="12">
-        <v>0</v>
+        <v>987</v>
+      </c>
+      <c r="AE16" s="9">
+        <v>938</v>
+      </c>
+      <c r="AF16" s="9">
+        <v>996</v>
       </c>
       <c r="AG16" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.2">
+        <v>1272</v>
+      </c>
+      <c r="AH16" s="9">
+        <v>1205</v>
+      </c>
+      <c r="AI16" s="9" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A17" s="43"/>
       <c r="B17" s="52"/>
       <c r="C17" s="22"/>
@@ -14060,50 +15222,51 @@
       <c r="Q17" s="9"/>
       <c r="R17" s="9"/>
       <c r="S17" s="9"/>
-      <c r="T17" s="78" t="s">
-        <v>172</v>
-      </c>
-      <c r="U17" s="12">
-        <v>9313</v>
-      </c>
-      <c r="V17" s="12">
-        <v>602</v>
-      </c>
-      <c r="W17" s="12">
-        <v>418</v>
+      <c r="T17" s="9"/>
+      <c r="U17" s="77" t="s">
+        <v>170</v>
+      </c>
+      <c r="V17" s="9">
+        <v>0</v>
+      </c>
+      <c r="W17" s="9">
+        <v>0</v>
       </c>
       <c r="X17" s="12">
-        <v>294</v>
+        <v>0</v>
       </c>
       <c r="Y17" s="12">
-        <v>246</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="12">
-        <v>204</v>
-      </c>
-      <c r="AA17" s="12">
-        <v>152</v>
-      </c>
-      <c r="AB17" s="12">
-        <v>230</v>
-      </c>
-      <c r="AC17" s="12">
-        <v>225</v>
+        <v>0</v>
+      </c>
+      <c r="AA17" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="9">
+        <v>0</v>
       </c>
       <c r="AD17" s="12">
-        <v>285</v>
-      </c>
-      <c r="AE17" s="12">
-        <v>183</v>
-      </c>
-      <c r="AF17" s="12">
-        <v>214</v>
+        <v>0</v>
+      </c>
+      <c r="AE17" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="9">
+        <v>0</v>
       </c>
       <c r="AG17" s="12">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AH17" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A18" s="49" t="s">
         <v>33</v>
       </c>
@@ -14112,50 +15275,51 @@
       <c r="Q18" s="9"/>
       <c r="R18" s="9"/>
       <c r="S18" s="9"/>
-      <c r="T18" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="U18" s="12">
-        <v>5843</v>
+      <c r="T18" s="9"/>
+      <c r="U18" s="77" t="s">
+        <v>171</v>
       </c>
       <c r="V18" s="12">
-        <v>581</v>
+        <v>0</v>
       </c>
       <c r="W18" s="12">
-        <v>397</v>
+        <v>0</v>
       </c>
       <c r="X18" s="12">
-        <v>292</v>
+        <v>0</v>
       </c>
       <c r="Y18" s="12">
-        <v>246</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="12">
-        <v>204</v>
+        <v>0</v>
       </c>
       <c r="AA18" s="12">
-        <v>152</v>
+        <v>0</v>
       </c>
       <c r="AB18" s="12">
-        <v>230</v>
+        <v>0</v>
       </c>
       <c r="AC18" s="12">
-        <v>225</v>
+        <v>0</v>
       </c>
       <c r="AD18" s="12">
-        <v>285</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="12">
-        <v>183</v>
+        <v>0</v>
       </c>
       <c r="AF18" s="12">
-        <v>214</v>
+        <v>0</v>
       </c>
       <c r="AG18" s="12">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A19" s="43"/>
       <c r="B19" s="52"/>
       <c r="C19" s="22"/>
@@ -14175,50 +15339,51 @@
       <c r="Q19" s="9"/>
       <c r="R19" s="9"/>
       <c r="S19" s="9"/>
-      <c r="T19" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="U19" s="12">
-        <v>6381</v>
+      <c r="T19" s="9"/>
+      <c r="U19" s="77" t="s">
+        <v>172</v>
       </c>
       <c r="V19" s="12">
-        <v>453</v>
+        <v>3470</v>
       </c>
       <c r="W19" s="12">
-        <v>372</v>
+        <v>602</v>
       </c>
       <c r="X19" s="12">
-        <v>209</v>
+        <v>418</v>
       </c>
       <c r="Y19" s="12">
-        <v>212</v>
+        <v>294</v>
       </c>
       <c r="Z19" s="12">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="AA19" s="12">
-        <v>154</v>
+        <v>204</v>
       </c>
       <c r="AB19" s="12">
-        <v>201</v>
+        <v>152</v>
       </c>
       <c r="AC19" s="12">
-        <v>161</v>
+        <v>230</v>
       </c>
       <c r="AD19" s="12">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="AE19" s="12">
-        <v>153</v>
+        <v>285</v>
       </c>
       <c r="AF19" s="12">
-        <v>152</v>
+        <v>183</v>
       </c>
       <c r="AG19" s="12">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.2">
+        <v>214</v>
+      </c>
+      <c r="AH19" s="12">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A20" s="49" t="s">
         <v>34</v>
       </c>
@@ -14227,50 +15392,51 @@
       <c r="Q20" s="9"/>
       <c r="R20" s="9"/>
       <c r="S20" s="9"/>
-      <c r="T20" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="U20" s="12">
-        <v>5845</v>
+      <c r="T20" s="9"/>
+      <c r="U20" s="9" t="s">
+        <v>183</v>
       </c>
       <c r="V20" s="12">
         <v>0</v>
       </c>
       <c r="W20" s="12">
-        <v>0</v>
+        <v>581</v>
       </c>
       <c r="X20" s="12">
-        <v>4</v>
+        <v>397</v>
       </c>
       <c r="Y20" s="12">
-        <v>8</v>
+        <v>292</v>
       </c>
       <c r="Z20" s="12">
-        <v>2</v>
+        <v>246</v>
       </c>
       <c r="AA20" s="12">
-        <v>1</v>
+        <v>204</v>
       </c>
       <c r="AB20" s="12">
-        <v>3</v>
+        <v>152</v>
       </c>
       <c r="AC20" s="12">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="AD20" s="12">
-        <v>2</v>
+        <v>225</v>
       </c>
       <c r="AE20" s="12">
-        <v>1</v>
+        <v>285</v>
       </c>
       <c r="AF20" s="12">
-        <v>3</v>
+        <v>183</v>
       </c>
       <c r="AG20" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.2">
+        <v>214</v>
+      </c>
+      <c r="AH20" s="12">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A21" s="43"/>
       <c r="B21" s="52"/>
       <c r="C21" s="22"/>
@@ -14288,50 +15454,51 @@
       <c r="O21" s="9"/>
       <c r="P21" s="9"/>
       <c r="S21" s="9"/>
-      <c r="T21" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="U21" s="87" t="s">
-        <v>208</v>
-      </c>
-      <c r="V21" s="87" t="s">
-        <v>208</v>
-      </c>
-      <c r="W21" s="87" t="s">
-        <v>208</v>
-      </c>
-      <c r="X21" s="87" t="s">
-        <v>208</v>
-      </c>
-      <c r="Y21" s="87" t="s">
-        <v>208</v>
-      </c>
-      <c r="Z21" s="87" t="s">
-        <v>208</v>
-      </c>
-      <c r="AA21" s="87" t="s">
-        <v>208</v>
-      </c>
-      <c r="AB21" s="87" t="s">
-        <v>208</v>
-      </c>
-      <c r="AC21" s="87" t="s">
-        <v>208</v>
-      </c>
-      <c r="AD21" s="87" t="s">
-        <v>208</v>
-      </c>
-      <c r="AE21" s="87" t="s">
-        <v>208</v>
-      </c>
-      <c r="AF21" s="87" t="s">
-        <v>208</v>
-      </c>
-      <c r="AG21" s="87" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="T21" s="9"/>
+      <c r="U21" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="V21" s="12">
+        <v>2231</v>
+      </c>
+      <c r="W21" s="12">
+        <v>453</v>
+      </c>
+      <c r="X21" s="12">
+        <v>372</v>
+      </c>
+      <c r="Y21" s="12">
+        <v>209</v>
+      </c>
+      <c r="Z21" s="12">
+        <v>212</v>
+      </c>
+      <c r="AA21" s="12">
+        <v>256</v>
+      </c>
+      <c r="AB21" s="12">
+        <v>154</v>
+      </c>
+      <c r="AC21" s="12">
+        <v>201</v>
+      </c>
+      <c r="AD21" s="12">
+        <v>161</v>
+      </c>
+      <c r="AE21" s="12">
+        <v>198</v>
+      </c>
+      <c r="AF21" s="12">
+        <v>153</v>
+      </c>
+      <c r="AG21" s="12">
+        <v>152</v>
+      </c>
+      <c r="AH21" s="12">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A22" s="49" t="s">
         <v>35</v>
       </c>
@@ -14348,17 +15515,52 @@
       <c r="O22" s="39"/>
       <c r="P22" s="39"/>
       <c r="Q22" s="9"/>
-      <c r="S22" s="87" t="s">
-        <v>206</v>
-      </c>
-      <c r="T22" s="87" t="s">
-        <v>204</v>
-      </c>
-      <c r="U22" s="12">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="S22" s="83"/>
+      <c r="T22" s="9"/>
+      <c r="U22" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="V22" s="12">
+        <v>2</v>
+      </c>
+      <c r="W22" s="12">
+        <v>0</v>
+      </c>
+      <c r="X22" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="12">
+        <v>4</v>
+      </c>
+      <c r="Z22" s="12">
+        <v>8</v>
+      </c>
+      <c r="AA22" s="12">
+        <v>2</v>
+      </c>
+      <c r="AB22" s="12">
+        <v>1</v>
+      </c>
+      <c r="AC22" s="12">
+        <v>3</v>
+      </c>
+      <c r="AD22" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="12">
+        <v>2</v>
+      </c>
+      <c r="AF22" s="12">
+        <v>1</v>
+      </c>
+      <c r="AG22" s="12">
+        <v>3</v>
+      </c>
+      <c r="AH22" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A23" s="43"/>
       <c r="B23" s="52"/>
       <c r="C23" s="22"/>
@@ -14375,134 +15577,183 @@
       <c r="N23" s="9"/>
       <c r="O23" s="9"/>
       <c r="P23" s="9"/>
-      <c r="S23" s="87" t="s">
-        <v>207</v>
-      </c>
-      <c r="T23" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="U23" s="9">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="S23" s="83"/>
+      <c r="T23" s="9"/>
+      <c r="U23" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="V23" s="83">
+        <v>4339</v>
+      </c>
+      <c r="W23" s="83">
+        <v>129</v>
+      </c>
+      <c r="X23" s="83">
+        <v>50</v>
+      </c>
+      <c r="Y23" s="83">
+        <v>1184</v>
+      </c>
+      <c r="Z23" s="83">
+        <v>1185</v>
+      </c>
+      <c r="AA23" s="83">
+        <v>1165</v>
+      </c>
+      <c r="AB23" s="83">
+        <v>1102</v>
+      </c>
+      <c r="AC23" s="83">
+        <v>1502</v>
+      </c>
+      <c r="AD23" s="83">
+        <v>1548</v>
+      </c>
+      <c r="AE23" s="83">
+        <v>1425</v>
+      </c>
+      <c r="AF23" s="83">
+        <v>1473</v>
+      </c>
+      <c r="AG23" s="83">
+        <v>1464</v>
+      </c>
+      <c r="AH23" s="83">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A24" s="14"/>
       <c r="F24" s="22"/>
-      <c r="S24" s="78"/>
-      <c r="T24" s="87" t="s">
-        <v>210</v>
-      </c>
-      <c r="U24" s="12">
-        <f>U22+U23</f>
-        <v>586</v>
-      </c>
-      <c r="V24" s="9">
-        <v>394</v>
-      </c>
-      <c r="W24" s="9">
-        <v>294</v>
-      </c>
-      <c r="X24" s="9">
-        <v>179</v>
-      </c>
-      <c r="Y24" s="12">
-        <v>222</v>
-      </c>
-      <c r="Z24" s="12">
-        <v>143</v>
-      </c>
-      <c r="AA24" s="12">
-        <v>101</v>
-      </c>
-      <c r="AB24" s="12">
-        <v>130</v>
-      </c>
-      <c r="AC24" s="12">
-        <v>94</v>
-      </c>
-      <c r="AD24" s="12">
-        <v>135</v>
-      </c>
-      <c r="AE24" s="12">
-        <v>101</v>
-      </c>
-      <c r="AF24" s="12">
-        <v>127</v>
-      </c>
-      <c r="AG24" s="12">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="S24" s="77"/>
+      <c r="T24" s="83" t="s">
+        <v>206</v>
+      </c>
+      <c r="U24" s="83" t="s">
+        <v>204</v>
+      </c>
+      <c r="V24" s="12">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A25" s="14"/>
       <c r="F25" s="22"/>
-      <c r="S25" s="78" t="s">
-        <v>179</v>
-      </c>
-      <c r="T25" s="78" t="s">
-        <v>177</v>
-      </c>
-      <c r="U25" s="88">
-        <v>5146</v>
-      </c>
-      <c r="V25" s="89">
-        <v>2914</v>
-      </c>
-      <c r="W25" s="89">
-        <v>2860</v>
-      </c>
-      <c r="X25" s="89">
-        <v>1449</v>
-      </c>
-      <c r="Y25" s="88">
-        <v>1768</v>
-      </c>
-      <c r="Z25" s="88">
-        <v>1730</v>
-      </c>
-      <c r="AA25" s="88">
-        <v>1302</v>
-      </c>
-      <c r="AB25" s="88">
-        <v>1591</v>
-      </c>
-      <c r="AC25" s="88">
-        <v>1623</v>
-      </c>
-      <c r="AD25" s="88">
-        <v>1033</v>
-      </c>
-      <c r="AE25" s="88">
-        <v>1348</v>
-      </c>
-      <c r="AF25" s="88">
-        <v>1053</v>
-      </c>
-      <c r="AG25" s="88">
-        <v>1102</v>
-      </c>
-    </row>
-    <row r="26" spans="1:33" ht="19" x14ac:dyDescent="0.25">
+      <c r="S25" s="90"/>
+      <c r="T25" s="83" t="s">
+        <v>207</v>
+      </c>
+      <c r="U25" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="V25" s="9">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:34" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="36" t="s">
         <v>18</v>
       </c>
       <c r="F26" s="22"/>
-      <c r="S26" s="87"/>
-      <c r="T26" s="87"/>
-    </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="S26" s="90"/>
+      <c r="T26" s="77"/>
+      <c r="U26" s="83" t="s">
+        <v>209</v>
+      </c>
+      <c r="V26" s="12">
+        <f>V24+V25</f>
+        <v>254</v>
+      </c>
+      <c r="W26" s="9">
+        <v>394</v>
+      </c>
+      <c r="X26" s="9">
+        <v>294</v>
+      </c>
+      <c r="Y26" s="9">
+        <v>179</v>
+      </c>
+      <c r="Z26" s="12">
+        <v>222</v>
+      </c>
+      <c r="AA26" s="12">
+        <v>143</v>
+      </c>
+      <c r="AB26" s="12">
+        <v>101</v>
+      </c>
+      <c r="AC26" s="12">
+        <v>130</v>
+      </c>
+      <c r="AD26" s="12">
+        <v>94</v>
+      </c>
+      <c r="AE26" s="12">
+        <v>135</v>
+      </c>
+      <c r="AF26" s="12">
+        <v>101</v>
+      </c>
+      <c r="AG26" s="12">
+        <v>127</v>
+      </c>
+      <c r="AH26" s="12">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="27" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A27" s="44" t="s">
         <v>83</v>
       </c>
       <c r="F27" s="22"/>
-      <c r="S27" s="87"/>
-      <c r="T27" s="9"/>
-      <c r="U27" s="9"/>
-      <c r="V27" s="9"/>
-      <c r="W27" s="9"/>
-      <c r="X27" s="9"/>
-    </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="S27" s="83"/>
+      <c r="T27" s="90" t="s">
+        <v>210</v>
+      </c>
+      <c r="U27" s="77" t="s">
+        <v>177</v>
+      </c>
+      <c r="V27" s="84">
+        <v>5146</v>
+      </c>
+      <c r="W27" s="85">
+        <v>2914</v>
+      </c>
+      <c r="X27" s="85">
+        <v>2860</v>
+      </c>
+      <c r="Y27" s="85">
+        <v>1449</v>
+      </c>
+      <c r="Z27" s="84">
+        <v>1768</v>
+      </c>
+      <c r="AA27" s="84">
+        <v>1730</v>
+      </c>
+      <c r="AB27" s="84">
+        <v>1302</v>
+      </c>
+      <c r="AC27" s="84">
+        <v>1591</v>
+      </c>
+      <c r="AD27" s="84">
+        <v>1623</v>
+      </c>
+      <c r="AE27" s="84">
+        <v>1033</v>
+      </c>
+      <c r="AF27" s="84">
+        <v>1348</v>
+      </c>
+      <c r="AG27" s="84">
+        <v>1053</v>
+      </c>
+      <c r="AH27" s="84">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="28" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A28" s="50"/>
       <c r="B28" s="52"/>
       <c r="D28" s="71"/>
@@ -14518,10 +15769,16 @@
       <c r="N28" s="9"/>
       <c r="O28" s="9"/>
       <c r="P28" s="9"/>
-      <c r="S28" s="78"/>
-      <c r="T28" s="78"/>
-    </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="S28" s="77"/>
+      <c r="T28" s="90" t="s">
+        <v>211</v>
+      </c>
+      <c r="U28" s="83"/>
+      <c r="V28" s="90">
+        <v>1841</v>
+      </c>
+    </row>
+    <row r="29" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A29" s="44" t="s">
         <v>84</v>
       </c>
@@ -14541,7 +15798,7 @@
       <c r="V29" s="9"/>
       <c r="W29" s="9"/>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A30" s="50"/>
       <c r="B30" s="52"/>
       <c r="D30" s="71"/>
@@ -14563,7 +15820,7 @@
       <c r="W30" s="9"/>
       <c r="X30" s="9"/>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A31" s="44" t="s">
         <v>85</v>
       </c>
@@ -14584,7 +15841,7 @@
       <c r="W31" s="9"/>
       <c r="X31" s="9"/>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A32" s="50"/>
       <c r="B32" s="52"/>
       <c r="D32" s="71"/>
@@ -14629,6 +15886,7 @@
       <c r="R34" s="9"/>
       <c r="S34" s="9"/>
       <c r="T34" s="9"/>
+      <c r="U34" s="9"/>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A35" s="44" t="s">
@@ -14650,6 +15908,7 @@
       <c r="R35" s="9"/>
       <c r="S35" s="9"/>
       <c r="T35" s="9"/>
+      <c r="U35" s="9"/>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A36" s="50"/>
@@ -14671,6 +15930,7 @@
       <c r="R36" s="9"/>
       <c r="S36" s="9"/>
       <c r="T36" s="9"/>
+      <c r="U36" s="9"/>
     </row>
     <row r="37" spans="1:24" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="44" t="s">
@@ -14692,6 +15952,7 @@
       <c r="R37" s="9"/>
       <c r="S37" s="9"/>
       <c r="T37" s="9"/>
+      <c r="U37" s="9"/>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A38" s="50"/>
@@ -14713,6 +15974,7 @@
       <c r="R38" s="9"/>
       <c r="S38" s="9"/>
       <c r="T38" s="9"/>
+      <c r="U38" s="9"/>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A39" s="44" t="s">
@@ -14730,6 +15992,7 @@
       <c r="N39" s="40"/>
       <c r="O39" s="40"/>
       <c r="P39" s="40"/>
+      <c r="U39" s="9"/>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A40" s="50"/>
@@ -14748,6 +16011,7 @@
       <c r="N40" s="9"/>
       <c r="O40" s="9"/>
       <c r="P40" s="9"/>
+      <c r="U40" s="9"/>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A41" s="45" t="s">
@@ -14767,6 +16031,7 @@
       <c r="N41" s="40"/>
       <c r="O41" s="40"/>
       <c r="P41" s="40"/>
+      <c r="U41" s="9"/>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B42" s="22"/>
@@ -14774,6 +16039,7 @@
       <c r="D42" s="22"/>
       <c r="E42" s="22"/>
       <c r="F42" s="22"/>
+      <c r="U42" s="9"/>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B43" s="22"/>
@@ -14781,6 +16047,7 @@
       <c r="D43" s="22"/>
       <c r="E43" s="22"/>
       <c r="F43" s="22"/>
+      <c r="U43" s="9"/>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.2">
       <c r="I45" s="39"/>
@@ -14811,18 +16078,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="B1" s="83" t="s">
+      <c r="B1" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
     </row>
     <row r="2" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="B2" s="13" t="s">
@@ -15586,23 +16853,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B1" s="83" t="s">
+      <c r="B1" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="F1" s="83" t="s">
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="F1" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="83"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
       <c r="R1" s="9"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
@@ -16654,83 +17921,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:72" x14ac:dyDescent="0.2">
-      <c r="B1" s="86" t="s">
+      <c r="B1" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="R1" s="86" t="s">
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="R1" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="S1" s="86"/>
-      <c r="T1" s="86"/>
-      <c r="U1" s="86"/>
-      <c r="V1" s="86"/>
-      <c r="W1" s="86"/>
-      <c r="X1" s="86"/>
-      <c r="Y1" s="86"/>
-      <c r="Z1" s="86"/>
-      <c r="AA1" s="86"/>
-      <c r="AB1" s="86"/>
-      <c r="AC1" s="86"/>
-      <c r="AD1" s="86"/>
-      <c r="AF1" s="86" t="s">
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
+      <c r="W1" s="89"/>
+      <c r="X1" s="89"/>
+      <c r="Y1" s="89"/>
+      <c r="Z1" s="89"/>
+      <c r="AA1" s="89"/>
+      <c r="AB1" s="89"/>
+      <c r="AC1" s="89"/>
+      <c r="AD1" s="89"/>
+      <c r="AF1" s="89" t="s">
         <v>33</v>
       </c>
-      <c r="AG1" s="86"/>
-      <c r="AH1" s="86"/>
-      <c r="AI1" s="86"/>
-      <c r="AJ1" s="86"/>
-      <c r="AK1" s="86"/>
-      <c r="AL1" s="86"/>
-      <c r="AM1" s="86"/>
-      <c r="AN1" s="86"/>
-      <c r="AO1" s="86"/>
-      <c r="AP1" s="86"/>
-      <c r="AQ1" s="86"/>
-      <c r="AR1" s="86"/>
-      <c r="AT1" s="86" t="s">
+      <c r="AG1" s="89"/>
+      <c r="AH1" s="89"/>
+      <c r="AI1" s="89"/>
+      <c r="AJ1" s="89"/>
+      <c r="AK1" s="89"/>
+      <c r="AL1" s="89"/>
+      <c r="AM1" s="89"/>
+      <c r="AN1" s="89"/>
+      <c r="AO1" s="89"/>
+      <c r="AP1" s="89"/>
+      <c r="AQ1" s="89"/>
+      <c r="AR1" s="89"/>
+      <c r="AT1" s="89" t="s">
         <v>34</v>
       </c>
-      <c r="AU1" s="86"/>
-      <c r="AV1" s="86"/>
-      <c r="AW1" s="86"/>
-      <c r="AX1" s="86"/>
-      <c r="AY1" s="86"/>
-      <c r="AZ1" s="86"/>
-      <c r="BA1" s="86"/>
-      <c r="BB1" s="86"/>
-      <c r="BC1" s="86"/>
-      <c r="BD1" s="86"/>
-      <c r="BE1" s="86"/>
-      <c r="BF1" s="86"/>
-      <c r="BH1" s="86" t="s">
+      <c r="AU1" s="89"/>
+      <c r="AV1" s="89"/>
+      <c r="AW1" s="89"/>
+      <c r="AX1" s="89"/>
+      <c r="AY1" s="89"/>
+      <c r="AZ1" s="89"/>
+      <c r="BA1" s="89"/>
+      <c r="BB1" s="89"/>
+      <c r="BC1" s="89"/>
+      <c r="BD1" s="89"/>
+      <c r="BE1" s="89"/>
+      <c r="BF1" s="89"/>
+      <c r="BH1" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="BI1" s="86"/>
-      <c r="BJ1" s="86"/>
-      <c r="BK1" s="86"/>
-      <c r="BL1" s="86"/>
-      <c r="BM1" s="86"/>
-      <c r="BN1" s="86"/>
-      <c r="BO1" s="86"/>
-      <c r="BP1" s="86"/>
-      <c r="BQ1" s="86"/>
-      <c r="BR1" s="86"/>
-      <c r="BS1" s="86"/>
-      <c r="BT1" s="86"/>
+      <c r="BI1" s="89"/>
+      <c r="BJ1" s="89"/>
+      <c r="BK1" s="89"/>
+      <c r="BL1" s="89"/>
+      <c r="BM1" s="89"/>
+      <c r="BN1" s="89"/>
+      <c r="BO1" s="89"/>
+      <c r="BP1" s="89"/>
+      <c r="BQ1" s="89"/>
+      <c r="BR1" s="89"/>
+      <c r="BS1" s="89"/>
+      <c r="BT1" s="89"/>
     </row>
     <row r="2" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
